--- a/对比/性能对比.xlsx
+++ b/对比/性能对比.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\对比\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\doc\毕设新\bishe\对比\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="601" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="153">
   <si>
     <t>算法</t>
   </si>
@@ -474,14 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>算法所需</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -499,10 +491,6 @@
   </si>
   <si>
     <t>T5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH ARCHI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -621,6 +609,66 @@
     <t>互连：48x32-80x32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>RCPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与RCPA对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法算子统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本文统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCPA统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与本文的对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyptoraptor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法算子统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与Cyptoraptor对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyptoraptor统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目架构统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与项目架构对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -632,7 +680,7 @@
     <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,8 +741,17 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,8 +776,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -863,6 +950,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -870,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -969,6 +1093,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -986,15 +1119,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1020,9 +1144,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,6 +1158,32 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1321,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1520,7 +1667,7 @@
     </row>
     <row r="13" spans="5:12" x14ac:dyDescent="0.15">
       <c r="G13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I13" s="13">
         <f>L6-L15</f>
@@ -1593,7 +1740,7 @@
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.15">
       <c r="G24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H24" s="13">
         <f>H21+8000</f>
@@ -1671,7 +1818,7 @@
     </row>
     <row r="39" spans="1:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="57" t="s">
@@ -1701,14 +1848,14 @@
       </c>
       <c r="P40" s="63"/>
       <c r="Q40" s="64"/>
-      <c r="R40" s="54" t="s">
+      <c r="R40" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="S40" s="55"/>
-      <c r="T40" s="56"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="50"/>
     </row>
     <row r="41" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
       <c r="D41" s="20" t="s">
@@ -1732,24 +1879,24 @@
       <c r="K41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L41" s="54">
+      <c r="L41" s="48">
         <v>65</v>
       </c>
-      <c r="M41" s="55"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="54">
+      <c r="M41" s="49"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="48">
         <v>65</v>
       </c>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="54">
+      <c r="P41" s="49"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="48">
         <v>45</v>
       </c>
-      <c r="S41" s="55"/>
-      <c r="T41" s="56"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="50"/>
     </row>
     <row r="42" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="54" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1779,26 +1926,26 @@
       <c r="K42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L42" s="54">
+      <c r="L42" s="48">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="55"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="54">
+      <c r="M42" s="49"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="48">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="54">
+      <c r="P42" s="49"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="48">
         <v>1</v>
       </c>
-      <c r="S42" s="55"/>
-      <c r="T42" s="56"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="50"/>
     </row>
     <row r="43" spans="1:30" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
@@ -1868,7 +2015,7 @@
       </c>
     </row>
     <row r="44" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="2" t="s">
         <v>22</v>
       </c>
@@ -1967,7 +2114,7 @@
       </c>
     </row>
     <row r="45" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="52"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="2" t="s">
         <v>21</v>
       </c>
@@ -2066,7 +2213,7 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="52"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -2165,7 +2312,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
@@ -2264,7 +2411,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
@@ -2363,7 +2510,7 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="52"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
@@ -2462,7 +2609,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="52"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
@@ -2547,7 +2694,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
@@ -2632,7 +2779,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
@@ -2684,7 +2831,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="52"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
@@ -2709,7 +2856,7 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="2" t="s">
         <v>18</v>
       </c>
@@ -2734,7 +2881,7 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
@@ -2759,7 +2906,7 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="53"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="5" t="s">
         <v>50</v>
       </c>
@@ -2784,7 +2931,7 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="54" t="s">
         <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2825,7 +2972,7 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="2" t="s">
         <v>14</v>
       </c>
@@ -2864,7 +3011,7 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="52"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="2" t="s">
         <v>22</v>
       </c>
@@ -2903,7 +3050,7 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
@@ -2942,7 +3089,7 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="2" t="s">
         <v>19</v>
       </c>
@@ -2981,7 +3128,7 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="2" t="s">
         <v>17</v>
       </c>
@@ -3020,7 +3167,7 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
@@ -3059,7 +3206,7 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="2" t="s">
         <v>16</v>
       </c>
@@ -3087,7 +3234,7 @@
       <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="52"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="2" t="s">
         <v>20</v>
       </c>
@@ -3101,7 +3248,7 @@
       <c r="K65" s="12"/>
     </row>
     <row r="66" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="52"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="2" t="s">
         <v>23</v>
       </c>
@@ -3115,24 +3262,24 @@
       <c r="K66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="54" t="s">
+      <c r="L66" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="M66" s="55"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="54" t="s">
+      <c r="M66" s="49"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="P66" s="55"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="54" t="s">
+      <c r="P66" s="49"/>
+      <c r="Q66" s="50"/>
+      <c r="R66" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="S66" s="55"/>
-      <c r="T66" s="56"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="50"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="52"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="2" t="s">
         <v>15</v>
       </c>
@@ -3146,18 +3293,18 @@
       <c r="K67" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L67" s="54"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="55"/>
-      <c r="Q67" s="56"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="55"/>
-      <c r="T67" s="56"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="49"/>
+      <c r="T67" s="50"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="52"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="2" t="s">
         <v>2</v>
       </c>
@@ -3171,18 +3318,18 @@
       <c r="K68" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L68" s="54"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="56"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="50"/>
+      <c r="R68" s="48"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="50"/>
     </row>
     <row r="69" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="52"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="2" t="s">
         <v>18</v>
       </c>
@@ -3223,7 +3370,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="52"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="2" t="s">
         <v>25</v>
       </c>
@@ -3248,7 +3395,7 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="53"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="5" t="s">
         <v>50</v>
       </c>
@@ -3273,8 +3420,8 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="48" t="s">
-        <v>74</v>
+      <c r="A72" s="51" t="s">
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>13</v>
@@ -3314,7 +3461,7 @@
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="49"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="2" t="s">
         <v>14</v>
       </c>
@@ -3353,7 +3500,7 @@
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="49"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="2" t="s">
         <v>22</v>
       </c>
@@ -3392,7 +3539,7 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="49"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="2" t="s">
         <v>21</v>
       </c>
@@ -3431,7 +3578,7 @@
       <c r="T75" s="1"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="49"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="2" t="s">
         <v>19</v>
       </c>
@@ -3470,7 +3617,7 @@
       <c r="T76" s="1"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="49"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="2" t="s">
         <v>17</v>
       </c>
@@ -3509,7 +3656,7 @@
       <c r="T77" s="1"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="49"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="2" t="s">
         <v>24</v>
       </c>
@@ -3548,7 +3695,7 @@
       <c r="T78" s="1"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="49"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="2" t="s">
         <v>16</v>
       </c>
@@ -3587,7 +3734,7 @@
       <c r="T79" s="1"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="49"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="2" t="s">
         <v>20</v>
       </c>
@@ -3612,7 +3759,7 @@
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="49"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="2" t="s">
         <v>23</v>
       </c>
@@ -3637,7 +3784,7 @@
       <c r="T81" s="1"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="49"/>
+      <c r="A82" s="52"/>
       <c r="B82" s="2" t="s">
         <v>15</v>
       </c>
@@ -3662,7 +3809,7 @@
       <c r="T82" s="1"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="49"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="2" t="s">
         <v>2</v>
       </c>
@@ -3687,7 +3834,7 @@
       <c r="T83" s="1"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="49"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="2" t="s">
         <v>18</v>
       </c>
@@ -3712,7 +3859,7 @@
       <c r="T84" s="1"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="49"/>
+      <c r="A85" s="52"/>
       <c r="B85" s="2" t="s">
         <v>25</v>
       </c>
@@ -3737,7 +3884,7 @@
       <c r="T85" s="1"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="50"/>
+      <c r="A86" s="53"/>
       <c r="B86" s="5" t="s">
         <v>50</v>
       </c>
@@ -3762,8 +3909,8 @@
       <c r="T86" s="1"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="48" t="s">
-        <v>75</v>
+      <c r="A87" s="51" t="s">
+        <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>13</v>
@@ -3803,7 +3950,7 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="49"/>
+      <c r="A88" s="52"/>
       <c r="B88" s="2" t="s">
         <v>14</v>
       </c>
@@ -3842,7 +3989,7 @@
       <c r="T88" s="1"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="49"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="2" t="s">
         <v>22</v>
       </c>
@@ -3881,7 +4028,7 @@
       <c r="T89" s="1"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="49"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="2" t="s">
         <v>21</v>
       </c>
@@ -3908,7 +4055,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="49"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="2" t="s">
         <v>19</v>
       </c>
@@ -3935,7 +4082,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="49"/>
+      <c r="A92" s="52"/>
       <c r="B92" s="2" t="s">
         <v>17</v>
       </c>
@@ -3966,7 +4113,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="49"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="2" t="s">
         <v>24</v>
       </c>
@@ -3997,7 +4144,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="49"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="2" t="s">
         <v>16</v>
       </c>
@@ -4028,7 +4175,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="49"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="2" t="s">
         <v>20</v>
       </c>
@@ -4045,7 +4192,7 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="49"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="2" t="s">
         <v>23</v>
       </c>
@@ -4062,7 +4209,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="49"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="2" t="s">
         <v>15</v>
       </c>
@@ -4079,7 +4226,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="49"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="2" t="s">
         <v>2</v>
       </c>
@@ -4096,7 +4243,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="49"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="2" t="s">
         <v>18</v>
       </c>
@@ -4113,7 +4260,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="49"/>
+      <c r="A100" s="52"/>
       <c r="B100" s="2" t="s">
         <v>25</v>
       </c>
@@ -4126,7 +4273,7 @@
       <c r="I100" s="4"/>
     </row>
     <row r="101" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="50"/>
+      <c r="A101" s="53"/>
       <c r="B101" s="5" t="s">
         <v>50</v>
       </c>
@@ -4143,7 +4290,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="48" t="s">
+      <c r="A102" s="51" t="s">
         <v>76</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -4158,7 +4305,7 @@
       <c r="I102" s="4"/>
     </row>
     <row r="103" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="49"/>
+      <c r="A103" s="52"/>
       <c r="B103" s="2" t="s">
         <v>14</v>
       </c>
@@ -4171,7 +4318,7 @@
       <c r="I103" s="4"/>
     </row>
     <row r="104" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="49"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="2" t="s">
         <v>22</v>
       </c>
@@ -4198,7 +4345,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="49"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="2" t="s">
         <v>21</v>
       </c>
@@ -4224,7 +4371,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="49"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="2" t="s">
         <v>19</v>
       </c>
@@ -4250,7 +4397,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="49"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="2" t="s">
         <v>17</v>
       </c>
@@ -4277,7 +4424,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="49"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="2" t="s">
         <v>24</v>
       </c>
@@ -4304,7 +4451,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="49"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="2" t="s">
         <v>16</v>
       </c>
@@ -4331,7 +4478,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="49"/>
+      <c r="A110" s="52"/>
       <c r="B110" s="2" t="s">
         <v>20</v>
       </c>
@@ -4358,7 +4505,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="49"/>
+      <c r="A111" s="52"/>
       <c r="B111" s="2" t="s">
         <v>23</v>
       </c>
@@ -4384,7 +4531,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="49"/>
+      <c r="A112" s="52"/>
       <c r="B112" s="2" t="s">
         <v>15</v>
       </c>
@@ -4401,7 +4548,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="49"/>
+      <c r="A113" s="52"/>
       <c r="B113" s="2" t="s">
         <v>2</v>
       </c>
@@ -4414,7 +4561,7 @@
       <c r="I113" s="4"/>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="49"/>
+      <c r="A114" s="52"/>
       <c r="B114" s="2" t="s">
         <v>18</v>
       </c>
@@ -4427,7 +4574,7 @@
       <c r="I114" s="4"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="49"/>
+      <c r="A115" s="52"/>
       <c r="B115" s="2" t="s">
         <v>25</v>
       </c>
@@ -4440,7 +4587,7 @@
       <c r="I115" s="4"/>
     </row>
     <row r="116" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="50"/>
+      <c r="A116" s="53"/>
       <c r="B116" s="5" t="s">
         <v>50</v>
       </c>
@@ -4453,7 +4600,7 @@
       <c r="I116" s="4"/>
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="51" t="s">
+      <c r="A117" s="54" t="s">
         <v>77</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -4468,7 +4615,7 @@
       <c r="I117" s="4"/>
     </row>
     <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="52"/>
+      <c r="A118" s="55"/>
       <c r="B118" s="2" t="s">
         <v>14</v>
       </c>
@@ -4481,7 +4628,7 @@
       <c r="I118" s="4"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="52"/>
+      <c r="A119" s="55"/>
       <c r="B119" s="2" t="s">
         <v>22</v>
       </c>
@@ -4494,7 +4641,7 @@
       <c r="I119" s="4"/>
     </row>
     <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="52"/>
+      <c r="A120" s="55"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -4507,7 +4654,7 @@
       <c r="I120" s="4"/>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="52"/>
+      <c r="A121" s="55"/>
       <c r="B121" s="2" t="s">
         <v>19</v>
       </c>
@@ -4520,7 +4667,7 @@
       <c r="I121" s="4"/>
     </row>
     <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="52"/>
+      <c r="A122" s="55"/>
       <c r="B122" s="2" t="s">
         <v>17</v>
       </c>
@@ -4533,7 +4680,7 @@
       <c r="I122" s="4"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="52"/>
+      <c r="A123" s="55"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -4546,7 +4693,7 @@
       <c r="I123" s="4"/>
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="52"/>
+      <c r="A124" s="55"/>
       <c r="B124" s="2" t="s">
         <v>16</v>
       </c>
@@ -4559,7 +4706,7 @@
       <c r="I124" s="4"/>
     </row>
     <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="52"/>
+      <c r="A125" s="55"/>
       <c r="B125" s="2" t="s">
         <v>20</v>
       </c>
@@ -4572,7 +4719,7 @@
       <c r="I125" s="4"/>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="52"/>
+      <c r="A126" s="55"/>
       <c r="B126" s="2" t="s">
         <v>23</v>
       </c>
@@ -4585,7 +4732,7 @@
       <c r="I126" s="4"/>
     </row>
     <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="52"/>
+      <c r="A127" s="55"/>
       <c r="B127" s="2" t="s">
         <v>15</v>
       </c>
@@ -4598,7 +4745,7 @@
       <c r="I127" s="4"/>
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="52"/>
+      <c r="A128" s="55"/>
       <c r="B128" s="2" t="s">
         <v>2</v>
       </c>
@@ -4611,7 +4758,7 @@
       <c r="I128" s="4"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="52"/>
+      <c r="A129" s="55"/>
       <c r="B129" s="2" t="s">
         <v>18</v>
       </c>
@@ -4624,7 +4771,7 @@
       <c r="I129" s="4"/>
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="52"/>
+      <c r="A130" s="55"/>
       <c r="B130" s="2" t="s">
         <v>25</v>
       </c>
@@ -4637,7 +4784,7 @@
       <c r="I130" s="4"/>
     </row>
     <row r="131" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="53"/>
+      <c r="A131" s="56"/>
       <c r="B131" s="5" t="s">
         <v>50</v>
       </c>
@@ -4651,6 +4798,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="A117:A131"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="A72:A86"/>
     <mergeCell ref="A87:A101"/>
@@ -4667,18 +4826,6 @@
     <mergeCell ref="L67:N67"/>
     <mergeCell ref="O67:Q67"/>
     <mergeCell ref="R67:T67"/>
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="A117:A131"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4688,15 +4835,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U3" sqref="U3:Z8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="8" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="20.625" customWidth="1"/>
@@ -4709,42 +4857,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A1" s="29"/>
-      <c r="B1" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
+      <c r="A1" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="79"/>
     </row>
     <row r="2" spans="1:39" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="29"/>
@@ -4767,22 +4927,22 @@
         <v>11</v>
       </c>
       <c r="H2" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="L2" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>112</v>
-      </c>
       <c r="M2" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>7</v>
@@ -4794,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R2" s="28" t="s">
         <v>10</v>
@@ -4803,13 +4963,13 @@
         <v>11</v>
       </c>
       <c r="T2" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V2" s="37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="W2" s="28" t="s">
         <v>7</v>
@@ -4830,13 +4990,13 @@
         <v>11</v>
       </c>
       <c r="AC2" s="28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD2" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AE2" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AF2" s="28" t="s">
         <v>7</v>
@@ -4848,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AJ2" s="28" t="s">
         <v>10</v>
@@ -4857,10 +5017,10 @@
         <v>11</v>
       </c>
       <c r="AL2" s="28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AM2" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="14.25" x14ac:dyDescent="0.15">
@@ -5942,7 +6102,7 @@
         <v>19.381552196180557</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T15" s="29">
         <v>1</v>
@@ -5956,7 +6116,7 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.15">
       <c r="G16" s="29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
@@ -5972,7 +6132,7 @@
         <v>20.025367769985593</v>
       </c>
       <c r="S16" s="29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="T16" s="29">
         <v>3</v>
@@ -5993,7 +6153,7 @@
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
       <c r="S17" s="28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="T17" s="29"/>
       <c r="U17" s="29"/>
@@ -6004,7 +6164,7 @@
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="29"/>
       <c r="B19" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>7</v>
@@ -6025,13 +6185,13 @@
         <v>11</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L19" s="29" t="s">
         <v>7</v>
@@ -6052,13 +6212,13 @@
         <v>11</v>
       </c>
       <c r="R19" s="29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="S19" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="T19" s="29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6146,23 +6306,23 @@
         <v>14</v>
       </c>
       <c r="B21" s="29">
-        <f t="shared" ref="B21:B25" si="18">7742.8*M4</f>
+        <f>7742.8*M4</f>
         <v>23228.400000000001</v>
       </c>
       <c r="C21" s="29">
-        <f t="shared" ref="C21:C25" si="19">1682.5*N4</f>
+        <f t="shared" ref="C21:C25" si="18">1682.5*N4</f>
         <v>20190</v>
       </c>
       <c r="D21" s="29">
-        <f t="shared" ref="D21:D25" si="20">5390.3*O4</f>
+        <f t="shared" ref="D21:D25" si="19">5390.3*O4</f>
         <v>64683.600000000006</v>
       </c>
       <c r="E21" s="29">
-        <f t="shared" ref="E21:E25" si="21">2973.3*P4</f>
+        <f t="shared" ref="E21:E25" si="20">2973.3*P4</f>
         <v>23786.400000000001</v>
       </c>
       <c r="F21" s="29">
-        <f t="shared" ref="F21:F25" si="22">369.2*Q4</f>
+        <f t="shared" ref="F21:F25" si="21">369.2*Q4</f>
         <v>4430.3999999999996</v>
       </c>
       <c r="G21" s="29">
@@ -6170,19 +6330,19 @@
         <v>620209.6</v>
       </c>
       <c r="H21" s="29">
-        <f t="shared" ref="H21:H25" si="23">8000*S4</f>
+        <f t="shared" ref="H21:H25" si="22">8000*S4</f>
         <v>32000</v>
       </c>
       <c r="I21" s="29">
-        <f t="shared" ref="I21:I25" si="24">SUM(B21:H21)</f>
+        <f t="shared" ref="I21:I25" si="23">SUM(B21:H21)</f>
         <v>788528.39999999991</v>
       </c>
       <c r="J21" s="29">
-        <f t="shared" ref="J21:J25" si="25">-I21+T21</f>
+        <f t="shared" ref="J21:J25" si="24">-I21+T21</f>
         <v>806341.20000000019</v>
       </c>
       <c r="K21" s="29">
-        <f t="shared" ref="K21:K25" si="26">38714*V4</f>
+        <f t="shared" ref="K21:K25" si="25">38714*V4</f>
         <v>154856</v>
       </c>
       <c r="L21" s="29">
@@ -6190,34 +6350,34 @@
         <v>26920</v>
       </c>
       <c r="M21" s="29">
-        <f t="shared" ref="M21:M25" si="27">X4*5390.3</f>
+        <f t="shared" ref="M21:M25" si="26">X4*5390.3</f>
         <v>86244.800000000003</v>
       </c>
       <c r="N21" s="29">
-        <f t="shared" ref="N21:N25" si="28">Y4*2973.3</f>
+        <f t="shared" ref="N21:N25" si="27">Y4*2973.3</f>
         <v>23786.400000000001</v>
       </c>
       <c r="O21" s="29">
-        <f t="shared" ref="O21:O25" si="29">Z4*369.2</f>
+        <f t="shared" ref="O21:O25" si="28">Z4*369.2</f>
         <v>35443.199999999997</v>
       </c>
       <c r="P21" s="29">
-        <f t="shared" ref="P21:P25" si="30">155052.4*AA4</f>
+        <f t="shared" ref="P21:P25" si="29">155052.4*AA4</f>
         <v>1240419.2</v>
       </c>
       <c r="Q21" s="29">
         <v>0</v>
       </c>
       <c r="R21" s="29">
-        <f t="shared" ref="R21:R25" si="31">AC4*500</f>
+        <f t="shared" ref="R21:R25" si="30">AC4*500</f>
         <v>8000</v>
       </c>
       <c r="S21" s="29">
-        <f t="shared" ref="S21:S25" si="32">AD4*400</f>
+        <f t="shared" ref="S21:S25" si="31">AD4*400</f>
         <v>19200</v>
       </c>
       <c r="T21" s="29">
-        <f t="shared" ref="T21:T25" si="33">SUM(K21:S21)</f>
+        <f t="shared" ref="T21:T25" si="32">SUM(K21:S21)</f>
         <v>1594869.6</v>
       </c>
     </row>
@@ -6226,23 +6386,23 @@
         <v>22</v>
       </c>
       <c r="B22" s="29">
+        <f t="shared" ref="B21:B25" si="33">7742.8*M5</f>
+        <v>23228.400000000001</v>
+      </c>
+      <c r="C22" s="29">
         <f t="shared" si="18"/>
-        <v>23228.400000000001</v>
-      </c>
-      <c r="C22" s="29">
+        <v>20190</v>
+      </c>
+      <c r="D22" s="29">
         <f t="shared" si="19"/>
-        <v>20190</v>
-      </c>
-      <c r="D22" s="29">
+        <v>64683.600000000006</v>
+      </c>
+      <c r="E22" s="29">
         <f t="shared" si="20"/>
-        <v>64683.600000000006</v>
-      </c>
-      <c r="E22" s="29">
+        <v>11893.2</v>
+      </c>
+      <c r="F22" s="29">
         <f t="shared" si="21"/>
-        <v>11893.2</v>
-      </c>
-      <c r="F22" s="29">
-        <f t="shared" si="22"/>
         <v>4430.3999999999996</v>
       </c>
       <c r="G22" s="29">
@@ -6250,19 +6410,19 @@
         <v>620209.6</v>
       </c>
       <c r="H22" s="29">
+        <f t="shared" si="22"/>
+        <v>32000</v>
+      </c>
+      <c r="I22" s="29">
         <f t="shared" si="23"/>
-        <v>32000</v>
-      </c>
-      <c r="I22" s="29">
+        <v>776635.2</v>
+      </c>
+      <c r="J22" s="29">
         <f t="shared" si="24"/>
-        <v>776635.2</v>
-      </c>
-      <c r="J22" s="29">
+        <v>818234.40000000014</v>
+      </c>
+      <c r="K22" s="29">
         <f t="shared" si="25"/>
-        <v>818234.40000000014</v>
-      </c>
-      <c r="K22" s="29">
-        <f t="shared" si="26"/>
         <v>154856</v>
       </c>
       <c r="L22" s="29">
@@ -6270,34 +6430,34 @@
         <v>26920</v>
       </c>
       <c r="M22" s="29">
+        <f t="shared" si="26"/>
+        <v>86244.800000000003</v>
+      </c>
+      <c r="N22" s="29">
         <f t="shared" si="27"/>
-        <v>86244.800000000003</v>
-      </c>
-      <c r="N22" s="29">
+        <v>23786.400000000001</v>
+      </c>
+      <c r="O22" s="29">
         <f t="shared" si="28"/>
-        <v>23786.400000000001</v>
-      </c>
-      <c r="O22" s="29">
+        <v>35443.199999999997</v>
+      </c>
+      <c r="P22" s="29">
         <f t="shared" si="29"/>
-        <v>35443.199999999997</v>
-      </c>
-      <c r="P22" s="29">
+        <v>1240419.2</v>
+      </c>
+      <c r="Q22" s="29">
+        <v>0</v>
+      </c>
+      <c r="R22" s="29">
         <f t="shared" si="30"/>
-        <v>1240419.2</v>
-      </c>
-      <c r="Q22" s="29">
-        <v>0</v>
-      </c>
-      <c r="R22" s="29">
+        <v>8000</v>
+      </c>
+      <c r="S22" s="29">
         <f t="shared" si="31"/>
-        <v>8000</v>
-      </c>
-      <c r="S22" s="29">
+        <v>19200</v>
+      </c>
+      <c r="T22" s="29">
         <f t="shared" si="32"/>
-        <v>19200</v>
-      </c>
-      <c r="T22" s="29">
-        <f t="shared" si="33"/>
         <v>1594869.6</v>
       </c>
     </row>
@@ -6306,23 +6466,23 @@
         <v>21</v>
       </c>
       <c r="B23" s="29">
+        <f t="shared" si="33"/>
+        <v>46456.800000000003</v>
+      </c>
+      <c r="C23" s="29">
         <f t="shared" si="18"/>
-        <v>46456.800000000003</v>
-      </c>
-      <c r="C23" s="29">
+        <v>40380</v>
+      </c>
+      <c r="D23" s="29">
         <f t="shared" si="19"/>
-        <v>40380</v>
-      </c>
-      <c r="D23" s="29">
+        <v>129367.20000000001</v>
+      </c>
+      <c r="E23" s="29">
         <f t="shared" si="20"/>
-        <v>129367.20000000001</v>
-      </c>
-      <c r="E23" s="29">
+        <v>23786.400000000001</v>
+      </c>
+      <c r="F23" s="29">
         <f t="shared" si="21"/>
-        <v>23786.400000000001</v>
-      </c>
-      <c r="F23" s="29">
-        <f t="shared" si="22"/>
         <v>8860.7999999999993</v>
       </c>
       <c r="G23" s="29">
@@ -6330,19 +6490,19 @@
         <v>1240419.2</v>
       </c>
       <c r="H23" s="29">
+        <f t="shared" si="22"/>
+        <v>64000</v>
+      </c>
+      <c r="I23" s="29">
         <f t="shared" si="23"/>
-        <v>64000</v>
-      </c>
-      <c r="I23" s="29">
+        <v>1553270.4</v>
+      </c>
+      <c r="J23" s="29">
         <f t="shared" si="24"/>
-        <v>1553270.4</v>
-      </c>
-      <c r="J23" s="29">
+        <v>839034</v>
+      </c>
+      <c r="K23" s="29">
         <f t="shared" si="25"/>
-        <v>839034</v>
-      </c>
-      <c r="K23" s="29">
-        <f t="shared" si="26"/>
         <v>232284</v>
       </c>
       <c r="L23" s="29">
@@ -6350,34 +6510,34 @@
         <v>40380</v>
       </c>
       <c r="M23" s="29">
+        <f t="shared" si="26"/>
+        <v>129367.20000000001</v>
+      </c>
+      <c r="N23" s="29">
         <f t="shared" si="27"/>
-        <v>129367.20000000001</v>
-      </c>
-      <c r="N23" s="29">
+        <v>35679.600000000006</v>
+      </c>
+      <c r="O23" s="29">
         <f t="shared" si="28"/>
-        <v>35679.600000000006</v>
-      </c>
-      <c r="O23" s="29">
+        <v>53164.799999999996</v>
+      </c>
+      <c r="P23" s="29">
         <f t="shared" si="29"/>
-        <v>53164.799999999996</v>
-      </c>
-      <c r="P23" s="29">
+        <v>1860628.7999999998</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>0</v>
+      </c>
+      <c r="R23" s="29">
         <f t="shared" si="30"/>
-        <v>1860628.7999999998</v>
-      </c>
-      <c r="Q23" s="29">
-        <v>0</v>
-      </c>
-      <c r="R23" s="29">
+        <v>12000</v>
+      </c>
+      <c r="S23" s="29">
         <f t="shared" si="31"/>
-        <v>12000</v>
-      </c>
-      <c r="S23" s="29">
+        <v>28800</v>
+      </c>
+      <c r="T23" s="29">
         <f t="shared" si="32"/>
-        <v>28800</v>
-      </c>
-      <c r="T23" s="29">
-        <f t="shared" si="33"/>
         <v>2392304.4</v>
       </c>
     </row>
@@ -6386,23 +6546,23 @@
         <v>19</v>
       </c>
       <c r="B24" s="29">
+        <f t="shared" si="33"/>
+        <v>30971.200000000001</v>
+      </c>
+      <c r="C24" s="29">
         <f t="shared" si="18"/>
-        <v>30971.200000000001</v>
-      </c>
-      <c r="C24" s="29">
+        <v>26920</v>
+      </c>
+      <c r="D24" s="29">
         <f t="shared" si="19"/>
-        <v>26920</v>
-      </c>
-      <c r="D24" s="29">
+        <v>86244.800000000003</v>
+      </c>
+      <c r="E24" s="29">
         <f t="shared" si="20"/>
-        <v>86244.800000000003</v>
-      </c>
-      <c r="E24" s="29">
+        <v>15857.6</v>
+      </c>
+      <c r="F24" s="29">
         <f t="shared" si="21"/>
-        <v>15857.6</v>
-      </c>
-      <c r="F24" s="29">
-        <f t="shared" si="22"/>
         <v>5907.2</v>
       </c>
       <c r="G24" s="29">
@@ -6410,19 +6570,19 @@
         <v>826946.1333333333</v>
       </c>
       <c r="H24" s="29">
+        <f t="shared" si="22"/>
+        <v>42666.666666666664</v>
+      </c>
+      <c r="I24" s="29">
         <f t="shared" si="23"/>
-        <v>42666.666666666664</v>
-      </c>
-      <c r="I24" s="29">
+        <v>1035513.6</v>
+      </c>
+      <c r="J24" s="29">
         <f t="shared" si="24"/>
-        <v>1035513.6</v>
-      </c>
-      <c r="J24" s="29">
+        <v>559356.00000000012</v>
+      </c>
+      <c r="K24" s="29">
         <f t="shared" si="25"/>
-        <v>559356.00000000012</v>
-      </c>
-      <c r="K24" s="29">
-        <f t="shared" si="26"/>
         <v>154856</v>
       </c>
       <c r="L24" s="29">
@@ -6430,34 +6590,34 @@
         <v>26920</v>
       </c>
       <c r="M24" s="29">
+        <f t="shared" si="26"/>
+        <v>86244.800000000003</v>
+      </c>
+      <c r="N24" s="29">
         <f t="shared" si="27"/>
-        <v>86244.800000000003</v>
-      </c>
-      <c r="N24" s="29">
+        <v>23786.400000000001</v>
+      </c>
+      <c r="O24" s="29">
         <f t="shared" si="28"/>
-        <v>23786.400000000001</v>
-      </c>
-      <c r="O24" s="29">
+        <v>35443.199999999997</v>
+      </c>
+      <c r="P24" s="29">
         <f t="shared" si="29"/>
-        <v>35443.199999999997</v>
-      </c>
-      <c r="P24" s="29">
+        <v>1240419.2</v>
+      </c>
+      <c r="Q24" s="29">
+        <v>0</v>
+      </c>
+      <c r="R24" s="29">
         <f t="shared" si="30"/>
-        <v>1240419.2</v>
-      </c>
-      <c r="Q24" s="29">
-        <v>0</v>
-      </c>
-      <c r="R24" s="29">
+        <v>8000</v>
+      </c>
+      <c r="S24" s="29">
         <f t="shared" si="31"/>
-        <v>8000</v>
-      </c>
-      <c r="S24" s="29">
+        <v>19200</v>
+      </c>
+      <c r="T24" s="29">
         <f t="shared" si="32"/>
-        <v>19200</v>
-      </c>
-      <c r="T24" s="29">
-        <f t="shared" si="33"/>
         <v>1594869.6</v>
       </c>
     </row>
@@ -6466,23 +6626,23 @@
         <v>16</v>
       </c>
       <c r="B25" s="29">
+        <f t="shared" si="33"/>
+        <v>23228.400000000001</v>
+      </c>
+      <c r="C25" s="29">
         <f t="shared" si="18"/>
-        <v>23228.400000000001</v>
-      </c>
-      <c r="C25" s="29">
+        <v>20190</v>
+      </c>
+      <c r="D25" s="29">
         <f t="shared" si="19"/>
-        <v>20190</v>
-      </c>
-      <c r="D25" s="29">
+        <v>64683.600000000006</v>
+      </c>
+      <c r="E25" s="29">
         <f t="shared" si="20"/>
-        <v>64683.600000000006</v>
-      </c>
-      <c r="E25" s="29">
+        <v>11893.2</v>
+      </c>
+      <c r="F25" s="29">
         <f t="shared" si="21"/>
-        <v>11893.2</v>
-      </c>
-      <c r="F25" s="29">
-        <f t="shared" si="22"/>
         <v>4430.3999999999996</v>
       </c>
       <c r="G25" s="29">
@@ -6490,19 +6650,19 @@
         <v>620209.6</v>
       </c>
       <c r="H25" s="29">
+        <f t="shared" si="22"/>
+        <v>32000</v>
+      </c>
+      <c r="I25" s="29">
         <f t="shared" si="23"/>
-        <v>32000</v>
-      </c>
-      <c r="I25" s="29">
+        <v>776635.2</v>
+      </c>
+      <c r="J25" s="29">
         <f t="shared" si="24"/>
-        <v>776635.2</v>
-      </c>
-      <c r="J25" s="29">
+        <v>818234.40000000014</v>
+      </c>
+      <c r="K25" s="29">
         <f t="shared" si="25"/>
-        <v>818234.40000000014</v>
-      </c>
-      <c r="K25" s="29">
-        <f t="shared" si="26"/>
         <v>154856</v>
       </c>
       <c r="L25" s="29">
@@ -6510,34 +6670,34 @@
         <v>26920</v>
       </c>
       <c r="M25" s="29">
+        <f t="shared" si="26"/>
+        <v>86244.800000000003</v>
+      </c>
+      <c r="N25" s="29">
         <f t="shared" si="27"/>
-        <v>86244.800000000003</v>
-      </c>
-      <c r="N25" s="29">
+        <v>23786.400000000001</v>
+      </c>
+      <c r="O25" s="29">
         <f t="shared" si="28"/>
-        <v>23786.400000000001</v>
-      </c>
-      <c r="O25" s="29">
+        <v>35443.199999999997</v>
+      </c>
+      <c r="P25" s="29">
         <f t="shared" si="29"/>
-        <v>35443.199999999997</v>
-      </c>
-      <c r="P25" s="29">
+        <v>1240419.2</v>
+      </c>
+      <c r="Q25" s="29">
+        <v>0</v>
+      </c>
+      <c r="R25" s="29">
         <f t="shared" si="30"/>
-        <v>1240419.2</v>
-      </c>
-      <c r="Q25" s="29">
-        <v>0</v>
-      </c>
-      <c r="R25" s="29">
+        <v>8000</v>
+      </c>
+      <c r="S25" s="29">
         <f t="shared" si="31"/>
-        <v>8000</v>
-      </c>
-      <c r="S25" s="29">
+        <v>19200</v>
+      </c>
+      <c r="T25" s="29">
         <f t="shared" si="32"/>
-        <v>19200</v>
-      </c>
-      <c r="T25" s="29">
-        <f t="shared" si="33"/>
         <v>1594869.6</v>
       </c>
     </row>
@@ -6570,7 +6730,7 @@
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29" s="29"/>
       <c r="B29" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
@@ -6578,7 +6738,7 @@
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
@@ -6597,7 +6757,7 @@
     <row r="30" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="29"/>
       <c r="B30" s="28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>7</v>
@@ -6615,16 +6775,16 @@
         <v>10</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K30" s="44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L30" s="45" t="s">
         <v>7</v>
@@ -6645,16 +6805,16 @@
         <v>11</v>
       </c>
       <c r="R30" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="S30" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="T30" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="U30" s="28" t="s">
         <v>136</v>
-      </c>
-      <c r="S30" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="T30" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="U30" s="28" t="s">
-        <v>139</v>
       </c>
       <c r="V30" s="27"/>
     </row>
@@ -6830,7 +6990,7 @@
         <v>6.7594214459090002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A33" s="29" t="str">
         <f ca="1">Sheet1!A33</f>
         <v>SM4</v>
@@ -6916,7 +7076,7 @@
         <v>8.1146918291384457E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A34" s="29" t="str">
         <f ca="1">Sheet1!A34</f>
         <v>TWOFISH</v>
@@ -7002,7 +7162,7 @@
         <v>3.9327607701237367E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A35" s="29" t="str">
         <f ca="1">Sheet1!A35</f>
         <v>RC5</v>
@@ -7088,7 +7248,7 @@
         <v>3.9327607701237374E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A36" s="29" t="str">
         <f ca="1">Sheet1!A36</f>
         <v>BLOWFISH</v>
@@ -7174,12 +7334,2239 @@
         <v>8.1146918291384457E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.15">
       <c r="T37" s="25"/>
     </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A39" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
+      <c r="T39" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="U39" s="75"/>
+      <c r="V39" s="75"/>
+      <c r="W39" s="75"/>
+      <c r="X39" s="75"/>
+      <c r="Y39" s="75"/>
+      <c r="Z39" s="75"/>
+      <c r="AA39" s="75"/>
+      <c r="AB39" s="75"/>
+      <c r="AC39" s="76"/>
+      <c r="AD39" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE39" s="78"/>
+      <c r="AF39" s="78"/>
+      <c r="AG39" s="78"/>
+      <c r="AH39" s="78"/>
+      <c r="AI39" s="78"/>
+      <c r="AJ39" s="78"/>
+      <c r="AK39" s="78"/>
+      <c r="AL39" s="79"/>
+    </row>
+    <row r="40" spans="1:38" ht="38.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="29"/>
+      <c r="B40" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="L40" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="M40" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="O40" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="R40" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S40" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="T40" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="U40" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="V40" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="W40" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="X40" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z40" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA40" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB40" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC40" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD40" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE40" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF40" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG40" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI40" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ40" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK40" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL40" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="29">
+        <v>0</v>
+      </c>
+      <c r="C41" s="29">
+        <v>0</v>
+      </c>
+      <c r="D41" s="29">
+        <v>0</v>
+      </c>
+      <c r="E41" s="29">
+        <v>4</v>
+      </c>
+      <c r="F41" s="46">
+        <v>4</v>
+      </c>
+      <c r="G41" s="29">
+        <v>4</v>
+      </c>
+      <c r="H41" s="30">
+        <v>2</v>
+      </c>
+      <c r="I41" s="30">
+        <v>2</v>
+      </c>
+      <c r="J41" s="30">
+        <v>4</v>
+      </c>
+      <c r="K41" s="30">
+        <v>2</v>
+      </c>
+      <c r="L41" s="30">
+        <v>2</v>
+      </c>
+      <c r="M41" s="30">
+        <v>3</v>
+      </c>
+      <c r="N41" s="29">
+        <f>SUM(H41:L41)</f>
+        <v>12</v>
+      </c>
+      <c r="O41" s="29">
+        <f>SUM(H42:L42)</f>
+        <v>12</v>
+      </c>
+      <c r="P41" s="29">
+        <f>H43+K43</f>
+        <v>4</v>
+      </c>
+      <c r="Q41" s="29">
+        <f>SUM(H41:L41)</f>
+        <v>12</v>
+      </c>
+      <c r="R41" s="46">
+        <f>J41</f>
+        <v>4</v>
+      </c>
+      <c r="S41" s="29">
+        <f>K41+L41</f>
+        <v>4</v>
+      </c>
+      <c r="T41" s="30">
+        <v>4</v>
+      </c>
+      <c r="U41" s="30">
+        <v>2</v>
+      </c>
+      <c r="V41" s="29">
+        <v>8</v>
+      </c>
+      <c r="W41" s="29">
+        <v>8</v>
+      </c>
+      <c r="X41" s="29">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="29">
+        <v>48</v>
+      </c>
+      <c r="Z41" s="46">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="29">
+        <v>24</v>
+      </c>
+      <c r="AD41" s="29">
+        <f>U41-M41</f>
+        <v>-1</v>
+      </c>
+      <c r="AE41" s="70">
+        <f>(V41-N41)/V41</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AF41" s="70">
+        <f>(W41-O41)/W41</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AG41" s="70">
+        <f>(X41-P41)/X41</f>
+        <v>0.5</v>
+      </c>
+      <c r="AH41" s="70">
+        <f>(Y41-Q41)/Y41</f>
+        <v>0.75</v>
+      </c>
+      <c r="AI41" s="70">
+        <f>(Z41-R41)/Z41</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ41" s="41">
+        <f>AA41-S41</f>
+        <v>-4</v>
+      </c>
+      <c r="AK41" s="29">
+        <f>AB41</f>
+        <v>0</v>
+      </c>
+      <c r="AL41" s="29">
+        <f>AC41</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="29">
+        <v>0</v>
+      </c>
+      <c r="C42" s="29">
+        <v>0</v>
+      </c>
+      <c r="D42" s="29">
+        <v>2</v>
+      </c>
+      <c r="E42" s="29">
+        <v>2</v>
+      </c>
+      <c r="F42" s="46">
+        <v>2</v>
+      </c>
+      <c r="G42" s="29">
+        <v>0</v>
+      </c>
+      <c r="H42" s="30">
+        <v>2</v>
+      </c>
+      <c r="I42" s="30">
+        <v>2</v>
+      </c>
+      <c r="J42" s="30">
+        <v>4</v>
+      </c>
+      <c r="K42" s="30">
+        <v>2</v>
+      </c>
+      <c r="L42" s="30">
+        <v>2</v>
+      </c>
+      <c r="M42" s="30">
+        <v>3</v>
+      </c>
+      <c r="N42" s="29">
+        <f>SUM(H42:L42)</f>
+        <v>12</v>
+      </c>
+      <c r="O42" s="29">
+        <f>SUM(H43:L43)</f>
+        <v>12</v>
+      </c>
+      <c r="P42" s="29">
+        <f>H44+K44</f>
+        <v>8</v>
+      </c>
+      <c r="Q42" s="29">
+        <f>SUM(H42:L42)</f>
+        <v>12</v>
+      </c>
+      <c r="R42" s="46">
+        <f>J42</f>
+        <v>4</v>
+      </c>
+      <c r="S42" s="29">
+        <f>K42+L42</f>
+        <v>4</v>
+      </c>
+      <c r="T42" s="30">
+        <v>8</v>
+      </c>
+      <c r="U42" s="30">
+        <v>3</v>
+      </c>
+      <c r="V42" s="29">
+        <v>12</v>
+      </c>
+      <c r="W42" s="29">
+        <v>12</v>
+      </c>
+      <c r="X42" s="29">
+        <v>12</v>
+      </c>
+      <c r="Y42" s="29">
+        <v>72</v>
+      </c>
+      <c r="Z42" s="46">
+        <v>12</v>
+      </c>
+      <c r="AA42" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="29">
+        <v>48</v>
+      </c>
+      <c r="AD42" s="29">
+        <f>U42-M42</f>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="70">
+        <f>(V42-N42)/V42</f>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="70">
+        <f>(W42-O42)/W42</f>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="70">
+        <f>(X42-P42)/X42</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH42" s="70">
+        <f>(Y42-Q42)/Y42</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AI42" s="70">
+        <f>(Z42-R42)/Z42</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ42" s="41">
+        <f>AA42-S42</f>
+        <v>-4</v>
+      </c>
+      <c r="AK42" s="29">
+        <f t="shared" ref="AK42:AK46" si="55">AB42</f>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="29">
+        <f t="shared" ref="AL42:AL46" si="56">AC42</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="29">
+        <v>0</v>
+      </c>
+      <c r="C43" s="29">
+        <v>4</v>
+      </c>
+      <c r="D43" s="29">
+        <v>0</v>
+      </c>
+      <c r="E43" s="29">
+        <v>4</v>
+      </c>
+      <c r="F43" s="46">
+        <v>1</v>
+      </c>
+      <c r="G43" s="29">
+        <v>0</v>
+      </c>
+      <c r="H43" s="30">
+        <v>2</v>
+      </c>
+      <c r="I43" s="30">
+        <v>2</v>
+      </c>
+      <c r="J43" s="30">
+        <v>4</v>
+      </c>
+      <c r="K43" s="30">
+        <v>2</v>
+      </c>
+      <c r="L43" s="30">
+        <v>2</v>
+      </c>
+      <c r="M43" s="30">
+        <v>3</v>
+      </c>
+      <c r="N43" s="29">
+        <v>12</v>
+      </c>
+      <c r="O43" s="29">
+        <v>12</v>
+      </c>
+      <c r="P43" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="29">
+        <v>12</v>
+      </c>
+      <c r="R43" s="46">
+        <v>4</v>
+      </c>
+      <c r="S43" s="29">
+        <v>4</v>
+      </c>
+      <c r="T43" s="30">
+        <v>8</v>
+      </c>
+      <c r="U43" s="30">
+        <v>4</v>
+      </c>
+      <c r="V43" s="29">
+        <v>16</v>
+      </c>
+      <c r="W43" s="29">
+        <v>16</v>
+      </c>
+      <c r="X43" s="29">
+        <v>16</v>
+      </c>
+      <c r="Y43" s="29">
+        <v>96</v>
+      </c>
+      <c r="Z43" s="46">
+        <v>16</v>
+      </c>
+      <c r="AA43" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="29">
+        <v>48</v>
+      </c>
+      <c r="AD43" s="29">
+        <f>U43-M43</f>
+        <v>1</v>
+      </c>
+      <c r="AE43" s="70">
+        <f>(V43-N43)/V43</f>
+        <v>0.25</v>
+      </c>
+      <c r="AF43" s="70">
+        <f>(W43-O43)/W43</f>
+        <v>0.25</v>
+      </c>
+      <c r="AG43" s="70">
+        <f>(X43-P43)/X43</f>
+        <v>0.75</v>
+      </c>
+      <c r="AH43" s="70">
+        <f>(Y43-Q43)/Y43</f>
+        <v>0.875</v>
+      </c>
+      <c r="AI43" s="70">
+        <f>(Z43-R43)/Z43</f>
+        <v>0.75</v>
+      </c>
+      <c r="AJ43" s="41">
+        <f>AA43-S43</f>
+        <v>-4</v>
+      </c>
+      <c r="AK43" s="29">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="29">
+        <f t="shared" si="56"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="29">
+        <v>4</v>
+      </c>
+      <c r="C44" s="29">
+        <v>1</v>
+      </c>
+      <c r="D44" s="29">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29">
+        <v>6</v>
+      </c>
+      <c r="F44" s="46">
+        <v>2</v>
+      </c>
+      <c r="G44" s="29">
+        <v>2</v>
+      </c>
+      <c r="H44" s="30">
+        <v>4</v>
+      </c>
+      <c r="I44" s="30">
+        <v>4</v>
+      </c>
+      <c r="J44" s="30">
+        <v>8</v>
+      </c>
+      <c r="K44" s="30">
+        <v>4</v>
+      </c>
+      <c r="L44" s="30">
+        <v>4</v>
+      </c>
+      <c r="M44" s="33">
+        <v>6</v>
+      </c>
+      <c r="N44" s="29">
+        <f>N43*2</f>
+        <v>24</v>
+      </c>
+      <c r="O44" s="29">
+        <f t="shared" ref="O44:S44" si="57">O43*2</f>
+        <v>24</v>
+      </c>
+      <c r="P44" s="29">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="Q44" s="29">
+        <f t="shared" si="57"/>
+        <v>24</v>
+      </c>
+      <c r="R44" s="46">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="S44" s="29">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="T44" s="30">
+        <v>12</v>
+      </c>
+      <c r="U44" s="30">
+        <v>5</v>
+      </c>
+      <c r="V44" s="29">
+        <v>20</v>
+      </c>
+      <c r="W44" s="29">
+        <v>20</v>
+      </c>
+      <c r="X44" s="29">
+        <v>20</v>
+      </c>
+      <c r="Y44" s="29">
+        <v>120</v>
+      </c>
+      <c r="Z44" s="46">
+        <v>20</v>
+      </c>
+      <c r="AA44" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="29">
+        <v>72</v>
+      </c>
+      <c r="AD44" s="29">
+        <f>U44-M44</f>
+        <v>-1</v>
+      </c>
+      <c r="AE44" s="70">
+        <f>(V44-N44)/V44</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AF44" s="70">
+        <f>(W44-O44)/W44</f>
+        <v>-0.2</v>
+      </c>
+      <c r="AG44" s="70">
+        <f>(X44-P44)/X44</f>
+        <v>0.6</v>
+      </c>
+      <c r="AH44" s="70">
+        <f>(Y44-Q44)/Y44</f>
+        <v>0.8</v>
+      </c>
+      <c r="AI44" s="70">
+        <f>(Z44-R44)/Z44</f>
+        <v>0.6</v>
+      </c>
+      <c r="AJ44" s="41">
+        <f>AA44-S44</f>
+        <v>-8</v>
+      </c>
+      <c r="AK44" s="29">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AL44" s="29">
+        <f t="shared" si="56"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="29">
+        <v>2</v>
+      </c>
+      <c r="C45" s="29">
+        <v>2</v>
+      </c>
+      <c r="D45" s="29">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29">
+        <v>2</v>
+      </c>
+      <c r="F45" s="46">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29">
+        <v>0</v>
+      </c>
+      <c r="H45" s="31">
+        <f>H41*4/3</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="I45" s="31">
+        <f t="shared" ref="I45:L45" si="58">I41*4/3</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J45" s="31">
+        <f t="shared" si="58"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="K45" s="31">
+        <f t="shared" si="58"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L45" s="31">
+        <f t="shared" si="58"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="M45" s="30">
+        <v>4</v>
+      </c>
+      <c r="N45" s="29">
+        <f>N43/3*4</f>
+        <v>16</v>
+      </c>
+      <c r="O45" s="29">
+        <f t="shared" ref="O45:S45" si="59">O43/3*4</f>
+        <v>16</v>
+      </c>
+      <c r="P45" s="41">
+        <f t="shared" si="59"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="Q45" s="29">
+        <f t="shared" si="59"/>
+        <v>16</v>
+      </c>
+      <c r="R45" s="47">
+        <f t="shared" si="59"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="S45" s="41">
+        <f t="shared" si="59"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="T45" s="30">
+        <v>8</v>
+      </c>
+      <c r="U45" s="30">
+        <v>4</v>
+      </c>
+      <c r="V45" s="29">
+        <v>16</v>
+      </c>
+      <c r="W45" s="29">
+        <v>16</v>
+      </c>
+      <c r="X45" s="29">
+        <v>16</v>
+      </c>
+      <c r="Y45" s="29">
+        <v>96</v>
+      </c>
+      <c r="Z45" s="46">
+        <v>16</v>
+      </c>
+      <c r="AA45" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="29">
+        <v>48</v>
+      </c>
+      <c r="AD45" s="29">
+        <f>U45-M45</f>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="70">
+        <f>(V45-N45)/V45</f>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="70">
+        <f>(W45-O45)/W45</f>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="70">
+        <f>(X45-P45)/X45</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AH45" s="70">
+        <f>(Y45-Q45)/Y45</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AI45" s="70">
+        <f>(Z45-R45)/Z45</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AJ45" s="41">
+        <f>AA45-S45</f>
+        <v>-5.333333333333333</v>
+      </c>
+      <c r="AK45" s="29">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AL45" s="29">
+        <f t="shared" si="56"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="29">
+        <v>3</v>
+      </c>
+      <c r="C46" s="29">
+        <v>0</v>
+      </c>
+      <c r="D46" s="29">
+        <v>0</v>
+      </c>
+      <c r="E46" s="29">
+        <v>3</v>
+      </c>
+      <c r="F46" s="46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="29">
+        <v>0</v>
+      </c>
+      <c r="H46" s="30">
+        <v>2</v>
+      </c>
+      <c r="I46" s="30">
+        <v>2</v>
+      </c>
+      <c r="J46" s="30">
+        <v>4</v>
+      </c>
+      <c r="K46" s="30">
+        <v>2</v>
+      </c>
+      <c r="L46" s="30">
+        <v>2</v>
+      </c>
+      <c r="M46" s="30">
+        <v>3</v>
+      </c>
+      <c r="N46" s="29">
+        <v>12</v>
+      </c>
+      <c r="O46" s="29">
+        <v>12</v>
+      </c>
+      <c r="P46" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="29">
+        <v>12</v>
+      </c>
+      <c r="R46" s="46">
+        <v>4</v>
+      </c>
+      <c r="S46" s="29">
+        <v>4</v>
+      </c>
+      <c r="T46" s="30">
+        <v>8</v>
+      </c>
+      <c r="U46" s="30">
+        <v>3</v>
+      </c>
+      <c r="V46" s="29">
+        <v>12</v>
+      </c>
+      <c r="W46" s="29">
+        <v>12</v>
+      </c>
+      <c r="X46" s="29">
+        <v>12</v>
+      </c>
+      <c r="Y46" s="29">
+        <v>72</v>
+      </c>
+      <c r="Z46" s="46">
+        <v>12</v>
+      </c>
+      <c r="AA46" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="29">
+        <v>48</v>
+      </c>
+      <c r="AD46" s="29">
+        <f>U46-M46</f>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="70">
+        <f>(V46-N46)/V46</f>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="70">
+        <f>(W46-O46)/W46</f>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="70">
+        <f>(X46-P46)/X46</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH46" s="70">
+        <f>(Y46-Q46)/Y46</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AI46" s="70">
+        <f>(Z46-R46)/Z46</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ46" s="41">
+        <f>AA46-S46</f>
+        <v>-4</v>
+      </c>
+      <c r="AK46" s="29">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AL46" s="29">
+        <f t="shared" si="56"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G48" s="28" t="str">
+        <f>B40</f>
+        <v>AU</v>
+      </c>
+      <c r="H48" s="29">
+        <v>1</v>
+      </c>
+      <c r="I48" s="29">
+        <v>1</v>
+      </c>
+      <c r="J48" s="29">
+        <v>1</v>
+      </c>
+      <c r="K48" s="29">
+        <v>1</v>
+      </c>
+      <c r="L48" s="29">
+        <v>1</v>
+      </c>
+      <c r="S48" s="28" t="str">
+        <f>N40</f>
+        <v>AU</v>
+      </c>
+      <c r="T48" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="G49" s="29" t="str">
+        <f>C40</f>
+        <v>SH</v>
+      </c>
+      <c r="H49" s="29">
+        <v>1</v>
+      </c>
+      <c r="I49" s="29">
+        <v>1</v>
+      </c>
+      <c r="J49" s="29">
+        <v>1</v>
+      </c>
+      <c r="K49" s="29">
+        <v>1</v>
+      </c>
+      <c r="L49" s="29">
+        <v>1</v>
+      </c>
+      <c r="S49" s="29" t="str">
+        <f>O40</f>
+        <v>SH</v>
+      </c>
+      <c r="T49" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G50" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="29">
+        <v>1</v>
+      </c>
+      <c r="I50" s="29">
+        <v>0</v>
+      </c>
+      <c r="J50" s="29">
+        <v>0</v>
+      </c>
+      <c r="K50" s="29">
+        <v>1</v>
+      </c>
+      <c r="L50" s="29">
+        <v>0</v>
+      </c>
+      <c r="S50" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="T50" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G51" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="29">
+        <v>1</v>
+      </c>
+      <c r="I51" s="29">
+        <v>1</v>
+      </c>
+      <c r="J51" s="29">
+        <v>1</v>
+      </c>
+      <c r="K51" s="29">
+        <v>1</v>
+      </c>
+      <c r="L51" s="29">
+        <v>1</v>
+      </c>
+      <c r="S51" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="T51" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G52" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="29">
+        <v>0</v>
+      </c>
+      <c r="I52" s="29">
+        <v>0</v>
+      </c>
+      <c r="J52" s="29">
+        <v>1</v>
+      </c>
+      <c r="K52" s="29">
+        <v>0</v>
+      </c>
+      <c r="L52" s="29">
+        <v>0</v>
+      </c>
+      <c r="S52" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="T52" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G53" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="29">
+        <v>0</v>
+      </c>
+      <c r="I53" s="29">
+        <v>0</v>
+      </c>
+      <c r="J53" s="29">
+        <v>0</v>
+      </c>
+      <c r="K53" s="29">
+        <v>1</v>
+      </c>
+      <c r="L53" s="29">
+        <v>1</v>
+      </c>
+      <c r="S53" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="T53" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="S54" s="28"/>
+      <c r="T54" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A58" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="74"/>
+      <c r="S58" s="74"/>
+      <c r="T58" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="U58" s="75"/>
+      <c r="V58" s="75"/>
+      <c r="W58" s="75"/>
+      <c r="X58" s="75"/>
+      <c r="Y58" s="75"/>
+      <c r="Z58" s="75"/>
+      <c r="AA58" s="75"/>
+      <c r="AB58" s="75"/>
+      <c r="AC58" s="76"/>
+      <c r="AD58" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE58" s="78"/>
+      <c r="AF58" s="78"/>
+      <c r="AG58" s="78"/>
+      <c r="AH58" s="78"/>
+      <c r="AI58" s="78"/>
+      <c r="AJ58" s="78"/>
+      <c r="AK58" s="78"/>
+      <c r="AL58" s="79"/>
+    </row>
+    <row r="59" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="29"/>
+      <c r="B59" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J59" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="K59" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="L59" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="M59" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="N59" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="O59" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="R59" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S59" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="T59" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="U59" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="V59" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="W59" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="X59" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z59" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA59" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB59" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC59" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD59" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE59" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF59" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG59" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI59" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ59" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK59" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL59" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="29">
+        <v>0</v>
+      </c>
+      <c r="C60" s="29">
+        <v>0</v>
+      </c>
+      <c r="D60" s="29">
+        <v>0</v>
+      </c>
+      <c r="E60" s="29">
+        <v>4</v>
+      </c>
+      <c r="F60" s="46">
+        <v>4</v>
+      </c>
+      <c r="G60" s="29">
+        <v>4</v>
+      </c>
+      <c r="H60" s="30">
+        <v>2</v>
+      </c>
+      <c r="I60" s="30">
+        <v>2</v>
+      </c>
+      <c r="J60" s="30">
+        <v>4</v>
+      </c>
+      <c r="K60" s="30">
+        <v>2</v>
+      </c>
+      <c r="L60" s="30">
+        <v>2</v>
+      </c>
+      <c r="M60" s="30">
+        <v>3</v>
+      </c>
+      <c r="N60" s="29">
+        <f>SUM(H60:L60)</f>
+        <v>12</v>
+      </c>
+      <c r="O60" s="29">
+        <f>SUM(H61:L61)</f>
+        <v>12</v>
+      </c>
+      <c r="P60" s="29">
+        <f>H62+K62</f>
+        <v>4</v>
+      </c>
+      <c r="Q60" s="29">
+        <f>SUM(H60:L60)</f>
+        <v>12</v>
+      </c>
+      <c r="R60" s="46">
+        <f>J60</f>
+        <v>4</v>
+      </c>
+      <c r="S60" s="29">
+        <f>K60+L60</f>
+        <v>4</v>
+      </c>
+      <c r="T60" s="30">
+        <v>4</v>
+      </c>
+      <c r="U60" s="30">
+        <v>2</v>
+      </c>
+      <c r="V60" s="29">
+        <v>8</v>
+      </c>
+      <c r="W60" s="29">
+        <v>8</v>
+      </c>
+      <c r="X60" s="29">
+        <v>8</v>
+      </c>
+      <c r="Y60" s="29">
+        <v>16</v>
+      </c>
+      <c r="Z60" s="46">
+        <v>8</v>
+      </c>
+      <c r="AA60" s="46">
+        <v>8</v>
+      </c>
+      <c r="AB60" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="29">
+        <f>U60-M60</f>
+        <v>-1</v>
+      </c>
+      <c r="AE60" s="70">
+        <f>(V60-N60)/V60</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AF60" s="70">
+        <f>(W60-O60)/W60</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AG60" s="70">
+        <f>(X60-P60)/X60</f>
+        <v>0.5</v>
+      </c>
+      <c r="AH60" s="70">
+        <f>(Y60-Q60)/Y60</f>
+        <v>0.25</v>
+      </c>
+      <c r="AI60" s="70">
+        <f>(Z60-R60)/Z60</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ60" s="70">
+        <f>(AA60-S60)/AA60</f>
+        <v>0.5</v>
+      </c>
+      <c r="AK60" s="29">
+        <f>AB60</f>
+        <v>0</v>
+      </c>
+      <c r="AL60" s="29">
+        <f>AC60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="29">
+        <v>0</v>
+      </c>
+      <c r="C61" s="29">
+        <v>0</v>
+      </c>
+      <c r="D61" s="29">
+        <v>2</v>
+      </c>
+      <c r="E61" s="29">
+        <v>2</v>
+      </c>
+      <c r="F61" s="46">
+        <v>2</v>
+      </c>
+      <c r="G61" s="29">
+        <v>0</v>
+      </c>
+      <c r="H61" s="30">
+        <v>2</v>
+      </c>
+      <c r="I61" s="30">
+        <v>2</v>
+      </c>
+      <c r="J61" s="30">
+        <v>4</v>
+      </c>
+      <c r="K61" s="30">
+        <v>2</v>
+      </c>
+      <c r="L61" s="30">
+        <v>2</v>
+      </c>
+      <c r="M61" s="30">
+        <v>3</v>
+      </c>
+      <c r="N61" s="29">
+        <f>SUM(H61:L61)</f>
+        <v>12</v>
+      </c>
+      <c r="O61" s="29">
+        <f>SUM(H62:L62)</f>
+        <v>12</v>
+      </c>
+      <c r="P61" s="29">
+        <f>H63+K63</f>
+        <v>8</v>
+      </c>
+      <c r="Q61" s="29">
+        <f>SUM(H61:L61)</f>
+        <v>12</v>
+      </c>
+      <c r="R61" s="46">
+        <f>J61</f>
+        <v>4</v>
+      </c>
+      <c r="S61" s="29">
+        <f>K61+L61</f>
+        <v>4</v>
+      </c>
+      <c r="T61" s="30">
+        <v>8</v>
+      </c>
+      <c r="U61" s="30">
+        <v>3</v>
+      </c>
+      <c r="V61" s="29">
+        <v>12</v>
+      </c>
+      <c r="W61" s="29">
+        <v>12</v>
+      </c>
+      <c r="X61" s="29">
+        <v>12</v>
+      </c>
+      <c r="Y61" s="29">
+        <v>24</v>
+      </c>
+      <c r="Z61" s="46">
+        <v>12</v>
+      </c>
+      <c r="AA61" s="46">
+        <v>12</v>
+      </c>
+      <c r="AB61" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="29">
+        <f>U61-M61</f>
+        <v>0</v>
+      </c>
+      <c r="AE61" s="70">
+        <f>(V61-N61)/V61</f>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="70">
+        <f>(W61-O61)/W61</f>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="70">
+        <f>(X61-P61)/X61</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH61" s="70">
+        <f>(Y61-Q61)/Y61</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI61" s="70">
+        <f>(Z61-R61)/Z61</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ61" s="70">
+        <f t="shared" ref="AJ61:AJ65" si="60">(AA61-S61)/AA61</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK61" s="29">
+        <f t="shared" ref="AK61:AK65" si="61">AB61</f>
+        <v>0</v>
+      </c>
+      <c r="AL61" s="29">
+        <f t="shared" ref="AL61:AL65" si="62">AC61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="29">
+        <v>0</v>
+      </c>
+      <c r="C62" s="29">
+        <v>4</v>
+      </c>
+      <c r="D62" s="29">
+        <v>0</v>
+      </c>
+      <c r="E62" s="29">
+        <v>4</v>
+      </c>
+      <c r="F62" s="46">
+        <v>1</v>
+      </c>
+      <c r="G62" s="29">
+        <v>0</v>
+      </c>
+      <c r="H62" s="30">
+        <v>2</v>
+      </c>
+      <c r="I62" s="30">
+        <v>2</v>
+      </c>
+      <c r="J62" s="30">
+        <v>4</v>
+      </c>
+      <c r="K62" s="30">
+        <v>2</v>
+      </c>
+      <c r="L62" s="30">
+        <v>2</v>
+      </c>
+      <c r="M62" s="30">
+        <v>3</v>
+      </c>
+      <c r="N62" s="29">
+        <v>12</v>
+      </c>
+      <c r="O62" s="29">
+        <v>12</v>
+      </c>
+      <c r="P62" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="29">
+        <v>12</v>
+      </c>
+      <c r="R62" s="46">
+        <v>4</v>
+      </c>
+      <c r="S62" s="29">
+        <v>4</v>
+      </c>
+      <c r="T62" s="30">
+        <v>8</v>
+      </c>
+      <c r="U62" s="30">
+        <v>4</v>
+      </c>
+      <c r="V62" s="29">
+        <v>48</v>
+      </c>
+      <c r="W62" s="29">
+        <v>48</v>
+      </c>
+      <c r="X62" s="29">
+        <v>48</v>
+      </c>
+      <c r="Y62" s="29">
+        <v>96</v>
+      </c>
+      <c r="Z62" s="46">
+        <v>48</v>
+      </c>
+      <c r="AA62" s="46">
+        <v>48</v>
+      </c>
+      <c r="AB62" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="29">
+        <f>U62-M62</f>
+        <v>1</v>
+      </c>
+      <c r="AE62" s="70">
+        <f>(V62-N62)/V62</f>
+        <v>0.75</v>
+      </c>
+      <c r="AF62" s="70">
+        <f>(W62-O62)/W62</f>
+        <v>0.75</v>
+      </c>
+      <c r="AG62" s="70">
+        <f>(X62-P62)/X62</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="AH62" s="70">
+        <f>(Y62-Q62)/Y62</f>
+        <v>0.875</v>
+      </c>
+      <c r="AI62" s="70">
+        <f>(Z62-R62)/Z62</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="AJ62" s="70">
+        <f t="shared" si="60"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="AK62" s="29">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AL62" s="29">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="29">
+        <v>4</v>
+      </c>
+      <c r="C63" s="29">
+        <v>1</v>
+      </c>
+      <c r="D63" s="29">
+        <v>0</v>
+      </c>
+      <c r="E63" s="29">
+        <v>6</v>
+      </c>
+      <c r="F63" s="46">
+        <v>2</v>
+      </c>
+      <c r="G63" s="29">
+        <v>2</v>
+      </c>
+      <c r="H63" s="30">
+        <v>4</v>
+      </c>
+      <c r="I63" s="30">
+        <v>4</v>
+      </c>
+      <c r="J63" s="30">
+        <v>8</v>
+      </c>
+      <c r="K63" s="30">
+        <v>4</v>
+      </c>
+      <c r="L63" s="30">
+        <v>4</v>
+      </c>
+      <c r="M63" s="33">
+        <v>6</v>
+      </c>
+      <c r="N63" s="29">
+        <f>N62*2</f>
+        <v>24</v>
+      </c>
+      <c r="O63" s="29">
+        <f t="shared" ref="O63:S63" si="63">O62*2</f>
+        <v>24</v>
+      </c>
+      <c r="P63" s="29">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+      <c r="Q63" s="29">
+        <f t="shared" si="63"/>
+        <v>24</v>
+      </c>
+      <c r="R63" s="46">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+      <c r="S63" s="29">
+        <f t="shared" si="63"/>
+        <v>8</v>
+      </c>
+      <c r="T63" s="30">
+        <v>12</v>
+      </c>
+      <c r="U63" s="30">
+        <v>5</v>
+      </c>
+      <c r="V63" s="29">
+        <v>24</v>
+      </c>
+      <c r="W63" s="29">
+        <v>24</v>
+      </c>
+      <c r="X63" s="29">
+        <v>24</v>
+      </c>
+      <c r="Y63" s="29">
+        <v>48</v>
+      </c>
+      <c r="Z63" s="46">
+        <v>24</v>
+      </c>
+      <c r="AA63" s="46">
+        <v>24</v>
+      </c>
+      <c r="AB63" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="29">
+        <f>U63-M63</f>
+        <v>-1</v>
+      </c>
+      <c r="AE63" s="70">
+        <f>(V63-N63)/V63</f>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="70">
+        <f>(W63-O63)/W63</f>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="70">
+        <f>(X63-P63)/X63</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH63" s="70">
+        <f>(Y63-Q63)/Y63</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI63" s="70">
+        <f>(Z63-R63)/Z63</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ63" s="70">
+        <f t="shared" si="60"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK63" s="29">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AL63" s="29">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="29">
+        <v>2</v>
+      </c>
+      <c r="C64" s="29">
+        <v>2</v>
+      </c>
+      <c r="D64" s="29">
+        <v>0</v>
+      </c>
+      <c r="E64" s="29">
+        <v>2</v>
+      </c>
+      <c r="F64" s="46">
+        <v>0</v>
+      </c>
+      <c r="G64" s="29">
+        <v>0</v>
+      </c>
+      <c r="H64" s="31">
+        <f>H60*4/3</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="I64" s="31">
+        <f t="shared" ref="I64:L64" si="64">I60*4/3</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J64" s="31">
+        <f t="shared" si="64"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="K64" s="31">
+        <f t="shared" si="64"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="L64" s="31">
+        <f t="shared" si="64"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="M64" s="30">
+        <v>4</v>
+      </c>
+      <c r="N64" s="29">
+        <f>N62/3*4</f>
+        <v>16</v>
+      </c>
+      <c r="O64" s="29">
+        <f t="shared" ref="O64:S64" si="65">O62/3*4</f>
+        <v>16</v>
+      </c>
+      <c r="P64" s="41">
+        <f t="shared" si="65"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="Q64" s="29">
+        <f t="shared" si="65"/>
+        <v>16</v>
+      </c>
+      <c r="R64" s="47">
+        <f t="shared" si="65"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="S64" s="41">
+        <f t="shared" si="65"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="T64" s="30">
+        <v>8</v>
+      </c>
+      <c r="U64" s="30">
+        <v>4</v>
+      </c>
+      <c r="V64" s="29">
+        <v>16</v>
+      </c>
+      <c r="W64" s="29">
+        <v>16</v>
+      </c>
+      <c r="X64" s="29">
+        <v>16</v>
+      </c>
+      <c r="Y64" s="29">
+        <v>32</v>
+      </c>
+      <c r="Z64" s="46">
+        <v>16</v>
+      </c>
+      <c r="AA64" s="46">
+        <v>16</v>
+      </c>
+      <c r="AB64" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="29">
+        <f>U64-M64</f>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="70">
+        <f>(V64-N64)/V64</f>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="70">
+        <f>(W64-O64)/W64</f>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="70">
+        <f>(X64-P64)/X64</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AH64" s="70">
+        <f>(Y64-Q64)/Y64</f>
+        <v>0.5</v>
+      </c>
+      <c r="AI64" s="70">
+        <f>(Z64-R64)/Z64</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AJ64" s="70">
+        <f t="shared" si="60"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AK64" s="29">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AL64" s="29">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="29">
+        <v>3</v>
+      </c>
+      <c r="C65" s="29">
+        <v>0</v>
+      </c>
+      <c r="D65" s="29">
+        <v>0</v>
+      </c>
+      <c r="E65" s="29">
+        <v>3</v>
+      </c>
+      <c r="F65" s="46">
+        <v>1</v>
+      </c>
+      <c r="G65" s="29">
+        <v>0</v>
+      </c>
+      <c r="H65" s="30">
+        <v>2</v>
+      </c>
+      <c r="I65" s="30">
+        <v>2</v>
+      </c>
+      <c r="J65" s="30">
+        <v>4</v>
+      </c>
+      <c r="K65" s="30">
+        <v>2</v>
+      </c>
+      <c r="L65" s="30">
+        <v>2</v>
+      </c>
+      <c r="M65" s="30">
+        <v>3</v>
+      </c>
+      <c r="N65" s="29">
+        <v>12</v>
+      </c>
+      <c r="O65" s="29">
+        <v>12</v>
+      </c>
+      <c r="P65" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q65" s="29">
+        <v>12</v>
+      </c>
+      <c r="R65" s="46">
+        <v>4</v>
+      </c>
+      <c r="S65" s="29">
+        <v>4</v>
+      </c>
+      <c r="T65" s="30">
+        <v>8</v>
+      </c>
+      <c r="U65" s="30">
+        <v>12</v>
+      </c>
+      <c r="V65" s="29">
+        <v>12</v>
+      </c>
+      <c r="W65" s="29">
+        <v>12</v>
+      </c>
+      <c r="X65" s="29">
+        <v>24</v>
+      </c>
+      <c r="Y65" s="29">
+        <v>12</v>
+      </c>
+      <c r="Z65" s="46">
+        <v>12</v>
+      </c>
+      <c r="AA65" s="29">
+        <v>12</v>
+      </c>
+      <c r="AB65" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="29">
+        <f>U65-M65</f>
+        <v>9</v>
+      </c>
+      <c r="AE65" s="70">
+        <f>(V65-N65)/V65</f>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="70">
+        <f>(W65-O65)/W65</f>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="70">
+        <f>(X65-P65)/X65</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AH65" s="70">
+        <f>(Y65-Q65)/Y65</f>
+        <v>0</v>
+      </c>
+      <c r="AI65" s="70">
+        <f>(Z65-R65)/Z65</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AJ65" s="70">
+        <f t="shared" si="60"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK65" s="29">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AL65" s="29">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G67" s="28" t="str">
+        <f>B59</f>
+        <v>AU</v>
+      </c>
+      <c r="H67" s="29">
+        <v>1</v>
+      </c>
+      <c r="I67" s="29">
+        <v>1</v>
+      </c>
+      <c r="J67" s="29">
+        <v>1</v>
+      </c>
+      <c r="K67" s="29">
+        <v>1</v>
+      </c>
+      <c r="L67" s="29">
+        <v>1</v>
+      </c>
+      <c r="S67" s="28" t="str">
+        <f>N59</f>
+        <v>AU</v>
+      </c>
+      <c r="T67" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="G68" s="29" t="str">
+        <f>C59</f>
+        <v>SH</v>
+      </c>
+      <c r="H68" s="29">
+        <v>1</v>
+      </c>
+      <c r="I68" s="29">
+        <v>1</v>
+      </c>
+      <c r="J68" s="29">
+        <v>1</v>
+      </c>
+      <c r="K68" s="29">
+        <v>1</v>
+      </c>
+      <c r="L68" s="29">
+        <v>1</v>
+      </c>
+      <c r="S68" s="29" t="str">
+        <f>O59</f>
+        <v>SH</v>
+      </c>
+      <c r="T68" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G69" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="29">
+        <v>1</v>
+      </c>
+      <c r="I69" s="29">
+        <v>0</v>
+      </c>
+      <c r="J69" s="29">
+        <v>0</v>
+      </c>
+      <c r="K69" s="29">
+        <v>1</v>
+      </c>
+      <c r="L69" s="29">
+        <v>0</v>
+      </c>
+      <c r="S69" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="T69" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G70" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="29">
+        <v>1</v>
+      </c>
+      <c r="I70" s="29">
+        <v>1</v>
+      </c>
+      <c r="J70" s="29">
+        <v>1</v>
+      </c>
+      <c r="K70" s="29">
+        <v>1</v>
+      </c>
+      <c r="L70" s="29">
+        <v>1</v>
+      </c>
+      <c r="S70" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="T70" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G71" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="29">
+        <v>0</v>
+      </c>
+      <c r="I71" s="29">
+        <v>0</v>
+      </c>
+      <c r="J71" s="29">
+        <v>1</v>
+      </c>
+      <c r="K71" s="29">
+        <v>0</v>
+      </c>
+      <c r="L71" s="29">
+        <v>0</v>
+      </c>
+      <c r="S71" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="T71" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G72" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="29">
+        <v>0</v>
+      </c>
+      <c r="I72" s="29">
+        <v>0</v>
+      </c>
+      <c r="J72" s="29">
+        <v>0</v>
+      </c>
+      <c r="K72" s="29">
+        <v>1</v>
+      </c>
+      <c r="L72" s="29">
+        <v>1</v>
+      </c>
+      <c r="S72" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="T72" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="S73" s="28"/>
+      <c r="T73" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="12">
+    <mergeCell ref="AD1:AL1"/>
+    <mergeCell ref="T58:AC58"/>
+    <mergeCell ref="H58:S58"/>
+    <mergeCell ref="T39:AC39"/>
+    <mergeCell ref="H39:S39"/>
+    <mergeCell ref="T1:AC1"/>
+    <mergeCell ref="H1:S1"/>
+    <mergeCell ref="AD58:AL58"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="AD39:AL39"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B58:G58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7198,24 +9585,24 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="67"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -7236,7 +9623,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="54" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -7250,7 +9637,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -7262,7 +9649,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -7274,7 +9661,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -7286,7 +9673,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -7298,7 +9685,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -7310,7 +9697,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -7322,7 +9709,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -7334,7 +9721,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -7346,7 +9733,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -7358,7 +9745,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -7370,7 +9757,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -7382,7 +9769,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -7394,7 +9781,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -7406,7 +9793,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -7418,7 +9805,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -7430,7 +9817,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -7442,7 +9829,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -7454,7 +9841,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -7466,7 +9853,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -7478,7 +9865,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -7490,7 +9877,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -7502,7 +9889,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
@@ -7514,7 +9901,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
@@ -7526,7 +9913,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
@@ -7538,7 +9925,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -7550,7 +9937,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
@@ -7562,7 +9949,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
@@ -7574,7 +9961,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
@@ -7586,7 +9973,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
@@ -7598,7 +9985,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
@@ -7610,7 +9997,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
@@ -7622,7 +10009,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="52"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
@@ -7634,7 +10021,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
@@ -7646,7 +10033,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
@@ -7658,7 +10045,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
@@ -7670,7 +10057,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="54" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -7684,7 +10071,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="52"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
@@ -7696,7 +10083,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="52"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
@@ -7708,7 +10095,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="52"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -7720,7 +10107,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
@@ -7732,7 +10119,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
@@ -7744,7 +10131,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="52"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
@@ -7756,7 +10143,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="52"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -7768,7 +10155,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
@@ -7780,7 +10167,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="52"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
@@ -7792,7 +10179,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="52"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
       </c>
@@ -7804,7 +10191,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="52"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
@@ -7816,7 +10203,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="2" t="s">
         <v>24</v>
       </c>
@@ -7828,7 +10215,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
@@ -7840,7 +10227,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="52"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
@@ -7852,7 +10239,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -7864,7 +10251,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
@@ -7876,7 +10263,7 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="52"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
@@ -7888,7 +10275,7 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="52"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="2" t="s">
         <v>29</v>
       </c>
@@ -7900,7 +10287,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="52"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="2" t="s">
         <v>30</v>
       </c>
@@ -7912,7 +10299,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="52"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="2" t="s">
         <v>31</v>
       </c>
@@ -7924,7 +10311,7 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="52"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="2" t="s">
         <v>32</v>
       </c>
@@ -7936,7 +10323,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="52"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="2" t="s">
         <v>33</v>
       </c>
@@ -7948,7 +10335,7 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="52"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="2" t="s">
         <v>34</v>
       </c>
@@ -7960,7 +10347,7 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="2" t="s">
         <v>35</v>
       </c>
@@ -7972,7 +10359,7 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="2" t="s">
         <v>36</v>
       </c>
@@ -7984,7 +10371,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="52"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="2" t="s">
         <v>37</v>
       </c>
@@ -7996,7 +10383,7 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="52"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="2" t="s">
         <v>38</v>
       </c>
@@ -8008,7 +10395,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="52"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="2" t="s">
         <v>39</v>
       </c>
@@ -8020,7 +10407,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="52"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="2" t="s">
         <v>40</v>
       </c>
@@ -8032,7 +10419,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="52"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="2" t="s">
         <v>41</v>
       </c>
@@ -8044,7 +10431,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="52"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="2" t="s">
         <v>42</v>
       </c>
@@ -8056,7 +10443,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="52"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="2" t="s">
         <v>43</v>
       </c>
@@ -8068,7 +10455,7 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="52"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="2" t="s">
         <v>44</v>
       </c>
@@ -8080,7 +10467,7 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="52"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
@@ -8092,7 +10479,7 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="53"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="2" t="s">
         <v>45</v>
       </c>
@@ -8104,7 +10491,7 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="51" t="s">
+      <c r="A75" s="54" t="s">
         <v>48</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -8118,7 +10505,7 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="52"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
@@ -8130,7 +10517,7 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="52"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
@@ -8142,7 +10529,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="52"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
@@ -8154,7 +10541,7 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="52"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -8166,7 +10553,7 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="52"/>
+      <c r="A80" s="55"/>
       <c r="B80" s="2" t="s">
         <v>17</v>
       </c>
@@ -8178,7 +10565,7 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="2" t="s">
         <v>18</v>
       </c>
@@ -8190,7 +10577,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="2" t="s">
         <v>19</v>
       </c>
@@ -8202,7 +10589,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="2" t="s">
         <v>20</v>
       </c>
@@ -8214,7 +10601,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
@@ -8226,7 +10613,7 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="52"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="2" t="s">
         <v>22</v>
       </c>
@@ -8238,7 +10625,7 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="52"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
@@ -8250,7 +10637,7 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="52"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="2" t="s">
         <v>24</v>
       </c>
@@ -8262,7 +10649,7 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="52"/>
+      <c r="A88" s="55"/>
       <c r="B88" s="2" t="s">
         <v>25</v>
       </c>
@@ -8274,7 +10661,7 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="52"/>
+      <c r="A89" s="55"/>
       <c r="B89" s="2" t="s">
         <v>26</v>
       </c>
@@ -8286,7 +10673,7 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="52"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="2" t="s">
         <v>27</v>
       </c>
@@ -8298,7 +10685,7 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="52"/>
+      <c r="A91" s="55"/>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
@@ -8310,7 +10697,7 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="52"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="2" t="s">
         <v>28</v>
       </c>
@@ -8322,7 +10709,7 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="52"/>
+      <c r="A93" s="55"/>
       <c r="B93" s="2" t="s">
         <v>29</v>
       </c>
@@ -8334,7 +10721,7 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="52"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="2" t="s">
         <v>30</v>
       </c>
@@ -8346,7 +10733,7 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="52"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="2" t="s">
         <v>31</v>
       </c>
@@ -8358,7 +10745,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="52"/>
+      <c r="A96" s="55"/>
       <c r="B96" s="2" t="s">
         <v>32</v>
       </c>
@@ -8370,7 +10757,7 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="52"/>
+      <c r="A97" s="55"/>
       <c r="B97" s="2" t="s">
         <v>33</v>
       </c>
@@ -8382,7 +10769,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="52"/>
+      <c r="A98" s="55"/>
       <c r="B98" s="2" t="s">
         <v>34</v>
       </c>
@@ -8394,7 +10781,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="52"/>
+      <c r="A99" s="55"/>
       <c r="B99" s="2" t="s">
         <v>35</v>
       </c>
@@ -8406,7 +10793,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="52"/>
+      <c r="A100" s="55"/>
       <c r="B100" s="2" t="s">
         <v>36</v>
       </c>
@@ -8418,7 +10805,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="52"/>
+      <c r="A101" s="55"/>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
@@ -8430,7 +10817,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="52"/>
+      <c r="A102" s="55"/>
       <c r="B102" s="2" t="s">
         <v>38</v>
       </c>
@@ -8442,7 +10829,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="52"/>
+      <c r="A103" s="55"/>
       <c r="B103" s="2" t="s">
         <v>39</v>
       </c>
@@ -8454,7 +10841,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="52"/>
+      <c r="A104" s="55"/>
       <c r="B104" s="2" t="s">
         <v>40</v>
       </c>
@@ -8466,7 +10853,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="52"/>
+      <c r="A105" s="55"/>
       <c r="B105" s="2" t="s">
         <v>41</v>
       </c>
@@ -8478,7 +10865,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="52"/>
+      <c r="A106" s="55"/>
       <c r="B106" s="2" t="s">
         <v>42</v>
       </c>
@@ -8490,7 +10877,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="52"/>
+      <c r="A107" s="55"/>
       <c r="B107" s="2" t="s">
         <v>43</v>
       </c>
@@ -8502,7 +10889,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="52"/>
+      <c r="A108" s="55"/>
       <c r="B108" s="2" t="s">
         <v>44</v>
       </c>
@@ -8514,7 +10901,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="52"/>
+      <c r="A109" s="55"/>
       <c r="B109" s="2" t="s">
         <v>4</v>
       </c>
@@ -8526,7 +10913,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="53"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="2" t="s">
         <v>45</v>
       </c>
@@ -8538,7 +10925,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="51" t="s">
+      <c r="A111" s="54" t="s">
         <v>49</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -8552,7 +10939,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="52"/>
+      <c r="A112" s="55"/>
       <c r="B112" s="2" t="s">
         <v>14</v>
       </c>
@@ -8564,7 +10951,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="52"/>
+      <c r="A113" s="55"/>
       <c r="B113" s="2" t="s">
         <v>15</v>
       </c>
@@ -8576,7 +10963,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="52"/>
+      <c r="A114" s="55"/>
       <c r="B114" s="2" t="s">
         <v>16</v>
       </c>
@@ -8588,7 +10975,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="52"/>
+      <c r="A115" s="55"/>
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
@@ -8600,7 +10987,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="52"/>
+      <c r="A116" s="55"/>
       <c r="B116" s="2" t="s">
         <v>17</v>
       </c>
@@ -8612,7 +10999,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="52"/>
+      <c r="A117" s="55"/>
       <c r="B117" s="2" t="s">
         <v>18</v>
       </c>
@@ -8624,7 +11011,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="52"/>
+      <c r="A118" s="55"/>
       <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
@@ -8636,7 +11023,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="52"/>
+      <c r="A119" s="55"/>
       <c r="B119" s="2" t="s">
         <v>20</v>
       </c>
@@ -8648,7 +11035,7 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="52"/>
+      <c r="A120" s="55"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -8660,7 +11047,7 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="52"/>
+      <c r="A121" s="55"/>
       <c r="B121" s="2" t="s">
         <v>22</v>
       </c>
@@ -8672,7 +11059,7 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="52"/>
+      <c r="A122" s="55"/>
       <c r="B122" s="2" t="s">
         <v>23</v>
       </c>
@@ -8684,7 +11071,7 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="52"/>
+      <c r="A123" s="55"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -8696,7 +11083,7 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="52"/>
+      <c r="A124" s="55"/>
       <c r="B124" s="2" t="s">
         <v>25</v>
       </c>
@@ -8708,7 +11095,7 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="52"/>
+      <c r="A125" s="55"/>
       <c r="B125" s="2" t="s">
         <v>26</v>
       </c>
@@ -8720,7 +11107,7 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="52"/>
+      <c r="A126" s="55"/>
       <c r="B126" s="2" t="s">
         <v>27</v>
       </c>
@@ -8732,7 +11119,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="52"/>
+      <c r="A127" s="55"/>
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
@@ -8744,7 +11131,7 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="52"/>
+      <c r="A128" s="55"/>
       <c r="B128" s="2" t="s">
         <v>28</v>
       </c>
@@ -8756,7 +11143,7 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="52"/>
+      <c r="A129" s="55"/>
       <c r="B129" s="2" t="s">
         <v>29</v>
       </c>
@@ -8768,7 +11155,7 @@
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="52"/>
+      <c r="A130" s="55"/>
       <c r="B130" s="2" t="s">
         <v>30</v>
       </c>
@@ -8780,7 +11167,7 @@
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="52"/>
+      <c r="A131" s="55"/>
       <c r="B131" s="2" t="s">
         <v>31</v>
       </c>
@@ -8792,7 +11179,7 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="52"/>
+      <c r="A132" s="55"/>
       <c r="B132" s="2" t="s">
         <v>32</v>
       </c>
@@ -8804,7 +11191,7 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="52"/>
+      <c r="A133" s="55"/>
       <c r="B133" s="2" t="s">
         <v>33</v>
       </c>
@@ -8816,7 +11203,7 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="52"/>
+      <c r="A134" s="55"/>
       <c r="B134" s="2" t="s">
         <v>34</v>
       </c>
@@ -8828,7 +11215,7 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="52"/>
+      <c r="A135" s="55"/>
       <c r="B135" s="2" t="s">
         <v>35</v>
       </c>
@@ -8840,7 +11227,7 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="52"/>
+      <c r="A136" s="55"/>
       <c r="B136" s="2" t="s">
         <v>36</v>
       </c>
@@ -8852,7 +11239,7 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="52"/>
+      <c r="A137" s="55"/>
       <c r="B137" s="2" t="s">
         <v>37</v>
       </c>
@@ -8864,7 +11251,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="52"/>
+      <c r="A138" s="55"/>
       <c r="B138" s="2" t="s">
         <v>38</v>
       </c>
@@ -8876,7 +11263,7 @@
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="52"/>
+      <c r="A139" s="55"/>
       <c r="B139" s="2" t="s">
         <v>39</v>
       </c>
@@ -8888,7 +11275,7 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="52"/>
+      <c r="A140" s="55"/>
       <c r="B140" s="2" t="s">
         <v>40</v>
       </c>
@@ -8900,7 +11287,7 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="52"/>
+      <c r="A141" s="55"/>
       <c r="B141" s="2" t="s">
         <v>41</v>
       </c>
@@ -8912,7 +11299,7 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="52"/>
+      <c r="A142" s="55"/>
       <c r="B142" s="2" t="s">
         <v>42</v>
       </c>
@@ -8924,7 +11311,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="52"/>
+      <c r="A143" s="55"/>
       <c r="B143" s="2" t="s">
         <v>43</v>
       </c>
@@ -8936,7 +11323,7 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="52"/>
+      <c r="A144" s="55"/>
       <c r="B144" s="2" t="s">
         <v>44</v>
       </c>
@@ -8948,7 +11335,7 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="52"/>
+      <c r="A145" s="55"/>
       <c r="B145" s="2" t="s">
         <v>4</v>
       </c>
@@ -8960,7 +11347,7 @@
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="53"/>
+      <c r="A146" s="56"/>
       <c r="B146" s="2" t="s">
         <v>45</v>
       </c>
@@ -8973,7 +11360,7 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="51" t="s">
+      <c r="A152" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B152" s="57" t="s">
@@ -8989,7 +11376,7 @@
       <c r="H152" s="61"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="53"/>
+      <c r="A153" s="56"/>
       <c r="B153" s="58"/>
       <c r="C153" s="1" t="s">
         <v>7</v>
@@ -9011,7 +11398,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="51" t="s">
+      <c r="A154" s="54" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -9025,7 +11412,7 @@
       <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="52"/>
+      <c r="A155" s="55"/>
       <c r="B155" s="2" t="s">
         <v>14</v>
       </c>
@@ -9037,7 +11424,7 @@
       <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="52"/>
+      <c r="A156" s="55"/>
       <c r="B156" s="2" t="s">
         <v>15</v>
       </c>
@@ -9049,7 +11436,7 @@
       <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="52"/>
+      <c r="A157" s="55"/>
       <c r="B157" s="2" t="s">
         <v>16</v>
       </c>
@@ -9061,7 +11448,7 @@
       <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="52"/>
+      <c r="A158" s="55"/>
       <c r="B158" s="2" t="s">
         <v>2</v>
       </c>
@@ -9073,7 +11460,7 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="52"/>
+      <c r="A159" s="55"/>
       <c r="B159" s="2" t="s">
         <v>17</v>
       </c>
@@ -9085,7 +11472,7 @@
       <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="52"/>
+      <c r="A160" s="55"/>
       <c r="B160" s="2" t="s">
         <v>18</v>
       </c>
@@ -9097,7 +11484,7 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="52"/>
+      <c r="A161" s="55"/>
       <c r="B161" s="2" t="s">
         <v>19</v>
       </c>
@@ -9109,7 +11496,7 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="52"/>
+      <c r="A162" s="55"/>
       <c r="B162" s="2" t="s">
         <v>20</v>
       </c>
@@ -9121,7 +11508,7 @@
       <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="52"/>
+      <c r="A163" s="55"/>
       <c r="B163" s="2" t="s">
         <v>21</v>
       </c>
@@ -9133,7 +11520,7 @@
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="52"/>
+      <c r="A164" s="55"/>
       <c r="B164" s="2" t="s">
         <v>22</v>
       </c>
@@ -9145,7 +11532,7 @@
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="52"/>
+      <c r="A165" s="55"/>
       <c r="B165" s="2" t="s">
         <v>23</v>
       </c>
@@ -9157,7 +11544,7 @@
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="52"/>
+      <c r="A166" s="55"/>
       <c r="B166" s="2" t="s">
         <v>24</v>
       </c>
@@ -9169,7 +11556,7 @@
       <c r="H166" s="4"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="52"/>
+      <c r="A167" s="55"/>
       <c r="B167" s="2" t="s">
         <v>25</v>
       </c>
@@ -9181,7 +11568,7 @@
       <c r="H167" s="4"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="53"/>
+      <c r="A168" s="56"/>
       <c r="B168" s="5" t="s">
         <v>50</v>
       </c>
@@ -9193,7 +11580,7 @@
       <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="51" t="s">
+      <c r="A169" s="54" t="s">
         <v>46</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -9207,7 +11594,7 @@
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="52"/>
+      <c r="A170" s="55"/>
       <c r="B170" s="2" t="s">
         <v>14</v>
       </c>
@@ -9219,7 +11606,7 @@
       <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="52"/>
+      <c r="A171" s="55"/>
       <c r="B171" s="2" t="s">
         <v>15</v>
       </c>
@@ -9231,7 +11618,7 @@
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="52"/>
+      <c r="A172" s="55"/>
       <c r="B172" s="2" t="s">
         <v>16</v>
       </c>
@@ -9243,7 +11630,7 @@
       <c r="H172" s="4"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="52"/>
+      <c r="A173" s="55"/>
       <c r="B173" s="2" t="s">
         <v>2</v>
       </c>
@@ -9255,7 +11642,7 @@
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="52"/>
+      <c r="A174" s="55"/>
       <c r="B174" s="2" t="s">
         <v>17</v>
       </c>
@@ -9267,7 +11654,7 @@
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="52"/>
+      <c r="A175" s="55"/>
       <c r="B175" s="2" t="s">
         <v>18</v>
       </c>
@@ -9279,7 +11666,7 @@
       <c r="H175" s="4"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="52"/>
+      <c r="A176" s="55"/>
       <c r="B176" s="2" t="s">
         <v>19</v>
       </c>
@@ -9291,7 +11678,7 @@
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="52"/>
+      <c r="A177" s="55"/>
       <c r="B177" s="2" t="s">
         <v>20</v>
       </c>
@@ -9303,7 +11690,7 @@
       <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="52"/>
+      <c r="A178" s="55"/>
       <c r="B178" s="2" t="s">
         <v>21</v>
       </c>
@@ -9315,7 +11702,7 @@
       <c r="H178" s="4"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="52"/>
+      <c r="A179" s="55"/>
       <c r="B179" s="2" t="s">
         <v>22</v>
       </c>
@@ -9327,7 +11714,7 @@
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="52"/>
+      <c r="A180" s="55"/>
       <c r="B180" s="2" t="s">
         <v>23</v>
       </c>
@@ -9339,7 +11726,7 @@
       <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="52"/>
+      <c r="A181" s="55"/>
       <c r="B181" s="2" t="s">
         <v>24</v>
       </c>
@@ -9351,7 +11738,7 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="52"/>
+      <c r="A182" s="55"/>
       <c r="B182" s="2" t="s">
         <v>25</v>
       </c>
@@ -9363,7 +11750,7 @@
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="53"/>
+      <c r="A183" s="56"/>
       <c r="B183" s="5" t="s">
         <v>50</v>
       </c>
@@ -9375,7 +11762,7 @@
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="51" t="s">
+      <c r="A184" s="54" t="s">
         <v>51</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -9389,7 +11776,7 @@
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="52"/>
+      <c r="A185" s="55"/>
       <c r="B185" s="2" t="s">
         <v>14</v>
       </c>
@@ -9401,7 +11788,7 @@
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="52"/>
+      <c r="A186" s="55"/>
       <c r="B186" s="2" t="s">
         <v>15</v>
       </c>
@@ -9413,7 +11800,7 @@
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="52"/>
+      <c r="A187" s="55"/>
       <c r="B187" s="2" t="s">
         <v>16</v>
       </c>
@@ -9425,7 +11812,7 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="52"/>
+      <c r="A188" s="55"/>
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -9437,7 +11824,7 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="52"/>
+      <c r="A189" s="55"/>
       <c r="B189" s="2" t="s">
         <v>17</v>
       </c>
@@ -9449,7 +11836,7 @@
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="52"/>
+      <c r="A190" s="55"/>
       <c r="B190" s="2" t="s">
         <v>18</v>
       </c>
@@ -9461,7 +11848,7 @@
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="52"/>
+      <c r="A191" s="55"/>
       <c r="B191" s="2" t="s">
         <v>19</v>
       </c>
@@ -9473,7 +11860,7 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="52"/>
+      <c r="A192" s="55"/>
       <c r="B192" s="2" t="s">
         <v>20</v>
       </c>
@@ -9485,7 +11872,7 @@
       <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="52"/>
+      <c r="A193" s="55"/>
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
@@ -9497,7 +11884,7 @@
       <c r="H193" s="4"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="52"/>
+      <c r="A194" s="55"/>
       <c r="B194" s="2" t="s">
         <v>22</v>
       </c>
@@ -9509,7 +11896,7 @@
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="52"/>
+      <c r="A195" s="55"/>
       <c r="B195" s="2" t="s">
         <v>23</v>
       </c>
@@ -9521,7 +11908,7 @@
       <c r="H195" s="4"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="52"/>
+      <c r="A196" s="55"/>
       <c r="B196" s="2" t="s">
         <v>24</v>
       </c>
@@ -9533,7 +11920,7 @@
       <c r="H196" s="4"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="52"/>
+      <c r="A197" s="55"/>
       <c r="B197" s="2" t="s">
         <v>25</v>
       </c>
@@ -9545,7 +11932,7 @@
       <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="53"/>
+      <c r="A198" s="56"/>
       <c r="B198" s="5" t="s">
         <v>50</v>
       </c>
@@ -9557,7 +11944,7 @@
       <c r="H198" s="4"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="51" t="s">
+      <c r="A199" s="54" t="s">
         <v>52</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -9571,7 +11958,7 @@
       <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="52"/>
+      <c r="A200" s="55"/>
       <c r="B200" s="2" t="s">
         <v>14</v>
       </c>
@@ -9583,7 +11970,7 @@
       <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="52"/>
+      <c r="A201" s="55"/>
       <c r="B201" s="2" t="s">
         <v>15</v>
       </c>
@@ -9595,7 +11982,7 @@
       <c r="H201" s="4"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="52"/>
+      <c r="A202" s="55"/>
       <c r="B202" s="2" t="s">
         <v>16</v>
       </c>
@@ -9607,7 +11994,7 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="52"/>
+      <c r="A203" s="55"/>
       <c r="B203" s="2" t="s">
         <v>2</v>
       </c>
@@ -9619,7 +12006,7 @@
       <c r="H203" s="4"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="52"/>
+      <c r="A204" s="55"/>
       <c r="B204" s="2" t="s">
         <v>17</v>
       </c>
@@ -9631,7 +12018,7 @@
       <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="52"/>
+      <c r="A205" s="55"/>
       <c r="B205" s="2" t="s">
         <v>18</v>
       </c>
@@ -9643,7 +12030,7 @@
       <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="52"/>
+      <c r="A206" s="55"/>
       <c r="B206" s="2" t="s">
         <v>19</v>
       </c>
@@ -9655,7 +12042,7 @@
       <c r="H206" s="4"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="52"/>
+      <c r="A207" s="55"/>
       <c r="B207" s="2" t="s">
         <v>20</v>
       </c>
@@ -9667,7 +12054,7 @@
       <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="52"/>
+      <c r="A208" s="55"/>
       <c r="B208" s="2" t="s">
         <v>21</v>
       </c>
@@ -9679,7 +12066,7 @@
       <c r="H208" s="4"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="52"/>
+      <c r="A209" s="55"/>
       <c r="B209" s="2" t="s">
         <v>22</v>
       </c>
@@ -9691,7 +12078,7 @@
       <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="52"/>
+      <c r="A210" s="55"/>
       <c r="B210" s="2" t="s">
         <v>23</v>
       </c>
@@ -9703,7 +12090,7 @@
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="52"/>
+      <c r="A211" s="55"/>
       <c r="B211" s="2" t="s">
         <v>24</v>
       </c>
@@ -9715,7 +12102,7 @@
       <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="52"/>
+      <c r="A212" s="55"/>
       <c r="B212" s="2" t="s">
         <v>25</v>
       </c>
@@ -9727,7 +12114,7 @@
       <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="53"/>
+      <c r="A213" s="56"/>
       <c r="B213" s="5" t="s">
         <v>50</v>
       </c>
@@ -9740,6 +12127,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -9749,11 +12141,6 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/对比/性能对比.xlsx
+++ b/对比/性能对比.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\doc\毕设新\bishe\对比\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\bishe\对比\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="162">
   <si>
     <t>算法</t>
   </si>
@@ -667,6 +667,39 @@
   </si>
   <si>
     <t>与项目架构对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异构组组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,15 +1126,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1119,6 +1145,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1144,6 +1179,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1158,32 +1217,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1469,7 +1502,7 @@
   <dimension ref="A3:AD131"/>
   <sheetViews>
     <sheetView topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:A86"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1818,46 +1851,46 @@
     </row>
     <row r="39" spans="1:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="57" t="s">
+      <c r="B40" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="61"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
       <c r="K40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L40" s="62" t="s">
+      <c r="L40" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="63"/>
-      <c r="N40" s="64"/>
-      <c r="O40" s="62" t="s">
+      <c r="M40" s="65"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="48" t="s">
+      <c r="P40" s="65"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="S40" s="49"/>
-      <c r="T40" s="50"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="58"/>
     </row>
     <row r="41" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="20" t="s">
         <v>7</v>
       </c>
@@ -1879,24 +1912,24 @@
       <c r="K41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L41" s="48">
+      <c r="L41" s="56">
         <v>65</v>
       </c>
-      <c r="M41" s="49"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="48">
+      <c r="M41" s="57"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="56">
         <v>65</v>
       </c>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="48">
+      <c r="P41" s="57"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="56">
         <v>45</v>
       </c>
-      <c r="S41" s="49"/>
-      <c r="T41" s="50"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="58"/>
     </row>
     <row r="42" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1926,26 +1959,26 @@
       <c r="K42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L42" s="48">
+      <c r="L42" s="56">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="49"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="48">
+      <c r="M42" s="57"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="56">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="49"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="48">
+      <c r="P42" s="57"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="56">
         <v>1</v>
       </c>
-      <c r="S42" s="49"/>
-      <c r="T42" s="50"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="58"/>
     </row>
     <row r="43" spans="1:30" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
@@ -2015,7 +2048,7 @@
       </c>
     </row>
     <row r="44" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="2" t="s">
         <v>22</v>
       </c>
@@ -2114,7 +2147,7 @@
       </c>
     </row>
     <row r="45" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="55"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="2" t="s">
         <v>21</v>
       </c>
@@ -2213,7 +2246,7 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="55"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -2312,7 +2345,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
@@ -2411,7 +2444,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
@@ -2510,7 +2543,7 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
@@ -2609,7 +2642,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="55"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
@@ -2694,7 +2727,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="55"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
@@ -2779,7 +2812,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="55"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
@@ -2831,7 +2864,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="55"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
@@ -2856,7 +2889,7 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="55"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="2" t="s">
         <v>18</v>
       </c>
@@ -2881,7 +2914,7 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="55"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
@@ -2906,7 +2939,7 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="56"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="5" t="s">
         <v>50</v>
       </c>
@@ -2931,7 +2964,7 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="53" t="s">
         <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2972,7 +3005,7 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="55"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="2" t="s">
         <v>14</v>
       </c>
@@ -3011,7 +3044,7 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="55"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="2" t="s">
         <v>22</v>
       </c>
@@ -3050,7 +3083,7 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="55"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
@@ -3089,7 +3122,7 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="55"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="2" t="s">
         <v>19</v>
       </c>
@@ -3128,7 +3161,7 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="55"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="2" t="s">
         <v>17</v>
       </c>
@@ -3167,7 +3200,7 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="55"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
@@ -3206,7 +3239,7 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="55"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="2" t="s">
         <v>16</v>
       </c>
@@ -3234,7 +3267,7 @@
       <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="55"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="2" t="s">
         <v>20</v>
       </c>
@@ -3248,7 +3281,7 @@
       <c r="K65" s="12"/>
     </row>
     <row r="66" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="55"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="2" t="s">
         <v>23</v>
       </c>
@@ -3262,24 +3295,24 @@
       <c r="K66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="48" t="s">
+      <c r="L66" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="M66" s="49"/>
-      <c r="N66" s="50"/>
-      <c r="O66" s="48" t="s">
+      <c r="M66" s="57"/>
+      <c r="N66" s="58"/>
+      <c r="O66" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="50"/>
-      <c r="R66" s="48" t="s">
+      <c r="P66" s="57"/>
+      <c r="Q66" s="58"/>
+      <c r="R66" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="S66" s="49"/>
-      <c r="T66" s="50"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="58"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="55"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="2" t="s">
         <v>15</v>
       </c>
@@ -3293,18 +3326,18 @@
       <c r="K67" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L67" s="48"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="50"/>
-      <c r="O67" s="48"/>
-      <c r="P67" s="49"/>
-      <c r="Q67" s="50"/>
-      <c r="R67" s="48"/>
-      <c r="S67" s="49"/>
-      <c r="T67" s="50"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="58"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="58"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="55"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="2" t="s">
         <v>2</v>
       </c>
@@ -3318,18 +3351,18 @@
       <c r="K68" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L68" s="48"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="50"/>
-      <c r="O68" s="48"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="50"/>
-      <c r="R68" s="48"/>
-      <c r="S68" s="49"/>
-      <c r="T68" s="50"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="58"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="58"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="57"/>
+      <c r="T68" s="58"/>
     </row>
     <row r="69" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="55"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="2" t="s">
         <v>18</v>
       </c>
@@ -3370,7 +3403,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="55"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="2" t="s">
         <v>25</v>
       </c>
@@ -3395,7 +3428,7 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="56"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="5" t="s">
         <v>50</v>
       </c>
@@ -3420,7 +3453,7 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="51" t="s">
+      <c r="A72" s="50" t="s">
         <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3461,7 +3494,7 @@
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="52"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="2" t="s">
         <v>14</v>
       </c>
@@ -3500,7 +3533,7 @@
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="52"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="2" t="s">
         <v>22</v>
       </c>
@@ -3539,7 +3572,7 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="52"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="2" t="s">
         <v>21</v>
       </c>
@@ -3578,7 +3611,7 @@
       <c r="T75" s="1"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="52"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="2" t="s">
         <v>19</v>
       </c>
@@ -3617,7 +3650,7 @@
       <c r="T76" s="1"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="52"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="2" t="s">
         <v>17</v>
       </c>
@@ -3656,7 +3689,7 @@
       <c r="T77" s="1"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="52"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="2" t="s">
         <v>24</v>
       </c>
@@ -3695,7 +3728,7 @@
       <c r="T78" s="1"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="52"/>
+      <c r="A79" s="51"/>
       <c r="B79" s="2" t="s">
         <v>16</v>
       </c>
@@ -3734,7 +3767,7 @@
       <c r="T79" s="1"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="52"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="2" t="s">
         <v>20</v>
       </c>
@@ -3759,7 +3792,7 @@
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
+      <c r="A81" s="51"/>
       <c r="B81" s="2" t="s">
         <v>23</v>
       </c>
@@ -3784,7 +3817,7 @@
       <c r="T81" s="1"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="2" t="s">
         <v>15</v>
       </c>
@@ -3809,7 +3842,7 @@
       <c r="T82" s="1"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="2" t="s">
         <v>2</v>
       </c>
@@ -3834,7 +3867,7 @@
       <c r="T83" s="1"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="2" t="s">
         <v>18</v>
       </c>
@@ -3859,7 +3892,7 @@
       <c r="T84" s="1"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="52"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="2" t="s">
         <v>25</v>
       </c>
@@ -3884,7 +3917,7 @@
       <c r="T85" s="1"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="53"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="5" t="s">
         <v>50</v>
       </c>
@@ -3909,7 +3942,7 @@
       <c r="T86" s="1"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="51" t="s">
+      <c r="A87" s="50" t="s">
         <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3950,7 +3983,7 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="52"/>
+      <c r="A88" s="51"/>
       <c r="B88" s="2" t="s">
         <v>14</v>
       </c>
@@ -3989,7 +4022,7 @@
       <c r="T88" s="1"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="52"/>
+      <c r="A89" s="51"/>
       <c r="B89" s="2" t="s">
         <v>22</v>
       </c>
@@ -4028,7 +4061,7 @@
       <c r="T89" s="1"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="52"/>
+      <c r="A90" s="51"/>
       <c r="B90" s="2" t="s">
         <v>21</v>
       </c>
@@ -4055,7 +4088,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="52"/>
+      <c r="A91" s="51"/>
       <c r="B91" s="2" t="s">
         <v>19</v>
       </c>
@@ -4082,7 +4115,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="52"/>
+      <c r="A92" s="51"/>
       <c r="B92" s="2" t="s">
         <v>17</v>
       </c>
@@ -4113,7 +4146,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="52"/>
+      <c r="A93" s="51"/>
       <c r="B93" s="2" t="s">
         <v>24</v>
       </c>
@@ -4144,7 +4177,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="52"/>
+      <c r="A94" s="51"/>
       <c r="B94" s="2" t="s">
         <v>16</v>
       </c>
@@ -4175,7 +4208,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="52"/>
+      <c r="A95" s="51"/>
       <c r="B95" s="2" t="s">
         <v>20</v>
       </c>
@@ -4192,7 +4225,7 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="52"/>
+      <c r="A96" s="51"/>
       <c r="B96" s="2" t="s">
         <v>23</v>
       </c>
@@ -4209,7 +4242,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="52"/>
+      <c r="A97" s="51"/>
       <c r="B97" s="2" t="s">
         <v>15</v>
       </c>
@@ -4226,7 +4259,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="52"/>
+      <c r="A98" s="51"/>
       <c r="B98" s="2" t="s">
         <v>2</v>
       </c>
@@ -4243,7 +4276,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="52"/>
+      <c r="A99" s="51"/>
       <c r="B99" s="2" t="s">
         <v>18</v>
       </c>
@@ -4260,7 +4293,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="52"/>
+      <c r="A100" s="51"/>
       <c r="B100" s="2" t="s">
         <v>25</v>
       </c>
@@ -4273,7 +4306,7 @@
       <c r="I100" s="4"/>
     </row>
     <row r="101" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="53"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="5" t="s">
         <v>50</v>
       </c>
@@ -4290,7 +4323,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="51" t="s">
+      <c r="A102" s="50" t="s">
         <v>76</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -4305,7 +4338,7 @@
       <c r="I102" s="4"/>
     </row>
     <row r="103" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="52"/>
+      <c r="A103" s="51"/>
       <c r="B103" s="2" t="s">
         <v>14</v>
       </c>
@@ -4318,7 +4351,7 @@
       <c r="I103" s="4"/>
     </row>
     <row r="104" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="52"/>
+      <c r="A104" s="51"/>
       <c r="B104" s="2" t="s">
         <v>22</v>
       </c>
@@ -4345,7 +4378,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="52"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="2" t="s">
         <v>21</v>
       </c>
@@ -4371,7 +4404,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="52"/>
+      <c r="A106" s="51"/>
       <c r="B106" s="2" t="s">
         <v>19</v>
       </c>
@@ -4397,7 +4430,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="52"/>
+      <c r="A107" s="51"/>
       <c r="B107" s="2" t="s">
         <v>17</v>
       </c>
@@ -4424,7 +4457,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="52"/>
+      <c r="A108" s="51"/>
       <c r="B108" s="2" t="s">
         <v>24</v>
       </c>
@@ -4451,7 +4484,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="52"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="2" t="s">
         <v>16</v>
       </c>
@@ -4478,7 +4511,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="52"/>
+      <c r="A110" s="51"/>
       <c r="B110" s="2" t="s">
         <v>20</v>
       </c>
@@ -4505,7 +4538,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="52"/>
+      <c r="A111" s="51"/>
       <c r="B111" s="2" t="s">
         <v>23</v>
       </c>
@@ -4531,7 +4564,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="52"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="2" t="s">
         <v>15</v>
       </c>
@@ -4548,7 +4581,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="52"/>
+      <c r="A113" s="51"/>
       <c r="B113" s="2" t="s">
         <v>2</v>
       </c>
@@ -4561,7 +4594,7 @@
       <c r="I113" s="4"/>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="52"/>
+      <c r="A114" s="51"/>
       <c r="B114" s="2" t="s">
         <v>18</v>
       </c>
@@ -4574,7 +4607,7 @@
       <c r="I114" s="4"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="52"/>
+      <c r="A115" s="51"/>
       <c r="B115" s="2" t="s">
         <v>25</v>
       </c>
@@ -4587,7 +4620,7 @@
       <c r="I115" s="4"/>
     </row>
     <row r="116" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="53"/>
+      <c r="A116" s="52"/>
       <c r="B116" s="5" t="s">
         <v>50</v>
       </c>
@@ -4600,7 +4633,7 @@
       <c r="I116" s="4"/>
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="54" t="s">
+      <c r="A117" s="53" t="s">
         <v>77</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -4615,7 +4648,7 @@
       <c r="I117" s="4"/>
     </row>
     <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="55"/>
+      <c r="A118" s="54"/>
       <c r="B118" s="2" t="s">
         <v>14</v>
       </c>
@@ -4628,7 +4661,7 @@
       <c r="I118" s="4"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="55"/>
+      <c r="A119" s="54"/>
       <c r="B119" s="2" t="s">
         <v>22</v>
       </c>
@@ -4641,7 +4674,7 @@
       <c r="I119" s="4"/>
     </row>
     <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="55"/>
+      <c r="A120" s="54"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -4654,7 +4687,7 @@
       <c r="I120" s="4"/>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="55"/>
+      <c r="A121" s="54"/>
       <c r="B121" s="2" t="s">
         <v>19</v>
       </c>
@@ -4667,7 +4700,7 @@
       <c r="I121" s="4"/>
     </row>
     <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="55"/>
+      <c r="A122" s="54"/>
       <c r="B122" s="2" t="s">
         <v>17</v>
       </c>
@@ -4680,7 +4713,7 @@
       <c r="I122" s="4"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="55"/>
+      <c r="A123" s="54"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -4693,7 +4726,7 @@
       <c r="I123" s="4"/>
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="55"/>
+      <c r="A124" s="54"/>
       <c r="B124" s="2" t="s">
         <v>16</v>
       </c>
@@ -4706,7 +4739,7 @@
       <c r="I124" s="4"/>
     </row>
     <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="55"/>
+      <c r="A125" s="54"/>
       <c r="B125" s="2" t="s">
         <v>20</v>
       </c>
@@ -4719,7 +4752,7 @@
       <c r="I125" s="4"/>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="55"/>
+      <c r="A126" s="54"/>
       <c r="B126" s="2" t="s">
         <v>23</v>
       </c>
@@ -4732,7 +4765,7 @@
       <c r="I126" s="4"/>
     </row>
     <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="55"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="2" t="s">
         <v>15</v>
       </c>
@@ -4745,7 +4778,7 @@
       <c r="I127" s="4"/>
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="55"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="2" t="s">
         <v>2</v>
       </c>
@@ -4758,7 +4791,7 @@
       <c r="I128" s="4"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="55"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="2" t="s">
         <v>18</v>
       </c>
@@ -4771,7 +4804,7 @@
       <c r="I129" s="4"/>
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="55"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="2" t="s">
         <v>25</v>
       </c>
@@ -4784,7 +4817,7 @@
       <c r="I130" s="4"/>
     </row>
     <row r="131" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="56"/>
+      <c r="A131" s="55"/>
       <c r="B131" s="5" t="s">
         <v>50</v>
       </c>
@@ -4798,18 +4831,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="A117:A131"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="A72:A86"/>
     <mergeCell ref="A87:A101"/>
@@ -4826,6 +4847,18 @@
     <mergeCell ref="L67:N67"/>
     <mergeCell ref="O67:Q67"/>
     <mergeCell ref="R67:T67"/>
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="A117:A131"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4837,15 +4870,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="8" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="20.625" customWidth="1"/>
     <col min="11" max="12" width="9" customWidth="1"/>
@@ -4857,54 +4891,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="75" t="s">
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="77" t="s">
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="79"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="69"/>
     </row>
     <row r="2" spans="1:39" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="29"/>
@@ -5877,6 +5911,12 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C10" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>153</v>
+      </c>
       <c r="G10" s="28" t="str">
         <f>B2</f>
         <v>AU</v>
@@ -5918,6 +5958,12 @@
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="C11" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="29">
+        <v>2</v>
+      </c>
       <c r="G11" s="29" t="str">
         <f>C2</f>
         <v>SH</v>
@@ -5959,6 +6005,12 @@
       </c>
     </row>
     <row r="12" spans="1:39" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C12" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="29">
+        <v>2</v>
+      </c>
       <c r="G12" s="28" t="s">
         <v>1</v>
       </c>
@@ -5998,6 +6050,12 @@
       </c>
     </row>
     <row r="13" spans="1:39" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C13" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="29">
+        <v>4</v>
+      </c>
       <c r="G13" s="28" t="s">
         <v>9</v>
       </c>
@@ -6037,6 +6095,12 @@
       </c>
     </row>
     <row r="14" spans="1:39" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C14" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="29">
+        <v>2</v>
+      </c>
       <c r="G14" s="28" t="s">
         <v>10</v>
       </c>
@@ -6076,6 +6140,12 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C15" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="29">
+        <v>2</v>
+      </c>
       <c r="G15" s="28" t="s">
         <v>11</v>
       </c>
@@ -6115,8 +6185,14 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="C16" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="29">
+        <v>3</v>
+      </c>
       <c r="G16" s="29" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
@@ -6386,7 +6462,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="29">
-        <f t="shared" ref="B21:B25" si="33">7742.8*M5</f>
+        <f t="shared" ref="B22:B25" si="33">7742.8*M5</f>
         <v>23228.400000000001</v>
       </c>
       <c r="C22" s="29">
@@ -7338,54 +7414,54 @@
       <c r="T37" s="25"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A39" s="71" t="s">
+      <c r="A39" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="73" t="s">
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
-      <c r="T39" s="75" t="s">
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="U39" s="75"/>
-      <c r="V39" s="75"/>
-      <c r="W39" s="75"/>
-      <c r="X39" s="75"/>
-      <c r="Y39" s="75"/>
-      <c r="Z39" s="75"/>
-      <c r="AA39" s="75"/>
-      <c r="AB39" s="75"/>
-      <c r="AC39" s="76"/>
-      <c r="AD39" s="77" t="s">
+      <c r="U39" s="70"/>
+      <c r="V39" s="70"/>
+      <c r="W39" s="70"/>
+      <c r="X39" s="70"/>
+      <c r="Y39" s="70"/>
+      <c r="Z39" s="70"/>
+      <c r="AA39" s="70"/>
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="71"/>
+      <c r="AD39" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="AE39" s="78"/>
-      <c r="AF39" s="78"/>
-      <c r="AG39" s="78"/>
-      <c r="AH39" s="78"/>
-      <c r="AI39" s="78"/>
-      <c r="AJ39" s="78"/>
-      <c r="AK39" s="78"/>
-      <c r="AL39" s="79"/>
+      <c r="AE39" s="68"/>
+      <c r="AF39" s="68"/>
+      <c r="AG39" s="68"/>
+      <c r="AH39" s="68"/>
+      <c r="AI39" s="68"/>
+      <c r="AJ39" s="68"/>
+      <c r="AK39" s="68"/>
+      <c r="AL39" s="69"/>
     </row>
     <row r="40" spans="1:38" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A40" s="29"/>
@@ -7566,7 +7642,7 @@
         <v>4</v>
       </c>
       <c r="T41" s="30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U41" s="30">
         <v>2</v>
@@ -7596,31 +7672,31 @@
         <v>24</v>
       </c>
       <c r="AD41" s="29">
-        <f>U41-M41</f>
+        <f t="shared" ref="AD41:AD46" si="55">U41-M41</f>
         <v>-1</v>
       </c>
-      <c r="AE41" s="70">
-        <f>(V41-N41)/V41</f>
+      <c r="AE41" s="48">
+        <f t="shared" ref="AE41:AI46" si="56">(V41-N41)/V41</f>
         <v>-0.5</v>
       </c>
-      <c r="AF41" s="70">
-        <f>(W41-O41)/W41</f>
+      <c r="AF41" s="48">
+        <f t="shared" si="56"/>
         <v>-0.5</v>
       </c>
-      <c r="AG41" s="70">
-        <f>(X41-P41)/X41</f>
+      <c r="AG41" s="48">
+        <f t="shared" si="56"/>
         <v>0.5</v>
       </c>
-      <c r="AH41" s="70">
-        <f>(Y41-Q41)/Y41</f>
+      <c r="AH41" s="48">
+        <f t="shared" si="56"/>
         <v>0.75</v>
       </c>
-      <c r="AI41" s="70">
-        <f>(Z41-R41)/Z41</f>
+      <c r="AI41" s="48">
+        <f t="shared" si="56"/>
         <v>0.5</v>
       </c>
       <c r="AJ41" s="41">
-        <f>AA41-S41</f>
+        <f t="shared" ref="AJ41:AJ46" si="57">AA41-S41</f>
         <v>-4</v>
       </c>
       <c r="AK41" s="29">
@@ -7697,7 +7773,7 @@
         <v>4</v>
       </c>
       <c r="T42" s="30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U42" s="30">
         <v>3</v>
@@ -7727,39 +7803,39 @@
         <v>48</v>
       </c>
       <c r="AD42" s="29">
-        <f>U42-M42</f>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="70">
-        <f>(V42-N42)/V42</f>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="70">
-        <f>(W42-O42)/W42</f>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="70">
-        <f>(X42-P42)/X42</f>
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="48">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="48">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="48">
+        <f t="shared" si="56"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AH42" s="70">
-        <f>(Y42-Q42)/Y42</f>
+      <c r="AH42" s="48">
+        <f t="shared" si="56"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AI42" s="70">
-        <f>(Z42-R42)/Z42</f>
+      <c r="AI42" s="48">
+        <f t="shared" si="56"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AJ42" s="41">
-        <f>AA42-S42</f>
+        <f t="shared" si="57"/>
         <v>-4</v>
       </c>
       <c r="AK42" s="29">
-        <f t="shared" ref="AK42:AK46" si="55">AB42</f>
+        <f t="shared" ref="AK42:AK46" si="58">AB42</f>
         <v>0</v>
       </c>
       <c r="AL42" s="29">
-        <f t="shared" ref="AL42:AL46" si="56">AC42</f>
+        <f t="shared" ref="AL42:AL46" si="59">AC42</f>
         <v>48</v>
       </c>
     </row>
@@ -7822,7 +7898,7 @@
         <v>4</v>
       </c>
       <c r="T43" s="30">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="U43" s="30">
         <v>4</v>
@@ -7852,39 +7928,39 @@
         <v>48</v>
       </c>
       <c r="AD43" s="29">
-        <f>U43-M43</f>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
-      <c r="AE43" s="70">
-        <f>(V43-N43)/V43</f>
+      <c r="AE43" s="48">
+        <f t="shared" si="56"/>
         <v>0.25</v>
       </c>
-      <c r="AF43" s="70">
-        <f>(W43-O43)/W43</f>
+      <c r="AF43" s="48">
+        <f t="shared" si="56"/>
         <v>0.25</v>
       </c>
-      <c r="AG43" s="70">
-        <f>(X43-P43)/X43</f>
+      <c r="AG43" s="48">
+        <f t="shared" si="56"/>
         <v>0.75</v>
       </c>
-      <c r="AH43" s="70">
-        <f>(Y43-Q43)/Y43</f>
+      <c r="AH43" s="48">
+        <f t="shared" si="56"/>
         <v>0.875</v>
       </c>
-      <c r="AI43" s="70">
-        <f>(Z43-R43)/Z43</f>
+      <c r="AI43" s="48">
+        <f t="shared" si="56"/>
         <v>0.75</v>
       </c>
       <c r="AJ43" s="41">
-        <f>AA43-S43</f>
+        <f t="shared" si="57"/>
         <v>-4</v>
       </c>
       <c r="AK43" s="29">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AL43" s="29">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>48</v>
       </c>
     </row>
@@ -7933,27 +8009,27 @@
         <v>24</v>
       </c>
       <c r="O44" s="29">
-        <f t="shared" ref="O44:S44" si="57">O43*2</f>
+        <f t="shared" ref="O44:S44" si="60">O43*2</f>
         <v>24</v>
       </c>
       <c r="P44" s="29">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>8</v>
       </c>
       <c r="Q44" s="29">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>24</v>
       </c>
       <c r="R44" s="46">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>8</v>
       </c>
       <c r="S44" s="29">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>8</v>
       </c>
       <c r="T44" s="30">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="U44" s="30">
         <v>5</v>
@@ -7983,39 +8059,39 @@
         <v>72</v>
       </c>
       <c r="AD44" s="29">
-        <f>U44-M44</f>
+        <f t="shared" si="55"/>
         <v>-1</v>
       </c>
-      <c r="AE44" s="70">
-        <f>(V44-N44)/V44</f>
+      <c r="AE44" s="48">
+        <f t="shared" si="56"/>
         <v>-0.2</v>
       </c>
-      <c r="AF44" s="70">
-        <f>(W44-O44)/W44</f>
+      <c r="AF44" s="48">
+        <f t="shared" si="56"/>
         <v>-0.2</v>
       </c>
-      <c r="AG44" s="70">
-        <f>(X44-P44)/X44</f>
+      <c r="AG44" s="48">
+        <f t="shared" si="56"/>
         <v>0.6</v>
       </c>
-      <c r="AH44" s="70">
-        <f>(Y44-Q44)/Y44</f>
+      <c r="AH44" s="48">
+        <f t="shared" si="56"/>
         <v>0.8</v>
       </c>
-      <c r="AI44" s="70">
-        <f>(Z44-R44)/Z44</f>
+      <c r="AI44" s="48">
+        <f t="shared" si="56"/>
         <v>0.6</v>
       </c>
       <c r="AJ44" s="41">
-        <f>AA44-S44</f>
+        <f t="shared" si="57"/>
         <v>-8</v>
       </c>
       <c r="AK44" s="29">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AL44" s="29">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>72</v>
       </c>
     </row>
@@ -8046,19 +8122,19 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="I45" s="31">
-        <f t="shared" ref="I45:L45" si="58">I41*4/3</f>
+        <f t="shared" ref="I45:L45" si="61">I41*4/3</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="J45" s="31">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>5.333333333333333</v>
       </c>
       <c r="K45" s="31">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="L45" s="31">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="M45" s="30">
@@ -8069,27 +8145,27 @@
         <v>16</v>
       </c>
       <c r="O45" s="29">
-        <f t="shared" ref="O45:S45" si="59">O43/3*4</f>
+        <f t="shared" ref="O45:S45" si="62">O43/3*4</f>
         <v>16</v>
       </c>
       <c r="P45" s="41">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>5.333333333333333</v>
       </c>
       <c r="Q45" s="29">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>16</v>
       </c>
       <c r="R45" s="47">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>5.333333333333333</v>
       </c>
       <c r="S45" s="41">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>5.333333333333333</v>
       </c>
       <c r="T45" s="30">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="U45" s="30">
         <v>4</v>
@@ -8119,39 +8195,39 @@
         <v>48</v>
       </c>
       <c r="AD45" s="29">
-        <f>U45-M45</f>
-        <v>0</v>
-      </c>
-      <c r="AE45" s="70">
-        <f>(V45-N45)/V45</f>
-        <v>0</v>
-      </c>
-      <c r="AF45" s="70">
-        <f>(W45-O45)/W45</f>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="70">
-        <f>(X45-P45)/X45</f>
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="48">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="48">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="48">
+        <f t="shared" si="56"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="AH45" s="70">
-        <f>(Y45-Q45)/Y45</f>
+      <c r="AH45" s="48">
+        <f t="shared" si="56"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AI45" s="70">
-        <f>(Z45-R45)/Z45</f>
+      <c r="AI45" s="48">
+        <f t="shared" si="56"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="AJ45" s="41">
-        <f>AA45-S45</f>
+        <f t="shared" si="57"/>
         <v>-5.333333333333333</v>
       </c>
       <c r="AK45" s="29">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AL45" s="29">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>48</v>
       </c>
     </row>
@@ -8214,7 +8290,7 @@
         <v>4</v>
       </c>
       <c r="T46" s="30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U46" s="30">
         <v>3</v>
@@ -8244,39 +8320,39 @@
         <v>48</v>
       </c>
       <c r="AD46" s="29">
-        <f>U46-M46</f>
-        <v>0</v>
-      </c>
-      <c r="AE46" s="70">
-        <f>(V46-N46)/V46</f>
-        <v>0</v>
-      </c>
-      <c r="AF46" s="70">
-        <f>(W46-O46)/W46</f>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="70">
-        <f>(X46-P46)/X46</f>
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="48">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="48">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="48">
+        <f t="shared" si="56"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AH46" s="70">
-        <f>(Y46-Q46)/Y46</f>
+      <c r="AH46" s="48">
+        <f t="shared" si="56"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AI46" s="70">
-        <f>(Z46-R46)/Z46</f>
+      <c r="AI46" s="48">
+        <f t="shared" si="56"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AJ46" s="41">
-        <f>AA46-S46</f>
+        <f t="shared" si="57"/>
         <v>-4</v>
       </c>
       <c r="AK46" s="29">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AL46" s="29">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>48</v>
       </c>
     </row>
@@ -8447,54 +8523,54 @@
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="73" t="s">
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="74"/>
-      <c r="L58" s="74"/>
-      <c r="M58" s="74"/>
-      <c r="N58" s="74"/>
-      <c r="O58" s="74"/>
-      <c r="P58" s="74"/>
-      <c r="Q58" s="74"/>
-      <c r="R58" s="74"/>
-      <c r="S58" s="74"/>
-      <c r="T58" s="75" t="s">
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="U58" s="75"/>
-      <c r="V58" s="75"/>
-      <c r="W58" s="75"/>
-      <c r="X58" s="75"/>
-      <c r="Y58" s="75"/>
-      <c r="Z58" s="75"/>
-      <c r="AA58" s="75"/>
-      <c r="AB58" s="75"/>
-      <c r="AC58" s="76"/>
-      <c r="AD58" s="77" t="s">
+      <c r="U58" s="70"/>
+      <c r="V58" s="70"/>
+      <c r="W58" s="70"/>
+      <c r="X58" s="70"/>
+      <c r="Y58" s="70"/>
+      <c r="Z58" s="70"/>
+      <c r="AA58" s="70"/>
+      <c r="AB58" s="70"/>
+      <c r="AC58" s="71"/>
+      <c r="AD58" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="AE58" s="78"/>
-      <c r="AF58" s="78"/>
-      <c r="AG58" s="78"/>
-      <c r="AH58" s="78"/>
-      <c r="AI58" s="78"/>
-      <c r="AJ58" s="78"/>
-      <c r="AK58" s="78"/>
-      <c r="AL58" s="79"/>
+      <c r="AE58" s="68"/>
+      <c r="AF58" s="68"/>
+      <c r="AG58" s="68"/>
+      <c r="AH58" s="68"/>
+      <c r="AI58" s="68"/>
+      <c r="AJ58" s="68"/>
+      <c r="AK58" s="68"/>
+      <c r="AL58" s="69"/>
     </row>
     <row r="59" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
@@ -8675,7 +8751,7 @@
         <v>4</v>
       </c>
       <c r="T60" s="30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U60" s="30">
         <v>2</v>
@@ -8705,31 +8781,31 @@
         <v>0</v>
       </c>
       <c r="AD60" s="29">
-        <f>U60-M60</f>
+        <f t="shared" ref="AD60:AD65" si="63">U60-M60</f>
         <v>-1</v>
       </c>
-      <c r="AE60" s="70">
-        <f>(V60-N60)/V60</f>
+      <c r="AE60" s="48">
+        <f t="shared" ref="AE60:AJ60" si="64">(V60-N60)/V60</f>
         <v>-0.5</v>
       </c>
-      <c r="AF60" s="70">
-        <f>(W60-O60)/W60</f>
+      <c r="AF60" s="48">
+        <f t="shared" si="64"/>
         <v>-0.5</v>
       </c>
-      <c r="AG60" s="70">
-        <f>(X60-P60)/X60</f>
+      <c r="AG60" s="48">
+        <f t="shared" si="64"/>
         <v>0.5</v>
       </c>
-      <c r="AH60" s="70">
-        <f>(Y60-Q60)/Y60</f>
+      <c r="AH60" s="48">
+        <f t="shared" si="64"/>
         <v>0.25</v>
       </c>
-      <c r="AI60" s="70">
-        <f>(Z60-R60)/Z60</f>
+      <c r="AI60" s="48">
+        <f t="shared" si="64"/>
         <v>0.5</v>
       </c>
-      <c r="AJ60" s="70">
-        <f>(AA60-S60)/AA60</f>
+      <c r="AJ60" s="48">
+        <f t="shared" si="64"/>
         <v>0.5</v>
       </c>
       <c r="AK60" s="29">
@@ -8806,7 +8882,7 @@
         <v>4</v>
       </c>
       <c r="T61" s="30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U61" s="30">
         <v>3</v>
@@ -8836,39 +8912,39 @@
         <v>0</v>
       </c>
       <c r="AD61" s="29">
-        <f>U61-M61</f>
-        <v>0</v>
-      </c>
-      <c r="AE61" s="70">
-        <f>(V61-N61)/V61</f>
-        <v>0</v>
-      </c>
-      <c r="AF61" s="70">
-        <f>(W61-O61)/W61</f>
-        <v>0</v>
-      </c>
-      <c r="AG61" s="70">
-        <f>(X61-P61)/X61</f>
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE61" s="48">
+        <f t="shared" ref="AE61:AI65" si="65">(V61-N61)/V61</f>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="48">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="48">
+        <f t="shared" si="65"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AH61" s="70">
-        <f>(Y61-Q61)/Y61</f>
+      <c r="AH61" s="48">
+        <f t="shared" si="65"/>
         <v>0.5</v>
       </c>
-      <c r="AI61" s="70">
-        <f>(Z61-R61)/Z61</f>
+      <c r="AI61" s="48">
+        <f t="shared" si="65"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AJ61" s="70">
-        <f t="shared" ref="AJ61:AJ65" si="60">(AA61-S61)/AA61</f>
+      <c r="AJ61" s="48">
+        <f t="shared" ref="AJ61:AJ65" si="66">(AA61-S61)/AA61</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AK61" s="29">
-        <f t="shared" ref="AK61:AK65" si="61">AB61</f>
+        <f t="shared" ref="AK61:AK65" si="67">AB61</f>
         <v>0</v>
       </c>
       <c r="AL61" s="29">
-        <f t="shared" ref="AL61:AL65" si="62">AC61</f>
+        <f t="shared" ref="AL61:AL65" si="68">AC61</f>
         <v>0</v>
       </c>
     </row>
@@ -8931,7 +9007,7 @@
         <v>4</v>
       </c>
       <c r="T62" s="30">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="U62" s="30">
         <v>4</v>
@@ -8961,39 +9037,39 @@
         <v>0</v>
       </c>
       <c r="AD62" s="29">
-        <f>U62-M62</f>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="AE62" s="70">
-        <f>(V62-N62)/V62</f>
+      <c r="AE62" s="48">
+        <f t="shared" si="65"/>
         <v>0.75</v>
       </c>
-      <c r="AF62" s="70">
-        <f>(W62-O62)/W62</f>
+      <c r="AF62" s="48">
+        <f t="shared" si="65"/>
         <v>0.75</v>
       </c>
-      <c r="AG62" s="70">
-        <f>(X62-P62)/X62</f>
+      <c r="AG62" s="48">
+        <f t="shared" si="65"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="AH62" s="70">
-        <f>(Y62-Q62)/Y62</f>
+      <c r="AH62" s="48">
+        <f t="shared" si="65"/>
         <v>0.875</v>
       </c>
-      <c r="AI62" s="70">
-        <f>(Z62-R62)/Z62</f>
+      <c r="AI62" s="48">
+        <f t="shared" si="65"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="AJ62" s="70">
-        <f t="shared" si="60"/>
+      <c r="AJ62" s="48">
+        <f t="shared" si="66"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="AK62" s="29">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AL62" s="29">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
     </row>
@@ -9042,27 +9118,27 @@
         <v>24</v>
       </c>
       <c r="O63" s="29">
-        <f t="shared" ref="O63:S63" si="63">O62*2</f>
+        <f t="shared" ref="O63:S63" si="69">O62*2</f>
         <v>24</v>
       </c>
       <c r="P63" s="29">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>8</v>
       </c>
       <c r="Q63" s="29">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>24</v>
       </c>
       <c r="R63" s="46">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>8</v>
       </c>
       <c r="S63" s="29">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>8</v>
       </c>
       <c r="T63" s="30">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="U63" s="30">
         <v>5</v>
@@ -9092,39 +9168,39 @@
         <v>0</v>
       </c>
       <c r="AD63" s="29">
-        <f>U63-M63</f>
+        <f t="shared" si="63"/>
         <v>-1</v>
       </c>
-      <c r="AE63" s="70">
-        <f>(V63-N63)/V63</f>
-        <v>0</v>
-      </c>
-      <c r="AF63" s="70">
-        <f>(W63-O63)/W63</f>
-        <v>0</v>
-      </c>
-      <c r="AG63" s="70">
-        <f>(X63-P63)/X63</f>
+      <c r="AE63" s="48">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="48">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="48">
+        <f t="shared" si="65"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AH63" s="70">
-        <f>(Y63-Q63)/Y63</f>
+      <c r="AH63" s="48">
+        <f t="shared" si="65"/>
         <v>0.5</v>
       </c>
-      <c r="AI63" s="70">
-        <f>(Z63-R63)/Z63</f>
+      <c r="AI63" s="48">
+        <f t="shared" si="65"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AJ63" s="70">
-        <f t="shared" si="60"/>
+      <c r="AJ63" s="48">
+        <f t="shared" si="66"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AK63" s="29">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AL63" s="29">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
     </row>
@@ -9155,19 +9231,19 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="I64" s="31">
-        <f t="shared" ref="I64:L64" si="64">I60*4/3</f>
+        <f t="shared" ref="I64:L64" si="70">I60*4/3</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="J64" s="31">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>5.333333333333333</v>
       </c>
       <c r="K64" s="31">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="L64" s="31">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="M64" s="30">
@@ -9178,27 +9254,27 @@
         <v>16</v>
       </c>
       <c r="O64" s="29">
-        <f t="shared" ref="O64:S64" si="65">O62/3*4</f>
+        <f t="shared" ref="O64:S64" si="71">O62/3*4</f>
         <v>16</v>
       </c>
       <c r="P64" s="41">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>5.333333333333333</v>
       </c>
       <c r="Q64" s="29">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>16</v>
       </c>
       <c r="R64" s="47">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>5.333333333333333</v>
       </c>
       <c r="S64" s="41">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>5.333333333333333</v>
       </c>
       <c r="T64" s="30">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="U64" s="30">
         <v>4</v>
@@ -9228,39 +9304,39 @@
         <v>0</v>
       </c>
       <c r="AD64" s="29">
-        <f>U64-M64</f>
-        <v>0</v>
-      </c>
-      <c r="AE64" s="70">
-        <f>(V64-N64)/V64</f>
-        <v>0</v>
-      </c>
-      <c r="AF64" s="70">
-        <f>(W64-O64)/W64</f>
-        <v>0</v>
-      </c>
-      <c r="AG64" s="70">
-        <f>(X64-P64)/X64</f>
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="48">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="48">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="48">
+        <f t="shared" si="65"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="AH64" s="70">
-        <f>(Y64-Q64)/Y64</f>
+      <c r="AH64" s="48">
+        <f t="shared" si="65"/>
         <v>0.5</v>
       </c>
-      <c r="AI64" s="70">
-        <f>(Z64-R64)/Z64</f>
+      <c r="AI64" s="48">
+        <f t="shared" si="65"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="AJ64" s="70">
-        <f t="shared" si="60"/>
+      <c r="AJ64" s="48">
+        <f t="shared" si="66"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="AK64" s="29">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AL64" s="29">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
     </row>
@@ -9323,7 +9399,7 @@
         <v>4</v>
       </c>
       <c r="T65" s="30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U65" s="30">
         <v>12</v>
@@ -9353,39 +9429,39 @@
         <v>0</v>
       </c>
       <c r="AD65" s="29">
-        <f>U65-M65</f>
+        <f t="shared" si="63"/>
         <v>9</v>
       </c>
-      <c r="AE65" s="70">
-        <f>(V65-N65)/V65</f>
-        <v>0</v>
-      </c>
-      <c r="AF65" s="70">
-        <f>(W65-O65)/W65</f>
-        <v>0</v>
-      </c>
-      <c r="AG65" s="70">
-        <f>(X65-P65)/X65</f>
+      <c r="AE65" s="48">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="48">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AG65" s="48">
+        <f t="shared" si="65"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AH65" s="70">
-        <f>(Y65-Q65)/Y65</f>
-        <v>0</v>
-      </c>
-      <c r="AI65" s="70">
-        <f>(Z65-R65)/Z65</f>
+      <c r="AH65" s="48">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="AI65" s="48">
+        <f t="shared" si="65"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AJ65" s="70">
-        <f t="shared" si="60"/>
+      <c r="AJ65" s="48">
+        <f t="shared" si="66"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AK65" s="29">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AL65" s="29">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
     </row>
@@ -9555,6 +9631,10 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="AD39:AL39"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B58:G58"/>
     <mergeCell ref="AD1:AL1"/>
     <mergeCell ref="T58:AC58"/>
     <mergeCell ref="H58:S58"/>
@@ -9563,10 +9643,6 @@
     <mergeCell ref="T1:AC1"/>
     <mergeCell ref="H1:S1"/>
     <mergeCell ref="AD58:AL58"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="AD39:AL39"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B58:G58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9585,24 +9661,24 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="69"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56"/>
-      <c r="B2" s="66"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -9623,7 +9699,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -9637,7 +9713,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -9649,7 +9725,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -9661,7 +9737,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -9673,7 +9749,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -9685,7 +9761,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -9697,7 +9773,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -9709,7 +9785,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -9721,7 +9797,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -9733,7 +9809,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -9745,7 +9821,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -9757,7 +9833,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -9769,7 +9845,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -9781,7 +9857,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -9793,7 +9869,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -9805,7 +9881,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -9817,7 +9893,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -9829,7 +9905,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -9841,7 +9917,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -9853,7 +9929,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -9865,7 +9941,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -9877,7 +9953,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -9889,7 +9965,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
@@ -9901,7 +9977,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
@@ -9913,7 +9989,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
@@ -9925,7 +10001,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -9937,7 +10013,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
@@ -9949,7 +10025,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
@@ -9961,7 +10037,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
@@ -9973,7 +10049,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
@@ -9985,7 +10061,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
@@ -9997,7 +10073,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
@@ -10009,7 +10085,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
@@ -10021,7 +10097,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
@@ -10033,7 +10109,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
@@ -10045,7 +10121,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
@@ -10057,7 +10133,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="53" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -10071,7 +10147,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="55"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
@@ -10083,7 +10159,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
@@ -10095,7 +10171,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="55"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -10107,7 +10183,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
@@ -10119,7 +10195,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
@@ -10131,7 +10207,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="55"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
@@ -10143,7 +10219,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="55"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -10155,7 +10231,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
@@ -10167,7 +10243,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
@@ -10179,7 +10255,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
       </c>
@@ -10191,7 +10267,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="55"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
@@ -10203,7 +10279,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="55"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="2" t="s">
         <v>24</v>
       </c>
@@ -10215,7 +10291,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="55"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
@@ -10227,7 +10303,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="55"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
@@ -10239,7 +10315,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="55"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -10251,7 +10327,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="55"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
@@ -10263,7 +10339,7 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="55"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
@@ -10275,7 +10351,7 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="55"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="2" t="s">
         <v>29</v>
       </c>
@@ -10287,7 +10363,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="55"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="2" t="s">
         <v>30</v>
       </c>
@@ -10299,7 +10375,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="55"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="2" t="s">
         <v>31</v>
       </c>
@@ -10311,7 +10387,7 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="55"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="2" t="s">
         <v>32</v>
       </c>
@@ -10323,7 +10399,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="55"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="2" t="s">
         <v>33</v>
       </c>
@@ -10335,7 +10411,7 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="55"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="2" t="s">
         <v>34</v>
       </c>
@@ -10347,7 +10423,7 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="55"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="2" t="s">
         <v>35</v>
       </c>
@@ -10359,7 +10435,7 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="55"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="2" t="s">
         <v>36</v>
       </c>
@@ -10371,7 +10447,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="55"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="2" t="s">
         <v>37</v>
       </c>
@@ -10383,7 +10459,7 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="55"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="2" t="s">
         <v>38</v>
       </c>
@@ -10395,7 +10471,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="55"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="2" t="s">
         <v>39</v>
       </c>
@@ -10407,7 +10483,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="55"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="2" t="s">
         <v>40</v>
       </c>
@@ -10419,7 +10495,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="55"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="2" t="s">
         <v>41</v>
       </c>
@@ -10431,7 +10507,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="55"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="2" t="s">
         <v>42</v>
       </c>
@@ -10443,7 +10519,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="55"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="2" t="s">
         <v>43</v>
       </c>
@@ -10455,7 +10531,7 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="55"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="2" t="s">
         <v>44</v>
       </c>
@@ -10467,7 +10543,7 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="55"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
@@ -10479,7 +10555,7 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="56"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="2" t="s">
         <v>45</v>
       </c>
@@ -10491,7 +10567,7 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="53" t="s">
         <v>48</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -10505,7 +10581,7 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="55"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
@@ -10517,7 +10593,7 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="55"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
@@ -10529,7 +10605,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="55"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
@@ -10541,7 +10617,7 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="55"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -10553,7 +10629,7 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="55"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="2" t="s">
         <v>17</v>
       </c>
@@ -10565,7 +10641,7 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="55"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="2" t="s">
         <v>18</v>
       </c>
@@ -10577,7 +10653,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="55"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="2" t="s">
         <v>19</v>
       </c>
@@ -10589,7 +10665,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="55"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="2" t="s">
         <v>20</v>
       </c>
@@ -10601,7 +10677,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="55"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
@@ -10613,7 +10689,7 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="55"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="2" t="s">
         <v>22</v>
       </c>
@@ -10625,7 +10701,7 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
@@ -10637,7 +10713,7 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="55"/>
+      <c r="A87" s="54"/>
       <c r="B87" s="2" t="s">
         <v>24</v>
       </c>
@@ -10649,7 +10725,7 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="55"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="2" t="s">
         <v>25</v>
       </c>
@@ -10661,7 +10737,7 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="55"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="2" t="s">
         <v>26</v>
       </c>
@@ -10673,7 +10749,7 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="55"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="2" t="s">
         <v>27</v>
       </c>
@@ -10685,7 +10761,7 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="55"/>
+      <c r="A91" s="54"/>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
@@ -10697,7 +10773,7 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="55"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="2" t="s">
         <v>28</v>
       </c>
@@ -10709,7 +10785,7 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="55"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="2" t="s">
         <v>29</v>
       </c>
@@ -10721,7 +10797,7 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="55"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="2" t="s">
         <v>30</v>
       </c>
@@ -10733,7 +10809,7 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="55"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="2" t="s">
         <v>31</v>
       </c>
@@ -10745,7 +10821,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="55"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="2" t="s">
         <v>32</v>
       </c>
@@ -10757,7 +10833,7 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="55"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="2" t="s">
         <v>33</v>
       </c>
@@ -10769,7 +10845,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="55"/>
+      <c r="A98" s="54"/>
       <c r="B98" s="2" t="s">
         <v>34</v>
       </c>
@@ -10781,7 +10857,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="55"/>
+      <c r="A99" s="54"/>
       <c r="B99" s="2" t="s">
         <v>35</v>
       </c>
@@ -10793,7 +10869,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="55"/>
+      <c r="A100" s="54"/>
       <c r="B100" s="2" t="s">
         <v>36</v>
       </c>
@@ -10805,7 +10881,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="55"/>
+      <c r="A101" s="54"/>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
@@ -10817,7 +10893,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="55"/>
+      <c r="A102" s="54"/>
       <c r="B102" s="2" t="s">
         <v>38</v>
       </c>
@@ -10829,7 +10905,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="55"/>
+      <c r="A103" s="54"/>
       <c r="B103" s="2" t="s">
         <v>39</v>
       </c>
@@ -10841,7 +10917,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="55"/>
+      <c r="A104" s="54"/>
       <c r="B104" s="2" t="s">
         <v>40</v>
       </c>
@@ -10853,7 +10929,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="55"/>
+      <c r="A105" s="54"/>
       <c r="B105" s="2" t="s">
         <v>41</v>
       </c>
@@ -10865,7 +10941,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="55"/>
+      <c r="A106" s="54"/>
       <c r="B106" s="2" t="s">
         <v>42</v>
       </c>
@@ -10877,7 +10953,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="55"/>
+      <c r="A107" s="54"/>
       <c r="B107" s="2" t="s">
         <v>43</v>
       </c>
@@ -10889,7 +10965,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="55"/>
+      <c r="A108" s="54"/>
       <c r="B108" s="2" t="s">
         <v>44</v>
       </c>
@@ -10901,7 +10977,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="55"/>
+      <c r="A109" s="54"/>
       <c r="B109" s="2" t="s">
         <v>4</v>
       </c>
@@ -10913,7 +10989,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="56"/>
+      <c r="A110" s="55"/>
       <c r="B110" s="2" t="s">
         <v>45</v>
       </c>
@@ -10925,7 +11001,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="54" t="s">
+      <c r="A111" s="53" t="s">
         <v>49</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -10939,7 +11015,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="55"/>
+      <c r="A112" s="54"/>
       <c r="B112" s="2" t="s">
         <v>14</v>
       </c>
@@ -10951,7 +11027,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="55"/>
+      <c r="A113" s="54"/>
       <c r="B113" s="2" t="s">
         <v>15</v>
       </c>
@@ -10963,7 +11039,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="55"/>
+      <c r="A114" s="54"/>
       <c r="B114" s="2" t="s">
         <v>16</v>
       </c>
@@ -10975,7 +11051,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="55"/>
+      <c r="A115" s="54"/>
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
@@ -10987,7 +11063,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="55"/>
+      <c r="A116" s="54"/>
       <c r="B116" s="2" t="s">
         <v>17</v>
       </c>
@@ -10999,7 +11075,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="55"/>
+      <c r="A117" s="54"/>
       <c r="B117" s="2" t="s">
         <v>18</v>
       </c>
@@ -11011,7 +11087,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="55"/>
+      <c r="A118" s="54"/>
       <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
@@ -11023,7 +11099,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="55"/>
+      <c r="A119" s="54"/>
       <c r="B119" s="2" t="s">
         <v>20</v>
       </c>
@@ -11035,7 +11111,7 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="55"/>
+      <c r="A120" s="54"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -11047,7 +11123,7 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="55"/>
+      <c r="A121" s="54"/>
       <c r="B121" s="2" t="s">
         <v>22</v>
       </c>
@@ -11059,7 +11135,7 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="55"/>
+      <c r="A122" s="54"/>
       <c r="B122" s="2" t="s">
         <v>23</v>
       </c>
@@ -11071,7 +11147,7 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="55"/>
+      <c r="A123" s="54"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -11083,7 +11159,7 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="55"/>
+      <c r="A124" s="54"/>
       <c r="B124" s="2" t="s">
         <v>25</v>
       </c>
@@ -11095,7 +11171,7 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="55"/>
+      <c r="A125" s="54"/>
       <c r="B125" s="2" t="s">
         <v>26</v>
       </c>
@@ -11107,7 +11183,7 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="55"/>
+      <c r="A126" s="54"/>
       <c r="B126" s="2" t="s">
         <v>27</v>
       </c>
@@ -11119,7 +11195,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="55"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
@@ -11131,7 +11207,7 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="55"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="2" t="s">
         <v>28</v>
       </c>
@@ -11143,7 +11219,7 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="55"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="2" t="s">
         <v>29</v>
       </c>
@@ -11155,7 +11231,7 @@
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="55"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="2" t="s">
         <v>30</v>
       </c>
@@ -11167,7 +11243,7 @@
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="55"/>
+      <c r="A131" s="54"/>
       <c r="B131" s="2" t="s">
         <v>31</v>
       </c>
@@ -11179,7 +11255,7 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="55"/>
+      <c r="A132" s="54"/>
       <c r="B132" s="2" t="s">
         <v>32</v>
       </c>
@@ -11191,7 +11267,7 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="55"/>
+      <c r="A133" s="54"/>
       <c r="B133" s="2" t="s">
         <v>33</v>
       </c>
@@ -11203,7 +11279,7 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="55"/>
+      <c r="A134" s="54"/>
       <c r="B134" s="2" t="s">
         <v>34</v>
       </c>
@@ -11215,7 +11291,7 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="55"/>
+      <c r="A135" s="54"/>
       <c r="B135" s="2" t="s">
         <v>35</v>
       </c>
@@ -11227,7 +11303,7 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="55"/>
+      <c r="A136" s="54"/>
       <c r="B136" s="2" t="s">
         <v>36</v>
       </c>
@@ -11239,7 +11315,7 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="55"/>
+      <c r="A137" s="54"/>
       <c r="B137" s="2" t="s">
         <v>37</v>
       </c>
@@ -11251,7 +11327,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="55"/>
+      <c r="A138" s="54"/>
       <c r="B138" s="2" t="s">
         <v>38</v>
       </c>
@@ -11263,7 +11339,7 @@
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="55"/>
+      <c r="A139" s="54"/>
       <c r="B139" s="2" t="s">
         <v>39</v>
       </c>
@@ -11275,7 +11351,7 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="55"/>
+      <c r="A140" s="54"/>
       <c r="B140" s="2" t="s">
         <v>40</v>
       </c>
@@ -11287,7 +11363,7 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="55"/>
+      <c r="A141" s="54"/>
       <c r="B141" s="2" t="s">
         <v>41</v>
       </c>
@@ -11299,7 +11375,7 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="55"/>
+      <c r="A142" s="54"/>
       <c r="B142" s="2" t="s">
         <v>42</v>
       </c>
@@ -11311,7 +11387,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="55"/>
+      <c r="A143" s="54"/>
       <c r="B143" s="2" t="s">
         <v>43</v>
       </c>
@@ -11323,7 +11399,7 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="55"/>
+      <c r="A144" s="54"/>
       <c r="B144" s="2" t="s">
         <v>44</v>
       </c>
@@ -11335,7 +11411,7 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="55"/>
+      <c r="A145" s="54"/>
       <c r="B145" s="2" t="s">
         <v>4</v>
       </c>
@@ -11347,7 +11423,7 @@
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="56"/>
+      <c r="A146" s="55"/>
       <c r="B146" s="2" t="s">
         <v>45</v>
       </c>
@@ -11360,24 +11436,24 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="54" t="s">
+      <c r="A152" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C152" s="59" t="s">
+      <c r="B152" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D152" s="60"/>
-      <c r="E152" s="60"/>
-      <c r="F152" s="60"/>
-      <c r="G152" s="60"/>
-      <c r="H152" s="61"/>
+      <c r="D152" s="62"/>
+      <c r="E152" s="62"/>
+      <c r="F152" s="62"/>
+      <c r="G152" s="62"/>
+      <c r="H152" s="63"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="56"/>
-      <c r="B153" s="58"/>
+      <c r="A153" s="55"/>
+      <c r="B153" s="60"/>
       <c r="C153" s="1" t="s">
         <v>7</v>
       </c>
@@ -11398,7 +11474,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="54" t="s">
+      <c r="A154" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -11412,7 +11488,7 @@
       <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="55"/>
+      <c r="A155" s="54"/>
       <c r="B155" s="2" t="s">
         <v>14</v>
       </c>
@@ -11424,7 +11500,7 @@
       <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="55"/>
+      <c r="A156" s="54"/>
       <c r="B156" s="2" t="s">
         <v>15</v>
       </c>
@@ -11436,7 +11512,7 @@
       <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="55"/>
+      <c r="A157" s="54"/>
       <c r="B157" s="2" t="s">
         <v>16</v>
       </c>
@@ -11448,7 +11524,7 @@
       <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="55"/>
+      <c r="A158" s="54"/>
       <c r="B158" s="2" t="s">
         <v>2</v>
       </c>
@@ -11460,7 +11536,7 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="55"/>
+      <c r="A159" s="54"/>
       <c r="B159" s="2" t="s">
         <v>17</v>
       </c>
@@ -11472,7 +11548,7 @@
       <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="55"/>
+      <c r="A160" s="54"/>
       <c r="B160" s="2" t="s">
         <v>18</v>
       </c>
@@ -11484,7 +11560,7 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="55"/>
+      <c r="A161" s="54"/>
       <c r="B161" s="2" t="s">
         <v>19</v>
       </c>
@@ -11496,7 +11572,7 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="55"/>
+      <c r="A162" s="54"/>
       <c r="B162" s="2" t="s">
         <v>20</v>
       </c>
@@ -11508,7 +11584,7 @@
       <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="55"/>
+      <c r="A163" s="54"/>
       <c r="B163" s="2" t="s">
         <v>21</v>
       </c>
@@ -11520,7 +11596,7 @@
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="55"/>
+      <c r="A164" s="54"/>
       <c r="B164" s="2" t="s">
         <v>22</v>
       </c>
@@ -11532,7 +11608,7 @@
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="55"/>
+      <c r="A165" s="54"/>
       <c r="B165" s="2" t="s">
         <v>23</v>
       </c>
@@ -11544,7 +11620,7 @@
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="55"/>
+      <c r="A166" s="54"/>
       <c r="B166" s="2" t="s">
         <v>24</v>
       </c>
@@ -11556,7 +11632,7 @@
       <c r="H166" s="4"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="55"/>
+      <c r="A167" s="54"/>
       <c r="B167" s="2" t="s">
         <v>25</v>
       </c>
@@ -11568,7 +11644,7 @@
       <c r="H167" s="4"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="56"/>
+      <c r="A168" s="55"/>
       <c r="B168" s="5" t="s">
         <v>50</v>
       </c>
@@ -11580,7 +11656,7 @@
       <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="54" t="s">
+      <c r="A169" s="53" t="s">
         <v>46</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -11594,7 +11670,7 @@
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="55"/>
+      <c r="A170" s="54"/>
       <c r="B170" s="2" t="s">
         <v>14</v>
       </c>
@@ -11606,7 +11682,7 @@
       <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="55"/>
+      <c r="A171" s="54"/>
       <c r="B171" s="2" t="s">
         <v>15</v>
       </c>
@@ -11618,7 +11694,7 @@
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="55"/>
+      <c r="A172" s="54"/>
       <c r="B172" s="2" t="s">
         <v>16</v>
       </c>
@@ -11630,7 +11706,7 @@
       <c r="H172" s="4"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="55"/>
+      <c r="A173" s="54"/>
       <c r="B173" s="2" t="s">
         <v>2</v>
       </c>
@@ -11642,7 +11718,7 @@
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="55"/>
+      <c r="A174" s="54"/>
       <c r="B174" s="2" t="s">
         <v>17</v>
       </c>
@@ -11654,7 +11730,7 @@
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="55"/>
+      <c r="A175" s="54"/>
       <c r="B175" s="2" t="s">
         <v>18</v>
       </c>
@@ -11666,7 +11742,7 @@
       <c r="H175" s="4"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="55"/>
+      <c r="A176" s="54"/>
       <c r="B176" s="2" t="s">
         <v>19</v>
       </c>
@@ -11678,7 +11754,7 @@
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="55"/>
+      <c r="A177" s="54"/>
       <c r="B177" s="2" t="s">
         <v>20</v>
       </c>
@@ -11690,7 +11766,7 @@
       <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="55"/>
+      <c r="A178" s="54"/>
       <c r="B178" s="2" t="s">
         <v>21</v>
       </c>
@@ -11702,7 +11778,7 @@
       <c r="H178" s="4"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="55"/>
+      <c r="A179" s="54"/>
       <c r="B179" s="2" t="s">
         <v>22</v>
       </c>
@@ -11714,7 +11790,7 @@
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="55"/>
+      <c r="A180" s="54"/>
       <c r="B180" s="2" t="s">
         <v>23</v>
       </c>
@@ -11726,7 +11802,7 @@
       <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="55"/>
+      <c r="A181" s="54"/>
       <c r="B181" s="2" t="s">
         <v>24</v>
       </c>
@@ -11738,7 +11814,7 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="55"/>
+      <c r="A182" s="54"/>
       <c r="B182" s="2" t="s">
         <v>25</v>
       </c>
@@ -11750,7 +11826,7 @@
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="56"/>
+      <c r="A183" s="55"/>
       <c r="B183" s="5" t="s">
         <v>50</v>
       </c>
@@ -11762,7 +11838,7 @@
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="54" t="s">
+      <c r="A184" s="53" t="s">
         <v>51</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -11776,7 +11852,7 @@
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="55"/>
+      <c r="A185" s="54"/>
       <c r="B185" s="2" t="s">
         <v>14</v>
       </c>
@@ -11788,7 +11864,7 @@
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="55"/>
+      <c r="A186" s="54"/>
       <c r="B186" s="2" t="s">
         <v>15</v>
       </c>
@@ -11800,7 +11876,7 @@
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="55"/>
+      <c r="A187" s="54"/>
       <c r="B187" s="2" t="s">
         <v>16</v>
       </c>
@@ -11812,7 +11888,7 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="55"/>
+      <c r="A188" s="54"/>
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -11824,7 +11900,7 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="55"/>
+      <c r="A189" s="54"/>
       <c r="B189" s="2" t="s">
         <v>17</v>
       </c>
@@ -11836,7 +11912,7 @@
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="55"/>
+      <c r="A190" s="54"/>
       <c r="B190" s="2" t="s">
         <v>18</v>
       </c>
@@ -11848,7 +11924,7 @@
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="55"/>
+      <c r="A191" s="54"/>
       <c r="B191" s="2" t="s">
         <v>19</v>
       </c>
@@ -11860,7 +11936,7 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="55"/>
+      <c r="A192" s="54"/>
       <c r="B192" s="2" t="s">
         <v>20</v>
       </c>
@@ -11872,7 +11948,7 @@
       <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="55"/>
+      <c r="A193" s="54"/>
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
@@ -11884,7 +11960,7 @@
       <c r="H193" s="4"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="55"/>
+      <c r="A194" s="54"/>
       <c r="B194" s="2" t="s">
         <v>22</v>
       </c>
@@ -11896,7 +11972,7 @@
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="55"/>
+      <c r="A195" s="54"/>
       <c r="B195" s="2" t="s">
         <v>23</v>
       </c>
@@ -11908,7 +11984,7 @@
       <c r="H195" s="4"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="55"/>
+      <c r="A196" s="54"/>
       <c r="B196" s="2" t="s">
         <v>24</v>
       </c>
@@ -11920,7 +11996,7 @@
       <c r="H196" s="4"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="55"/>
+      <c r="A197" s="54"/>
       <c r="B197" s="2" t="s">
         <v>25</v>
       </c>
@@ -11932,7 +12008,7 @@
       <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="56"/>
+      <c r="A198" s="55"/>
       <c r="B198" s="5" t="s">
         <v>50</v>
       </c>
@@ -11944,7 +12020,7 @@
       <c r="H198" s="4"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="54" t="s">
+      <c r="A199" s="53" t="s">
         <v>52</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -11958,7 +12034,7 @@
       <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="55"/>
+      <c r="A200" s="54"/>
       <c r="B200" s="2" t="s">
         <v>14</v>
       </c>
@@ -11970,7 +12046,7 @@
       <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="55"/>
+      <c r="A201" s="54"/>
       <c r="B201" s="2" t="s">
         <v>15</v>
       </c>
@@ -11982,7 +12058,7 @@
       <c r="H201" s="4"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="55"/>
+      <c r="A202" s="54"/>
       <c r="B202" s="2" t="s">
         <v>16</v>
       </c>
@@ -11994,7 +12070,7 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="55"/>
+      <c r="A203" s="54"/>
       <c r="B203" s="2" t="s">
         <v>2</v>
       </c>
@@ -12006,7 +12082,7 @@
       <c r="H203" s="4"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="55"/>
+      <c r="A204" s="54"/>
       <c r="B204" s="2" t="s">
         <v>17</v>
       </c>
@@ -12018,7 +12094,7 @@
       <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="55"/>
+      <c r="A205" s="54"/>
       <c r="B205" s="2" t="s">
         <v>18</v>
       </c>
@@ -12030,7 +12106,7 @@
       <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="55"/>
+      <c r="A206" s="54"/>
       <c r="B206" s="2" t="s">
         <v>19</v>
       </c>
@@ -12042,7 +12118,7 @@
       <c r="H206" s="4"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="55"/>
+      <c r="A207" s="54"/>
       <c r="B207" s="2" t="s">
         <v>20</v>
       </c>
@@ -12054,7 +12130,7 @@
       <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="55"/>
+      <c r="A208" s="54"/>
       <c r="B208" s="2" t="s">
         <v>21</v>
       </c>
@@ -12066,7 +12142,7 @@
       <c r="H208" s="4"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="55"/>
+      <c r="A209" s="54"/>
       <c r="B209" s="2" t="s">
         <v>22</v>
       </c>
@@ -12078,7 +12154,7 @@
       <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="55"/>
+      <c r="A210" s="54"/>
       <c r="B210" s="2" t="s">
         <v>23</v>
       </c>
@@ -12090,7 +12166,7 @@
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="55"/>
+      <c r="A211" s="54"/>
       <c r="B211" s="2" t="s">
         <v>24</v>
       </c>
@@ -12102,7 +12178,7 @@
       <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="55"/>
+      <c r="A212" s="54"/>
       <c r="B212" s="2" t="s">
         <v>25</v>
       </c>
@@ -12114,7 +12190,7 @@
       <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="56"/>
+      <c r="A213" s="55"/>
       <c r="B213" s="5" t="s">
         <v>50</v>
       </c>
@@ -12127,11 +12203,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -12141,6 +12212,11 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/对比/性能对比.xlsx
+++ b/对比/性能对比.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -1128,6 +1128,15 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1145,15 +1154,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1179,6 +1179,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1198,9 +1201,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1501,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD131"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="39" spans="1:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="59" t="s">
@@ -1881,14 +1881,14 @@
       </c>
       <c r="P40" s="65"/>
       <c r="Q40" s="66"/>
-      <c r="R40" s="56" t="s">
+      <c r="R40" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="S40" s="57"/>
-      <c r="T40" s="58"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="52"/>
     </row>
     <row r="41" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
       <c r="D41" s="20" t="s">
@@ -1912,24 +1912,24 @@
       <c r="K41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L41" s="56">
+      <c r="L41" s="50">
         <v>65</v>
       </c>
-      <c r="M41" s="57"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="56">
+      <c r="M41" s="51"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="50">
         <v>65</v>
       </c>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="56">
+      <c r="P41" s="51"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="50">
         <v>45</v>
       </c>
-      <c r="S41" s="57"/>
-      <c r="T41" s="58"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="52"/>
     </row>
     <row r="42" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="56" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1959,26 +1959,26 @@
       <c r="K42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L42" s="56">
+      <c r="L42" s="50">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="57"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="56">
+      <c r="M42" s="51"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="50">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="56">
+      <c r="P42" s="51"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="50">
         <v>1</v>
       </c>
-      <c r="S42" s="57"/>
-      <c r="T42" s="58"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="52"/>
     </row>
     <row r="43" spans="1:30" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
@@ -2048,7 +2048,7 @@
       </c>
     </row>
     <row r="44" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="2" t="s">
         <v>22</v>
       </c>
@@ -2147,7 +2147,7 @@
       </c>
     </row>
     <row r="45" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="2" t="s">
         <v>21</v>
       </c>
@@ -2246,7 +2246,7 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -2345,7 +2345,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
@@ -2543,7 +2543,7 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
@@ -2642,7 +2642,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
@@ -2727,7 +2727,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
@@ -2812,7 +2812,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
@@ -2864,7 +2864,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
@@ -2889,7 +2889,7 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="2" t="s">
         <v>18</v>
       </c>
@@ -2914,7 +2914,7 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="55"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="5" t="s">
         <v>50</v>
       </c>
@@ -2964,7 +2964,7 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="56" t="s">
         <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3005,7 +3005,7 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="2" t="s">
         <v>14</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="2" t="s">
         <v>22</v>
       </c>
@@ -3083,7 +3083,7 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="2" t="s">
         <v>19</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="2" t="s">
         <v>17</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
@@ -3239,7 +3239,7 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="2" t="s">
         <v>16</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="54"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="2" t="s">
         <v>20</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="K65" s="12"/>
     </row>
     <row r="66" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="2" t="s">
         <v>23</v>
       </c>
@@ -3295,24 +3295,24 @@
       <c r="K66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="56" t="s">
+      <c r="L66" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="M66" s="57"/>
-      <c r="N66" s="58"/>
-      <c r="O66" s="56" t="s">
+      <c r="M66" s="51"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="58"/>
-      <c r="R66" s="56" t="s">
+      <c r="P66" s="51"/>
+      <c r="Q66" s="52"/>
+      <c r="R66" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="S66" s="57"/>
-      <c r="T66" s="58"/>
+      <c r="S66" s="51"/>
+      <c r="T66" s="52"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="2" t="s">
         <v>15</v>
       </c>
@@ -3326,18 +3326,18 @@
       <c r="K67" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L67" s="56"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="58"/>
-      <c r="R67" s="56"/>
-      <c r="S67" s="57"/>
-      <c r="T67" s="58"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="51"/>
+      <c r="Q67" s="52"/>
+      <c r="R67" s="50"/>
+      <c r="S67" s="51"/>
+      <c r="T67" s="52"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="54"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="2" t="s">
         <v>2</v>
       </c>
@@ -3351,18 +3351,18 @@
       <c r="K68" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L68" s="56"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="58"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="57"/>
-      <c r="Q68" s="58"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="57"/>
-      <c r="T68" s="58"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="51"/>
+      <c r="Q68" s="52"/>
+      <c r="R68" s="50"/>
+      <c r="S68" s="51"/>
+      <c r="T68" s="52"/>
     </row>
     <row r="69" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="2" t="s">
         <v>18</v>
       </c>
@@ -3403,7 +3403,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="2" t="s">
         <v>25</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="55"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="5" t="s">
         <v>50</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="53" t="s">
         <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3494,7 +3494,7 @@
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="51"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="2" t="s">
         <v>14</v>
       </c>
@@ -3533,7 +3533,7 @@
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="51"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="2" t="s">
         <v>22</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="51"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="2" t="s">
         <v>21</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="T75" s="1"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="51"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="2" t="s">
         <v>19</v>
       </c>
@@ -3650,7 +3650,7 @@
       <c r="T76" s="1"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="51"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="2" t="s">
         <v>17</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="T77" s="1"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="51"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="2" t="s">
         <v>24</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="T78" s="1"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="2" t="s">
         <v>16</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="T79" s="1"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="51"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="2" t="s">
         <v>20</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="51"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="2" t="s">
         <v>23</v>
       </c>
@@ -3817,7 +3817,7 @@
       <c r="T81" s="1"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="51"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="2" t="s">
         <v>15</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="T82" s="1"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="51"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="2" t="s">
         <v>2</v>
       </c>
@@ -3867,7 +3867,7 @@
       <c r="T83" s="1"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="51"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="2" t="s">
         <v>18</v>
       </c>
@@ -3892,7 +3892,7 @@
       <c r="T84" s="1"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="51"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="2" t="s">
         <v>25</v>
       </c>
@@ -3917,7 +3917,7 @@
       <c r="T85" s="1"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="52"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="5" t="s">
         <v>50</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="T86" s="1"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="50" t="s">
+      <c r="A87" s="53" t="s">
         <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3983,7 +3983,7 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="51"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="2" t="s">
         <v>14</v>
       </c>
@@ -4022,7 +4022,7 @@
       <c r="T88" s="1"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="51"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="2" t="s">
         <v>22</v>
       </c>
@@ -4061,7 +4061,7 @@
       <c r="T89" s="1"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="51"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="2" t="s">
         <v>21</v>
       </c>
@@ -4088,7 +4088,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="51"/>
+      <c r="A91" s="54"/>
       <c r="B91" s="2" t="s">
         <v>19</v>
       </c>
@@ -4115,7 +4115,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="51"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="2" t="s">
         <v>17</v>
       </c>
@@ -4146,7 +4146,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="51"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="2" t="s">
         <v>24</v>
       </c>
@@ -4177,7 +4177,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="51"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="2" t="s">
         <v>16</v>
       </c>
@@ -4208,7 +4208,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="51"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="2" t="s">
         <v>20</v>
       </c>
@@ -4225,7 +4225,7 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="51"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="2" t="s">
         <v>23</v>
       </c>
@@ -4242,7 +4242,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="51"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="2" t="s">
         <v>15</v>
       </c>
@@ -4259,7 +4259,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="51"/>
+      <c r="A98" s="54"/>
       <c r="B98" s="2" t="s">
         <v>2</v>
       </c>
@@ -4276,7 +4276,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="51"/>
+      <c r="A99" s="54"/>
       <c r="B99" s="2" t="s">
         <v>18</v>
       </c>
@@ -4293,7 +4293,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="51"/>
+      <c r="A100" s="54"/>
       <c r="B100" s="2" t="s">
         <v>25</v>
       </c>
@@ -4306,7 +4306,7 @@
       <c r="I100" s="4"/>
     </row>
     <row r="101" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="52"/>
+      <c r="A101" s="55"/>
       <c r="B101" s="5" t="s">
         <v>50</v>
       </c>
@@ -4323,7 +4323,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="50" t="s">
+      <c r="A102" s="53" t="s">
         <v>76</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -4338,7 +4338,7 @@
       <c r="I102" s="4"/>
     </row>
     <row r="103" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="51"/>
+      <c r="A103" s="54"/>
       <c r="B103" s="2" t="s">
         <v>14</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="I103" s="4"/>
     </row>
     <row r="104" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="51"/>
+      <c r="A104" s="54"/>
       <c r="B104" s="2" t="s">
         <v>22</v>
       </c>
@@ -4378,7 +4378,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="51"/>
+      <c r="A105" s="54"/>
       <c r="B105" s="2" t="s">
         <v>21</v>
       </c>
@@ -4404,7 +4404,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="51"/>
+      <c r="A106" s="54"/>
       <c r="B106" s="2" t="s">
         <v>19</v>
       </c>
@@ -4430,7 +4430,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="51"/>
+      <c r="A107" s="54"/>
       <c r="B107" s="2" t="s">
         <v>17</v>
       </c>
@@ -4457,7 +4457,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="51"/>
+      <c r="A108" s="54"/>
       <c r="B108" s="2" t="s">
         <v>24</v>
       </c>
@@ -4484,7 +4484,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="51"/>
+      <c r="A109" s="54"/>
       <c r="B109" s="2" t="s">
         <v>16</v>
       </c>
@@ -4511,7 +4511,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="51"/>
+      <c r="A110" s="54"/>
       <c r="B110" s="2" t="s">
         <v>20</v>
       </c>
@@ -4538,7 +4538,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="51"/>
+      <c r="A111" s="54"/>
       <c r="B111" s="2" t="s">
         <v>23</v>
       </c>
@@ -4564,7 +4564,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="51"/>
+      <c r="A112" s="54"/>
       <c r="B112" s="2" t="s">
         <v>15</v>
       </c>
@@ -4581,7 +4581,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="51"/>
+      <c r="A113" s="54"/>
       <c r="B113" s="2" t="s">
         <v>2</v>
       </c>
@@ -4594,7 +4594,7 @@
       <c r="I113" s="4"/>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="51"/>
+      <c r="A114" s="54"/>
       <c r="B114" s="2" t="s">
         <v>18</v>
       </c>
@@ -4607,7 +4607,7 @@
       <c r="I114" s="4"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="51"/>
+      <c r="A115" s="54"/>
       <c r="B115" s="2" t="s">
         <v>25</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="I115" s="4"/>
     </row>
     <row r="116" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="52"/>
+      <c r="A116" s="55"/>
       <c r="B116" s="5" t="s">
         <v>50</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="I116" s="4"/>
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="53" t="s">
+      <c r="A117" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -4648,7 +4648,7 @@
       <c r="I117" s="4"/>
     </row>
     <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="54"/>
+      <c r="A118" s="57"/>
       <c r="B118" s="2" t="s">
         <v>14</v>
       </c>
@@ -4661,7 +4661,7 @@
       <c r="I118" s="4"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="54"/>
+      <c r="A119" s="57"/>
       <c r="B119" s="2" t="s">
         <v>22</v>
       </c>
@@ -4674,7 +4674,7 @@
       <c r="I119" s="4"/>
     </row>
     <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="54"/>
+      <c r="A120" s="57"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="I120" s="4"/>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="54"/>
+      <c r="A121" s="57"/>
       <c r="B121" s="2" t="s">
         <v>19</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="I121" s="4"/>
     </row>
     <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="54"/>
+      <c r="A122" s="57"/>
       <c r="B122" s="2" t="s">
         <v>17</v>
       </c>
@@ -4713,7 +4713,7 @@
       <c r="I122" s="4"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="54"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -4726,7 +4726,7 @@
       <c r="I123" s="4"/>
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="54"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="2" t="s">
         <v>16</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="I124" s="4"/>
     </row>
     <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="54"/>
+      <c r="A125" s="57"/>
       <c r="B125" s="2" t="s">
         <v>20</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="I125" s="4"/>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="54"/>
+      <c r="A126" s="57"/>
       <c r="B126" s="2" t="s">
         <v>23</v>
       </c>
@@ -4765,7 +4765,7 @@
       <c r="I126" s="4"/>
     </row>
     <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="54"/>
+      <c r="A127" s="57"/>
       <c r="B127" s="2" t="s">
         <v>15</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="I127" s="4"/>
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="54"/>
+      <c r="A128" s="57"/>
       <c r="B128" s="2" t="s">
         <v>2</v>
       </c>
@@ -4791,7 +4791,7 @@
       <c r="I128" s="4"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="54"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="2" t="s">
         <v>18</v>
       </c>
@@ -4804,7 +4804,7 @@
       <c r="I129" s="4"/>
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="54"/>
+      <c r="A130" s="57"/>
       <c r="B130" s="2" t="s">
         <v>25</v>
       </c>
@@ -4817,7 +4817,7 @@
       <c r="I130" s="4"/>
     </row>
     <row r="131" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="55"/>
+      <c r="A131" s="58"/>
       <c r="B131" s="5" t="s">
         <v>50</v>
       </c>
@@ -4831,6 +4831,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="A117:A131"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="A72:A86"/>
     <mergeCell ref="A87:A101"/>
@@ -4847,18 +4859,6 @@
     <mergeCell ref="L67:N67"/>
     <mergeCell ref="O67:Q67"/>
     <mergeCell ref="R67:T67"/>
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="A117:A131"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4870,7 +4870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
@@ -4894,51 +4894,51 @@
       <c r="A1" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="72" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="70" t="s">
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="67" t="s">
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="70"/>
     </row>
     <row r="2" spans="1:39" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="29"/>
@@ -7417,51 +7417,51 @@
       <c r="A39" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="72" t="s">
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="70" t="s">
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
+      <c r="T39" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="U39" s="70"/>
-      <c r="V39" s="70"/>
-      <c r="W39" s="70"/>
-      <c r="X39" s="70"/>
-      <c r="Y39" s="70"/>
-      <c r="Z39" s="70"/>
-      <c r="AA39" s="70"/>
-      <c r="AB39" s="70"/>
-      <c r="AC39" s="71"/>
-      <c r="AD39" s="67" t="s">
+      <c r="U39" s="71"/>
+      <c r="V39" s="71"/>
+      <c r="W39" s="71"/>
+      <c r="X39" s="71"/>
+      <c r="Y39" s="71"/>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="71"/>
+      <c r="AB39" s="71"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AE39" s="68"/>
-      <c r="AF39" s="68"/>
-      <c r="AG39" s="68"/>
-      <c r="AH39" s="68"/>
-      <c r="AI39" s="68"/>
-      <c r="AJ39" s="68"/>
-      <c r="AK39" s="68"/>
-      <c r="AL39" s="69"/>
+      <c r="AE39" s="69"/>
+      <c r="AF39" s="69"/>
+      <c r="AG39" s="69"/>
+      <c r="AH39" s="69"/>
+      <c r="AI39" s="69"/>
+      <c r="AJ39" s="69"/>
+      <c r="AK39" s="69"/>
+      <c r="AL39" s="70"/>
     </row>
     <row r="40" spans="1:38" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A40" s="29"/>
@@ -8526,51 +8526,51 @@
       <c r="A58" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="74" t="s">
+      <c r="B58" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="72" t="s">
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="73"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="73"/>
-      <c r="O58" s="73"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="73"/>
-      <c r="R58" s="73"/>
-      <c r="S58" s="73"/>
-      <c r="T58" s="70" t="s">
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="74"/>
+      <c r="S58" s="74"/>
+      <c r="T58" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="U58" s="70"/>
-      <c r="V58" s="70"/>
-      <c r="W58" s="70"/>
-      <c r="X58" s="70"/>
-      <c r="Y58" s="70"/>
-      <c r="Z58" s="70"/>
-      <c r="AA58" s="70"/>
-      <c r="AB58" s="70"/>
-      <c r="AC58" s="71"/>
-      <c r="AD58" s="67" t="s">
+      <c r="U58" s="71"/>
+      <c r="V58" s="71"/>
+      <c r="W58" s="71"/>
+      <c r="X58" s="71"/>
+      <c r="Y58" s="71"/>
+      <c r="Z58" s="71"/>
+      <c r="AA58" s="71"/>
+      <c r="AB58" s="71"/>
+      <c r="AC58" s="72"/>
+      <c r="AD58" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="AE58" s="68"/>
-      <c r="AF58" s="68"/>
-      <c r="AG58" s="68"/>
-      <c r="AH58" s="68"/>
-      <c r="AI58" s="68"/>
-      <c r="AJ58" s="68"/>
-      <c r="AK58" s="68"/>
-      <c r="AL58" s="69"/>
+      <c r="AE58" s="69"/>
+      <c r="AF58" s="69"/>
+      <c r="AG58" s="69"/>
+      <c r="AH58" s="69"/>
+      <c r="AI58" s="69"/>
+      <c r="AJ58" s="69"/>
+      <c r="AK58" s="69"/>
+      <c r="AL58" s="70"/>
     </row>
     <row r="59" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
@@ -9661,7 +9661,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="75" t="s">
@@ -9677,7 +9677,7 @@
       <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
+      <c r="A2" s="58"/>
       <c r="B2" s="76"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9699,7 +9699,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="56" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -9713,7 +9713,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -9725,7 +9725,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -9737,7 +9737,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -9749,7 +9749,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -9761,7 +9761,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -9773,7 +9773,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -9785,7 +9785,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -9797,7 +9797,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -9809,7 +9809,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -9821,7 +9821,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -9833,7 +9833,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -9845,7 +9845,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -9857,7 +9857,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -9869,7 +9869,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -9881,7 +9881,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -9893,7 +9893,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -9905,7 +9905,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -9917,7 +9917,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -9929,7 +9929,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -9941,7 +9941,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -9953,7 +9953,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -9965,7 +9965,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
@@ -9977,7 +9977,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
@@ -9989,7 +9989,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
@@ -10001,7 +10001,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -10013,7 +10013,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
@@ -10025,7 +10025,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
@@ -10037,7 +10037,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
@@ -10049,7 +10049,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
@@ -10061,7 +10061,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
@@ -10073,7 +10073,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
@@ -10085,7 +10085,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
@@ -10097,7 +10097,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
@@ -10109,7 +10109,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
@@ -10121,7 +10121,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
@@ -10133,7 +10133,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="56" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -10147,7 +10147,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
@@ -10159,7 +10159,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
@@ -10171,7 +10171,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -10183,7 +10183,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
@@ -10195,7 +10195,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
@@ -10207,7 +10207,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
@@ -10219,7 +10219,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -10231,7 +10231,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
@@ -10243,7 +10243,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
@@ -10255,7 +10255,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
       </c>
@@ -10267,7 +10267,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
@@ -10279,7 +10279,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="2" t="s">
         <v>24</v>
       </c>
@@ -10291,7 +10291,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
@@ -10303,7 +10303,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
@@ -10315,7 +10315,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -10327,7 +10327,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
@@ -10339,7 +10339,7 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
@@ -10351,7 +10351,7 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="2" t="s">
         <v>29</v>
       </c>
@@ -10363,7 +10363,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="2" t="s">
         <v>30</v>
       </c>
@@ -10375,7 +10375,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="2" t="s">
         <v>31</v>
       </c>
@@ -10387,7 +10387,7 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="2" t="s">
         <v>32</v>
       </c>
@@ -10399,7 +10399,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="2" t="s">
         <v>33</v>
       </c>
@@ -10411,7 +10411,7 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="2" t="s">
         <v>34</v>
       </c>
@@ -10423,7 +10423,7 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="2" t="s">
         <v>35</v>
       </c>
@@ -10435,7 +10435,7 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="2" t="s">
         <v>36</v>
       </c>
@@ -10447,7 +10447,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="54"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="2" t="s">
         <v>37</v>
       </c>
@@ -10459,7 +10459,7 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="2" t="s">
         <v>38</v>
       </c>
@@ -10471,7 +10471,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="2" t="s">
         <v>39</v>
       </c>
@@ -10483,7 +10483,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="54"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="2" t="s">
         <v>40</v>
       </c>
@@ -10495,7 +10495,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="2" t="s">
         <v>41</v>
       </c>
@@ -10507,7 +10507,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="2" t="s">
         <v>42</v>
       </c>
@@ -10519,7 +10519,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="54"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="2" t="s">
         <v>43</v>
       </c>
@@ -10531,7 +10531,7 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="54"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="2" t="s">
         <v>44</v>
       </c>
@@ -10543,7 +10543,7 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="54"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
@@ -10555,7 +10555,7 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="55"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="2" t="s">
         <v>45</v>
       </c>
@@ -10567,7 +10567,7 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="56" t="s">
         <v>48</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -10581,7 +10581,7 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
@@ -10593,7 +10593,7 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="54"/>
+      <c r="A77" s="57"/>
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
@@ -10605,7 +10605,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
@@ -10617,7 +10617,7 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -10629,7 +10629,7 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="54"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="2" t="s">
         <v>17</v>
       </c>
@@ -10641,7 +10641,7 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="54"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="2" t="s">
         <v>18</v>
       </c>
@@ -10653,7 +10653,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="54"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="2" t="s">
         <v>19</v>
       </c>
@@ -10665,7 +10665,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="54"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="2" t="s">
         <v>20</v>
       </c>
@@ -10677,7 +10677,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="54"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
@@ -10689,7 +10689,7 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="54"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="2" t="s">
         <v>22</v>
       </c>
@@ -10701,7 +10701,7 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="54"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
@@ -10713,7 +10713,7 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="54"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="2" t="s">
         <v>24</v>
       </c>
@@ -10725,7 +10725,7 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="54"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="2" t="s">
         <v>25</v>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="54"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="2" t="s">
         <v>26</v>
       </c>
@@ -10749,7 +10749,7 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="54"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="2" t="s">
         <v>27</v>
       </c>
@@ -10761,7 +10761,7 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="54"/>
+      <c r="A91" s="57"/>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
@@ -10773,7 +10773,7 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="54"/>
+      <c r="A92" s="57"/>
       <c r="B92" s="2" t="s">
         <v>28</v>
       </c>
@@ -10785,7 +10785,7 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="54"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="2" t="s">
         <v>29</v>
       </c>
@@ -10797,7 +10797,7 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="54"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="2" t="s">
         <v>30</v>
       </c>
@@ -10809,7 +10809,7 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="54"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="2" t="s">
         <v>31</v>
       </c>
@@ -10821,7 +10821,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="54"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="2" t="s">
         <v>32</v>
       </c>
@@ -10833,7 +10833,7 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="54"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="2" t="s">
         <v>33</v>
       </c>
@@ -10845,7 +10845,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="54"/>
+      <c r="A98" s="57"/>
       <c r="B98" s="2" t="s">
         <v>34</v>
       </c>
@@ -10857,7 +10857,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="54"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="2" t="s">
         <v>35</v>
       </c>
@@ -10869,7 +10869,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="54"/>
+      <c r="A100" s="57"/>
       <c r="B100" s="2" t="s">
         <v>36</v>
       </c>
@@ -10881,7 +10881,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="54"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
@@ -10893,7 +10893,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="54"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="2" t="s">
         <v>38</v>
       </c>
@@ -10905,7 +10905,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="54"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="2" t="s">
         <v>39</v>
       </c>
@@ -10917,7 +10917,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="54"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="2" t="s">
         <v>40</v>
       </c>
@@ -10929,7 +10929,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="54"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="2" t="s">
         <v>41</v>
       </c>
@@ -10941,7 +10941,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="54"/>
+      <c r="A106" s="57"/>
       <c r="B106" s="2" t="s">
         <v>42</v>
       </c>
@@ -10953,7 +10953,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="54"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="2" t="s">
         <v>43</v>
       </c>
@@ -10965,7 +10965,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="54"/>
+      <c r="A108" s="57"/>
       <c r="B108" s="2" t="s">
         <v>44</v>
       </c>
@@ -10977,7 +10977,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="54"/>
+      <c r="A109" s="57"/>
       <c r="B109" s="2" t="s">
         <v>4</v>
       </c>
@@ -10989,7 +10989,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="55"/>
+      <c r="A110" s="58"/>
       <c r="B110" s="2" t="s">
         <v>45</v>
       </c>
@@ -11001,7 +11001,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="56" t="s">
         <v>49</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -11015,7 +11015,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="54"/>
+      <c r="A112" s="57"/>
       <c r="B112" s="2" t="s">
         <v>14</v>
       </c>
@@ -11027,7 +11027,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="54"/>
+      <c r="A113" s="57"/>
       <c r="B113" s="2" t="s">
         <v>15</v>
       </c>
@@ -11039,7 +11039,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="54"/>
+      <c r="A114" s="57"/>
       <c r="B114" s="2" t="s">
         <v>16</v>
       </c>
@@ -11051,7 +11051,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="54"/>
+      <c r="A115" s="57"/>
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="54"/>
+      <c r="A116" s="57"/>
       <c r="B116" s="2" t="s">
         <v>17</v>
       </c>
@@ -11075,7 +11075,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="54"/>
+      <c r="A117" s="57"/>
       <c r="B117" s="2" t="s">
         <v>18</v>
       </c>
@@ -11087,7 +11087,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="54"/>
+      <c r="A118" s="57"/>
       <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
@@ -11099,7 +11099,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="54"/>
+      <c r="A119" s="57"/>
       <c r="B119" s="2" t="s">
         <v>20</v>
       </c>
@@ -11111,7 +11111,7 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="54"/>
+      <c r="A120" s="57"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -11123,7 +11123,7 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="54"/>
+      <c r="A121" s="57"/>
       <c r="B121" s="2" t="s">
         <v>22</v>
       </c>
@@ -11135,7 +11135,7 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="54"/>
+      <c r="A122" s="57"/>
       <c r="B122" s="2" t="s">
         <v>23</v>
       </c>
@@ -11147,7 +11147,7 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="54"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -11159,7 +11159,7 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="54"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="2" t="s">
         <v>25</v>
       </c>
@@ -11171,7 +11171,7 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="54"/>
+      <c r="A125" s="57"/>
       <c r="B125" s="2" t="s">
         <v>26</v>
       </c>
@@ -11183,7 +11183,7 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="54"/>
+      <c r="A126" s="57"/>
       <c r="B126" s="2" t="s">
         <v>27</v>
       </c>
@@ -11195,7 +11195,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="54"/>
+      <c r="A127" s="57"/>
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
@@ -11207,7 +11207,7 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="54"/>
+      <c r="A128" s="57"/>
       <c r="B128" s="2" t="s">
         <v>28</v>
       </c>
@@ -11219,7 +11219,7 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="54"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="2" t="s">
         <v>29</v>
       </c>
@@ -11231,7 +11231,7 @@
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="54"/>
+      <c r="A130" s="57"/>
       <c r="B130" s="2" t="s">
         <v>30</v>
       </c>
@@ -11243,7 +11243,7 @@
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="54"/>
+      <c r="A131" s="57"/>
       <c r="B131" s="2" t="s">
         <v>31</v>
       </c>
@@ -11255,7 +11255,7 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="54"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="2" t="s">
         <v>32</v>
       </c>
@@ -11267,7 +11267,7 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="54"/>
+      <c r="A133" s="57"/>
       <c r="B133" s="2" t="s">
         <v>33</v>
       </c>
@@ -11279,7 +11279,7 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="54"/>
+      <c r="A134" s="57"/>
       <c r="B134" s="2" t="s">
         <v>34</v>
       </c>
@@ -11291,7 +11291,7 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="54"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="2" t="s">
         <v>35</v>
       </c>
@@ -11303,7 +11303,7 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="54"/>
+      <c r="A136" s="57"/>
       <c r="B136" s="2" t="s">
         <v>36</v>
       </c>
@@ -11315,7 +11315,7 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="54"/>
+      <c r="A137" s="57"/>
       <c r="B137" s="2" t="s">
         <v>37</v>
       </c>
@@ -11327,7 +11327,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="54"/>
+      <c r="A138" s="57"/>
       <c r="B138" s="2" t="s">
         <v>38</v>
       </c>
@@ -11339,7 +11339,7 @@
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="54"/>
+      <c r="A139" s="57"/>
       <c r="B139" s="2" t="s">
         <v>39</v>
       </c>
@@ -11351,7 +11351,7 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="54"/>
+      <c r="A140" s="57"/>
       <c r="B140" s="2" t="s">
         <v>40</v>
       </c>
@@ -11363,7 +11363,7 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="54"/>
+      <c r="A141" s="57"/>
       <c r="B141" s="2" t="s">
         <v>41</v>
       </c>
@@ -11375,7 +11375,7 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="54"/>
+      <c r="A142" s="57"/>
       <c r="B142" s="2" t="s">
         <v>42</v>
       </c>
@@ -11387,7 +11387,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="54"/>
+      <c r="A143" s="57"/>
       <c r="B143" s="2" t="s">
         <v>43</v>
       </c>
@@ -11399,7 +11399,7 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="54"/>
+      <c r="A144" s="57"/>
       <c r="B144" s="2" t="s">
         <v>44</v>
       </c>
@@ -11411,7 +11411,7 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="54"/>
+      <c r="A145" s="57"/>
       <c r="B145" s="2" t="s">
         <v>4</v>
       </c>
@@ -11423,7 +11423,7 @@
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="55"/>
+      <c r="A146" s="58"/>
       <c r="B146" s="2" t="s">
         <v>45</v>
       </c>
@@ -11436,7 +11436,7 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="53" t="s">
+      <c r="A152" s="56" t="s">
         <v>5</v>
       </c>
       <c r="B152" s="59" t="s">
@@ -11452,7 +11452,7 @@
       <c r="H152" s="63"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="55"/>
+      <c r="A153" s="58"/>
       <c r="B153" s="60"/>
       <c r="C153" s="1" t="s">
         <v>7</v>
@@ -11474,7 +11474,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="53" t="s">
+      <c r="A154" s="56" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -11488,7 +11488,7 @@
       <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="54"/>
+      <c r="A155" s="57"/>
       <c r="B155" s="2" t="s">
         <v>14</v>
       </c>
@@ -11500,7 +11500,7 @@
       <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="54"/>
+      <c r="A156" s="57"/>
       <c r="B156" s="2" t="s">
         <v>15</v>
       </c>
@@ -11512,7 +11512,7 @@
       <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="54"/>
+      <c r="A157" s="57"/>
       <c r="B157" s="2" t="s">
         <v>16</v>
       </c>
@@ -11524,7 +11524,7 @@
       <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="54"/>
+      <c r="A158" s="57"/>
       <c r="B158" s="2" t="s">
         <v>2</v>
       </c>
@@ -11536,7 +11536,7 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="54"/>
+      <c r="A159" s="57"/>
       <c r="B159" s="2" t="s">
         <v>17</v>
       </c>
@@ -11548,7 +11548,7 @@
       <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="54"/>
+      <c r="A160" s="57"/>
       <c r="B160" s="2" t="s">
         <v>18</v>
       </c>
@@ -11560,7 +11560,7 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="54"/>
+      <c r="A161" s="57"/>
       <c r="B161" s="2" t="s">
         <v>19</v>
       </c>
@@ -11572,7 +11572,7 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="54"/>
+      <c r="A162" s="57"/>
       <c r="B162" s="2" t="s">
         <v>20</v>
       </c>
@@ -11584,7 +11584,7 @@
       <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="54"/>
+      <c r="A163" s="57"/>
       <c r="B163" s="2" t="s">
         <v>21</v>
       </c>
@@ -11596,7 +11596,7 @@
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="54"/>
+      <c r="A164" s="57"/>
       <c r="B164" s="2" t="s">
         <v>22</v>
       </c>
@@ -11608,7 +11608,7 @@
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="54"/>
+      <c r="A165" s="57"/>
       <c r="B165" s="2" t="s">
         <v>23</v>
       </c>
@@ -11620,7 +11620,7 @@
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="54"/>
+      <c r="A166" s="57"/>
       <c r="B166" s="2" t="s">
         <v>24</v>
       </c>
@@ -11632,7 +11632,7 @@
       <c r="H166" s="4"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="54"/>
+      <c r="A167" s="57"/>
       <c r="B167" s="2" t="s">
         <v>25</v>
       </c>
@@ -11644,7 +11644,7 @@
       <c r="H167" s="4"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="55"/>
+      <c r="A168" s="58"/>
       <c r="B168" s="5" t="s">
         <v>50</v>
       </c>
@@ -11656,7 +11656,7 @@
       <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="53" t="s">
+      <c r="A169" s="56" t="s">
         <v>46</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -11670,7 +11670,7 @@
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="54"/>
+      <c r="A170" s="57"/>
       <c r="B170" s="2" t="s">
         <v>14</v>
       </c>
@@ -11682,7 +11682,7 @@
       <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="54"/>
+      <c r="A171" s="57"/>
       <c r="B171" s="2" t="s">
         <v>15</v>
       </c>
@@ -11694,7 +11694,7 @@
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="54"/>
+      <c r="A172" s="57"/>
       <c r="B172" s="2" t="s">
         <v>16</v>
       </c>
@@ -11706,7 +11706,7 @@
       <c r="H172" s="4"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="54"/>
+      <c r="A173" s="57"/>
       <c r="B173" s="2" t="s">
         <v>2</v>
       </c>
@@ -11718,7 +11718,7 @@
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="54"/>
+      <c r="A174" s="57"/>
       <c r="B174" s="2" t="s">
         <v>17</v>
       </c>
@@ -11730,7 +11730,7 @@
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="54"/>
+      <c r="A175" s="57"/>
       <c r="B175" s="2" t="s">
         <v>18</v>
       </c>
@@ -11742,7 +11742,7 @@
       <c r="H175" s="4"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="54"/>
+      <c r="A176" s="57"/>
       <c r="B176" s="2" t="s">
         <v>19</v>
       </c>
@@ -11754,7 +11754,7 @@
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="54"/>
+      <c r="A177" s="57"/>
       <c r="B177" s="2" t="s">
         <v>20</v>
       </c>
@@ -11766,7 +11766,7 @@
       <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="54"/>
+      <c r="A178" s="57"/>
       <c r="B178" s="2" t="s">
         <v>21</v>
       </c>
@@ -11778,7 +11778,7 @@
       <c r="H178" s="4"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="54"/>
+      <c r="A179" s="57"/>
       <c r="B179" s="2" t="s">
         <v>22</v>
       </c>
@@ -11790,7 +11790,7 @@
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="54"/>
+      <c r="A180" s="57"/>
       <c r="B180" s="2" t="s">
         <v>23</v>
       </c>
@@ -11802,7 +11802,7 @@
       <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="54"/>
+      <c r="A181" s="57"/>
       <c r="B181" s="2" t="s">
         <v>24</v>
       </c>
@@ -11814,7 +11814,7 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="54"/>
+      <c r="A182" s="57"/>
       <c r="B182" s="2" t="s">
         <v>25</v>
       </c>
@@ -11826,7 +11826,7 @@
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="55"/>
+      <c r="A183" s="58"/>
       <c r="B183" s="5" t="s">
         <v>50</v>
       </c>
@@ -11838,7 +11838,7 @@
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="53" t="s">
+      <c r="A184" s="56" t="s">
         <v>51</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -11852,7 +11852,7 @@
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="54"/>
+      <c r="A185" s="57"/>
       <c r="B185" s="2" t="s">
         <v>14</v>
       </c>
@@ -11864,7 +11864,7 @@
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="54"/>
+      <c r="A186" s="57"/>
       <c r="B186" s="2" t="s">
         <v>15</v>
       </c>
@@ -11876,7 +11876,7 @@
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="54"/>
+      <c r="A187" s="57"/>
       <c r="B187" s="2" t="s">
         <v>16</v>
       </c>
@@ -11888,7 +11888,7 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="54"/>
+      <c r="A188" s="57"/>
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -11900,7 +11900,7 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="54"/>
+      <c r="A189" s="57"/>
       <c r="B189" s="2" t="s">
         <v>17</v>
       </c>
@@ -11912,7 +11912,7 @@
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="54"/>
+      <c r="A190" s="57"/>
       <c r="B190" s="2" t="s">
         <v>18</v>
       </c>
@@ -11924,7 +11924,7 @@
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="54"/>
+      <c r="A191" s="57"/>
       <c r="B191" s="2" t="s">
         <v>19</v>
       </c>
@@ -11936,7 +11936,7 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="54"/>
+      <c r="A192" s="57"/>
       <c r="B192" s="2" t="s">
         <v>20</v>
       </c>
@@ -11948,7 +11948,7 @@
       <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="54"/>
+      <c r="A193" s="57"/>
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
@@ -11960,7 +11960,7 @@
       <c r="H193" s="4"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="54"/>
+      <c r="A194" s="57"/>
       <c r="B194" s="2" t="s">
         <v>22</v>
       </c>
@@ -11972,7 +11972,7 @@
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="54"/>
+      <c r="A195" s="57"/>
       <c r="B195" s="2" t="s">
         <v>23</v>
       </c>
@@ -11984,7 +11984,7 @@
       <c r="H195" s="4"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="54"/>
+      <c r="A196" s="57"/>
       <c r="B196" s="2" t="s">
         <v>24</v>
       </c>
@@ -11996,7 +11996,7 @@
       <c r="H196" s="4"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="54"/>
+      <c r="A197" s="57"/>
       <c r="B197" s="2" t="s">
         <v>25</v>
       </c>
@@ -12008,7 +12008,7 @@
       <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="55"/>
+      <c r="A198" s="58"/>
       <c r="B198" s="5" t="s">
         <v>50</v>
       </c>
@@ -12020,7 +12020,7 @@
       <c r="H198" s="4"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="53" t="s">
+      <c r="A199" s="56" t="s">
         <v>52</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -12034,7 +12034,7 @@
       <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="54"/>
+      <c r="A200" s="57"/>
       <c r="B200" s="2" t="s">
         <v>14</v>
       </c>
@@ -12046,7 +12046,7 @@
       <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="54"/>
+      <c r="A201" s="57"/>
       <c r="B201" s="2" t="s">
         <v>15</v>
       </c>
@@ -12058,7 +12058,7 @@
       <c r="H201" s="4"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="54"/>
+      <c r="A202" s="57"/>
       <c r="B202" s="2" t="s">
         <v>16</v>
       </c>
@@ -12070,7 +12070,7 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="54"/>
+      <c r="A203" s="57"/>
       <c r="B203" s="2" t="s">
         <v>2</v>
       </c>
@@ -12082,7 +12082,7 @@
       <c r="H203" s="4"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="54"/>
+      <c r="A204" s="57"/>
       <c r="B204" s="2" t="s">
         <v>17</v>
       </c>
@@ -12094,7 +12094,7 @@
       <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="54"/>
+      <c r="A205" s="57"/>
       <c r="B205" s="2" t="s">
         <v>18</v>
       </c>
@@ -12106,7 +12106,7 @@
       <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="54"/>
+      <c r="A206" s="57"/>
       <c r="B206" s="2" t="s">
         <v>19</v>
       </c>
@@ -12118,7 +12118,7 @@
       <c r="H206" s="4"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="54"/>
+      <c r="A207" s="57"/>
       <c r="B207" s="2" t="s">
         <v>20</v>
       </c>
@@ -12130,7 +12130,7 @@
       <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="54"/>
+      <c r="A208" s="57"/>
       <c r="B208" s="2" t="s">
         <v>21</v>
       </c>
@@ -12142,7 +12142,7 @@
       <c r="H208" s="4"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="54"/>
+      <c r="A209" s="57"/>
       <c r="B209" s="2" t="s">
         <v>22</v>
       </c>
@@ -12154,7 +12154,7 @@
       <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="54"/>
+      <c r="A210" s="57"/>
       <c r="B210" s="2" t="s">
         <v>23</v>
       </c>
@@ -12166,7 +12166,7 @@
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="54"/>
+      <c r="A211" s="57"/>
       <c r="B211" s="2" t="s">
         <v>24</v>
       </c>
@@ -12178,7 +12178,7 @@
       <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="54"/>
+      <c r="A212" s="57"/>
       <c r="B212" s="2" t="s">
         <v>25</v>
       </c>
@@ -12190,7 +12190,7 @@
       <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="55"/>
+      <c r="A213" s="58"/>
       <c r="B213" s="5" t="s">
         <v>50</v>
       </c>
@@ -12203,6 +12203,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -12212,11 +12217,6 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/对比/性能对比.xlsx
+++ b/对比/性能对比.xlsx
@@ -9,13 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="601" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="8" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet7" sheetId="13" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="8" state="hidden" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="181">
   <si>
     <t>算法</t>
   </si>
@@ -702,18 +708,80 @@
     <t>cr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*LUT256*8</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>总体</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>总体减少了</t>
+  </si>
+  <si>
+    <t>面积减少</t>
+  </si>
+  <si>
+    <t>面积减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺</t>
+  </si>
+  <si>
+    <t>主频(MHz)</t>
+  </si>
+  <si>
+    <t>映射面积(mm^2)</t>
+  </si>
+  <si>
+    <t>算法性能(Gbps)</t>
+  </si>
+  <si>
+    <t>性能面积比(Gbps/mm^2)</t>
+  </si>
+  <si>
+    <t>40nm</t>
+  </si>
+  <si>
+    <t>清华项目中的架构</t>
+  </si>
+  <si>
+    <t>500M</t>
+  </si>
+  <si>
+    <t>性能面积比提高百分比</t>
+  </si>
+  <si>
+    <t>性能面积比提高百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积减少百分比</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="183" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,6 +851,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -840,7 +934,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1020,6 +1114,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1027,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1128,15 +1298,6 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1154,6 +1315,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1218,6 +1388,110 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1234,6 +1508,762 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="算法分析"/>
+      <sheetName val="单元面积"/>
+      <sheetName val="架构比较"/>
+      <sheetName val="架构面积"/>
+      <sheetName val="映射分析"/>
+      <sheetName val="资源数比较"/>
+      <sheetName val="面积比较"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>AU</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>SH</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>PER</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>LOU</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>4*LUT256*8</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>GFM</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>AES</v>
+          </cell>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>4</v>
+          </cell>
+          <cell r="F2">
+            <v>4</v>
+          </cell>
+          <cell r="G2">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>DES</v>
+          </cell>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>2</v>
+          </cell>
+          <cell r="E3">
+            <v>2</v>
+          </cell>
+          <cell r="F3">
+            <v>2</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>SM4</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>4</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>4</v>
+          </cell>
+          <cell r="F4">
+            <v>1</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>TWOFISH</v>
+          </cell>
+          <cell r="B5">
+            <v>4</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>6</v>
+          </cell>
+          <cell r="F5">
+            <v>2</v>
+          </cell>
+          <cell r="G5">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>RC5</v>
+          </cell>
+          <cell r="B6">
+            <v>2</v>
+          </cell>
+          <cell r="C6">
+            <v>2</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+          <cell r="E6">
+            <v>2</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>BLOWFISH</v>
+          </cell>
+          <cell r="B7">
+            <v>3</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>3</v>
+          </cell>
+          <cell r="F7">
+            <v>1</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+          <cell r="D2">
+            <v>1</v>
+          </cell>
+          <cell r="E2">
+            <v>1</v>
+          </cell>
+          <cell r="F2">
+            <v>1</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+          <cell r="D3">
+            <v>1</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>1</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>1</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>1</v>
+          </cell>
+          <cell r="G4">
+            <v>1</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5">
+            <v>1</v>
+          </cell>
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+          <cell r="F5">
+            <v>1</v>
+          </cell>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
+          <cell r="H5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+          <cell r="D6">
+            <v>1</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>1</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+          <cell r="H6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+          <cell r="E8">
+            <v>0</v>
+          </cell>
+          <cell r="F8">
+            <v>6</v>
+          </cell>
+          <cell r="G8">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+          <cell r="E9">
+            <v>1</v>
+          </cell>
+          <cell r="F9">
+            <v>6</v>
+          </cell>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>1</v>
+          </cell>
+          <cell r="D11">
+            <v>1</v>
+          </cell>
+          <cell r="E11">
+            <v>1</v>
+          </cell>
+          <cell r="F11">
+            <v>1</v>
+          </cell>
+          <cell r="G11">
+            <v>7</v>
+          </cell>
+          <cell r="H11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>1</v>
+          </cell>
+          <cell r="D13">
+            <v>1</v>
+          </cell>
+          <cell r="E13">
+            <v>1</v>
+          </cell>
+          <cell r="F13">
+            <v>2</v>
+          </cell>
+          <cell r="G13">
+            <v>2</v>
+          </cell>
+          <cell r="H13">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>本文</v>
+          </cell>
+          <cell r="C2">
+            <v>2</v>
+          </cell>
+          <cell r="D2">
+            <v>2</v>
+          </cell>
+          <cell r="E2">
+            <v>2</v>
+          </cell>
+          <cell r="F2">
+            <v>4</v>
+          </cell>
+          <cell r="G2">
+            <v>2.6666666666666665</v>
+          </cell>
+          <cell r="H2">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>2</v>
+          </cell>
+          <cell r="D3">
+            <v>2</v>
+          </cell>
+          <cell r="E3">
+            <v>2</v>
+          </cell>
+          <cell r="F3">
+            <v>4</v>
+          </cell>
+          <cell r="G3">
+            <v>2.6666666666666665</v>
+          </cell>
+          <cell r="H3">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>4</v>
+          </cell>
+          <cell r="D4">
+            <v>4</v>
+          </cell>
+          <cell r="E4">
+            <v>4</v>
+          </cell>
+          <cell r="F4">
+            <v>8</v>
+          </cell>
+          <cell r="G4">
+            <v>5.333333333333333</v>
+          </cell>
+          <cell r="H4">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>2</v>
+          </cell>
+          <cell r="D5">
+            <v>2</v>
+          </cell>
+          <cell r="E5">
+            <v>2</v>
+          </cell>
+          <cell r="F5">
+            <v>4</v>
+          </cell>
+          <cell r="G5">
+            <v>2.6666666666666665</v>
+          </cell>
+          <cell r="H5">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>2</v>
+          </cell>
+          <cell r="D6">
+            <v>2</v>
+          </cell>
+          <cell r="E6">
+            <v>2</v>
+          </cell>
+          <cell r="F6">
+            <v>4</v>
+          </cell>
+          <cell r="G6">
+            <v>2.6666666666666665</v>
+          </cell>
+          <cell r="H6">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>3</v>
+          </cell>
+          <cell r="D7">
+            <v>3</v>
+          </cell>
+          <cell r="E7">
+            <v>3</v>
+          </cell>
+          <cell r="F7">
+            <v>6</v>
+          </cell>
+          <cell r="G7">
+            <v>4</v>
+          </cell>
+          <cell r="H7">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>TH</v>
+          </cell>
+          <cell r="C8">
+            <v>4</v>
+          </cell>
+          <cell r="D8">
+            <v>8</v>
+          </cell>
+          <cell r="E8">
+            <v>8</v>
+          </cell>
+          <cell r="F8">
+            <v>12</v>
+          </cell>
+          <cell r="G8">
+            <v>8</v>
+          </cell>
+          <cell r="H8">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>4</v>
+          </cell>
+          <cell r="D9">
+            <v>8</v>
+          </cell>
+          <cell r="E9">
+            <v>8</v>
+          </cell>
+          <cell r="F9">
+            <v>12</v>
+          </cell>
+          <cell r="G9">
+            <v>8</v>
+          </cell>
+          <cell r="H9">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>2</v>
+          </cell>
+          <cell r="D10">
+            <v>4</v>
+          </cell>
+          <cell r="E10">
+            <v>4</v>
+          </cell>
+          <cell r="F10">
+            <v>6</v>
+          </cell>
+          <cell r="G10">
+            <v>4</v>
+          </cell>
+          <cell r="H10">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Cyptoraptor</v>
+          </cell>
+          <cell r="C11">
+            <v>8</v>
+          </cell>
+          <cell r="D11">
+            <v>12</v>
+          </cell>
+          <cell r="E11">
+            <v>16</v>
+          </cell>
+          <cell r="F11">
+            <v>20</v>
+          </cell>
+          <cell r="G11">
+            <v>16</v>
+          </cell>
+          <cell r="H11">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>2</v>
+          </cell>
+          <cell r="D12">
+            <v>3</v>
+          </cell>
+          <cell r="E12">
+            <v>4</v>
+          </cell>
+          <cell r="F12">
+            <v>5</v>
+          </cell>
+          <cell r="G12">
+            <v>4</v>
+          </cell>
+          <cell r="H12">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>RCPA</v>
+          </cell>
+          <cell r="C13">
+            <v>8</v>
+          </cell>
+          <cell r="D13">
+            <v>12</v>
+          </cell>
+          <cell r="E13">
+            <v>16</v>
+          </cell>
+          <cell r="F13">
+            <v>20</v>
+          </cell>
+          <cell r="G13">
+            <v>16</v>
+          </cell>
+          <cell r="H13">
+            <v>12</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>AU</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>SH</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>PER</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>LOU</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>4*LUT256*8</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>GFM</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>CR</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>12</v>
+          </cell>
+          <cell r="C2">
+            <v>12</v>
+          </cell>
+          <cell r="D2">
+            <v>4</v>
+          </cell>
+          <cell r="E2">
+            <v>12</v>
+          </cell>
+          <cell r="F2">
+            <v>4</v>
+          </cell>
+          <cell r="G2">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>12</v>
+          </cell>
+          <cell r="C3">
+            <v>12</v>
+          </cell>
+          <cell r="D3">
+            <v>4</v>
+          </cell>
+          <cell r="E3">
+            <v>12</v>
+          </cell>
+          <cell r="F3">
+            <v>4</v>
+          </cell>
+          <cell r="G3">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>12</v>
+          </cell>
+          <cell r="C4">
+            <v>12</v>
+          </cell>
+          <cell r="D4">
+            <v>4</v>
+          </cell>
+          <cell r="E4">
+            <v>12</v>
+          </cell>
+          <cell r="F4">
+            <v>4</v>
+          </cell>
+          <cell r="G4">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>24</v>
+          </cell>
+          <cell r="C5">
+            <v>24</v>
+          </cell>
+          <cell r="D5">
+            <v>8</v>
+          </cell>
+          <cell r="E5">
+            <v>24</v>
+          </cell>
+          <cell r="F5">
+            <v>8</v>
+          </cell>
+          <cell r="G5">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>15.999999999999998</v>
+          </cell>
+          <cell r="C6">
+            <v>15.999999999999998</v>
+          </cell>
+          <cell r="D6">
+            <v>5.333333333333333</v>
+          </cell>
+          <cell r="E6">
+            <v>15.999999999999998</v>
+          </cell>
+          <cell r="F6">
+            <v>5.333333333333333</v>
+          </cell>
+          <cell r="G6">
+            <v>5.333333333333333</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>12</v>
+          </cell>
+          <cell r="C7">
+            <v>12</v>
+          </cell>
+          <cell r="D7">
+            <v>4</v>
+          </cell>
+          <cell r="E7">
+            <v>12</v>
+          </cell>
+          <cell r="F7">
+            <v>4</v>
+          </cell>
+          <cell r="G7">
+            <v>4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1501,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="E36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1851,7 +2881,7 @@
     </row>
     <row r="39" spans="1:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="59" t="s">
@@ -1881,14 +2911,14 @@
       </c>
       <c r="P40" s="65"/>
       <c r="Q40" s="66"/>
-      <c r="R40" s="50" t="s">
+      <c r="R40" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="S40" s="51"/>
-      <c r="T40" s="52"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="58"/>
     </row>
     <row r="41" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="58"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
       <c r="D41" s="20" t="s">
@@ -1912,24 +2942,24 @@
       <c r="K41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L41" s="50">
+      <c r="L41" s="56">
         <v>65</v>
       </c>
-      <c r="M41" s="51"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="50">
+      <c r="M41" s="57"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="56">
         <v>65</v>
       </c>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="50">
+      <c r="P41" s="57"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="56">
         <v>45</v>
       </c>
-      <c r="S41" s="51"/>
-      <c r="T41" s="52"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="58"/>
     </row>
     <row r="42" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1959,26 +2989,26 @@
       <c r="K42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L42" s="50">
+      <c r="L42" s="56">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="51"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="50">
+      <c r="M42" s="57"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="56">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="50">
+      <c r="P42" s="57"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="56">
         <v>1</v>
       </c>
-      <c r="S42" s="51"/>
-      <c r="T42" s="52"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="58"/>
     </row>
     <row r="43" spans="1:30" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="57"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
@@ -2048,7 +3078,7 @@
       </c>
     </row>
     <row r="44" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="57"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="2" t="s">
         <v>22</v>
       </c>
@@ -2147,7 +3177,7 @@
       </c>
     </row>
     <row r="45" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="2" t="s">
         <v>21</v>
       </c>
@@ -2246,7 +3276,7 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="57"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -2345,7 +3375,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="57"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
@@ -2444,7 +3474,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="57"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
@@ -2543,7 +3573,7 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="57"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
@@ -2642,7 +3672,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="57"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
@@ -2727,7 +3757,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="57"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
@@ -2812,7 +3842,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="57"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
@@ -2864,7 +3894,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="57"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
@@ -2889,7 +3919,7 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="57"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="2" t="s">
         <v>18</v>
       </c>
@@ -2914,7 +3944,7 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="57"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
@@ -2939,7 +3969,7 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="5" t="s">
         <v>50</v>
       </c>
@@ -2964,7 +3994,7 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="53" t="s">
         <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3005,7 +4035,7 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="57"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="2" t="s">
         <v>14</v>
       </c>
@@ -3044,7 +4074,7 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="57"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="2" t="s">
         <v>22</v>
       </c>
@@ -3083,7 +4113,7 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="57"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
@@ -3122,7 +4152,7 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="57"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="2" t="s">
         <v>19</v>
       </c>
@@ -3161,7 +4191,7 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="57"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="2" t="s">
         <v>17</v>
       </c>
@@ -3200,7 +4230,7 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="57"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
@@ -3239,7 +4269,7 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="57"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="2" t="s">
         <v>16</v>
       </c>
@@ -3267,7 +4297,7 @@
       <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="57"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="2" t="s">
         <v>20</v>
       </c>
@@ -3281,7 +4311,7 @@
       <c r="K65" s="12"/>
     </row>
     <row r="66" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="57"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="2" t="s">
         <v>23</v>
       </c>
@@ -3295,24 +4325,24 @@
       <c r="K66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="50" t="s">
+      <c r="L66" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="M66" s="51"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="50" t="s">
+      <c r="M66" s="57"/>
+      <c r="N66" s="58"/>
+      <c r="O66" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="P66" s="51"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="50" t="s">
+      <c r="P66" s="57"/>
+      <c r="Q66" s="58"/>
+      <c r="R66" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="S66" s="51"/>
-      <c r="T66" s="52"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="58"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="57"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="2" t="s">
         <v>15</v>
       </c>
@@ -3326,18 +4356,18 @@
       <c r="K67" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L67" s="50"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="50"/>
-      <c r="P67" s="51"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="50"/>
-      <c r="S67" s="51"/>
-      <c r="T67" s="52"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="58"/>
+      <c r="R67" s="56"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="58"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="57"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="2" t="s">
         <v>2</v>
       </c>
@@ -3351,18 +4381,18 @@
       <c r="K68" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L68" s="50"/>
-      <c r="M68" s="51"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="50"/>
-      <c r="P68" s="51"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="50"/>
-      <c r="S68" s="51"/>
-      <c r="T68" s="52"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="58"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="58"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="57"/>
+      <c r="T68" s="58"/>
     </row>
     <row r="69" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="57"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="2" t="s">
         <v>18</v>
       </c>
@@ -3403,7 +4433,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="57"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="2" t="s">
         <v>25</v>
       </c>
@@ -3428,7 +4458,7 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="58"/>
+      <c r="A71" s="55"/>
       <c r="B71" s="5" t="s">
         <v>50</v>
       </c>
@@ -3453,7 +4483,7 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="50" t="s">
         <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3494,7 +4524,7 @@
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="54"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="2" t="s">
         <v>14</v>
       </c>
@@ -3533,7 +4563,7 @@
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="54"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="2" t="s">
         <v>22</v>
       </c>
@@ -3572,7 +4602,7 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="54"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="2" t="s">
         <v>21</v>
       </c>
@@ -3611,7 +4641,7 @@
       <c r="T75" s="1"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="2" t="s">
         <v>19</v>
       </c>
@@ -3650,7 +4680,7 @@
       <c r="T76" s="1"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="54"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="2" t="s">
         <v>17</v>
       </c>
@@ -3689,7 +4719,7 @@
       <c r="T77" s="1"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
+      <c r="A78" s="51"/>
       <c r="B78" s="2" t="s">
         <v>24</v>
       </c>
@@ -3728,7 +4758,7 @@
       <c r="T78" s="1"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
+      <c r="A79" s="51"/>
       <c r="B79" s="2" t="s">
         <v>16</v>
       </c>
@@ -3767,7 +4797,7 @@
       <c r="T79" s="1"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="54"/>
+      <c r="A80" s="51"/>
       <c r="B80" s="2" t="s">
         <v>20</v>
       </c>
@@ -3792,7 +4822,7 @@
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="54"/>
+      <c r="A81" s="51"/>
       <c r="B81" s="2" t="s">
         <v>23</v>
       </c>
@@ -3817,7 +4847,7 @@
       <c r="T81" s="1"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="54"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="2" t="s">
         <v>15</v>
       </c>
@@ -3842,7 +4872,7 @@
       <c r="T82" s="1"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="54"/>
+      <c r="A83" s="51"/>
       <c r="B83" s="2" t="s">
         <v>2</v>
       </c>
@@ -3867,7 +4897,7 @@
       <c r="T83" s="1"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="54"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="2" t="s">
         <v>18</v>
       </c>
@@ -3892,7 +4922,7 @@
       <c r="T84" s="1"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="54"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="2" t="s">
         <v>25</v>
       </c>
@@ -3917,7 +4947,7 @@
       <c r="T85" s="1"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="5" t="s">
         <v>50</v>
       </c>
@@ -3942,7 +4972,7 @@
       <c r="T86" s="1"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="53" t="s">
+      <c r="A87" s="50" t="s">
         <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3983,7 +5013,7 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="54"/>
+      <c r="A88" s="51"/>
       <c r="B88" s="2" t="s">
         <v>14</v>
       </c>
@@ -4022,7 +5052,7 @@
       <c r="T88" s="1"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="54"/>
+      <c r="A89" s="51"/>
       <c r="B89" s="2" t="s">
         <v>22</v>
       </c>
@@ -4061,7 +5091,7 @@
       <c r="T89" s="1"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="54"/>
+      <c r="A90" s="51"/>
       <c r="B90" s="2" t="s">
         <v>21</v>
       </c>
@@ -4088,7 +5118,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="54"/>
+      <c r="A91" s="51"/>
       <c r="B91" s="2" t="s">
         <v>19</v>
       </c>
@@ -4115,7 +5145,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="54"/>
+      <c r="A92" s="51"/>
       <c r="B92" s="2" t="s">
         <v>17</v>
       </c>
@@ -4146,7 +5176,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="54"/>
+      <c r="A93" s="51"/>
       <c r="B93" s="2" t="s">
         <v>24</v>
       </c>
@@ -4177,7 +5207,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="54"/>
+      <c r="A94" s="51"/>
       <c r="B94" s="2" t="s">
         <v>16</v>
       </c>
@@ -4208,7 +5238,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="54"/>
+      <c r="A95" s="51"/>
       <c r="B95" s="2" t="s">
         <v>20</v>
       </c>
@@ -4225,7 +5255,7 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="54"/>
+      <c r="A96" s="51"/>
       <c r="B96" s="2" t="s">
         <v>23</v>
       </c>
@@ -4242,7 +5272,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="54"/>
+      <c r="A97" s="51"/>
       <c r="B97" s="2" t="s">
         <v>15</v>
       </c>
@@ -4259,7 +5289,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="54"/>
+      <c r="A98" s="51"/>
       <c r="B98" s="2" t="s">
         <v>2</v>
       </c>
@@ -4276,7 +5306,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="54"/>
+      <c r="A99" s="51"/>
       <c r="B99" s="2" t="s">
         <v>18</v>
       </c>
@@ -4293,7 +5323,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="54"/>
+      <c r="A100" s="51"/>
       <c r="B100" s="2" t="s">
         <v>25</v>
       </c>
@@ -4306,7 +5336,7 @@
       <c r="I100" s="4"/>
     </row>
     <row r="101" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="55"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="5" t="s">
         <v>50</v>
       </c>
@@ -4323,7 +5353,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="53" t="s">
+      <c r="A102" s="50" t="s">
         <v>76</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -4338,7 +5368,7 @@
       <c r="I102" s="4"/>
     </row>
     <row r="103" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="54"/>
+      <c r="A103" s="51"/>
       <c r="B103" s="2" t="s">
         <v>14</v>
       </c>
@@ -4351,7 +5381,7 @@
       <c r="I103" s="4"/>
     </row>
     <row r="104" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="54"/>
+      <c r="A104" s="51"/>
       <c r="B104" s="2" t="s">
         <v>22</v>
       </c>
@@ -4378,7 +5408,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="54"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="2" t="s">
         <v>21</v>
       </c>
@@ -4404,7 +5434,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="54"/>
+      <c r="A106" s="51"/>
       <c r="B106" s="2" t="s">
         <v>19</v>
       </c>
@@ -4430,7 +5460,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="54"/>
+      <c r="A107" s="51"/>
       <c r="B107" s="2" t="s">
         <v>17</v>
       </c>
@@ -4457,7 +5487,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="54"/>
+      <c r="A108" s="51"/>
       <c r="B108" s="2" t="s">
         <v>24</v>
       </c>
@@ -4484,7 +5514,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="54"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="2" t="s">
         <v>16</v>
       </c>
@@ -4511,7 +5541,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="54"/>
+      <c r="A110" s="51"/>
       <c r="B110" s="2" t="s">
         <v>20</v>
       </c>
@@ -4538,7 +5568,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="54"/>
+      <c r="A111" s="51"/>
       <c r="B111" s="2" t="s">
         <v>23</v>
       </c>
@@ -4564,7 +5594,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="54"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="2" t="s">
         <v>15</v>
       </c>
@@ -4581,7 +5611,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="54"/>
+      <c r="A113" s="51"/>
       <c r="B113" s="2" t="s">
         <v>2</v>
       </c>
@@ -4594,7 +5624,7 @@
       <c r="I113" s="4"/>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="54"/>
+      <c r="A114" s="51"/>
       <c r="B114" s="2" t="s">
         <v>18</v>
       </c>
@@ -4607,7 +5637,7 @@
       <c r="I114" s="4"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="54"/>
+      <c r="A115" s="51"/>
       <c r="B115" s="2" t="s">
         <v>25</v>
       </c>
@@ -4620,7 +5650,7 @@
       <c r="I115" s="4"/>
     </row>
     <row r="116" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="55"/>
+      <c r="A116" s="52"/>
       <c r="B116" s="5" t="s">
         <v>50</v>
       </c>
@@ -4633,7 +5663,7 @@
       <c r="I116" s="4"/>
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="56" t="s">
+      <c r="A117" s="53" t="s">
         <v>77</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -4648,7 +5678,7 @@
       <c r="I117" s="4"/>
     </row>
     <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="57"/>
+      <c r="A118" s="54"/>
       <c r="B118" s="2" t="s">
         <v>14</v>
       </c>
@@ -4661,7 +5691,7 @@
       <c r="I118" s="4"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="57"/>
+      <c r="A119" s="54"/>
       <c r="B119" s="2" t="s">
         <v>22</v>
       </c>
@@ -4674,7 +5704,7 @@
       <c r="I119" s="4"/>
     </row>
     <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="57"/>
+      <c r="A120" s="54"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -4687,7 +5717,7 @@
       <c r="I120" s="4"/>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="57"/>
+      <c r="A121" s="54"/>
       <c r="B121" s="2" t="s">
         <v>19</v>
       </c>
@@ -4700,7 +5730,7 @@
       <c r="I121" s="4"/>
     </row>
     <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="57"/>
+      <c r="A122" s="54"/>
       <c r="B122" s="2" t="s">
         <v>17</v>
       </c>
@@ -4713,7 +5743,7 @@
       <c r="I122" s="4"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="57"/>
+      <c r="A123" s="54"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -4726,7 +5756,7 @@
       <c r="I123" s="4"/>
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="57"/>
+      <c r="A124" s="54"/>
       <c r="B124" s="2" t="s">
         <v>16</v>
       </c>
@@ -4739,7 +5769,7 @@
       <c r="I124" s="4"/>
     </row>
     <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="57"/>
+      <c r="A125" s="54"/>
       <c r="B125" s="2" t="s">
         <v>20</v>
       </c>
@@ -4752,7 +5782,7 @@
       <c r="I125" s="4"/>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="57"/>
+      <c r="A126" s="54"/>
       <c r="B126" s="2" t="s">
         <v>23</v>
       </c>
@@ -4765,7 +5795,7 @@
       <c r="I126" s="4"/>
     </row>
     <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="57"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="2" t="s">
         <v>15</v>
       </c>
@@ -4778,7 +5808,7 @@
       <c r="I127" s="4"/>
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="57"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="2" t="s">
         <v>2</v>
       </c>
@@ -4791,7 +5821,7 @@
       <c r="I128" s="4"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="57"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="2" t="s">
         <v>18</v>
       </c>
@@ -4804,7 +5834,7 @@
       <c r="I129" s="4"/>
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="57"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="2" t="s">
         <v>25</v>
       </c>
@@ -4817,7 +5847,7 @@
       <c r="I130" s="4"/>
     </row>
     <row r="131" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="58"/>
+      <c r="A131" s="55"/>
       <c r="B131" s="5" t="s">
         <v>50</v>
       </c>
@@ -4831,18 +5861,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="A117:A131"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="A72:A86"/>
     <mergeCell ref="A87:A101"/>
@@ -4859,6 +5877,18 @@
     <mergeCell ref="L67:N67"/>
     <mergeCell ref="O67:Q67"/>
     <mergeCell ref="R67:T67"/>
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="A117:A131"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4870,7 +5900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
@@ -9652,6 +10682,4153 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="str">
+        <f>[1]映射分析!A2</f>
+        <v>本文</v>
+      </c>
+      <c r="B1" s="80" t="str">
+        <f>[1]算法分析!B1</f>
+        <v>AU</v>
+      </c>
+      <c r="C1" s="80" t="str">
+        <f>[1]算法分析!C1</f>
+        <v>SH</v>
+      </c>
+      <c r="D1" s="80" t="str">
+        <f>[1]算法分析!D1</f>
+        <v>PER</v>
+      </c>
+      <c r="E1" s="80" t="str">
+        <f>[1]算法分析!E1</f>
+        <v>LOU</v>
+      </c>
+      <c r="F1" s="80" t="str">
+        <f>[1]算法分析!F1</f>
+        <v>4*LUT256*8</v>
+      </c>
+      <c r="G1" s="80" t="str">
+        <f>[1]算法分析!G1</f>
+        <v>GFM</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="81" t="str">
+        <f>B1</f>
+        <v>AU</v>
+      </c>
+      <c r="J1" s="81" t="str">
+        <f>C1</f>
+        <v>SH</v>
+      </c>
+      <c r="K1" s="81" t="str">
+        <f>D1</f>
+        <v>PER</v>
+      </c>
+      <c r="L1" s="81" t="str">
+        <f>E1</f>
+        <v>LOU</v>
+      </c>
+      <c r="M1" s="81" t="str">
+        <f>F1</f>
+        <v>4*LUT256*8</v>
+      </c>
+      <c r="N1" s="81" t="str">
+        <f>G1</f>
+        <v>GFM</v>
+      </c>
+      <c r="O1" s="81"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="str">
+        <f>[1]算法分析!A$2</f>
+        <v>AES</v>
+      </c>
+      <c r="B2" s="83">
+        <f>SUMPRODUCT([1]架构比较!C$2:C$6,[1]映射分析!$C$2:$C$6)</f>
+        <v>12</v>
+      </c>
+      <c r="C2" s="83">
+        <f>SUMPRODUCT([1]架构比较!D$2:D$6,[1]映射分析!$C$2:$C$6)</f>
+        <v>12</v>
+      </c>
+      <c r="D2" s="83">
+        <f>SUMPRODUCT([1]架构比较!E$2:E$6,[1]映射分析!$C$2:$C$6)</f>
+        <v>4</v>
+      </c>
+      <c r="E2" s="83">
+        <f>SUMPRODUCT([1]架构比较!F$2:F$6,[1]映射分析!$C$2:$C$6)</f>
+        <v>12</v>
+      </c>
+      <c r="F2" s="83">
+        <f>SUMPRODUCT([1]架构比较!G$2:G$6,[1]映射分析!$C$2:$C$6)</f>
+        <v>4</v>
+      </c>
+      <c r="G2" s="83">
+        <f>SUMPRODUCT([1]架构比较!H$2:H$6,[1]映射分析!$C$2:$C$6)</f>
+        <v>4</v>
+      </c>
+      <c r="H2" s="84">
+        <f>[1]映射分析!C$7</f>
+        <v>3</v>
+      </c>
+      <c r="I2" s="85">
+        <f>IF([1]资源数比较!B2&lt;&gt;0,[1]算法分析!B2/[1]资源数比较!B2,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="85">
+        <f>IF([1]资源数比较!C2&lt;&gt;0,[1]算法分析!C2/[1]资源数比较!C2,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="85">
+        <f>IF([1]资源数比较!D2&lt;&gt;0,[1]算法分析!D2/[1]资源数比较!D2,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="85">
+        <f>IF([1]资源数比较!E2&lt;&gt;0,[1]算法分析!E2/[1]资源数比较!E2,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M2" s="85">
+        <f>IF([1]资源数比较!F2&lt;&gt;0,[1]算法分析!F2/[1]资源数比较!F2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="85">
+        <f>IF([1]资源数比较!G2&lt;&gt;0,[1]算法分析!G2/[1]资源数比较!G2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="85"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="str">
+        <f>[1]算法分析!A$3</f>
+        <v>DES</v>
+      </c>
+      <c r="B3" s="83">
+        <f>SUMPRODUCT([1]架构比较!C$2:C$6,[1]映射分析!$D$2:$D$6)</f>
+        <v>12</v>
+      </c>
+      <c r="C3" s="83">
+        <f>SUMPRODUCT([1]架构比较!D$2:D$6,[1]映射分析!$D$2:$D$6)</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="83">
+        <f>SUMPRODUCT([1]架构比较!E$2:E$6,[1]映射分析!$D$2:$D$6)</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="83">
+        <f>SUMPRODUCT([1]架构比较!F$2:F$6,[1]映射分析!$D$2:$D$6)</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="83">
+        <f>SUMPRODUCT([1]架构比较!G$2:G$6,[1]映射分析!$D$2:$D$6)</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="83">
+        <f>SUMPRODUCT([1]架构比较!H$2:H$6,[1]映射分析!$D$2:$D$6)</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="84">
+        <f>[1]映射分析!D$7</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="85">
+        <f>IF([1]资源数比较!B3&lt;&gt;0,[1]算法分析!B3/[1]资源数比较!B3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="85">
+        <f>IF([1]资源数比较!C3&lt;&gt;0,[1]算法分析!C3/[1]资源数比较!C3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="85">
+        <f>IF([1]资源数比较!D3&lt;&gt;0,[1]算法分析!D3/[1]资源数比较!D3,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="85">
+        <f>IF([1]资源数比较!E3&lt;&gt;0,[1]算法分析!E3/[1]资源数比较!E3,"")</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M3" s="85">
+        <f>IF([1]资源数比较!F3&lt;&gt;0,[1]算法分析!F3/[1]资源数比较!F3,"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="85">
+        <f>IF([1]资源数比较!G3&lt;&gt;0,[1]算法分析!G3/[1]资源数比较!G3,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="85"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="str">
+        <f>[1]算法分析!A$4</f>
+        <v>SM4</v>
+      </c>
+      <c r="B4" s="83">
+        <f>SUMPRODUCT([1]架构比较!C$2:C$6,[1]映射分析!$E$2:$E$6)</f>
+        <v>12</v>
+      </c>
+      <c r="C4" s="83">
+        <f>SUMPRODUCT([1]架构比较!D$2:D$6,[1]映射分析!$E$2:$E$6)</f>
+        <v>12</v>
+      </c>
+      <c r="D4" s="83">
+        <f>SUMPRODUCT([1]架构比较!E$2:E$6,[1]映射分析!$E$2:$E$6)</f>
+        <v>4</v>
+      </c>
+      <c r="E4" s="83">
+        <f>SUMPRODUCT([1]架构比较!F$2:F$6,[1]映射分析!$E$2:$E$6)</f>
+        <v>12</v>
+      </c>
+      <c r="F4" s="83">
+        <f>SUMPRODUCT([1]架构比较!G$2:G$6,[1]映射分析!$E$2:$E$6)</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="83">
+        <f>SUMPRODUCT([1]架构比较!H$2:H$6,[1]映射分析!$E$2:$E$6)</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="84">
+        <f>[1]映射分析!E$7</f>
+        <v>3</v>
+      </c>
+      <c r="I4" s="85">
+        <f>IF([1]资源数比较!B4&lt;&gt;0,[1]算法分析!B4/[1]资源数比较!B4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="85">
+        <f>IF([1]资源数比较!C4&lt;&gt;0,[1]算法分析!C4/[1]资源数比较!C4,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K4" s="85">
+        <f>IF([1]资源数比较!D4&lt;&gt;0,[1]算法分析!D4/[1]资源数比较!D4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="85">
+        <f>IF([1]资源数比较!E4&lt;&gt;0,[1]算法分析!E4/[1]资源数比较!E4,"")</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M4" s="85">
+        <f>IF([1]资源数比较!F4&lt;&gt;0,[1]算法分析!F4/[1]资源数比较!F4,"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="N4" s="85">
+        <f>IF([1]资源数比较!G4&lt;&gt;0,[1]算法分析!G4/[1]资源数比较!G4,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="85"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="str">
+        <f>[1]算法分析!A$5</f>
+        <v>TWOFISH</v>
+      </c>
+      <c r="B5" s="83">
+        <f>SUMPRODUCT([1]架构比较!C$2:C$6,[1]映射分析!$F$2:$F$6)</f>
+        <v>24</v>
+      </c>
+      <c r="C5" s="83">
+        <f>SUMPRODUCT([1]架构比较!D$2:D$6,[1]映射分析!$F$2:$F$6)</f>
+        <v>24</v>
+      </c>
+      <c r="D5" s="83">
+        <f>SUMPRODUCT([1]架构比较!E$2:E$6,[1]映射分析!$F$2:$F$6)</f>
+        <v>8</v>
+      </c>
+      <c r="E5" s="83">
+        <f>SUMPRODUCT([1]架构比较!F$2:F$6,[1]映射分析!$F$2:$F$6)</f>
+        <v>24</v>
+      </c>
+      <c r="F5" s="83">
+        <f>SUMPRODUCT([1]架构比较!G$2:G$6,[1]映射分析!$F$2:$F$6)</f>
+        <v>8</v>
+      </c>
+      <c r="G5" s="83">
+        <f>SUMPRODUCT([1]架构比较!H$2:H$6,[1]映射分析!$F$2:$F$6)</f>
+        <v>8</v>
+      </c>
+      <c r="H5" s="84">
+        <f>[1]映射分析!F$7</f>
+        <v>6</v>
+      </c>
+      <c r="I5" s="85">
+        <f>IF([1]资源数比较!B5&lt;&gt;0,[1]算法分析!B5/[1]资源数比较!B5,"")</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J5" s="85">
+        <f>IF([1]资源数比较!C5&lt;&gt;0,[1]算法分析!C5/[1]资源数比较!C5,"")</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K5" s="85">
+        <f>IF([1]资源数比较!D5&lt;&gt;0,[1]算法分析!D5/[1]资源数比较!D5,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="85">
+        <f>IF([1]资源数比较!E5&lt;&gt;0,[1]算法分析!E5/[1]资源数比较!E5,"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="M5" s="85">
+        <f>IF([1]资源数比较!F5&lt;&gt;0,[1]算法分析!F5/[1]资源数比较!F5,"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="85">
+        <f>IF([1]资源数比较!G5&lt;&gt;0,[1]算法分析!G5/[1]资源数比较!G5,"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="O5" s="85"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="str">
+        <f>[1]算法分析!A$6</f>
+        <v>RC5</v>
+      </c>
+      <c r="B6" s="83">
+        <f>SUMPRODUCT([1]架构比较!C$2:C$6,[1]映射分析!$G$2:$G$6)</f>
+        <v>15.999999999999998</v>
+      </c>
+      <c r="C6" s="83">
+        <f>SUMPRODUCT([1]架构比较!D$2:D$6,[1]映射分析!$G$2:$G$6)</f>
+        <v>15.999999999999998</v>
+      </c>
+      <c r="D6" s="86">
+        <f>SUMPRODUCT([1]架构比较!E$2:E$6,[1]映射分析!$G$2:$G$6)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E6" s="83">
+        <f>SUMPRODUCT([1]架构比较!F$2:F$6,[1]映射分析!$G$2:$G$6)</f>
+        <v>15.999999999999998</v>
+      </c>
+      <c r="F6" s="86">
+        <f>SUMPRODUCT([1]架构比较!G$2:G$6,[1]映射分析!$G$2:$G$6)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="G6" s="86">
+        <f>SUMPRODUCT([1]架构比较!H$2:H$6,[1]映射分析!$G$2:$G$6)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="H6" s="84">
+        <f>[1]映射分析!G$7</f>
+        <v>4</v>
+      </c>
+      <c r="I6" s="85">
+        <f>IF([1]资源数比较!B6&lt;&gt;0,[1]算法分析!B6/[1]资源数比较!B6,"")</f>
+        <v>0.125</v>
+      </c>
+      <c r="J6" s="85">
+        <f>IF([1]资源数比较!C6&lt;&gt;0,[1]算法分析!C6/[1]资源数比较!C6,"")</f>
+        <v>0.125</v>
+      </c>
+      <c r="K6" s="85">
+        <f>IF([1]资源数比较!D6&lt;&gt;0,[1]算法分析!D6/[1]资源数比较!D6,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="85">
+        <f>IF([1]资源数比较!E6&lt;&gt;0,[1]算法分析!E6/[1]资源数比较!E6,"")</f>
+        <v>0.125</v>
+      </c>
+      <c r="M6" s="85">
+        <f>IF([1]资源数比较!F6&lt;&gt;0,[1]算法分析!F6/[1]资源数比较!F6,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="85">
+        <f>IF([1]资源数比较!G6&lt;&gt;0,[1]算法分析!G6/[1]资源数比较!G6,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="85"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="str">
+        <f>[1]算法分析!A$7</f>
+        <v>BLOWFISH</v>
+      </c>
+      <c r="B7" s="83">
+        <f>SUMPRODUCT([1]架构比较!C$2:C$6,[1]映射分析!$H$2:$H$6)</f>
+        <v>12</v>
+      </c>
+      <c r="C7" s="83">
+        <f>SUMPRODUCT([1]架构比较!D$2:D$6,[1]映射分析!$H$2:$H$6)</f>
+        <v>12</v>
+      </c>
+      <c r="D7" s="83">
+        <f>SUMPRODUCT([1]架构比较!E$2:E$6,[1]映射分析!$H$2:$H$6)</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="83">
+        <f>SUMPRODUCT([1]架构比较!F$2:F$6,[1]映射分析!$H$2:$H$6)</f>
+        <v>12</v>
+      </c>
+      <c r="F7" s="83">
+        <f>SUMPRODUCT([1]架构比较!G$2:G$6,[1]映射分析!$H$2:$H$6)</f>
+        <v>4</v>
+      </c>
+      <c r="G7" s="83">
+        <f>SUMPRODUCT([1]架构比较!H$2:H$6,[1]映射分析!$H$2:$H$6)</f>
+        <v>4</v>
+      </c>
+      <c r="H7" s="84">
+        <f>[1]映射分析!H$7</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="85">
+        <f>IF([1]资源数比较!B7&lt;&gt;0,[1]算法分析!B7/[1]资源数比较!B7,"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="85">
+        <f>IF([1]资源数比较!C7&lt;&gt;0,[1]算法分析!C7/[1]资源数比较!C7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="85">
+        <f>IF([1]资源数比较!D7&lt;&gt;0,[1]算法分析!D7/[1]资源数比较!D7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="85">
+        <f>IF([1]资源数比较!E7&lt;&gt;0,[1]算法分析!E7/[1]资源数比较!E7,"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="M7" s="85">
+        <f>IF([1]资源数比较!F7&lt;&gt;0,[1]算法分析!F7/[1]资源数比较!F7,"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="N7" s="85">
+        <f>IF([1]资源数比较!G7&lt;&gt;0,[1]算法分析!G7/[1]资源数比较!G7,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="85"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="str">
+        <f>[1]映射分析!A8</f>
+        <v>TH</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="80" t="str">
+        <f>[1]资源数比较!B1</f>
+        <v>AU</v>
+      </c>
+      <c r="J9" s="80" t="str">
+        <f>[1]资源数比较!C1</f>
+        <v>SH</v>
+      </c>
+      <c r="K9" s="80" t="str">
+        <f>[1]资源数比较!D1</f>
+        <v>PER</v>
+      </c>
+      <c r="L9" s="80" t="str">
+        <f>[1]资源数比较!E1</f>
+        <v>LOU</v>
+      </c>
+      <c r="M9" s="80" t="str">
+        <f>[1]资源数比较!F1</f>
+        <v>4*LUT256*8</v>
+      </c>
+      <c r="N9" s="80" t="str">
+        <f>[1]资源数比较!G1</f>
+        <v>GFM</v>
+      </c>
+      <c r="O9" s="80" t="str">
+        <f>[1]资源数比较!J1</f>
+        <v>CR</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="str">
+        <f>[1]算法分析!A$2</f>
+        <v>AES</v>
+      </c>
+      <c r="B10" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$8:C$9,[1]映射分析!$C$8:$C$9)</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$8:D$9,[1]映射分析!$C$8:$C$9)</f>
+        <v>8</v>
+      </c>
+      <c r="D10" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$8:E$9,[1]映射分析!$C$8:$C$9)</f>
+        <v>4</v>
+      </c>
+      <c r="E10" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$8:F$9,[1]映射分析!$C$8:$C$9)</f>
+        <v>48</v>
+      </c>
+      <c r="F10" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$8:G$9,[1]映射分析!$C$8:$C$9)</f>
+        <v>16</v>
+      </c>
+      <c r="G10" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$8:H$9,[1]映射分析!$C$8:$C$9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="89">
+        <f>[1]映射分析!C$10</f>
+        <v>2</v>
+      </c>
+      <c r="I10" s="90">
+        <f>B10/B2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10" s="90">
+        <f t="shared" ref="J10:O10" si="0">C10/C2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K10" s="90">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="90">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M10" s="90">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N10" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="90">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="str">
+        <f>[1]算法分析!A$3</f>
+        <v>DES</v>
+      </c>
+      <c r="B11" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$8:C$9,[1]映射分析!$D$8:$D$9)</f>
+        <v>16</v>
+      </c>
+      <c r="C11" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$8:D$9,[1]映射分析!$D$8:$D$9)</f>
+        <v>16</v>
+      </c>
+      <c r="D11" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$8:E$9,[1]映射分析!$D$8:$D$9)</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$8:F$9,[1]映射分析!$D$8:$D$9)</f>
+        <v>96</v>
+      </c>
+      <c r="F11" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$8:G$9,[1]映射分析!$D$8:$D$9)</f>
+        <v>32</v>
+      </c>
+      <c r="G11" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$8:H$9,[1]映射分析!$D$8:$D$9)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="89">
+        <f>[1]映射分析!D$10</f>
+        <v>4</v>
+      </c>
+      <c r="I11" s="90">
+        <f t="shared" ref="I11:I15" si="1">B11/B3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J11" s="90">
+        <f t="shared" ref="J11:J15" si="2">C11/C3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K11" s="90">
+        <f t="shared" ref="K11:K15" si="3">D11/D3</f>
+        <v>2</v>
+      </c>
+      <c r="L11" s="90">
+        <f t="shared" ref="L11:L15" si="4">E11/E3</f>
+        <v>8</v>
+      </c>
+      <c r="M11" s="90">
+        <f t="shared" ref="M11:M15" si="5">F11/F3</f>
+        <v>8</v>
+      </c>
+      <c r="N11" s="90">
+        <f t="shared" ref="N11:N15" si="6">G11/G3</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="90">
+        <f t="shared" ref="O11:O15" si="7">H11/H3</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="82" t="str">
+        <f>[1]算法分析!A$4</f>
+        <v>SM4</v>
+      </c>
+      <c r="B12" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$8:C$9,[1]映射分析!$E$8:$E$9)</f>
+        <v>16</v>
+      </c>
+      <c r="C12" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$8:D$9,[1]映射分析!$E$8:$E$9)</f>
+        <v>16</v>
+      </c>
+      <c r="D12" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$8:E$9,[1]映射分析!$E$8:$E$9)</f>
+        <v>8</v>
+      </c>
+      <c r="E12" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$8:F$9,[1]映射分析!$E$8:$E$9)</f>
+        <v>96</v>
+      </c>
+      <c r="F12" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$8:G$9,[1]映射分析!$E$8:$E$9)</f>
+        <v>32</v>
+      </c>
+      <c r="G12" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$8:H$9,[1]映射分析!$E$8:$E$9)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="89">
+        <f>[1]映射分析!E$10</f>
+        <v>4</v>
+      </c>
+      <c r="I12" s="90">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J12" s="90">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K12" s="90">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L12" s="90">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M12" s="90">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N12" s="90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="90">
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="82" t="str">
+        <f>[1]算法分析!A$5</f>
+        <v>TWOFISH</v>
+      </c>
+      <c r="B13" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$8:C$9,[1]映射分析!$F$8:$F$9)</f>
+        <v>24</v>
+      </c>
+      <c r="C13" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$8:D$9,[1]映射分析!$F$8:$F$9)</f>
+        <v>24</v>
+      </c>
+      <c r="D13" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$8:E$9,[1]映射分析!$F$8:$F$9)</f>
+        <v>12</v>
+      </c>
+      <c r="E13" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$8:F$9,[1]映射分析!$F$8:$F$9)</f>
+        <v>144</v>
+      </c>
+      <c r="F13" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$8:G$9,[1]映射分析!$F$8:$F$9)</f>
+        <v>48</v>
+      </c>
+      <c r="G13" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$8:H$9,[1]映射分析!$F$8:$F$9)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="89">
+        <f>[1]映射分析!F$10</f>
+        <v>6</v>
+      </c>
+      <c r="I13" s="90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="90">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="90">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="L13" s="90">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M13" s="90">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N13" s="90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="90">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="82" t="str">
+        <f>[1]算法分析!A$6</f>
+        <v>RC5</v>
+      </c>
+      <c r="B14" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$8:C$9,[1]映射分析!$G$8:$G$9)</f>
+        <v>16</v>
+      </c>
+      <c r="C14" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$8:D$9,[1]映射分析!$G$8:$G$9)</f>
+        <v>16</v>
+      </c>
+      <c r="D14" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$8:E$9,[1]映射分析!$G$8:$G$9)</f>
+        <v>8</v>
+      </c>
+      <c r="E14" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$8:F$9,[1]映射分析!$G$8:$G$9)</f>
+        <v>96</v>
+      </c>
+      <c r="F14" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$8:G$9,[1]映射分析!$G$8:$G$9)</f>
+        <v>32</v>
+      </c>
+      <c r="G14" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$8:H$9,[1]映射分析!$G$8:$G$9)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="89">
+        <f>[1]映射分析!G$10</f>
+        <v>4</v>
+      </c>
+      <c r="I14" s="90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="90">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="90">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="90">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="M14" s="90">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N14" s="90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="90">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="82" t="str">
+        <f>[1]算法分析!A$7</f>
+        <v>BLOWFISH</v>
+      </c>
+      <c r="B15" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$8:C$9,[1]映射分析!$H$8:$H$9)</f>
+        <v>16</v>
+      </c>
+      <c r="C15" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$8:D$9,[1]映射分析!$H$8:$H$9)</f>
+        <v>16</v>
+      </c>
+      <c r="D15" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$8:E$9,[1]映射分析!$H$8:$H$9)</f>
+        <v>8</v>
+      </c>
+      <c r="E15" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$8:F$9,[1]映射分析!$H$8:$H$9)</f>
+        <v>96</v>
+      </c>
+      <c r="F15" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$8:G$9,[1]映射分析!$H$8:$H$9)</f>
+        <v>32</v>
+      </c>
+      <c r="G15" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$8:H$9,[1]映射分析!$H$8:$H$9)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="89">
+        <f>[1]映射分析!H$10</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="90">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J15" s="90">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K15" s="90">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L15" s="90">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M15" s="90">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="N15" s="90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="90">
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="82" t="str">
+        <f>[1]映射分析!A11</f>
+        <v>Cyptoraptor</v>
+      </c>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="82" t="str">
+        <f>[1]算法分析!A$2</f>
+        <v>AES</v>
+      </c>
+      <c r="B18" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$11:C$11,[1]映射分析!$C$11:$C$11)</f>
+        <v>8</v>
+      </c>
+      <c r="C18" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$11:D$11,[1]映射分析!$C$11:$C$11)</f>
+        <v>8</v>
+      </c>
+      <c r="D18" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$11:E$11,[1]映射分析!$C$11:$C$11)</f>
+        <v>8</v>
+      </c>
+      <c r="E18" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$11:F$11,[1]映射分析!$C$11:$C$11)</f>
+        <v>8</v>
+      </c>
+      <c r="F18" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$11:G$11,[1]映射分析!$C$11:$C$11)</f>
+        <v>56</v>
+      </c>
+      <c r="G18" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$11:H$11,[1]映射分析!$C$11:$C$11)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="89">
+        <f>[1]映射分析!C$12</f>
+        <v>2</v>
+      </c>
+      <c r="I18" s="91">
+        <f>B18/B2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J18" s="91">
+        <f t="shared" ref="J18:O18" si="8">C18/C2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K18" s="91">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="91">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M18" s="91">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="N18" s="91">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="91">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="82" t="str">
+        <f>[1]算法分析!A$3</f>
+        <v>DES</v>
+      </c>
+      <c r="B19" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$11:C$11,[1]映射分析!$D$11:$D$11)</f>
+        <v>12</v>
+      </c>
+      <c r="C19" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$11:D$11,[1]映射分析!$D$11:$D$11)</f>
+        <v>12</v>
+      </c>
+      <c r="D19" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$11:E$11,[1]映射分析!$D$11:$D$11)</f>
+        <v>12</v>
+      </c>
+      <c r="E19" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$11:F$11,[1]映射分析!$D$11:$D$11)</f>
+        <v>12</v>
+      </c>
+      <c r="F19" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$11:G$11,[1]映射分析!$D$11:$D$11)</f>
+        <v>84</v>
+      </c>
+      <c r="G19" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$11:H$11,[1]映射分析!$D$11:$D$11)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="89">
+        <f>[1]映射分析!D$12</f>
+        <v>3</v>
+      </c>
+      <c r="I19" s="91">
+        <f t="shared" ref="I19:I23" si="9">B19/B3</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="91">
+        <f t="shared" ref="J19:J23" si="10">C19/C3</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="91">
+        <f t="shared" ref="K19:K23" si="11">D19/D3</f>
+        <v>3</v>
+      </c>
+      <c r="L19" s="91">
+        <f t="shared" ref="L19:L23" si="12">E19/E3</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="91">
+        <f t="shared" ref="M19:M23" si="13">F19/F3</f>
+        <v>21</v>
+      </c>
+      <c r="N19" s="91">
+        <f t="shared" ref="N19:N23" si="14">G19/G3</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="91">
+        <f t="shared" ref="O19:O23" si="15">H19/H3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="82" t="str">
+        <f>[1]算法分析!A$4</f>
+        <v>SM4</v>
+      </c>
+      <c r="B20" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$11:C$11,[1]映射分析!$E$11:$E$11)</f>
+        <v>16</v>
+      </c>
+      <c r="C20" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$11:D$11,[1]映射分析!$E$11:$E$11)</f>
+        <v>16</v>
+      </c>
+      <c r="D20" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$11:E$11,[1]映射分析!$E$11:$E$11)</f>
+        <v>16</v>
+      </c>
+      <c r="E20" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$11:F$11,[1]映射分析!$E$11:$E$11)</f>
+        <v>16</v>
+      </c>
+      <c r="F20" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$11:G$11,[1]映射分析!$E$11:$E$11)</f>
+        <v>112</v>
+      </c>
+      <c r="G20" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$11:H$11,[1]映射分析!$E$11:$E$11)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="89">
+        <f>[1]映射分析!E$12</f>
+        <v>4</v>
+      </c>
+      <c r="I20" s="91">
+        <f t="shared" si="9"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J20" s="91">
+        <f t="shared" si="10"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K20" s="91">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="L20" s="91">
+        <f t="shared" si="12"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="M20" s="91">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="N20" s="91">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="91">
+        <f t="shared" si="15"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="82" t="str">
+        <f>[1]算法分析!A$5</f>
+        <v>TWOFISH</v>
+      </c>
+      <c r="B21" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$11:C$11,[1]映射分析!$F$11:$F$11)</f>
+        <v>20</v>
+      </c>
+      <c r="C21" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$11:D$11,[1]映射分析!$F$11:$F$11)</f>
+        <v>20</v>
+      </c>
+      <c r="D21" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$11:E$11,[1]映射分析!$F$11:$F$11)</f>
+        <v>20</v>
+      </c>
+      <c r="E21" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$11:F$11,[1]映射分析!$F$11:$F$11)</f>
+        <v>20</v>
+      </c>
+      <c r="F21" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$11:G$11,[1]映射分析!$F$11:$F$11)</f>
+        <v>140</v>
+      </c>
+      <c r="G21" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$11:H$11,[1]映射分析!$F$11:$F$11)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="89">
+        <f>[1]映射分析!F$12</f>
+        <v>5</v>
+      </c>
+      <c r="I21" s="91">
+        <f t="shared" si="9"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J21" s="91">
+        <f t="shared" si="10"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K21" s="91">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="L21" s="91">
+        <f t="shared" si="12"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M21" s="91">
+        <f t="shared" si="13"/>
+        <v>17.5</v>
+      </c>
+      <c r="N21" s="91">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="91">
+        <f t="shared" si="15"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="82" t="str">
+        <f>[1]算法分析!A$6</f>
+        <v>RC5</v>
+      </c>
+      <c r="B22" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$11:C$11,[1]映射分析!$G$11:$G$11)</f>
+        <v>16</v>
+      </c>
+      <c r="C22" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$11:D$11,[1]映射分析!$G$11:$G$11)</f>
+        <v>16</v>
+      </c>
+      <c r="D22" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$11:E$11,[1]映射分析!$G$11:$G$11)</f>
+        <v>16</v>
+      </c>
+      <c r="E22" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$11:F$11,[1]映射分析!$G$11:$G$11)</f>
+        <v>16</v>
+      </c>
+      <c r="F22" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$11:G$11,[1]映射分析!$G$11:$G$11)</f>
+        <v>112</v>
+      </c>
+      <c r="G22" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$11:H$11,[1]映射分析!$G$11:$G$11)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="89">
+        <f>[1]映射分析!G$12</f>
+        <v>4</v>
+      </c>
+      <c r="I22" s="91">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="91">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="91">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="L22" s="91">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M22" s="91">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="N22" s="91">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="91">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="82" t="str">
+        <f>[1]算法分析!A$7</f>
+        <v>BLOWFISH</v>
+      </c>
+      <c r="B23" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$11:C$11,[1]映射分析!$H$11:$H$11)</f>
+        <v>12</v>
+      </c>
+      <c r="C23" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$11:D$11,[1]映射分析!$H$11:$H$11)</f>
+        <v>12</v>
+      </c>
+      <c r="D23" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$11:E$11,[1]映射分析!$H$11:$H$11)</f>
+        <v>12</v>
+      </c>
+      <c r="E23" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$11:F$11,[1]映射分析!$H$11:$H$11)</f>
+        <v>12</v>
+      </c>
+      <c r="F23" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$11:G$11,[1]映射分析!$H$11:$H$11)</f>
+        <v>84</v>
+      </c>
+      <c r="G23" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$11:H$11,[1]映射分析!$H$11:$H$11)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="89">
+        <f>[1]映射分析!H$12</f>
+        <v>3</v>
+      </c>
+      <c r="I23" s="91">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="91">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="91">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="L23" s="91">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="91">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="N23" s="91">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="91">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="82" t="str">
+        <f>[1]映射分析!A13</f>
+        <v>RCPA</v>
+      </c>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="82" t="str">
+        <f>[1]算法分析!A$2</f>
+        <v>AES</v>
+      </c>
+      <c r="B26" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$13:C$13,[1]映射分析!$C$13:$C$13)</f>
+        <v>8</v>
+      </c>
+      <c r="C26" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$13:D$13,[1]映射分析!$C$13:$C$13)</f>
+        <v>8</v>
+      </c>
+      <c r="D26" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$13:E$13,[1]映射分析!$C$13:$C$13)</f>
+        <v>8</v>
+      </c>
+      <c r="E26" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$13:F$13,[1]映射分析!$C$13:$C$13)</f>
+        <v>16</v>
+      </c>
+      <c r="F26" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$13:G$13,[1]映射分析!$C$13:$C$13)</f>
+        <v>16</v>
+      </c>
+      <c r="G26" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$13:H$13,[1]映射分析!$C$13:$C$13)</f>
+        <v>8</v>
+      </c>
+      <c r="H26" s="89">
+        <f>[1]映射分析!C$12</f>
+        <v>2</v>
+      </c>
+      <c r="I26" s="91">
+        <f>B26/B2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J26" s="91">
+        <f t="shared" ref="J26:O26" si="16">C26/C2</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K26" s="91">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="91">
+        <f t="shared" si="16"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="M26" s="91">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="N26" s="91">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="O26" s="91">
+        <f t="shared" si="16"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="82" t="str">
+        <f>[1]算法分析!A$3</f>
+        <v>DES</v>
+      </c>
+      <c r="B27" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$13:C$13,[1]映射分析!$D$13:$D$13)</f>
+        <v>12</v>
+      </c>
+      <c r="C27" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$13:D$13,[1]映射分析!$D$13:$D$13)</f>
+        <v>12</v>
+      </c>
+      <c r="D27" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$13:E$13,[1]映射分析!$D$13:$D$13)</f>
+        <v>12</v>
+      </c>
+      <c r="E27" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$13:F$13,[1]映射分析!$D$13:$D$13)</f>
+        <v>24</v>
+      </c>
+      <c r="F27" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$13:G$13,[1]映射分析!$D$13:$D$13)</f>
+        <v>24</v>
+      </c>
+      <c r="G27" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$13:H$13,[1]映射分析!$D$13:$D$13)</f>
+        <v>12</v>
+      </c>
+      <c r="H27" s="89">
+        <f>[1]映射分析!D$12</f>
+        <v>3</v>
+      </c>
+      <c r="I27" s="91">
+        <f t="shared" ref="I27:I31" si="17">B27/B3</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="91">
+        <f t="shared" ref="J27:J31" si="18">C27/C3</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="91">
+        <f t="shared" ref="K27:K31" si="19">D27/D3</f>
+        <v>3</v>
+      </c>
+      <c r="L27" s="91">
+        <f t="shared" ref="L27:L31" si="20">E27/E3</f>
+        <v>2</v>
+      </c>
+      <c r="M27" s="91">
+        <f t="shared" ref="M27:M31" si="21">F27/F3</f>
+        <v>6</v>
+      </c>
+      <c r="N27" s="91">
+        <f t="shared" ref="N27:N31" si="22">G27/G3</f>
+        <v>3</v>
+      </c>
+      <c r="O27" s="91">
+        <f t="shared" ref="O27:O31" si="23">H27/H3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="82" t="str">
+        <f>[1]算法分析!A$4</f>
+        <v>SM4</v>
+      </c>
+      <c r="B28" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$13:C$13,[1]映射分析!$E$13:$E$13)</f>
+        <v>16</v>
+      </c>
+      <c r="C28" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$13:D$13,[1]映射分析!$E$13:$E$13)</f>
+        <v>16</v>
+      </c>
+      <c r="D28" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$13:E$13,[1]映射分析!$E$13:$E$13)</f>
+        <v>16</v>
+      </c>
+      <c r="E28" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$13:F$13,[1]映射分析!$E$13:$E$13)</f>
+        <v>32</v>
+      </c>
+      <c r="F28" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$13:G$13,[1]映射分析!$E$13:$E$13)</f>
+        <v>32</v>
+      </c>
+      <c r="G28" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$13:H$13,[1]映射分析!$E$13:$E$13)</f>
+        <v>16</v>
+      </c>
+      <c r="H28" s="89">
+        <f>[1]映射分析!E$12</f>
+        <v>4</v>
+      </c>
+      <c r="I28" s="91">
+        <f t="shared" si="17"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J28" s="91">
+        <f t="shared" si="18"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K28" s="91">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="L28" s="91">
+        <f t="shared" si="20"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="M28" s="91">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="N28" s="91">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="O28" s="91">
+        <f t="shared" si="23"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="82" t="str">
+        <f>[1]算法分析!A$5</f>
+        <v>TWOFISH</v>
+      </c>
+      <c r="B29" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$13:C$13,[1]映射分析!$F$13:$F$13)</f>
+        <v>20</v>
+      </c>
+      <c r="C29" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$13:D$13,[1]映射分析!$F$13:$F$13)</f>
+        <v>20</v>
+      </c>
+      <c r="D29" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$13:E$13,[1]映射分析!$F$13:$F$13)</f>
+        <v>20</v>
+      </c>
+      <c r="E29" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$13:F$13,[1]映射分析!$F$13:$F$13)</f>
+        <v>40</v>
+      </c>
+      <c r="F29" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$13:G$13,[1]映射分析!$F$13:$F$13)</f>
+        <v>40</v>
+      </c>
+      <c r="G29" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$13:H$13,[1]映射分析!$F$13:$F$13)</f>
+        <v>20</v>
+      </c>
+      <c r="H29" s="89">
+        <f>[1]映射分析!F$12</f>
+        <v>5</v>
+      </c>
+      <c r="I29" s="91">
+        <f t="shared" si="17"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J29" s="91">
+        <f t="shared" si="18"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K29" s="91">
+        <f t="shared" si="19"/>
+        <v>2.5</v>
+      </c>
+      <c r="L29" s="91">
+        <f t="shared" si="20"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M29" s="91">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="N29" s="91">
+        <f t="shared" si="22"/>
+        <v>2.5</v>
+      </c>
+      <c r="O29" s="91">
+        <f t="shared" si="23"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="82" t="str">
+        <f>[1]算法分析!A$6</f>
+        <v>RC5</v>
+      </c>
+      <c r="B30" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$13:C$13,[1]映射分析!$G$13:$G$13)</f>
+        <v>16</v>
+      </c>
+      <c r="C30" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$13:D$13,[1]映射分析!$G$13:$G$13)</f>
+        <v>16</v>
+      </c>
+      <c r="D30" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$13:E$13,[1]映射分析!$G$13:$G$13)</f>
+        <v>16</v>
+      </c>
+      <c r="E30" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$13:F$13,[1]映射分析!$G$13:$G$13)</f>
+        <v>32</v>
+      </c>
+      <c r="F30" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$13:G$13,[1]映射分析!$G$13:$G$13)</f>
+        <v>32</v>
+      </c>
+      <c r="G30" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$13:H$13,[1]映射分析!$G$13:$G$13)</f>
+        <v>16</v>
+      </c>
+      <c r="H30" s="89">
+        <f>[1]映射分析!G$12</f>
+        <v>4</v>
+      </c>
+      <c r="I30" s="91">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="91">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="91">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="L30" s="91">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="M30" s="91">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="N30" s="91">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="O30" s="91">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="82" t="str">
+        <f>[1]算法分析!A$7</f>
+        <v>BLOWFISH</v>
+      </c>
+      <c r="B31" s="89">
+        <f>SUMPRODUCT([1]架构比较!C$13:C$13,[1]映射分析!$H$13:$H$13)</f>
+        <v>12</v>
+      </c>
+      <c r="C31" s="89">
+        <f>SUMPRODUCT([1]架构比较!D$13:D$13,[1]映射分析!$H$13:$H$13)</f>
+        <v>12</v>
+      </c>
+      <c r="D31" s="89">
+        <f>SUMPRODUCT([1]架构比较!E$13:E$13,[1]映射分析!$H$13:$H$13)</f>
+        <v>12</v>
+      </c>
+      <c r="E31" s="89">
+        <f>SUMPRODUCT([1]架构比较!F$13:F$13,[1]映射分析!$H$13:$H$13)</f>
+        <v>24</v>
+      </c>
+      <c r="F31" s="89">
+        <f>SUMPRODUCT([1]架构比较!G$13:G$13,[1]映射分析!$H$13:$H$13)</f>
+        <v>24</v>
+      </c>
+      <c r="G31" s="89">
+        <f>SUMPRODUCT([1]架构比较!H$13:H$13,[1]映射分析!$H$13:$H$13)</f>
+        <v>12</v>
+      </c>
+      <c r="H31" s="89">
+        <f>[1]映射分析!H$12</f>
+        <v>3</v>
+      </c>
+      <c r="I31" s="91">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="J31" s="91">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="91">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="L31" s="91">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="M31" s="91">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="N31" s="91">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="O31" s="91">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="9" style="103"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="101"/>
+      <c r="J1" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="82">
+        <v>15336</v>
+      </c>
+      <c r="C2" s="82">
+        <v>42594</v>
+      </c>
+      <c r="D2" s="82">
+        <v>9192</v>
+      </c>
+      <c r="E2" s="82">
+        <v>19368</v>
+      </c>
+      <c r="F2" s="82">
+        <v>51191</v>
+      </c>
+      <c r="G2" s="82">
+        <v>32000</v>
+      </c>
+      <c r="H2" s="82">
+        <v>23228.400000000001</v>
+      </c>
+      <c r="I2" s="102">
+        <f>J2/1000000</f>
+        <v>0.19290939999999998</v>
+      </c>
+      <c r="J2" s="95">
+        <v>192909.4</v>
+      </c>
+      <c r="K2" s="96"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="82">
+        <v>15336</v>
+      </c>
+      <c r="C3" s="82">
+        <v>42594</v>
+      </c>
+      <c r="D3" s="82">
+        <v>9192</v>
+      </c>
+      <c r="E3" s="82">
+        <v>19368</v>
+      </c>
+      <c r="F3" s="82">
+        <v>51191</v>
+      </c>
+      <c r="G3" s="82">
+        <v>32000</v>
+      </c>
+      <c r="H3" s="82">
+        <v>23228.400000000001</v>
+      </c>
+      <c r="I3" s="102">
+        <f t="shared" ref="I3:I31" si="0">J3/1000000</f>
+        <v>0.19290939999999998</v>
+      </c>
+      <c r="J3" s="95">
+        <v>192909.4</v>
+      </c>
+      <c r="K3" s="96"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="82">
+        <v>15336</v>
+      </c>
+      <c r="C4" s="82">
+        <v>42594</v>
+      </c>
+      <c r="D4" s="82">
+        <v>9192</v>
+      </c>
+      <c r="E4" s="82">
+        <v>19368</v>
+      </c>
+      <c r="F4" s="82">
+        <v>51191</v>
+      </c>
+      <c r="G4" s="82">
+        <v>32000</v>
+      </c>
+      <c r="H4" s="82">
+        <v>23228.400000000001</v>
+      </c>
+      <c r="I4" s="102">
+        <f t="shared" si="0"/>
+        <v>0.19290939999999998</v>
+      </c>
+      <c r="J4" s="95">
+        <v>192909.4</v>
+      </c>
+      <c r="K4" s="96"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="82">
+        <v>30672</v>
+      </c>
+      <c r="C5" s="82">
+        <v>85188</v>
+      </c>
+      <c r="D5" s="82">
+        <v>18384</v>
+      </c>
+      <c r="E5" s="82">
+        <v>38736</v>
+      </c>
+      <c r="F5" s="82">
+        <v>102382</v>
+      </c>
+      <c r="G5" s="82">
+        <v>64000</v>
+      </c>
+      <c r="H5" s="82">
+        <v>46456.800000000003</v>
+      </c>
+      <c r="I5" s="102">
+        <f t="shared" si="0"/>
+        <v>0.38581879999999996</v>
+      </c>
+      <c r="J5" s="95">
+        <v>385818.8</v>
+      </c>
+      <c r="K5" s="96"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="82">
+        <v>20447.999999999996</v>
+      </c>
+      <c r="C6" s="82">
+        <v>56791.999999999993</v>
+      </c>
+      <c r="D6" s="82">
+        <v>12256</v>
+      </c>
+      <c r="E6" s="82">
+        <v>25823.999999999996</v>
+      </c>
+      <c r="F6" s="82">
+        <v>68254.666666666657</v>
+      </c>
+      <c r="G6" s="82">
+        <v>42666.666666666664</v>
+      </c>
+      <c r="H6" s="82">
+        <v>30971.200000000001</v>
+      </c>
+      <c r="I6" s="102">
+        <f t="shared" si="0"/>
+        <v>0.25721253333333327</v>
+      </c>
+      <c r="J6" s="95">
+        <v>257212.5333333333</v>
+      </c>
+      <c r="K6" s="96"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="82">
+        <v>15336</v>
+      </c>
+      <c r="C7" s="82">
+        <v>42594</v>
+      </c>
+      <c r="D7" s="82">
+        <v>9192</v>
+      </c>
+      <c r="E7" s="82">
+        <v>19368</v>
+      </c>
+      <c r="F7" s="82">
+        <v>51191</v>
+      </c>
+      <c r="G7" s="82">
+        <v>32000</v>
+      </c>
+      <c r="H7" s="82">
+        <v>23228.400000000001</v>
+      </c>
+      <c r="I7" s="102">
+        <f t="shared" si="0"/>
+        <v>0.19290939999999998</v>
+      </c>
+      <c r="J7" s="95">
+        <v>192909.4</v>
+      </c>
+      <c r="K7" s="96"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="97"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="97"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q9" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="S9" s="93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="82">
+        <v>10224</v>
+      </c>
+      <c r="C10" s="82">
+        <v>28396</v>
+      </c>
+      <c r="D10" s="82">
+        <v>9192</v>
+      </c>
+      <c r="E10" s="82">
+        <v>77472</v>
+      </c>
+      <c r="F10" s="82">
+        <v>204764</v>
+      </c>
+      <c r="G10" s="82">
+        <v>0</v>
+      </c>
+      <c r="H10" s="82">
+        <v>77428</v>
+      </c>
+      <c r="I10" s="102">
+        <f t="shared" si="0"/>
+        <v>0.407476</v>
+      </c>
+      <c r="J10" s="95">
+        <v>407476</v>
+      </c>
+      <c r="K10" s="100">
+        <f>S10</f>
+        <v>0.52657481667631956</v>
+      </c>
+      <c r="L10" s="98">
+        <v>-2.3824770490840606E-2</v>
+      </c>
+      <c r="M10" s="98">
+        <v>-6.6170596914897281E-2</v>
+      </c>
+      <c r="N10" s="98">
+        <v>0</v>
+      </c>
+      <c r="O10" s="98">
+        <v>0.27079703924096293</v>
+      </c>
+      <c r="P10" s="98">
+        <v>0.71573581349566984</v>
+      </c>
+      <c r="Q10" s="98">
+        <v>-0.14913784344814152</v>
+      </c>
+      <c r="R10" s="98">
+        <v>0.25260035811724657</v>
+      </c>
+      <c r="S10" s="90">
+        <v>0.52657481667631956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="82">
+        <v>20448</v>
+      </c>
+      <c r="C11" s="82">
+        <v>56792</v>
+      </c>
+      <c r="D11" s="82">
+        <v>18384</v>
+      </c>
+      <c r="E11" s="82">
+        <v>154944</v>
+      </c>
+      <c r="F11" s="82">
+        <v>409528</v>
+      </c>
+      <c r="G11" s="82">
+        <v>0</v>
+      </c>
+      <c r="H11" s="82">
+        <v>154856</v>
+      </c>
+      <c r="I11" s="102">
+        <f t="shared" si="0"/>
+        <v>0.81495200000000001</v>
+      </c>
+      <c r="J11" s="95">
+        <v>814952</v>
+      </c>
+      <c r="K11" s="100">
+        <f t="shared" ref="K11:K31" si="1">S11</f>
+        <v>0.76328740833815978</v>
+      </c>
+      <c r="L11" s="98">
+        <v>8.2180866712344147E-3</v>
+      </c>
+      <c r="M11" s="98">
+        <v>2.282480331732907E-2</v>
+      </c>
+      <c r="N11" s="98">
+        <v>1.4777122981609299E-2</v>
+      </c>
+      <c r="O11" s="98">
+        <v>0.21795291833710426</v>
+      </c>
+      <c r="P11" s="98">
+        <v>0.57606504763500122</v>
+      </c>
+      <c r="Q11" s="98">
+        <v>-5.1443422042155955E-2</v>
+      </c>
+      <c r="R11" s="98">
+        <v>0.21160544309987775</v>
+      </c>
+      <c r="S11" s="90">
+        <v>0.76328740833815978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="82">
+        <v>20448</v>
+      </c>
+      <c r="C12" s="82">
+        <v>56792</v>
+      </c>
+      <c r="D12" s="82">
+        <v>18384</v>
+      </c>
+      <c r="E12" s="82">
+        <v>154944</v>
+      </c>
+      <c r="F12" s="82">
+        <v>409528</v>
+      </c>
+      <c r="G12" s="82">
+        <v>0</v>
+      </c>
+      <c r="H12" s="82">
+        <v>154856</v>
+      </c>
+      <c r="I12" s="102">
+        <f t="shared" si="0"/>
+        <v>0.81495200000000001</v>
+      </c>
+      <c r="J12" s="95">
+        <v>814952</v>
+      </c>
+      <c r="K12" s="100">
+        <f t="shared" si="1"/>
+        <v>0.76328740833815978</v>
+      </c>
+      <c r="L12" s="98">
+        <v>8.2180866712344147E-3</v>
+      </c>
+      <c r="M12" s="98">
+        <v>2.282480331732907E-2</v>
+      </c>
+      <c r="N12" s="98">
+        <v>1.4777122981609299E-2</v>
+      </c>
+      <c r="O12" s="98">
+        <v>0.21795291833710426</v>
+      </c>
+      <c r="P12" s="98">
+        <v>0.57606504763500122</v>
+      </c>
+      <c r="Q12" s="98">
+        <v>-5.1443422042155955E-2</v>
+      </c>
+      <c r="R12" s="98">
+        <v>0.21160544309987775</v>
+      </c>
+      <c r="S12" s="90">
+        <v>0.76328740833815978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="82">
+        <v>30672</v>
+      </c>
+      <c r="C13" s="82">
+        <v>85188</v>
+      </c>
+      <c r="D13" s="82">
+        <v>27576</v>
+      </c>
+      <c r="E13" s="82">
+        <v>232416</v>
+      </c>
+      <c r="F13" s="82">
+        <v>614292</v>
+      </c>
+      <c r="G13" s="82">
+        <v>0</v>
+      </c>
+      <c r="H13" s="82">
+        <v>232284</v>
+      </c>
+      <c r="I13" s="102">
+        <f t="shared" si="0"/>
+        <v>1.2224280000000001</v>
+      </c>
+      <c r="J13" s="95">
+        <v>1222428</v>
+      </c>
+      <c r="K13" s="100">
+        <f t="shared" si="1"/>
+        <v>0.68438321111754641</v>
+      </c>
+      <c r="L13" s="98">
+        <v>0</v>
+      </c>
+      <c r="M13" s="98">
+        <v>0</v>
+      </c>
+      <c r="N13" s="98">
+        <v>1.0987208842551577E-2</v>
+      </c>
+      <c r="O13" s="98">
+        <v>0.23150594088613896</v>
+      </c>
+      <c r="P13" s="98">
+        <v>0.61188664910689483</v>
+      </c>
+      <c r="Q13" s="98">
+        <v>-7.649927827712151E-2</v>
+      </c>
+      <c r="R13" s="98">
+        <v>0.22211947944153618</v>
+      </c>
+      <c r="S13" s="90">
+        <v>0.68438321111754641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="82">
+        <v>20448</v>
+      </c>
+      <c r="C14" s="82">
+        <v>56792</v>
+      </c>
+      <c r="D14" s="82">
+        <v>18384</v>
+      </c>
+      <c r="E14" s="82">
+        <v>154944</v>
+      </c>
+      <c r="F14" s="82">
+        <v>409528</v>
+      </c>
+      <c r="G14" s="82">
+        <v>0</v>
+      </c>
+      <c r="H14" s="82">
+        <v>154856</v>
+      </c>
+      <c r="I14" s="102">
+        <f t="shared" si="0"/>
+        <v>0.81495200000000001</v>
+      </c>
+      <c r="J14" s="95">
+        <v>814952</v>
+      </c>
+      <c r="K14" s="100">
+        <f t="shared" si="1"/>
+        <v>0.68438321111754641</v>
+      </c>
+      <c r="L14" s="98">
+        <v>6.5227207764838943E-18</v>
+      </c>
+      <c r="M14" s="98">
+        <v>1.3045441552967789E-17</v>
+      </c>
+      <c r="N14" s="98">
+        <v>1.0987208842551575E-2</v>
+      </c>
+      <c r="O14" s="98">
+        <v>0.23150594088613896</v>
+      </c>
+      <c r="P14" s="98">
+        <v>0.61188664910689494</v>
+      </c>
+      <c r="Q14" s="98">
+        <v>-7.6499278277121496E-2</v>
+      </c>
+      <c r="R14" s="98">
+        <v>0.22211947944153615</v>
+      </c>
+      <c r="S14" s="90">
+        <v>0.68438321111754641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="82">
+        <v>20448</v>
+      </c>
+      <c r="C15" s="82">
+        <v>56792</v>
+      </c>
+      <c r="D15" s="82">
+        <v>18384</v>
+      </c>
+      <c r="E15" s="82">
+        <v>154944</v>
+      </c>
+      <c r="F15" s="82">
+        <v>409528</v>
+      </c>
+      <c r="G15" s="82">
+        <v>0</v>
+      </c>
+      <c r="H15" s="82">
+        <v>154856</v>
+      </c>
+      <c r="I15" s="102">
+        <f t="shared" si="0"/>
+        <v>0.81495200000000001</v>
+      </c>
+      <c r="J15" s="95">
+        <v>814952</v>
+      </c>
+      <c r="K15" s="100">
+        <f t="shared" si="1"/>
+        <v>0.76328740833815978</v>
+      </c>
+      <c r="L15" s="98">
+        <v>8.2180866712344147E-3</v>
+      </c>
+      <c r="M15" s="98">
+        <v>2.282480331732907E-2</v>
+      </c>
+      <c r="N15" s="98">
+        <v>1.4777122981609299E-2</v>
+      </c>
+      <c r="O15" s="98">
+        <v>0.21795291833710426</v>
+      </c>
+      <c r="P15" s="98">
+        <v>0.57606504763500122</v>
+      </c>
+      <c r="Q15" s="98">
+        <v>-5.1443422042155955E-2</v>
+      </c>
+      <c r="R15" s="98">
+        <v>0.21160544309987775</v>
+      </c>
+      <c r="S15" s="90">
+        <v>0.76328740833815978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="97"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="97"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="82">
+        <v>10224</v>
+      </c>
+      <c r="C18" s="82">
+        <v>28396</v>
+      </c>
+      <c r="D18" s="82">
+        <v>18384</v>
+      </c>
+      <c r="E18" s="82">
+        <v>12912</v>
+      </c>
+      <c r="F18" s="82">
+        <v>716674</v>
+      </c>
+      <c r="G18" s="82">
+        <v>0</v>
+      </c>
+      <c r="H18" s="82">
+        <v>77428</v>
+      </c>
+      <c r="I18" s="102">
+        <f t="shared" si="0"/>
+        <v>0.87361800000000001</v>
+      </c>
+      <c r="J18" s="95">
+        <v>873618</v>
+      </c>
+      <c r="K18" s="100">
+        <f t="shared" si="1"/>
+        <v>0.77918335015990969</v>
+      </c>
+      <c r="L18" s="90">
+        <v>-7.5098213831880489E-3</v>
+      </c>
+      <c r="M18" s="98">
+        <v>-2.0857676838517979E-2</v>
+      </c>
+      <c r="N18" s="98">
+        <v>1.3503575538784144E-2</v>
+      </c>
+      <c r="O18" s="98">
+        <v>-9.4842345167961747E-3</v>
+      </c>
+      <c r="P18" s="98">
+        <v>0.97763271978641086</v>
+      </c>
+      <c r="Q18" s="98">
+        <v>-4.7009836514479181E-2</v>
+      </c>
+      <c r="R18" s="98">
+        <v>7.9622322973442669E-2</v>
+      </c>
+      <c r="S18" s="90">
+        <v>0.77918335015990969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="82">
+        <v>15336</v>
+      </c>
+      <c r="C19" s="82">
+        <v>42594</v>
+      </c>
+      <c r="D19" s="82">
+        <v>27576</v>
+      </c>
+      <c r="E19" s="82">
+        <v>19368</v>
+      </c>
+      <c r="F19" s="82">
+        <v>1075011</v>
+      </c>
+      <c r="G19" s="82">
+        <v>0</v>
+      </c>
+      <c r="H19" s="82">
+        <v>116142</v>
+      </c>
+      <c r="I19" s="102">
+        <f t="shared" si="0"/>
+        <v>1.310427</v>
+      </c>
+      <c r="J19" s="95">
+        <v>1310427</v>
+      </c>
+      <c r="K19" s="100">
+        <f t="shared" si="1"/>
+        <v>0.85278890010660657</v>
+      </c>
+      <c r="L19" s="90">
+        <v>0</v>
+      </c>
+      <c r="M19" s="98">
+        <v>0</v>
+      </c>
+      <c r="N19" s="98">
+        <v>1.6450747621334999E-2</v>
+      </c>
+      <c r="O19" s="98">
+        <v>0</v>
+      </c>
+      <c r="P19" s="98">
+        <v>0.91615559343315922</v>
+      </c>
+      <c r="Q19" s="98">
+        <v>-2.8634895772558747E-2</v>
+      </c>
+      <c r="R19" s="98">
+        <v>8.3142851620412961E-2</v>
+      </c>
+      <c r="S19" s="90">
+        <v>0.85278890010660657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="82">
+        <v>20448</v>
+      </c>
+      <c r="C20" s="82">
+        <v>56792</v>
+      </c>
+      <c r="D20" s="82">
+        <v>36768</v>
+      </c>
+      <c r="E20" s="82">
+        <v>25824</v>
+      </c>
+      <c r="F20" s="82">
+        <v>1433348</v>
+      </c>
+      <c r="G20" s="82">
+        <v>0</v>
+      </c>
+      <c r="H20" s="82">
+        <v>154856</v>
+      </c>
+      <c r="I20" s="102">
+        <f t="shared" si="0"/>
+        <v>1.747236</v>
+      </c>
+      <c r="J20" s="95">
+        <v>1747236</v>
+      </c>
+      <c r="K20" s="100">
+        <f t="shared" si="1"/>
+        <v>0.88959167507995496</v>
+      </c>
+      <c r="L20" s="90">
+        <v>3.2888840736560771E-3</v>
+      </c>
+      <c r="M20" s="98">
+        <v>9.1345023626308655E-3</v>
+      </c>
+      <c r="N20" s="98">
+        <v>1.7741445073384189E-2</v>
+      </c>
+      <c r="O20" s="98">
+        <v>4.1535672103919473E-3</v>
+      </c>
+      <c r="P20" s="98">
+        <v>0.88923203141476181</v>
+      </c>
+      <c r="Q20" s="98">
+        <v>-2.0587693731806429E-2</v>
+      </c>
+      <c r="R20" s="98">
+        <v>8.468464735789763E-2</v>
+      </c>
+      <c r="S20" s="90">
+        <v>0.88959167507995496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="82">
+        <v>25560</v>
+      </c>
+      <c r="C21" s="82">
+        <v>70990</v>
+      </c>
+      <c r="D21" s="82">
+        <v>45960</v>
+      </c>
+      <c r="E21" s="82">
+        <v>32280</v>
+      </c>
+      <c r="F21" s="82">
+        <v>1791685</v>
+      </c>
+      <c r="G21" s="82">
+        <v>0</v>
+      </c>
+      <c r="H21" s="82">
+        <v>193570</v>
+      </c>
+      <c r="I21" s="102">
+        <f t="shared" si="0"/>
+        <v>2.1840449999999998</v>
+      </c>
+      <c r="J21" s="95">
+        <v>2184045</v>
+      </c>
+      <c r="K21" s="100">
+        <f t="shared" si="1"/>
+        <v>0.82334668012792778</v>
+      </c>
+      <c r="L21" s="90">
+        <v>-2.8428014228688249E-3</v>
+      </c>
+      <c r="M21" s="98">
+        <v>-7.8955584119506216E-3</v>
+      </c>
+      <c r="N21" s="98">
+        <v>1.5335111900827605E-2</v>
+      </c>
+      <c r="O21" s="98">
+        <v>-3.5902046138578119E-3</v>
+      </c>
+      <c r="P21" s="98">
+        <v>0.93942742019886039</v>
+      </c>
+      <c r="Q21" s="98">
+        <v>-3.5590628142332707E-2</v>
+      </c>
+      <c r="R21" s="98">
+        <v>8.1810174937947192E-2</v>
+      </c>
+      <c r="S21" s="90">
+        <v>0.82334668012792778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="82">
+        <v>20448</v>
+      </c>
+      <c r="C22" s="82">
+        <v>56792</v>
+      </c>
+      <c r="D22" s="82">
+        <v>36768</v>
+      </c>
+      <c r="E22" s="82">
+        <v>25824</v>
+      </c>
+      <c r="F22" s="82">
+        <v>1433348</v>
+      </c>
+      <c r="G22" s="82">
+        <v>0</v>
+      </c>
+      <c r="H22" s="82">
+        <v>154856</v>
+      </c>
+      <c r="I22" s="102">
+        <f t="shared" si="0"/>
+        <v>1.747236</v>
+      </c>
+      <c r="J22" s="95">
+        <v>1747236</v>
+      </c>
+      <c r="K22" s="100">
+        <f t="shared" si="1"/>
+        <v>0.85278890010660657</v>
+      </c>
+      <c r="L22" s="90">
+        <v>2.4415580616527063E-18</v>
+      </c>
+      <c r="M22" s="98">
+        <v>4.8831161233054126E-18</v>
+      </c>
+      <c r="N22" s="98">
+        <v>1.6450747621334999E-2</v>
+      </c>
+      <c r="O22" s="98">
+        <v>2.4415580616527063E-18</v>
+      </c>
+      <c r="P22" s="98">
+        <v>0.91615559343315922</v>
+      </c>
+      <c r="Q22" s="98">
+        <v>-2.8634895772558747E-2</v>
+      </c>
+      <c r="R22" s="98">
+        <v>8.3142851620412947E-2</v>
+      </c>
+      <c r="S22" s="90">
+        <v>0.85278890010660657</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="82">
+        <v>15336</v>
+      </c>
+      <c r="C23" s="82">
+        <v>42594</v>
+      </c>
+      <c r="D23" s="82">
+        <v>27576</v>
+      </c>
+      <c r="E23" s="82">
+        <v>19368</v>
+      </c>
+      <c r="F23" s="82">
+        <v>1075011</v>
+      </c>
+      <c r="G23" s="82">
+        <v>0</v>
+      </c>
+      <c r="H23" s="82">
+        <v>116142</v>
+      </c>
+      <c r="I23" s="102">
+        <f t="shared" si="0"/>
+        <v>1.310427</v>
+      </c>
+      <c r="J23" s="95">
+        <v>1310427</v>
+      </c>
+      <c r="K23" s="100">
+        <f t="shared" si="1"/>
+        <v>0.85278890010660657</v>
+      </c>
+      <c r="L23" s="90">
+        <v>0</v>
+      </c>
+      <c r="M23" s="98">
+        <v>0</v>
+      </c>
+      <c r="N23" s="98">
+        <v>1.6450747621334999E-2</v>
+      </c>
+      <c r="O23" s="98">
+        <v>0</v>
+      </c>
+      <c r="P23" s="98">
+        <v>0.91615559343315922</v>
+      </c>
+      <c r="Q23" s="98">
+        <v>-2.8634895772558747E-2</v>
+      </c>
+      <c r="R23" s="98">
+        <v>8.3142851620412961E-2</v>
+      </c>
+      <c r="S23" s="90">
+        <v>0.85278890010660657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="97"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="97"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="82">
+        <v>10224</v>
+      </c>
+      <c r="C26" s="82">
+        <v>28396</v>
+      </c>
+      <c r="D26" s="82">
+        <v>18384</v>
+      </c>
+      <c r="E26" s="82">
+        <v>25824</v>
+      </c>
+      <c r="F26" s="82">
+        <v>204764</v>
+      </c>
+      <c r="G26" s="82">
+        <v>64000</v>
+      </c>
+      <c r="H26" s="82">
+        <v>15485.6</v>
+      </c>
+      <c r="I26" s="102">
+        <f t="shared" si="0"/>
+        <v>0.3670776</v>
+      </c>
+      <c r="J26" s="95">
+        <v>367077.6</v>
+      </c>
+      <c r="K26" s="100">
+        <f t="shared" si="1"/>
+        <v>0.47447242762838154</v>
+      </c>
+      <c r="L26" s="90">
+        <v>-2.9350937771648329E-2</v>
+      </c>
+      <c r="M26" s="90">
+        <v>-8.1518899546530313E-2</v>
+      </c>
+      <c r="N26" s="90">
+        <v>5.2776568857001459E-2</v>
+      </c>
+      <c r="O26" s="90">
+        <v>3.7067616246823476E-2</v>
+      </c>
+      <c r="P26" s="90">
+        <v>0.88175108888993525</v>
+      </c>
+      <c r="Q26" s="90">
+        <v>0.18373043988512255</v>
+      </c>
+      <c r="R26" s="90">
+        <v>-4.4455876560703975E-2</v>
+      </c>
+      <c r="S26" s="90">
+        <v>0.47447242762838154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A27" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="82">
+        <v>15336</v>
+      </c>
+      <c r="C27" s="82">
+        <v>42594</v>
+      </c>
+      <c r="D27" s="82">
+        <v>27576</v>
+      </c>
+      <c r="E27" s="82">
+        <v>38736</v>
+      </c>
+      <c r="F27" s="82">
+        <v>307146</v>
+      </c>
+      <c r="G27" s="82">
+        <v>96000</v>
+      </c>
+      <c r="H27" s="82">
+        <v>23228.400000000001</v>
+      </c>
+      <c r="I27" s="102">
+        <f t="shared" si="0"/>
+        <v>0.55061640000000001</v>
+      </c>
+      <c r="J27" s="95">
+        <v>550616.4</v>
+      </c>
+      <c r="K27" s="100">
+        <f t="shared" si="1"/>
+        <v>0.6496482850855877</v>
+      </c>
+      <c r="L27" s="90">
+        <v>0</v>
+      </c>
+      <c r="M27" s="90">
+        <v>0</v>
+      </c>
+      <c r="N27" s="90">
+        <v>5.1394018009152741E-2</v>
+      </c>
+      <c r="O27" s="90">
+        <v>5.4144872758989902E-2</v>
+      </c>
+      <c r="P27" s="90">
+        <v>0.71554372712862757</v>
+      </c>
+      <c r="Q27" s="90">
+        <v>0.17891738210322974</v>
+      </c>
+      <c r="R27" s="90">
+        <v>0</v>
+      </c>
+      <c r="S27" s="90">
+        <v>0.6496482850855877</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A28" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="82">
+        <v>20448</v>
+      </c>
+      <c r="C28" s="82">
+        <v>56792</v>
+      </c>
+      <c r="D28" s="82">
+        <v>36768</v>
+      </c>
+      <c r="E28" s="82">
+        <v>51648</v>
+      </c>
+      <c r="F28" s="82">
+        <v>409528</v>
+      </c>
+      <c r="G28" s="82">
+        <v>128000</v>
+      </c>
+      <c r="H28" s="82">
+        <v>30971.200000000001</v>
+      </c>
+      <c r="I28" s="102">
+        <f t="shared" si="0"/>
+        <v>0.73415520000000001</v>
+      </c>
+      <c r="J28" s="95">
+        <v>734155.2</v>
+      </c>
+      <c r="K28" s="100">
+        <f t="shared" si="1"/>
+        <v>0.73723621381419069</v>
+      </c>
+      <c r="L28" s="90">
+        <v>9.444876985650514E-3</v>
+      </c>
+      <c r="M28" s="90">
+        <v>2.623207422579538E-2</v>
+      </c>
+      <c r="N28" s="90">
+        <v>5.094912514794573E-2</v>
+      </c>
+      <c r="O28" s="90">
+        <v>5.9640185660563103E-2</v>
+      </c>
+      <c r="P28" s="90">
+        <v>0.66205964092469638</v>
+      </c>
+      <c r="Q28" s="90">
+        <v>0.17736858189015048</v>
+      </c>
+      <c r="R28" s="90">
+        <v>1.4305515165198511E-2</v>
+      </c>
+      <c r="S28" s="90">
+        <v>0.73723621381419069</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A29" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="82">
+        <v>25560</v>
+      </c>
+      <c r="C29" s="82">
+        <v>70990</v>
+      </c>
+      <c r="D29" s="82">
+        <v>45960</v>
+      </c>
+      <c r="E29" s="82">
+        <v>64560</v>
+      </c>
+      <c r="F29" s="82">
+        <v>511910</v>
+      </c>
+      <c r="G29" s="82">
+        <v>160000</v>
+      </c>
+      <c r="H29" s="82">
+        <v>38714</v>
+      </c>
+      <c r="I29" s="102">
+        <f t="shared" si="0"/>
+        <v>0.91769400000000001</v>
+      </c>
+      <c r="J29" s="95">
+        <v>917694</v>
+      </c>
+      <c r="K29" s="100">
+        <f t="shared" si="1"/>
+        <v>0.57957794210270519</v>
+      </c>
+      <c r="L29" s="90">
+        <v>-9.6112772319521585E-3</v>
+      </c>
+      <c r="M29" s="90">
+        <v>-2.6694232030371037E-2</v>
+      </c>
+      <c r="N29" s="90">
+        <v>5.1846749011798261E-2</v>
+      </c>
+      <c r="O29" s="90">
+        <v>4.8552743199908557E-2</v>
+      </c>
+      <c r="P29" s="90">
+        <v>0.76997009824861173</v>
+      </c>
+      <c r="Q29" s="90">
+        <v>0.18049346914464146</v>
+      </c>
+      <c r="R29" s="90">
+        <v>-1.4557550342636776E-2</v>
+      </c>
+      <c r="S29" s="90">
+        <v>0.57957794210270519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A30" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="82">
+        <v>20448</v>
+      </c>
+      <c r="C30" s="82">
+        <v>56792</v>
+      </c>
+      <c r="D30" s="82">
+        <v>36768</v>
+      </c>
+      <c r="E30" s="82">
+        <v>51648</v>
+      </c>
+      <c r="F30" s="82">
+        <v>409528</v>
+      </c>
+      <c r="G30" s="82">
+        <v>128000</v>
+      </c>
+      <c r="H30" s="82">
+        <v>30971.200000000001</v>
+      </c>
+      <c r="I30" s="102">
+        <f t="shared" si="0"/>
+        <v>0.73415520000000001</v>
+      </c>
+      <c r="J30" s="95">
+        <v>734155.2</v>
+      </c>
+      <c r="K30" s="100">
+        <f t="shared" si="1"/>
+        <v>0.6496482850855877</v>
+      </c>
+      <c r="L30" s="90">
+        <v>7.627706769279843E-18</v>
+      </c>
+      <c r="M30" s="90">
+        <v>1.5255413538559686E-17</v>
+      </c>
+      <c r="N30" s="90">
+        <v>5.1394018009152748E-2</v>
+      </c>
+      <c r="O30" s="90">
+        <v>5.4144872758989909E-2</v>
+      </c>
+      <c r="P30" s="90">
+        <v>0.71554372712862779</v>
+      </c>
+      <c r="Q30" s="90">
+        <v>0.17891738210322977</v>
+      </c>
+      <c r="R30" s="90">
+        <v>0</v>
+      </c>
+      <c r="S30" s="90">
+        <v>0.6496482850855877</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="A31" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="82">
+        <v>15336</v>
+      </c>
+      <c r="C31" s="82">
+        <v>42594</v>
+      </c>
+      <c r="D31" s="82">
+        <v>27576</v>
+      </c>
+      <c r="E31" s="82">
+        <v>38736</v>
+      </c>
+      <c r="F31" s="82">
+        <v>307146</v>
+      </c>
+      <c r="G31" s="82">
+        <v>96000</v>
+      </c>
+      <c r="H31" s="82">
+        <v>23228.400000000001</v>
+      </c>
+      <c r="I31" s="102">
+        <f t="shared" si="0"/>
+        <v>0.55061640000000001</v>
+      </c>
+      <c r="J31" s="95">
+        <v>550616.4</v>
+      </c>
+      <c r="K31" s="100">
+        <f t="shared" si="1"/>
+        <v>0.6496482850855877</v>
+      </c>
+      <c r="L31" s="90">
+        <v>0</v>
+      </c>
+      <c r="M31" s="90">
+        <v>0</v>
+      </c>
+      <c r="N31" s="90">
+        <v>5.1394018009152741E-2</v>
+      </c>
+      <c r="O31" s="90">
+        <v>5.4144872758989902E-2</v>
+      </c>
+      <c r="P31" s="90">
+        <v>0.71554372712862757</v>
+      </c>
+      <c r="Q31" s="90">
+        <v>0.17891738210322974</v>
+      </c>
+      <c r="R31" s="90">
+        <v>0</v>
+      </c>
+      <c r="S31" s="90">
+        <v>0.6496482850855877</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.15">
+      <c r="K32" s="100"/>
+    </row>
+    <row r="33" spans="11:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="K33" s="100"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="105" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="112">
+        <v>500</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="108">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="F2" s="115">
+        <f>(E8-E2)/E8</f>
+        <v>0.52662576687116569</v>
+      </c>
+      <c r="G2" s="109">
+        <v>64</v>
+      </c>
+      <c r="H2" s="114">
+        <f>G2/E2</f>
+        <v>331.77812337998967</v>
+      </c>
+      <c r="I2" s="115">
+        <f>(H2-H8)/H8</f>
+        <v>1.112493519958528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="108">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="F3" s="115">
+        <f t="shared" ref="F3:F7" si="0">(E9-E3)/E9</f>
+        <v>0.7633128834355829</v>
+      </c>
+      <c r="G3" s="109">
+        <v>32</v>
+      </c>
+      <c r="H3" s="114">
+        <f t="shared" ref="H3:H13" si="1">G3/E3</f>
+        <v>165.88906168999483</v>
+      </c>
+      <c r="I3" s="115">
+        <f t="shared" ref="I3:I7" si="2">(H3-H9)/H9</f>
+        <v>3.2249870399170559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="108">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="F4" s="115">
+        <f t="shared" si="0"/>
+        <v>0.7633128834355829</v>
+      </c>
+      <c r="G4" s="109">
+        <v>64</v>
+      </c>
+      <c r="H4" s="114">
+        <f t="shared" si="1"/>
+        <v>331.77812337998967</v>
+      </c>
+      <c r="I4" s="115">
+        <f t="shared" si="2"/>
+        <v>3.2249870399170559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="108">
+        <v>0.38579999999999998</v>
+      </c>
+      <c r="F5" s="115">
+        <f t="shared" si="0"/>
+        <v>0.68439136125654454</v>
+      </c>
+      <c r="G5" s="109">
+        <v>64</v>
+      </c>
+      <c r="H5" s="114">
+        <f t="shared" si="1"/>
+        <v>165.88906168999483</v>
+      </c>
+      <c r="I5" s="115">
+        <f t="shared" si="2"/>
+        <v>2.168481078278901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="108">
+        <v>0.25719999999999998</v>
+      </c>
+      <c r="F6" s="115">
+        <f t="shared" si="0"/>
+        <v>0.68441717791411039</v>
+      </c>
+      <c r="G6" s="109">
+        <v>32</v>
+      </c>
+      <c r="H6" s="114">
+        <f t="shared" si="1"/>
+        <v>124.41679626749612</v>
+      </c>
+      <c r="I6" s="115">
+        <f t="shared" si="2"/>
+        <v>2.1687402799377917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="113"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="108">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="F7" s="115">
+        <f t="shared" si="0"/>
+        <v>0.7633128834355829</v>
+      </c>
+      <c r="G7" s="109">
+        <v>32</v>
+      </c>
+      <c r="H7" s="114">
+        <f t="shared" si="1"/>
+        <v>165.88906168999483</v>
+      </c>
+      <c r="I7" s="115">
+        <f t="shared" si="2"/>
+        <v>3.2249870399170559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="108">
+        <v>0.40749999999999997</v>
+      </c>
+      <c r="F8" s="110"/>
+      <c r="G8" s="109">
+        <v>64</v>
+      </c>
+      <c r="H8" s="114">
+        <f t="shared" si="1"/>
+        <v>157.05521472392638</v>
+      </c>
+      <c r="I8" s="109"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="111"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="108">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="F9" s="110"/>
+      <c r="G9" s="109">
+        <v>32</v>
+      </c>
+      <c r="H9" s="114">
+        <f t="shared" si="1"/>
+        <v>39.263803680981596</v>
+      </c>
+      <c r="I9" s="109"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="111"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="108">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="F10" s="110"/>
+      <c r="G10" s="109">
+        <v>64</v>
+      </c>
+      <c r="H10" s="114">
+        <f t="shared" si="1"/>
+        <v>78.527607361963192</v>
+      </c>
+      <c r="I10" s="109"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="111"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="108">
+        <v>1.2223999999999999</v>
+      </c>
+      <c r="F11" s="110"/>
+      <c r="G11" s="109">
+        <v>64</v>
+      </c>
+      <c r="H11" s="114">
+        <f t="shared" si="1"/>
+        <v>52.356020942408378</v>
+      </c>
+      <c r="I11" s="109"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="111"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="108">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="F12" s="110"/>
+      <c r="G12" s="109">
+        <v>32</v>
+      </c>
+      <c r="H12" s="114">
+        <f t="shared" si="1"/>
+        <v>39.263803680981596</v>
+      </c>
+      <c r="I12" s="109"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="108">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="F13" s="110"/>
+      <c r="G13" s="109">
+        <v>32</v>
+      </c>
+      <c r="H13" s="114">
+        <f t="shared" si="1"/>
+        <v>39.263803680981596</v>
+      </c>
+      <c r="I13" s="109"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="108">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="F14" s="110">
+        <v>0.78</v>
+      </c>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="111"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="108">
+        <v>1.3104</v>
+      </c>
+      <c r="F15" s="110">
+        <v>0.85</v>
+      </c>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="108">
+        <v>1.7472000000000001</v>
+      </c>
+      <c r="F16" s="110">
+        <v>0.89</v>
+      </c>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="108">
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="F17" s="110">
+        <v>0.82</v>
+      </c>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="108">
+        <v>1.7472000000000001</v>
+      </c>
+      <c r="F18" s="110">
+        <v>0.85</v>
+      </c>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="113"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="108">
+        <v>1.3104</v>
+      </c>
+      <c r="F19" s="110">
+        <v>0.85</v>
+      </c>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="108">
+        <v>0.36709999999999998</v>
+      </c>
+      <c r="F20" s="110">
+        <v>0.47</v>
+      </c>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="108">
+        <v>0.55059999999999998</v>
+      </c>
+      <c r="F21" s="110">
+        <v>0.65</v>
+      </c>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="108">
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="F22" s="110">
+        <v>0.74</v>
+      </c>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="108">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="F23" s="110">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="108">
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="F24" s="110">
+        <v>0.65</v>
+      </c>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="113"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="108">
+        <v>0.55059999999999998</v>
+      </c>
+      <c r="F25" s="110">
+        <v>0.65</v>
+      </c>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="105" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="112">
+        <v>500</v>
+      </c>
+      <c r="D30" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="107">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="F30" s="116">
+        <f>(E36-E30)/E36</f>
+        <v>0.77918956043956045</v>
+      </c>
+      <c r="G30" s="109">
+        <v>64</v>
+      </c>
+      <c r="H30" s="109">
+        <v>331.78</v>
+      </c>
+      <c r="I30" s="116">
+        <f>(H30-H36)/H36</f>
+        <v>1.2643985</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="107">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="F31" s="116">
+        <f t="shared" ref="F31:F35" si="3">(E37-E31)/E37</f>
+        <v>0.85279304029304026</v>
+      </c>
+      <c r="G31" s="109">
+        <v>32</v>
+      </c>
+      <c r="H31" s="109">
+        <v>165.89</v>
+      </c>
+      <c r="I31" s="116">
+        <f t="shared" ref="I31:I35" si="4">(H31-H37)/H37</f>
+        <v>2.3965977499999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="107">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="F32" s="116">
+        <f t="shared" si="3"/>
+        <v>0.88959478021978022</v>
+      </c>
+      <c r="G32" s="109">
+        <v>64</v>
+      </c>
+      <c r="H32" s="109">
+        <v>331.78</v>
+      </c>
+      <c r="I32" s="116">
+        <f t="shared" si="4"/>
+        <v>3.5287970000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="107">
+        <v>0.38579999999999998</v>
+      </c>
+      <c r="F33" s="116">
+        <f t="shared" si="3"/>
+        <v>0.82335164835164842</v>
+      </c>
+      <c r="G33" s="109">
+        <v>64</v>
+      </c>
+      <c r="H33" s="109">
+        <v>165.89</v>
+      </c>
+      <c r="I33" s="116">
+        <f t="shared" si="4"/>
+        <v>1.8304981250000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="107">
+        <v>0.25719999999999998</v>
+      </c>
+      <c r="F34" s="116">
+        <f t="shared" si="3"/>
+        <v>0.85279304029304037</v>
+      </c>
+      <c r="G34" s="109">
+        <v>32</v>
+      </c>
+      <c r="H34" s="109">
+        <v>124.42</v>
+      </c>
+      <c r="I34" s="116">
+        <f t="shared" si="4"/>
+        <v>2.3966660000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="113"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="107">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="F35" s="116">
+        <f t="shared" si="3"/>
+        <v>0.85279304029304026</v>
+      </c>
+      <c r="G35" s="109">
+        <v>32</v>
+      </c>
+      <c r="H35" s="109">
+        <v>165.89</v>
+      </c>
+      <c r="I35" s="116">
+        <f t="shared" si="4"/>
+        <v>2.3965977499999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="112" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="112">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="117">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="F36" s="107"/>
+      <c r="G36" s="109">
+        <f>G30*2</f>
+        <v>128</v>
+      </c>
+      <c r="H36" s="114">
+        <f>G36/E36</f>
+        <v>146.52014652014651</v>
+      </c>
+      <c r="I36" s="109"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="117">
+        <v>1.3104</v>
+      </c>
+      <c r="F37" s="107"/>
+      <c r="G37" s="109">
+        <f t="shared" ref="G37:G41" si="5">G31*2</f>
+        <v>64</v>
+      </c>
+      <c r="H37" s="114">
+        <f t="shared" ref="H37:H41" si="6">G37/E37</f>
+        <v>48.840048840048837</v>
+      </c>
+      <c r="I37" s="109"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="117">
+        <v>1.7472000000000001</v>
+      </c>
+      <c r="F38" s="107"/>
+      <c r="G38" s="109">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="H38" s="114">
+        <f t="shared" si="6"/>
+        <v>73.260073260073256</v>
+      </c>
+      <c r="I38" s="109"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="111"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="117">
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="F39" s="107"/>
+      <c r="G39" s="109">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="H39" s="114">
+        <f t="shared" si="6"/>
+        <v>58.608058608058606</v>
+      </c>
+      <c r="I39" s="109"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="117">
+        <v>1.7472000000000001</v>
+      </c>
+      <c r="F40" s="107"/>
+      <c r="G40" s="109">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="H40" s="114">
+        <f t="shared" si="6"/>
+        <v>36.630036630036628</v>
+      </c>
+      <c r="I40" s="109"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="113"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="117">
+        <v>1.3104</v>
+      </c>
+      <c r="F41" s="107"/>
+      <c r="G41" s="109">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="H41" s="114">
+        <f t="shared" si="6"/>
+        <v>48.840048840048837</v>
+      </c>
+      <c r="I41" s="109"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView topLeftCell="A247" workbookViewId="0">
@@ -9661,7 +14838,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="75" t="s">
@@ -9677,7 +14854,7 @@
       <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="76"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9699,7 +14876,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -9713,7 +14890,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -9725,7 +14902,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -9737,7 +14914,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -9749,7 +14926,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -9761,7 +14938,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -9773,7 +14950,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -9785,7 +14962,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -9797,7 +14974,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -9809,7 +14986,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -9821,7 +14998,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -9833,7 +15010,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -9845,7 +15022,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -9857,7 +15034,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -9869,7 +15046,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -9881,7 +15058,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -9893,7 +15070,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -9905,7 +15082,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -9917,7 +15094,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -9929,7 +15106,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -9941,7 +15118,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -9953,7 +15130,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -9965,7 +15142,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
@@ -9977,7 +15154,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
@@ -9989,7 +15166,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
@@ -10001,7 +15178,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -10013,7 +15190,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
@@ -10025,7 +15202,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
@@ -10037,7 +15214,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
@@ -10049,7 +15226,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
@@ -10061,7 +15238,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
@@ -10073,7 +15250,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
@@ -10085,7 +15262,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
@@ -10097,7 +15274,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
@@ -10109,7 +15286,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
@@ -10121,7 +15298,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
@@ -10133,7 +15310,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="53" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -10147,7 +15324,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="57"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
@@ -10159,7 +15336,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="57"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
@@ -10171,7 +15348,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="57"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -10183,7 +15360,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="57"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
@@ -10195,7 +15372,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="57"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
@@ -10207,7 +15384,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
@@ -10219,7 +15396,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="57"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -10231,7 +15408,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="57"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
@@ -10243,7 +15420,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="57"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
@@ -10255,7 +15432,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="57"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
       </c>
@@ -10267,7 +15444,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="57"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
@@ -10279,7 +15456,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="57"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="2" t="s">
         <v>24</v>
       </c>
@@ -10291,7 +15468,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="57"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
@@ -10303,7 +15480,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="57"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
@@ -10315,7 +15492,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="57"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -10327,7 +15504,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="57"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
@@ -10339,7 +15516,7 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="57"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
@@ -10351,7 +15528,7 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="57"/>
+      <c r="A57" s="54"/>
       <c r="B57" s="2" t="s">
         <v>29</v>
       </c>
@@ -10363,7 +15540,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="57"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="2" t="s">
         <v>30</v>
       </c>
@@ -10375,7 +15552,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="57"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="2" t="s">
         <v>31</v>
       </c>
@@ -10387,7 +15564,7 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="57"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="2" t="s">
         <v>32</v>
       </c>
@@ -10399,7 +15576,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="57"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="2" t="s">
         <v>33</v>
       </c>
@@ -10411,7 +15588,7 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="57"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="2" t="s">
         <v>34</v>
       </c>
@@ -10423,7 +15600,7 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="57"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="2" t="s">
         <v>35</v>
       </c>
@@ -10435,7 +15612,7 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="57"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="2" t="s">
         <v>36</v>
       </c>
@@ -10447,7 +15624,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="57"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="2" t="s">
         <v>37</v>
       </c>
@@ -10459,7 +15636,7 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="57"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="2" t="s">
         <v>38</v>
       </c>
@@ -10471,7 +15648,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="57"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="2" t="s">
         <v>39</v>
       </c>
@@ -10483,7 +15660,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="57"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="2" t="s">
         <v>40</v>
       </c>
@@ -10495,7 +15672,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="57"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="2" t="s">
         <v>41</v>
       </c>
@@ -10507,7 +15684,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="57"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="2" t="s">
         <v>42</v>
       </c>
@@ -10519,7 +15696,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="57"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="2" t="s">
         <v>43</v>
       </c>
@@ -10531,7 +15708,7 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="57"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="2" t="s">
         <v>44</v>
       </c>
@@ -10543,7 +15720,7 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="57"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
@@ -10555,7 +15732,7 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="58"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="2" t="s">
         <v>45</v>
       </c>
@@ -10567,7 +15744,7 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="53" t="s">
         <v>48</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -10581,7 +15758,7 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="57"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
@@ -10593,7 +15770,7 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="57"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
@@ -10605,7 +15782,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="57"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
@@ -10617,7 +15794,7 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="57"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -10629,7 +15806,7 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="57"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="2" t="s">
         <v>17</v>
       </c>
@@ -10641,7 +15818,7 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="57"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="2" t="s">
         <v>18</v>
       </c>
@@ -10653,7 +15830,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="57"/>
+      <c r="A82" s="54"/>
       <c r="B82" s="2" t="s">
         <v>19</v>
       </c>
@@ -10665,7 +15842,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="57"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="2" t="s">
         <v>20</v>
       </c>
@@ -10677,7 +15854,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="57"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
@@ -10689,7 +15866,7 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="57"/>
+      <c r="A85" s="54"/>
       <c r="B85" s="2" t="s">
         <v>22</v>
       </c>
@@ -10701,7 +15878,7 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="57"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
@@ -10713,7 +15890,7 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="57"/>
+      <c r="A87" s="54"/>
       <c r="B87" s="2" t="s">
         <v>24</v>
       </c>
@@ -10725,7 +15902,7 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="57"/>
+      <c r="A88" s="54"/>
       <c r="B88" s="2" t="s">
         <v>25</v>
       </c>
@@ -10737,7 +15914,7 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="57"/>
+      <c r="A89" s="54"/>
       <c r="B89" s="2" t="s">
         <v>26</v>
       </c>
@@ -10749,7 +15926,7 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="57"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="2" t="s">
         <v>27</v>
       </c>
@@ -10761,7 +15938,7 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="57"/>
+      <c r="A91" s="54"/>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
@@ -10773,7 +15950,7 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="57"/>
+      <c r="A92" s="54"/>
       <c r="B92" s="2" t="s">
         <v>28</v>
       </c>
@@ -10785,7 +15962,7 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="57"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="2" t="s">
         <v>29</v>
       </c>
@@ -10797,7 +15974,7 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="57"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="2" t="s">
         <v>30</v>
       </c>
@@ -10809,7 +15986,7 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="57"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="2" t="s">
         <v>31</v>
       </c>
@@ -10821,7 +15998,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="57"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="2" t="s">
         <v>32</v>
       </c>
@@ -10833,7 +16010,7 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="57"/>
+      <c r="A97" s="54"/>
       <c r="B97" s="2" t="s">
         <v>33</v>
       </c>
@@ -10845,7 +16022,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="57"/>
+      <c r="A98" s="54"/>
       <c r="B98" s="2" t="s">
         <v>34</v>
       </c>
@@ -10857,7 +16034,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="57"/>
+      <c r="A99" s="54"/>
       <c r="B99" s="2" t="s">
         <v>35</v>
       </c>
@@ -10869,7 +16046,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="57"/>
+      <c r="A100" s="54"/>
       <c r="B100" s="2" t="s">
         <v>36</v>
       </c>
@@ -10881,7 +16058,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="57"/>
+      <c r="A101" s="54"/>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
@@ -10893,7 +16070,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="57"/>
+      <c r="A102" s="54"/>
       <c r="B102" s="2" t="s">
         <v>38</v>
       </c>
@@ -10905,7 +16082,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="57"/>
+      <c r="A103" s="54"/>
       <c r="B103" s="2" t="s">
         <v>39</v>
       </c>
@@ -10917,7 +16094,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="57"/>
+      <c r="A104" s="54"/>
       <c r="B104" s="2" t="s">
         <v>40</v>
       </c>
@@ -10929,7 +16106,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="57"/>
+      <c r="A105" s="54"/>
       <c r="B105" s="2" t="s">
         <v>41</v>
       </c>
@@ -10941,7 +16118,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="57"/>
+      <c r="A106" s="54"/>
       <c r="B106" s="2" t="s">
         <v>42</v>
       </c>
@@ -10953,7 +16130,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="57"/>
+      <c r="A107" s="54"/>
       <c r="B107" s="2" t="s">
         <v>43</v>
       </c>
@@ -10965,7 +16142,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="57"/>
+      <c r="A108" s="54"/>
       <c r="B108" s="2" t="s">
         <v>44</v>
       </c>
@@ -10977,7 +16154,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="57"/>
+      <c r="A109" s="54"/>
       <c r="B109" s="2" t="s">
         <v>4</v>
       </c>
@@ -10989,7 +16166,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="58"/>
+      <c r="A110" s="55"/>
       <c r="B110" s="2" t="s">
         <v>45</v>
       </c>
@@ -11001,7 +16178,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="56" t="s">
+      <c r="A111" s="53" t="s">
         <v>49</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -11015,7 +16192,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="57"/>
+      <c r="A112" s="54"/>
       <c r="B112" s="2" t="s">
         <v>14</v>
       </c>
@@ -11027,7 +16204,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="57"/>
+      <c r="A113" s="54"/>
       <c r="B113" s="2" t="s">
         <v>15</v>
       </c>
@@ -11039,7 +16216,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="57"/>
+      <c r="A114" s="54"/>
       <c r="B114" s="2" t="s">
         <v>16</v>
       </c>
@@ -11051,7 +16228,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="57"/>
+      <c r="A115" s="54"/>
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
@@ -11063,7 +16240,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="57"/>
+      <c r="A116" s="54"/>
       <c r="B116" s="2" t="s">
         <v>17</v>
       </c>
@@ -11075,7 +16252,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="57"/>
+      <c r="A117" s="54"/>
       <c r="B117" s="2" t="s">
         <v>18</v>
       </c>
@@ -11087,7 +16264,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="57"/>
+      <c r="A118" s="54"/>
       <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
@@ -11099,7 +16276,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="57"/>
+      <c r="A119" s="54"/>
       <c r="B119" s="2" t="s">
         <v>20</v>
       </c>
@@ -11111,7 +16288,7 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="57"/>
+      <c r="A120" s="54"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -11123,7 +16300,7 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="57"/>
+      <c r="A121" s="54"/>
       <c r="B121" s="2" t="s">
         <v>22</v>
       </c>
@@ -11135,7 +16312,7 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="57"/>
+      <c r="A122" s="54"/>
       <c r="B122" s="2" t="s">
         <v>23</v>
       </c>
@@ -11147,7 +16324,7 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="57"/>
+      <c r="A123" s="54"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -11159,7 +16336,7 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="57"/>
+      <c r="A124" s="54"/>
       <c r="B124" s="2" t="s">
         <v>25</v>
       </c>
@@ -11171,7 +16348,7 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="57"/>
+      <c r="A125" s="54"/>
       <c r="B125" s="2" t="s">
         <v>26</v>
       </c>
@@ -11183,7 +16360,7 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="57"/>
+      <c r="A126" s="54"/>
       <c r="B126" s="2" t="s">
         <v>27</v>
       </c>
@@ -11195,7 +16372,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="57"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
@@ -11207,7 +16384,7 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="57"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="2" t="s">
         <v>28</v>
       </c>
@@ -11219,7 +16396,7 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="57"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="2" t="s">
         <v>29</v>
       </c>
@@ -11231,7 +16408,7 @@
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="57"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="2" t="s">
         <v>30</v>
       </c>
@@ -11243,7 +16420,7 @@
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="57"/>
+      <c r="A131" s="54"/>
       <c r="B131" s="2" t="s">
         <v>31</v>
       </c>
@@ -11255,7 +16432,7 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="57"/>
+      <c r="A132" s="54"/>
       <c r="B132" s="2" t="s">
         <v>32</v>
       </c>
@@ -11267,7 +16444,7 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="57"/>
+      <c r="A133" s="54"/>
       <c r="B133" s="2" t="s">
         <v>33</v>
       </c>
@@ -11279,7 +16456,7 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="57"/>
+      <c r="A134" s="54"/>
       <c r="B134" s="2" t="s">
         <v>34</v>
       </c>
@@ -11291,7 +16468,7 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="57"/>
+      <c r="A135" s="54"/>
       <c r="B135" s="2" t="s">
         <v>35</v>
       </c>
@@ -11303,7 +16480,7 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="57"/>
+      <c r="A136" s="54"/>
       <c r="B136" s="2" t="s">
         <v>36</v>
       </c>
@@ -11315,7 +16492,7 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="57"/>
+      <c r="A137" s="54"/>
       <c r="B137" s="2" t="s">
         <v>37</v>
       </c>
@@ -11327,7 +16504,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="57"/>
+      <c r="A138" s="54"/>
       <c r="B138" s="2" t="s">
         <v>38</v>
       </c>
@@ -11339,7 +16516,7 @@
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="57"/>
+      <c r="A139" s="54"/>
       <c r="B139" s="2" t="s">
         <v>39</v>
       </c>
@@ -11351,7 +16528,7 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="57"/>
+      <c r="A140" s="54"/>
       <c r="B140" s="2" t="s">
         <v>40</v>
       </c>
@@ -11363,7 +16540,7 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="57"/>
+      <c r="A141" s="54"/>
       <c r="B141" s="2" t="s">
         <v>41</v>
       </c>
@@ -11375,7 +16552,7 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="57"/>
+      <c r="A142" s="54"/>
       <c r="B142" s="2" t="s">
         <v>42</v>
       </c>
@@ -11387,7 +16564,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="57"/>
+      <c r="A143" s="54"/>
       <c r="B143" s="2" t="s">
         <v>43</v>
       </c>
@@ -11399,7 +16576,7 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="57"/>
+      <c r="A144" s="54"/>
       <c r="B144" s="2" t="s">
         <v>44</v>
       </c>
@@ -11411,7 +16588,7 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="57"/>
+      <c r="A145" s="54"/>
       <c r="B145" s="2" t="s">
         <v>4</v>
       </c>
@@ -11423,7 +16600,7 @@
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="58"/>
+      <c r="A146" s="55"/>
       <c r="B146" s="2" t="s">
         <v>45</v>
       </c>
@@ -11436,7 +16613,7 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="56" t="s">
+      <c r="A152" s="53" t="s">
         <v>5</v>
       </c>
       <c r="B152" s="59" t="s">
@@ -11452,7 +16629,7 @@
       <c r="H152" s="63"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="58"/>
+      <c r="A153" s="55"/>
       <c r="B153" s="60"/>
       <c r="C153" s="1" t="s">
         <v>7</v>
@@ -11474,7 +16651,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="56" t="s">
+      <c r="A154" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -11488,7 +16665,7 @@
       <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="57"/>
+      <c r="A155" s="54"/>
       <c r="B155" s="2" t="s">
         <v>14</v>
       </c>
@@ -11500,7 +16677,7 @@
       <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="57"/>
+      <c r="A156" s="54"/>
       <c r="B156" s="2" t="s">
         <v>15</v>
       </c>
@@ -11512,7 +16689,7 @@
       <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="57"/>
+      <c r="A157" s="54"/>
       <c r="B157" s="2" t="s">
         <v>16</v>
       </c>
@@ -11524,7 +16701,7 @@
       <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="57"/>
+      <c r="A158" s="54"/>
       <c r="B158" s="2" t="s">
         <v>2</v>
       </c>
@@ -11536,7 +16713,7 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="57"/>
+      <c r="A159" s="54"/>
       <c r="B159" s="2" t="s">
         <v>17</v>
       </c>
@@ -11548,7 +16725,7 @@
       <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="57"/>
+      <c r="A160" s="54"/>
       <c r="B160" s="2" t="s">
         <v>18</v>
       </c>
@@ -11560,7 +16737,7 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="57"/>
+      <c r="A161" s="54"/>
       <c r="B161" s="2" t="s">
         <v>19</v>
       </c>
@@ -11572,7 +16749,7 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="57"/>
+      <c r="A162" s="54"/>
       <c r="B162" s="2" t="s">
         <v>20</v>
       </c>
@@ -11584,7 +16761,7 @@
       <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="57"/>
+      <c r="A163" s="54"/>
       <c r="B163" s="2" t="s">
         <v>21</v>
       </c>
@@ -11596,7 +16773,7 @@
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="57"/>
+      <c r="A164" s="54"/>
       <c r="B164" s="2" t="s">
         <v>22</v>
       </c>
@@ -11608,7 +16785,7 @@
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="57"/>
+      <c r="A165" s="54"/>
       <c r="B165" s="2" t="s">
         <v>23</v>
       </c>
@@ -11620,7 +16797,7 @@
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="57"/>
+      <c r="A166" s="54"/>
       <c r="B166" s="2" t="s">
         <v>24</v>
       </c>
@@ -11632,7 +16809,7 @@
       <c r="H166" s="4"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="57"/>
+      <c r="A167" s="54"/>
       <c r="B167" s="2" t="s">
         <v>25</v>
       </c>
@@ -11644,7 +16821,7 @@
       <c r="H167" s="4"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="58"/>
+      <c r="A168" s="55"/>
       <c r="B168" s="5" t="s">
         <v>50</v>
       </c>
@@ -11656,7 +16833,7 @@
       <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="56" t="s">
+      <c r="A169" s="53" t="s">
         <v>46</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -11670,7 +16847,7 @@
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="57"/>
+      <c r="A170" s="54"/>
       <c r="B170" s="2" t="s">
         <v>14</v>
       </c>
@@ -11682,7 +16859,7 @@
       <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="57"/>
+      <c r="A171" s="54"/>
       <c r="B171" s="2" t="s">
         <v>15</v>
       </c>
@@ -11694,7 +16871,7 @@
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="57"/>
+      <c r="A172" s="54"/>
       <c r="B172" s="2" t="s">
         <v>16</v>
       </c>
@@ -11706,7 +16883,7 @@
       <c r="H172" s="4"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="57"/>
+      <c r="A173" s="54"/>
       <c r="B173" s="2" t="s">
         <v>2</v>
       </c>
@@ -11718,7 +16895,7 @@
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="57"/>
+      <c r="A174" s="54"/>
       <c r="B174" s="2" t="s">
         <v>17</v>
       </c>
@@ -11730,7 +16907,7 @@
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="57"/>
+      <c r="A175" s="54"/>
       <c r="B175" s="2" t="s">
         <v>18</v>
       </c>
@@ -11742,7 +16919,7 @@
       <c r="H175" s="4"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="57"/>
+      <c r="A176" s="54"/>
       <c r="B176" s="2" t="s">
         <v>19</v>
       </c>
@@ -11754,7 +16931,7 @@
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="57"/>
+      <c r="A177" s="54"/>
       <c r="B177" s="2" t="s">
         <v>20</v>
       </c>
@@ -11766,7 +16943,7 @@
       <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="57"/>
+      <c r="A178" s="54"/>
       <c r="B178" s="2" t="s">
         <v>21</v>
       </c>
@@ -11778,7 +16955,7 @@
       <c r="H178" s="4"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="57"/>
+      <c r="A179" s="54"/>
       <c r="B179" s="2" t="s">
         <v>22</v>
       </c>
@@ -11790,7 +16967,7 @@
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="57"/>
+      <c r="A180" s="54"/>
       <c r="B180" s="2" t="s">
         <v>23</v>
       </c>
@@ -11802,7 +16979,7 @@
       <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="57"/>
+      <c r="A181" s="54"/>
       <c r="B181" s="2" t="s">
         <v>24</v>
       </c>
@@ -11814,7 +16991,7 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="57"/>
+      <c r="A182" s="54"/>
       <c r="B182" s="2" t="s">
         <v>25</v>
       </c>
@@ -11826,7 +17003,7 @@
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="58"/>
+      <c r="A183" s="55"/>
       <c r="B183" s="5" t="s">
         <v>50</v>
       </c>
@@ -11838,7 +17015,7 @@
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="56" t="s">
+      <c r="A184" s="53" t="s">
         <v>51</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -11852,7 +17029,7 @@
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="57"/>
+      <c r="A185" s="54"/>
       <c r="B185" s="2" t="s">
         <v>14</v>
       </c>
@@ -11864,7 +17041,7 @@
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="57"/>
+      <c r="A186" s="54"/>
       <c r="B186" s="2" t="s">
         <v>15</v>
       </c>
@@ -11876,7 +17053,7 @@
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="57"/>
+      <c r="A187" s="54"/>
       <c r="B187" s="2" t="s">
         <v>16</v>
       </c>
@@ -11888,7 +17065,7 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="57"/>
+      <c r="A188" s="54"/>
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -11900,7 +17077,7 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="57"/>
+      <c r="A189" s="54"/>
       <c r="B189" s="2" t="s">
         <v>17</v>
       </c>
@@ -11912,7 +17089,7 @@
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="57"/>
+      <c r="A190" s="54"/>
       <c r="B190" s="2" t="s">
         <v>18</v>
       </c>
@@ -11924,7 +17101,7 @@
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="57"/>
+      <c r="A191" s="54"/>
       <c r="B191" s="2" t="s">
         <v>19</v>
       </c>
@@ -11936,7 +17113,7 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="57"/>
+      <c r="A192" s="54"/>
       <c r="B192" s="2" t="s">
         <v>20</v>
       </c>
@@ -11948,7 +17125,7 @@
       <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="57"/>
+      <c r="A193" s="54"/>
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
@@ -11960,7 +17137,7 @@
       <c r="H193" s="4"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="57"/>
+      <c r="A194" s="54"/>
       <c r="B194" s="2" t="s">
         <v>22</v>
       </c>
@@ -11972,7 +17149,7 @@
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="57"/>
+      <c r="A195" s="54"/>
       <c r="B195" s="2" t="s">
         <v>23</v>
       </c>
@@ -11984,7 +17161,7 @@
       <c r="H195" s="4"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="57"/>
+      <c r="A196" s="54"/>
       <c r="B196" s="2" t="s">
         <v>24</v>
       </c>
@@ -11996,7 +17173,7 @@
       <c r="H196" s="4"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="57"/>
+      <c r="A197" s="54"/>
       <c r="B197" s="2" t="s">
         <v>25</v>
       </c>
@@ -12008,7 +17185,7 @@
       <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="58"/>
+      <c r="A198" s="55"/>
       <c r="B198" s="5" t="s">
         <v>50</v>
       </c>
@@ -12020,7 +17197,7 @@
       <c r="H198" s="4"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="56" t="s">
+      <c r="A199" s="53" t="s">
         <v>52</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -12034,7 +17211,7 @@
       <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="57"/>
+      <c r="A200" s="54"/>
       <c r="B200" s="2" t="s">
         <v>14</v>
       </c>
@@ -12046,7 +17223,7 @@
       <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="57"/>
+      <c r="A201" s="54"/>
       <c r="B201" s="2" t="s">
         <v>15</v>
       </c>
@@ -12058,7 +17235,7 @@
       <c r="H201" s="4"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="57"/>
+      <c r="A202" s="54"/>
       <c r="B202" s="2" t="s">
         <v>16</v>
       </c>
@@ -12070,7 +17247,7 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="57"/>
+      <c r="A203" s="54"/>
       <c r="B203" s="2" t="s">
         <v>2</v>
       </c>
@@ -12082,7 +17259,7 @@
       <c r="H203" s="4"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="57"/>
+      <c r="A204" s="54"/>
       <c r="B204" s="2" t="s">
         <v>17</v>
       </c>
@@ -12094,7 +17271,7 @@
       <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="57"/>
+      <c r="A205" s="54"/>
       <c r="B205" s="2" t="s">
         <v>18</v>
       </c>
@@ -12106,7 +17283,7 @@
       <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="57"/>
+      <c r="A206" s="54"/>
       <c r="B206" s="2" t="s">
         <v>19</v>
       </c>
@@ -12118,7 +17295,7 @@
       <c r="H206" s="4"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="57"/>
+      <c r="A207" s="54"/>
       <c r="B207" s="2" t="s">
         <v>20</v>
       </c>
@@ -12130,7 +17307,7 @@
       <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="57"/>
+      <c r="A208" s="54"/>
       <c r="B208" s="2" t="s">
         <v>21</v>
       </c>
@@ -12142,7 +17319,7 @@
       <c r="H208" s="4"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="57"/>
+      <c r="A209" s="54"/>
       <c r="B209" s="2" t="s">
         <v>22</v>
       </c>
@@ -12154,7 +17331,7 @@
       <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="57"/>
+      <c r="A210" s="54"/>
       <c r="B210" s="2" t="s">
         <v>23</v>
       </c>
@@ -12166,7 +17343,7 @@
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="57"/>
+      <c r="A211" s="54"/>
       <c r="B211" s="2" t="s">
         <v>24</v>
       </c>
@@ -12178,7 +17355,7 @@
       <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="57"/>
+      <c r="A212" s="54"/>
       <c r="B212" s="2" t="s">
         <v>25</v>
       </c>
@@ -12190,7 +17367,7 @@
       <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="58"/>
+      <c r="A213" s="55"/>
       <c r="B213" s="5" t="s">
         <v>50</v>
       </c>
@@ -12203,11 +17380,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -12217,6 +17389,11 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/对比/性能对比.xlsx
+++ b/对比/性能对比.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="601" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -779,7 +779,7 @@
     <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="183" formatCode="0.0000"/>
+    <numFmt numFmtId="181" formatCode="0.0000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1298,96 +1298,6 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,13 +1353,13 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,15 +1381,6 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1491,6 +1392,105 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2531,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD131"/>
   <sheetViews>
-    <sheetView topLeftCell="E36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2881,46 +2881,46 @@
     </row>
     <row r="39" spans="1:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="59" t="s">
+      <c r="B40" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="63"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="98"/>
       <c r="K40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L40" s="64" t="s">
+      <c r="L40" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="65"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="64" t="s">
+      <c r="M40" s="100"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="56" t="s">
+      <c r="P40" s="100"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="S40" s="57"/>
-      <c r="T40" s="58"/>
+      <c r="S40" s="86"/>
+      <c r="T40" s="87"/>
     </row>
     <row r="41" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
+      <c r="A41" s="93"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
       <c r="D41" s="20" t="s">
         <v>7</v>
       </c>
@@ -2942,24 +2942,24 @@
       <c r="K41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L41" s="56">
+      <c r="L41" s="85">
         <v>65</v>
       </c>
-      <c r="M41" s="57"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="56">
+      <c r="M41" s="86"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="85">
         <v>65</v>
       </c>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="56">
+      <c r="P41" s="86"/>
+      <c r="Q41" s="87"/>
+      <c r="R41" s="85">
         <v>45</v>
       </c>
-      <c r="S41" s="57"/>
-      <c r="T41" s="58"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="87"/>
     </row>
     <row r="42" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="91" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2989,26 +2989,26 @@
       <c r="K42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L42" s="56">
+      <c r="L42" s="85">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="57"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="56">
+      <c r="M42" s="86"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="85">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="56">
+      <c r="P42" s="86"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="85">
         <v>1</v>
       </c>
-      <c r="S42" s="57"/>
-      <c r="T42" s="58"/>
+      <c r="S42" s="86"/>
+      <c r="T42" s="87"/>
     </row>
     <row r="43" spans="1:30" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
@@ -3078,7 +3078,7 @@
       </c>
     </row>
     <row r="44" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="2" t="s">
         <v>22</v>
       </c>
@@ -3177,7 +3177,7 @@
       </c>
     </row>
     <row r="45" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="2" t="s">
         <v>21</v>
       </c>
@@ -3276,7 +3276,7 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -3375,7 +3375,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
@@ -3474,7 +3474,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
@@ -3573,7 +3573,7 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
+      <c r="A49" s="92"/>
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
@@ -3672,7 +3672,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
+      <c r="A50" s="92"/>
       <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
@@ -3757,7 +3757,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
@@ -3842,7 +3842,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
@@ -3894,7 +3894,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
+      <c r="A53" s="92"/>
       <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
@@ -3919,7 +3919,7 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
+      <c r="A54" s="92"/>
       <c r="B54" s="2" t="s">
         <v>18</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
+      <c r="A55" s="92"/>
       <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
@@ -3969,7 +3969,7 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="55"/>
+      <c r="A56" s="93"/>
       <c r="B56" s="5" t="s">
         <v>50</v>
       </c>
@@ -3994,7 +3994,7 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="91" t="s">
         <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -4035,7 +4035,7 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
+      <c r="A58" s="92"/>
       <c r="B58" s="2" t="s">
         <v>14</v>
       </c>
@@ -4074,7 +4074,7 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
+      <c r="A59" s="92"/>
       <c r="B59" s="2" t="s">
         <v>22</v>
       </c>
@@ -4113,7 +4113,7 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
+      <c r="A60" s="92"/>
       <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
+      <c r="A61" s="92"/>
       <c r="B61" s="2" t="s">
         <v>19</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
+      <c r="A62" s="92"/>
       <c r="B62" s="2" t="s">
         <v>17</v>
       </c>
@@ -4230,7 +4230,7 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
+      <c r="A63" s="92"/>
       <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
@@ -4269,7 +4269,7 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
+      <c r="A64" s="92"/>
       <c r="B64" s="2" t="s">
         <v>16</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="54"/>
+      <c r="A65" s="92"/>
       <c r="B65" s="2" t="s">
         <v>20</v>
       </c>
@@ -4311,7 +4311,7 @@
       <c r="K65" s="12"/>
     </row>
     <row r="66" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
+      <c r="A66" s="92"/>
       <c r="B66" s="2" t="s">
         <v>23</v>
       </c>
@@ -4325,24 +4325,24 @@
       <c r="K66" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L66" s="56" t="s">
+      <c r="L66" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="M66" s="57"/>
-      <c r="N66" s="58"/>
-      <c r="O66" s="56" t="s">
+      <c r="M66" s="86"/>
+      <c r="N66" s="87"/>
+      <c r="O66" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="58"/>
-      <c r="R66" s="56" t="s">
+      <c r="P66" s="86"/>
+      <c r="Q66" s="87"/>
+      <c r="R66" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="S66" s="57"/>
-      <c r="T66" s="58"/>
+      <c r="S66" s="86"/>
+      <c r="T66" s="87"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
+      <c r="A67" s="92"/>
       <c r="B67" s="2" t="s">
         <v>15</v>
       </c>
@@ -4356,18 +4356,18 @@
       <c r="K67" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L67" s="56"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="56"/>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="58"/>
-      <c r="R67" s="56"/>
-      <c r="S67" s="57"/>
-      <c r="T67" s="58"/>
+      <c r="L67" s="85"/>
+      <c r="M67" s="86"/>
+      <c r="N67" s="87"/>
+      <c r="O67" s="85"/>
+      <c r="P67" s="86"/>
+      <c r="Q67" s="87"/>
+      <c r="R67" s="85"/>
+      <c r="S67" s="86"/>
+      <c r="T67" s="87"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="54"/>
+      <c r="A68" s="92"/>
       <c r="B68" s="2" t="s">
         <v>2</v>
       </c>
@@ -4381,18 +4381,18 @@
       <c r="K68" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L68" s="56"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="58"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="57"/>
-      <c r="Q68" s="58"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="57"/>
-      <c r="T68" s="58"/>
+      <c r="L68" s="85"/>
+      <c r="M68" s="86"/>
+      <c r="N68" s="87"/>
+      <c r="O68" s="85"/>
+      <c r="P68" s="86"/>
+      <c r="Q68" s="87"/>
+      <c r="R68" s="85"/>
+      <c r="S68" s="86"/>
+      <c r="T68" s="87"/>
     </row>
     <row r="69" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
+      <c r="A69" s="92"/>
       <c r="B69" s="2" t="s">
         <v>18</v>
       </c>
@@ -4433,7 +4433,7 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
+      <c r="A70" s="92"/>
       <c r="B70" s="2" t="s">
         <v>25</v>
       </c>
@@ -4458,7 +4458,7 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="55"/>
+      <c r="A71" s="93"/>
       <c r="B71" s="5" t="s">
         <v>50</v>
       </c>
@@ -4483,7 +4483,7 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="88" t="s">
         <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -4524,7 +4524,7 @@
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="51"/>
+      <c r="A73" s="89"/>
       <c r="B73" s="2" t="s">
         <v>14</v>
       </c>
@@ -4563,7 +4563,7 @@
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="51"/>
+      <c r="A74" s="89"/>
       <c r="B74" s="2" t="s">
         <v>22</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="51"/>
+      <c r="A75" s="89"/>
       <c r="B75" s="2" t="s">
         <v>21</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="T75" s="1"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="51"/>
+      <c r="A76" s="89"/>
       <c r="B76" s="2" t="s">
         <v>19</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="T76" s="1"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="51"/>
+      <c r="A77" s="89"/>
       <c r="B77" s="2" t="s">
         <v>17</v>
       </c>
@@ -4719,7 +4719,7 @@
       <c r="T77" s="1"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="51"/>
+      <c r="A78" s="89"/>
       <c r="B78" s="2" t="s">
         <v>24</v>
       </c>
@@ -4758,7 +4758,7 @@
       <c r="T78" s="1"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
+      <c r="A79" s="89"/>
       <c r="B79" s="2" t="s">
         <v>16</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="T79" s="1"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="51"/>
+      <c r="A80" s="89"/>
       <c r="B80" s="2" t="s">
         <v>20</v>
       </c>
@@ -4822,7 +4822,7 @@
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="51"/>
+      <c r="A81" s="89"/>
       <c r="B81" s="2" t="s">
         <v>23</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="T81" s="1"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="51"/>
+      <c r="A82" s="89"/>
       <c r="B82" s="2" t="s">
         <v>15</v>
       </c>
@@ -4872,7 +4872,7 @@
       <c r="T82" s="1"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="51"/>
+      <c r="A83" s="89"/>
       <c r="B83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="T83" s="1"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="51"/>
+      <c r="A84" s="89"/>
       <c r="B84" s="2" t="s">
         <v>18</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="T84" s="1"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="51"/>
+      <c r="A85" s="89"/>
       <c r="B85" s="2" t="s">
         <v>25</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="T85" s="1"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="52"/>
+      <c r="A86" s="90"/>
       <c r="B86" s="5" t="s">
         <v>50</v>
       </c>
@@ -4972,7 +4972,7 @@
       <c r="T86" s="1"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="50" t="s">
+      <c r="A87" s="88" t="s">
         <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -5013,7 +5013,7 @@
       <c r="T87" s="1"/>
     </row>
     <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="51"/>
+      <c r="A88" s="89"/>
       <c r="B88" s="2" t="s">
         <v>14</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="T88" s="1"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="51"/>
+      <c r="A89" s="89"/>
       <c r="B89" s="2" t="s">
         <v>22</v>
       </c>
@@ -5091,7 +5091,7 @@
       <c r="T89" s="1"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="51"/>
+      <c r="A90" s="89"/>
       <c r="B90" s="2" t="s">
         <v>21</v>
       </c>
@@ -5118,7 +5118,7 @@
       </c>
     </row>
     <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="51"/>
+      <c r="A91" s="89"/>
       <c r="B91" s="2" t="s">
         <v>19</v>
       </c>
@@ -5145,7 +5145,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="51"/>
+      <c r="A92" s="89"/>
       <c r="B92" s="2" t="s">
         <v>17</v>
       </c>
@@ -5176,7 +5176,7 @@
       </c>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="51"/>
+      <c r="A93" s="89"/>
       <c r="B93" s="2" t="s">
         <v>24</v>
       </c>
@@ -5207,7 +5207,7 @@
       </c>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="51"/>
+      <c r="A94" s="89"/>
       <c r="B94" s="2" t="s">
         <v>16</v>
       </c>
@@ -5238,7 +5238,7 @@
       </c>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="51"/>
+      <c r="A95" s="89"/>
       <c r="B95" s="2" t="s">
         <v>20</v>
       </c>
@@ -5255,7 +5255,7 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="51"/>
+      <c r="A96" s="89"/>
       <c r="B96" s="2" t="s">
         <v>23</v>
       </c>
@@ -5272,7 +5272,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="51"/>
+      <c r="A97" s="89"/>
       <c r="B97" s="2" t="s">
         <v>15</v>
       </c>
@@ -5289,7 +5289,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="51"/>
+      <c r="A98" s="89"/>
       <c r="B98" s="2" t="s">
         <v>2</v>
       </c>
@@ -5306,7 +5306,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="51"/>
+      <c r="A99" s="89"/>
       <c r="B99" s="2" t="s">
         <v>18</v>
       </c>
@@ -5323,7 +5323,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="51"/>
+      <c r="A100" s="89"/>
       <c r="B100" s="2" t="s">
         <v>25</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="I100" s="4"/>
     </row>
     <row r="101" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="52"/>
+      <c r="A101" s="90"/>
       <c r="B101" s="5" t="s">
         <v>50</v>
       </c>
@@ -5353,7 +5353,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="50" t="s">
+      <c r="A102" s="88" t="s">
         <v>76</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -5368,7 +5368,7 @@
       <c r="I102" s="4"/>
     </row>
     <row r="103" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="51"/>
+      <c r="A103" s="89"/>
       <c r="B103" s="2" t="s">
         <v>14</v>
       </c>
@@ -5381,7 +5381,7 @@
       <c r="I103" s="4"/>
     </row>
     <row r="104" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="51"/>
+      <c r="A104" s="89"/>
       <c r="B104" s="2" t="s">
         <v>22</v>
       </c>
@@ -5408,7 +5408,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="51"/>
+      <c r="A105" s="89"/>
       <c r="B105" s="2" t="s">
         <v>21</v>
       </c>
@@ -5434,7 +5434,7 @@
       </c>
     </row>
     <row r="106" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="51"/>
+      <c r="A106" s="89"/>
       <c r="B106" s="2" t="s">
         <v>19</v>
       </c>
@@ -5460,7 +5460,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="51"/>
+      <c r="A107" s="89"/>
       <c r="B107" s="2" t="s">
         <v>17</v>
       </c>
@@ -5487,7 +5487,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="51"/>
+      <c r="A108" s="89"/>
       <c r="B108" s="2" t="s">
         <v>24</v>
       </c>
@@ -5514,7 +5514,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="51"/>
+      <c r="A109" s="89"/>
       <c r="B109" s="2" t="s">
         <v>16</v>
       </c>
@@ -5541,7 +5541,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="51"/>
+      <c r="A110" s="89"/>
       <c r="B110" s="2" t="s">
         <v>20</v>
       </c>
@@ -5568,7 +5568,7 @@
       </c>
     </row>
     <row r="111" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="51"/>
+      <c r="A111" s="89"/>
       <c r="B111" s="2" t="s">
         <v>23</v>
       </c>
@@ -5594,7 +5594,7 @@
       </c>
     </row>
     <row r="112" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="51"/>
+      <c r="A112" s="89"/>
       <c r="B112" s="2" t="s">
         <v>15</v>
       </c>
@@ -5611,7 +5611,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="51"/>
+      <c r="A113" s="89"/>
       <c r="B113" s="2" t="s">
         <v>2</v>
       </c>
@@ -5624,7 +5624,7 @@
       <c r="I113" s="4"/>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="51"/>
+      <c r="A114" s="89"/>
       <c r="B114" s="2" t="s">
         <v>18</v>
       </c>
@@ -5637,7 +5637,7 @@
       <c r="I114" s="4"/>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="51"/>
+      <c r="A115" s="89"/>
       <c r="B115" s="2" t="s">
         <v>25</v>
       </c>
@@ -5650,7 +5650,7 @@
       <c r="I115" s="4"/>
     </row>
     <row r="116" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="52"/>
+      <c r="A116" s="90"/>
       <c r="B116" s="5" t="s">
         <v>50</v>
       </c>
@@ -5663,7 +5663,7 @@
       <c r="I116" s="4"/>
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="53" t="s">
+      <c r="A117" s="91" t="s">
         <v>77</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -5678,7 +5678,7 @@
       <c r="I117" s="4"/>
     </row>
     <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="54"/>
+      <c r="A118" s="92"/>
       <c r="B118" s="2" t="s">
         <v>14</v>
       </c>
@@ -5691,7 +5691,7 @@
       <c r="I118" s="4"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="54"/>
+      <c r="A119" s="92"/>
       <c r="B119" s="2" t="s">
         <v>22</v>
       </c>
@@ -5704,7 +5704,7 @@
       <c r="I119" s="4"/>
     </row>
     <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="54"/>
+      <c r="A120" s="92"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -5717,7 +5717,7 @@
       <c r="I120" s="4"/>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="54"/>
+      <c r="A121" s="92"/>
       <c r="B121" s="2" t="s">
         <v>19</v>
       </c>
@@ -5730,7 +5730,7 @@
       <c r="I121" s="4"/>
     </row>
     <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="54"/>
+      <c r="A122" s="92"/>
       <c r="B122" s="2" t="s">
         <v>17</v>
       </c>
@@ -5743,7 +5743,7 @@
       <c r="I122" s="4"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="54"/>
+      <c r="A123" s="92"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -5756,7 +5756,7 @@
       <c r="I123" s="4"/>
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="54"/>
+      <c r="A124" s="92"/>
       <c r="B124" s="2" t="s">
         <v>16</v>
       </c>
@@ -5769,7 +5769,7 @@
       <c r="I124" s="4"/>
     </row>
     <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="54"/>
+      <c r="A125" s="92"/>
       <c r="B125" s="2" t="s">
         <v>20</v>
       </c>
@@ -5782,7 +5782,7 @@
       <c r="I125" s="4"/>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="54"/>
+      <c r="A126" s="92"/>
       <c r="B126" s="2" t="s">
         <v>23</v>
       </c>
@@ -5795,7 +5795,7 @@
       <c r="I126" s="4"/>
     </row>
     <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="54"/>
+      <c r="A127" s="92"/>
       <c r="B127" s="2" t="s">
         <v>15</v>
       </c>
@@ -5808,7 +5808,7 @@
       <c r="I127" s="4"/>
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="54"/>
+      <c r="A128" s="92"/>
       <c r="B128" s="2" t="s">
         <v>2</v>
       </c>
@@ -5821,7 +5821,7 @@
       <c r="I128" s="4"/>
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="54"/>
+      <c r="A129" s="92"/>
       <c r="B129" s="2" t="s">
         <v>18</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="I129" s="4"/>
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="54"/>
+      <c r="A130" s="92"/>
       <c r="B130" s="2" t="s">
         <v>25</v>
       </c>
@@ -5847,7 +5847,7 @@
       <c r="I130" s="4"/>
     </row>
     <row r="131" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="55"/>
+      <c r="A131" s="93"/>
       <c r="B131" s="5" t="s">
         <v>50</v>
       </c>
@@ -5861,6 +5861,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A102:A116"/>
+    <mergeCell ref="A117:A131"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A57:A71"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="A72:A86"/>
     <mergeCell ref="A87:A101"/>
@@ -5877,18 +5889,6 @@
     <mergeCell ref="L67:N67"/>
     <mergeCell ref="O67:Q67"/>
     <mergeCell ref="R67:T67"/>
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="A117:A131"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A71"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5924,51 +5924,51 @@
       <c r="A1" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="73" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="71" t="s">
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="68" t="s">
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="70"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="105"/>
     </row>
     <row r="2" spans="1:39" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="29"/>
@@ -8447,51 +8447,51 @@
       <c r="A39" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="102" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="73" t="s">
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
-      <c r="T39" s="71" t="s">
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109"/>
+      <c r="O39" s="109"/>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="109"/>
+      <c r="R39" s="109"/>
+      <c r="S39" s="109"/>
+      <c r="T39" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="U39" s="71"/>
-      <c r="V39" s="71"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="71"/>
-      <c r="Y39" s="71"/>
-      <c r="Z39" s="71"/>
-      <c r="AA39" s="71"/>
-      <c r="AB39" s="71"/>
-      <c r="AC39" s="72"/>
-      <c r="AD39" s="68" t="s">
+      <c r="U39" s="106"/>
+      <c r="V39" s="106"/>
+      <c r="W39" s="106"/>
+      <c r="X39" s="106"/>
+      <c r="Y39" s="106"/>
+      <c r="Z39" s="106"/>
+      <c r="AA39" s="106"/>
+      <c r="AB39" s="106"/>
+      <c r="AC39" s="107"/>
+      <c r="AD39" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="AE39" s="69"/>
-      <c r="AF39" s="69"/>
-      <c r="AG39" s="69"/>
-      <c r="AH39" s="69"/>
-      <c r="AI39" s="69"/>
-      <c r="AJ39" s="69"/>
-      <c r="AK39" s="69"/>
-      <c r="AL39" s="70"/>
+      <c r="AE39" s="104"/>
+      <c r="AF39" s="104"/>
+      <c r="AG39" s="104"/>
+      <c r="AH39" s="104"/>
+      <c r="AI39" s="104"/>
+      <c r="AJ39" s="104"/>
+      <c r="AK39" s="104"/>
+      <c r="AL39" s="105"/>
     </row>
     <row r="40" spans="1:38" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A40" s="29"/>
@@ -9556,51 +9556,51 @@
       <c r="A58" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="102" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="73" t="s">
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="74"/>
-      <c r="L58" s="74"/>
-      <c r="M58" s="74"/>
-      <c r="N58" s="74"/>
-      <c r="O58" s="74"/>
-      <c r="P58" s="74"/>
-      <c r="Q58" s="74"/>
-      <c r="R58" s="74"/>
-      <c r="S58" s="74"/>
-      <c r="T58" s="71" t="s">
+      <c r="I58" s="109"/>
+      <c r="J58" s="109"/>
+      <c r="K58" s="109"/>
+      <c r="L58" s="109"/>
+      <c r="M58" s="109"/>
+      <c r="N58" s="109"/>
+      <c r="O58" s="109"/>
+      <c r="P58" s="109"/>
+      <c r="Q58" s="109"/>
+      <c r="R58" s="109"/>
+      <c r="S58" s="109"/>
+      <c r="T58" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="U58" s="71"/>
-      <c r="V58" s="71"/>
-      <c r="W58" s="71"/>
-      <c r="X58" s="71"/>
-      <c r="Y58" s="71"/>
-      <c r="Z58" s="71"/>
-      <c r="AA58" s="71"/>
-      <c r="AB58" s="71"/>
-      <c r="AC58" s="72"/>
-      <c r="AD58" s="68" t="s">
+      <c r="U58" s="106"/>
+      <c r="V58" s="106"/>
+      <c r="W58" s="106"/>
+      <c r="X58" s="106"/>
+      <c r="Y58" s="106"/>
+      <c r="Z58" s="106"/>
+      <c r="AA58" s="106"/>
+      <c r="AB58" s="106"/>
+      <c r="AC58" s="107"/>
+      <c r="AD58" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="AE58" s="69"/>
-      <c r="AF58" s="69"/>
-      <c r="AG58" s="69"/>
-      <c r="AH58" s="69"/>
-      <c r="AI58" s="69"/>
-      <c r="AJ58" s="69"/>
-      <c r="AK58" s="69"/>
-      <c r="AL58" s="70"/>
+      <c r="AE58" s="104"/>
+      <c r="AF58" s="104"/>
+      <c r="AG58" s="104"/>
+      <c r="AH58" s="104"/>
+      <c r="AI58" s="104"/>
+      <c r="AJ58" s="104"/>
+      <c r="AK58" s="104"/>
+      <c r="AL58" s="105"/>
     </row>
     <row r="59" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
@@ -10695,1662 +10695,1662 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="str">
+      <c r="A1" s="50" t="str">
         <f>[1]映射分析!A2</f>
         <v>本文</v>
       </c>
-      <c r="B1" s="80" t="str">
+      <c r="B1" s="50" t="str">
         <f>[1]算法分析!B1</f>
         <v>AU</v>
       </c>
-      <c r="C1" s="80" t="str">
+      <c r="C1" s="50" t="str">
         <f>[1]算法分析!C1</f>
         <v>SH</v>
       </c>
-      <c r="D1" s="80" t="str">
+      <c r="D1" s="50" t="str">
         <f>[1]算法分析!D1</f>
         <v>PER</v>
       </c>
-      <c r="E1" s="80" t="str">
+      <c r="E1" s="50" t="str">
         <f>[1]算法分析!E1</f>
         <v>LOU</v>
       </c>
-      <c r="F1" s="80" t="str">
+      <c r="F1" s="50" t="str">
         <f>[1]算法分析!F1</f>
         <v>4*LUT256*8</v>
       </c>
-      <c r="G1" s="80" t="str">
+      <c r="G1" s="50" t="str">
         <f>[1]算法分析!G1</f>
         <v>GFM</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="81" t="str">
-        <f>B1</f>
+      <c r="I1" s="51" t="str">
+        <f t="shared" ref="I1:N1" si="0">B1</f>
         <v>AU</v>
       </c>
-      <c r="J1" s="81" t="str">
-        <f>C1</f>
+      <c r="J1" s="51" t="str">
+        <f t="shared" si="0"/>
         <v>SH</v>
       </c>
-      <c r="K1" s="81" t="str">
-        <f>D1</f>
+      <c r="K1" s="51" t="str">
+        <f t="shared" si="0"/>
         <v>PER</v>
       </c>
-      <c r="L1" s="81" t="str">
-        <f>E1</f>
+      <c r="L1" s="51" t="str">
+        <f t="shared" si="0"/>
         <v>LOU</v>
       </c>
-      <c r="M1" s="81" t="str">
-        <f>F1</f>
+      <c r="M1" s="51" t="str">
+        <f t="shared" si="0"/>
         <v>4*LUT256*8</v>
       </c>
-      <c r="N1" s="81" t="str">
-        <f>G1</f>
+      <c r="N1" s="51" t="str">
+        <f t="shared" si="0"/>
         <v>GFM</v>
       </c>
-      <c r="O1" s="81"/>
+      <c r="O1" s="51"/>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="str">
+      <c r="A2" s="52" t="str">
         <f>[1]算法分析!A$2</f>
         <v>AES</v>
       </c>
-      <c r="B2" s="83">
+      <c r="B2" s="53">
         <f>SUMPRODUCT([1]架构比较!C$2:C$6,[1]映射分析!$C$2:$C$6)</f>
         <v>12</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="53">
         <f>SUMPRODUCT([1]架构比较!D$2:D$6,[1]映射分析!$C$2:$C$6)</f>
         <v>12</v>
       </c>
-      <c r="D2" s="83">
+      <c r="D2" s="53">
         <f>SUMPRODUCT([1]架构比较!E$2:E$6,[1]映射分析!$C$2:$C$6)</f>
         <v>4</v>
       </c>
-      <c r="E2" s="83">
+      <c r="E2" s="53">
         <f>SUMPRODUCT([1]架构比较!F$2:F$6,[1]映射分析!$C$2:$C$6)</f>
         <v>12</v>
       </c>
-      <c r="F2" s="83">
+      <c r="F2" s="53">
         <f>SUMPRODUCT([1]架构比较!G$2:G$6,[1]映射分析!$C$2:$C$6)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="83">
+      <c r="G2" s="53">
         <f>SUMPRODUCT([1]架构比较!H$2:H$6,[1]映射分析!$C$2:$C$6)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="84">
+      <c r="H2" s="54">
         <f>[1]映射分析!C$7</f>
         <v>3</v>
       </c>
-      <c r="I2" s="85">
+      <c r="I2" s="55">
         <f>IF([1]资源数比较!B2&lt;&gt;0,[1]算法分析!B2/[1]资源数比较!B2,"")</f>
         <v>0</v>
       </c>
-      <c r="J2" s="85">
+      <c r="J2" s="55">
         <f>IF([1]资源数比较!C2&lt;&gt;0,[1]算法分析!C2/[1]资源数比较!C2,"")</f>
         <v>0</v>
       </c>
-      <c r="K2" s="85">
+      <c r="K2" s="55">
         <f>IF([1]资源数比较!D2&lt;&gt;0,[1]算法分析!D2/[1]资源数比较!D2,"")</f>
         <v>0</v>
       </c>
-      <c r="L2" s="85">
+      <c r="L2" s="55">
         <f>IF([1]资源数比较!E2&lt;&gt;0,[1]算法分析!E2/[1]资源数比较!E2,"")</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M2" s="85">
+      <c r="M2" s="55">
         <f>IF([1]资源数比较!F2&lt;&gt;0,[1]算法分析!F2/[1]资源数比较!F2,"")</f>
         <v>1</v>
       </c>
-      <c r="N2" s="85">
+      <c r="N2" s="55">
         <f>IF([1]资源数比较!G2&lt;&gt;0,[1]算法分析!G2/[1]资源数比较!G2,"")</f>
         <v>1</v>
       </c>
-      <c r="O2" s="85"/>
+      <c r="O2" s="55"/>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="str">
+      <c r="A3" s="52" t="str">
         <f>[1]算法分析!A$3</f>
         <v>DES</v>
       </c>
-      <c r="B3" s="83">
+      <c r="B3" s="53">
         <f>SUMPRODUCT([1]架构比较!C$2:C$6,[1]映射分析!$D$2:$D$6)</f>
         <v>12</v>
       </c>
-      <c r="C3" s="83">
+      <c r="C3" s="53">
         <f>SUMPRODUCT([1]架构比较!D$2:D$6,[1]映射分析!$D$2:$D$6)</f>
         <v>12</v>
       </c>
-      <c r="D3" s="83">
+      <c r="D3" s="53">
         <f>SUMPRODUCT([1]架构比较!E$2:E$6,[1]映射分析!$D$2:$D$6)</f>
         <v>4</v>
       </c>
-      <c r="E3" s="83">
+      <c r="E3" s="53">
         <f>SUMPRODUCT([1]架构比较!F$2:F$6,[1]映射分析!$D$2:$D$6)</f>
         <v>12</v>
       </c>
-      <c r="F3" s="83">
+      <c r="F3" s="53">
         <f>SUMPRODUCT([1]架构比较!G$2:G$6,[1]映射分析!$D$2:$D$6)</f>
         <v>4</v>
       </c>
-      <c r="G3" s="83">
+      <c r="G3" s="53">
         <f>SUMPRODUCT([1]架构比较!H$2:H$6,[1]映射分析!$D$2:$D$6)</f>
         <v>4</v>
       </c>
-      <c r="H3" s="84">
+      <c r="H3" s="54">
         <f>[1]映射分析!D$7</f>
         <v>3</v>
       </c>
-      <c r="I3" s="85">
+      <c r="I3" s="55">
         <f>IF([1]资源数比较!B3&lt;&gt;0,[1]算法分析!B3/[1]资源数比较!B3,"")</f>
         <v>0</v>
       </c>
-      <c r="J3" s="85">
+      <c r="J3" s="55">
         <f>IF([1]资源数比较!C3&lt;&gt;0,[1]算法分析!C3/[1]资源数比较!C3,"")</f>
         <v>0</v>
       </c>
-      <c r="K3" s="85">
+      <c r="K3" s="55">
         <f>IF([1]资源数比较!D3&lt;&gt;0,[1]算法分析!D3/[1]资源数比较!D3,"")</f>
         <v>0.5</v>
       </c>
-      <c r="L3" s="85">
+      <c r="L3" s="55">
         <f>IF([1]资源数比较!E3&lt;&gt;0,[1]算法分析!E3/[1]资源数比较!E3,"")</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="M3" s="85">
+      <c r="M3" s="55">
         <f>IF([1]资源数比较!F3&lt;&gt;0,[1]算法分析!F3/[1]资源数比较!F3,"")</f>
         <v>0.5</v>
       </c>
-      <c r="N3" s="85">
+      <c r="N3" s="55">
         <f>IF([1]资源数比较!G3&lt;&gt;0,[1]算法分析!G3/[1]资源数比较!G3,"")</f>
         <v>0</v>
       </c>
-      <c r="O3" s="85"/>
+      <c r="O3" s="55"/>
     </row>
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="str">
+      <c r="A4" s="52" t="str">
         <f>[1]算法分析!A$4</f>
         <v>SM4</v>
       </c>
-      <c r="B4" s="83">
+      <c r="B4" s="53">
         <f>SUMPRODUCT([1]架构比较!C$2:C$6,[1]映射分析!$E$2:$E$6)</f>
         <v>12</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="53">
         <f>SUMPRODUCT([1]架构比较!D$2:D$6,[1]映射分析!$E$2:$E$6)</f>
         <v>12</v>
       </c>
-      <c r="D4" s="83">
+      <c r="D4" s="53">
         <f>SUMPRODUCT([1]架构比较!E$2:E$6,[1]映射分析!$E$2:$E$6)</f>
         <v>4</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="53">
         <f>SUMPRODUCT([1]架构比较!F$2:F$6,[1]映射分析!$E$2:$E$6)</f>
         <v>12</v>
       </c>
-      <c r="F4" s="83">
+      <c r="F4" s="53">
         <f>SUMPRODUCT([1]架构比较!G$2:G$6,[1]映射分析!$E$2:$E$6)</f>
         <v>4</v>
       </c>
-      <c r="G4" s="83">
+      <c r="G4" s="53">
         <f>SUMPRODUCT([1]架构比较!H$2:H$6,[1]映射分析!$E$2:$E$6)</f>
         <v>4</v>
       </c>
-      <c r="H4" s="84">
+      <c r="H4" s="54">
         <f>[1]映射分析!E$7</f>
         <v>3</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="55">
         <f>IF([1]资源数比较!B4&lt;&gt;0,[1]算法分析!B4/[1]资源数比较!B4,"")</f>
         <v>0</v>
       </c>
-      <c r="J4" s="85">
+      <c r="J4" s="55">
         <f>IF([1]资源数比较!C4&lt;&gt;0,[1]算法分析!C4/[1]资源数比较!C4,"")</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="55">
         <f>IF([1]资源数比较!D4&lt;&gt;0,[1]算法分析!D4/[1]资源数比较!D4,"")</f>
         <v>0</v>
       </c>
-      <c r="L4" s="85">
+      <c r="L4" s="55">
         <f>IF([1]资源数比较!E4&lt;&gt;0,[1]算法分析!E4/[1]资源数比较!E4,"")</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M4" s="85">
+      <c r="M4" s="55">
         <f>IF([1]资源数比较!F4&lt;&gt;0,[1]算法分析!F4/[1]资源数比较!F4,"")</f>
         <v>0.25</v>
       </c>
-      <c r="N4" s="85">
+      <c r="N4" s="55">
         <f>IF([1]资源数比较!G4&lt;&gt;0,[1]算法分析!G4/[1]资源数比较!G4,"")</f>
         <v>0</v>
       </c>
-      <c r="O4" s="85"/>
+      <c r="O4" s="55"/>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="str">
+      <c r="A5" s="52" t="str">
         <f>[1]算法分析!A$5</f>
         <v>TWOFISH</v>
       </c>
-      <c r="B5" s="83">
+      <c r="B5" s="53">
         <f>SUMPRODUCT([1]架构比较!C$2:C$6,[1]映射分析!$F$2:$F$6)</f>
         <v>24</v>
       </c>
-      <c r="C5" s="83">
+      <c r="C5" s="53">
         <f>SUMPRODUCT([1]架构比较!D$2:D$6,[1]映射分析!$F$2:$F$6)</f>
         <v>24</v>
       </c>
-      <c r="D5" s="83">
+      <c r="D5" s="53">
         <f>SUMPRODUCT([1]架构比较!E$2:E$6,[1]映射分析!$F$2:$F$6)</f>
         <v>8</v>
       </c>
-      <c r="E5" s="83">
+      <c r="E5" s="53">
         <f>SUMPRODUCT([1]架构比较!F$2:F$6,[1]映射分析!$F$2:$F$6)</f>
         <v>24</v>
       </c>
-      <c r="F5" s="83">
+      <c r="F5" s="53">
         <f>SUMPRODUCT([1]架构比较!G$2:G$6,[1]映射分析!$F$2:$F$6)</f>
         <v>8</v>
       </c>
-      <c r="G5" s="83">
+      <c r="G5" s="53">
         <f>SUMPRODUCT([1]架构比较!H$2:H$6,[1]映射分析!$F$2:$F$6)</f>
         <v>8</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="54">
         <f>[1]映射分析!F$7</f>
         <v>6</v>
       </c>
-      <c r="I5" s="85">
+      <c r="I5" s="55">
         <f>IF([1]资源数比较!B5&lt;&gt;0,[1]算法分析!B5/[1]资源数比较!B5,"")</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="J5" s="85">
+      <c r="J5" s="55">
         <f>IF([1]资源数比较!C5&lt;&gt;0,[1]算法分析!C5/[1]资源数比较!C5,"")</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K5" s="85">
+      <c r="K5" s="55">
         <f>IF([1]资源数比较!D5&lt;&gt;0,[1]算法分析!D5/[1]资源数比较!D5,"")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="85">
+      <c r="L5" s="55">
         <f>IF([1]资源数比较!E5&lt;&gt;0,[1]算法分析!E5/[1]资源数比较!E5,"")</f>
         <v>0.25</v>
       </c>
-      <c r="M5" s="85">
+      <c r="M5" s="55">
         <f>IF([1]资源数比较!F5&lt;&gt;0,[1]算法分析!F5/[1]资源数比较!F5,"")</f>
         <v>0.25</v>
       </c>
-      <c r="N5" s="85">
+      <c r="N5" s="55">
         <f>IF([1]资源数比较!G5&lt;&gt;0,[1]算法分析!G5/[1]资源数比较!G5,"")</f>
         <v>0.25</v>
       </c>
-      <c r="O5" s="85"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="str">
+      <c r="A6" s="52" t="str">
         <f>[1]算法分析!A$6</f>
         <v>RC5</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="53">
         <f>SUMPRODUCT([1]架构比较!C$2:C$6,[1]映射分析!$G$2:$G$6)</f>
         <v>15.999999999999998</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="53">
         <f>SUMPRODUCT([1]架构比较!D$2:D$6,[1]映射分析!$G$2:$G$6)</f>
         <v>15.999999999999998</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="56">
         <f>SUMPRODUCT([1]架构比较!E$2:E$6,[1]映射分析!$G$2:$G$6)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="53">
         <f>SUMPRODUCT([1]架构比较!F$2:F$6,[1]映射分析!$G$2:$G$6)</f>
         <v>15.999999999999998</v>
       </c>
-      <c r="F6" s="86">
+      <c r="F6" s="56">
         <f>SUMPRODUCT([1]架构比较!G$2:G$6,[1]映射分析!$G$2:$G$6)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="56">
         <f>SUMPRODUCT([1]架构比较!H$2:H$6,[1]映射分析!$G$2:$G$6)</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="H6" s="84">
+      <c r="H6" s="54">
         <f>[1]映射分析!G$7</f>
         <v>4</v>
       </c>
-      <c r="I6" s="85">
+      <c r="I6" s="55">
         <f>IF([1]资源数比较!B6&lt;&gt;0,[1]算法分析!B6/[1]资源数比较!B6,"")</f>
         <v>0.125</v>
       </c>
-      <c r="J6" s="85">
+      <c r="J6" s="55">
         <f>IF([1]资源数比较!C6&lt;&gt;0,[1]算法分析!C6/[1]资源数比较!C6,"")</f>
         <v>0.125</v>
       </c>
-      <c r="K6" s="85">
+      <c r="K6" s="55">
         <f>IF([1]资源数比较!D6&lt;&gt;0,[1]算法分析!D6/[1]资源数比较!D6,"")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="85">
+      <c r="L6" s="55">
         <f>IF([1]资源数比较!E6&lt;&gt;0,[1]算法分析!E6/[1]资源数比较!E6,"")</f>
         <v>0.125</v>
       </c>
-      <c r="M6" s="85">
+      <c r="M6" s="55">
         <f>IF([1]资源数比较!F6&lt;&gt;0,[1]算法分析!F6/[1]资源数比较!F6,"")</f>
         <v>0</v>
       </c>
-      <c r="N6" s="85">
+      <c r="N6" s="55">
         <f>IF([1]资源数比较!G6&lt;&gt;0,[1]算法分析!G6/[1]资源数比较!G6,"")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="85"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="str">
+      <c r="A7" s="52" t="str">
         <f>[1]算法分析!A$7</f>
         <v>BLOWFISH</v>
       </c>
-      <c r="B7" s="83">
+      <c r="B7" s="53">
         <f>SUMPRODUCT([1]架构比较!C$2:C$6,[1]映射分析!$H$2:$H$6)</f>
         <v>12</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="53">
         <f>SUMPRODUCT([1]架构比较!D$2:D$6,[1]映射分析!$H$2:$H$6)</f>
         <v>12</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="53">
         <f>SUMPRODUCT([1]架构比较!E$2:E$6,[1]映射分析!$H$2:$H$6)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="83">
+      <c r="E7" s="53">
         <f>SUMPRODUCT([1]架构比较!F$2:F$6,[1]映射分析!$H$2:$H$6)</f>
         <v>12</v>
       </c>
-      <c r="F7" s="83">
+      <c r="F7" s="53">
         <f>SUMPRODUCT([1]架构比较!G$2:G$6,[1]映射分析!$H$2:$H$6)</f>
         <v>4</v>
       </c>
-      <c r="G7" s="83">
+      <c r="G7" s="53">
         <f>SUMPRODUCT([1]架构比较!H$2:H$6,[1]映射分析!$H$2:$H$6)</f>
         <v>4</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="54">
         <f>[1]映射分析!H$7</f>
         <v>3</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="55">
         <f>IF([1]资源数比较!B7&lt;&gt;0,[1]算法分析!B7/[1]资源数比较!B7,"")</f>
         <v>0.25</v>
       </c>
-      <c r="J7" s="85">
+      <c r="J7" s="55">
         <f>IF([1]资源数比较!C7&lt;&gt;0,[1]算法分析!C7/[1]资源数比较!C7,"")</f>
         <v>0</v>
       </c>
-      <c r="K7" s="85">
+      <c r="K7" s="55">
         <f>IF([1]资源数比较!D7&lt;&gt;0,[1]算法分析!D7/[1]资源数比较!D7,"")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="85">
+      <c r="L7" s="55">
         <f>IF([1]资源数比较!E7&lt;&gt;0,[1]算法分析!E7/[1]资源数比较!E7,"")</f>
         <v>0.25</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="55">
         <f>IF([1]资源数比较!F7&lt;&gt;0,[1]算法分析!F7/[1]资源数比较!F7,"")</f>
         <v>0.25</v>
       </c>
-      <c r="N7" s="85">
+      <c r="N7" s="55">
         <f>IF([1]资源数比较!G7&lt;&gt;0,[1]算法分析!G7/[1]资源数比较!G7,"")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="85"/>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
     </row>
     <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="str">
+      <c r="A9" s="52" t="str">
         <f>[1]映射分析!A8</f>
         <v>TH</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="80" t="str">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="50" t="str">
         <f>[1]资源数比较!B1</f>
         <v>AU</v>
       </c>
-      <c r="J9" s="80" t="str">
+      <c r="J9" s="50" t="str">
         <f>[1]资源数比较!C1</f>
         <v>SH</v>
       </c>
-      <c r="K9" s="80" t="str">
+      <c r="K9" s="50" t="str">
         <f>[1]资源数比较!D1</f>
         <v>PER</v>
       </c>
-      <c r="L9" s="80" t="str">
+      <c r="L9" s="50" t="str">
         <f>[1]资源数比较!E1</f>
         <v>LOU</v>
       </c>
-      <c r="M9" s="80" t="str">
+      <c r="M9" s="50" t="str">
         <f>[1]资源数比较!F1</f>
         <v>4*LUT256*8</v>
       </c>
-      <c r="N9" s="80" t="str">
+      <c r="N9" s="50" t="str">
         <f>[1]资源数比较!G1</f>
         <v>GFM</v>
       </c>
-      <c r="O9" s="80" t="str">
+      <c r="O9" s="50" t="str">
         <f>[1]资源数比较!J1</f>
         <v>CR</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="str">
+      <c r="A10" s="52" t="str">
         <f>[1]算法分析!A$2</f>
         <v>AES</v>
       </c>
-      <c r="B10" s="89">
+      <c r="B10" s="59">
         <f>SUMPRODUCT([1]架构比较!C$8:C$9,[1]映射分析!$C$8:$C$9)</f>
         <v>8</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="59">
         <f>SUMPRODUCT([1]架构比较!D$8:D$9,[1]映射分析!$C$8:$C$9)</f>
         <v>8</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="59">
         <f>SUMPRODUCT([1]架构比较!E$8:E$9,[1]映射分析!$C$8:$C$9)</f>
         <v>4</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="59">
         <f>SUMPRODUCT([1]架构比较!F$8:F$9,[1]映射分析!$C$8:$C$9)</f>
         <v>48</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="59">
         <f>SUMPRODUCT([1]架构比较!G$8:G$9,[1]映射分析!$C$8:$C$9)</f>
         <v>16</v>
       </c>
-      <c r="G10" s="89">
+      <c r="G10" s="59">
         <f>SUMPRODUCT([1]架构比较!H$8:H$9,[1]映射分析!$C$8:$C$9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="59">
         <f>[1]映射分析!C$10</f>
         <v>2</v>
       </c>
-      <c r="I10" s="90">
+      <c r="I10" s="60">
         <f>B10/B2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J10" s="90">
-        <f t="shared" ref="J10:O10" si="0">C10/C2</f>
+      <c r="J10" s="60">
+        <f t="shared" ref="J10:O10" si="1">C10/C2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K10" s="90">
-        <f t="shared" si="0"/>
+      <c r="K10" s="60">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L10" s="90">
-        <f t="shared" si="0"/>
+      <c r="L10" s="60">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M10" s="90">
-        <f t="shared" si="0"/>
+      <c r="M10" s="60">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="N10" s="90">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="90">
-        <f t="shared" si="0"/>
+      <c r="N10" s="60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="60">
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="str">
+      <c r="A11" s="52" t="str">
         <f>[1]算法分析!A$3</f>
         <v>DES</v>
       </c>
-      <c r="B11" s="89">
+      <c r="B11" s="59">
         <f>SUMPRODUCT([1]架构比较!C$8:C$9,[1]映射分析!$D$8:$D$9)</f>
         <v>16</v>
       </c>
-      <c r="C11" s="89">
+      <c r="C11" s="59">
         <f>SUMPRODUCT([1]架构比较!D$8:D$9,[1]映射分析!$D$8:$D$9)</f>
         <v>16</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="59">
         <f>SUMPRODUCT([1]架构比较!E$8:E$9,[1]映射分析!$D$8:$D$9)</f>
         <v>8</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="59">
         <f>SUMPRODUCT([1]架构比较!F$8:F$9,[1]映射分析!$D$8:$D$9)</f>
         <v>96</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="59">
         <f>SUMPRODUCT([1]架构比较!G$8:G$9,[1]映射分析!$D$8:$D$9)</f>
         <v>32</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="59">
         <f>SUMPRODUCT([1]架构比较!H$8:H$9,[1]映射分析!$D$8:$D$9)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="59">
         <f>[1]映射分析!D$10</f>
         <v>4</v>
       </c>
-      <c r="I11" s="90">
-        <f t="shared" ref="I11:I15" si="1">B11/B3</f>
+      <c r="I11" s="60">
+        <f t="shared" ref="I11:I15" si="2">B11/B3</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="J11" s="90">
-        <f t="shared" ref="J11:J15" si="2">C11/C3</f>
+      <c r="J11" s="60">
+        <f t="shared" ref="J11:J15" si="3">C11/C3</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K11" s="90">
-        <f t="shared" ref="K11:K15" si="3">D11/D3</f>
+      <c r="K11" s="60">
+        <f t="shared" ref="K11:K15" si="4">D11/D3</f>
         <v>2</v>
       </c>
-      <c r="L11" s="90">
-        <f t="shared" ref="L11:L15" si="4">E11/E3</f>
+      <c r="L11" s="60">
+        <f t="shared" ref="L11:L15" si="5">E11/E3</f>
         <v>8</v>
       </c>
-      <c r="M11" s="90">
-        <f t="shared" ref="M11:M15" si="5">F11/F3</f>
+      <c r="M11" s="60">
+        <f t="shared" ref="M11:M15" si="6">F11/F3</f>
         <v>8</v>
       </c>
-      <c r="N11" s="90">
-        <f t="shared" ref="N11:N15" si="6">G11/G3</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="90">
-        <f t="shared" ref="O11:O15" si="7">H11/H3</f>
+      <c r="N11" s="60">
+        <f t="shared" ref="N11:N15" si="7">G11/G3</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="60">
+        <f t="shared" ref="O11:O15" si="8">H11/H3</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="str">
+      <c r="A12" s="52" t="str">
         <f>[1]算法分析!A$4</f>
         <v>SM4</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="59">
         <f>SUMPRODUCT([1]架构比较!C$8:C$9,[1]映射分析!$E$8:$E$9)</f>
         <v>16</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12" s="59">
         <f>SUMPRODUCT([1]架构比较!D$8:D$9,[1]映射分析!$E$8:$E$9)</f>
         <v>16</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="59">
         <f>SUMPRODUCT([1]架构比较!E$8:E$9,[1]映射分析!$E$8:$E$9)</f>
         <v>8</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="59">
         <f>SUMPRODUCT([1]架构比较!F$8:F$9,[1]映射分析!$E$8:$E$9)</f>
         <v>96</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="59">
         <f>SUMPRODUCT([1]架构比较!G$8:G$9,[1]映射分析!$E$8:$E$9)</f>
         <v>32</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="59">
         <f>SUMPRODUCT([1]架构比较!H$8:H$9,[1]映射分析!$E$8:$E$9)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="59">
         <f>[1]映射分析!E$10</f>
         <v>4</v>
       </c>
-      <c r="I12" s="90">
-        <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="J12" s="90">
+      <c r="I12" s="60">
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K12" s="90">
+      <c r="J12" s="60">
         <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K12" s="60">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="L12" s="90">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="M12" s="90">
+      <c r="L12" s="60">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N12" s="90">
+      <c r="M12" s="60">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="90">
+        <v>8</v>
+      </c>
+      <c r="N12" s="60">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="60">
+        <f t="shared" si="8"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="str">
+      <c r="A13" s="52" t="str">
         <f>[1]算法分析!A$5</f>
         <v>TWOFISH</v>
       </c>
-      <c r="B13" s="89">
+      <c r="B13" s="59">
         <f>SUMPRODUCT([1]架构比较!C$8:C$9,[1]映射分析!$F$8:$F$9)</f>
         <v>24</v>
       </c>
-      <c r="C13" s="89">
+      <c r="C13" s="59">
         <f>SUMPRODUCT([1]架构比较!D$8:D$9,[1]映射分析!$F$8:$F$9)</f>
         <v>24</v>
       </c>
-      <c r="D13" s="89">
+      <c r="D13" s="59">
         <f>SUMPRODUCT([1]架构比较!E$8:E$9,[1]映射分析!$F$8:$F$9)</f>
         <v>12</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="59">
         <f>SUMPRODUCT([1]架构比较!F$8:F$9,[1]映射分析!$F$8:$F$9)</f>
         <v>144</v>
       </c>
-      <c r="F13" s="89">
+      <c r="F13" s="59">
         <f>SUMPRODUCT([1]架构比较!G$8:G$9,[1]映射分析!$F$8:$F$9)</f>
         <v>48</v>
       </c>
-      <c r="G13" s="89">
+      <c r="G13" s="59">
         <f>SUMPRODUCT([1]架构比较!H$8:H$9,[1]映射分析!$F$8:$F$9)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="89">
+      <c r="H13" s="59">
         <f>[1]映射分析!F$10</f>
         <v>6</v>
       </c>
-      <c r="I13" s="90">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="90">
+      <c r="I13" s="60">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K13" s="90">
+      <c r="J13" s="60">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="60">
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="L13" s="90">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="M13" s="90">
+      <c r="L13" s="60">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="N13" s="90">
+      <c r="M13" s="60">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="90">
+        <v>6</v>
+      </c>
+      <c r="N13" s="60">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="60">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="str">
+      <c r="A14" s="52" t="str">
         <f>[1]算法分析!A$6</f>
         <v>RC5</v>
       </c>
-      <c r="B14" s="89">
+      <c r="B14" s="59">
         <f>SUMPRODUCT([1]架构比较!C$8:C$9,[1]映射分析!$G$8:$G$9)</f>
         <v>16</v>
       </c>
-      <c r="C14" s="89">
+      <c r="C14" s="59">
         <f>SUMPRODUCT([1]架构比较!D$8:D$9,[1]映射分析!$G$8:$G$9)</f>
         <v>16</v>
       </c>
-      <c r="D14" s="89">
+      <c r="D14" s="59">
         <f>SUMPRODUCT([1]架构比较!E$8:E$9,[1]映射分析!$G$8:$G$9)</f>
         <v>8</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E14" s="59">
         <f>SUMPRODUCT([1]架构比较!F$8:F$9,[1]映射分析!$G$8:$G$9)</f>
         <v>96</v>
       </c>
-      <c r="F14" s="89">
+      <c r="F14" s="59">
         <f>SUMPRODUCT([1]架构比较!G$8:G$9,[1]映射分析!$G$8:$G$9)</f>
         <v>32</v>
       </c>
-      <c r="G14" s="89">
+      <c r="G14" s="59">
         <f>SUMPRODUCT([1]架构比较!H$8:H$9,[1]映射分析!$G$8:$G$9)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="89">
+      <c r="H14" s="59">
         <f>[1]映射分析!G$10</f>
         <v>4</v>
       </c>
-      <c r="I14" s="90">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="90">
+      <c r="I14" s="60">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K14" s="90">
+      <c r="J14" s="60">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="60">
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="L14" s="90">
-        <f t="shared" si="4"/>
+      <c r="L14" s="60">
+        <f t="shared" si="5"/>
         <v>6.0000000000000009</v>
       </c>
-      <c r="M14" s="90">
-        <f t="shared" si="5"/>
+      <c r="M14" s="60">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="N14" s="90">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="90">
+      <c r="N14" s="60">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="60">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="str">
+      <c r="A15" s="52" t="str">
         <f>[1]算法分析!A$7</f>
         <v>BLOWFISH</v>
       </c>
-      <c r="B15" s="89">
+      <c r="B15" s="59">
         <f>SUMPRODUCT([1]架构比较!C$8:C$9,[1]映射分析!$H$8:$H$9)</f>
         <v>16</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15" s="59">
         <f>SUMPRODUCT([1]架构比较!D$8:D$9,[1]映射分析!$H$8:$H$9)</f>
         <v>16</v>
       </c>
-      <c r="D15" s="89">
+      <c r="D15" s="59">
         <f>SUMPRODUCT([1]架构比较!E$8:E$9,[1]映射分析!$H$8:$H$9)</f>
         <v>8</v>
       </c>
-      <c r="E15" s="89">
+      <c r="E15" s="59">
         <f>SUMPRODUCT([1]架构比较!F$8:F$9,[1]映射分析!$H$8:$H$9)</f>
         <v>96</v>
       </c>
-      <c r="F15" s="89">
+      <c r="F15" s="59">
         <f>SUMPRODUCT([1]架构比较!G$8:G$9,[1]映射分析!$H$8:$H$9)</f>
         <v>32</v>
       </c>
-      <c r="G15" s="89">
+      <c r="G15" s="59">
         <f>SUMPRODUCT([1]架构比较!H$8:H$9,[1]映射分析!$H$8:$H$9)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="89">
+      <c r="H15" s="59">
         <f>[1]映射分析!H$10</f>
         <v>4</v>
       </c>
-      <c r="I15" s="90">
-        <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="J15" s="90">
+      <c r="I15" s="60">
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K15" s="90">
+      <c r="J15" s="60">
         <f t="shared" si="3"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K15" s="60">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="L15" s="90">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="M15" s="90">
+      <c r="L15" s="60">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N15" s="90">
+      <c r="M15" s="60">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="90">
+        <v>8</v>
+      </c>
+      <c r="N15" s="60">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="60">
+        <f t="shared" si="8"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
     </row>
     <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="str">
+      <c r="A17" s="52" t="str">
         <f>[1]映射分析!A11</f>
         <v>Cyptoraptor</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
     </row>
     <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="str">
+      <c r="A18" s="52" t="str">
         <f>[1]算法分析!A$2</f>
         <v>AES</v>
       </c>
-      <c r="B18" s="89">
+      <c r="B18" s="59">
         <f>SUMPRODUCT([1]架构比较!C$11:C$11,[1]映射分析!$C$11:$C$11)</f>
         <v>8</v>
       </c>
-      <c r="C18" s="89">
+      <c r="C18" s="59">
         <f>SUMPRODUCT([1]架构比较!D$11:D$11,[1]映射分析!$C$11:$C$11)</f>
         <v>8</v>
       </c>
-      <c r="D18" s="89">
+      <c r="D18" s="59">
         <f>SUMPRODUCT([1]架构比较!E$11:E$11,[1]映射分析!$C$11:$C$11)</f>
         <v>8</v>
       </c>
-      <c r="E18" s="89">
+      <c r="E18" s="59">
         <f>SUMPRODUCT([1]架构比较!F$11:F$11,[1]映射分析!$C$11:$C$11)</f>
         <v>8</v>
       </c>
-      <c r="F18" s="89">
+      <c r="F18" s="59">
         <f>SUMPRODUCT([1]架构比较!G$11:G$11,[1]映射分析!$C$11:$C$11)</f>
         <v>56</v>
       </c>
-      <c r="G18" s="89">
+      <c r="G18" s="59">
         <f>SUMPRODUCT([1]架构比较!H$11:H$11,[1]映射分析!$C$11:$C$11)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="89">
+      <c r="H18" s="59">
         <f>[1]映射分析!C$12</f>
         <v>2</v>
       </c>
-      <c r="I18" s="91">
+      <c r="I18" s="61">
         <f>B18/B2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J18" s="91">
-        <f t="shared" ref="J18:O18" si="8">C18/C2</f>
+      <c r="J18" s="61">
+        <f t="shared" ref="J18:O18" si="9">C18/C2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K18" s="91">
-        <f t="shared" si="8"/>
+      <c r="K18" s="61">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="L18" s="91">
-        <f t="shared" si="8"/>
+      <c r="L18" s="61">
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M18" s="91">
-        <f t="shared" si="8"/>
+      <c r="M18" s="61">
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="N18" s="91">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="91">
-        <f t="shared" si="8"/>
+      <c r="N18" s="61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="61">
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="82" t="str">
+      <c r="A19" s="52" t="str">
         <f>[1]算法分析!A$3</f>
         <v>DES</v>
       </c>
-      <c r="B19" s="89">
+      <c r="B19" s="59">
         <f>SUMPRODUCT([1]架构比较!C$11:C$11,[1]映射分析!$D$11:$D$11)</f>
         <v>12</v>
       </c>
-      <c r="C19" s="89">
+      <c r="C19" s="59">
         <f>SUMPRODUCT([1]架构比较!D$11:D$11,[1]映射分析!$D$11:$D$11)</f>
         <v>12</v>
       </c>
-      <c r="D19" s="89">
+      <c r="D19" s="59">
         <f>SUMPRODUCT([1]架构比较!E$11:E$11,[1]映射分析!$D$11:$D$11)</f>
         <v>12</v>
       </c>
-      <c r="E19" s="89">
+      <c r="E19" s="59">
         <f>SUMPRODUCT([1]架构比较!F$11:F$11,[1]映射分析!$D$11:$D$11)</f>
         <v>12</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="59">
         <f>SUMPRODUCT([1]架构比较!G$11:G$11,[1]映射分析!$D$11:$D$11)</f>
         <v>84</v>
       </c>
-      <c r="G19" s="89">
+      <c r="G19" s="59">
         <f>SUMPRODUCT([1]架构比较!H$11:H$11,[1]映射分析!$D$11:$D$11)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="89">
+      <c r="H19" s="59">
         <f>[1]映射分析!D$12</f>
         <v>3</v>
       </c>
-      <c r="I19" s="91">
-        <f t="shared" ref="I19:I23" si="9">B19/B3</f>
+      <c r="I19" s="61">
+        <f t="shared" ref="I19:I23" si="10">B19/B3</f>
         <v>1</v>
       </c>
-      <c r="J19" s="91">
-        <f t="shared" ref="J19:J23" si="10">C19/C3</f>
+      <c r="J19" s="61">
+        <f t="shared" ref="J19:J23" si="11">C19/C3</f>
         <v>1</v>
       </c>
-      <c r="K19" s="91">
-        <f t="shared" ref="K19:K23" si="11">D19/D3</f>
+      <c r="K19" s="61">
+        <f t="shared" ref="K19:K23" si="12">D19/D3</f>
         <v>3</v>
       </c>
-      <c r="L19" s="91">
-        <f t="shared" ref="L19:L23" si="12">E19/E3</f>
+      <c r="L19" s="61">
+        <f t="shared" ref="L19:L23" si="13">E19/E3</f>
         <v>1</v>
       </c>
-      <c r="M19" s="91">
-        <f t="shared" ref="M19:M23" si="13">F19/F3</f>
+      <c r="M19" s="61">
+        <f t="shared" ref="M19:M23" si="14">F19/F3</f>
         <v>21</v>
       </c>
-      <c r="N19" s="91">
-        <f t="shared" ref="N19:N23" si="14">G19/G3</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="91">
-        <f t="shared" ref="O19:O23" si="15">H19/H3</f>
+      <c r="N19" s="61">
+        <f t="shared" ref="N19:N23" si="15">G19/G3</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="61">
+        <f t="shared" ref="O19:O23" si="16">H19/H3</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="str">
+      <c r="A20" s="52" t="str">
         <f>[1]算法分析!A$4</f>
         <v>SM4</v>
       </c>
-      <c r="B20" s="89">
+      <c r="B20" s="59">
         <f>SUMPRODUCT([1]架构比较!C$11:C$11,[1]映射分析!$E$11:$E$11)</f>
         <v>16</v>
       </c>
-      <c r="C20" s="89">
+      <c r="C20" s="59">
         <f>SUMPRODUCT([1]架构比较!D$11:D$11,[1]映射分析!$E$11:$E$11)</f>
         <v>16</v>
       </c>
-      <c r="D20" s="89">
+      <c r="D20" s="59">
         <f>SUMPRODUCT([1]架构比较!E$11:E$11,[1]映射分析!$E$11:$E$11)</f>
         <v>16</v>
       </c>
-      <c r="E20" s="89">
+      <c r="E20" s="59">
         <f>SUMPRODUCT([1]架构比较!F$11:F$11,[1]映射分析!$E$11:$E$11)</f>
         <v>16</v>
       </c>
-      <c r="F20" s="89">
+      <c r="F20" s="59">
         <f>SUMPRODUCT([1]架构比较!G$11:G$11,[1]映射分析!$E$11:$E$11)</f>
         <v>112</v>
       </c>
-      <c r="G20" s="89">
+      <c r="G20" s="59">
         <f>SUMPRODUCT([1]架构比较!H$11:H$11,[1]映射分析!$E$11:$E$11)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="89">
+      <c r="H20" s="59">
         <f>[1]映射分析!E$12</f>
         <v>4</v>
       </c>
-      <c r="I20" s="91">
-        <f t="shared" si="9"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="J20" s="91">
+      <c r="I20" s="61">
         <f t="shared" si="10"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K20" s="91">
+      <c r="J20" s="61">
         <f t="shared" si="11"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K20" s="61">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="L20" s="91">
-        <f t="shared" si="12"/>
+      <c r="L20" s="61">
+        <f t="shared" si="13"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="M20" s="91">
-        <f t="shared" si="13"/>
+      <c r="M20" s="61">
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
-      <c r="N20" s="91">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="91">
+      <c r="N20" s="61">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="61">
+        <f t="shared" si="16"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="82" t="str">
+      <c r="A21" s="52" t="str">
         <f>[1]算法分析!A$5</f>
         <v>TWOFISH</v>
       </c>
-      <c r="B21" s="89">
+      <c r="B21" s="59">
         <f>SUMPRODUCT([1]架构比较!C$11:C$11,[1]映射分析!$F$11:$F$11)</f>
         <v>20</v>
       </c>
-      <c r="C21" s="89">
+      <c r="C21" s="59">
         <f>SUMPRODUCT([1]架构比较!D$11:D$11,[1]映射分析!$F$11:$F$11)</f>
         <v>20</v>
       </c>
-      <c r="D21" s="89">
+      <c r="D21" s="59">
         <f>SUMPRODUCT([1]架构比较!E$11:E$11,[1]映射分析!$F$11:$F$11)</f>
         <v>20</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="59">
         <f>SUMPRODUCT([1]架构比较!F$11:F$11,[1]映射分析!$F$11:$F$11)</f>
         <v>20</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="59">
         <f>SUMPRODUCT([1]架构比较!G$11:G$11,[1]映射分析!$F$11:$F$11)</f>
         <v>140</v>
       </c>
-      <c r="G21" s="89">
+      <c r="G21" s="59">
         <f>SUMPRODUCT([1]架构比较!H$11:H$11,[1]映射分析!$F$11:$F$11)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="89">
+      <c r="H21" s="59">
         <f>[1]映射分析!F$12</f>
         <v>5</v>
       </c>
-      <c r="I21" s="91">
-        <f t="shared" si="9"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J21" s="91">
+      <c r="I21" s="61">
         <f t="shared" si="10"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="K21" s="91">
+      <c r="J21" s="61">
         <f t="shared" si="11"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K21" s="61">
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
-      <c r="L21" s="91">
-        <f t="shared" si="12"/>
+      <c r="L21" s="61">
+        <f t="shared" si="13"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="M21" s="91">
-        <f t="shared" si="13"/>
+      <c r="M21" s="61">
+        <f t="shared" si="14"/>
         <v>17.5</v>
       </c>
-      <c r="N21" s="91">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="91">
+      <c r="N21" s="61">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="61">
+        <f t="shared" si="16"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="str">
+      <c r="A22" s="52" t="str">
         <f>[1]算法分析!A$6</f>
         <v>RC5</v>
       </c>
-      <c r="B22" s="89">
+      <c r="B22" s="59">
         <f>SUMPRODUCT([1]架构比较!C$11:C$11,[1]映射分析!$G$11:$G$11)</f>
         <v>16</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22" s="59">
         <f>SUMPRODUCT([1]架构比较!D$11:D$11,[1]映射分析!$G$11:$G$11)</f>
         <v>16</v>
       </c>
-      <c r="D22" s="89">
+      <c r="D22" s="59">
         <f>SUMPRODUCT([1]架构比较!E$11:E$11,[1]映射分析!$G$11:$G$11)</f>
         <v>16</v>
       </c>
-      <c r="E22" s="89">
+      <c r="E22" s="59">
         <f>SUMPRODUCT([1]架构比较!F$11:F$11,[1]映射分析!$G$11:$G$11)</f>
         <v>16</v>
       </c>
-      <c r="F22" s="89">
+      <c r="F22" s="59">
         <f>SUMPRODUCT([1]架构比较!G$11:G$11,[1]映射分析!$G$11:$G$11)</f>
         <v>112</v>
       </c>
-      <c r="G22" s="89">
+      <c r="G22" s="59">
         <f>SUMPRODUCT([1]架构比较!H$11:H$11,[1]映射分析!$G$11:$G$11)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="89">
+      <c r="H22" s="59">
         <f>[1]映射分析!G$12</f>
         <v>4</v>
       </c>
-      <c r="I22" s="91">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="91">
+      <c r="I22" s="61">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K22" s="91">
+      <c r="J22" s="61">
         <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="61">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="L22" s="91">
-        <f t="shared" si="12"/>
+      <c r="L22" s="61">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="M22" s="91">
-        <f t="shared" si="13"/>
+      <c r="M22" s="61">
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
-      <c r="N22" s="91">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="91">
+      <c r="N22" s="61">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="61">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="82" t="str">
+      <c r="A23" s="52" t="str">
         <f>[1]算法分析!A$7</f>
         <v>BLOWFISH</v>
       </c>
-      <c r="B23" s="89">
+      <c r="B23" s="59">
         <f>SUMPRODUCT([1]架构比较!C$11:C$11,[1]映射分析!$H$11:$H$11)</f>
         <v>12</v>
       </c>
-      <c r="C23" s="89">
+      <c r="C23" s="59">
         <f>SUMPRODUCT([1]架构比较!D$11:D$11,[1]映射分析!$H$11:$H$11)</f>
         <v>12</v>
       </c>
-      <c r="D23" s="89">
+      <c r="D23" s="59">
         <f>SUMPRODUCT([1]架构比较!E$11:E$11,[1]映射分析!$H$11:$H$11)</f>
         <v>12</v>
       </c>
-      <c r="E23" s="89">
+      <c r="E23" s="59">
         <f>SUMPRODUCT([1]架构比较!F$11:F$11,[1]映射分析!$H$11:$H$11)</f>
         <v>12</v>
       </c>
-      <c r="F23" s="89">
+      <c r="F23" s="59">
         <f>SUMPRODUCT([1]架构比较!G$11:G$11,[1]映射分析!$H$11:$H$11)</f>
         <v>84</v>
       </c>
-      <c r="G23" s="89">
+      <c r="G23" s="59">
         <f>SUMPRODUCT([1]架构比较!H$11:H$11,[1]映射分析!$H$11:$H$11)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="89">
+      <c r="H23" s="59">
         <f>[1]映射分析!H$12</f>
         <v>3</v>
       </c>
-      <c r="I23" s="91">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="91">
+      <c r="I23" s="61">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K23" s="91">
+      <c r="J23" s="61">
         <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="61">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="L23" s="91">
-        <f t="shared" si="12"/>
+      <c r="L23" s="61">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="M23" s="91">
-        <f t="shared" si="13"/>
+      <c r="M23" s="61">
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
-      <c r="N23" s="91">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="91">
+      <c r="N23" s="61">
         <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="61">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="87"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
     </row>
     <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="str">
+      <c r="A25" s="52" t="str">
         <f>[1]映射分析!A13</f>
         <v>RCPA</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
     </row>
     <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="82" t="str">
+      <c r="A26" s="52" t="str">
         <f>[1]算法分析!A$2</f>
         <v>AES</v>
       </c>
-      <c r="B26" s="89">
+      <c r="B26" s="59">
         <f>SUMPRODUCT([1]架构比较!C$13:C$13,[1]映射分析!$C$13:$C$13)</f>
         <v>8</v>
       </c>
-      <c r="C26" s="89">
+      <c r="C26" s="59">
         <f>SUMPRODUCT([1]架构比较!D$13:D$13,[1]映射分析!$C$13:$C$13)</f>
         <v>8</v>
       </c>
-      <c r="D26" s="89">
+      <c r="D26" s="59">
         <f>SUMPRODUCT([1]架构比较!E$13:E$13,[1]映射分析!$C$13:$C$13)</f>
         <v>8</v>
       </c>
-      <c r="E26" s="89">
+      <c r="E26" s="59">
         <f>SUMPRODUCT([1]架构比较!F$13:F$13,[1]映射分析!$C$13:$C$13)</f>
         <v>16</v>
       </c>
-      <c r="F26" s="89">
+      <c r="F26" s="59">
         <f>SUMPRODUCT([1]架构比较!G$13:G$13,[1]映射分析!$C$13:$C$13)</f>
         <v>16</v>
       </c>
-      <c r="G26" s="89">
+      <c r="G26" s="59">
         <f>SUMPRODUCT([1]架构比较!H$13:H$13,[1]映射分析!$C$13:$C$13)</f>
         <v>8</v>
       </c>
-      <c r="H26" s="89">
+      <c r="H26" s="59">
         <f>[1]映射分析!C$12</f>
         <v>2</v>
       </c>
-      <c r="I26" s="91">
+      <c r="I26" s="61">
         <f>B26/B2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J26" s="91">
-        <f t="shared" ref="J26:O26" si="16">C26/C2</f>
+      <c r="J26" s="61">
+        <f t="shared" ref="J26:O26" si="17">C26/C2</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K26" s="91">
-        <f t="shared" si="16"/>
+      <c r="K26" s="61">
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="L26" s="91">
-        <f t="shared" si="16"/>
+      <c r="L26" s="61">
+        <f t="shared" si="17"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="M26" s="91">
-        <f t="shared" si="16"/>
+      <c r="M26" s="61">
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="N26" s="91">
-        <f t="shared" si="16"/>
+      <c r="N26" s="61">
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="O26" s="91">
-        <f t="shared" si="16"/>
+      <c r="O26" s="61">
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="82" t="str">
+      <c r="A27" s="52" t="str">
         <f>[1]算法分析!A$3</f>
         <v>DES</v>
       </c>
-      <c r="B27" s="89">
+      <c r="B27" s="59">
         <f>SUMPRODUCT([1]架构比较!C$13:C$13,[1]映射分析!$D$13:$D$13)</f>
         <v>12</v>
       </c>
-      <c r="C27" s="89">
+      <c r="C27" s="59">
         <f>SUMPRODUCT([1]架构比较!D$13:D$13,[1]映射分析!$D$13:$D$13)</f>
         <v>12</v>
       </c>
-      <c r="D27" s="89">
+      <c r="D27" s="59">
         <f>SUMPRODUCT([1]架构比较!E$13:E$13,[1]映射分析!$D$13:$D$13)</f>
         <v>12</v>
       </c>
-      <c r="E27" s="89">
+      <c r="E27" s="59">
         <f>SUMPRODUCT([1]架构比较!F$13:F$13,[1]映射分析!$D$13:$D$13)</f>
         <v>24</v>
       </c>
-      <c r="F27" s="89">
+      <c r="F27" s="59">
         <f>SUMPRODUCT([1]架构比较!G$13:G$13,[1]映射分析!$D$13:$D$13)</f>
         <v>24</v>
       </c>
-      <c r="G27" s="89">
+      <c r="G27" s="59">
         <f>SUMPRODUCT([1]架构比较!H$13:H$13,[1]映射分析!$D$13:$D$13)</f>
         <v>12</v>
       </c>
-      <c r="H27" s="89">
+      <c r="H27" s="59">
         <f>[1]映射分析!D$12</f>
         <v>3</v>
       </c>
-      <c r="I27" s="91">
-        <f t="shared" ref="I27:I31" si="17">B27/B3</f>
+      <c r="I27" s="61">
+        <f t="shared" ref="I27:I31" si="18">B27/B3</f>
         <v>1</v>
       </c>
-      <c r="J27" s="91">
-        <f t="shared" ref="J27:J31" si="18">C27/C3</f>
+      <c r="J27" s="61">
+        <f t="shared" ref="J27:J31" si="19">C27/C3</f>
         <v>1</v>
       </c>
-      <c r="K27" s="91">
-        <f t="shared" ref="K27:K31" si="19">D27/D3</f>
+      <c r="K27" s="61">
+        <f t="shared" ref="K27:K31" si="20">D27/D3</f>
         <v>3</v>
       </c>
-      <c r="L27" s="91">
-        <f t="shared" ref="L27:L31" si="20">E27/E3</f>
+      <c r="L27" s="61">
+        <f t="shared" ref="L27:L31" si="21">E27/E3</f>
         <v>2</v>
       </c>
-      <c r="M27" s="91">
-        <f t="shared" ref="M27:M31" si="21">F27/F3</f>
+      <c r="M27" s="61">
+        <f t="shared" ref="M27:M31" si="22">F27/F3</f>
         <v>6</v>
       </c>
-      <c r="N27" s="91">
-        <f t="shared" ref="N27:N31" si="22">G27/G3</f>
+      <c r="N27" s="61">
+        <f t="shared" ref="N27:N31" si="23">G27/G3</f>
         <v>3</v>
       </c>
-      <c r="O27" s="91">
-        <f t="shared" ref="O27:O31" si="23">H27/H3</f>
+      <c r="O27" s="61">
+        <f t="shared" ref="O27:O31" si="24">H27/H3</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="82" t="str">
+      <c r="A28" s="52" t="str">
         <f>[1]算法分析!A$4</f>
         <v>SM4</v>
       </c>
-      <c r="B28" s="89">
+      <c r="B28" s="59">
         <f>SUMPRODUCT([1]架构比较!C$13:C$13,[1]映射分析!$E$13:$E$13)</f>
         <v>16</v>
       </c>
-      <c r="C28" s="89">
+      <c r="C28" s="59">
         <f>SUMPRODUCT([1]架构比较!D$13:D$13,[1]映射分析!$E$13:$E$13)</f>
         <v>16</v>
       </c>
-      <c r="D28" s="89">
+      <c r="D28" s="59">
         <f>SUMPRODUCT([1]架构比较!E$13:E$13,[1]映射分析!$E$13:$E$13)</f>
         <v>16</v>
       </c>
-      <c r="E28" s="89">
+      <c r="E28" s="59">
         <f>SUMPRODUCT([1]架构比较!F$13:F$13,[1]映射分析!$E$13:$E$13)</f>
         <v>32</v>
       </c>
-      <c r="F28" s="89">
+      <c r="F28" s="59">
         <f>SUMPRODUCT([1]架构比较!G$13:G$13,[1]映射分析!$E$13:$E$13)</f>
         <v>32</v>
       </c>
-      <c r="G28" s="89">
+      <c r="G28" s="59">
         <f>SUMPRODUCT([1]架构比较!H$13:H$13,[1]映射分析!$E$13:$E$13)</f>
         <v>16</v>
       </c>
-      <c r="H28" s="89">
+      <c r="H28" s="59">
         <f>[1]映射分析!E$12</f>
         <v>4</v>
       </c>
-      <c r="I28" s="91">
-        <f t="shared" si="17"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="J28" s="91">
+      <c r="I28" s="61">
         <f t="shared" si="18"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K28" s="91">
+      <c r="J28" s="61">
         <f t="shared" si="19"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K28" s="61">
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="L28" s="91">
-        <f t="shared" si="20"/>
+      <c r="L28" s="61">
+        <f t="shared" si="21"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="M28" s="91">
-        <f t="shared" si="21"/>
+      <c r="M28" s="61">
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="N28" s="91">
-        <f t="shared" si="22"/>
+      <c r="N28" s="61">
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="O28" s="91">
-        <f t="shared" si="23"/>
+      <c r="O28" s="61">
+        <f t="shared" si="24"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="52" t="str">
         <f>[1]算法分析!A$5</f>
         <v>TWOFISH</v>
       </c>
-      <c r="B29" s="89">
+      <c r="B29" s="59">
         <f>SUMPRODUCT([1]架构比较!C$13:C$13,[1]映射分析!$F$13:$F$13)</f>
         <v>20</v>
       </c>
-      <c r="C29" s="89">
+      <c r="C29" s="59">
         <f>SUMPRODUCT([1]架构比较!D$13:D$13,[1]映射分析!$F$13:$F$13)</f>
         <v>20</v>
       </c>
-      <c r="D29" s="89">
+      <c r="D29" s="59">
         <f>SUMPRODUCT([1]架构比较!E$13:E$13,[1]映射分析!$F$13:$F$13)</f>
         <v>20</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29" s="59">
         <f>SUMPRODUCT([1]架构比较!F$13:F$13,[1]映射分析!$F$13:$F$13)</f>
         <v>40</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F29" s="59">
         <f>SUMPRODUCT([1]架构比较!G$13:G$13,[1]映射分析!$F$13:$F$13)</f>
         <v>40</v>
       </c>
-      <c r="G29" s="89">
+      <c r="G29" s="59">
         <f>SUMPRODUCT([1]架构比较!H$13:H$13,[1]映射分析!$F$13:$F$13)</f>
         <v>20</v>
       </c>
-      <c r="H29" s="89">
+      <c r="H29" s="59">
         <f>[1]映射分析!F$12</f>
         <v>5</v>
       </c>
-      <c r="I29" s="91">
-        <f t="shared" si="17"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J29" s="91">
+      <c r="I29" s="61">
         <f t="shared" si="18"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="K29" s="91">
+      <c r="J29" s="61">
         <f t="shared" si="19"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K29" s="61">
+        <f t="shared" si="20"/>
         <v>2.5</v>
       </c>
-      <c r="L29" s="91">
-        <f t="shared" si="20"/>
+      <c r="L29" s="61">
+        <f t="shared" si="21"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="M29" s="91">
-        <f t="shared" si="21"/>
+      <c r="M29" s="61">
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="N29" s="91">
-        <f t="shared" si="22"/>
+      <c r="N29" s="61">
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
-      <c r="O29" s="91">
-        <f t="shared" si="23"/>
+      <c r="O29" s="61">
+        <f t="shared" si="24"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="82" t="str">
+      <c r="A30" s="52" t="str">
         <f>[1]算法分析!A$6</f>
         <v>RC5</v>
       </c>
-      <c r="B30" s="89">
+      <c r="B30" s="59">
         <f>SUMPRODUCT([1]架构比较!C$13:C$13,[1]映射分析!$G$13:$G$13)</f>
         <v>16</v>
       </c>
-      <c r="C30" s="89">
+      <c r="C30" s="59">
         <f>SUMPRODUCT([1]架构比较!D$13:D$13,[1]映射分析!$G$13:$G$13)</f>
         <v>16</v>
       </c>
-      <c r="D30" s="89">
+      <c r="D30" s="59">
         <f>SUMPRODUCT([1]架构比较!E$13:E$13,[1]映射分析!$G$13:$G$13)</f>
         <v>16</v>
       </c>
-      <c r="E30" s="89">
+      <c r="E30" s="59">
         <f>SUMPRODUCT([1]架构比较!F$13:F$13,[1]映射分析!$G$13:$G$13)</f>
         <v>32</v>
       </c>
-      <c r="F30" s="89">
+      <c r="F30" s="59">
         <f>SUMPRODUCT([1]架构比较!G$13:G$13,[1]映射分析!$G$13:$G$13)</f>
         <v>32</v>
       </c>
-      <c r="G30" s="89">
+      <c r="G30" s="59">
         <f>SUMPRODUCT([1]架构比较!H$13:H$13,[1]映射分析!$G$13:$G$13)</f>
         <v>16</v>
       </c>
-      <c r="H30" s="89">
+      <c r="H30" s="59">
         <f>[1]映射分析!G$12</f>
         <v>4</v>
       </c>
-      <c r="I30" s="91">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="J30" s="91">
+      <c r="I30" s="61">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="K30" s="91">
+      <c r="J30" s="61">
         <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="61">
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
-      <c r="L30" s="91">
-        <f t="shared" si="20"/>
+      <c r="L30" s="61">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="M30" s="91">
-        <f t="shared" si="21"/>
+      <c r="M30" s="61">
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N30" s="91">
-        <f t="shared" si="22"/>
+      <c r="N30" s="61">
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="O30" s="91">
-        <f t="shared" si="23"/>
+      <c r="O30" s="61">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="82" t="str">
+      <c r="A31" s="52" t="str">
         <f>[1]算法分析!A$7</f>
         <v>BLOWFISH</v>
       </c>
-      <c r="B31" s="89">
+      <c r="B31" s="59">
         <f>SUMPRODUCT([1]架构比较!C$13:C$13,[1]映射分析!$H$13:$H$13)</f>
         <v>12</v>
       </c>
-      <c r="C31" s="89">
+      <c r="C31" s="59">
         <f>SUMPRODUCT([1]架构比较!D$13:D$13,[1]映射分析!$H$13:$H$13)</f>
         <v>12</v>
       </c>
-      <c r="D31" s="89">
+      <c r="D31" s="59">
         <f>SUMPRODUCT([1]架构比较!E$13:E$13,[1]映射分析!$H$13:$H$13)</f>
         <v>12</v>
       </c>
-      <c r="E31" s="89">
+      <c r="E31" s="59">
         <f>SUMPRODUCT([1]架构比较!F$13:F$13,[1]映射分析!$H$13:$H$13)</f>
         <v>24</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="59">
         <f>SUMPRODUCT([1]架构比较!G$13:G$13,[1]映射分析!$H$13:$H$13)</f>
         <v>24</v>
       </c>
-      <c r="G31" s="89">
+      <c r="G31" s="59">
         <f>SUMPRODUCT([1]架构比较!H$13:H$13,[1]映射分析!$H$13:$H$13)</f>
         <v>12</v>
       </c>
-      <c r="H31" s="89">
+      <c r="H31" s="59">
         <f>[1]映射分析!H$12</f>
         <v>3</v>
       </c>
-      <c r="I31" s="91">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="J31" s="91">
+      <c r="I31" s="61">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="K31" s="91">
+      <c r="J31" s="61">
         <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="61">
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
-      <c r="L31" s="91">
-        <f t="shared" si="20"/>
+      <c r="L31" s="61">
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
-      <c r="M31" s="91">
-        <f t="shared" si="21"/>
+      <c r="M31" s="61">
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="N31" s="91">
-        <f t="shared" si="22"/>
+      <c r="N31" s="61">
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="O31" s="91">
-        <f t="shared" si="23"/>
+      <c r="O31" s="61">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -12370,1572 +12370,1572 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="9" style="103"/>
+    <col min="9" max="9" width="9" style="73"/>
     <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="92" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="99" t="s">
+      <c r="K1" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
     </row>
     <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="82">
+      <c r="B2" s="52">
         <v>15336</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="52">
         <v>42594</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="52">
         <v>9192</v>
       </c>
-      <c r="E2" s="82">
+      <c r="E2" s="52">
         <v>19368</v>
       </c>
-      <c r="F2" s="82">
+      <c r="F2" s="52">
         <v>51191</v>
       </c>
-      <c r="G2" s="82">
+      <c r="G2" s="52">
         <v>32000</v>
       </c>
-      <c r="H2" s="82">
+      <c r="H2" s="52">
         <v>23228.400000000001</v>
       </c>
-      <c r="I2" s="102">
+      <c r="I2" s="72">
         <f>J2/1000000</f>
         <v>0.19290939999999998</v>
       </c>
-      <c r="J2" s="95">
+      <c r="J2" s="65">
         <v>192909.4</v>
       </c>
-      <c r="K2" s="96"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
     </row>
     <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="82">
+      <c r="B3" s="52">
         <v>15336</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="52">
         <v>42594</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="52">
         <v>9192</v>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="52">
         <v>19368</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="52">
         <v>51191</v>
       </c>
-      <c r="G3" s="82">
+      <c r="G3" s="52">
         <v>32000</v>
       </c>
-      <c r="H3" s="82">
+      <c r="H3" s="52">
         <v>23228.400000000001</v>
       </c>
-      <c r="I3" s="102">
+      <c r="I3" s="72">
         <f t="shared" ref="I3:I31" si="0">J3/1000000</f>
         <v>0.19290939999999998</v>
       </c>
-      <c r="J3" s="95">
+      <c r="J3" s="65">
         <v>192909.4</v>
       </c>
-      <c r="K3" s="96"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
     </row>
     <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="52">
         <v>15336</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="52">
         <v>42594</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="52">
         <v>9192</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="52">
         <v>19368</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="52">
         <v>51191</v>
       </c>
-      <c r="G4" s="82">
+      <c r="G4" s="52">
         <v>32000</v>
       </c>
-      <c r="H4" s="82">
+      <c r="H4" s="52">
         <v>23228.400000000001</v>
       </c>
-      <c r="I4" s="102">
+      <c r="I4" s="72">
         <f t="shared" si="0"/>
         <v>0.19290939999999998</v>
       </c>
-      <c r="J4" s="95">
+      <c r="J4" s="65">
         <v>192909.4</v>
       </c>
-      <c r="K4" s="96"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
     </row>
     <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="52">
         <v>30672</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="52">
         <v>85188</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="52">
         <v>18384</v>
       </c>
-      <c r="E5" s="82">
+      <c r="E5" s="52">
         <v>38736</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="52">
         <v>102382</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5" s="52">
         <v>64000</v>
       </c>
-      <c r="H5" s="82">
+      <c r="H5" s="52">
         <v>46456.800000000003</v>
       </c>
-      <c r="I5" s="102">
+      <c r="I5" s="72">
         <f t="shared" si="0"/>
         <v>0.38581879999999996</v>
       </c>
-      <c r="J5" s="95">
+      <c r="J5" s="65">
         <v>385818.8</v>
       </c>
-      <c r="K5" s="96"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
     </row>
     <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="52">
         <v>20447.999999999996</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="52">
         <v>56791.999999999993</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="52">
         <v>12256</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="52">
         <v>25823.999999999996</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="52">
         <v>68254.666666666657</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="52">
         <v>42666.666666666664</v>
       </c>
-      <c r="H6" s="82">
+      <c r="H6" s="52">
         <v>30971.200000000001</v>
       </c>
-      <c r="I6" s="102">
+      <c r="I6" s="72">
         <f t="shared" si="0"/>
         <v>0.25721253333333327</v>
       </c>
-      <c r="J6" s="95">
+      <c r="J6" s="65">
         <v>257212.5333333333</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
     </row>
     <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="52">
         <v>15336</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="52">
         <v>42594</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="52">
         <v>9192</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="52">
         <v>19368</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="52">
         <v>51191</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="52">
         <v>32000</v>
       </c>
-      <c r="H7" s="82">
+      <c r="H7" s="52">
         <v>23228.400000000001</v>
       </c>
-      <c r="I7" s="102">
+      <c r="I7" s="72">
         <f t="shared" si="0"/>
         <v>0.19290939999999998</v>
       </c>
-      <c r="J7" s="95">
+      <c r="J7" s="65">
         <v>192909.4</v>
       </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="102">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="97"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
     </row>
     <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="102">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="97"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="80" t="s">
+      <c r="J9" s="67"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="80" t="s">
+      <c r="M9" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="80" t="s">
+      <c r="N9" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="80" t="s">
+      <c r="O9" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="80" t="s">
+      <c r="P9" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="Q9" s="80" t="s">
+      <c r="Q9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="80" t="s">
+      <c r="R9" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="S9" s="93" t="s">
+      <c r="S9" s="63" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="52">
         <v>10224</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="52">
         <v>28396</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="52">
         <v>9192</v>
       </c>
-      <c r="E10" s="82">
+      <c r="E10" s="52">
         <v>77472</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="52">
         <v>204764</v>
       </c>
-      <c r="G10" s="82">
-        <v>0</v>
-      </c>
-      <c r="H10" s="82">
+      <c r="G10" s="52">
+        <v>0</v>
+      </c>
+      <c r="H10" s="52">
         <v>77428</v>
       </c>
-      <c r="I10" s="102">
+      <c r="I10" s="72">
         <f t="shared" si="0"/>
         <v>0.407476</v>
       </c>
-      <c r="J10" s="95">
+      <c r="J10" s="65">
         <v>407476</v>
       </c>
-      <c r="K10" s="100">
+      <c r="K10" s="70">
         <f>S10</f>
         <v>0.52657481667631956</v>
       </c>
-      <c r="L10" s="98">
+      <c r="L10" s="68">
         <v>-2.3824770490840606E-2</v>
       </c>
-      <c r="M10" s="98">
+      <c r="M10" s="68">
         <v>-6.6170596914897281E-2</v>
       </c>
-      <c r="N10" s="98">
-        <v>0</v>
-      </c>
-      <c r="O10" s="98">
+      <c r="N10" s="68">
+        <v>0</v>
+      </c>
+      <c r="O10" s="68">
         <v>0.27079703924096293</v>
       </c>
-      <c r="P10" s="98">
+      <c r="P10" s="68">
         <v>0.71573581349566984</v>
       </c>
-      <c r="Q10" s="98">
+      <c r="Q10" s="68">
         <v>-0.14913784344814152</v>
       </c>
-      <c r="R10" s="98">
+      <c r="R10" s="68">
         <v>0.25260035811724657</v>
       </c>
-      <c r="S10" s="90">
+      <c r="S10" s="60">
         <v>0.52657481667631956</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B11" s="52">
         <v>20448</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="52">
         <v>56792</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="52">
         <v>18384</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="52">
         <v>154944</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F11" s="52">
         <v>409528</v>
       </c>
-      <c r="G11" s="82">
-        <v>0</v>
-      </c>
-      <c r="H11" s="82">
+      <c r="G11" s="52">
+        <v>0</v>
+      </c>
+      <c r="H11" s="52">
         <v>154856</v>
       </c>
-      <c r="I11" s="102">
+      <c r="I11" s="72">
         <f t="shared" si="0"/>
         <v>0.81495200000000001</v>
       </c>
-      <c r="J11" s="95">
+      <c r="J11" s="65">
         <v>814952</v>
       </c>
-      <c r="K11" s="100">
+      <c r="K11" s="70">
         <f t="shared" ref="K11:K31" si="1">S11</f>
         <v>0.76328740833815978</v>
       </c>
-      <c r="L11" s="98">
+      <c r="L11" s="68">
         <v>8.2180866712344147E-3</v>
       </c>
-      <c r="M11" s="98">
+      <c r="M11" s="68">
         <v>2.282480331732907E-2</v>
       </c>
-      <c r="N11" s="98">
+      <c r="N11" s="68">
         <v>1.4777122981609299E-2</v>
       </c>
-      <c r="O11" s="98">
+      <c r="O11" s="68">
         <v>0.21795291833710426</v>
       </c>
-      <c r="P11" s="98">
+      <c r="P11" s="68">
         <v>0.57606504763500122</v>
       </c>
-      <c r="Q11" s="98">
+      <c r="Q11" s="68">
         <v>-5.1443422042155955E-2</v>
       </c>
-      <c r="R11" s="98">
+      <c r="R11" s="68">
         <v>0.21160544309987775</v>
       </c>
-      <c r="S11" s="90">
+      <c r="S11" s="60">
         <v>0.76328740833815978</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="52">
         <v>20448</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="52">
         <v>56792</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="52">
         <v>18384</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="52">
         <v>154944</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="52">
         <v>409528</v>
       </c>
-      <c r="G12" s="82">
-        <v>0</v>
-      </c>
-      <c r="H12" s="82">
+      <c r="G12" s="52">
+        <v>0</v>
+      </c>
+      <c r="H12" s="52">
         <v>154856</v>
       </c>
-      <c r="I12" s="102">
+      <c r="I12" s="72">
         <f t="shared" si="0"/>
         <v>0.81495200000000001</v>
       </c>
-      <c r="J12" s="95">
+      <c r="J12" s="65">
         <v>814952</v>
       </c>
-      <c r="K12" s="100">
+      <c r="K12" s="70">
         <f t="shared" si="1"/>
         <v>0.76328740833815978</v>
       </c>
-      <c r="L12" s="98">
+      <c r="L12" s="68">
         <v>8.2180866712344147E-3</v>
       </c>
-      <c r="M12" s="98">
+      <c r="M12" s="68">
         <v>2.282480331732907E-2</v>
       </c>
-      <c r="N12" s="98">
+      <c r="N12" s="68">
         <v>1.4777122981609299E-2</v>
       </c>
-      <c r="O12" s="98">
+      <c r="O12" s="68">
         <v>0.21795291833710426</v>
       </c>
-      <c r="P12" s="98">
+      <c r="P12" s="68">
         <v>0.57606504763500122</v>
       </c>
-      <c r="Q12" s="98">
+      <c r="Q12" s="68">
         <v>-5.1443422042155955E-2</v>
       </c>
-      <c r="R12" s="98">
+      <c r="R12" s="68">
         <v>0.21160544309987775</v>
       </c>
-      <c r="S12" s="90">
+      <c r="S12" s="60">
         <v>0.76328740833815978</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B13" s="52">
         <v>30672</v>
       </c>
-      <c r="C13" s="82">
+      <c r="C13" s="52">
         <v>85188</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="52">
         <v>27576</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="52">
         <v>232416</v>
       </c>
-      <c r="F13" s="82">
+      <c r="F13" s="52">
         <v>614292</v>
       </c>
-      <c r="G13" s="82">
-        <v>0</v>
-      </c>
-      <c r="H13" s="82">
+      <c r="G13" s="52">
+        <v>0</v>
+      </c>
+      <c r="H13" s="52">
         <v>232284</v>
       </c>
-      <c r="I13" s="102">
+      <c r="I13" s="72">
         <f t="shared" si="0"/>
         <v>1.2224280000000001</v>
       </c>
-      <c r="J13" s="95">
+      <c r="J13" s="65">
         <v>1222428</v>
       </c>
-      <c r="K13" s="100">
+      <c r="K13" s="70">
         <f t="shared" si="1"/>
         <v>0.68438321111754641</v>
       </c>
-      <c r="L13" s="98">
-        <v>0</v>
-      </c>
-      <c r="M13" s="98">
-        <v>0</v>
-      </c>
-      <c r="N13" s="98">
+      <c r="L13" s="68">
+        <v>0</v>
+      </c>
+      <c r="M13" s="68">
+        <v>0</v>
+      </c>
+      <c r="N13" s="68">
         <v>1.0987208842551577E-2</v>
       </c>
-      <c r="O13" s="98">
+      <c r="O13" s="68">
         <v>0.23150594088613896</v>
       </c>
-      <c r="P13" s="98">
+      <c r="P13" s="68">
         <v>0.61188664910689483</v>
       </c>
-      <c r="Q13" s="98">
+      <c r="Q13" s="68">
         <v>-7.649927827712151E-2</v>
       </c>
-      <c r="R13" s="98">
+      <c r="R13" s="68">
         <v>0.22211947944153618</v>
       </c>
-      <c r="S13" s="90">
+      <c r="S13" s="60">
         <v>0.68438321111754641</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B14" s="52">
         <v>20448</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="52">
         <v>56792</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="52">
         <v>18384</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="52">
         <v>154944</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="52">
         <v>409528</v>
       </c>
-      <c r="G14" s="82">
-        <v>0</v>
-      </c>
-      <c r="H14" s="82">
+      <c r="G14" s="52">
+        <v>0</v>
+      </c>
+      <c r="H14" s="52">
         <v>154856</v>
       </c>
-      <c r="I14" s="102">
+      <c r="I14" s="72">
         <f t="shared" si="0"/>
         <v>0.81495200000000001</v>
       </c>
-      <c r="J14" s="95">
+      <c r="J14" s="65">
         <v>814952</v>
       </c>
-      <c r="K14" s="100">
+      <c r="K14" s="70">
         <f t="shared" si="1"/>
         <v>0.68438321111754641</v>
       </c>
-      <c r="L14" s="98">
+      <c r="L14" s="68">
         <v>6.5227207764838943E-18</v>
       </c>
-      <c r="M14" s="98">
+      <c r="M14" s="68">
         <v>1.3045441552967789E-17</v>
       </c>
-      <c r="N14" s="98">
+      <c r="N14" s="68">
         <v>1.0987208842551575E-2</v>
       </c>
-      <c r="O14" s="98">
+      <c r="O14" s="68">
         <v>0.23150594088613896</v>
       </c>
-      <c r="P14" s="98">
+      <c r="P14" s="68">
         <v>0.61188664910689494</v>
       </c>
-      <c r="Q14" s="98">
+      <c r="Q14" s="68">
         <v>-7.6499278277121496E-2</v>
       </c>
-      <c r="R14" s="98">
+      <c r="R14" s="68">
         <v>0.22211947944153615</v>
       </c>
-      <c r="S14" s="90">
+      <c r="S14" s="60">
         <v>0.68438321111754641</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B15" s="52">
         <v>20448</v>
       </c>
-      <c r="C15" s="82">
+      <c r="C15" s="52">
         <v>56792</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="52">
         <v>18384</v>
       </c>
-      <c r="E15" s="82">
+      <c r="E15" s="52">
         <v>154944</v>
       </c>
-      <c r="F15" s="82">
+      <c r="F15" s="52">
         <v>409528</v>
       </c>
-      <c r="G15" s="82">
-        <v>0</v>
-      </c>
-      <c r="H15" s="82">
+      <c r="G15" s="52">
+        <v>0</v>
+      </c>
+      <c r="H15" s="52">
         <v>154856</v>
       </c>
-      <c r="I15" s="102">
+      <c r="I15" s="72">
         <f t="shared" si="0"/>
         <v>0.81495200000000001</v>
       </c>
-      <c r="J15" s="95">
+      <c r="J15" s="65">
         <v>814952</v>
       </c>
-      <c r="K15" s="100">
+      <c r="K15" s="70">
         <f t="shared" si="1"/>
         <v>0.76328740833815978</v>
       </c>
-      <c r="L15" s="98">
+      <c r="L15" s="68">
         <v>8.2180866712344147E-3</v>
       </c>
-      <c r="M15" s="98">
+      <c r="M15" s="68">
         <v>2.282480331732907E-2</v>
       </c>
-      <c r="N15" s="98">
+      <c r="N15" s="68">
         <v>1.4777122981609299E-2</v>
       </c>
-      <c r="O15" s="98">
+      <c r="O15" s="68">
         <v>0.21795291833710426</v>
       </c>
-      <c r="P15" s="98">
+      <c r="P15" s="68">
         <v>0.57606504763500122</v>
       </c>
-      <c r="Q15" s="98">
+      <c r="Q15" s="68">
         <v>-5.1443422042155955E-2</v>
       </c>
-      <c r="R15" s="98">
+      <c r="R15" s="68">
         <v>0.21160544309987775</v>
       </c>
-      <c r="S15" s="90">
+      <c r="S15" s="60">
         <v>0.76328740833815978</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="102">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="97"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
     </row>
     <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="102">
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="97"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
     </row>
     <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="82">
+      <c r="B18" s="52">
         <v>10224</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="52">
         <v>28396</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="52">
         <v>18384</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="52">
         <v>12912</v>
       </c>
-      <c r="F18" s="82">
+      <c r="F18" s="52">
         <v>716674</v>
       </c>
-      <c r="G18" s="82">
-        <v>0</v>
-      </c>
-      <c r="H18" s="82">
+      <c r="G18" s="52">
+        <v>0</v>
+      </c>
+      <c r="H18" s="52">
         <v>77428</v>
       </c>
-      <c r="I18" s="102">
+      <c r="I18" s="72">
         <f t="shared" si="0"/>
         <v>0.87361800000000001</v>
       </c>
-      <c r="J18" s="95">
+      <c r="J18" s="65">
         <v>873618</v>
       </c>
-      <c r="K18" s="100">
+      <c r="K18" s="70">
         <f t="shared" si="1"/>
         <v>0.77918335015990969</v>
       </c>
-      <c r="L18" s="90">
+      <c r="L18" s="60">
         <v>-7.5098213831880489E-3</v>
       </c>
-      <c r="M18" s="98">
+      <c r="M18" s="68">
         <v>-2.0857676838517979E-2</v>
       </c>
-      <c r="N18" s="98">
+      <c r="N18" s="68">
         <v>1.3503575538784144E-2</v>
       </c>
-      <c r="O18" s="98">
+      <c r="O18" s="68">
         <v>-9.4842345167961747E-3</v>
       </c>
-      <c r="P18" s="98">
+      <c r="P18" s="68">
         <v>0.97763271978641086</v>
       </c>
-      <c r="Q18" s="98">
+      <c r="Q18" s="68">
         <v>-4.7009836514479181E-2</v>
       </c>
-      <c r="R18" s="98">
+      <c r="R18" s="68">
         <v>7.9622322973442669E-2</v>
       </c>
-      <c r="S18" s="90">
+      <c r="S18" s="60">
         <v>0.77918335015990969</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B19" s="52">
         <v>15336</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="52">
         <v>42594</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="52">
         <v>27576</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="52">
         <v>19368</v>
       </c>
-      <c r="F19" s="82">
+      <c r="F19" s="52">
         <v>1075011</v>
       </c>
-      <c r="G19" s="82">
-        <v>0</v>
-      </c>
-      <c r="H19" s="82">
+      <c r="G19" s="52">
+        <v>0</v>
+      </c>
+      <c r="H19" s="52">
         <v>116142</v>
       </c>
-      <c r="I19" s="102">
+      <c r="I19" s="72">
         <f t="shared" si="0"/>
         <v>1.310427</v>
       </c>
-      <c r="J19" s="95">
+      <c r="J19" s="65">
         <v>1310427</v>
       </c>
-      <c r="K19" s="100">
+      <c r="K19" s="70">
         <f t="shared" si="1"/>
         <v>0.85278890010660657</v>
       </c>
-      <c r="L19" s="90">
-        <v>0</v>
-      </c>
-      <c r="M19" s="98">
-        <v>0</v>
-      </c>
-      <c r="N19" s="98">
+      <c r="L19" s="60">
+        <v>0</v>
+      </c>
+      <c r="M19" s="68">
+        <v>0</v>
+      </c>
+      <c r="N19" s="68">
         <v>1.6450747621334999E-2</v>
       </c>
-      <c r="O19" s="98">
-        <v>0</v>
-      </c>
-      <c r="P19" s="98">
+      <c r="O19" s="68">
+        <v>0</v>
+      </c>
+      <c r="P19" s="68">
         <v>0.91615559343315922</v>
       </c>
-      <c r="Q19" s="98">
+      <c r="Q19" s="68">
         <v>-2.8634895772558747E-2</v>
       </c>
-      <c r="R19" s="98">
+      <c r="R19" s="68">
         <v>8.3142851620412961E-2</v>
       </c>
-      <c r="S19" s="90">
+      <c r="S19" s="60">
         <v>0.85278890010660657</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="82">
+      <c r="B20" s="52">
         <v>20448</v>
       </c>
-      <c r="C20" s="82">
+      <c r="C20" s="52">
         <v>56792</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="52">
         <v>36768</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="52">
         <v>25824</v>
       </c>
-      <c r="F20" s="82">
+      <c r="F20" s="52">
         <v>1433348</v>
       </c>
-      <c r="G20" s="82">
-        <v>0</v>
-      </c>
-      <c r="H20" s="82">
+      <c r="G20" s="52">
+        <v>0</v>
+      </c>
+      <c r="H20" s="52">
         <v>154856</v>
       </c>
-      <c r="I20" s="102">
+      <c r="I20" s="72">
         <f t="shared" si="0"/>
         <v>1.747236</v>
       </c>
-      <c r="J20" s="95">
+      <c r="J20" s="65">
         <v>1747236</v>
       </c>
-      <c r="K20" s="100">
+      <c r="K20" s="70">
         <f t="shared" si="1"/>
         <v>0.88959167507995496</v>
       </c>
-      <c r="L20" s="90">
+      <c r="L20" s="60">
         <v>3.2888840736560771E-3</v>
       </c>
-      <c r="M20" s="98">
+      <c r="M20" s="68">
         <v>9.1345023626308655E-3</v>
       </c>
-      <c r="N20" s="98">
+      <c r="N20" s="68">
         <v>1.7741445073384189E-2</v>
       </c>
-      <c r="O20" s="98">
+      <c r="O20" s="68">
         <v>4.1535672103919473E-3</v>
       </c>
-      <c r="P20" s="98">
+      <c r="P20" s="68">
         <v>0.88923203141476181</v>
       </c>
-      <c r="Q20" s="98">
+      <c r="Q20" s="68">
         <v>-2.0587693731806429E-2</v>
       </c>
-      <c r="R20" s="98">
+      <c r="R20" s="68">
         <v>8.468464735789763E-2</v>
       </c>
-      <c r="S20" s="90">
+      <c r="S20" s="60">
         <v>0.88959167507995496</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="82">
+      <c r="B21" s="52">
         <v>25560</v>
       </c>
-      <c r="C21" s="82">
+      <c r="C21" s="52">
         <v>70990</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="52">
         <v>45960</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="52">
         <v>32280</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="52">
         <v>1791685</v>
       </c>
-      <c r="G21" s="82">
-        <v>0</v>
-      </c>
-      <c r="H21" s="82">
+      <c r="G21" s="52">
+        <v>0</v>
+      </c>
+      <c r="H21" s="52">
         <v>193570</v>
       </c>
-      <c r="I21" s="102">
+      <c r="I21" s="72">
         <f t="shared" si="0"/>
         <v>2.1840449999999998</v>
       </c>
-      <c r="J21" s="95">
+      <c r="J21" s="65">
         <v>2184045</v>
       </c>
-      <c r="K21" s="100">
+      <c r="K21" s="70">
         <f t="shared" si="1"/>
         <v>0.82334668012792778</v>
       </c>
-      <c r="L21" s="90">
+      <c r="L21" s="60">
         <v>-2.8428014228688249E-3</v>
       </c>
-      <c r="M21" s="98">
+      <c r="M21" s="68">
         <v>-7.8955584119506216E-3</v>
       </c>
-      <c r="N21" s="98">
+      <c r="N21" s="68">
         <v>1.5335111900827605E-2</v>
       </c>
-      <c r="O21" s="98">
+      <c r="O21" s="68">
         <v>-3.5902046138578119E-3</v>
       </c>
-      <c r="P21" s="98">
+      <c r="P21" s="68">
         <v>0.93942742019886039</v>
       </c>
-      <c r="Q21" s="98">
+      <c r="Q21" s="68">
         <v>-3.5590628142332707E-2</v>
       </c>
-      <c r="R21" s="98">
+      <c r="R21" s="68">
         <v>8.1810174937947192E-2</v>
       </c>
-      <c r="S21" s="90">
+      <c r="S21" s="60">
         <v>0.82334668012792778</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="82">
+      <c r="B22" s="52">
         <v>20448</v>
       </c>
-      <c r="C22" s="82">
+      <c r="C22" s="52">
         <v>56792</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="52">
         <v>36768</v>
       </c>
-      <c r="E22" s="82">
+      <c r="E22" s="52">
         <v>25824</v>
       </c>
-      <c r="F22" s="82">
+      <c r="F22" s="52">
         <v>1433348</v>
       </c>
-      <c r="G22" s="82">
-        <v>0</v>
-      </c>
-      <c r="H22" s="82">
+      <c r="G22" s="52">
+        <v>0</v>
+      </c>
+      <c r="H22" s="52">
         <v>154856</v>
       </c>
-      <c r="I22" s="102">
+      <c r="I22" s="72">
         <f t="shared" si="0"/>
         <v>1.747236</v>
       </c>
-      <c r="J22" s="95">
+      <c r="J22" s="65">
         <v>1747236</v>
       </c>
-      <c r="K22" s="100">
+      <c r="K22" s="70">
         <f t="shared" si="1"/>
         <v>0.85278890010660657</v>
       </c>
-      <c r="L22" s="90">
+      <c r="L22" s="60">
         <v>2.4415580616527063E-18</v>
       </c>
-      <c r="M22" s="98">
+      <c r="M22" s="68">
         <v>4.8831161233054126E-18</v>
       </c>
-      <c r="N22" s="98">
+      <c r="N22" s="68">
         <v>1.6450747621334999E-2</v>
       </c>
-      <c r="O22" s="98">
+      <c r="O22" s="68">
         <v>2.4415580616527063E-18</v>
       </c>
-      <c r="P22" s="98">
+      <c r="P22" s="68">
         <v>0.91615559343315922</v>
       </c>
-      <c r="Q22" s="98">
+      <c r="Q22" s="68">
         <v>-2.8634895772558747E-2</v>
       </c>
-      <c r="R22" s="98">
+      <c r="R22" s="68">
         <v>8.3142851620412947E-2</v>
       </c>
-      <c r="S22" s="90">
+      <c r="S22" s="60">
         <v>0.85278890010660657</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="82">
+      <c r="B23" s="52">
         <v>15336</v>
       </c>
-      <c r="C23" s="82">
+      <c r="C23" s="52">
         <v>42594</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="52">
         <v>27576</v>
       </c>
-      <c r="E23" s="82">
+      <c r="E23" s="52">
         <v>19368</v>
       </c>
-      <c r="F23" s="82">
+      <c r="F23" s="52">
         <v>1075011</v>
       </c>
-      <c r="G23" s="82">
-        <v>0</v>
-      </c>
-      <c r="H23" s="82">
+      <c r="G23" s="52">
+        <v>0</v>
+      </c>
+      <c r="H23" s="52">
         <v>116142</v>
       </c>
-      <c r="I23" s="102">
+      <c r="I23" s="72">
         <f t="shared" si="0"/>
         <v>1.310427</v>
       </c>
-      <c r="J23" s="95">
+      <c r="J23" s="65">
         <v>1310427</v>
       </c>
-      <c r="K23" s="100">
+      <c r="K23" s="70">
         <f t="shared" si="1"/>
         <v>0.85278890010660657</v>
       </c>
-      <c r="L23" s="90">
-        <v>0</v>
-      </c>
-      <c r="M23" s="98">
-        <v>0</v>
-      </c>
-      <c r="N23" s="98">
+      <c r="L23" s="60">
+        <v>0</v>
+      </c>
+      <c r="M23" s="68">
+        <v>0</v>
+      </c>
+      <c r="N23" s="68">
         <v>1.6450747621334999E-2</v>
       </c>
-      <c r="O23" s="98">
-        <v>0</v>
-      </c>
-      <c r="P23" s="98">
+      <c r="O23" s="68">
+        <v>0</v>
+      </c>
+      <c r="P23" s="68">
         <v>0.91615559343315922</v>
       </c>
-      <c r="Q23" s="98">
+      <c r="Q23" s="68">
         <v>-2.8634895772558747E-2</v>
       </c>
-      <c r="R23" s="98">
+      <c r="R23" s="68">
         <v>8.3142851620412961E-2</v>
       </c>
-      <c r="S23" s="90">
+      <c r="S23" s="60">
         <v>0.85278890010660657</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="102">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="97"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
     </row>
     <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="102">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="97"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
     </row>
     <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="82">
+      <c r="B26" s="52">
         <v>10224</v>
       </c>
-      <c r="C26" s="82">
+      <c r="C26" s="52">
         <v>28396</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="52">
         <v>18384</v>
       </c>
-      <c r="E26" s="82">
+      <c r="E26" s="52">
         <v>25824</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F26" s="52">
         <v>204764</v>
       </c>
-      <c r="G26" s="82">
+      <c r="G26" s="52">
         <v>64000</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H26" s="52">
         <v>15485.6</v>
       </c>
-      <c r="I26" s="102">
+      <c r="I26" s="72">
         <f t="shared" si="0"/>
         <v>0.3670776</v>
       </c>
-      <c r="J26" s="95">
+      <c r="J26" s="65">
         <v>367077.6</v>
       </c>
-      <c r="K26" s="100">
+      <c r="K26" s="70">
         <f t="shared" si="1"/>
         <v>0.47447242762838154</v>
       </c>
-      <c r="L26" s="90">
+      <c r="L26" s="60">
         <v>-2.9350937771648329E-2</v>
       </c>
-      <c r="M26" s="90">
+      <c r="M26" s="60">
         <v>-8.1518899546530313E-2</v>
       </c>
-      <c r="N26" s="90">
+      <c r="N26" s="60">
         <v>5.2776568857001459E-2</v>
       </c>
-      <c r="O26" s="90">
+      <c r="O26" s="60">
         <v>3.7067616246823476E-2</v>
       </c>
-      <c r="P26" s="90">
+      <c r="P26" s="60">
         <v>0.88175108888993525</v>
       </c>
-      <c r="Q26" s="90">
+      <c r="Q26" s="60">
         <v>0.18373043988512255</v>
       </c>
-      <c r="R26" s="90">
+      <c r="R26" s="60">
         <v>-4.4455876560703975E-2</v>
       </c>
-      <c r="S26" s="90">
+      <c r="S26" s="60">
         <v>0.47447242762838154</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="82">
+      <c r="B27" s="52">
         <v>15336</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="52">
         <v>42594</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="52">
         <v>27576</v>
       </c>
-      <c r="E27" s="82">
+      <c r="E27" s="52">
         <v>38736</v>
       </c>
-      <c r="F27" s="82">
+      <c r="F27" s="52">
         <v>307146</v>
       </c>
-      <c r="G27" s="82">
+      <c r="G27" s="52">
         <v>96000</v>
       </c>
-      <c r="H27" s="82">
+      <c r="H27" s="52">
         <v>23228.400000000001</v>
       </c>
-      <c r="I27" s="102">
+      <c r="I27" s="72">
         <f t="shared" si="0"/>
         <v>0.55061640000000001</v>
       </c>
-      <c r="J27" s="95">
+      <c r="J27" s="65">
         <v>550616.4</v>
       </c>
-      <c r="K27" s="100">
+      <c r="K27" s="70">
         <f t="shared" si="1"/>
         <v>0.6496482850855877</v>
       </c>
-      <c r="L27" s="90">
-        <v>0</v>
-      </c>
-      <c r="M27" s="90">
-        <v>0</v>
-      </c>
-      <c r="N27" s="90">
+      <c r="L27" s="60">
+        <v>0</v>
+      </c>
+      <c r="M27" s="60">
+        <v>0</v>
+      </c>
+      <c r="N27" s="60">
         <v>5.1394018009152741E-2</v>
       </c>
-      <c r="O27" s="90">
+      <c r="O27" s="60">
         <v>5.4144872758989902E-2</v>
       </c>
-      <c r="P27" s="90">
+      <c r="P27" s="60">
         <v>0.71554372712862757</v>
       </c>
-      <c r="Q27" s="90">
+      <c r="Q27" s="60">
         <v>0.17891738210322974</v>
       </c>
-      <c r="R27" s="90">
-        <v>0</v>
-      </c>
-      <c r="S27" s="90">
+      <c r="R27" s="60">
+        <v>0</v>
+      </c>
+      <c r="S27" s="60">
         <v>0.6496482850855877</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="82">
+      <c r="B28" s="52">
         <v>20448</v>
       </c>
-      <c r="C28" s="82">
+      <c r="C28" s="52">
         <v>56792</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="52">
         <v>36768</v>
       </c>
-      <c r="E28" s="82">
+      <c r="E28" s="52">
         <v>51648</v>
       </c>
-      <c r="F28" s="82">
+      <c r="F28" s="52">
         <v>409528</v>
       </c>
-      <c r="G28" s="82">
+      <c r="G28" s="52">
         <v>128000</v>
       </c>
-      <c r="H28" s="82">
+      <c r="H28" s="52">
         <v>30971.200000000001</v>
       </c>
-      <c r="I28" s="102">
+      <c r="I28" s="72">
         <f t="shared" si="0"/>
         <v>0.73415520000000001</v>
       </c>
-      <c r="J28" s="95">
+      <c r="J28" s="65">
         <v>734155.2</v>
       </c>
-      <c r="K28" s="100">
+      <c r="K28" s="70">
         <f t="shared" si="1"/>
         <v>0.73723621381419069</v>
       </c>
-      <c r="L28" s="90">
+      <c r="L28" s="60">
         <v>9.444876985650514E-3</v>
       </c>
-      <c r="M28" s="90">
+      <c r="M28" s="60">
         <v>2.623207422579538E-2</v>
       </c>
-      <c r="N28" s="90">
+      <c r="N28" s="60">
         <v>5.094912514794573E-2</v>
       </c>
-      <c r="O28" s="90">
+      <c r="O28" s="60">
         <v>5.9640185660563103E-2</v>
       </c>
-      <c r="P28" s="90">
+      <c r="P28" s="60">
         <v>0.66205964092469638</v>
       </c>
-      <c r="Q28" s="90">
+      <c r="Q28" s="60">
         <v>0.17736858189015048</v>
       </c>
-      <c r="R28" s="90">
+      <c r="R28" s="60">
         <v>1.4305515165198511E-2</v>
       </c>
-      <c r="S28" s="90">
+      <c r="S28" s="60">
         <v>0.73723621381419069</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="82">
+      <c r="B29" s="52">
         <v>25560</v>
       </c>
-      <c r="C29" s="82">
+      <c r="C29" s="52">
         <v>70990</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="52">
         <v>45960</v>
       </c>
-      <c r="E29" s="82">
+      <c r="E29" s="52">
         <v>64560</v>
       </c>
-      <c r="F29" s="82">
+      <c r="F29" s="52">
         <v>511910</v>
       </c>
-      <c r="G29" s="82">
+      <c r="G29" s="52">
         <v>160000</v>
       </c>
-      <c r="H29" s="82">
+      <c r="H29" s="52">
         <v>38714</v>
       </c>
-      <c r="I29" s="102">
+      <c r="I29" s="72">
         <f t="shared" si="0"/>
         <v>0.91769400000000001</v>
       </c>
-      <c r="J29" s="95">
+      <c r="J29" s="65">
         <v>917694</v>
       </c>
-      <c r="K29" s="100">
+      <c r="K29" s="70">
         <f t="shared" si="1"/>
         <v>0.57957794210270519</v>
       </c>
-      <c r="L29" s="90">
+      <c r="L29" s="60">
         <v>-9.6112772319521585E-3</v>
       </c>
-      <c r="M29" s="90">
+      <c r="M29" s="60">
         <v>-2.6694232030371037E-2</v>
       </c>
-      <c r="N29" s="90">
+      <c r="N29" s="60">
         <v>5.1846749011798261E-2</v>
       </c>
-      <c r="O29" s="90">
+      <c r="O29" s="60">
         <v>4.8552743199908557E-2</v>
       </c>
-      <c r="P29" s="90">
+      <c r="P29" s="60">
         <v>0.76997009824861173</v>
       </c>
-      <c r="Q29" s="90">
+      <c r="Q29" s="60">
         <v>0.18049346914464146</v>
       </c>
-      <c r="R29" s="90">
+      <c r="R29" s="60">
         <v>-1.4557550342636776E-2</v>
       </c>
-      <c r="S29" s="90">
+      <c r="S29" s="60">
         <v>0.57957794210270519</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="82">
+      <c r="B30" s="52">
         <v>20448</v>
       </c>
-      <c r="C30" s="82">
+      <c r="C30" s="52">
         <v>56792</v>
       </c>
-      <c r="D30" s="82">
+      <c r="D30" s="52">
         <v>36768</v>
       </c>
-      <c r="E30" s="82">
+      <c r="E30" s="52">
         <v>51648</v>
       </c>
-      <c r="F30" s="82">
+      <c r="F30" s="52">
         <v>409528</v>
       </c>
-      <c r="G30" s="82">
+      <c r="G30" s="52">
         <v>128000</v>
       </c>
-      <c r="H30" s="82">
+      <c r="H30" s="52">
         <v>30971.200000000001</v>
       </c>
-      <c r="I30" s="102">
+      <c r="I30" s="72">
         <f t="shared" si="0"/>
         <v>0.73415520000000001</v>
       </c>
-      <c r="J30" s="95">
+      <c r="J30" s="65">
         <v>734155.2</v>
       </c>
-      <c r="K30" s="100">
+      <c r="K30" s="70">
         <f t="shared" si="1"/>
         <v>0.6496482850855877</v>
       </c>
-      <c r="L30" s="90">
+      <c r="L30" s="60">
         <v>7.627706769279843E-18</v>
       </c>
-      <c r="M30" s="90">
+      <c r="M30" s="60">
         <v>1.5255413538559686E-17</v>
       </c>
-      <c r="N30" s="90">
+      <c r="N30" s="60">
         <v>5.1394018009152748E-2</v>
       </c>
-      <c r="O30" s="90">
+      <c r="O30" s="60">
         <v>5.4144872758989909E-2</v>
       </c>
-      <c r="P30" s="90">
+      <c r="P30" s="60">
         <v>0.71554372712862779</v>
       </c>
-      <c r="Q30" s="90">
+      <c r="Q30" s="60">
         <v>0.17891738210322977</v>
       </c>
-      <c r="R30" s="90">
-        <v>0</v>
-      </c>
-      <c r="S30" s="90">
+      <c r="R30" s="60">
+        <v>0</v>
+      </c>
+      <c r="S30" s="60">
         <v>0.6496482850855877</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="82">
+      <c r="B31" s="52">
         <v>15336</v>
       </c>
-      <c r="C31" s="82">
+      <c r="C31" s="52">
         <v>42594</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="52">
         <v>27576</v>
       </c>
-      <c r="E31" s="82">
+      <c r="E31" s="52">
         <v>38736</v>
       </c>
-      <c r="F31" s="82">
+      <c r="F31" s="52">
         <v>307146</v>
       </c>
-      <c r="G31" s="82">
+      <c r="G31" s="52">
         <v>96000</v>
       </c>
-      <c r="H31" s="82">
+      <c r="H31" s="52">
         <v>23228.400000000001</v>
       </c>
-      <c r="I31" s="102">
+      <c r="I31" s="72">
         <f t="shared" si="0"/>
         <v>0.55061640000000001</v>
       </c>
-      <c r="J31" s="95">
+      <c r="J31" s="65">
         <v>550616.4</v>
       </c>
-      <c r="K31" s="100">
+      <c r="K31" s="70">
         <f t="shared" si="1"/>
         <v>0.6496482850855877</v>
       </c>
-      <c r="L31" s="90">
-        <v>0</v>
-      </c>
-      <c r="M31" s="90">
-        <v>0</v>
-      </c>
-      <c r="N31" s="90">
+      <c r="L31" s="60">
+        <v>0</v>
+      </c>
+      <c r="M31" s="60">
+        <v>0</v>
+      </c>
+      <c r="N31" s="60">
         <v>5.1394018009152741E-2</v>
       </c>
-      <c r="O31" s="90">
+      <c r="O31" s="60">
         <v>5.4144872758989902E-2</v>
       </c>
-      <c r="P31" s="90">
+      <c r="P31" s="60">
         <v>0.71554372712862757</v>
       </c>
-      <c r="Q31" s="90">
+      <c r="Q31" s="60">
         <v>0.17891738210322974</v>
       </c>
-      <c r="R31" s="90">
-        <v>0</v>
-      </c>
-      <c r="S31" s="90">
+      <c r="R31" s="60">
+        <v>0</v>
+      </c>
+      <c r="S31" s="60">
         <v>0.6496482850855877</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="K32" s="100"/>
+      <c r="K32" s="70"/>
     </row>
     <row r="33" spans="11:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="K33" s="100"/>
+      <c r="K33" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13947,8 +13947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13959,62 +13959,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="106" t="s">
+      <c r="D1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="105" t="s">
+      <c r="I1" s="75" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="112">
+      <c r="C2" s="110">
         <v>500</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="108">
+      <c r="E2" s="78">
         <v>0.19289999999999999</v>
       </c>
-      <c r="F2" s="115">
+      <c r="F2" s="82">
         <f>(E8-E2)/E8</f>
         <v>0.52662576687116569</v>
       </c>
-      <c r="G2" s="109">
+      <c r="G2" s="79">
         <v>64</v>
       </c>
-      <c r="H2" s="114">
+      <c r="H2" s="81">
         <f>G2/E2</f>
         <v>331.77812337998967</v>
       </c>
-      <c r="I2" s="115">
+      <c r="I2" s="82">
         <f>(H2-H8)/H8</f>
         <v>1.112493519958528</v>
       </c>
@@ -14023,24 +14023,24 @@
       <c r="A3" s="111"/>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="108">
+      <c r="E3" s="78">
         <v>0.19289999999999999</v>
       </c>
-      <c r="F3" s="115">
+      <c r="F3" s="82">
         <f t="shared" ref="F3:F7" si="0">(E9-E3)/E9</f>
         <v>0.7633128834355829</v>
       </c>
-      <c r="G3" s="109">
+      <c r="G3" s="79">
         <v>32</v>
       </c>
-      <c r="H3" s="114">
+      <c r="H3" s="81">
         <f t="shared" ref="H3:H13" si="1">G3/E3</f>
         <v>165.88906168999483</v>
       </c>
-      <c r="I3" s="115">
+      <c r="I3" s="82">
         <f t="shared" ref="I3:I7" si="2">(H3-H9)/H9</f>
         <v>3.2249870399170559</v>
       </c>
@@ -14049,24 +14049,24 @@
       <c r="A4" s="111"/>
       <c r="B4" s="111"/>
       <c r="C4" s="111"/>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="108">
+      <c r="E4" s="78">
         <v>0.19289999999999999</v>
       </c>
-      <c r="F4" s="115">
+      <c r="F4" s="82">
         <f t="shared" si="0"/>
         <v>0.7633128834355829</v>
       </c>
-      <c r="G4" s="109">
+      <c r="G4" s="79">
         <v>64</v>
       </c>
-      <c r="H4" s="114">
+      <c r="H4" s="81">
         <f t="shared" si="1"/>
         <v>331.77812337998967</v>
       </c>
-      <c r="I4" s="115">
+      <c r="I4" s="82">
         <f t="shared" si="2"/>
         <v>3.2249870399170559</v>
       </c>
@@ -14075,24 +14075,24 @@
       <c r="A5" s="111"/>
       <c r="B5" s="111"/>
       <c r="C5" s="111"/>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="108">
+      <c r="E5" s="78">
         <v>0.38579999999999998</v>
       </c>
-      <c r="F5" s="115">
+      <c r="F5" s="82">
         <f t="shared" si="0"/>
         <v>0.68439136125654454</v>
       </c>
-      <c r="G5" s="109">
+      <c r="G5" s="79">
         <v>64</v>
       </c>
-      <c r="H5" s="114">
+      <c r="H5" s="81">
         <f t="shared" si="1"/>
         <v>165.88906168999483</v>
       </c>
-      <c r="I5" s="115">
+      <c r="I5" s="82">
         <f t="shared" si="2"/>
         <v>2.168481078278901</v>
       </c>
@@ -14101,445 +14101,445 @@
       <c r="A6" s="111"/>
       <c r="B6" s="111"/>
       <c r="C6" s="111"/>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E6" s="78">
         <v>0.25719999999999998</v>
       </c>
-      <c r="F6" s="115">
+      <c r="F6" s="82">
         <f t="shared" si="0"/>
         <v>0.68441717791411039</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G6" s="79">
         <v>32</v>
       </c>
-      <c r="H6" s="114">
+      <c r="H6" s="81">
         <f t="shared" si="1"/>
         <v>124.41679626749612</v>
       </c>
-      <c r="I6" s="115">
+      <c r="I6" s="82">
         <f t="shared" si="2"/>
         <v>2.1687402799377917</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="113"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="107" t="s">
+      <c r="A7" s="112"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="108">
+      <c r="E7" s="78">
         <v>0.19289999999999999</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F7" s="82">
         <f t="shared" si="0"/>
         <v>0.7633128834355829</v>
       </c>
-      <c r="G7" s="109">
+      <c r="G7" s="79">
         <v>32</v>
       </c>
-      <c r="H7" s="114">
+      <c r="H7" s="81">
         <f t="shared" si="1"/>
         <v>165.88906168999483</v>
       </c>
-      <c r="I7" s="115">
+      <c r="I7" s="82">
         <f t="shared" si="2"/>
         <v>3.2249870399170559</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E8" s="78">
         <v>0.40749999999999997</v>
       </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="109">
+      <c r="F8" s="80"/>
+      <c r="G8" s="79">
         <v>64</v>
       </c>
-      <c r="H8" s="114">
+      <c r="H8" s="81">
         <f t="shared" si="1"/>
         <v>157.05521472392638</v>
       </c>
-      <c r="I8" s="109"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="111"/>
       <c r="B9" s="111"/>
       <c r="C9" s="111"/>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="108">
+      <c r="E9" s="78">
         <v>0.81499999999999995</v>
       </c>
-      <c r="F9" s="110"/>
-      <c r="G9" s="109">
+      <c r="F9" s="80"/>
+      <c r="G9" s="79">
         <v>32</v>
       </c>
-      <c r="H9" s="114">
+      <c r="H9" s="81">
         <f t="shared" si="1"/>
         <v>39.263803680981596</v>
       </c>
-      <c r="I9" s="109"/>
+      <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="111"/>
       <c r="B10" s="111"/>
       <c r="C10" s="111"/>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="108">
+      <c r="E10" s="78">
         <v>0.81499999999999995</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="109">
+      <c r="F10" s="80"/>
+      <c r="G10" s="79">
         <v>64</v>
       </c>
-      <c r="H10" s="114">
+      <c r="H10" s="81">
         <f t="shared" si="1"/>
         <v>78.527607361963192</v>
       </c>
-      <c r="I10" s="109"/>
+      <c r="I10" s="79"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="111"/>
       <c r="B11" s="111"/>
       <c r="C11" s="111"/>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E11" s="78">
         <v>1.2223999999999999</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="109">
+      <c r="F11" s="80"/>
+      <c r="G11" s="79">
         <v>64</v>
       </c>
-      <c r="H11" s="114">
+      <c r="H11" s="81">
         <f t="shared" si="1"/>
         <v>52.356020942408378</v>
       </c>
-      <c r="I11" s="109"/>
+      <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="111"/>
       <c r="B12" s="111"/>
       <c r="C12" s="111"/>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E12" s="78">
         <v>0.81499999999999995</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="109">
+      <c r="F12" s="80"/>
+      <c r="G12" s="79">
         <v>32</v>
       </c>
-      <c r="H12" s="114">
+      <c r="H12" s="81">
         <f t="shared" si="1"/>
         <v>39.263803680981596</v>
       </c>
-      <c r="I12" s="109"/>
+      <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="107" t="s">
+      <c r="A13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E13" s="78">
         <v>0.81499999999999995</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="109">
+      <c r="F13" s="80"/>
+      <c r="G13" s="79">
         <v>32</v>
       </c>
-      <c r="H13" s="114">
+      <c r="H13" s="81">
         <f t="shared" si="1"/>
         <v>39.263803680981596</v>
       </c>
-      <c r="I13" s="109"/>
+      <c r="I13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="107" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="108">
+      <c r="E14" s="78">
         <v>0.87360000000000004</v>
       </c>
-      <c r="F14" s="110">
+      <c r="F14" s="80">
         <v>0.78</v>
       </c>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="111"/>
       <c r="B15" s="111"/>
       <c r="C15" s="111"/>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="108">
+      <c r="E15" s="78">
         <v>1.3104</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="80">
         <v>0.85</v>
       </c>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="111"/>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="108">
+      <c r="E16" s="78">
         <v>1.7472000000000001</v>
       </c>
-      <c r="F16" s="110">
+      <c r="F16" s="80">
         <v>0.89</v>
       </c>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="111"/>
       <c r="B17" s="111"/>
       <c r="C17" s="111"/>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="108">
+      <c r="E17" s="78">
         <v>2.1840000000000002</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F17" s="80">
         <v>0.82</v>
       </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="111"/>
       <c r="B18" s="111"/>
       <c r="C18" s="111"/>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="108">
+      <c r="E18" s="78">
         <v>1.7472000000000001</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="80">
         <v>0.85</v>
       </c>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="113"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="107" t="s">
+      <c r="A19" s="112"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="108">
+      <c r="E19" s="78">
         <v>1.3104</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="80">
         <v>0.85</v>
       </c>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="107" t="s">
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="108">
+      <c r="E20" s="78">
         <v>0.36709999999999998</v>
       </c>
-      <c r="F20" s="110">
+      <c r="F20" s="80">
         <v>0.47</v>
       </c>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="111"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="108">
+      <c r="E21" s="78">
         <v>0.55059999999999998</v>
       </c>
-      <c r="F21" s="110">
+      <c r="F21" s="80">
         <v>0.65</v>
       </c>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="111"/>
       <c r="B22" s="111"/>
       <c r="C22" s="111"/>
-      <c r="D22" s="107" t="s">
+      <c r="D22" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="108">
+      <c r="E22" s="78">
         <v>0.73419999999999996</v>
       </c>
-      <c r="F22" s="110">
+      <c r="F22" s="80">
         <v>0.74</v>
       </c>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="111"/>
       <c r="B23" s="111"/>
       <c r="C23" s="111"/>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="108">
+      <c r="E23" s="78">
         <v>0.91769999999999996</v>
       </c>
-      <c r="F23" s="110">
+      <c r="F23" s="80">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="111"/>
       <c r="B24" s="111"/>
       <c r="C24" s="111"/>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="108">
+      <c r="E24" s="78">
         <v>0.73419999999999996</v>
       </c>
-      <c r="F24" s="110">
+      <c r="F24" s="80">
         <v>0.65</v>
       </c>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="107" t="s">
+      <c r="A25" s="112"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="108">
+      <c r="E25" s="78">
         <v>0.55059999999999998</v>
       </c>
-      <c r="F25" s="110">
+      <c r="F25" s="80">
         <v>0.65</v>
       </c>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="28" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="106" t="s">
+      <c r="D29" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F29" s="106" t="s">
+      <c r="F29" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="G29" s="105" t="s">
+      <c r="G29" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="H29" s="105" t="s">
+      <c r="H29" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="I29" s="105" t="s">
+      <c r="I29" s="75" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="112" t="s">
+      <c r="A30" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="112">
+      <c r="C30" s="110">
         <v>500</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="107">
+      <c r="E30" s="77">
         <v>0.19289999999999999</v>
       </c>
-      <c r="F30" s="116">
+      <c r="F30" s="83">
         <f>(E36-E30)/E36</f>
         <v>0.77918956043956045</v>
       </c>
-      <c r="G30" s="109">
+      <c r="G30" s="79">
         <v>64</v>
       </c>
-      <c r="H30" s="109">
+      <c r="H30" s="79">
         <v>331.78</v>
       </c>
-      <c r="I30" s="116">
+      <c r="I30" s="83">
         <f>(H30-H36)/H36</f>
         <v>1.2643985</v>
       </c>
@@ -14548,23 +14548,23 @@
       <c r="A31" s="111"/>
       <c r="B31" s="111"/>
       <c r="C31" s="111"/>
-      <c r="D31" s="107" t="s">
+      <c r="D31" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="107">
+      <c r="E31" s="77">
         <v>0.19289999999999999</v>
       </c>
-      <c r="F31" s="116">
+      <c r="F31" s="83">
         <f t="shared" ref="F31:F35" si="3">(E37-E31)/E37</f>
         <v>0.85279304029304026</v>
       </c>
-      <c r="G31" s="109">
+      <c r="G31" s="79">
         <v>32</v>
       </c>
-      <c r="H31" s="109">
+      <c r="H31" s="79">
         <v>165.89</v>
       </c>
-      <c r="I31" s="116">
+      <c r="I31" s="83">
         <f t="shared" ref="I31:I35" si="4">(H31-H37)/H37</f>
         <v>2.3965977499999997</v>
       </c>
@@ -14573,23 +14573,23 @@
       <c r="A32" s="111"/>
       <c r="B32" s="111"/>
       <c r="C32" s="111"/>
-      <c r="D32" s="107" t="s">
+      <c r="D32" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="107">
+      <c r="E32" s="77">
         <v>0.19289999999999999</v>
       </c>
-      <c r="F32" s="116">
+      <c r="F32" s="83">
         <f t="shared" si="3"/>
         <v>0.88959478021978022</v>
       </c>
-      <c r="G32" s="109">
+      <c r="G32" s="79">
         <v>64</v>
       </c>
-      <c r="H32" s="109">
+      <c r="H32" s="79">
         <v>331.78</v>
       </c>
-      <c r="I32" s="116">
+      <c r="I32" s="83">
         <f t="shared" si="4"/>
         <v>3.5287970000000004</v>
       </c>
@@ -14598,23 +14598,23 @@
       <c r="A33" s="111"/>
       <c r="B33" s="111"/>
       <c r="C33" s="111"/>
-      <c r="D33" s="107" t="s">
+      <c r="D33" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="107">
+      <c r="E33" s="77">
         <v>0.38579999999999998</v>
       </c>
-      <c r="F33" s="116">
+      <c r="F33" s="83">
         <f t="shared" si="3"/>
         <v>0.82335164835164842</v>
       </c>
-      <c r="G33" s="109">
+      <c r="G33" s="79">
         <v>64</v>
       </c>
-      <c r="H33" s="109">
+      <c r="H33" s="79">
         <v>165.89</v>
       </c>
-      <c r="I33" s="116">
+      <c r="I33" s="83">
         <f t="shared" si="4"/>
         <v>1.8304981250000001</v>
       </c>
@@ -14623,204 +14623,204 @@
       <c r="A34" s="111"/>
       <c r="B34" s="111"/>
       <c r="C34" s="111"/>
-      <c r="D34" s="107" t="s">
+      <c r="D34" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="107">
+      <c r="E34" s="77">
         <v>0.25719999999999998</v>
       </c>
-      <c r="F34" s="116">
+      <c r="F34" s="83">
         <f t="shared" si="3"/>
         <v>0.85279304029304037</v>
       </c>
-      <c r="G34" s="109">
+      <c r="G34" s="79">
         <v>32</v>
       </c>
-      <c r="H34" s="109">
+      <c r="H34" s="79">
         <v>124.42</v>
       </c>
-      <c r="I34" s="116">
+      <c r="I34" s="83">
         <f t="shared" si="4"/>
         <v>2.3966660000000002</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="113"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="107" t="s">
+      <c r="A35" s="112"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="107">
+      <c r="E35" s="77">
         <v>0.19289999999999999</v>
       </c>
-      <c r="F35" s="116">
+      <c r="F35" s="83">
         <f t="shared" si="3"/>
         <v>0.85279304029304026</v>
       </c>
-      <c r="G35" s="109">
+      <c r="G35" s="79">
         <v>32</v>
       </c>
-      <c r="H35" s="109">
+      <c r="H35" s="79">
         <v>165.89</v>
       </c>
-      <c r="I35" s="116">
+      <c r="I35" s="83">
         <f t="shared" si="4"/>
         <v>2.3965977499999997</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="112">
+      <c r="C36" s="110">
         <v>1000</v>
       </c>
-      <c r="D36" s="107" t="s">
+      <c r="D36" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="117">
+      <c r="E36" s="84">
         <v>0.87360000000000004</v>
       </c>
-      <c r="F36" s="107"/>
-      <c r="G36" s="109">
+      <c r="F36" s="77"/>
+      <c r="G36" s="79">
         <f>G30*2</f>
         <v>128</v>
       </c>
-      <c r="H36" s="114">
+      <c r="H36" s="81">
         <f>G36/E36</f>
         <v>146.52014652014651</v>
       </c>
-      <c r="I36" s="109"/>
+      <c r="I36" s="79"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="111"/>
       <c r="B37" s="111"/>
       <c r="C37" s="111"/>
-      <c r="D37" s="107" t="s">
+      <c r="D37" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="117">
+      <c r="E37" s="84">
         <v>1.3104</v>
       </c>
-      <c r="F37" s="107"/>
-      <c r="G37" s="109">
+      <c r="F37" s="77"/>
+      <c r="G37" s="79">
         <f t="shared" ref="G37:G41" si="5">G31*2</f>
         <v>64</v>
       </c>
-      <c r="H37" s="114">
+      <c r="H37" s="81">
         <f t="shared" ref="H37:H41" si="6">G37/E37</f>
         <v>48.840048840048837</v>
       </c>
-      <c r="I37" s="109"/>
+      <c r="I37" s="79"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="111"/>
       <c r="B38" s="111"/>
       <c r="C38" s="111"/>
-      <c r="D38" s="107" t="s">
+      <c r="D38" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="117">
+      <c r="E38" s="84">
         <v>1.7472000000000001</v>
       </c>
-      <c r="F38" s="107"/>
-      <c r="G38" s="109">
+      <c r="F38" s="77"/>
+      <c r="G38" s="79">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="H38" s="114">
+      <c r="H38" s="81">
         <f t="shared" si="6"/>
         <v>73.260073260073256</v>
       </c>
-      <c r="I38" s="109"/>
+      <c r="I38" s="79"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="111"/>
       <c r="B39" s="111"/>
       <c r="C39" s="111"/>
-      <c r="D39" s="107" t="s">
+      <c r="D39" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="117">
+      <c r="E39" s="84">
         <v>2.1840000000000002</v>
       </c>
-      <c r="F39" s="107"/>
-      <c r="G39" s="109">
+      <c r="F39" s="77"/>
+      <c r="G39" s="79">
         <f t="shared" si="5"/>
         <v>128</v>
       </c>
-      <c r="H39" s="114">
+      <c r="H39" s="81">
         <f t="shared" si="6"/>
         <v>58.608058608058606</v>
       </c>
-      <c r="I39" s="109"/>
+      <c r="I39" s="79"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="111"/>
       <c r="B40" s="111"/>
       <c r="C40" s="111"/>
-      <c r="D40" s="107" t="s">
+      <c r="D40" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="117">
+      <c r="E40" s="84">
         <v>1.7472000000000001</v>
       </c>
-      <c r="F40" s="107"/>
-      <c r="G40" s="109">
+      <c r="F40" s="77"/>
+      <c r="G40" s="79">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="H40" s="114">
+      <c r="H40" s="81">
         <f t="shared" si="6"/>
         <v>36.630036630036628</v>
       </c>
-      <c r="I40" s="109"/>
+      <c r="I40" s="79"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="113"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="107" t="s">
+      <c r="A41" s="112"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="117">
+      <c r="E41" s="84">
         <v>1.3104</v>
       </c>
-      <c r="F41" s="107"/>
-      <c r="G41" s="109">
+      <c r="F41" s="77"/>
+      <c r="G41" s="79">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="H41" s="114">
+      <c r="H41" s="81">
         <f t="shared" si="6"/>
         <v>48.840048840048837</v>
       </c>
-      <c r="I41" s="109"/>
+      <c r="I41" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:A41"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="C36:C41"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14838,24 +14838,24 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="79"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="76"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="114"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -14876,7 +14876,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="91" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -14890,7 +14890,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -14902,7 +14902,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -14914,7 +14914,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -14926,7 +14926,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -14938,7 +14938,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -14962,7 +14962,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -14974,7 +14974,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -14986,7 +14986,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -14998,7 +14998,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -15010,7 +15010,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -15022,7 +15022,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -15034,7 +15034,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -15046,7 +15046,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -15058,7 +15058,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -15070,7 +15070,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -15082,7 +15082,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -15094,7 +15094,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -15106,7 +15106,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -15118,7 +15118,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -15130,7 +15130,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -15142,7 +15142,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
@@ -15154,7 +15154,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
@@ -15166,7 +15166,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
@@ -15178,7 +15178,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -15190,7 +15190,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
@@ -15202,7 +15202,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
@@ -15214,7 +15214,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
@@ -15226,7 +15226,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
@@ -15238,7 +15238,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
@@ -15250,7 +15250,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
@@ -15262,7 +15262,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
@@ -15274,7 +15274,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
@@ -15298,7 +15298,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
@@ -15310,7 +15310,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="91" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -15324,7 +15324,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
@@ -15336,7 +15336,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
@@ -15348,7 +15348,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -15360,7 +15360,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
@@ -15372,7 +15372,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
@@ -15384,7 +15384,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
@@ -15396,7 +15396,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -15408,7 +15408,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
@@ -15420,7 +15420,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
@@ -15432,7 +15432,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
+      <c r="A49" s="92"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
       </c>
@@ -15444,7 +15444,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
+      <c r="A50" s="92"/>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
@@ -15456,7 +15456,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="2" t="s">
         <v>24</v>
       </c>
@@ -15468,7 +15468,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="54"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
@@ -15480,7 +15480,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
+      <c r="A53" s="92"/>
       <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
@@ -15492,7 +15492,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
+      <c r="A54" s="92"/>
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -15504,7 +15504,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
+      <c r="A55" s="92"/>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
@@ -15516,7 +15516,7 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
+      <c r="A56" s="92"/>
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
@@ -15528,7 +15528,7 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
+      <c r="A57" s="92"/>
       <c r="B57" s="2" t="s">
         <v>29</v>
       </c>
@@ -15540,7 +15540,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
+      <c r="A58" s="92"/>
       <c r="B58" s="2" t="s">
         <v>30</v>
       </c>
@@ -15552,7 +15552,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
+      <c r="A59" s="92"/>
       <c r="B59" s="2" t="s">
         <v>31</v>
       </c>
@@ -15564,7 +15564,7 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
+      <c r="A60" s="92"/>
       <c r="B60" s="2" t="s">
         <v>32</v>
       </c>
@@ -15576,7 +15576,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
+      <c r="A61" s="92"/>
       <c r="B61" s="2" t="s">
         <v>33</v>
       </c>
@@ -15588,7 +15588,7 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
+      <c r="A62" s="92"/>
       <c r="B62" s="2" t="s">
         <v>34</v>
       </c>
@@ -15600,7 +15600,7 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
+      <c r="A63" s="92"/>
       <c r="B63" s="2" t="s">
         <v>35</v>
       </c>
@@ -15612,7 +15612,7 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
+      <c r="A64" s="92"/>
       <c r="B64" s="2" t="s">
         <v>36</v>
       </c>
@@ -15624,7 +15624,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="54"/>
+      <c r="A65" s="92"/>
       <c r="B65" s="2" t="s">
         <v>37</v>
       </c>
@@ -15636,7 +15636,7 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
+      <c r="A66" s="92"/>
       <c r="B66" s="2" t="s">
         <v>38</v>
       </c>
@@ -15648,7 +15648,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
+      <c r="A67" s="92"/>
       <c r="B67" s="2" t="s">
         <v>39</v>
       </c>
@@ -15660,7 +15660,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="54"/>
+      <c r="A68" s="92"/>
       <c r="B68" s="2" t="s">
         <v>40</v>
       </c>
@@ -15672,7 +15672,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
+      <c r="A69" s="92"/>
       <c r="B69" s="2" t="s">
         <v>41</v>
       </c>
@@ -15684,7 +15684,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
+      <c r="A70" s="92"/>
       <c r="B70" s="2" t="s">
         <v>42</v>
       </c>
@@ -15696,7 +15696,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="54"/>
+      <c r="A71" s="92"/>
       <c r="B71" s="2" t="s">
         <v>43</v>
       </c>
@@ -15708,7 +15708,7 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="54"/>
+      <c r="A72" s="92"/>
       <c r="B72" s="2" t="s">
         <v>44</v>
       </c>
@@ -15720,7 +15720,7 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="54"/>
+      <c r="A73" s="92"/>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
@@ -15732,7 +15732,7 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="55"/>
+      <c r="A74" s="93"/>
       <c r="B74" s="2" t="s">
         <v>45</v>
       </c>
@@ -15744,7 +15744,7 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="91" t="s">
         <v>48</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -15758,7 +15758,7 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
+      <c r="A76" s="92"/>
       <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
@@ -15770,7 +15770,7 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="54"/>
+      <c r="A77" s="92"/>
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
@@ -15782,7 +15782,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
+      <c r="A78" s="92"/>
       <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
@@ -15794,7 +15794,7 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
+      <c r="A79" s="92"/>
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -15806,7 +15806,7 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="54"/>
+      <c r="A80" s="92"/>
       <c r="B80" s="2" t="s">
         <v>17</v>
       </c>
@@ -15818,7 +15818,7 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="54"/>
+      <c r="A81" s="92"/>
       <c r="B81" s="2" t="s">
         <v>18</v>
       </c>
@@ -15830,7 +15830,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="54"/>
+      <c r="A82" s="92"/>
       <c r="B82" s="2" t="s">
         <v>19</v>
       </c>
@@ -15842,7 +15842,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="54"/>
+      <c r="A83" s="92"/>
       <c r="B83" s="2" t="s">
         <v>20</v>
       </c>
@@ -15854,7 +15854,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="54"/>
+      <c r="A84" s="92"/>
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
@@ -15866,7 +15866,7 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="54"/>
+      <c r="A85" s="92"/>
       <c r="B85" s="2" t="s">
         <v>22</v>
       </c>
@@ -15878,7 +15878,7 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="54"/>
+      <c r="A86" s="92"/>
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
@@ -15890,7 +15890,7 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="54"/>
+      <c r="A87" s="92"/>
       <c r="B87" s="2" t="s">
         <v>24</v>
       </c>
@@ -15902,7 +15902,7 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="54"/>
+      <c r="A88" s="92"/>
       <c r="B88" s="2" t="s">
         <v>25</v>
       </c>
@@ -15914,7 +15914,7 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="54"/>
+      <c r="A89" s="92"/>
       <c r="B89" s="2" t="s">
         <v>26</v>
       </c>
@@ -15926,7 +15926,7 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="54"/>
+      <c r="A90" s="92"/>
       <c r="B90" s="2" t="s">
         <v>27</v>
       </c>
@@ -15938,7 +15938,7 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="54"/>
+      <c r="A91" s="92"/>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
@@ -15950,7 +15950,7 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="54"/>
+      <c r="A92" s="92"/>
       <c r="B92" s="2" t="s">
         <v>28</v>
       </c>
@@ -15962,7 +15962,7 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="54"/>
+      <c r="A93" s="92"/>
       <c r="B93" s="2" t="s">
         <v>29</v>
       </c>
@@ -15974,7 +15974,7 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="54"/>
+      <c r="A94" s="92"/>
       <c r="B94" s="2" t="s">
         <v>30</v>
       </c>
@@ -15986,7 +15986,7 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="54"/>
+      <c r="A95" s="92"/>
       <c r="B95" s="2" t="s">
         <v>31</v>
       </c>
@@ -15998,7 +15998,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="54"/>
+      <c r="A96" s="92"/>
       <c r="B96" s="2" t="s">
         <v>32</v>
       </c>
@@ -16010,7 +16010,7 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="54"/>
+      <c r="A97" s="92"/>
       <c r="B97" s="2" t="s">
         <v>33</v>
       </c>
@@ -16022,7 +16022,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="54"/>
+      <c r="A98" s="92"/>
       <c r="B98" s="2" t="s">
         <v>34</v>
       </c>
@@ -16034,7 +16034,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="54"/>
+      <c r="A99" s="92"/>
       <c r="B99" s="2" t="s">
         <v>35</v>
       </c>
@@ -16046,7 +16046,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="54"/>
+      <c r="A100" s="92"/>
       <c r="B100" s="2" t="s">
         <v>36</v>
       </c>
@@ -16058,7 +16058,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="54"/>
+      <c r="A101" s="92"/>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
@@ -16070,7 +16070,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="54"/>
+      <c r="A102" s="92"/>
       <c r="B102" s="2" t="s">
         <v>38</v>
       </c>
@@ -16082,7 +16082,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="54"/>
+      <c r="A103" s="92"/>
       <c r="B103" s="2" t="s">
         <v>39</v>
       </c>
@@ -16094,7 +16094,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="54"/>
+      <c r="A104" s="92"/>
       <c r="B104" s="2" t="s">
         <v>40</v>
       </c>
@@ -16106,7 +16106,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="54"/>
+      <c r="A105" s="92"/>
       <c r="B105" s="2" t="s">
         <v>41</v>
       </c>
@@ -16118,7 +16118,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="54"/>
+      <c r="A106" s="92"/>
       <c r="B106" s="2" t="s">
         <v>42</v>
       </c>
@@ -16130,7 +16130,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="54"/>
+      <c r="A107" s="92"/>
       <c r="B107" s="2" t="s">
         <v>43</v>
       </c>
@@ -16142,7 +16142,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="54"/>
+      <c r="A108" s="92"/>
       <c r="B108" s="2" t="s">
         <v>44</v>
       </c>
@@ -16154,7 +16154,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="54"/>
+      <c r="A109" s="92"/>
       <c r="B109" s="2" t="s">
         <v>4</v>
       </c>
@@ -16166,7 +16166,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="55"/>
+      <c r="A110" s="93"/>
       <c r="B110" s="2" t="s">
         <v>45</v>
       </c>
@@ -16178,7 +16178,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="91" t="s">
         <v>49</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -16192,7 +16192,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="54"/>
+      <c r="A112" s="92"/>
       <c r="B112" s="2" t="s">
         <v>14</v>
       </c>
@@ -16204,7 +16204,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="54"/>
+      <c r="A113" s="92"/>
       <c r="B113" s="2" t="s">
         <v>15</v>
       </c>
@@ -16216,7 +16216,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="54"/>
+      <c r="A114" s="92"/>
       <c r="B114" s="2" t="s">
         <v>16</v>
       </c>
@@ -16228,7 +16228,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="54"/>
+      <c r="A115" s="92"/>
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
@@ -16240,7 +16240,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="54"/>
+      <c r="A116" s="92"/>
       <c r="B116" s="2" t="s">
         <v>17</v>
       </c>
@@ -16252,7 +16252,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="54"/>
+      <c r="A117" s="92"/>
       <c r="B117" s="2" t="s">
         <v>18</v>
       </c>
@@ -16264,7 +16264,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="54"/>
+      <c r="A118" s="92"/>
       <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
@@ -16276,7 +16276,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="54"/>
+      <c r="A119" s="92"/>
       <c r="B119" s="2" t="s">
         <v>20</v>
       </c>
@@ -16288,7 +16288,7 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="54"/>
+      <c r="A120" s="92"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -16300,7 +16300,7 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="54"/>
+      <c r="A121" s="92"/>
       <c r="B121" s="2" t="s">
         <v>22</v>
       </c>
@@ -16312,7 +16312,7 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="54"/>
+      <c r="A122" s="92"/>
       <c r="B122" s="2" t="s">
         <v>23</v>
       </c>
@@ -16324,7 +16324,7 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="54"/>
+      <c r="A123" s="92"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -16336,7 +16336,7 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="54"/>
+      <c r="A124" s="92"/>
       <c r="B124" s="2" t="s">
         <v>25</v>
       </c>
@@ -16348,7 +16348,7 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="54"/>
+      <c r="A125" s="92"/>
       <c r="B125" s="2" t="s">
         <v>26</v>
       </c>
@@ -16360,7 +16360,7 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="54"/>
+      <c r="A126" s="92"/>
       <c r="B126" s="2" t="s">
         <v>27</v>
       </c>
@@ -16372,7 +16372,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="54"/>
+      <c r="A127" s="92"/>
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
@@ -16384,7 +16384,7 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="54"/>
+      <c r="A128" s="92"/>
       <c r="B128" s="2" t="s">
         <v>28</v>
       </c>
@@ -16396,7 +16396,7 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="54"/>
+      <c r="A129" s="92"/>
       <c r="B129" s="2" t="s">
         <v>29</v>
       </c>
@@ -16408,7 +16408,7 @@
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="54"/>
+      <c r="A130" s="92"/>
       <c r="B130" s="2" t="s">
         <v>30</v>
       </c>
@@ -16420,7 +16420,7 @@
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="54"/>
+      <c r="A131" s="92"/>
       <c r="B131" s="2" t="s">
         <v>31</v>
       </c>
@@ -16432,7 +16432,7 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="54"/>
+      <c r="A132" s="92"/>
       <c r="B132" s="2" t="s">
         <v>32</v>
       </c>
@@ -16444,7 +16444,7 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="54"/>
+      <c r="A133" s="92"/>
       <c r="B133" s="2" t="s">
         <v>33</v>
       </c>
@@ -16456,7 +16456,7 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="54"/>
+      <c r="A134" s="92"/>
       <c r="B134" s="2" t="s">
         <v>34</v>
       </c>
@@ -16468,7 +16468,7 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="54"/>
+      <c r="A135" s="92"/>
       <c r="B135" s="2" t="s">
         <v>35</v>
       </c>
@@ -16480,7 +16480,7 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="54"/>
+      <c r="A136" s="92"/>
       <c r="B136" s="2" t="s">
         <v>36</v>
       </c>
@@ -16492,7 +16492,7 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="54"/>
+      <c r="A137" s="92"/>
       <c r="B137" s="2" t="s">
         <v>37</v>
       </c>
@@ -16504,7 +16504,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="54"/>
+      <c r="A138" s="92"/>
       <c r="B138" s="2" t="s">
         <v>38</v>
       </c>
@@ -16516,7 +16516,7 @@
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="54"/>
+      <c r="A139" s="92"/>
       <c r="B139" s="2" t="s">
         <v>39</v>
       </c>
@@ -16528,7 +16528,7 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="54"/>
+      <c r="A140" s="92"/>
       <c r="B140" s="2" t="s">
         <v>40</v>
       </c>
@@ -16540,7 +16540,7 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="54"/>
+      <c r="A141" s="92"/>
       <c r="B141" s="2" t="s">
         <v>41</v>
       </c>
@@ -16552,7 +16552,7 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="54"/>
+      <c r="A142" s="92"/>
       <c r="B142" s="2" t="s">
         <v>42</v>
       </c>
@@ -16564,7 +16564,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="54"/>
+      <c r="A143" s="92"/>
       <c r="B143" s="2" t="s">
         <v>43</v>
       </c>
@@ -16576,7 +16576,7 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="54"/>
+      <c r="A144" s="92"/>
       <c r="B144" s="2" t="s">
         <v>44</v>
       </c>
@@ -16588,7 +16588,7 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="54"/>
+      <c r="A145" s="92"/>
       <c r="B145" s="2" t="s">
         <v>4</v>
       </c>
@@ -16600,7 +16600,7 @@
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="55"/>
+      <c r="A146" s="93"/>
       <c r="B146" s="2" t="s">
         <v>45</v>
       </c>
@@ -16613,24 +16613,24 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="53" t="s">
+      <c r="A152" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C152" s="61" t="s">
+      <c r="B152" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D152" s="62"/>
-      <c r="E152" s="62"/>
-      <c r="F152" s="62"/>
-      <c r="G152" s="62"/>
-      <c r="H152" s="63"/>
+      <c r="D152" s="97"/>
+      <c r="E152" s="97"/>
+      <c r="F152" s="97"/>
+      <c r="G152" s="97"/>
+      <c r="H152" s="98"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="55"/>
-      <c r="B153" s="60"/>
+      <c r="A153" s="93"/>
+      <c r="B153" s="95"/>
       <c r="C153" s="1" t="s">
         <v>7</v>
       </c>
@@ -16651,7 +16651,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="53" t="s">
+      <c r="A154" s="91" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -16665,7 +16665,7 @@
       <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="54"/>
+      <c r="A155" s="92"/>
       <c r="B155" s="2" t="s">
         <v>14</v>
       </c>
@@ -16677,7 +16677,7 @@
       <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="54"/>
+      <c r="A156" s="92"/>
       <c r="B156" s="2" t="s">
         <v>15</v>
       </c>
@@ -16689,7 +16689,7 @@
       <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="54"/>
+      <c r="A157" s="92"/>
       <c r="B157" s="2" t="s">
         <v>16</v>
       </c>
@@ -16701,7 +16701,7 @@
       <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="54"/>
+      <c r="A158" s="92"/>
       <c r="B158" s="2" t="s">
         <v>2</v>
       </c>
@@ -16713,7 +16713,7 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="54"/>
+      <c r="A159" s="92"/>
       <c r="B159" s="2" t="s">
         <v>17</v>
       </c>
@@ -16725,7 +16725,7 @@
       <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="54"/>
+      <c r="A160" s="92"/>
       <c r="B160" s="2" t="s">
         <v>18</v>
       </c>
@@ -16737,7 +16737,7 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="54"/>
+      <c r="A161" s="92"/>
       <c r="B161" s="2" t="s">
         <v>19</v>
       </c>
@@ -16749,7 +16749,7 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="54"/>
+      <c r="A162" s="92"/>
       <c r="B162" s="2" t="s">
         <v>20</v>
       </c>
@@ -16761,7 +16761,7 @@
       <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="54"/>
+      <c r="A163" s="92"/>
       <c r="B163" s="2" t="s">
         <v>21</v>
       </c>
@@ -16773,7 +16773,7 @@
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="54"/>
+      <c r="A164" s="92"/>
       <c r="B164" s="2" t="s">
         <v>22</v>
       </c>
@@ -16785,7 +16785,7 @@
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="54"/>
+      <c r="A165" s="92"/>
       <c r="B165" s="2" t="s">
         <v>23</v>
       </c>
@@ -16797,7 +16797,7 @@
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="54"/>
+      <c r="A166" s="92"/>
       <c r="B166" s="2" t="s">
         <v>24</v>
       </c>
@@ -16809,7 +16809,7 @@
       <c r="H166" s="4"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="54"/>
+      <c r="A167" s="92"/>
       <c r="B167" s="2" t="s">
         <v>25</v>
       </c>
@@ -16821,7 +16821,7 @@
       <c r="H167" s="4"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="55"/>
+      <c r="A168" s="93"/>
       <c r="B168" s="5" t="s">
         <v>50</v>
       </c>
@@ -16833,7 +16833,7 @@
       <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="53" t="s">
+      <c r="A169" s="91" t="s">
         <v>46</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -16847,7 +16847,7 @@
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="54"/>
+      <c r="A170" s="92"/>
       <c r="B170" s="2" t="s">
         <v>14</v>
       </c>
@@ -16859,7 +16859,7 @@
       <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="54"/>
+      <c r="A171" s="92"/>
       <c r="B171" s="2" t="s">
         <v>15</v>
       </c>
@@ -16871,7 +16871,7 @@
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="54"/>
+      <c r="A172" s="92"/>
       <c r="B172" s="2" t="s">
         <v>16</v>
       </c>
@@ -16883,7 +16883,7 @@
       <c r="H172" s="4"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="54"/>
+      <c r="A173" s="92"/>
       <c r="B173" s="2" t="s">
         <v>2</v>
       </c>
@@ -16895,7 +16895,7 @@
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="54"/>
+      <c r="A174" s="92"/>
       <c r="B174" s="2" t="s">
         <v>17</v>
       </c>
@@ -16907,7 +16907,7 @@
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="54"/>
+      <c r="A175" s="92"/>
       <c r="B175" s="2" t="s">
         <v>18</v>
       </c>
@@ -16919,7 +16919,7 @@
       <c r="H175" s="4"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="54"/>
+      <c r="A176" s="92"/>
       <c r="B176" s="2" t="s">
         <v>19</v>
       </c>
@@ -16931,7 +16931,7 @@
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="54"/>
+      <c r="A177" s="92"/>
       <c r="B177" s="2" t="s">
         <v>20</v>
       </c>
@@ -16943,7 +16943,7 @@
       <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="54"/>
+      <c r="A178" s="92"/>
       <c r="B178" s="2" t="s">
         <v>21</v>
       </c>
@@ -16955,7 +16955,7 @@
       <c r="H178" s="4"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="54"/>
+      <c r="A179" s="92"/>
       <c r="B179" s="2" t="s">
         <v>22</v>
       </c>
@@ -16967,7 +16967,7 @@
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="54"/>
+      <c r="A180" s="92"/>
       <c r="B180" s="2" t="s">
         <v>23</v>
       </c>
@@ -16979,7 +16979,7 @@
       <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="54"/>
+      <c r="A181" s="92"/>
       <c r="B181" s="2" t="s">
         <v>24</v>
       </c>
@@ -16991,7 +16991,7 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="54"/>
+      <c r="A182" s="92"/>
       <c r="B182" s="2" t="s">
         <v>25</v>
       </c>
@@ -17003,7 +17003,7 @@
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="55"/>
+      <c r="A183" s="93"/>
       <c r="B183" s="5" t="s">
         <v>50</v>
       </c>
@@ -17015,7 +17015,7 @@
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="53" t="s">
+      <c r="A184" s="91" t="s">
         <v>51</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -17029,7 +17029,7 @@
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="54"/>
+      <c r="A185" s="92"/>
       <c r="B185" s="2" t="s">
         <v>14</v>
       </c>
@@ -17041,7 +17041,7 @@
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="54"/>
+      <c r="A186" s="92"/>
       <c r="B186" s="2" t="s">
         <v>15</v>
       </c>
@@ -17053,7 +17053,7 @@
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="54"/>
+      <c r="A187" s="92"/>
       <c r="B187" s="2" t="s">
         <v>16</v>
       </c>
@@ -17065,7 +17065,7 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="54"/>
+      <c r="A188" s="92"/>
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -17077,7 +17077,7 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="54"/>
+      <c r="A189" s="92"/>
       <c r="B189" s="2" t="s">
         <v>17</v>
       </c>
@@ -17089,7 +17089,7 @@
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="54"/>
+      <c r="A190" s="92"/>
       <c r="B190" s="2" t="s">
         <v>18</v>
       </c>
@@ -17101,7 +17101,7 @@
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="54"/>
+      <c r="A191" s="92"/>
       <c r="B191" s="2" t="s">
         <v>19</v>
       </c>
@@ -17113,7 +17113,7 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="54"/>
+      <c r="A192" s="92"/>
       <c r="B192" s="2" t="s">
         <v>20</v>
       </c>
@@ -17125,7 +17125,7 @@
       <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="54"/>
+      <c r="A193" s="92"/>
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
@@ -17137,7 +17137,7 @@
       <c r="H193" s="4"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="54"/>
+      <c r="A194" s="92"/>
       <c r="B194" s="2" t="s">
         <v>22</v>
       </c>
@@ -17149,7 +17149,7 @@
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="54"/>
+      <c r="A195" s="92"/>
       <c r="B195" s="2" t="s">
         <v>23</v>
       </c>
@@ -17161,7 +17161,7 @@
       <c r="H195" s="4"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="54"/>
+      <c r="A196" s="92"/>
       <c r="B196" s="2" t="s">
         <v>24</v>
       </c>
@@ -17173,7 +17173,7 @@
       <c r="H196" s="4"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="54"/>
+      <c r="A197" s="92"/>
       <c r="B197" s="2" t="s">
         <v>25</v>
       </c>
@@ -17185,7 +17185,7 @@
       <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="55"/>
+      <c r="A198" s="93"/>
       <c r="B198" s="5" t="s">
         <v>50</v>
       </c>
@@ -17197,7 +17197,7 @@
       <c r="H198" s="4"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="53" t="s">
+      <c r="A199" s="91" t="s">
         <v>52</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -17211,7 +17211,7 @@
       <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="54"/>
+      <c r="A200" s="92"/>
       <c r="B200" s="2" t="s">
         <v>14</v>
       </c>
@@ -17223,7 +17223,7 @@
       <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="54"/>
+      <c r="A201" s="92"/>
       <c r="B201" s="2" t="s">
         <v>15</v>
       </c>
@@ -17235,7 +17235,7 @@
       <c r="H201" s="4"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="54"/>
+      <c r="A202" s="92"/>
       <c r="B202" s="2" t="s">
         <v>16</v>
       </c>
@@ -17247,7 +17247,7 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="54"/>
+      <c r="A203" s="92"/>
       <c r="B203" s="2" t="s">
         <v>2</v>
       </c>
@@ -17259,7 +17259,7 @@
       <c r="H203" s="4"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="54"/>
+      <c r="A204" s="92"/>
       <c r="B204" s="2" t="s">
         <v>17</v>
       </c>
@@ -17271,7 +17271,7 @@
       <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="54"/>
+      <c r="A205" s="92"/>
       <c r="B205" s="2" t="s">
         <v>18</v>
       </c>
@@ -17283,7 +17283,7 @@
       <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="54"/>
+      <c r="A206" s="92"/>
       <c r="B206" s="2" t="s">
         <v>19</v>
       </c>
@@ -17295,7 +17295,7 @@
       <c r="H206" s="4"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="54"/>
+      <c r="A207" s="92"/>
       <c r="B207" s="2" t="s">
         <v>20</v>
       </c>
@@ -17307,7 +17307,7 @@
       <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="54"/>
+      <c r="A208" s="92"/>
       <c r="B208" s="2" t="s">
         <v>21</v>
       </c>
@@ -17319,7 +17319,7 @@
       <c r="H208" s="4"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="54"/>
+      <c r="A209" s="92"/>
       <c r="B209" s="2" t="s">
         <v>22</v>
       </c>
@@ -17331,7 +17331,7 @@
       <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="54"/>
+      <c r="A210" s="92"/>
       <c r="B210" s="2" t="s">
         <v>23</v>
       </c>
@@ -17343,7 +17343,7 @@
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="54"/>
+      <c r="A211" s="92"/>
       <c r="B211" s="2" t="s">
         <v>24</v>
       </c>
@@ -17355,7 +17355,7 @@
       <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="54"/>
+      <c r="A212" s="92"/>
       <c r="B212" s="2" t="s">
         <v>25</v>
       </c>
@@ -17367,7 +17367,7 @@
       <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="55"/>
+      <c r="A213" s="93"/>
       <c r="B213" s="5" t="s">
         <v>50</v>
       </c>
@@ -17380,6 +17380,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -17389,11 +17394,6 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/对比/性能对比.xlsx
+++ b/对比/性能对比.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="601"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="189">
   <si>
     <t>算法</t>
   </si>
@@ -767,6 +767,38 @@
   </si>
   <si>
     <t>面积减少百分比</t>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XTEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XTEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1521,6 +1553,7 @@
       <sheetName val="映射分析"/>
       <sheetName val="资源数比较"/>
       <sheetName val="面积比较"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1683,7 +1716,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="C2">
@@ -2260,7 +2293,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2531,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3676,7 +3710,9 @@
       <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="5"/>
+      <c r="C50" s="5">
+        <v>16</v>
+      </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -3761,7 +3797,9 @@
       <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -3846,7 +3884,9 @@
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -3898,7 +3938,9 @@
       <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="5"/>
+      <c r="C53" s="5">
+        <v>6</v>
+      </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -3923,7 +3965,9 @@
       <c r="B54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="5"/>
+      <c r="C54" s="5">
+        <v>3</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -3948,7 +3992,9 @@
       <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="5"/>
+      <c r="C55" s="5">
+        <v>4</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -3971,9 +4017,11 @@
     <row r="56" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="93"/>
       <c r="B56" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="5"/>
+        <v>188</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -4301,7 +4349,9 @@
       <c r="B65" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="5"/>
+      <c r="C65" s="5">
+        <v>12</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -4315,7 +4365,9 @@
       <c r="B66" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="5"/>
+      <c r="C66" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -4346,7 +4398,9 @@
       <c r="B67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -4371,7 +4425,9 @@
       <c r="B68" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="5"/>
+      <c r="C68" s="5">
+        <v>6</v>
+      </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -4396,7 +4452,9 @@
       <c r="B69" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="5"/>
+      <c r="C69" s="5">
+        <v>4</v>
+      </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -4437,7 +4495,9 @@
       <c r="B70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="5"/>
+      <c r="C70" s="5">
+        <v>4</v>
+      </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -4460,9 +4520,11 @@
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="93"/>
       <c r="B71" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="5"/>
+        <v>187</v>
+      </c>
+      <c r="C71" s="5">
+        <v>3</v>
+      </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -4801,7 +4863,9 @@
       <c r="B80" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="5"/>
+      <c r="C80" s="5">
+        <v>10</v>
+      </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -4826,7 +4890,9 @@
       <c r="B81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="5"/>
+      <c r="C81" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -4851,7 +4917,9 @@
       <c r="B82" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="5"/>
+      <c r="C82" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -4876,7 +4944,9 @@
       <c r="B83" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="5"/>
+      <c r="C83" s="5">
+        <v>4</v>
+      </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -4901,7 +4971,9 @@
       <c r="B84" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C84" s="5"/>
+      <c r="C84" s="5">
+        <v>3</v>
+      </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -4926,7 +4998,9 @@
       <c r="B85" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C85" s="5"/>
+      <c r="C85" s="5">
+        <v>4</v>
+      </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -4948,10 +5022,13 @@
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="90"/>
-      <c r="B86" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="5"/>
+      <c r="B86" s="5" t="str">
+        <f>B71</f>
+        <v>XTEA</v>
+      </c>
+      <c r="C86" s="5">
+        <v>3</v>
+      </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -4982,21 +5059,27 @@
         <v>2</v>
       </c>
       <c r="D87" s="1">
+        <f>4*C87</f>
         <v>8</v>
       </c>
       <c r="E87" s="1">
+        <f>D87</f>
         <v>8</v>
       </c>
       <c r="F87" s="1">
+        <f>E87</f>
         <v>8</v>
       </c>
       <c r="G87" s="1">
+        <f>F87*2</f>
         <v>16</v>
       </c>
       <c r="H87" s="1">
+        <f>D87</f>
         <v>8</v>
       </c>
       <c r="I87" s="1">
+        <f>E87</f>
         <v>8</v>
       </c>
       <c r="K87" s="11" t="s">
@@ -5021,22 +5104,28 @@
         <v>3</v>
       </c>
       <c r="D88" s="1">
+        <f t="shared" ref="D88:D95" si="12">4*C88</f>
         <v>12</v>
       </c>
       <c r="E88" s="1">
+        <f t="shared" ref="E88:F88" si="13">D88</f>
         <v>12</v>
       </c>
       <c r="F88" s="1">
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="G88" s="1">
+        <f t="shared" ref="G88:G95" si="14">F88*2</f>
         <v>24</v>
       </c>
       <c r="H88" s="1">
+        <f t="shared" ref="H88:H95" si="15">D88</f>
         <v>12</v>
       </c>
       <c r="I88" s="1">
-        <v>0</v>
+        <f t="shared" ref="I88:I95" si="16">E88</f>
+        <v>12</v>
       </c>
       <c r="K88" s="11" t="s">
         <v>29</v>
@@ -5060,22 +5149,28 @@
         <v>12</v>
       </c>
       <c r="D89" s="1">
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
       <c r="E89" s="1">
+        <f t="shared" ref="E89:F89" si="17">D89</f>
         <v>48</v>
       </c>
       <c r="F89" s="1">
+        <f t="shared" si="17"/>
         <v>48</v>
       </c>
       <c r="G89" s="1">
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="H89" s="1">
+        <f t="shared" si="15"/>
         <v>48</v>
       </c>
       <c r="I89" s="1">
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>48</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>50</v>
@@ -5099,21 +5194,27 @@
         <v>6</v>
       </c>
       <c r="D90" s="1">
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="E90" s="1">
+        <f t="shared" ref="E90:F90" si="18">D90</f>
         <v>24</v>
       </c>
       <c r="F90" s="1">
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="G90" s="1">
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
       <c r="H90" s="1">
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="I90" s="1">
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
     </row>
@@ -5126,22 +5227,28 @@
         <v>4</v>
       </c>
       <c r="D91" s="1">
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="E91" s="1">
+        <f t="shared" ref="E91:F91" si="19">D91</f>
         <v>16</v>
       </c>
       <c r="F91" s="1">
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="G91" s="1">
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
       <c r="H91" s="1">
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="I91" s="1">
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5153,25 +5260,31 @@
         <v>5</v>
       </c>
       <c r="D92" s="1">
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="E92" s="1">
+        <f t="shared" ref="E92:F92" si="20">D92</f>
         <v>20</v>
       </c>
       <c r="F92" s="1">
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="G92" s="1">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="H92" s="1">
+      <c r="I92" s="1">
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
-      <c r="I92" s="1">
-        <v>0</v>
-      </c>
       <c r="K92" s="18">
-        <f t="shared" ref="K92:K99" si="12">(N44-Q44)/Q44</f>
+        <f t="shared" ref="K92:K99" si="21">(N44-Q44)/Q44</f>
         <v>1.0556457963803172</v>
       </c>
     </row>
@@ -5181,28 +5294,34 @@
         <v>24</v>
       </c>
       <c r="C93" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D93" s="1">
-        <v>28</v>
+        <f t="shared" si="12"/>
+        <v>36</v>
       </c>
       <c r="E93" s="1">
-        <v>28</v>
+        <f t="shared" ref="E93:F93" si="22">D93</f>
+        <v>36</v>
       </c>
       <c r="F93" s="1">
-        <v>28</v>
+        <f t="shared" si="22"/>
+        <v>36</v>
       </c>
       <c r="G93" s="1">
-        <v>56</v>
+        <f t="shared" si="14"/>
+        <v>72</v>
       </c>
       <c r="H93" s="1">
-        <v>28</v>
+        <f t="shared" si="15"/>
+        <v>36</v>
       </c>
       <c r="I93" s="1">
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>36</v>
       </c>
       <c r="K93" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.0556457963803172</v>
       </c>
     </row>
@@ -5215,25 +5334,31 @@
         <v>3</v>
       </c>
       <c r="D94" s="1">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="E94" s="1">
+        <f t="shared" ref="E94:F95" si="23">D94</f>
         <v>12</v>
       </c>
       <c r="F94" s="1">
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="G94" s="1">
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="H94" s="1">
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="I94" s="1">
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="K94" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.0556457963803172</v>
       </c>
     </row>
@@ -5242,15 +5367,35 @@
       <c r="B95" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
+      <c r="C95" s="5">
+        <v>11</v>
+      </c>
+      <c r="D95" s="4">
+        <f>4*C95</f>
+        <v>44</v>
+      </c>
+      <c r="E95" s="4">
+        <f>D95</f>
+        <v>44</v>
+      </c>
+      <c r="F95" s="4">
+        <f>E95</f>
+        <v>44</v>
+      </c>
+      <c r="G95" s="4">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="H95" s="4">
+        <f t="shared" si="15"/>
+        <v>44</v>
+      </c>
+      <c r="I95" s="4">
+        <f t="shared" si="16"/>
+        <v>44</v>
+      </c>
       <c r="K95" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.54173434728523806</v>
       </c>
     </row>
@@ -5259,7 +5404,9 @@
       <c r="B96" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C96" s="5"/>
+      <c r="C96" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -5267,7 +5414,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="K96" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.54173434728523817</v>
       </c>
     </row>
@@ -5276,7 +5423,9 @@
       <c r="B97" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="5"/>
+      <c r="C97" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -5284,7 +5433,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="K97" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.28477862273769822</v>
       </c>
     </row>
@@ -5293,7 +5442,9 @@
       <c r="B98" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="5"/>
+      <c r="C98" s="5">
+        <v>6</v>
+      </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -5301,7 +5452,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="K98" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.37043053092021161</v>
       </c>
     </row>
@@ -5310,7 +5461,9 @@
       <c r="B99" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="5"/>
+      <c r="C99" s="5">
+        <v>3</v>
+      </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -5318,7 +5471,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="K99" s="18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.0556457963803172</v>
       </c>
     </row>
@@ -5327,7 +5480,9 @@
       <c r="B100" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C100" s="5"/>
+      <c r="C100" s="5">
+        <v>4</v>
+      </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -5337,10 +5492,13 @@
     </row>
     <row r="101" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A101" s="90"/>
-      <c r="B101" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101" s="5"/>
+      <c r="B101" s="5" t="str">
+        <f>B86</f>
+        <v>XTEA</v>
+      </c>
+      <c r="C101" s="5">
+        <v>3</v>
+      </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -5359,7 +5517,9 @@
       <c r="B102" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="6"/>
+      <c r="C102" s="6">
+        <v>2</v>
+      </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -5372,7 +5532,9 @@
       <c r="B103" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C103" s="6"/>
+      <c r="C103" s="6">
+        <v>1</v>
+      </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -5429,7 +5591,7 @@
         <v>109908.05493055555</v>
       </c>
       <c r="N105" s="24">
-        <f t="shared" ref="N105:N111" si="13">M105/L105</f>
+        <f t="shared" ref="N105:N111" si="24">M105/L105</f>
         <v>0.17721112745844519</v>
       </c>
     </row>
@@ -5438,7 +5600,9 @@
       <c r="B106" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C106" s="6"/>
+      <c r="C106" s="6">
+        <v>2</v>
+      </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -5455,7 +5619,7 @@
         <v>109908.05493055555</v>
       </c>
       <c r="N106" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0.17721112745844519</v>
       </c>
     </row>
@@ -5482,7 +5646,7 @@
         <v>56193.333333333336</v>
       </c>
       <c r="N107" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>9.0603768412971727E-2</v>
       </c>
     </row>
@@ -5491,7 +5655,9 @@
       <c r="B108" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C108" s="6"/>
+      <c r="C108" s="6">
+        <v>4</v>
+      </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -5509,7 +5675,7 @@
         <v>37472.133333333339</v>
       </c>
       <c r="N108" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>9.0514595556894464E-2</v>
       </c>
     </row>
@@ -5536,7 +5702,7 @@
         <v>-25618.054930555554</v>
       </c>
       <c r="N109" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-8.2610949677975221E-2</v>
       </c>
     </row>
@@ -5545,7 +5711,9 @@
       <c r="B110" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C110" s="5"/>
+      <c r="C110" s="6">
+        <v>7</v>
+      </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -5563,7 +5731,7 @@
         <v>-9414.7215972222184</v>
       </c>
       <c r="N110" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-1.5179901327571334E-2</v>
       </c>
     </row>
@@ -5572,7 +5740,9 @@
       <c r="B111" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C111" s="5"/>
+      <c r="C111" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -5589,7 +5759,7 @@
         <v>109908.05493055555</v>
       </c>
       <c r="N111" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0.17721112745844519</v>
       </c>
     </row>
@@ -5598,7 +5768,9 @@
       <c r="B112" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C112" s="5"/>
+      <c r="C112" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -5615,7 +5787,9 @@
       <c r="B113" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="5"/>
+      <c r="C113" s="5">
+        <v>3</v>
+      </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -5628,7 +5802,9 @@
       <c r="B114" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="5"/>
+      <c r="C114" s="5">
+        <v>1</v>
+      </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -5641,7 +5817,9 @@
       <c r="B115" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C115" s="5"/>
+      <c r="C115" s="5">
+        <v>4</v>
+      </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -5651,8 +5829,9 @@
     </row>
     <row r="116" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A116" s="90"/>
-      <c r="B116" s="5" t="s">
-        <v>50</v>
+      <c r="B116" s="5" t="str">
+        <f>B101</f>
+        <v>XTEA</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="4"/>
@@ -5848,8 +6027,9 @@
     </row>
     <row r="131" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A131" s="93"/>
-      <c r="B131" s="5" t="s">
-        <v>50</v>
+      <c r="B131" s="5" t="str">
+        <f>B116</f>
+        <v>XTEA</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="4"/>
@@ -5900,7 +6080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
@@ -10684,7 +10864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -12364,7 +12544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
@@ -13947,7 +14127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/对比/性能对比.xlsx
+++ b/对比/性能对比.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="209">
   <si>
     <t>算法</t>
   </si>
@@ -798,6 +798,79 @@
   </si>
   <si>
     <t>XTEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKIPJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIFER </t>
+  </si>
+  <si>
+    <t>CRYPTOMERIA/C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESENT </t>
+  </si>
+  <si>
+    <t>CS-CIPHER</t>
+  </si>
+  <si>
+    <t>GRAND CRU</t>
+  </si>
+  <si>
+    <t>HIEROCRYPT-L1</t>
+  </si>
+  <si>
+    <t>HIEROCRYPT-3</t>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1229,7 +1302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1425,6 +1498,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1433,24 +1515,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1522,6 +1586,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2563,15 +2642,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AD131"/>
+  <dimension ref="A3:AD241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
@@ -2915,46 +2995,46 @@
     </row>
     <row r="39" spans="1:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="94" t="s">
+      <c r="B40" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="98"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="95"/>
       <c r="K40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L40" s="99" t="s">
+      <c r="L40" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="100"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="99" t="s">
+      <c r="M40" s="97"/>
+      <c r="N40" s="98"/>
+      <c r="O40" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="85" t="s">
+      <c r="P40" s="97"/>
+      <c r="Q40" s="98"/>
+      <c r="R40" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="S40" s="86"/>
-      <c r="T40" s="87"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="90"/>
     </row>
     <row r="41" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="93"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="20" t="s">
         <v>7</v>
       </c>
@@ -2976,24 +3056,24 @@
       <c r="K41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L41" s="85">
+      <c r="L41" s="88">
         <v>65</v>
       </c>
-      <c r="M41" s="86"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="85">
+      <c r="M41" s="89"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="88">
         <v>65</v>
       </c>
-      <c r="P41" s="86"/>
-      <c r="Q41" s="87"/>
-      <c r="R41" s="85">
+      <c r="P41" s="89"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="88">
         <v>45</v>
       </c>
-      <c r="S41" s="86"/>
-      <c r="T41" s="87"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="90"/>
     </row>
     <row r="42" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="115" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3023,26 +3103,26 @@
       <c r="K42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L42" s="85">
+      <c r="L42" s="88">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="86"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="85">
+      <c r="M42" s="89"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="88">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="85">
+      <c r="P42" s="89"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="88">
         <v>1</v>
       </c>
-      <c r="S42" s="86"/>
-      <c r="T42" s="87"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="90"/>
     </row>
     <row r="43" spans="1:30" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="92"/>
+      <c r="A43" s="116"/>
       <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
@@ -3112,7 +3192,7 @@
       </c>
     </row>
     <row r="44" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="92"/>
+      <c r="A44" s="116"/>
       <c r="B44" s="2" t="s">
         <v>22</v>
       </c>
@@ -3152,7 +3232,7 @@
         <v>41.206673922036337</v>
       </c>
       <c r="O44" s="16">
-        <f>C57/2*L6</f>
+        <f>C79/2*L6</f>
         <v>1608422.6725000001</v>
       </c>
       <c r="P44" s="14">
@@ -3178,7 +3258,7 @@
         <v>825981.12769097218</v>
       </c>
       <c r="W44" s="23">
-        <f>(H57-H42)*I11</f>
+        <f>(H79-H42)*I11</f>
         <v>620209.67027777783</v>
       </c>
       <c r="X44" s="22">
@@ -3211,7 +3291,7 @@
       </c>
     </row>
     <row r="45" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="92"/>
+      <c r="A45" s="116"/>
       <c r="B45" s="2" t="s">
         <v>21</v>
       </c>
@@ -3251,7 +3331,7 @@
         <v>20.603336961018169</v>
       </c>
       <c r="O45" s="16">
-        <f>C58*L6/2</f>
+        <f>C80*L6/2</f>
         <v>1608422.6725000001</v>
       </c>
       <c r="P45" s="14">
@@ -3277,7 +3357,7 @@
         <v>825981.12769097218</v>
       </c>
       <c r="W45" s="23">
-        <f>(H58-H43)*I11</f>
+        <f>(H80-H43)*I11</f>
         <v>620209.67027777783</v>
       </c>
       <c r="X45" s="22">
@@ -3310,7 +3390,7 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="92"/>
+      <c r="A46" s="116"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -3350,7 +3430,7 @@
         <v>41.206673922036337</v>
       </c>
       <c r="O46" s="16">
-        <f>C59/2*L6</f>
+        <f>C81/2*L6</f>
         <v>1608422.6725000001</v>
       </c>
       <c r="P46" s="14">
@@ -3376,7 +3456,7 @@
         <v>825981.12769097218</v>
       </c>
       <c r="W46" s="23">
-        <f>(H59-H44)*I11</f>
+        <f>(H81-H44)*I11</f>
         <v>620209.67027777783</v>
       </c>
       <c r="X46" s="22">
@@ -3409,7 +3489,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="92"/>
+      <c r="A47" s="116"/>
       <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
@@ -3449,7 +3529,7 @@
         <v>20.603336961018169</v>
       </c>
       <c r="O47" s="16">
-        <f>C60/2*L6</f>
+        <f>C82/2*L6</f>
         <v>2412634.00875</v>
       </c>
       <c r="P47" s="14">
@@ -3475,7 +3555,7 @@
         <v>847750.91913194419</v>
       </c>
       <c r="W47" s="23">
-        <f>(H60-H45)*I11</f>
+        <f>(H82-H45)*I11</f>
         <v>620209.67027777783</v>
       </c>
       <c r="X47" s="22">
@@ -3508,7 +3588,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="92"/>
+      <c r="A48" s="116"/>
       <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
@@ -3548,7 +3628,7 @@
         <v>15.452502720763629</v>
       </c>
       <c r="O48" s="16">
-        <f>C61/2*L6</f>
+        <f>C83/2*L6</f>
         <v>1608422.6725000001</v>
       </c>
       <c r="P48" s="14">
@@ -3574,7 +3654,7 @@
         <v>565167.2794212962</v>
       </c>
       <c r="W48" s="23">
-        <f>(H61-H46)*I11</f>
+        <f>(H83-H46)*I11</f>
         <v>413989.95491041668</v>
       </c>
       <c r="X48" s="22">
@@ -3607,7 +3687,7 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="92"/>
+      <c r="A49" s="116"/>
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
@@ -3647,7 +3727,7 @@
         <v>10.301668480509084</v>
       </c>
       <c r="O49" s="16">
-        <f>C62/2*L6</f>
+        <f>C84/2*L6</f>
         <v>2010528.3406250002</v>
       </c>
       <c r="P49" s="14">
@@ -3673,7 +3753,7 @@
         <v>445645.25100694434</v>
       </c>
       <c r="W49" s="23">
-        <f>(H62-H47)*I11</f>
+        <f>(H84-H47)*I11</f>
         <v>310104.83513888891</v>
       </c>
       <c r="X49" s="22">
@@ -3706,12 +3786,12 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="92"/>
+      <c r="A50" s="116"/>
       <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -3734,7 +3814,7 @@
         <v>13.735557974012114</v>
       </c>
       <c r="O50" s="16">
-        <f>C63*L6/2</f>
+        <f>C85*L6/2</f>
         <v>3216845.3450000002</v>
       </c>
       <c r="P50" s="14">
@@ -3760,7 +3840,7 @@
         <v>869520.71057291655</v>
       </c>
       <c r="W50" s="23">
-        <f>(H63-H48)*I11</f>
+        <f>(H85-H48)*I11</f>
         <v>620209.67027777783</v>
       </c>
       <c r="X50" s="22">
@@ -3793,7 +3873,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="92"/>
+      <c r="A51" s="116"/>
       <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
@@ -3821,7 +3901,7 @@
         <v>20.603336961018169</v>
       </c>
       <c r="O51" s="16">
-        <f>C64/2*L6</f>
+        <f>C86/2*L6</f>
         <v>1608422.6725000001</v>
       </c>
       <c r="P51" s="14">
@@ -3847,7 +3927,7 @@
         <v>825981.12769097218</v>
       </c>
       <c r="W51" s="23">
-        <f>(H64-H49)*I11</f>
+        <f>(H86-H49)*I11</f>
         <v>620209.67027777783</v>
       </c>
       <c r="X51" s="22">
@@ -3880,7 +3960,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="92"/>
+      <c r="A52" s="116"/>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
@@ -3934,7 +4014,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="92"/>
+      <c r="A53" s="116"/>
       <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
@@ -3961,7 +4041,7 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="92"/>
+      <c r="A54" s="116"/>
       <c r="B54" s="2" t="s">
         <v>18</v>
       </c>
@@ -3988,7 +4068,7 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="92"/>
+      <c r="A55" s="116"/>
       <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
@@ -4015,7 +4095,7 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="93"/>
+      <c r="A56" s="116"/>
       <c r="B56" s="5" t="s">
         <v>188</v>
       </c>
@@ -4042,36 +4122,20 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="2">
-        <v>4</v>
-      </c>
-      <c r="D57" s="1">
-        <v>16</v>
-      </c>
-      <c r="E57" s="1">
-        <v>16</v>
-      </c>
-      <c r="F57" s="1">
-        <v>8</v>
-      </c>
-      <c r="G57" s="1">
-        <v>96</v>
-      </c>
-      <c r="H57" s="1">
-        <v>8</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A57" s="116"/>
+      <c r="B57" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="K57" s="2"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -4083,34 +4147,20 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="92"/>
-      <c r="B58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="2">
-        <v>4</v>
-      </c>
-      <c r="D58" s="1">
-        <v>16</v>
-      </c>
-      <c r="E58" s="1">
-        <v>16</v>
-      </c>
-      <c r="F58" s="1">
-        <v>8</v>
-      </c>
-      <c r="G58" s="1">
-        <v>96</v>
-      </c>
-      <c r="H58" s="1">
-        <v>8</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="A58" s="116"/>
+      <c r="B58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="5">
+        <v>3</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="K58" s="2"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -4122,34 +4172,20 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="92"/>
-      <c r="B59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="2">
-        <v>4</v>
-      </c>
-      <c r="D59" s="1">
-        <v>16</v>
-      </c>
-      <c r="E59" s="1">
-        <v>16</v>
-      </c>
-      <c r="F59" s="1">
-        <v>8</v>
-      </c>
-      <c r="G59" s="1">
-        <v>96</v>
-      </c>
-      <c r="H59" s="1">
-        <v>8</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0</v>
-      </c>
-      <c r="K59" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="A59" s="116"/>
+      <c r="B59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="5">
+        <v>3</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="K59" s="2"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -4161,34 +4197,20 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="92"/>
-      <c r="B60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="2">
-        <v>6</v>
-      </c>
-      <c r="D60" s="1">
-        <v>24</v>
-      </c>
-      <c r="E60" s="1">
-        <v>24</v>
-      </c>
-      <c r="F60" s="1">
-        <v>12</v>
-      </c>
-      <c r="G60" s="1">
-        <v>144</v>
-      </c>
-      <c r="H60" s="1">
-        <v>12</v>
-      </c>
-      <c r="I60" s="1">
-        <v>0</v>
-      </c>
-      <c r="K60" s="11" t="s">
+      <c r="A60" s="116"/>
+      <c r="B60" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="5">
         <v>3</v>
       </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="K60" s="2"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -4200,34 +4222,20 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="92"/>
-      <c r="B61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="2">
-        <v>4</v>
-      </c>
-      <c r="D61" s="1">
-        <v>16</v>
-      </c>
-      <c r="E61" s="1">
-        <v>16</v>
-      </c>
-      <c r="F61" s="1">
-        <v>8</v>
-      </c>
-      <c r="G61" s="1">
-        <v>96</v>
-      </c>
-      <c r="H61" s="1">
-        <v>8</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="K61" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="A61" s="116"/>
+      <c r="B61" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="5">
+        <v>3</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="K61" s="2"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -4239,34 +4247,20 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="92"/>
-      <c r="B62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="2">
-        <v>5</v>
-      </c>
-      <c r="D62" s="1">
-        <v>20</v>
-      </c>
-      <c r="E62" s="1">
-        <v>20</v>
-      </c>
-      <c r="F62" s="1">
-        <v>10</v>
-      </c>
-      <c r="G62" s="1">
-        <v>120</v>
-      </c>
-      <c r="H62" s="1">
-        <v>10</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="A62" s="116"/>
+      <c r="B62" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="5">
+        <v>3</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="K62" s="2"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -4278,34 +4272,20 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="92"/>
-      <c r="B63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="2">
-        <v>8</v>
-      </c>
-      <c r="D63" s="1">
-        <v>32</v>
-      </c>
-      <c r="E63" s="1">
-        <v>32</v>
-      </c>
-      <c r="F63" s="1">
-        <v>16</v>
-      </c>
-      <c r="G63" s="1">
-        <v>192</v>
-      </c>
-      <c r="H63" s="1">
-        <v>16</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="A63" s="116"/>
+      <c r="B63" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="5">
+        <v>6</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="K63" s="2"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -4317,40 +4297,37 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="92"/>
-      <c r="B64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="2">
-        <v>4</v>
-      </c>
-      <c r="D64" s="1">
-        <v>16</v>
-      </c>
-      <c r="E64" s="1">
-        <v>16</v>
-      </c>
-      <c r="F64" s="1">
-        <v>8</v>
-      </c>
-      <c r="G64" s="1">
-        <v>96</v>
-      </c>
-      <c r="H64" s="1">
-        <v>8</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0</v>
-      </c>
-      <c r="K64" s="12"/>
+      <c r="A64" s="116"/>
+      <c r="B64" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="5">
+        <v>3</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="92"/>
-      <c r="B65" s="2" t="s">
-        <v>20</v>
+      <c r="A65" s="116"/>
+      <c r="B65" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C65" s="5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -4358,15 +4335,24 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="K65" s="12"/>
-    </row>
-    <row r="66" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="92"/>
-      <c r="B66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>183</v>
+      <c r="K65" s="2"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="116"/>
+      <c r="B66" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="5">
+        <v>3</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -4374,32 +4360,24 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="K66" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="M66" s="86"/>
-      <c r="N66" s="87"/>
-      <c r="O66" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="P66" s="86"/>
-      <c r="Q66" s="87"/>
-      <c r="R66" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="S66" s="86"/>
-      <c r="T66" s="87"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="92"/>
-      <c r="B67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>183</v>
+      <c r="A67" s="116"/>
+      <c r="B67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="5">
+        <v>9</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -4407,26 +4385,24 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="K67" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L67" s="85"/>
-      <c r="M67" s="86"/>
-      <c r="N67" s="87"/>
-      <c r="O67" s="85"/>
-      <c r="P67" s="86"/>
-      <c r="Q67" s="87"/>
-      <c r="R67" s="85"/>
-      <c r="S67" s="86"/>
-      <c r="T67" s="87"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="92"/>
-      <c r="B68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="5">
-        <v>6</v>
+      <c r="A68" s="116"/>
+      <c r="B68" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -4434,26 +4410,24 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="K68" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L68" s="85"/>
-      <c r="M68" s="86"/>
-      <c r="N68" s="87"/>
-      <c r="O68" s="85"/>
-      <c r="P68" s="86"/>
-      <c r="Q68" s="87"/>
-      <c r="R68" s="85"/>
-      <c r="S68" s="86"/>
-      <c r="T68" s="87"/>
-    </row>
-    <row r="69" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="92"/>
-      <c r="B69" s="2" t="s">
-        <v>18</v>
+      <c r="K68" s="2"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="116"/>
+      <c r="B69" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C69" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -4461,52 +4435,30 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="M69" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="N69" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O69" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="P69" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q69" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="R69" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="S69" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T69" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="K69" s="2"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="92"/>
-      <c r="B70" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="5">
-        <v>4</v>
-      </c>
+      <c r="A70" s="116"/>
+      <c r="B70" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="5"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="K70" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="K70" s="2"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -4518,9 +4470,9 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="93"/>
+      <c r="A71" s="116"/>
       <c r="B71" s="5" t="s">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="C71" s="5">
         <v>3</v>
@@ -4531,9 +4483,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="K71" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="K71" s="2"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -4545,36 +4495,20 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="2">
-        <v>2</v>
-      </c>
-      <c r="D72" s="1">
-        <v>8</v>
-      </c>
-      <c r="E72" s="1">
-        <v>8</v>
-      </c>
-      <c r="F72" s="1">
-        <v>8</v>
-      </c>
-      <c r="G72" s="1">
-        <v>48</v>
-      </c>
-      <c r="H72" s="1">
-        <v>8</v>
-      </c>
-      <c r="I72" s="1">
-        <v>0</v>
-      </c>
-      <c r="K72" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="A72" s="116"/>
+      <c r="B72" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="5">
+        <v>3</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="K72" s="2"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -4586,34 +4520,18 @@
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="89"/>
-      <c r="B73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="2">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1">
-        <v>12</v>
-      </c>
-      <c r="E73" s="1">
-        <v>12</v>
-      </c>
-      <c r="F73" s="1">
-        <v>12</v>
-      </c>
-      <c r="G73" s="1">
-        <v>72</v>
-      </c>
-      <c r="H73" s="1">
-        <v>12</v>
-      </c>
-      <c r="I73" s="1">
-        <v>0</v>
-      </c>
-      <c r="K73" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="A73" s="116"/>
+      <c r="B73" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="K73" s="2"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -4625,34 +4543,20 @@
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="89"/>
-      <c r="B74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="2">
-        <v>4</v>
-      </c>
-      <c r="D74" s="1">
-        <v>16</v>
-      </c>
-      <c r="E74" s="1">
-        <v>16</v>
-      </c>
-      <c r="F74" s="1">
-        <v>16</v>
-      </c>
-      <c r="G74" s="1">
-        <v>96</v>
-      </c>
-      <c r="H74" s="1">
-        <v>16</v>
-      </c>
-      <c r="I74" s="1">
-        <v>0</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A74" s="116"/>
+      <c r="B74" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="5">
+        <v>9</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="K74" s="2"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -4664,34 +4568,20 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="89"/>
-      <c r="B75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" s="2">
-        <v>5</v>
-      </c>
-      <c r="D75" s="1">
-        <v>20</v>
-      </c>
-      <c r="E75" s="1">
-        <v>20</v>
-      </c>
-      <c r="F75" s="1">
-        <v>20</v>
-      </c>
-      <c r="G75" s="1">
-        <v>120</v>
-      </c>
-      <c r="H75" s="1">
-        <v>20</v>
-      </c>
-      <c r="I75" s="1">
-        <v>0</v>
-      </c>
-      <c r="K75" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="A75" s="116"/>
+      <c r="B75" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="5">
+        <v>3</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="K75" s="2"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
@@ -4703,34 +4593,20 @@
       <c r="T75" s="1"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="89"/>
-      <c r="B76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C76" s="2">
-        <v>4</v>
-      </c>
-      <c r="D76" s="1">
-        <v>16</v>
-      </c>
-      <c r="E76" s="1">
-        <v>16</v>
-      </c>
-      <c r="F76" s="1">
-        <v>16</v>
-      </c>
-      <c r="G76" s="1">
-        <v>96</v>
-      </c>
-      <c r="H76" s="1">
-        <v>16</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="A76" s="116"/>
+      <c r="B76" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="5">
+        <v>6</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="K76" s="2"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -4742,34 +4618,20 @@
       <c r="T76" s="1"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="89"/>
-      <c r="B77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="2">
-        <v>5</v>
-      </c>
-      <c r="D77" s="1">
-        <v>20</v>
-      </c>
-      <c r="E77" s="1">
-        <v>20</v>
-      </c>
-      <c r="F77" s="1">
-        <v>20</v>
-      </c>
-      <c r="G77" s="1">
-        <v>120</v>
-      </c>
-      <c r="H77" s="1">
-        <v>20</v>
-      </c>
-      <c r="I77" s="1">
-        <v>0</v>
-      </c>
-      <c r="K77" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A77" s="116"/>
+      <c r="B77" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="5">
+        <v>6</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="K77" s="2"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -4781,34 +4643,16 @@
       <c r="T77" s="1"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="89"/>
-      <c r="B78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" s="2">
-        <v>7</v>
-      </c>
-      <c r="D78" s="1">
-        <v>28</v>
-      </c>
-      <c r="E78" s="1">
-        <v>28</v>
-      </c>
-      <c r="F78" s="1">
-        <v>28</v>
-      </c>
-      <c r="G78" s="1">
-        <v>168</v>
-      </c>
-      <c r="H78" s="1">
-        <v>28</v>
-      </c>
-      <c r="I78" s="1">
-        <v>0</v>
-      </c>
-      <c r="K78" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="A78" s="116"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="K78" s="2"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -4820,33 +4664,35 @@
       <c r="T78" s="1"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="89"/>
+      <c r="A79" s="115" t="s">
+        <v>73</v>
+      </c>
       <c r="B79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="2">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1">
         <v>16</v>
       </c>
-      <c r="C79" s="2">
-        <v>3</v>
-      </c>
-      <c r="D79" s="1">
-        <v>12</v>
-      </c>
       <c r="E79" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F79" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G79" s="1">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H79" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
       </c>
-      <c r="K79" s="11" t="s">
-        <v>16</v>
+      <c r="K79" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
@@ -4859,21 +4705,33 @@
       <c r="T79" s="1"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="89"/>
+      <c r="A80" s="116"/>
       <c r="B80" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C80" s="5">
-        <v>10</v>
-      </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C80" s="2">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1">
+        <v>16</v>
+      </c>
+      <c r="E80" s="1">
+        <v>16</v>
+      </c>
+      <c r="F80" s="1">
+        <v>8</v>
+      </c>
+      <c r="G80" s="1">
+        <v>96</v>
+      </c>
+      <c r="H80" s="1">
+        <v>8</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
       <c r="K80" s="11" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
@@ -4886,21 +4744,33 @@
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="89"/>
+      <c r="A81" s="116"/>
       <c r="B81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C81" s="2">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1">
+        <v>16</v>
+      </c>
+      <c r="E81" s="1">
+        <v>16</v>
+      </c>
+      <c r="F81" s="1">
+        <v>8</v>
+      </c>
+      <c r="G81" s="1">
+        <v>96</v>
+      </c>
+      <c r="H81" s="1">
+        <v>8</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
       <c r="K81" s="11" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
@@ -4913,21 +4783,33 @@
       <c r="T81" s="1"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="89"/>
+      <c r="A82" s="116"/>
       <c r="B82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C82" s="2">
+        <v>6</v>
+      </c>
+      <c r="D82" s="1">
+        <v>24</v>
+      </c>
+      <c r="E82" s="1">
+        <v>24</v>
+      </c>
+      <c r="F82" s="1">
+        <v>12</v>
+      </c>
+      <c r="G82" s="1">
+        <v>144</v>
+      </c>
+      <c r="H82" s="1">
+        <v>12</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
       <c r="K82" s="11" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
@@ -4940,21 +4822,33 @@
       <c r="T82" s="1"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="89"/>
+      <c r="A83" s="116"/>
       <c r="B83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="5">
+        <v>19</v>
+      </c>
+      <c r="C83" s="2">
         <v>4</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
+      <c r="D83" s="1">
+        <v>16</v>
+      </c>
+      <c r="E83" s="1">
+        <v>16</v>
+      </c>
+      <c r="F83" s="1">
+        <v>8</v>
+      </c>
+      <c r="G83" s="1">
+        <v>96</v>
+      </c>
+      <c r="H83" s="1">
+        <v>8</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
       <c r="K83" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
@@ -4967,21 +4861,33 @@
       <c r="T83" s="1"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="89"/>
+      <c r="A84" s="116"/>
       <c r="B84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="5">
-        <v>3</v>
-      </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C84" s="2">
+        <v>5</v>
+      </c>
+      <c r="D84" s="1">
+        <v>20</v>
+      </c>
+      <c r="E84" s="1">
+        <v>20</v>
+      </c>
+      <c r="F84" s="1">
+        <v>10</v>
+      </c>
+      <c r="G84" s="1">
+        <v>120</v>
+      </c>
+      <c r="H84" s="1">
+        <v>10</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
       <c r="K84" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
@@ -4994,21 +4900,33 @@
       <c r="T84" s="1"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="89"/>
+      <c r="A85" s="116"/>
       <c r="B85" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85" s="5">
-        <v>4</v>
-      </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="K85" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="C85" s="2">
+        <v>8</v>
+      </c>
+      <c r="D85" s="1">
+        <v>32</v>
+      </c>
+      <c r="E85" s="1">
+        <v>32</v>
+      </c>
+      <c r="F85" s="1">
+        <v>16</v>
+      </c>
+      <c r="G85" s="1">
+        <v>192</v>
+      </c>
+      <c r="H85" s="1">
+        <v>16</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
@@ -5021,391 +4939,293 @@
       <c r="T85" s="1"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="90"/>
-      <c r="B86" s="5" t="str">
-        <f>B71</f>
-        <v>XTEA</v>
-      </c>
-      <c r="C86" s="5">
+      <c r="A86" s="116"/>
+      <c r="B86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="2">
+        <v>4</v>
+      </c>
+      <c r="D86" s="1">
+        <v>16</v>
+      </c>
+      <c r="E86" s="1">
+        <v>16</v>
+      </c>
+      <c r="F86" s="1">
+        <v>8</v>
+      </c>
+      <c r="G86" s="1">
+        <v>96</v>
+      </c>
+      <c r="H86" s="1">
+        <v>8</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="12"/>
+    </row>
+    <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="116"/>
+      <c r="B87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="5">
+        <v>12</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="K87" s="12"/>
+    </row>
+    <row r="88" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="116"/>
+      <c r="B88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="K88" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L88" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="M88" s="89"/>
+      <c r="N88" s="90"/>
+      <c r="O88" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="P88" s="89"/>
+      <c r="Q88" s="90"/>
+      <c r="R88" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="S88" s="89"/>
+      <c r="T88" s="90"/>
+    </row>
+    <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="116"/>
+      <c r="B89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="K89" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L89" s="88"/>
+      <c r="M89" s="89"/>
+      <c r="N89" s="90"/>
+      <c r="O89" s="88"/>
+      <c r="P89" s="89"/>
+      <c r="Q89" s="90"/>
+      <c r="R89" s="88"/>
+      <c r="S89" s="89"/>
+      <c r="T89" s="90"/>
+    </row>
+    <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="116"/>
+      <c r="B90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="5">
+        <v>6</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="K90" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L90" s="88"/>
+      <c r="M90" s="89"/>
+      <c r="N90" s="90"/>
+      <c r="O90" s="88"/>
+      <c r="P90" s="89"/>
+      <c r="Q90" s="90"/>
+      <c r="R90" s="88"/>
+      <c r="S90" s="89"/>
+      <c r="T90" s="90"/>
+    </row>
+    <row r="91" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="116"/>
+      <c r="B91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="5">
+        <v>4</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M91" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N91" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O91" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P91" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q91" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R91" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S91" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T91" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="116"/>
+      <c r="B92" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="5">
+        <v>4</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="K92" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+    </row>
+    <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="116"/>
+      <c r="B93" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" s="5">
         <v>3</v>
       </c>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="K86" s="11" t="s">
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="K93" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+    </row>
+    <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="116"/>
+      <c r="B94" s="5" t="str">
+        <f>B57</f>
+        <v>SKIPJECT</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+    </row>
+    <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="116"/>
+      <c r="B95" s="5" t="str">
+        <f>B58</f>
+        <v>SPECK</v>
+      </c>
+      <c r="C95" s="5">
         <v>3</v>
       </c>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-    </row>
-    <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="2">
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+    </row>
+    <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="116"/>
+      <c r="B96" s="5" t="str">
+        <f>B59</f>
+        <v>SIMON</v>
+      </c>
+      <c r="C96" s="5">
         <v>2</v>
-      </c>
-      <c r="D87" s="1">
-        <f>4*C87</f>
-        <v>8</v>
-      </c>
-      <c r="E87" s="1">
-        <f>D87</f>
-        <v>8</v>
-      </c>
-      <c r="F87" s="1">
-        <f>E87</f>
-        <v>8</v>
-      </c>
-      <c r="G87" s="1">
-        <f>F87*2</f>
-        <v>16</v>
-      </c>
-      <c r="H87" s="1">
-        <f>D87</f>
-        <v>8</v>
-      </c>
-      <c r="I87" s="1">
-        <f>E87</f>
-        <v>8</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1"/>
-    </row>
-    <row r="88" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="89"/>
-      <c r="B88" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="2">
-        <v>3</v>
-      </c>
-      <c r="D88" s="1">
-        <f t="shared" ref="D88:D95" si="12">4*C88</f>
-        <v>12</v>
-      </c>
-      <c r="E88" s="1">
-        <f t="shared" ref="E88:F88" si="13">D88</f>
-        <v>12</v>
-      </c>
-      <c r="F88" s="1">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="G88" s="1">
-        <f t="shared" ref="G88:G95" si="14">F88*2</f>
-        <v>24</v>
-      </c>
-      <c r="H88" s="1">
-        <f t="shared" ref="H88:H95" si="15">D88</f>
-        <v>12</v>
-      </c>
-      <c r="I88" s="1">
-        <f t="shared" ref="I88:I95" si="16">E88</f>
-        <v>12</v>
-      </c>
-      <c r="K88" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-    </row>
-    <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="89"/>
-      <c r="B89" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="2">
-        <v>12</v>
-      </c>
-      <c r="D89" s="1">
-        <f t="shared" si="12"/>
-        <v>48</v>
-      </c>
-      <c r="E89" s="1">
-        <f t="shared" ref="E89:F89" si="17">D89</f>
-        <v>48</v>
-      </c>
-      <c r="F89" s="1">
-        <f t="shared" si="17"/>
-        <v>48</v>
-      </c>
-      <c r="G89" s="1">
-        <f t="shared" si="14"/>
-        <v>96</v>
-      </c>
-      <c r="H89" s="1">
-        <f t="shared" si="15"/>
-        <v>48</v>
-      </c>
-      <c r="I89" s="1">
-        <f t="shared" si="16"/>
-        <v>48</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-      <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
-    </row>
-    <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="89"/>
-      <c r="B90" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="2">
-        <v>6</v>
-      </c>
-      <c r="D90" s="1">
-        <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
-      <c r="E90" s="1">
-        <f t="shared" ref="E90:F90" si="18">D90</f>
-        <v>24</v>
-      </c>
-      <c r="F90" s="1">
-        <f t="shared" si="18"/>
-        <v>24</v>
-      </c>
-      <c r="G90" s="1">
-        <f t="shared" si="14"/>
-        <v>48</v>
-      </c>
-      <c r="H90" s="1">
-        <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="I90" s="1">
-        <f t="shared" si="16"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="89"/>
-      <c r="B91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" s="2">
-        <v>4</v>
-      </c>
-      <c r="D91" s="1">
-        <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="E91" s="1">
-        <f t="shared" ref="E91:F91" si="19">D91</f>
-        <v>16</v>
-      </c>
-      <c r="F91" s="1">
-        <f t="shared" si="19"/>
-        <v>16</v>
-      </c>
-      <c r="G91" s="1">
-        <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="H91" s="1">
-        <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="I91" s="1">
-        <f t="shared" si="16"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="89"/>
-      <c r="B92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="2">
-        <v>5</v>
-      </c>
-      <c r="D92" s="1">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="E92" s="1">
-        <f t="shared" ref="E92:F92" si="20">D92</f>
-        <v>20</v>
-      </c>
-      <c r="F92" s="1">
-        <f t="shared" si="20"/>
-        <v>20</v>
-      </c>
-      <c r="G92" s="1">
-        <f t="shared" si="14"/>
-        <v>40</v>
-      </c>
-      <c r="H92" s="1">
-        <f t="shared" si="15"/>
-        <v>20</v>
-      </c>
-      <c r="I92" s="1">
-        <f t="shared" si="16"/>
-        <v>20</v>
-      </c>
-      <c r="K92" s="18">
-        <f t="shared" ref="K92:K99" si="21">(N44-Q44)/Q44</f>
-        <v>1.0556457963803172</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="89"/>
-      <c r="B93" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C93" s="2">
-        <v>9</v>
-      </c>
-      <c r="D93" s="1">
-        <f t="shared" si="12"/>
-        <v>36</v>
-      </c>
-      <c r="E93" s="1">
-        <f t="shared" ref="E93:F93" si="22">D93</f>
-        <v>36</v>
-      </c>
-      <c r="F93" s="1">
-        <f t="shared" si="22"/>
-        <v>36</v>
-      </c>
-      <c r="G93" s="1">
-        <f t="shared" si="14"/>
-        <v>72</v>
-      </c>
-      <c r="H93" s="1">
-        <f t="shared" si="15"/>
-        <v>36</v>
-      </c>
-      <c r="I93" s="1">
-        <f t="shared" si="16"/>
-        <v>36</v>
-      </c>
-      <c r="K93" s="18">
-        <f t="shared" si="21"/>
-        <v>1.0556457963803172</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="89"/>
-      <c r="B94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="2">
-        <v>3</v>
-      </c>
-      <c r="D94" s="1">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="E94" s="1">
-        <f t="shared" ref="E94:F95" si="23">D94</f>
-        <v>12</v>
-      </c>
-      <c r="F94" s="1">
-        <f t="shared" si="23"/>
-        <v>12</v>
-      </c>
-      <c r="G94" s="1">
-        <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-      <c r="H94" s="1">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="I94" s="1">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="K94" s="18">
-        <f t="shared" si="21"/>
-        <v>1.0556457963803172</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="89"/>
-      <c r="B95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C95" s="5">
-        <v>11</v>
-      </c>
-      <c r="D95" s="4">
-        <f>4*C95</f>
-        <v>44</v>
-      </c>
-      <c r="E95" s="4">
-        <f>D95</f>
-        <v>44</v>
-      </c>
-      <c r="F95" s="4">
-        <f>E95</f>
-        <v>44</v>
-      </c>
-      <c r="G95" s="4">
-        <f t="shared" si="14"/>
-        <v>88</v>
-      </c>
-      <c r="H95" s="4">
-        <f t="shared" si="15"/>
-        <v>44</v>
-      </c>
-      <c r="I95" s="4">
-        <f t="shared" si="16"/>
-        <v>44</v>
-      </c>
-      <c r="K95" s="18">
-        <f t="shared" si="21"/>
-        <v>0.54173434728523806</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="89"/>
-      <c r="B96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -5413,18 +5233,25 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="K96" s="18">
-        <f t="shared" si="21"/>
-        <v>0.54173434728523817</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="89"/>
-      <c r="B97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>181</v>
+      <c r="K96" s="11"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+    </row>
+    <row r="97" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="116"/>
+      <c r="B97" s="5" t="str">
+        <f>B60</f>
+        <v xml:space="preserve">LUCIFER </v>
+      </c>
+      <c r="C97" s="5">
+        <v>4</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -5432,18 +5259,25 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="K97" s="18">
-        <f t="shared" si="21"/>
-        <v>0.28477862273769822</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="89"/>
-      <c r="B98" s="2" t="s">
-        <v>2</v>
+      <c r="K97" s="11"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+    </row>
+    <row r="98" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="116"/>
+      <c r="B98" s="5" t="str">
+        <f>B61</f>
+        <v>CLEFIA</v>
       </c>
       <c r="C98" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -5451,18 +5285,25 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="K98" s="18">
-        <f t="shared" si="21"/>
-        <v>0.37043053092021161</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="89"/>
-      <c r="B99" s="2" t="s">
-        <v>18</v>
+      <c r="K98" s="11"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+    </row>
+    <row r="99" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="116"/>
+      <c r="B99" s="5" t="str">
+        <f>B62</f>
+        <v>ARIA</v>
       </c>
       <c r="C99" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -5470,18 +5311,25 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="K99" s="18">
-        <f t="shared" si="21"/>
-        <v>1.0556457963803172</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="89"/>
-      <c r="B100" s="2" t="s">
-        <v>25</v>
+      <c r="K99" s="11"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+    </row>
+    <row r="100" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="116"/>
+      <c r="B100" s="5" t="str">
+        <f>B63</f>
+        <v>CRYPTOMERIA/C2</v>
       </c>
       <c r="C100" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -5489,15 +5337,25 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-    </row>
-    <row r="101" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="90"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+    </row>
+    <row r="101" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="116"/>
       <c r="B101" s="5" t="str">
-        <f>B86</f>
-        <v>XTEA</v>
+        <f>B64</f>
+        <v xml:space="preserve">PRESENT </v>
       </c>
       <c r="C101" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -5505,19 +5363,24 @@
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-      <c r="K101" s="19">
-        <f>AVERAGE(K92:K100)</f>
-        <v>0.74515762921870676</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" s="6">
+      <c r="K101" s="11"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+    </row>
+    <row r="102" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="116"/>
+      <c r="B102" s="5" t="str">
+        <f>B65</f>
+        <v>MACGUFFIN</v>
+      </c>
+      <c r="C102" s="5">
         <v>2</v>
       </c>
       <c r="D102" s="4"/>
@@ -5526,14 +5389,25 @@
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
-    </row>
-    <row r="103" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="89"/>
-      <c r="B103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="6">
-        <v>1</v>
+      <c r="K102" s="11"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+    </row>
+    <row r="103" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="116"/>
+      <c r="B103" s="5" t="str">
+        <f>B66</f>
+        <v>SQUARE</v>
+      </c>
+      <c r="C103" s="5">
+        <v>4</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -5541,67 +5415,77 @@
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
-    </row>
-    <row r="104" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="89"/>
-      <c r="B104" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C104" s="6"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+    </row>
+    <row r="104" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="116"/>
+      <c r="B104" s="5" t="str">
+        <f>B67</f>
+        <v>M6</v>
+      </c>
+      <c r="C104" s="5">
+        <v>9</v>
+      </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
-      <c r="K104" t="s">
-        <v>13</v>
-      </c>
-      <c r="L104">
-        <v>620209.67027777783</v>
-      </c>
-      <c r="M104">
-        <f>I6+4*I8+4*I10+4*I12+84*I9</f>
-        <v>109908.05493055555</v>
-      </c>
-      <c r="N104" s="24">
-        <f>M104/L104</f>
-        <v>0.17721112745844519</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="89"/>
-      <c r="B105" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C105" s="6"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+    </row>
+    <row r="105" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="116"/>
+      <c r="B105" s="5" t="str">
+        <f>B68</f>
+        <v>ICE</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
-      <c r="K105" t="s">
-        <v>14</v>
-      </c>
-      <c r="L105">
-        <v>620209.67027777783</v>
-      </c>
-      <c r="M105">
-        <v>109908.05493055555</v>
-      </c>
-      <c r="N105" s="24">
-        <f t="shared" ref="N105:N111" si="24">M105/L105</f>
-        <v>0.17721112745844519</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="89"/>
-      <c r="B106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="6">
-        <v>2</v>
+      <c r="K105" s="11"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+    </row>
+    <row r="106" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="116"/>
+      <c r="B106" s="5" t="str">
+        <f>B69</f>
+        <v>SHARK</v>
+      </c>
+      <c r="C106" s="5">
+        <v>4</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -5609,54 +5493,49 @@
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
-      <c r="K106" t="s">
-        <v>22</v>
-      </c>
-      <c r="L106">
-        <v>620209.67027777783</v>
-      </c>
-      <c r="M106">
-        <v>109908.05493055555</v>
-      </c>
-      <c r="N106" s="24">
-        <f t="shared" si="24"/>
-        <v>0.17721112745844519</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="89"/>
-      <c r="B107" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="6"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+    </row>
+    <row r="107" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="116"/>
+      <c r="B107" s="5" t="str">
+        <f>B70</f>
+        <v>CS-CIPHER</v>
+      </c>
+      <c r="C107" s="5"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
-      <c r="K107" t="s">
-        <v>21</v>
-      </c>
-      <c r="L107">
-        <v>620209.67027777783</v>
-      </c>
-      <c r="M107">
-        <f>4*I12+120*I9</f>
-        <v>56193.333333333336</v>
-      </c>
-      <c r="N107" s="24">
-        <f t="shared" si="24"/>
-        <v>9.0603768412971727E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="89"/>
-      <c r="B108" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C108" s="6">
-        <v>4</v>
+      <c r="K107" s="11"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+    </row>
+    <row r="108" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="116"/>
+      <c r="B108" s="5" t="str">
+        <f>B71</f>
+        <v>NUSH</v>
+      </c>
+      <c r="C108" s="5">
+        <v>3</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -5664,84 +5543,75 @@
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
-      <c r="K108" t="s">
-        <v>19</v>
-      </c>
-      <c r="L108">
-        <v>413989.95491041668</v>
-      </c>
-      <c r="M108">
-        <f>(8-5.33)*I12+80*I9</f>
-        <v>37472.133333333339</v>
-      </c>
-      <c r="N108" s="24">
-        <f t="shared" si="24"/>
-        <v>9.0514595556894464E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="89"/>
-      <c r="B109" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" s="6"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+    </row>
+    <row r="109" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="116"/>
+      <c r="B109" s="5" t="str">
+        <f>B72</f>
+        <v>GRAND CRU</v>
+      </c>
+      <c r="C109" s="5">
+        <v>4</v>
+      </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
-      <c r="K109" t="s">
-        <v>17</v>
-      </c>
-      <c r="L109">
-        <v>310104.83513888891</v>
-      </c>
-      <c r="M109">
-        <f>-I6-4*I10-4*I8+2*I12+96*I9</f>
-        <v>-25618.054930555554</v>
-      </c>
-      <c r="N109" s="24">
-        <f t="shared" si="24"/>
-        <v>-8.2610949677975221E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="89"/>
-      <c r="B110" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" s="6">
-        <v>7</v>
-      </c>
+      <c r="K109" s="11"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+    </row>
+    <row r="110" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="116"/>
+      <c r="B110" s="5" t="str">
+        <f>B73</f>
+        <v>Q</v>
+      </c>
+      <c r="C110" s="5"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
-      <c r="K110" t="s">
-        <v>24</v>
-      </c>
-      <c r="L110">
-        <v>620209.67027777783</v>
-      </c>
-      <c r="M110">
-        <f>-I6-4*I8-4*I10+156*I9</f>
-        <v>-9414.7215972222184</v>
-      </c>
-      <c r="N110" s="24">
-        <f t="shared" si="24"/>
-        <v>-1.5179901327571334E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="89"/>
-      <c r="B111" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>185</v>
+      <c r="K110" s="11"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+    </row>
+    <row r="111" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="116"/>
+      <c r="B111" s="5" t="str">
+        <f>B74</f>
+        <v>E2</v>
+      </c>
+      <c r="C111" s="5">
+        <v>8</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -5749,27 +5619,25 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
-      <c r="K111" t="s">
-        <v>16</v>
-      </c>
-      <c r="L111">
-        <v>620209.67027777783</v>
-      </c>
-      <c r="M111">
-        <v>109908.05493055555</v>
-      </c>
-      <c r="N111" s="24">
-        <f t="shared" si="24"/>
-        <v>0.17721112745844519</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="89"/>
-      <c r="B112" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>186</v>
+      <c r="K111" s="11"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+    </row>
+    <row r="112" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="116"/>
+      <c r="B112" s="5" t="str">
+        <f>B75</f>
+        <v>KHAZAD</v>
+      </c>
+      <c r="C112" s="5">
+        <v>4</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -5777,18 +5645,25 @@
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
-      <c r="N112" s="25">
-        <f>AVERAGE(N104:N111)</f>
-        <v>9.9021502849762549E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="89"/>
-      <c r="B113" s="2" t="s">
-        <v>2</v>
+      <c r="K112" s="11"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+    </row>
+    <row r="113" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="116"/>
+      <c r="B113" s="5" t="str">
+        <f>B76</f>
+        <v>HIEROCRYPT-L1</v>
       </c>
       <c r="C113" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -5796,14 +5671,25 @@
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
-    </row>
-    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="89"/>
-      <c r="B114" s="2" t="s">
-        <v>18</v>
+      <c r="K113" s="11"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+    </row>
+    <row r="114" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="116"/>
+      <c r="B114" s="5" t="str">
+        <f>B77</f>
+        <v>HIEROCRYPT-3</v>
       </c>
       <c r="C114" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -5811,264 +5697,2850 @@
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
-    </row>
-    <row r="115" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="89"/>
-      <c r="B115" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C115" s="5">
-        <v>4</v>
-      </c>
+      <c r="K114" s="11"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+    </row>
+    <row r="115" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="116"/>
+      <c r="B115" s="5">
+        <f>B78</f>
+        <v>0</v>
+      </c>
+      <c r="C115" s="5"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
-    </row>
-    <row r="116" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="90"/>
-      <c r="B116" s="5" t="str">
-        <f>B101</f>
-        <v>XTEA</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-    </row>
-    <row r="117" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="91" t="s">
-        <v>77</v>
-      </c>
+      <c r="K115" s="11"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+    </row>
+    <row r="116" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="2">
+        <v>2</v>
+      </c>
+      <c r="D116" s="1">
+        <v>8</v>
+      </c>
+      <c r="E116" s="1">
+        <v>8</v>
+      </c>
+      <c r="F116" s="1">
+        <v>8</v>
+      </c>
+      <c r="G116" s="1">
+        <v>48</v>
+      </c>
+      <c r="H116" s="1">
+        <v>8</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+    </row>
+    <row r="117" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="118"/>
       <c r="B117" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-    </row>
-    <row r="118" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="92"/>
+        <v>14</v>
+      </c>
+      <c r="C117" s="2">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1">
+        <v>12</v>
+      </c>
+      <c r="E117" s="1">
+        <v>12</v>
+      </c>
+      <c r="F117" s="1">
+        <v>12</v>
+      </c>
+      <c r="G117" s="1">
+        <v>72</v>
+      </c>
+      <c r="H117" s="1">
+        <v>12</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="K117" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+    </row>
+    <row r="118" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="118"/>
       <c r="B118" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-    </row>
-    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="92"/>
+        <v>22</v>
+      </c>
+      <c r="C118" s="2">
+        <v>4</v>
+      </c>
+      <c r="D118" s="1">
+        <v>16</v>
+      </c>
+      <c r="E118" s="1">
+        <v>16</v>
+      </c>
+      <c r="F118" s="1">
+        <v>16</v>
+      </c>
+      <c r="G118" s="1">
+        <v>96</v>
+      </c>
+      <c r="H118" s="1">
+        <v>16</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+    </row>
+    <row r="119" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="118"/>
       <c r="B119" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-    </row>
-    <row r="120" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="92"/>
+        <v>21</v>
+      </c>
+      <c r="C119" s="2">
+        <v>5</v>
+      </c>
+      <c r="D119" s="1">
+        <v>20</v>
+      </c>
+      <c r="E119" s="1">
+        <v>20</v>
+      </c>
+      <c r="F119" s="1">
+        <v>20</v>
+      </c>
+      <c r="G119" s="1">
+        <v>120</v>
+      </c>
+      <c r="H119" s="1">
+        <v>20</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+    </row>
+    <row r="120" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="118"/>
       <c r="B120" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-    </row>
-    <row r="121" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="92"/>
+        <v>19</v>
+      </c>
+      <c r="C120" s="2">
+        <v>4</v>
+      </c>
+      <c r="D120" s="1">
+        <v>16</v>
+      </c>
+      <c r="E120" s="1">
+        <v>16</v>
+      </c>
+      <c r="F120" s="1">
+        <v>16</v>
+      </c>
+      <c r="G120" s="1">
+        <v>96</v>
+      </c>
+      <c r="H120" s="1">
+        <v>16</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+    </row>
+    <row r="121" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="118"/>
       <c r="B121" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-    </row>
-    <row r="122" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="92"/>
+        <v>17</v>
+      </c>
+      <c r="C121" s="2">
+        <v>5</v>
+      </c>
+      <c r="D121" s="1">
+        <v>20</v>
+      </c>
+      <c r="E121" s="1">
+        <v>20</v>
+      </c>
+      <c r="F121" s="1">
+        <v>20</v>
+      </c>
+      <c r="G121" s="1">
+        <v>120</v>
+      </c>
+      <c r="H121" s="1">
+        <v>20</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+    </row>
+    <row r="122" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="118"/>
       <c r="B122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-    </row>
-    <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="92"/>
+        <v>24</v>
+      </c>
+      <c r="C122" s="2">
+        <v>7</v>
+      </c>
+      <c r="D122" s="1">
+        <v>28</v>
+      </c>
+      <c r="E122" s="1">
+        <v>28</v>
+      </c>
+      <c r="F122" s="1">
+        <v>28</v>
+      </c>
+      <c r="G122" s="1">
+        <v>168</v>
+      </c>
+      <c r="H122" s="1">
+        <v>28</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+    </row>
+    <row r="123" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="118"/>
       <c r="B123" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-    </row>
-    <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="92"/>
+        <v>16</v>
+      </c>
+      <c r="C123" s="2">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1">
+        <v>12</v>
+      </c>
+      <c r="E123" s="1">
+        <v>12</v>
+      </c>
+      <c r="F123" s="1">
+        <v>12</v>
+      </c>
+      <c r="G123" s="1">
+        <v>72</v>
+      </c>
+      <c r="H123" s="1">
+        <v>12</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+    </row>
+    <row r="124" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="118"/>
       <c r="B124" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C124" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C124" s="5">
+        <v>10</v>
+      </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
-    </row>
-    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="92"/>
+      <c r="K124" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+    </row>
+    <row r="125" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="118"/>
       <c r="B125" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C125" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
-    </row>
-    <row r="126" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="92"/>
+      <c r="K125" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+    </row>
+    <row r="126" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="118"/>
       <c r="B126" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
-    </row>
-    <row r="127" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="92"/>
+      <c r="K126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+    </row>
+    <row r="127" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="118"/>
       <c r="B127" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="C127" s="5">
+        <v>4</v>
+      </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
-    </row>
-    <row r="128" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="92"/>
+      <c r="K127" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+    </row>
+    <row r="128" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="118"/>
       <c r="B128" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C128" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C128" s="5">
+        <v>3</v>
+      </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
-    </row>
-    <row r="129" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="92"/>
+      <c r="K128" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+    </row>
+    <row r="129" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="118"/>
       <c r="B129" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C129" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="C129" s="5">
+        <v>4</v>
+      </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
-    </row>
-    <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="92"/>
-      <c r="B130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C130" s="5"/>
+      <c r="K129" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+    </row>
+    <row r="130" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="118"/>
+      <c r="B130" s="5" t="str">
+        <f>B93</f>
+        <v>XTEA</v>
+      </c>
+      <c r="C130" s="5">
+        <v>3</v>
+      </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
-    </row>
-    <row r="131" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="93"/>
+      <c r="K130" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+      <c r="T130" s="1"/>
+    </row>
+    <row r="131" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="118"/>
       <c r="B131" s="5" t="str">
-        <f>B116</f>
-        <v>XTEA</v>
-      </c>
-      <c r="C131" s="5"/>
+        <f>B94</f>
+        <v>SKIPJECT</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+      <c r="T131" s="1"/>
+    </row>
+    <row r="132" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="118"/>
+      <c r="B132" s="5" t="str">
+        <f>B95</f>
+        <v>SPECK</v>
+      </c>
+      <c r="C132" s="5">
+        <v>3</v>
+      </c>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
+    </row>
+    <row r="133" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="118"/>
+      <c r="B133" s="5" t="str">
+        <f>B96</f>
+        <v>SIMON</v>
+      </c>
+      <c r="C133" s="5">
+        <v>3</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+      <c r="T133" s="1"/>
+    </row>
+    <row r="134" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="118"/>
+      <c r="B134" s="5" t="str">
+        <f>B97</f>
+        <v xml:space="preserve">LUCIFER </v>
+      </c>
+      <c r="C134" s="5">
+        <v>3</v>
+      </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+    </row>
+    <row r="135" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="118"/>
+      <c r="B135" s="5" t="str">
+        <f>B98</f>
+        <v>CLEFIA</v>
+      </c>
+      <c r="C135" s="5">
+        <v>3</v>
+      </c>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="1"/>
+    </row>
+    <row r="136" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="118"/>
+      <c r="B136" s="5" t="str">
+        <f>B99</f>
+        <v>ARIA</v>
+      </c>
+      <c r="C136" s="5">
+        <v>2</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
+    </row>
+    <row r="137" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="118"/>
+      <c r="B137" s="5" t="str">
+        <f>B100</f>
+        <v>CRYPTOMERIA/C2</v>
+      </c>
+      <c r="C137" s="5">
+        <v>5</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+    </row>
+    <row r="138" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="118"/>
+      <c r="B138" s="5" t="str">
+        <f>B101</f>
+        <v xml:space="preserve">PRESENT </v>
+      </c>
+      <c r="C138" s="5">
+        <v>2</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+    </row>
+    <row r="139" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="118"/>
+      <c r="B139" s="5" t="str">
+        <f>B102</f>
+        <v>MACGUFFIN</v>
+      </c>
+      <c r="C139" s="5">
+        <v>2</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+      <c r="T139" s="1"/>
+    </row>
+    <row r="140" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="118"/>
+      <c r="B140" s="5" t="str">
+        <f>B103</f>
+        <v>SQUARE</v>
+      </c>
+      <c r="C140" s="5">
+        <v>3</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
+    </row>
+    <row r="141" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="118"/>
+      <c r="B141" s="5" t="str">
+        <f>B104</f>
+        <v>M6</v>
+      </c>
+      <c r="C141" s="5">
+        <v>9</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+      <c r="T141" s="1"/>
+    </row>
+    <row r="142" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="118"/>
+      <c r="B142" s="5" t="str">
+        <f>B105</f>
+        <v>ICE</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
+    </row>
+    <row r="143" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="118"/>
+      <c r="B143" s="5" t="str">
+        <f>B106</f>
+        <v>SHARK</v>
+      </c>
+      <c r="C143" s="5">
+        <v>2</v>
+      </c>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+    </row>
+    <row r="144" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="118"/>
+      <c r="B144" s="5" t="str">
+        <f>B107</f>
+        <v>CS-CIPHER</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+    </row>
+    <row r="145" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="118"/>
+      <c r="B145" s="5" t="str">
+        <f>B108</f>
+        <v>NUSH</v>
+      </c>
+      <c r="C145" s="5">
+        <v>3</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+    </row>
+    <row r="146" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="118"/>
+      <c r="B146" s="5" t="str">
+        <f>B109</f>
+        <v>GRAND CRU</v>
+      </c>
+      <c r="C146" s="5">
+        <v>3</v>
+      </c>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+    </row>
+    <row r="147" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="118"/>
+      <c r="B147" s="5" t="str">
+        <f>B110</f>
+        <v>Q</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+    </row>
+    <row r="148" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="118"/>
+      <c r="B148" s="5" t="str">
+        <f>B111</f>
+        <v>E2</v>
+      </c>
+      <c r="C148" s="5">
+        <v>6</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+    </row>
+    <row r="149" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="118"/>
+      <c r="B149" s="5" t="str">
+        <f>B112</f>
+        <v>KHAZAD</v>
+      </c>
+      <c r="C149" s="5">
+        <v>2</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+    </row>
+    <row r="150" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="118"/>
+      <c r="B150" s="5" t="str">
+        <f>B113</f>
+        <v>HIEROCRYPT-L1</v>
+      </c>
+      <c r="C150" s="5">
+        <v>4</v>
+      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+    </row>
+    <row r="151" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="118"/>
+      <c r="B151" s="5" t="str">
+        <f>B114</f>
+        <v>HIEROCRYPT-3</v>
+      </c>
+      <c r="C151" s="5">
+        <v>4</v>
+      </c>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+    </row>
+    <row r="152" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="118"/>
+      <c r="B152" s="5">
+        <f>B115</f>
+        <v>0</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+    </row>
+    <row r="153" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="117" t="s">
+        <v>138</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" s="2">
+        <v>2</v>
+      </c>
+      <c r="D153" s="1">
+        <f>4*C153</f>
+        <v>8</v>
+      </c>
+      <c r="E153" s="1">
+        <f>D153</f>
+        <v>8</v>
+      </c>
+      <c r="F153" s="1">
+        <f>E153</f>
+        <v>8</v>
+      </c>
+      <c r="G153" s="1">
+        <f>F153*2</f>
+        <v>16</v>
+      </c>
+      <c r="H153" s="1">
+        <f>D153</f>
+        <v>8</v>
+      </c>
+      <c r="I153" s="1">
+        <f>E153</f>
+        <v>8</v>
+      </c>
+      <c r="K153" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+    </row>
+    <row r="154" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="118"/>
+      <c r="B154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="2">
+        <v>3</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" ref="D154:D160" si="12">4*C154</f>
+        <v>12</v>
+      </c>
+      <c r="E154" s="1">
+        <f t="shared" ref="E154:F154" si="13">D154</f>
+        <v>12</v>
+      </c>
+      <c r="F154" s="1">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="G154" s="1">
+        <f t="shared" ref="G154:G161" si="14">F154*2</f>
+        <v>24</v>
+      </c>
+      <c r="H154" s="1">
+        <f t="shared" ref="H154:H161" si="15">D154</f>
+        <v>12</v>
+      </c>
+      <c r="I154" s="1">
+        <f t="shared" ref="I154:I161" si="16">E154</f>
+        <v>12</v>
+      </c>
+      <c r="K154" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+    </row>
+    <row r="155" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="118"/>
+      <c r="B155" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="2">
+        <v>12</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="12"/>
+        <v>48</v>
+      </c>
+      <c r="E155" s="1">
+        <f t="shared" ref="E155:F155" si="17">D155</f>
+        <v>48</v>
+      </c>
+      <c r="F155" s="1">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+      <c r="G155" s="1">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="H155" s="1">
+        <f t="shared" si="15"/>
+        <v>48</v>
+      </c>
+      <c r="I155" s="1">
+        <f t="shared" si="16"/>
+        <v>48</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+    </row>
+    <row r="156" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="118"/>
+      <c r="B156" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" s="2">
+        <v>6</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="E156" s="1">
+        <f t="shared" ref="E156:F156" si="18">D156</f>
+        <v>24</v>
+      </c>
+      <c r="F156" s="1">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="G156" s="1">
+        <f t="shared" si="14"/>
+        <v>48</v>
+      </c>
+      <c r="H156" s="1">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="I156" s="1">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="118"/>
+      <c r="B157" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="2">
+        <v>4</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="E157" s="1">
+        <f t="shared" ref="E157:F157" si="19">D157</f>
+        <v>16</v>
+      </c>
+      <c r="F157" s="1">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="G157" s="1">
+        <f t="shared" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="H157" s="1">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="I157" s="1">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="118"/>
+      <c r="B158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="2">
+        <v>5</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="E158" s="1">
+        <f t="shared" ref="E158:F158" si="20">D158</f>
+        <v>20</v>
+      </c>
+      <c r="F158" s="1">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="G158" s="1">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="H158" s="1">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="I158" s="1">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K158" s="18">
+        <f>(N44-Q44)/Q44</f>
+        <v>1.0556457963803172</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="118"/>
+      <c r="B159" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C159" s="2">
+        <v>9</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="E159" s="1">
+        <f t="shared" ref="E159:F159" si="21">D159</f>
+        <v>36</v>
+      </c>
+      <c r="F159" s="1">
+        <f t="shared" si="21"/>
+        <v>36</v>
+      </c>
+      <c r="G159" s="1">
+        <f t="shared" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="H159" s="1">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+      <c r="I159" s="1">
+        <f t="shared" si="16"/>
+        <v>36</v>
+      </c>
+      <c r="K159" s="18">
+        <f>(N45-Q45)/Q45</f>
+        <v>1.0556457963803172</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="118"/>
+      <c r="B160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" s="2">
+        <v>3</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="E160" s="1">
+        <f t="shared" ref="E160:F160" si="22">D160</f>
+        <v>12</v>
+      </c>
+      <c r="F160" s="1">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="G160" s="1">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="H160" s="1">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="I160" s="1">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="K160" s="18">
+        <f>(N46-Q46)/Q46</f>
+        <v>1.0556457963803172</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="118"/>
+      <c r="B161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" s="5">
+        <v>11</v>
+      </c>
+      <c r="D161" s="4">
+        <f>4*C161</f>
+        <v>44</v>
+      </c>
+      <c r="E161" s="4">
+        <f>D161</f>
+        <v>44</v>
+      </c>
+      <c r="F161" s="4">
+        <f>E161</f>
+        <v>44</v>
+      </c>
+      <c r="G161" s="4">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="H161" s="4">
+        <f t="shared" si="15"/>
+        <v>44</v>
+      </c>
+      <c r="I161" s="4">
+        <f t="shared" si="16"/>
+        <v>44</v>
+      </c>
+      <c r="K161" s="18">
+        <f>(N47-Q47)/Q47</f>
+        <v>0.54173434728523806</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="118"/>
+      <c r="B162" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="K162" s="18">
+        <f>(N48-Q48)/Q48</f>
+        <v>0.54173434728523817</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="118"/>
+      <c r="B163" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="K163" s="18">
+        <f>(N49-Q49)/Q49</f>
+        <v>0.28477862273769822</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="118"/>
+      <c r="B164" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="5">
+        <v>6</v>
+      </c>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="K164" s="18">
+        <f>(N50-Q50)/Q50</f>
+        <v>0.37043053092021161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="118"/>
+      <c r="B165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" s="5">
+        <v>3</v>
+      </c>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="K165" s="18">
+        <f>(N51-Q51)/Q51</f>
+        <v>1.0556457963803172</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="118"/>
+      <c r="B166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" s="5">
+        <v>4</v>
+      </c>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+    </row>
+    <row r="167" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="118"/>
+      <c r="B167" s="5" t="str">
+        <f>B130</f>
+        <v>XTEA</v>
+      </c>
+      <c r="C167" s="5">
+        <v>3</v>
+      </c>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="K167" s="19">
+        <f>AVERAGE(K158:K166)</f>
+        <v>0.74515762921870676</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="118"/>
+      <c r="B168" s="5" t="str">
+        <f>B131</f>
+        <v>SKIPJECT</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="K168" s="19"/>
+    </row>
+    <row r="169" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="118"/>
+      <c r="B169" s="5" t="str">
+        <f>B132</f>
+        <v>SPECK</v>
+      </c>
+      <c r="C169" s="5">
+        <v>3</v>
+      </c>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+      <c r="K169" s="19"/>
+    </row>
+    <row r="170" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="118"/>
+      <c r="B170" s="5" t="str">
+        <f>B133</f>
+        <v>SIMON</v>
+      </c>
+      <c r="C170" s="5">
+        <v>4</v>
+      </c>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="K170" s="19"/>
+    </row>
+    <row r="171" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="118"/>
+      <c r="B171" s="5" t="str">
+        <f>B134</f>
+        <v xml:space="preserve">LUCIFER </v>
+      </c>
+      <c r="C171" s="5">
+        <v>3</v>
+      </c>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="K171" s="19"/>
+    </row>
+    <row r="172" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="118"/>
+      <c r="B172" s="5" t="str">
+        <f>B135</f>
+        <v>CLEFIA</v>
+      </c>
+      <c r="C172" s="5">
+        <v>3</v>
+      </c>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="K172" s="19"/>
+    </row>
+    <row r="173" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="118"/>
+      <c r="B173" s="5" t="str">
+        <f>B136</f>
+        <v>ARIA</v>
+      </c>
+      <c r="C173" s="5">
+        <v>2</v>
+      </c>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="K173" s="19"/>
+    </row>
+    <row r="174" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="118"/>
+      <c r="B174" s="5" t="str">
+        <f>B137</f>
+        <v>CRYPTOMERIA/C2</v>
+      </c>
+      <c r="C174" s="5">
+        <v>5</v>
+      </c>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="K174" s="19"/>
+    </row>
+    <row r="175" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="118"/>
+      <c r="B175" s="5" t="str">
+        <f>B138</f>
+        <v xml:space="preserve">PRESENT </v>
+      </c>
+      <c r="C175" s="5">
+        <v>2</v>
+      </c>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="K175" s="19"/>
+    </row>
+    <row r="176" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="118"/>
+      <c r="B176" s="5" t="str">
+        <f>B139</f>
+        <v>MACGUFFIN</v>
+      </c>
+      <c r="C176" s="5">
+        <v>2</v>
+      </c>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="K176" s="19"/>
+    </row>
+    <row r="177" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="118"/>
+      <c r="B177" s="5" t="str">
+        <f>B140</f>
+        <v>SQUARE</v>
+      </c>
+      <c r="C177" s="5">
+        <v>3</v>
+      </c>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="K177" s="19"/>
+    </row>
+    <row r="178" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="118"/>
+      <c r="B178" s="5" t="str">
+        <f>B141</f>
+        <v>M6</v>
+      </c>
+      <c r="C178" s="5">
+        <v>9</v>
+      </c>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="K178" s="19"/>
+    </row>
+    <row r="179" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="118"/>
+      <c r="B179" s="5" t="str">
+        <f>B142</f>
+        <v>ICE</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="K179" s="19"/>
+    </row>
+    <row r="180" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="118"/>
+      <c r="B180" s="5" t="str">
+        <f>B143</f>
+        <v>SHARK</v>
+      </c>
+      <c r="C180" s="5">
+        <v>2</v>
+      </c>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="K180" s="19"/>
+    </row>
+    <row r="181" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="118"/>
+      <c r="B181" s="5" t="str">
+        <f>B144</f>
+        <v>CS-CIPHER</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="K181" s="19"/>
+    </row>
+    <row r="182" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="118"/>
+      <c r="B182" s="5" t="str">
+        <f>B145</f>
+        <v>NUSH</v>
+      </c>
+      <c r="C182" s="5">
+        <v>3</v>
+      </c>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="K182" s="19"/>
+    </row>
+    <row r="183" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="118"/>
+      <c r="B183" s="5" t="str">
+        <f>B146</f>
+        <v>GRAND CRU</v>
+      </c>
+      <c r="C183" s="5">
+        <v>3</v>
+      </c>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="K183" s="19"/>
+    </row>
+    <row r="184" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="118"/>
+      <c r="B184" s="5" t="str">
+        <f>B147</f>
+        <v>Q</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+      <c r="K184" s="19"/>
+    </row>
+    <row r="185" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="118"/>
+      <c r="B185" s="5" t="str">
+        <f>B148</f>
+        <v>E2</v>
+      </c>
+      <c r="C185" s="5">
+        <v>6</v>
+      </c>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="K185" s="19"/>
+    </row>
+    <row r="186" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="118"/>
+      <c r="B186" s="5" t="str">
+        <f>B149</f>
+        <v>KHAZAD</v>
+      </c>
+      <c r="C186" s="5">
+        <v>2</v>
+      </c>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="K186" s="19"/>
+    </row>
+    <row r="187" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="118"/>
+      <c r="B187" s="5" t="str">
+        <f>B150</f>
+        <v>HIEROCRYPT-L1</v>
+      </c>
+      <c r="C187" s="5">
+        <v>4</v>
+      </c>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="K187" s="19"/>
+    </row>
+    <row r="188" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="118"/>
+      <c r="B188" s="5" t="str">
+        <f>B151</f>
+        <v>HIEROCRYPT-3</v>
+      </c>
+      <c r="C188" s="5">
+        <v>4</v>
+      </c>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="K188" s="19"/>
+    </row>
+    <row r="189" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="119"/>
+      <c r="B189" s="5">
+        <f>B152</f>
+        <v>0</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="K189" s="19"/>
+    </row>
+    <row r="190" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" s="6">
+        <v>2</v>
+      </c>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+    </row>
+    <row r="191" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="118"/>
+      <c r="B191" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+    </row>
+    <row r="192" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="118"/>
+      <c r="B192" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" s="6"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="K192" t="s">
+        <v>13</v>
+      </c>
+      <c r="L192">
+        <v>620209.67027777783</v>
+      </c>
+      <c r="M192">
+        <f>I6+4*I8+4*I10+4*I12+84*I9</f>
+        <v>109908.05493055555</v>
+      </c>
+      <c r="N192" s="24">
+        <f>M192/L192</f>
+        <v>0.17721112745844519</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="118"/>
+      <c r="B193" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C193" s="6"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+      <c r="K193" t="s">
+        <v>14</v>
+      </c>
+      <c r="L193">
+        <v>620209.67027777783</v>
+      </c>
+      <c r="M193">
+        <v>109908.05493055555</v>
+      </c>
+      <c r="N193" s="24">
+        <f t="shared" ref="N193:N199" si="23">M193/L193</f>
+        <v>0.17721112745844519</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="118"/>
+      <c r="B194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194" s="6">
+        <v>2</v>
+      </c>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="K194" t="s">
+        <v>22</v>
+      </c>
+      <c r="L194">
+        <v>620209.67027777783</v>
+      </c>
+      <c r="M194">
+        <v>109908.05493055555</v>
+      </c>
+      <c r="N194" s="24">
+        <f t="shared" si="23"/>
+        <v>0.17721112745844519</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="118"/>
+      <c r="B195" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C195" s="6"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+      <c r="K195" t="s">
+        <v>21</v>
+      </c>
+      <c r="L195">
+        <v>620209.67027777783</v>
+      </c>
+      <c r="M195">
+        <f>4*I12+120*I9</f>
+        <v>56193.333333333336</v>
+      </c>
+      <c r="N195" s="24">
+        <f t="shared" si="23"/>
+        <v>9.0603768412971727E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="118"/>
+      <c r="B196" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C196" s="6">
+        <v>4</v>
+      </c>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="K196" t="s">
+        <v>19</v>
+      </c>
+      <c r="L196">
+        <v>413989.95491041668</v>
+      </c>
+      <c r="M196">
+        <f>(8-5.33)*I12+80*I9</f>
+        <v>37472.133333333339</v>
+      </c>
+      <c r="N196" s="24">
+        <f t="shared" si="23"/>
+        <v>9.0514595556894464E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="118"/>
+      <c r="B197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197" s="6"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="K197" t="s">
+        <v>17</v>
+      </c>
+      <c r="L197">
+        <v>310104.83513888891</v>
+      </c>
+      <c r="M197">
+        <f>-I6-4*I10-4*I8+2*I12+96*I9</f>
+        <v>-25618.054930555554</v>
+      </c>
+      <c r="N197" s="24">
+        <f t="shared" si="23"/>
+        <v>-8.2610949677975221E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="118"/>
+      <c r="B198" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C198" s="6">
+        <v>7</v>
+      </c>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+      <c r="K198" t="s">
+        <v>24</v>
+      </c>
+      <c r="L198">
+        <v>620209.67027777783</v>
+      </c>
+      <c r="M198">
+        <f>-I6-4*I8-4*I10+156*I9</f>
+        <v>-9414.7215972222184</v>
+      </c>
+      <c r="N198" s="24">
+        <f t="shared" si="23"/>
+        <v>-1.5179901327571334E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="118"/>
+      <c r="B199" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+      <c r="K199" t="s">
+        <v>16</v>
+      </c>
+      <c r="L199">
+        <v>620209.67027777783</v>
+      </c>
+      <c r="M199">
+        <v>109908.05493055555</v>
+      </c>
+      <c r="N199" s="24">
+        <f t="shared" si="23"/>
+        <v>0.17721112745844519</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="118"/>
+      <c r="B200" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+      <c r="N200" s="25">
+        <f>AVERAGE(N192:N199)</f>
+        <v>9.9021502849762549E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="118"/>
+      <c r="B201" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C201" s="5">
+        <v>3</v>
+      </c>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+    </row>
+    <row r="202" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="118"/>
+      <c r="B202" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202" s="5">
+        <v>1</v>
+      </c>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+    </row>
+    <row r="203" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="118"/>
+      <c r="B203" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C203" s="5">
+        <v>4</v>
+      </c>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+    </row>
+    <row r="204" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="118"/>
+      <c r="B204" s="5" t="str">
+        <f>B167</f>
+        <v>XTEA</v>
+      </c>
+      <c r="C204" s="5">
+        <v>3</v>
+      </c>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+    </row>
+    <row r="205" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="118"/>
+      <c r="B205" s="5" t="str">
+        <f>B168</f>
+        <v>SKIPJECT</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+    </row>
+    <row r="206" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="118"/>
+      <c r="B206" s="5" t="str">
+        <f t="shared" ref="B206:B226" si="24">B169</f>
+        <v>SPECK</v>
+      </c>
+      <c r="C206" s="5">
+        <v>2</v>
+      </c>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+    </row>
+    <row r="207" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="118"/>
+      <c r="B207" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>SIMON</v>
+      </c>
+      <c r="C207" s="5">
+        <v>3</v>
+      </c>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
+      <c r="I207" s="4"/>
+    </row>
+    <row r="208" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="118"/>
+      <c r="B208" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">LUCIFER </v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+    </row>
+    <row r="209" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="118"/>
+      <c r="B209" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>CLEFIA</v>
+      </c>
+      <c r="C209" s="5">
+        <v>2</v>
+      </c>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
+      <c r="I209" s="4"/>
+    </row>
+    <row r="210" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="118"/>
+      <c r="B210" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>ARIA</v>
+      </c>
+      <c r="C210" s="5">
+        <v>1</v>
+      </c>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
+      <c r="I210" s="4"/>
+    </row>
+    <row r="211" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="118"/>
+      <c r="B211" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>CRYPTOMERIA/C2</v>
+      </c>
+      <c r="C211" s="5">
+        <v>3</v>
+      </c>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
+      <c r="I211" s="4"/>
+    </row>
+    <row r="212" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="118"/>
+      <c r="B212" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">PRESENT </v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
+      <c r="I212" s="4"/>
+    </row>
+    <row r="213" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="118"/>
+      <c r="B213" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>MACGUFFIN</v>
+      </c>
+      <c r="C213" s="5">
+        <v>2</v>
+      </c>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
+      <c r="I213" s="4"/>
+    </row>
+    <row r="214" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="118"/>
+      <c r="B214" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>SQUARE</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
+      <c r="I214" s="4"/>
+    </row>
+    <row r="215" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="118"/>
+      <c r="B215" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>M6</v>
+      </c>
+      <c r="C215" s="5">
+        <v>4</v>
+      </c>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="4"/>
+    </row>
+    <row r="216" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="118"/>
+      <c r="B216" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>ICE</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="4"/>
+    </row>
+    <row r="217" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="118"/>
+      <c r="B217" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>SHARK</v>
+      </c>
+      <c r="C217" s="5">
+        <v>1</v>
+      </c>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+      <c r="I217" s="4"/>
+    </row>
+    <row r="218" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="118"/>
+      <c r="B218" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>CS-CIPHER</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
+      <c r="I218" s="4"/>
+    </row>
+    <row r="219" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="118"/>
+      <c r="B219" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>NUSH</v>
+      </c>
+      <c r="C219" s="5">
+        <v>2</v>
+      </c>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
+      <c r="I219" s="4"/>
+    </row>
+    <row r="220" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="118"/>
+      <c r="B220" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>GRAND CRU</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="H220" s="4"/>
+      <c r="I220" s="4"/>
+    </row>
+    <row r="221" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="118"/>
+      <c r="B221" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>Q</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="4"/>
+      <c r="I221" s="4"/>
+    </row>
+    <row r="222" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="118"/>
+      <c r="B222" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>E2</v>
+      </c>
+      <c r="C222" s="5"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="4"/>
+      <c r="I222" s="4"/>
+    </row>
+    <row r="223" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="118"/>
+      <c r="B223" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>KHAZAD</v>
+      </c>
+      <c r="C223" s="5">
+        <v>1</v>
+      </c>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="4"/>
+      <c r="I223" s="4"/>
+    </row>
+    <row r="224" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="118"/>
+      <c r="B224" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>HIEROCRYPT-L1</v>
+      </c>
+      <c r="C224" s="5">
+        <v>2</v>
+      </c>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="4"/>
+      <c r="I224" s="4"/>
+    </row>
+    <row r="225" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="118"/>
+      <c r="B225" s="5" t="str">
+        <f t="shared" si="24"/>
+        <v>HIEROCRYPT-3</v>
+      </c>
+      <c r="C225" s="5">
+        <v>2</v>
+      </c>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="4"/>
+      <c r="I225" s="4"/>
+    </row>
+    <row r="226" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="118"/>
+      <c r="B226" s="5">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="C226" s="5"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="H226" s="4"/>
+      <c r="I226" s="4"/>
+    </row>
+    <row r="227" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227" s="6"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="H227" s="4"/>
+      <c r="I227" s="4"/>
+    </row>
+    <row r="228" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="86"/>
+      <c r="B228" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228" s="6"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+      <c r="H228" s="4"/>
+      <c r="I228" s="4"/>
+    </row>
+    <row r="229" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="86"/>
+      <c r="B229" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C229" s="6"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="H229" s="4"/>
+      <c r="I229" s="4"/>
+    </row>
+    <row r="230" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="86"/>
+      <c r="B230" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C230" s="6"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
+      <c r="I230" s="4"/>
+    </row>
+    <row r="231" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="86"/>
+      <c r="B231" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" s="6"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="4"/>
+      <c r="I231" s="4"/>
+    </row>
+    <row r="232" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="86"/>
+      <c r="B232" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C232" s="6"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+      <c r="H232" s="4"/>
+      <c r="I232" s="4"/>
+    </row>
+    <row r="233" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="86"/>
+      <c r="B233" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C233" s="6"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="4"/>
+      <c r="I233" s="4"/>
+    </row>
+    <row r="234" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="86"/>
+      <c r="B234" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C234" s="6"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+      <c r="H234" s="4"/>
+      <c r="I234" s="4"/>
+    </row>
+    <row r="235" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="86"/>
+      <c r="B235" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C235" s="5"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+      <c r="H235" s="4"/>
+      <c r="I235" s="4"/>
+    </row>
+    <row r="236" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="86"/>
+      <c r="B236" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C236" s="5"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+      <c r="H236" s="4"/>
+      <c r="I236" s="4"/>
+    </row>
+    <row r="237" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="86"/>
+      <c r="B237" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C237" s="5"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
+      <c r="I237" s="4"/>
+    </row>
+    <row r="238" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="86"/>
+      <c r="B238" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C238" s="5"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
+      <c r="I238" s="4"/>
+    </row>
+    <row r="239" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="86"/>
+      <c r="B239" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C239" s="5"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+      <c r="H239" s="4"/>
+      <c r="I239" s="4"/>
+    </row>
+    <row r="240" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="86"/>
+      <c r="B240" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C240" s="5"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
+      <c r="H240" s="4"/>
+      <c r="I240" s="4"/>
+    </row>
+    <row r="241" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="87"/>
+      <c r="B241" s="5" t="str">
+        <f>B204</f>
+        <v>XTEA</v>
+      </c>
+      <c r="C241" s="5"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
+      <c r="H241" s="4"/>
+      <c r="I241" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A102:A116"/>
-    <mergeCell ref="A117:A131"/>
+    <mergeCell ref="A190:A226"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="O90:Q90"/>
+    <mergeCell ref="R90:T90"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="O88:Q88"/>
+    <mergeCell ref="R88:T88"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="O89:Q89"/>
+    <mergeCell ref="R89:T89"/>
+    <mergeCell ref="A227:A241"/>
     <mergeCell ref="L41:N41"/>
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A57:A71"/>
     <mergeCell ref="L40:N40"/>
     <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A87:A101"/>
-    <mergeCell ref="L68:N68"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="R68:T68"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="L66:N66"/>
-    <mergeCell ref="O66:Q66"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="A42:A78"/>
+    <mergeCell ref="A79:A115"/>
+    <mergeCell ref="A116:A152"/>
+    <mergeCell ref="A153:A189"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6104,51 +8576,51 @@
       <c r="A1" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="108" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="106" t="s">
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="103" t="s">
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
+      <c r="AA1" s="103"/>
+      <c r="AB1" s="103"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="105"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="101"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="101"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="101"/>
+      <c r="AL1" s="102"/>
     </row>
     <row r="2" spans="1:39" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="29"/>
@@ -8627,51 +11099,51 @@
       <c r="A39" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="108" t="s">
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
-      <c r="T39" s="106" t="s">
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
+      <c r="O39" s="106"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="106"/>
+      <c r="R39" s="106"/>
+      <c r="S39" s="106"/>
+      <c r="T39" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="U39" s="106"/>
-      <c r="V39" s="106"/>
-      <c r="W39" s="106"/>
-      <c r="X39" s="106"/>
-      <c r="Y39" s="106"/>
-      <c r="Z39" s="106"/>
-      <c r="AA39" s="106"/>
-      <c r="AB39" s="106"/>
-      <c r="AC39" s="107"/>
-      <c r="AD39" s="103" t="s">
+      <c r="U39" s="103"/>
+      <c r="V39" s="103"/>
+      <c r="W39" s="103"/>
+      <c r="X39" s="103"/>
+      <c r="Y39" s="103"/>
+      <c r="Z39" s="103"/>
+      <c r="AA39" s="103"/>
+      <c r="AB39" s="103"/>
+      <c r="AC39" s="104"/>
+      <c r="AD39" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="AE39" s="104"/>
-      <c r="AF39" s="104"/>
-      <c r="AG39" s="104"/>
-      <c r="AH39" s="104"/>
-      <c r="AI39" s="104"/>
-      <c r="AJ39" s="104"/>
-      <c r="AK39" s="104"/>
-      <c r="AL39" s="105"/>
+      <c r="AE39" s="101"/>
+      <c r="AF39" s="101"/>
+      <c r="AG39" s="101"/>
+      <c r="AH39" s="101"/>
+      <c r="AI39" s="101"/>
+      <c r="AJ39" s="101"/>
+      <c r="AK39" s="101"/>
+      <c r="AL39" s="102"/>
     </row>
     <row r="40" spans="1:38" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A40" s="29"/>
@@ -9736,51 +12208,51 @@
       <c r="A58" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="102"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="108" t="s">
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="I58" s="109"/>
-      <c r="J58" s="109"/>
-      <c r="K58" s="109"/>
-      <c r="L58" s="109"/>
-      <c r="M58" s="109"/>
-      <c r="N58" s="109"/>
-      <c r="O58" s="109"/>
-      <c r="P58" s="109"/>
-      <c r="Q58" s="109"/>
-      <c r="R58" s="109"/>
-      <c r="S58" s="109"/>
-      <c r="T58" s="106" t="s">
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="106"/>
+      <c r="N58" s="106"/>
+      <c r="O58" s="106"/>
+      <c r="P58" s="106"/>
+      <c r="Q58" s="106"/>
+      <c r="R58" s="106"/>
+      <c r="S58" s="106"/>
+      <c r="T58" s="103" t="s">
         <v>145</v>
       </c>
-      <c r="U58" s="106"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
-      <c r="X58" s="106"/>
-      <c r="Y58" s="106"/>
-      <c r="Z58" s="106"/>
-      <c r="AA58" s="106"/>
-      <c r="AB58" s="106"/>
-      <c r="AC58" s="107"/>
-      <c r="AD58" s="103" t="s">
+      <c r="U58" s="103"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
+      <c r="X58" s="103"/>
+      <c r="Y58" s="103"/>
+      <c r="Z58" s="103"/>
+      <c r="AA58" s="103"/>
+      <c r="AB58" s="103"/>
+      <c r="AC58" s="104"/>
+      <c r="AD58" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="AE58" s="104"/>
-      <c r="AF58" s="104"/>
-      <c r="AG58" s="104"/>
-      <c r="AH58" s="104"/>
-      <c r="AI58" s="104"/>
-      <c r="AJ58" s="104"/>
-      <c r="AK58" s="104"/>
-      <c r="AL58" s="105"/>
+      <c r="AE58" s="101"/>
+      <c r="AF58" s="101"/>
+      <c r="AG58" s="101"/>
+      <c r="AH58" s="101"/>
+      <c r="AI58" s="101"/>
+      <c r="AJ58" s="101"/>
+      <c r="AK58" s="101"/>
+      <c r="AL58" s="102"/>
     </row>
     <row r="59" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
@@ -14168,13 +16640,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="110">
+      <c r="C2" s="107">
         <v>500</v>
       </c>
       <c r="D2" s="77" t="s">
@@ -14200,9 +16672,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
       <c r="D3" s="77" t="s">
         <v>14</v>
       </c>
@@ -14226,9 +16698,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
@@ -14252,9 +16724,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="77" t="s">
         <v>21</v>
       </c>
@@ -14278,9 +16750,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="77" t="s">
         <v>19</v>
       </c>
@@ -14304,9 +16776,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="112"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="77" t="s">
         <v>16</v>
       </c>
@@ -14330,13 +16802,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="107" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="77" t="s">
@@ -14356,9 +16828,9 @@
       <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="111"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="77" t="s">
         <v>14</v>
       </c>
@@ -14376,9 +16848,9 @@
       <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="77" t="s">
         <v>22</v>
       </c>
@@ -14396,9 +16868,9 @@
       <c r="I10" s="79"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="77" t="s">
         <v>21</v>
       </c>
@@ -14416,9 +16888,9 @@
       <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="77" t="s">
         <v>19</v>
       </c>
@@ -14436,9 +16908,9 @@
       <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="112"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="77" t="s">
         <v>16</v>
       </c>
@@ -14456,11 +16928,11 @@
       <c r="I13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="77" t="s">
         <v>13</v>
       </c>
@@ -14475,9 +16947,9 @@
       <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="111"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
       <c r="D15" s="77" t="s">
         <v>14</v>
       </c>
@@ -14492,9 +16964,9 @@
       <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="111"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="77" t="s">
         <v>22</v>
       </c>
@@ -14509,9 +16981,9 @@
       <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="111"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
@@ -14526,9 +16998,9 @@
       <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="111"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
       <c r="D18" s="77" t="s">
         <v>19</v>
       </c>
@@ -14543,9 +17015,9 @@
       <c r="I18" s="79"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="112"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
       <c r="D19" s="77" t="s">
         <v>16</v>
       </c>
@@ -14560,11 +17032,11 @@
       <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="110" t="s">
+      <c r="A20" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="77" t="s">
         <v>13</v>
       </c>
@@ -14579,9 +17051,9 @@
       <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="111"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="77" t="s">
         <v>14</v>
       </c>
@@ -14596,9 +17068,9 @@
       <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="111"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="77" t="s">
         <v>22</v>
       </c>
@@ -14613,9 +17085,9 @@
       <c r="I22" s="79"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="77" t="s">
         <v>21</v>
       </c>
@@ -14630,9 +17102,9 @@
       <c r="I23" s="79"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="77" t="s">
         <v>19</v>
       </c>
@@ -14647,9 +17119,9 @@
       <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="77" t="s">
         <v>16</v>
       </c>
@@ -14694,13 +17166,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="110">
+      <c r="C30" s="107">
         <v>500</v>
       </c>
       <c r="D30" s="77" t="s">
@@ -14725,9 +17197,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="77" t="s">
         <v>14</v>
       </c>
@@ -14750,9 +17222,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="111"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="77" t="s">
         <v>22</v>
       </c>
@@ -14775,9 +17247,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
       <c r="D33" s="77" t="s">
         <v>21</v>
       </c>
@@ -14800,9 +17272,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="77" t="s">
         <v>19</v>
       </c>
@@ -14825,9 +17297,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="112"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="77" t="s">
         <v>16</v>
       </c>
@@ -14850,13 +17322,13 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="110">
+      <c r="C36" s="107">
         <v>1000</v>
       </c>
       <c r="D36" s="77" t="s">
@@ -14877,9 +17349,9 @@
       <c r="I36" s="79"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="111"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="111"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
       <c r="D37" s="77" t="s">
         <v>14</v>
       </c>
@@ -14898,9 +17370,9 @@
       <c r="I37" s="79"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="111"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="77" t="s">
         <v>22</v>
       </c>
@@ -14919,9 +17391,9 @@
       <c r="I38" s="79"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="111"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
       <c r="D39" s="77" t="s">
         <v>21</v>
       </c>
@@ -14940,9 +17412,9 @@
       <c r="I39" s="79"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="111"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="111"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="77" t="s">
         <v>19</v>
       </c>
@@ -14961,9 +17433,9 @@
       <c r="I40" s="79"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="112"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="77" t="s">
         <v>16</v>
       </c>
@@ -14983,24 +17455,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C8:C13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C36:C41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15018,24 +17490,24 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="117"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="114"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="111"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -15056,7 +17528,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="85" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -15070,7 +17542,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -15082,7 +17554,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -15094,7 +17566,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="92"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -15106,7 +17578,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="92"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -15118,7 +17590,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="92"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -15130,7 +17602,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="92"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -15142,7 +17614,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="92"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -15154,7 +17626,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -15166,7 +17638,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="92"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -15178,7 +17650,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="92"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -15190,7 +17662,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="92"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -15202,7 +17674,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="92"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -15214,7 +17686,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="92"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -15226,7 +17698,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="92"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -15238,7 +17710,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="92"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -15250,7 +17722,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="92"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -15262,7 +17734,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="92"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -15274,7 +17746,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="92"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -15286,7 +17758,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="92"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -15298,7 +17770,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="92"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -15310,7 +17782,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="92"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -15322,7 +17794,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="92"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
@@ -15334,7 +17806,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="92"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
@@ -15346,7 +17818,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
@@ -15358,7 +17830,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="92"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -15370,7 +17842,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="92"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
@@ -15382,7 +17854,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="92"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
@@ -15394,7 +17866,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="92"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
@@ -15406,7 +17878,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="92"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
@@ -15418,7 +17890,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="92"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
@@ -15430,7 +17902,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="92"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
@@ -15442,7 +17914,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="92"/>
+      <c r="A35" s="86"/>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
@@ -15454,7 +17926,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="92"/>
+      <c r="A36" s="86"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
@@ -15466,7 +17938,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="92"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
@@ -15478,7 +17950,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="93"/>
+      <c r="A38" s="87"/>
       <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
@@ -15490,7 +17962,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="85" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -15504,7 +17976,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="92"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
@@ -15516,7 +17988,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="92"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
@@ -15528,7 +18000,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="92"/>
+      <c r="A42" s="86"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -15540,7 +18012,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="92"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
@@ -15552,7 +18024,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="92"/>
+      <c r="A44" s="86"/>
       <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
@@ -15564,7 +18036,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="92"/>
+      <c r="A45" s="86"/>
       <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
@@ -15576,7 +18048,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="92"/>
+      <c r="A46" s="86"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -15588,7 +18060,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="92"/>
+      <c r="A47" s="86"/>
       <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
@@ -15600,7 +18072,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="92"/>
+      <c r="A48" s="86"/>
       <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
@@ -15612,7 +18084,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="92"/>
+      <c r="A49" s="86"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
       </c>
@@ -15624,7 +18096,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="92"/>
+      <c r="A50" s="86"/>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
@@ -15636,7 +18108,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="92"/>
+      <c r="A51" s="86"/>
       <c r="B51" s="2" t="s">
         <v>24</v>
       </c>
@@ -15648,7 +18120,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="92"/>
+      <c r="A52" s="86"/>
       <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
@@ -15660,7 +18132,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="92"/>
+      <c r="A53" s="86"/>
       <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
@@ -15672,7 +18144,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="92"/>
+      <c r="A54" s="86"/>
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -15684,7 +18156,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="92"/>
+      <c r="A55" s="86"/>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
@@ -15696,7 +18168,7 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="92"/>
+      <c r="A56" s="86"/>
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
@@ -15708,7 +18180,7 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="92"/>
+      <c r="A57" s="86"/>
       <c r="B57" s="2" t="s">
         <v>29</v>
       </c>
@@ -15720,7 +18192,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="92"/>
+      <c r="A58" s="86"/>
       <c r="B58" s="2" t="s">
         <v>30</v>
       </c>
@@ -15732,7 +18204,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="92"/>
+      <c r="A59" s="86"/>
       <c r="B59" s="2" t="s">
         <v>31</v>
       </c>
@@ -15744,7 +18216,7 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="92"/>
+      <c r="A60" s="86"/>
       <c r="B60" s="2" t="s">
         <v>32</v>
       </c>
@@ -15756,7 +18228,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="92"/>
+      <c r="A61" s="86"/>
       <c r="B61" s="2" t="s">
         <v>33</v>
       </c>
@@ -15768,7 +18240,7 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="92"/>
+      <c r="A62" s="86"/>
       <c r="B62" s="2" t="s">
         <v>34</v>
       </c>
@@ -15780,7 +18252,7 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="92"/>
+      <c r="A63" s="86"/>
       <c r="B63" s="2" t="s">
         <v>35</v>
       </c>
@@ -15792,7 +18264,7 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="92"/>
+      <c r="A64" s="86"/>
       <c r="B64" s="2" t="s">
         <v>36</v>
       </c>
@@ -15804,7 +18276,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="92"/>
+      <c r="A65" s="86"/>
       <c r="B65" s="2" t="s">
         <v>37</v>
       </c>
@@ -15816,7 +18288,7 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="92"/>
+      <c r="A66" s="86"/>
       <c r="B66" s="2" t="s">
         <v>38</v>
       </c>
@@ -15828,7 +18300,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="92"/>
+      <c r="A67" s="86"/>
       <c r="B67" s="2" t="s">
         <v>39</v>
       </c>
@@ -15840,7 +18312,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="92"/>
+      <c r="A68" s="86"/>
       <c r="B68" s="2" t="s">
         <v>40</v>
       </c>
@@ -15852,7 +18324,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="92"/>
+      <c r="A69" s="86"/>
       <c r="B69" s="2" t="s">
         <v>41</v>
       </c>
@@ -15864,7 +18336,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="92"/>
+      <c r="A70" s="86"/>
       <c r="B70" s="2" t="s">
         <v>42</v>
       </c>
@@ -15876,7 +18348,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="92"/>
+      <c r="A71" s="86"/>
       <c r="B71" s="2" t="s">
         <v>43</v>
       </c>
@@ -15888,7 +18360,7 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="92"/>
+      <c r="A72" s="86"/>
       <c r="B72" s="2" t="s">
         <v>44</v>
       </c>
@@ -15900,7 +18372,7 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="92"/>
+      <c r="A73" s="86"/>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
@@ -15912,7 +18384,7 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="93"/>
+      <c r="A74" s="87"/>
       <c r="B74" s="2" t="s">
         <v>45</v>
       </c>
@@ -15924,7 +18396,7 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="91" t="s">
+      <c r="A75" s="85" t="s">
         <v>48</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -15938,7 +18410,7 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="92"/>
+      <c r="A76" s="86"/>
       <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
@@ -15950,7 +18422,7 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="92"/>
+      <c r="A77" s="86"/>
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
@@ -15962,7 +18434,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="92"/>
+      <c r="A78" s="86"/>
       <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
@@ -15974,7 +18446,7 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="92"/>
+      <c r="A79" s="86"/>
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -15986,7 +18458,7 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="92"/>
+      <c r="A80" s="86"/>
       <c r="B80" s="2" t="s">
         <v>17</v>
       </c>
@@ -15998,7 +18470,7 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="92"/>
+      <c r="A81" s="86"/>
       <c r="B81" s="2" t="s">
         <v>18</v>
       </c>
@@ -16010,7 +18482,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="92"/>
+      <c r="A82" s="86"/>
       <c r="B82" s="2" t="s">
         <v>19</v>
       </c>
@@ -16022,7 +18494,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="92"/>
+      <c r="A83" s="86"/>
       <c r="B83" s="2" t="s">
         <v>20</v>
       </c>
@@ -16034,7 +18506,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="92"/>
+      <c r="A84" s="86"/>
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
@@ -16046,7 +18518,7 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="92"/>
+      <c r="A85" s="86"/>
       <c r="B85" s="2" t="s">
         <v>22</v>
       </c>
@@ -16058,7 +18530,7 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="92"/>
+      <c r="A86" s="86"/>
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
@@ -16070,7 +18542,7 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="92"/>
+      <c r="A87" s="86"/>
       <c r="B87" s="2" t="s">
         <v>24</v>
       </c>
@@ -16082,7 +18554,7 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="92"/>
+      <c r="A88" s="86"/>
       <c r="B88" s="2" t="s">
         <v>25</v>
       </c>
@@ -16094,7 +18566,7 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="92"/>
+      <c r="A89" s="86"/>
       <c r="B89" s="2" t="s">
         <v>26</v>
       </c>
@@ -16106,7 +18578,7 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="92"/>
+      <c r="A90" s="86"/>
       <c r="B90" s="2" t="s">
         <v>27</v>
       </c>
@@ -16118,7 +18590,7 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="92"/>
+      <c r="A91" s="86"/>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
@@ -16130,7 +18602,7 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="92"/>
+      <c r="A92" s="86"/>
       <c r="B92" s="2" t="s">
         <v>28</v>
       </c>
@@ -16142,7 +18614,7 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="92"/>
+      <c r="A93" s="86"/>
       <c r="B93" s="2" t="s">
         <v>29</v>
       </c>
@@ -16154,7 +18626,7 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="92"/>
+      <c r="A94" s="86"/>
       <c r="B94" s="2" t="s">
         <v>30</v>
       </c>
@@ -16166,7 +18638,7 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="92"/>
+      <c r="A95" s="86"/>
       <c r="B95" s="2" t="s">
         <v>31</v>
       </c>
@@ -16178,7 +18650,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="92"/>
+      <c r="A96" s="86"/>
       <c r="B96" s="2" t="s">
         <v>32</v>
       </c>
@@ -16190,7 +18662,7 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="92"/>
+      <c r="A97" s="86"/>
       <c r="B97" s="2" t="s">
         <v>33</v>
       </c>
@@ -16202,7 +18674,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="92"/>
+      <c r="A98" s="86"/>
       <c r="B98" s="2" t="s">
         <v>34</v>
       </c>
@@ -16214,7 +18686,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="92"/>
+      <c r="A99" s="86"/>
       <c r="B99" s="2" t="s">
         <v>35</v>
       </c>
@@ -16226,7 +18698,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="92"/>
+      <c r="A100" s="86"/>
       <c r="B100" s="2" t="s">
         <v>36</v>
       </c>
@@ -16238,7 +18710,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="92"/>
+      <c r="A101" s="86"/>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
@@ -16250,7 +18722,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="92"/>
+      <c r="A102" s="86"/>
       <c r="B102" s="2" t="s">
         <v>38</v>
       </c>
@@ -16262,7 +18734,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="92"/>
+      <c r="A103" s="86"/>
       <c r="B103" s="2" t="s">
         <v>39</v>
       </c>
@@ -16274,7 +18746,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="92"/>
+      <c r="A104" s="86"/>
       <c r="B104" s="2" t="s">
         <v>40</v>
       </c>
@@ -16286,7 +18758,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="92"/>
+      <c r="A105" s="86"/>
       <c r="B105" s="2" t="s">
         <v>41</v>
       </c>
@@ -16298,7 +18770,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="92"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="2" t="s">
         <v>42</v>
       </c>
@@ -16310,7 +18782,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="92"/>
+      <c r="A107" s="86"/>
       <c r="B107" s="2" t="s">
         <v>43</v>
       </c>
@@ -16322,7 +18794,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="92"/>
+      <c r="A108" s="86"/>
       <c r="B108" s="2" t="s">
         <v>44</v>
       </c>
@@ -16334,7 +18806,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="92"/>
+      <c r="A109" s="86"/>
       <c r="B109" s="2" t="s">
         <v>4</v>
       </c>
@@ -16346,7 +18818,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="93"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="2" t="s">
         <v>45</v>
       </c>
@@ -16358,7 +18830,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="91" t="s">
+      <c r="A111" s="85" t="s">
         <v>49</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -16372,7 +18844,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="92"/>
+      <c r="A112" s="86"/>
       <c r="B112" s="2" t="s">
         <v>14</v>
       </c>
@@ -16384,7 +18856,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="92"/>
+      <c r="A113" s="86"/>
       <c r="B113" s="2" t="s">
         <v>15</v>
       </c>
@@ -16396,7 +18868,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="92"/>
+      <c r="A114" s="86"/>
       <c r="B114" s="2" t="s">
         <v>16</v>
       </c>
@@ -16408,7 +18880,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="92"/>
+      <c r="A115" s="86"/>
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
@@ -16420,7 +18892,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="92"/>
+      <c r="A116" s="86"/>
       <c r="B116" s="2" t="s">
         <v>17</v>
       </c>
@@ -16432,7 +18904,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="92"/>
+      <c r="A117" s="86"/>
       <c r="B117" s="2" t="s">
         <v>18</v>
       </c>
@@ -16444,7 +18916,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="92"/>
+      <c r="A118" s="86"/>
       <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
@@ -16456,7 +18928,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="92"/>
+      <c r="A119" s="86"/>
       <c r="B119" s="2" t="s">
         <v>20</v>
       </c>
@@ -16468,7 +18940,7 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="92"/>
+      <c r="A120" s="86"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -16480,7 +18952,7 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="92"/>
+      <c r="A121" s="86"/>
       <c r="B121" s="2" t="s">
         <v>22</v>
       </c>
@@ -16492,7 +18964,7 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="92"/>
+      <c r="A122" s="86"/>
       <c r="B122" s="2" t="s">
         <v>23</v>
       </c>
@@ -16504,7 +18976,7 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="92"/>
+      <c r="A123" s="86"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -16516,7 +18988,7 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="92"/>
+      <c r="A124" s="86"/>
       <c r="B124" s="2" t="s">
         <v>25</v>
       </c>
@@ -16528,7 +19000,7 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="92"/>
+      <c r="A125" s="86"/>
       <c r="B125" s="2" t="s">
         <v>26</v>
       </c>
@@ -16540,7 +19012,7 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="92"/>
+      <c r="A126" s="86"/>
       <c r="B126" s="2" t="s">
         <v>27</v>
       </c>
@@ -16552,7 +19024,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="92"/>
+      <c r="A127" s="86"/>
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
@@ -16564,7 +19036,7 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="92"/>
+      <c r="A128" s="86"/>
       <c r="B128" s="2" t="s">
         <v>28</v>
       </c>
@@ -16576,7 +19048,7 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="92"/>
+      <c r="A129" s="86"/>
       <c r="B129" s="2" t="s">
         <v>29</v>
       </c>
@@ -16588,7 +19060,7 @@
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="92"/>
+      <c r="A130" s="86"/>
       <c r="B130" s="2" t="s">
         <v>30</v>
       </c>
@@ -16600,7 +19072,7 @@
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="92"/>
+      <c r="A131" s="86"/>
       <c r="B131" s="2" t="s">
         <v>31</v>
       </c>
@@ -16612,7 +19084,7 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="92"/>
+      <c r="A132" s="86"/>
       <c r="B132" s="2" t="s">
         <v>32</v>
       </c>
@@ -16624,7 +19096,7 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="92"/>
+      <c r="A133" s="86"/>
       <c r="B133" s="2" t="s">
         <v>33</v>
       </c>
@@ -16636,7 +19108,7 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="92"/>
+      <c r="A134" s="86"/>
       <c r="B134" s="2" t="s">
         <v>34</v>
       </c>
@@ -16648,7 +19120,7 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="92"/>
+      <c r="A135" s="86"/>
       <c r="B135" s="2" t="s">
         <v>35</v>
       </c>
@@ -16660,7 +19132,7 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="92"/>
+      <c r="A136" s="86"/>
       <c r="B136" s="2" t="s">
         <v>36</v>
       </c>
@@ -16672,7 +19144,7 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="92"/>
+      <c r="A137" s="86"/>
       <c r="B137" s="2" t="s">
         <v>37</v>
       </c>
@@ -16684,7 +19156,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="92"/>
+      <c r="A138" s="86"/>
       <c r="B138" s="2" t="s">
         <v>38</v>
       </c>
@@ -16696,7 +19168,7 @@
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="92"/>
+      <c r="A139" s="86"/>
       <c r="B139" s="2" t="s">
         <v>39</v>
       </c>
@@ -16708,7 +19180,7 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="92"/>
+      <c r="A140" s="86"/>
       <c r="B140" s="2" t="s">
         <v>40</v>
       </c>
@@ -16720,7 +19192,7 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="92"/>
+      <c r="A141" s="86"/>
       <c r="B141" s="2" t="s">
         <v>41</v>
       </c>
@@ -16732,7 +19204,7 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="92"/>
+      <c r="A142" s="86"/>
       <c r="B142" s="2" t="s">
         <v>42</v>
       </c>
@@ -16744,7 +19216,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="92"/>
+      <c r="A143" s="86"/>
       <c r="B143" s="2" t="s">
         <v>43</v>
       </c>
@@ -16756,7 +19228,7 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="92"/>
+      <c r="A144" s="86"/>
       <c r="B144" s="2" t="s">
         <v>44</v>
       </c>
@@ -16768,7 +19240,7 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="92"/>
+      <c r="A145" s="86"/>
       <c r="B145" s="2" t="s">
         <v>4</v>
       </c>
@@ -16780,7 +19252,7 @@
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="93"/>
+      <c r="A146" s="87"/>
       <c r="B146" s="2" t="s">
         <v>45</v>
       </c>
@@ -16793,24 +19265,24 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="91" t="s">
+      <c r="A152" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C152" s="96" t="s">
+      <c r="B152" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D152" s="97"/>
-      <c r="E152" s="97"/>
-      <c r="F152" s="97"/>
-      <c r="G152" s="97"/>
-      <c r="H152" s="98"/>
+      <c r="D152" s="94"/>
+      <c r="E152" s="94"/>
+      <c r="F152" s="94"/>
+      <c r="G152" s="94"/>
+      <c r="H152" s="95"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="93"/>
-      <c r="B153" s="95"/>
+      <c r="A153" s="87"/>
+      <c r="B153" s="92"/>
       <c r="C153" s="1" t="s">
         <v>7</v>
       </c>
@@ -16831,7 +19303,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="91" t="s">
+      <c r="A154" s="85" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -16845,7 +19317,7 @@
       <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="92"/>
+      <c r="A155" s="86"/>
       <c r="B155" s="2" t="s">
         <v>14</v>
       </c>
@@ -16857,7 +19329,7 @@
       <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="92"/>
+      <c r="A156" s="86"/>
       <c r="B156" s="2" t="s">
         <v>15</v>
       </c>
@@ -16869,7 +19341,7 @@
       <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="92"/>
+      <c r="A157" s="86"/>
       <c r="B157" s="2" t="s">
         <v>16</v>
       </c>
@@ -16881,7 +19353,7 @@
       <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="92"/>
+      <c r="A158" s="86"/>
       <c r="B158" s="2" t="s">
         <v>2</v>
       </c>
@@ -16893,7 +19365,7 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="92"/>
+      <c r="A159" s="86"/>
       <c r="B159" s="2" t="s">
         <v>17</v>
       </c>
@@ -16905,7 +19377,7 @@
       <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="92"/>
+      <c r="A160" s="86"/>
       <c r="B160" s="2" t="s">
         <v>18</v>
       </c>
@@ -16917,7 +19389,7 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="92"/>
+      <c r="A161" s="86"/>
       <c r="B161" s="2" t="s">
         <v>19</v>
       </c>
@@ -16929,7 +19401,7 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="92"/>
+      <c r="A162" s="86"/>
       <c r="B162" s="2" t="s">
         <v>20</v>
       </c>
@@ -16941,7 +19413,7 @@
       <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="92"/>
+      <c r="A163" s="86"/>
       <c r="B163" s="2" t="s">
         <v>21</v>
       </c>
@@ -16953,7 +19425,7 @@
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="92"/>
+      <c r="A164" s="86"/>
       <c r="B164" s="2" t="s">
         <v>22</v>
       </c>
@@ -16965,7 +19437,7 @@
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="92"/>
+      <c r="A165" s="86"/>
       <c r="B165" s="2" t="s">
         <v>23</v>
       </c>
@@ -16977,7 +19449,7 @@
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="92"/>
+      <c r="A166" s="86"/>
       <c r="B166" s="2" t="s">
         <v>24</v>
       </c>
@@ -16989,7 +19461,7 @@
       <c r="H166" s="4"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="92"/>
+      <c r="A167" s="86"/>
       <c r="B167" s="2" t="s">
         <v>25</v>
       </c>
@@ -17001,7 +19473,7 @@
       <c r="H167" s="4"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="93"/>
+      <c r="A168" s="87"/>
       <c r="B168" s="5" t="s">
         <v>50</v>
       </c>
@@ -17013,7 +19485,7 @@
       <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="91" t="s">
+      <c r="A169" s="85" t="s">
         <v>46</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -17027,7 +19499,7 @@
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="92"/>
+      <c r="A170" s="86"/>
       <c r="B170" s="2" t="s">
         <v>14</v>
       </c>
@@ -17039,7 +19511,7 @@
       <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="92"/>
+      <c r="A171" s="86"/>
       <c r="B171" s="2" t="s">
         <v>15</v>
       </c>
@@ -17051,7 +19523,7 @@
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="92"/>
+      <c r="A172" s="86"/>
       <c r="B172" s="2" t="s">
         <v>16</v>
       </c>
@@ -17063,7 +19535,7 @@
       <c r="H172" s="4"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="92"/>
+      <c r="A173" s="86"/>
       <c r="B173" s="2" t="s">
         <v>2</v>
       </c>
@@ -17075,7 +19547,7 @@
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="92"/>
+      <c r="A174" s="86"/>
       <c r="B174" s="2" t="s">
         <v>17</v>
       </c>
@@ -17087,7 +19559,7 @@
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="92"/>
+      <c r="A175" s="86"/>
       <c r="B175" s="2" t="s">
         <v>18</v>
       </c>
@@ -17099,7 +19571,7 @@
       <c r="H175" s="4"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="92"/>
+      <c r="A176" s="86"/>
       <c r="B176" s="2" t="s">
         <v>19</v>
       </c>
@@ -17111,7 +19583,7 @@
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="92"/>
+      <c r="A177" s="86"/>
       <c r="B177" s="2" t="s">
         <v>20</v>
       </c>
@@ -17123,7 +19595,7 @@
       <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="92"/>
+      <c r="A178" s="86"/>
       <c r="B178" s="2" t="s">
         <v>21</v>
       </c>
@@ -17135,7 +19607,7 @@
       <c r="H178" s="4"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="92"/>
+      <c r="A179" s="86"/>
       <c r="B179" s="2" t="s">
         <v>22</v>
       </c>
@@ -17147,7 +19619,7 @@
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="92"/>
+      <c r="A180" s="86"/>
       <c r="B180" s="2" t="s">
         <v>23</v>
       </c>
@@ -17159,7 +19631,7 @@
       <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="92"/>
+      <c r="A181" s="86"/>
       <c r="B181" s="2" t="s">
         <v>24</v>
       </c>
@@ -17171,7 +19643,7 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="92"/>
+      <c r="A182" s="86"/>
       <c r="B182" s="2" t="s">
         <v>25</v>
       </c>
@@ -17183,7 +19655,7 @@
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="93"/>
+      <c r="A183" s="87"/>
       <c r="B183" s="5" t="s">
         <v>50</v>
       </c>
@@ -17195,7 +19667,7 @@
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="91" t="s">
+      <c r="A184" s="85" t="s">
         <v>51</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -17209,7 +19681,7 @@
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="92"/>
+      <c r="A185" s="86"/>
       <c r="B185" s="2" t="s">
         <v>14</v>
       </c>
@@ -17221,7 +19693,7 @@
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="92"/>
+      <c r="A186" s="86"/>
       <c r="B186" s="2" t="s">
         <v>15</v>
       </c>
@@ -17233,7 +19705,7 @@
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="92"/>
+      <c r="A187" s="86"/>
       <c r="B187" s="2" t="s">
         <v>16</v>
       </c>
@@ -17245,7 +19717,7 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="92"/>
+      <c r="A188" s="86"/>
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -17257,7 +19729,7 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="92"/>
+      <c r="A189" s="86"/>
       <c r="B189" s="2" t="s">
         <v>17</v>
       </c>
@@ -17269,7 +19741,7 @@
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="92"/>
+      <c r="A190" s="86"/>
       <c r="B190" s="2" t="s">
         <v>18</v>
       </c>
@@ -17281,7 +19753,7 @@
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="92"/>
+      <c r="A191" s="86"/>
       <c r="B191" s="2" t="s">
         <v>19</v>
       </c>
@@ -17293,7 +19765,7 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="92"/>
+      <c r="A192" s="86"/>
       <c r="B192" s="2" t="s">
         <v>20</v>
       </c>
@@ -17305,7 +19777,7 @@
       <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="92"/>
+      <c r="A193" s="86"/>
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
@@ -17317,7 +19789,7 @@
       <c r="H193" s="4"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="92"/>
+      <c r="A194" s="86"/>
       <c r="B194" s="2" t="s">
         <v>22</v>
       </c>
@@ -17329,7 +19801,7 @@
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="92"/>
+      <c r="A195" s="86"/>
       <c r="B195" s="2" t="s">
         <v>23</v>
       </c>
@@ -17341,7 +19813,7 @@
       <c r="H195" s="4"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="92"/>
+      <c r="A196" s="86"/>
       <c r="B196" s="2" t="s">
         <v>24</v>
       </c>
@@ -17353,7 +19825,7 @@
       <c r="H196" s="4"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="92"/>
+      <c r="A197" s="86"/>
       <c r="B197" s="2" t="s">
         <v>25</v>
       </c>
@@ -17365,7 +19837,7 @@
       <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="93"/>
+      <c r="A198" s="87"/>
       <c r="B198" s="5" t="s">
         <v>50</v>
       </c>
@@ -17377,7 +19849,7 @@
       <c r="H198" s="4"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="91" t="s">
+      <c r="A199" s="85" t="s">
         <v>52</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -17391,7 +19863,7 @@
       <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="92"/>
+      <c r="A200" s="86"/>
       <c r="B200" s="2" t="s">
         <v>14</v>
       </c>
@@ -17403,7 +19875,7 @@
       <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="92"/>
+      <c r="A201" s="86"/>
       <c r="B201" s="2" t="s">
         <v>15</v>
       </c>
@@ -17415,7 +19887,7 @@
       <c r="H201" s="4"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="92"/>
+      <c r="A202" s="86"/>
       <c r="B202" s="2" t="s">
         <v>16</v>
       </c>
@@ -17427,7 +19899,7 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="92"/>
+      <c r="A203" s="86"/>
       <c r="B203" s="2" t="s">
         <v>2</v>
       </c>
@@ -17439,7 +19911,7 @@
       <c r="H203" s="4"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="92"/>
+      <c r="A204" s="86"/>
       <c r="B204" s="2" t="s">
         <v>17</v>
       </c>
@@ -17451,7 +19923,7 @@
       <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="92"/>
+      <c r="A205" s="86"/>
       <c r="B205" s="2" t="s">
         <v>18</v>
       </c>
@@ -17463,7 +19935,7 @@
       <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="92"/>
+      <c r="A206" s="86"/>
       <c r="B206" s="2" t="s">
         <v>19</v>
       </c>
@@ -17475,7 +19947,7 @@
       <c r="H206" s="4"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="92"/>
+      <c r="A207" s="86"/>
       <c r="B207" s="2" t="s">
         <v>20</v>
       </c>
@@ -17487,7 +19959,7 @@
       <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="92"/>
+      <c r="A208" s="86"/>
       <c r="B208" s="2" t="s">
         <v>21</v>
       </c>
@@ -17499,7 +19971,7 @@
       <c r="H208" s="4"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="92"/>
+      <c r="A209" s="86"/>
       <c r="B209" s="2" t="s">
         <v>22</v>
       </c>
@@ -17511,7 +19983,7 @@
       <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="92"/>
+      <c r="A210" s="86"/>
       <c r="B210" s="2" t="s">
         <v>23</v>
       </c>
@@ -17523,7 +19995,7 @@
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="92"/>
+      <c r="A211" s="86"/>
       <c r="B211" s="2" t="s">
         <v>24</v>
       </c>
@@ -17535,7 +20007,7 @@
       <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="92"/>
+      <c r="A212" s="86"/>
       <c r="B212" s="2" t="s">
         <v>25</v>
       </c>
@@ -17547,7 +20019,7 @@
       <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="93"/>
+      <c r="A213" s="87"/>
       <c r="B213" s="5" t="s">
         <v>50</v>
       </c>
@@ -17560,11 +20032,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -17574,6 +20041,11 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/对比/性能对比.xlsx
+++ b/对比/性能对比.xlsx
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="11" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="12" r:id="rId4"/>
-    <sheet name="Sheet7" sheetId="13" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="12" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="266">
   <si>
     <t>算法</t>
   </si>
@@ -873,6 +874,223 @@
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>au</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xorau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auxor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xorauxor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xorxorau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xorxorauxor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xorsh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shxor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xorshxor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xorxor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xorxorxor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xorbn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bnxor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xorbnxor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xorlut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lutxor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xorlutxor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gfm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xorgfm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gfmxor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xorgfmxor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>PE3</t>
+  </si>
+  <si>
+    <t>PE4</t>
+  </si>
+  <si>
+    <t>PE5</t>
+  </si>
+  <si>
+    <t>PE6</t>
+  </si>
+  <si>
+    <t>PE7</t>
+  </si>
+  <si>
+    <t>PE8</t>
+  </si>
+  <si>
+    <t>PE9</t>
+  </si>
+  <si>
+    <t>PE10</t>
+  </si>
+  <si>
+    <t>PE11</t>
+  </si>
+  <si>
+    <t>PE12</t>
+  </si>
+  <si>
+    <t>PE功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲置单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低利用率单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术、移位、逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术、逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术、移位、逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术、置换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -886,7 +1104,7 @@
     <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="181" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,6 +1199,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1302,7 +1527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1498,14 +1723,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1515,6 +1737,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1539,6 +1770,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1588,21 +1828,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -2644,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2995,46 +3223,46 @@
     </row>
     <row r="39" spans="1:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="85" t="s">
+      <c r="A40" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="91" t="s">
+      <c r="B40" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="93" t="s">
+      <c r="D40" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="95"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="97"/>
       <c r="K40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L40" s="96" t="s">
+      <c r="L40" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="97"/>
-      <c r="N40" s="98"/>
-      <c r="O40" s="96" t="s">
+      <c r="M40" s="99"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="P40" s="97"/>
-      <c r="Q40" s="98"/>
-      <c r="R40" s="88" t="s">
+      <c r="P40" s="99"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="S40" s="89"/>
-      <c r="T40" s="90"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="89"/>
     </row>
     <row r="41" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="87"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
       <c r="D41" s="20" t="s">
         <v>7</v>
       </c>
@@ -3056,24 +3284,24 @@
       <c r="K41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L41" s="88">
+      <c r="L41" s="87">
         <v>65</v>
       </c>
-      <c r="M41" s="89"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="88">
+      <c r="M41" s="88"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="87">
         <v>65</v>
       </c>
-      <c r="P41" s="89"/>
-      <c r="Q41" s="90"/>
-      <c r="R41" s="88">
+      <c r="P41" s="88"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="87">
         <v>45</v>
       </c>
-      <c r="S41" s="89"/>
-      <c r="T41" s="90"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="89"/>
     </row>
     <row r="42" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="115" t="s">
+      <c r="A42" s="101" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3103,26 +3331,26 @@
       <c r="K42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L42" s="88">
+      <c r="L42" s="87">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="89"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="88">
+      <c r="M42" s="88"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="87">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="89"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="88">
+      <c r="P42" s="88"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="87">
         <v>1</v>
       </c>
-      <c r="S42" s="89"/>
-      <c r="T42" s="90"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="89"/>
     </row>
     <row r="43" spans="1:30" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="116"/>
+      <c r="A43" s="102"/>
       <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
@@ -3192,7 +3420,7 @@
       </c>
     </row>
     <row r="44" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="116"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="2" t="s">
         <v>22</v>
       </c>
@@ -3291,7 +3519,7 @@
       </c>
     </row>
     <row r="45" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="116"/>
+      <c r="A45" s="102"/>
       <c r="B45" s="2" t="s">
         <v>21</v>
       </c>
@@ -3390,7 +3618,7 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="116"/>
+      <c r="A46" s="102"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -3489,7 +3717,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="116"/>
+      <c r="A47" s="102"/>
       <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
@@ -3588,7 +3816,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="116"/>
+      <c r="A48" s="102"/>
       <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
@@ -3687,7 +3915,7 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="116"/>
+      <c r="A49" s="102"/>
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
@@ -3786,7 +4014,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="116"/>
+      <c r="A50" s="102"/>
       <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
@@ -3873,7 +4101,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="116"/>
+      <c r="A51" s="102"/>
       <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
@@ -3960,7 +4188,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="116"/>
+      <c r="A52" s="102"/>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
@@ -4014,7 +4242,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="116"/>
+      <c r="A53" s="102"/>
       <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
@@ -4041,7 +4269,7 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="116"/>
+      <c r="A54" s="102"/>
       <c r="B54" s="2" t="s">
         <v>18</v>
       </c>
@@ -4068,7 +4296,7 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="116"/>
+      <c r="A55" s="102"/>
       <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
@@ -4095,7 +4323,7 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="116"/>
+      <c r="A56" s="102"/>
       <c r="B56" s="5" t="s">
         <v>188</v>
       </c>
@@ -4122,7 +4350,7 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="116"/>
+      <c r="A57" s="102"/>
       <c r="B57" s="5" t="s">
         <v>189</v>
       </c>
@@ -4147,7 +4375,7 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="116"/>
+      <c r="A58" s="102"/>
       <c r="B58" s="5" t="s">
         <v>3</v>
       </c>
@@ -4172,7 +4400,7 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="116"/>
+      <c r="A59" s="102"/>
       <c r="B59" s="5" t="s">
         <v>28</v>
       </c>
@@ -4197,7 +4425,7 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="116"/>
+      <c r="A60" s="102"/>
       <c r="B60" s="5" t="s">
         <v>193</v>
       </c>
@@ -4222,7 +4450,7 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="116"/>
+      <c r="A61" s="102"/>
       <c r="B61" s="5" t="s">
         <v>30</v>
       </c>
@@ -4247,7 +4475,7 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="116"/>
+      <c r="A62" s="102"/>
       <c r="B62" s="5" t="s">
         <v>31</v>
       </c>
@@ -4272,7 +4500,7 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="116"/>
+      <c r="A63" s="102"/>
       <c r="B63" s="5" t="s">
         <v>194</v>
       </c>
@@ -4297,7 +4525,7 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="116"/>
+      <c r="A64" s="102"/>
       <c r="B64" s="5" t="s">
         <v>195</v>
       </c>
@@ -4322,7 +4550,7 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="116"/>
+      <c r="A65" s="102"/>
       <c r="B65" s="5" t="s">
         <v>34</v>
       </c>
@@ -4347,7 +4575,7 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="116"/>
+      <c r="A66" s="102"/>
       <c r="B66" s="5" t="s">
         <v>35</v>
       </c>
@@ -4372,7 +4600,7 @@
       <c r="T66" s="1"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="116"/>
+      <c r="A67" s="102"/>
       <c r="B67" s="5" t="s">
         <v>36</v>
       </c>
@@ -4397,7 +4625,7 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="116"/>
+      <c r="A68" s="102"/>
       <c r="B68" s="5" t="s">
         <v>37</v>
       </c>
@@ -4422,7 +4650,7 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="116"/>
+      <c r="A69" s="102"/>
       <c r="B69" s="5" t="s">
         <v>38</v>
       </c>
@@ -4447,7 +4675,7 @@
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="116"/>
+      <c r="A70" s="102"/>
       <c r="B70" s="5" t="s">
         <v>196</v>
       </c>
@@ -4470,7 +4698,7 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="116"/>
+      <c r="A71" s="102"/>
       <c r="B71" s="5" t="s">
         <v>40</v>
       </c>
@@ -4495,7 +4723,7 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="116"/>
+      <c r="A72" s="102"/>
       <c r="B72" s="5" t="s">
         <v>197</v>
       </c>
@@ -4520,7 +4748,7 @@
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="116"/>
+      <c r="A73" s="102"/>
       <c r="B73" s="5" t="s">
         <v>42</v>
       </c>
@@ -4543,7 +4771,7 @@
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="116"/>
+      <c r="A74" s="102"/>
       <c r="B74" s="5" t="s">
         <v>43</v>
       </c>
@@ -4568,7 +4796,7 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="116"/>
+      <c r="A75" s="102"/>
       <c r="B75" s="5" t="s">
         <v>44</v>
       </c>
@@ -4593,7 +4821,7 @@
       <c r="T75" s="1"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="116"/>
+      <c r="A76" s="102"/>
       <c r="B76" s="5" t="s">
         <v>198</v>
       </c>
@@ -4618,7 +4846,7 @@
       <c r="T76" s="1"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="116"/>
+      <c r="A77" s="102"/>
       <c r="B77" s="5" t="s">
         <v>199</v>
       </c>
@@ -4643,7 +4871,7 @@
       <c r="T77" s="1"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="116"/>
+      <c r="A78" s="102"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="4"/>
@@ -4664,7 +4892,7 @@
       <c r="T78" s="1"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="115" t="s">
+      <c r="A79" s="101" t="s">
         <v>73</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -4705,7 +4933,7 @@
       <c r="T79" s="1"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="116"/>
+      <c r="A80" s="102"/>
       <c r="B80" s="2" t="s">
         <v>14</v>
       </c>
@@ -4744,7 +4972,7 @@
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="116"/>
+      <c r="A81" s="102"/>
       <c r="B81" s="2" t="s">
         <v>22</v>
       </c>
@@ -4783,7 +5011,7 @@
       <c r="T81" s="1"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="116"/>
+      <c r="A82" s="102"/>
       <c r="B82" s="2" t="s">
         <v>21</v>
       </c>
@@ -4822,7 +5050,7 @@
       <c r="T82" s="1"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="116"/>
+      <c r="A83" s="102"/>
       <c r="B83" s="2" t="s">
         <v>19</v>
       </c>
@@ -4861,7 +5089,7 @@
       <c r="T83" s="1"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="116"/>
+      <c r="A84" s="102"/>
       <c r="B84" s="2" t="s">
         <v>17</v>
       </c>
@@ -4900,7 +5128,7 @@
       <c r="T84" s="1"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="116"/>
+      <c r="A85" s="102"/>
       <c r="B85" s="2" t="s">
         <v>24</v>
       </c>
@@ -4939,7 +5167,7 @@
       <c r="T85" s="1"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="116"/>
+      <c r="A86" s="102"/>
       <c r="B86" s="2" t="s">
         <v>16</v>
       </c>
@@ -4967,7 +5195,7 @@
       <c r="K86" s="12"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="116"/>
+      <c r="A87" s="102"/>
       <c r="B87" s="2" t="s">
         <v>20</v>
       </c>
@@ -4983,7 +5211,7 @@
       <c r="K87" s="12"/>
     </row>
     <row r="88" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="116"/>
+      <c r="A88" s="102"/>
       <c r="B88" s="2" t="s">
         <v>23</v>
       </c>
@@ -4999,24 +5227,24 @@
       <c r="K88" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L88" s="88" t="s">
+      <c r="L88" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="M88" s="89"/>
-      <c r="N88" s="90"/>
-      <c r="O88" s="88" t="s">
+      <c r="M88" s="88"/>
+      <c r="N88" s="89"/>
+      <c r="O88" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="P88" s="89"/>
-      <c r="Q88" s="90"/>
-      <c r="R88" s="88" t="s">
+      <c r="P88" s="88"/>
+      <c r="Q88" s="89"/>
+      <c r="R88" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="S88" s="89"/>
-      <c r="T88" s="90"/>
+      <c r="S88" s="88"/>
+      <c r="T88" s="89"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="116"/>
+      <c r="A89" s="102"/>
       <c r="B89" s="2" t="s">
         <v>15</v>
       </c>
@@ -5032,18 +5260,18 @@
       <c r="K89" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L89" s="88"/>
-      <c r="M89" s="89"/>
-      <c r="N89" s="90"/>
-      <c r="O89" s="88"/>
-      <c r="P89" s="89"/>
-      <c r="Q89" s="90"/>
-      <c r="R89" s="88"/>
-      <c r="S89" s="89"/>
-      <c r="T89" s="90"/>
+      <c r="L89" s="87"/>
+      <c r="M89" s="88"/>
+      <c r="N89" s="89"/>
+      <c r="O89" s="87"/>
+      <c r="P89" s="88"/>
+      <c r="Q89" s="89"/>
+      <c r="R89" s="87"/>
+      <c r="S89" s="88"/>
+      <c r="T89" s="89"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="116"/>
+      <c r="A90" s="102"/>
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
@@ -5059,18 +5287,18 @@
       <c r="K90" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L90" s="88"/>
-      <c r="M90" s="89"/>
-      <c r="N90" s="90"/>
-      <c r="O90" s="88"/>
-      <c r="P90" s="89"/>
-      <c r="Q90" s="90"/>
-      <c r="R90" s="88"/>
-      <c r="S90" s="89"/>
-      <c r="T90" s="90"/>
+      <c r="L90" s="87"/>
+      <c r="M90" s="88"/>
+      <c r="N90" s="89"/>
+      <c r="O90" s="87"/>
+      <c r="P90" s="88"/>
+      <c r="Q90" s="89"/>
+      <c r="R90" s="87"/>
+      <c r="S90" s="88"/>
+      <c r="T90" s="89"/>
     </row>
     <row r="91" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="116"/>
+      <c r="A91" s="102"/>
       <c r="B91" s="2" t="s">
         <v>18</v>
       </c>
@@ -5113,7 +5341,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="116"/>
+      <c r="A92" s="102"/>
       <c r="B92" s="2" t="s">
         <v>25</v>
       </c>
@@ -5140,7 +5368,7 @@
       <c r="T92" s="1"/>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="116"/>
+      <c r="A93" s="102"/>
       <c r="B93" s="5" t="s">
         <v>187</v>
       </c>
@@ -5167,9 +5395,9 @@
       <c r="T93" s="1"/>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="116"/>
+      <c r="A94" s="102"/>
       <c r="B94" s="5" t="str">
-        <f>B57</f>
+        <f t="shared" ref="B94:B115" si="12">B57</f>
         <v>SKIPJECT</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -5193,9 +5421,9 @@
       <c r="T94" s="1"/>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="116"/>
+      <c r="A95" s="102"/>
       <c r="B95" s="5" t="str">
-        <f>B58</f>
+        <f t="shared" si="12"/>
         <v>SPECK</v>
       </c>
       <c r="C95" s="5">
@@ -5219,9 +5447,9 @@
       <c r="T95" s="1"/>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="116"/>
+      <c r="A96" s="102"/>
       <c r="B96" s="5" t="str">
-        <f>B59</f>
+        <f t="shared" si="12"/>
         <v>SIMON</v>
       </c>
       <c r="C96" s="5">
@@ -5245,9 +5473,9 @@
       <c r="T96" s="1"/>
     </row>
     <row r="97" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="116"/>
+      <c r="A97" s="102"/>
       <c r="B97" s="5" t="str">
-        <f>B60</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">LUCIFER </v>
       </c>
       <c r="C97" s="5">
@@ -5271,9 +5499,9 @@
       <c r="T97" s="1"/>
     </row>
     <row r="98" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="116"/>
+      <c r="A98" s="102"/>
       <c r="B98" s="5" t="str">
-        <f>B61</f>
+        <f t="shared" si="12"/>
         <v>CLEFIA</v>
       </c>
       <c r="C98" s="5">
@@ -5297,9 +5525,9 @@
       <c r="T98" s="1"/>
     </row>
     <row r="99" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="116"/>
+      <c r="A99" s="102"/>
       <c r="B99" s="5" t="str">
-        <f>B62</f>
+        <f t="shared" si="12"/>
         <v>ARIA</v>
       </c>
       <c r="C99" s="5">
@@ -5323,9 +5551,9 @@
       <c r="T99" s="1"/>
     </row>
     <row r="100" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="116"/>
+      <c r="A100" s="102"/>
       <c r="B100" s="5" t="str">
-        <f>B63</f>
+        <f t="shared" si="12"/>
         <v>CRYPTOMERIA/C2</v>
       </c>
       <c r="C100" s="5">
@@ -5349,9 +5577,9 @@
       <c r="T100" s="1"/>
     </row>
     <row r="101" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="116"/>
+      <c r="A101" s="102"/>
       <c r="B101" s="5" t="str">
-        <f>B64</f>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">PRESENT </v>
       </c>
       <c r="C101" s="5">
@@ -5375,9 +5603,9 @@
       <c r="T101" s="1"/>
     </row>
     <row r="102" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="116"/>
+      <c r="A102" s="102"/>
       <c r="B102" s="5" t="str">
-        <f>B65</f>
+        <f t="shared" si="12"/>
         <v>MACGUFFIN</v>
       </c>
       <c r="C102" s="5">
@@ -5401,9 +5629,9 @@
       <c r="T102" s="1"/>
     </row>
     <row r="103" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="116"/>
+      <c r="A103" s="102"/>
       <c r="B103" s="5" t="str">
-        <f>B66</f>
+        <f t="shared" si="12"/>
         <v>SQUARE</v>
       </c>
       <c r="C103" s="5">
@@ -5427,9 +5655,9 @@
       <c r="T103" s="1"/>
     </row>
     <row r="104" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="116"/>
+      <c r="A104" s="102"/>
       <c r="B104" s="5" t="str">
-        <f>B67</f>
+        <f t="shared" si="12"/>
         <v>M6</v>
       </c>
       <c r="C104" s="5">
@@ -5453,9 +5681,9 @@
       <c r="T104" s="1"/>
     </row>
     <row r="105" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="116"/>
+      <c r="A105" s="102"/>
       <c r="B105" s="5" t="str">
-        <f>B68</f>
+        <f t="shared" si="12"/>
         <v>ICE</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -5479,9 +5707,9 @@
       <c r="T105" s="1"/>
     </row>
     <row r="106" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="116"/>
+      <c r="A106" s="102"/>
       <c r="B106" s="5" t="str">
-        <f>B69</f>
+        <f t="shared" si="12"/>
         <v>SHARK</v>
       </c>
       <c r="C106" s="5">
@@ -5505,9 +5733,9 @@
       <c r="T106" s="1"/>
     </row>
     <row r="107" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="116"/>
+      <c r="A107" s="102"/>
       <c r="B107" s="5" t="str">
-        <f>B70</f>
+        <f t="shared" si="12"/>
         <v>CS-CIPHER</v>
       </c>
       <c r="C107" s="5"/>
@@ -5529,9 +5757,9 @@
       <c r="T107" s="1"/>
     </row>
     <row r="108" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="116"/>
+      <c r="A108" s="102"/>
       <c r="B108" s="5" t="str">
-        <f>B71</f>
+        <f t="shared" si="12"/>
         <v>NUSH</v>
       </c>
       <c r="C108" s="5">
@@ -5555,9 +5783,9 @@
       <c r="T108" s="1"/>
     </row>
     <row r="109" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="116"/>
+      <c r="A109" s="102"/>
       <c r="B109" s="5" t="str">
-        <f>B72</f>
+        <f t="shared" si="12"/>
         <v>GRAND CRU</v>
       </c>
       <c r="C109" s="5">
@@ -5581,9 +5809,9 @@
       <c r="T109" s="1"/>
     </row>
     <row r="110" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="116"/>
+      <c r="A110" s="102"/>
       <c r="B110" s="5" t="str">
-        <f>B73</f>
+        <f t="shared" si="12"/>
         <v>Q</v>
       </c>
       <c r="C110" s="5"/>
@@ -5605,9 +5833,9 @@
       <c r="T110" s="1"/>
     </row>
     <row r="111" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="116"/>
+      <c r="A111" s="102"/>
       <c r="B111" s="5" t="str">
-        <f>B74</f>
+        <f t="shared" si="12"/>
         <v>E2</v>
       </c>
       <c r="C111" s="5">
@@ -5631,9 +5859,9 @@
       <c r="T111" s="1"/>
     </row>
     <row r="112" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="116"/>
+      <c r="A112" s="102"/>
       <c r="B112" s="5" t="str">
-        <f>B75</f>
+        <f t="shared" si="12"/>
         <v>KHAZAD</v>
       </c>
       <c r="C112" s="5">
@@ -5657,9 +5885,9 @@
       <c r="T112" s="1"/>
     </row>
     <row r="113" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="116"/>
+      <c r="A113" s="102"/>
       <c r="B113" s="5" t="str">
-        <f>B76</f>
+        <f t="shared" si="12"/>
         <v>HIEROCRYPT-L1</v>
       </c>
       <c r="C113" s="5">
@@ -5683,9 +5911,9 @@
       <c r="T113" s="1"/>
     </row>
     <row r="114" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="116"/>
+      <c r="A114" s="102"/>
       <c r="B114" s="5" t="str">
-        <f>B77</f>
+        <f t="shared" si="12"/>
         <v>HIEROCRYPT-3</v>
       </c>
       <c r="C114" s="5">
@@ -5709,9 +5937,9 @@
       <c r="T114" s="1"/>
     </row>
     <row r="115" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="116"/>
+      <c r="A115" s="102"/>
       <c r="B115" s="5">
-        <f>B78</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="C115" s="5"/>
@@ -5733,7 +5961,7 @@
       <c r="T115" s="1"/>
     </row>
     <row r="116" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="117" t="s">
+      <c r="A116" s="85" t="s">
         <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -5774,7 +6002,7 @@
       <c r="T116" s="1"/>
     </row>
     <row r="117" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="118"/>
+      <c r="A117" s="86"/>
       <c r="B117" s="2" t="s">
         <v>14</v>
       </c>
@@ -5813,7 +6041,7 @@
       <c r="T117" s="1"/>
     </row>
     <row r="118" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="118"/>
+      <c r="A118" s="86"/>
       <c r="B118" s="2" t="s">
         <v>22</v>
       </c>
@@ -5852,7 +6080,7 @@
       <c r="T118" s="1"/>
     </row>
     <row r="119" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="118"/>
+      <c r="A119" s="86"/>
       <c r="B119" s="2" t="s">
         <v>21</v>
       </c>
@@ -5891,7 +6119,7 @@
       <c r="T119" s="1"/>
     </row>
     <row r="120" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="118"/>
+      <c r="A120" s="86"/>
       <c r="B120" s="2" t="s">
         <v>19</v>
       </c>
@@ -5930,7 +6158,7 @@
       <c r="T120" s="1"/>
     </row>
     <row r="121" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="118"/>
+      <c r="A121" s="86"/>
       <c r="B121" s="2" t="s">
         <v>17</v>
       </c>
@@ -5969,7 +6197,7 @@
       <c r="T121" s="1"/>
     </row>
     <row r="122" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="118"/>
+      <c r="A122" s="86"/>
       <c r="B122" s="2" t="s">
         <v>24</v>
       </c>
@@ -6008,7 +6236,7 @@
       <c r="T122" s="1"/>
     </row>
     <row r="123" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="118"/>
+      <c r="A123" s="86"/>
       <c r="B123" s="2" t="s">
         <v>16</v>
       </c>
@@ -6047,7 +6275,7 @@
       <c r="T123" s="1"/>
     </row>
     <row r="124" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="118"/>
+      <c r="A124" s="86"/>
       <c r="B124" s="2" t="s">
         <v>20</v>
       </c>
@@ -6074,7 +6302,7 @@
       <c r="T124" s="1"/>
     </row>
     <row r="125" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="118"/>
+      <c r="A125" s="86"/>
       <c r="B125" s="2" t="s">
         <v>23</v>
       </c>
@@ -6101,7 +6329,7 @@
       <c r="T125" s="1"/>
     </row>
     <row r="126" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="118"/>
+      <c r="A126" s="86"/>
       <c r="B126" s="2" t="s">
         <v>15</v>
       </c>
@@ -6128,7 +6356,7 @@
       <c r="T126" s="1"/>
     </row>
     <row r="127" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="118"/>
+      <c r="A127" s="86"/>
       <c r="B127" s="2" t="s">
         <v>2</v>
       </c>
@@ -6155,7 +6383,7 @@
       <c r="T127" s="1"/>
     </row>
     <row r="128" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="118"/>
+      <c r="A128" s="86"/>
       <c r="B128" s="2" t="s">
         <v>18</v>
       </c>
@@ -6182,7 +6410,7 @@
       <c r="T128" s="1"/>
     </row>
     <row r="129" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="118"/>
+      <c r="A129" s="86"/>
       <c r="B129" s="2" t="s">
         <v>25</v>
       </c>
@@ -6209,9 +6437,9 @@
       <c r="T129" s="1"/>
     </row>
     <row r="130" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="118"/>
+      <c r="A130" s="86"/>
       <c r="B130" s="5" t="str">
-        <f>B93</f>
+        <f t="shared" ref="B130:B152" si="13">B93</f>
         <v>XTEA</v>
       </c>
       <c r="C130" s="5">
@@ -6237,9 +6465,9 @@
       <c r="T130" s="1"/>
     </row>
     <row r="131" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="118"/>
+      <c r="A131" s="86"/>
       <c r="B131" s="5" t="str">
-        <f>B94</f>
+        <f t="shared" si="13"/>
         <v>SKIPJECT</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -6263,9 +6491,9 @@
       <c r="T131" s="1"/>
     </row>
     <row r="132" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="118"/>
+      <c r="A132" s="86"/>
       <c r="B132" s="5" t="str">
-        <f>B95</f>
+        <f t="shared" si="13"/>
         <v>SPECK</v>
       </c>
       <c r="C132" s="5">
@@ -6289,9 +6517,9 @@
       <c r="T132" s="1"/>
     </row>
     <row r="133" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="118"/>
+      <c r="A133" s="86"/>
       <c r="B133" s="5" t="str">
-        <f>B96</f>
+        <f t="shared" si="13"/>
         <v>SIMON</v>
       </c>
       <c r="C133" s="5">
@@ -6315,9 +6543,9 @@
       <c r="T133" s="1"/>
     </row>
     <row r="134" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="118"/>
+      <c r="A134" s="86"/>
       <c r="B134" s="5" t="str">
-        <f>B97</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">LUCIFER </v>
       </c>
       <c r="C134" s="5">
@@ -6341,9 +6569,9 @@
       <c r="T134" s="1"/>
     </row>
     <row r="135" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="118"/>
+      <c r="A135" s="86"/>
       <c r="B135" s="5" t="str">
-        <f>B98</f>
+        <f t="shared" si="13"/>
         <v>CLEFIA</v>
       </c>
       <c r="C135" s="5">
@@ -6367,9 +6595,9 @@
       <c r="T135" s="1"/>
     </row>
     <row r="136" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="118"/>
+      <c r="A136" s="86"/>
       <c r="B136" s="5" t="str">
-        <f>B99</f>
+        <f t="shared" si="13"/>
         <v>ARIA</v>
       </c>
       <c r="C136" s="5">
@@ -6393,9 +6621,9 @@
       <c r="T136" s="1"/>
     </row>
     <row r="137" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="118"/>
+      <c r="A137" s="86"/>
       <c r="B137" s="5" t="str">
-        <f>B100</f>
+        <f t="shared" si="13"/>
         <v>CRYPTOMERIA/C2</v>
       </c>
       <c r="C137" s="5">
@@ -6419,9 +6647,9 @@
       <c r="T137" s="1"/>
     </row>
     <row r="138" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="118"/>
+      <c r="A138" s="86"/>
       <c r="B138" s="5" t="str">
-        <f>B101</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">PRESENT </v>
       </c>
       <c r="C138" s="5">
@@ -6445,9 +6673,9 @@
       <c r="T138" s="1"/>
     </row>
     <row r="139" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="118"/>
+      <c r="A139" s="86"/>
       <c r="B139" s="5" t="str">
-        <f>B102</f>
+        <f t="shared" si="13"/>
         <v>MACGUFFIN</v>
       </c>
       <c r="C139" s="5">
@@ -6471,9 +6699,9 @@
       <c r="T139" s="1"/>
     </row>
     <row r="140" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="118"/>
+      <c r="A140" s="86"/>
       <c r="B140" s="5" t="str">
-        <f>B103</f>
+        <f t="shared" si="13"/>
         <v>SQUARE</v>
       </c>
       <c r="C140" s="5">
@@ -6497,9 +6725,9 @@
       <c r="T140" s="1"/>
     </row>
     <row r="141" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="118"/>
+      <c r="A141" s="86"/>
       <c r="B141" s="5" t="str">
-        <f>B104</f>
+        <f t="shared" si="13"/>
         <v>M6</v>
       </c>
       <c r="C141" s="5">
@@ -6523,9 +6751,9 @@
       <c r="T141" s="1"/>
     </row>
     <row r="142" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="118"/>
+      <c r="A142" s="86"/>
       <c r="B142" s="5" t="str">
-        <f>B105</f>
+        <f t="shared" si="13"/>
         <v>ICE</v>
       </c>
       <c r="C142" s="5" t="s">
@@ -6549,9 +6777,9 @@
       <c r="T142" s="1"/>
     </row>
     <row r="143" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="118"/>
+      <c r="A143" s="86"/>
       <c r="B143" s="5" t="str">
-        <f>B106</f>
+        <f t="shared" si="13"/>
         <v>SHARK</v>
       </c>
       <c r="C143" s="5">
@@ -6575,9 +6803,9 @@
       <c r="T143" s="1"/>
     </row>
     <row r="144" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="118"/>
+      <c r="A144" s="86"/>
       <c r="B144" s="5" t="str">
-        <f>B107</f>
+        <f t="shared" si="13"/>
         <v>CS-CIPHER</v>
       </c>
       <c r="C144" s="5"/>
@@ -6599,9 +6827,9 @@
       <c r="T144" s="1"/>
     </row>
     <row r="145" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="118"/>
+      <c r="A145" s="86"/>
       <c r="B145" s="5" t="str">
-        <f>B108</f>
+        <f t="shared" si="13"/>
         <v>NUSH</v>
       </c>
       <c r="C145" s="5">
@@ -6625,9 +6853,9 @@
       <c r="T145" s="1"/>
     </row>
     <row r="146" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="118"/>
+      <c r="A146" s="86"/>
       <c r="B146" s="5" t="str">
-        <f>B109</f>
+        <f t="shared" si="13"/>
         <v>GRAND CRU</v>
       </c>
       <c r="C146" s="5">
@@ -6651,9 +6879,9 @@
       <c r="T146" s="1"/>
     </row>
     <row r="147" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="118"/>
+      <c r="A147" s="86"/>
       <c r="B147" s="5" t="str">
-        <f>B110</f>
+        <f t="shared" si="13"/>
         <v>Q</v>
       </c>
       <c r="C147" s="5"/>
@@ -6675,9 +6903,9 @@
       <c r="T147" s="1"/>
     </row>
     <row r="148" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="118"/>
+      <c r="A148" s="86"/>
       <c r="B148" s="5" t="str">
-        <f>B111</f>
+        <f t="shared" si="13"/>
         <v>E2</v>
       </c>
       <c r="C148" s="5">
@@ -6701,9 +6929,9 @@
       <c r="T148" s="1"/>
     </row>
     <row r="149" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="118"/>
+      <c r="A149" s="86"/>
       <c r="B149" s="5" t="str">
-        <f>B112</f>
+        <f t="shared" si="13"/>
         <v>KHAZAD</v>
       </c>
       <c r="C149" s="5">
@@ -6727,9 +6955,9 @@
       <c r="T149" s="1"/>
     </row>
     <row r="150" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="118"/>
+      <c r="A150" s="86"/>
       <c r="B150" s="5" t="str">
-        <f>B113</f>
+        <f t="shared" si="13"/>
         <v>HIEROCRYPT-L1</v>
       </c>
       <c r="C150" s="5">
@@ -6753,9 +6981,9 @@
       <c r="T150" s="1"/>
     </row>
     <row r="151" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="118"/>
+      <c r="A151" s="86"/>
       <c r="B151" s="5" t="str">
-        <f>B114</f>
+        <f t="shared" si="13"/>
         <v>HIEROCRYPT-3</v>
       </c>
       <c r="C151" s="5">
@@ -6779,9 +7007,9 @@
       <c r="T151" s="1"/>
     </row>
     <row r="152" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="118"/>
+      <c r="A152" s="86"/>
       <c r="B152" s="5">
-        <f>B115</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C152" s="5"/>
@@ -6803,7 +7031,7 @@
       <c r="T152" s="1"/>
     </row>
     <row r="153" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="117" t="s">
+      <c r="A153" s="85" t="s">
         <v>138</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -6850,7 +7078,7 @@
       <c r="T153" s="1"/>
     </row>
     <row r="154" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="118"/>
+      <c r="A154" s="86"/>
       <c r="B154" s="2" t="s">
         <v>14</v>
       </c>
@@ -6858,27 +7086,27 @@
         <v>3</v>
       </c>
       <c r="D154" s="1">
-        <f t="shared" ref="D154:D160" si="12">4*C154</f>
+        <f t="shared" ref="D154:D160" si="14">4*C154</f>
         <v>12</v>
       </c>
       <c r="E154" s="1">
-        <f t="shared" ref="E154:F154" si="13">D154</f>
+        <f t="shared" ref="E154:F154" si="15">D154</f>
         <v>12</v>
       </c>
       <c r="F154" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="G154" s="1">
-        <f t="shared" ref="G154:G161" si="14">F154*2</f>
+        <f t="shared" ref="G154:G161" si="16">F154*2</f>
         <v>24</v>
       </c>
       <c r="H154" s="1">
-        <f t="shared" ref="H154:H161" si="15">D154</f>
+        <f t="shared" ref="H154:H161" si="17">D154</f>
         <v>12</v>
       </c>
       <c r="I154" s="1">
-        <f t="shared" ref="I154:I161" si="16">E154</f>
+        <f t="shared" ref="I154:I161" si="18">E154</f>
         <v>12</v>
       </c>
       <c r="K154" s="11" t="s">
@@ -6895,7 +7123,7 @@
       <c r="T154" s="1"/>
     </row>
     <row r="155" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="118"/>
+      <c r="A155" s="86"/>
       <c r="B155" s="2" t="s">
         <v>22</v>
       </c>
@@ -6903,27 +7131,27 @@
         <v>12</v>
       </c>
       <c r="D155" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
       <c r="E155" s="1">
-        <f t="shared" ref="E155:F155" si="17">D155</f>
+        <f t="shared" ref="E155:F155" si="19">D155</f>
         <v>48</v>
       </c>
       <c r="F155" s="1">
+        <f t="shared" si="19"/>
+        <v>48</v>
+      </c>
+      <c r="G155" s="1">
+        <f t="shared" si="16"/>
+        <v>96</v>
+      </c>
+      <c r="H155" s="1">
         <f t="shared" si="17"/>
         <v>48</v>
       </c>
-      <c r="G155" s="1">
-        <f t="shared" si="14"/>
-        <v>96</v>
-      </c>
-      <c r="H155" s="1">
-        <f t="shared" si="15"/>
-        <v>48</v>
-      </c>
       <c r="I155" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>48</v>
       </c>
       <c r="K155" s="3" t="s">
@@ -6940,7 +7168,7 @@
       <c r="T155" s="1"/>
     </row>
     <row r="156" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="118"/>
+      <c r="A156" s="86"/>
       <c r="B156" s="2" t="s">
         <v>21</v>
       </c>
@@ -6948,176 +7176,176 @@
         <v>6</v>
       </c>
       <c r="D156" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="E156" s="1">
-        <f t="shared" ref="E156:F156" si="18">D156</f>
+        <f t="shared" ref="E156:F156" si="20">D156</f>
         <v>24</v>
       </c>
       <c r="F156" s="1">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="G156" s="1">
+        <f t="shared" si="16"/>
+        <v>48</v>
+      </c>
+      <c r="H156" s="1">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="I156" s="1">
         <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="G156" s="1">
+    </row>
+    <row r="157" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="86"/>
+      <c r="B157" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="2">
+        <v>4</v>
+      </c>
+      <c r="D157" s="1">
         <f t="shared" si="14"/>
-        <v>48</v>
-      </c>
-      <c r="H156" s="1">
-        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="E157" s="1">
+        <f t="shared" ref="E157:F157" si="21">D157</f>
+        <v>16</v>
+      </c>
+      <c r="F157" s="1">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="G157" s="1">
+        <f t="shared" si="16"/>
+        <v>32</v>
+      </c>
+      <c r="H157" s="1">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="I157" s="1">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="86"/>
+      <c r="B158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="2">
+        <v>5</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="E158" s="1">
+        <f t="shared" ref="E158:F158" si="22">D158</f>
+        <v>20</v>
+      </c>
+      <c r="F158" s="1">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="G158" s="1">
+        <f t="shared" si="16"/>
+        <v>40</v>
+      </c>
+      <c r="H158" s="1">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="I158" s="1">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="K158" s="18">
+        <f t="shared" ref="K158:K165" si="23">(N44-Q44)/Q44</f>
+        <v>1.0556457963803172</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="86"/>
+      <c r="B159" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I156" s="1">
+      <c r="C159" s="2">
+        <v>9</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="E159" s="1">
+        <f t="shared" ref="E159:F159" si="24">D159</f>
+        <v>36</v>
+      </c>
+      <c r="F159" s="1">
+        <f t="shared" si="24"/>
+        <v>36</v>
+      </c>
+      <c r="G159" s="1">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="H159" s="1">
+        <f t="shared" si="17"/>
+        <v>36</v>
+      </c>
+      <c r="I159" s="1">
+        <f t="shared" si="18"/>
+        <v>36</v>
+      </c>
+      <c r="K159" s="18">
+        <f t="shared" si="23"/>
+        <v>1.0556457963803172</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="86"/>
+      <c r="B160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" s="2">
+        <v>3</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="E160" s="1">
+        <f t="shared" ref="E160:F160" si="25">D160</f>
+        <v>12</v>
+      </c>
+      <c r="F160" s="1">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="G160" s="1">
         <f t="shared" si="16"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="118"/>
-      <c r="B157" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="2">
-        <v>4</v>
-      </c>
-      <c r="D157" s="1">
-        <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="E157" s="1">
-        <f t="shared" ref="E157:F157" si="19">D157</f>
-        <v>16</v>
-      </c>
-      <c r="F157" s="1">
-        <f t="shared" si="19"/>
-        <v>16</v>
-      </c>
-      <c r="G157" s="1">
-        <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="H157" s="1">
-        <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="I157" s="1">
-        <f t="shared" si="16"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="118"/>
-      <c r="B158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C158" s="2">
-        <v>5</v>
-      </c>
-      <c r="D158" s="1">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="E158" s="1">
-        <f t="shared" ref="E158:F158" si="20">D158</f>
-        <v>20</v>
-      </c>
-      <c r="F158" s="1">
-        <f t="shared" si="20"/>
-        <v>20</v>
-      </c>
-      <c r="G158" s="1">
-        <f t="shared" si="14"/>
-        <v>40</v>
-      </c>
-      <c r="H158" s="1">
-        <f t="shared" si="15"/>
-        <v>20</v>
-      </c>
-      <c r="I158" s="1">
-        <f t="shared" si="16"/>
-        <v>20</v>
-      </c>
-      <c r="K158" s="18">
-        <f>(N44-Q44)/Q44</f>
+      <c r="H160" s="1">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="I160" s="1">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="K160" s="18">
+        <f t="shared" si="23"/>
         <v>1.0556457963803172</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="118"/>
-      <c r="B159" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C159" s="2">
-        <v>9</v>
-      </c>
-      <c r="D159" s="1">
-        <f t="shared" si="12"/>
-        <v>36</v>
-      </c>
-      <c r="E159" s="1">
-        <f t="shared" ref="E159:F159" si="21">D159</f>
-        <v>36</v>
-      </c>
-      <c r="F159" s="1">
-        <f t="shared" si="21"/>
-        <v>36</v>
-      </c>
-      <c r="G159" s="1">
-        <f t="shared" si="14"/>
-        <v>72</v>
-      </c>
-      <c r="H159" s="1">
-        <f t="shared" si="15"/>
-        <v>36</v>
-      </c>
-      <c r="I159" s="1">
-        <f t="shared" si="16"/>
-        <v>36</v>
-      </c>
-      <c r="K159" s="18">
-        <f>(N45-Q45)/Q45</f>
-        <v>1.0556457963803172</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="118"/>
-      <c r="B160" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C160" s="2">
-        <v>3</v>
-      </c>
-      <c r="D160" s="1">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="E160" s="1">
-        <f t="shared" ref="E160:F160" si="22">D160</f>
-        <v>12</v>
-      </c>
-      <c r="F160" s="1">
-        <f t="shared" si="22"/>
-        <v>12</v>
-      </c>
-      <c r="G160" s="1">
-        <f t="shared" si="14"/>
-        <v>24</v>
-      </c>
-      <c r="H160" s="1">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="I160" s="1">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="K160" s="18">
-        <f>(N46-Q46)/Q46</f>
-        <v>1.0556457963803172</v>
-      </c>
-    </row>
     <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="118"/>
+      <c r="A161" s="86"/>
       <c r="B161" s="2" t="s">
         <v>20</v>
       </c>
@@ -7137,24 +7365,24 @@
         <v>44</v>
       </c>
       <c r="G161" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>88</v>
       </c>
       <c r="H161" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>44</v>
       </c>
       <c r="I161" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>44</v>
       </c>
       <c r="K161" s="18">
-        <f>(N47-Q47)/Q47</f>
+        <f t="shared" si="23"/>
         <v>0.54173434728523806</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="118"/>
+      <c r="A162" s="86"/>
       <c r="B162" s="2" t="s">
         <v>23</v>
       </c>
@@ -7168,12 +7396,12 @@
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="K162" s="18">
-        <f>(N48-Q48)/Q48</f>
+        <f t="shared" si="23"/>
         <v>0.54173434728523817</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="118"/>
+      <c r="A163" s="86"/>
       <c r="B163" s="2" t="s">
         <v>15</v>
       </c>
@@ -7187,12 +7415,12 @@
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="K163" s="18">
-        <f>(N49-Q49)/Q49</f>
+        <f t="shared" si="23"/>
         <v>0.28477862273769822</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="118"/>
+      <c r="A164" s="86"/>
       <c r="B164" s="2" t="s">
         <v>2</v>
       </c>
@@ -7206,12 +7434,12 @@
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="K164" s="18">
-        <f>(N50-Q50)/Q50</f>
+        <f t="shared" si="23"/>
         <v>0.37043053092021161</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="118"/>
+      <c r="A165" s="86"/>
       <c r="B165" s="2" t="s">
         <v>18</v>
       </c>
@@ -7225,12 +7453,12 @@
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="K165" s="18">
-        <f>(N51-Q51)/Q51</f>
+        <f t="shared" si="23"/>
         <v>1.0556457963803172</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="118"/>
+      <c r="A166" s="86"/>
       <c r="B166" s="2" t="s">
         <v>25</v>
       </c>
@@ -7245,9 +7473,9 @@
       <c r="I166" s="4"/>
     </row>
     <row r="167" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="118"/>
+      <c r="A167" s="86"/>
       <c r="B167" s="5" t="str">
-        <f>B130</f>
+        <f t="shared" ref="B167:B189" si="26">B130</f>
         <v>XTEA</v>
       </c>
       <c r="C167" s="5">
@@ -7265,9 +7493,9 @@
       </c>
     </row>
     <row r="168" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="118"/>
+      <c r="A168" s="86"/>
       <c r="B168" s="5" t="str">
-        <f>B131</f>
+        <f t="shared" si="26"/>
         <v>SKIPJECT</v>
       </c>
       <c r="C168" s="5" t="s">
@@ -7282,9 +7510,9 @@
       <c r="K168" s="19"/>
     </row>
     <row r="169" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="118"/>
+      <c r="A169" s="86"/>
       <c r="B169" s="5" t="str">
-        <f>B132</f>
+        <f t="shared" si="26"/>
         <v>SPECK</v>
       </c>
       <c r="C169" s="5">
@@ -7299,9 +7527,9 @@
       <c r="K169" s="19"/>
     </row>
     <row r="170" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="118"/>
+      <c r="A170" s="86"/>
       <c r="B170" s="5" t="str">
-        <f>B133</f>
+        <f t="shared" si="26"/>
         <v>SIMON</v>
       </c>
       <c r="C170" s="5">
@@ -7316,9 +7544,9 @@
       <c r="K170" s="19"/>
     </row>
     <row r="171" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="118"/>
+      <c r="A171" s="86"/>
       <c r="B171" s="5" t="str">
-        <f>B134</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">LUCIFER </v>
       </c>
       <c r="C171" s="5">
@@ -7333,9 +7561,9 @@
       <c r="K171" s="19"/>
     </row>
     <row r="172" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="118"/>
+      <c r="A172" s="86"/>
       <c r="B172" s="5" t="str">
-        <f>B135</f>
+        <f t="shared" si="26"/>
         <v>CLEFIA</v>
       </c>
       <c r="C172" s="5">
@@ -7350,9 +7578,9 @@
       <c r="K172" s="19"/>
     </row>
     <row r="173" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="118"/>
+      <c r="A173" s="86"/>
       <c r="B173" s="5" t="str">
-        <f>B136</f>
+        <f t="shared" si="26"/>
         <v>ARIA</v>
       </c>
       <c r="C173" s="5">
@@ -7367,9 +7595,9 @@
       <c r="K173" s="19"/>
     </row>
     <row r="174" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="118"/>
+      <c r="A174" s="86"/>
       <c r="B174" s="5" t="str">
-        <f>B137</f>
+        <f t="shared" si="26"/>
         <v>CRYPTOMERIA/C2</v>
       </c>
       <c r="C174" s="5">
@@ -7384,9 +7612,9 @@
       <c r="K174" s="19"/>
     </row>
     <row r="175" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="118"/>
+      <c r="A175" s="86"/>
       <c r="B175" s="5" t="str">
-        <f>B138</f>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">PRESENT </v>
       </c>
       <c r="C175" s="5">
@@ -7401,9 +7629,9 @@
       <c r="K175" s="19"/>
     </row>
     <row r="176" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="118"/>
+      <c r="A176" s="86"/>
       <c r="B176" s="5" t="str">
-        <f>B139</f>
+        <f t="shared" si="26"/>
         <v>MACGUFFIN</v>
       </c>
       <c r="C176" s="5">
@@ -7418,9 +7646,9 @@
       <c r="K176" s="19"/>
     </row>
     <row r="177" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="118"/>
+      <c r="A177" s="86"/>
       <c r="B177" s="5" t="str">
-        <f>B140</f>
+        <f t="shared" si="26"/>
         <v>SQUARE</v>
       </c>
       <c r="C177" s="5">
@@ -7435,9 +7663,9 @@
       <c r="K177" s="19"/>
     </row>
     <row r="178" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="118"/>
+      <c r="A178" s="86"/>
       <c r="B178" s="5" t="str">
-        <f>B141</f>
+        <f t="shared" si="26"/>
         <v>M6</v>
       </c>
       <c r="C178" s="5">
@@ -7452,9 +7680,9 @@
       <c r="K178" s="19"/>
     </row>
     <row r="179" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="118"/>
+      <c r="A179" s="86"/>
       <c r="B179" s="5" t="str">
-        <f>B142</f>
+        <f t="shared" si="26"/>
         <v>ICE</v>
       </c>
       <c r="C179" s="5" t="s">
@@ -7469,9 +7697,9 @@
       <c r="K179" s="19"/>
     </row>
     <row r="180" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="118"/>
+      <c r="A180" s="86"/>
       <c r="B180" s="5" t="str">
-        <f>B143</f>
+        <f t="shared" si="26"/>
         <v>SHARK</v>
       </c>
       <c r="C180" s="5">
@@ -7486,9 +7714,9 @@
       <c r="K180" s="19"/>
     </row>
     <row r="181" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="118"/>
+      <c r="A181" s="86"/>
       <c r="B181" s="5" t="str">
-        <f>B144</f>
+        <f t="shared" si="26"/>
         <v>CS-CIPHER</v>
       </c>
       <c r="C181" s="5"/>
@@ -7501,9 +7729,9 @@
       <c r="K181" s="19"/>
     </row>
     <row r="182" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="118"/>
+      <c r="A182" s="86"/>
       <c r="B182" s="5" t="str">
-        <f>B145</f>
+        <f t="shared" si="26"/>
         <v>NUSH</v>
       </c>
       <c r="C182" s="5">
@@ -7518,9 +7746,9 @@
       <c r="K182" s="19"/>
     </row>
     <row r="183" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="118"/>
+      <c r="A183" s="86"/>
       <c r="B183" s="5" t="str">
-        <f>B146</f>
+        <f t="shared" si="26"/>
         <v>GRAND CRU</v>
       </c>
       <c r="C183" s="5">
@@ -7535,9 +7763,9 @@
       <c r="K183" s="19"/>
     </row>
     <row r="184" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="118"/>
+      <c r="A184" s="86"/>
       <c r="B184" s="5" t="str">
-        <f>B147</f>
+        <f t="shared" si="26"/>
         <v>Q</v>
       </c>
       <c r="C184" s="5"/>
@@ -7550,9 +7778,9 @@
       <c r="K184" s="19"/>
     </row>
     <row r="185" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="118"/>
+      <c r="A185" s="86"/>
       <c r="B185" s="5" t="str">
-        <f>B148</f>
+        <f t="shared" si="26"/>
         <v>E2</v>
       </c>
       <c r="C185" s="5">
@@ -7567,9 +7795,9 @@
       <c r="K185" s="19"/>
     </row>
     <row r="186" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="118"/>
+      <c r="A186" s="86"/>
       <c r="B186" s="5" t="str">
-        <f>B149</f>
+        <f t="shared" si="26"/>
         <v>KHAZAD</v>
       </c>
       <c r="C186" s="5">
@@ -7584,9 +7812,9 @@
       <c r="K186" s="19"/>
     </row>
     <row r="187" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="118"/>
+      <c r="A187" s="86"/>
       <c r="B187" s="5" t="str">
-        <f>B150</f>
+        <f t="shared" si="26"/>
         <v>HIEROCRYPT-L1</v>
       </c>
       <c r="C187" s="5">
@@ -7601,9 +7829,9 @@
       <c r="K187" s="19"/>
     </row>
     <row r="188" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="118"/>
+      <c r="A188" s="86"/>
       <c r="B188" s="5" t="str">
-        <f>B151</f>
+        <f t="shared" si="26"/>
         <v>HIEROCRYPT-3</v>
       </c>
       <c r="C188" s="5">
@@ -7618,9 +7846,9 @@
       <c r="K188" s="19"/>
     </row>
     <row r="189" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="119"/>
+      <c r="A189" s="103"/>
       <c r="B189" s="5">
-        <f>B152</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="C189" s="5"/>
@@ -7633,7 +7861,7 @@
       <c r="K189" s="19"/>
     </row>
     <row r="190" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="117" t="s">
+      <c r="A190" s="85" t="s">
         <v>76</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -7650,7 +7878,7 @@
       <c r="I190" s="4"/>
     </row>
     <row r="191" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="118"/>
+      <c r="A191" s="86"/>
       <c r="B191" s="2" t="s">
         <v>14</v>
       </c>
@@ -7665,7 +7893,7 @@
       <c r="I191" s="4"/>
     </row>
     <row r="192" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="118"/>
+      <c r="A192" s="86"/>
       <c r="B192" s="2" t="s">
         <v>22</v>
       </c>
@@ -7692,7 +7920,7 @@
       </c>
     </row>
     <row r="193" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="118"/>
+      <c r="A193" s="86"/>
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
@@ -7713,12 +7941,12 @@
         <v>109908.05493055555</v>
       </c>
       <c r="N193" s="24">
-        <f t="shared" ref="N193:N199" si="23">M193/L193</f>
+        <f t="shared" ref="N193:N199" si="27">M193/L193</f>
         <v>0.17721112745844519</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="118"/>
+      <c r="A194" s="86"/>
       <c r="B194" s="2" t="s">
         <v>19</v>
       </c>
@@ -7741,12 +7969,12 @@
         <v>109908.05493055555</v>
       </c>
       <c r="N194" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.17721112745844519</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="118"/>
+      <c r="A195" s="86"/>
       <c r="B195" s="2" t="s">
         <v>17</v>
       </c>
@@ -7768,12 +7996,12 @@
         <v>56193.333333333336</v>
       </c>
       <c r="N195" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.0603768412971727E-2</v>
       </c>
     </row>
     <row r="196" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="118"/>
+      <c r="A196" s="86"/>
       <c r="B196" s="2" t="s">
         <v>24</v>
       </c>
@@ -7797,12 +8025,12 @@
         <v>37472.133333333339</v>
       </c>
       <c r="N196" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>9.0514595556894464E-2</v>
       </c>
     </row>
     <row r="197" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="118"/>
+      <c r="A197" s="86"/>
       <c r="B197" s="2" t="s">
         <v>16</v>
       </c>
@@ -7824,12 +8052,12 @@
         <v>-25618.054930555554</v>
       </c>
       <c r="N197" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-8.2610949677975221E-2</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="118"/>
+      <c r="A198" s="86"/>
       <c r="B198" s="2" t="s">
         <v>20</v>
       </c>
@@ -7853,12 +8081,12 @@
         <v>-9414.7215972222184</v>
       </c>
       <c r="N198" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-1.5179901327571334E-2</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="118"/>
+      <c r="A199" s="86"/>
       <c r="B199" s="2" t="s">
         <v>23</v>
       </c>
@@ -7881,12 +8109,12 @@
         <v>109908.05493055555</v>
       </c>
       <c r="N199" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0.17721112745844519</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="118"/>
+      <c r="A200" s="86"/>
       <c r="B200" s="2" t="s">
         <v>15</v>
       </c>
@@ -7905,7 +8133,7 @@
       </c>
     </row>
     <row r="201" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="118"/>
+      <c r="A201" s="86"/>
       <c r="B201" s="2" t="s">
         <v>2</v>
       </c>
@@ -7920,7 +8148,7 @@
       <c r="I201" s="4"/>
     </row>
     <row r="202" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="118"/>
+      <c r="A202" s="86"/>
       <c r="B202" s="2" t="s">
         <v>18</v>
       </c>
@@ -7935,7 +8163,7 @@
       <c r="I202" s="4"/>
     </row>
     <row r="203" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="118"/>
+      <c r="A203" s="86"/>
       <c r="B203" s="2" t="s">
         <v>25</v>
       </c>
@@ -7950,7 +8178,7 @@
       <c r="I203" s="4"/>
     </row>
     <row r="204" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="118"/>
+      <c r="A204" s="86"/>
       <c r="B204" s="5" t="str">
         <f>B167</f>
         <v>XTEA</v>
@@ -7966,7 +8194,7 @@
       <c r="I204" s="4"/>
     </row>
     <row r="205" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="118"/>
+      <c r="A205" s="86"/>
       <c r="B205" s="5" t="str">
         <f>B168</f>
         <v>SKIPJECT</v>
@@ -7982,9 +8210,9 @@
       <c r="I205" s="4"/>
     </row>
     <row r="206" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="118"/>
+      <c r="A206" s="86"/>
       <c r="B206" s="5" t="str">
-        <f t="shared" ref="B206:B226" si="24">B169</f>
+        <f t="shared" ref="B206:B226" si="28">B169</f>
         <v>SPECK</v>
       </c>
       <c r="C206" s="5">
@@ -7998,9 +8226,9 @@
       <c r="I206" s="4"/>
     </row>
     <row r="207" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="118"/>
+      <c r="A207" s="86"/>
       <c r="B207" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>SIMON</v>
       </c>
       <c r="C207" s="5">
@@ -8014,9 +8242,9 @@
       <c r="I207" s="4"/>
     </row>
     <row r="208" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="118"/>
+      <c r="A208" s="86"/>
       <c r="B208" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">LUCIFER </v>
       </c>
       <c r="C208" s="5" t="s">
@@ -8030,9 +8258,9 @@
       <c r="I208" s="4"/>
     </row>
     <row r="209" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="118"/>
+      <c r="A209" s="86"/>
       <c r="B209" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>CLEFIA</v>
       </c>
       <c r="C209" s="5">
@@ -8046,9 +8274,9 @@
       <c r="I209" s="4"/>
     </row>
     <row r="210" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="118"/>
+      <c r="A210" s="86"/>
       <c r="B210" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>ARIA</v>
       </c>
       <c r="C210" s="5">
@@ -8062,9 +8290,9 @@
       <c r="I210" s="4"/>
     </row>
     <row r="211" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="118"/>
+      <c r="A211" s="86"/>
       <c r="B211" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>CRYPTOMERIA/C2</v>
       </c>
       <c r="C211" s="5">
@@ -8078,9 +8306,9 @@
       <c r="I211" s="4"/>
     </row>
     <row r="212" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="118"/>
+      <c r="A212" s="86"/>
       <c r="B212" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">PRESENT </v>
       </c>
       <c r="C212" s="5" t="s">
@@ -8094,9 +8322,9 @@
       <c r="I212" s="4"/>
     </row>
     <row r="213" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="118"/>
+      <c r="A213" s="86"/>
       <c r="B213" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>MACGUFFIN</v>
       </c>
       <c r="C213" s="5">
@@ -8110,9 +8338,9 @@
       <c r="I213" s="4"/>
     </row>
     <row r="214" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="118"/>
+      <c r="A214" s="86"/>
       <c r="B214" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>SQUARE</v>
       </c>
       <c r="C214" s="5" t="s">
@@ -8126,9 +8354,9 @@
       <c r="I214" s="4"/>
     </row>
     <row r="215" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="118"/>
+      <c r="A215" s="86"/>
       <c r="B215" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>M6</v>
       </c>
       <c r="C215" s="5">
@@ -8142,9 +8370,9 @@
       <c r="I215" s="4"/>
     </row>
     <row r="216" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="118"/>
+      <c r="A216" s="86"/>
       <c r="B216" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>ICE</v>
       </c>
       <c r="C216" s="5" t="s">
@@ -8158,9 +8386,9 @@
       <c r="I216" s="4"/>
     </row>
     <row r="217" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="118"/>
+      <c r="A217" s="86"/>
       <c r="B217" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>SHARK</v>
       </c>
       <c r="C217" s="5">
@@ -8174,9 +8402,9 @@
       <c r="I217" s="4"/>
     </row>
     <row r="218" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="118"/>
+      <c r="A218" s="86"/>
       <c r="B218" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>CS-CIPHER</v>
       </c>
       <c r="C218" s="5" t="s">
@@ -8190,9 +8418,9 @@
       <c r="I218" s="4"/>
     </row>
     <row r="219" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="118"/>
+      <c r="A219" s="86"/>
       <c r="B219" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>NUSH</v>
       </c>
       <c r="C219" s="5">
@@ -8206,9 +8434,9 @@
       <c r="I219" s="4"/>
     </row>
     <row r="220" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="118"/>
+      <c r="A220" s="86"/>
       <c r="B220" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>GRAND CRU</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -8222,9 +8450,9 @@
       <c r="I220" s="4"/>
     </row>
     <row r="221" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="118"/>
+      <c r="A221" s="86"/>
       <c r="B221" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>Q</v>
       </c>
       <c r="C221" s="5" t="s">
@@ -8238,9 +8466,9 @@
       <c r="I221" s="4"/>
     </row>
     <row r="222" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="118"/>
+      <c r="A222" s="86"/>
       <c r="B222" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>E2</v>
       </c>
       <c r="C222" s="5"/>
@@ -8252,9 +8480,9 @@
       <c r="I222" s="4"/>
     </row>
     <row r="223" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="118"/>
+      <c r="A223" s="86"/>
       <c r="B223" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>KHAZAD</v>
       </c>
       <c r="C223" s="5">
@@ -8268,9 +8496,9 @@
       <c r="I223" s="4"/>
     </row>
     <row r="224" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="118"/>
+      <c r="A224" s="86"/>
       <c r="B224" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>HIEROCRYPT-L1</v>
       </c>
       <c r="C224" s="5">
@@ -8284,9 +8512,9 @@
       <c r="I224" s="4"/>
     </row>
     <row r="225" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="118"/>
+      <c r="A225" s="86"/>
       <c r="B225" s="5" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>HIEROCRYPT-3</v>
       </c>
       <c r="C225" s="5">
@@ -8300,9 +8528,9 @@
       <c r="I225" s="4"/>
     </row>
     <row r="226" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="118"/>
+      <c r="A226" s="86"/>
       <c r="B226" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="C226" s="5"/>
@@ -8314,7 +8542,7 @@
       <c r="I226" s="4"/>
     </row>
     <row r="227" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="85" t="s">
+      <c r="A227" s="90" t="s">
         <v>77</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -8329,7 +8557,7 @@
       <c r="I227" s="4"/>
     </row>
     <row r="228" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="86"/>
+      <c r="A228" s="91"/>
       <c r="B228" s="2" t="s">
         <v>14</v>
       </c>
@@ -8342,7 +8570,7 @@
       <c r="I228" s="4"/>
     </row>
     <row r="229" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="86"/>
+      <c r="A229" s="91"/>
       <c r="B229" s="2" t="s">
         <v>22</v>
       </c>
@@ -8355,7 +8583,7 @@
       <c r="I229" s="4"/>
     </row>
     <row r="230" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="86"/>
+      <c r="A230" s="91"/>
       <c r="B230" s="2" t="s">
         <v>21</v>
       </c>
@@ -8368,7 +8596,7 @@
       <c r="I230" s="4"/>
     </row>
     <row r="231" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="86"/>
+      <c r="A231" s="91"/>
       <c r="B231" s="2" t="s">
         <v>19</v>
       </c>
@@ -8381,7 +8609,7 @@
       <c r="I231" s="4"/>
     </row>
     <row r="232" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="86"/>
+      <c r="A232" s="91"/>
       <c r="B232" s="2" t="s">
         <v>17</v>
       </c>
@@ -8394,7 +8622,7 @@
       <c r="I232" s="4"/>
     </row>
     <row r="233" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="86"/>
+      <c r="A233" s="91"/>
       <c r="B233" s="2" t="s">
         <v>24</v>
       </c>
@@ -8407,7 +8635,7 @@
       <c r="I233" s="4"/>
     </row>
     <row r="234" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="86"/>
+      <c r="A234" s="91"/>
       <c r="B234" s="2" t="s">
         <v>16</v>
       </c>
@@ -8420,7 +8648,7 @@
       <c r="I234" s="4"/>
     </row>
     <row r="235" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="86"/>
+      <c r="A235" s="91"/>
       <c r="B235" s="2" t="s">
         <v>20</v>
       </c>
@@ -8433,7 +8661,7 @@
       <c r="I235" s="4"/>
     </row>
     <row r="236" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="86"/>
+      <c r="A236" s="91"/>
       <c r="B236" s="2" t="s">
         <v>23</v>
       </c>
@@ -8446,7 +8674,7 @@
       <c r="I236" s="4"/>
     </row>
     <row r="237" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="86"/>
+      <c r="A237" s="91"/>
       <c r="B237" s="2" t="s">
         <v>15</v>
       </c>
@@ -8459,7 +8687,7 @@
       <c r="I237" s="4"/>
     </row>
     <row r="238" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="86"/>
+      <c r="A238" s="91"/>
       <c r="B238" s="2" t="s">
         <v>2</v>
       </c>
@@ -8472,7 +8700,7 @@
       <c r="I238" s="4"/>
     </row>
     <row r="239" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="86"/>
+      <c r="A239" s="91"/>
       <c r="B239" s="2" t="s">
         <v>18</v>
       </c>
@@ -8485,7 +8713,7 @@
       <c r="I239" s="4"/>
     </row>
     <row r="240" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="86"/>
+      <c r="A240" s="91"/>
       <c r="B240" s="2" t="s">
         <v>25</v>
       </c>
@@ -8498,7 +8726,7 @@
       <c r="I240" s="4"/>
     </row>
     <row r="241" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="87"/>
+      <c r="A241" s="92"/>
       <c r="B241" s="5" t="str">
         <f>B204</f>
         <v>XTEA</v>
@@ -8513,6 +8741,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A227:A241"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="A42:A78"/>
+    <mergeCell ref="A79:A115"/>
+    <mergeCell ref="A116:A152"/>
+    <mergeCell ref="A153:A189"/>
     <mergeCell ref="A190:A226"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="L90:N90"/>
@@ -8528,19 +8769,6 @@
     <mergeCell ref="L89:N89"/>
     <mergeCell ref="O89:Q89"/>
     <mergeCell ref="R89:T89"/>
-    <mergeCell ref="A227:A241"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="A42:A78"/>
-    <mergeCell ref="A79:A115"/>
-    <mergeCell ref="A116:A152"/>
-    <mergeCell ref="A153:A189"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8550,9 +8778,1198 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" t="s">
+        <v>247</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="121">
+        <v>1</v>
+      </c>
+      <c r="E2" s="121">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="120">
+        <v>0</v>
+      </c>
+      <c r="I2" s="120">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="120">
+        <v>0</v>
+      </c>
+      <c r="L2" s="120">
+        <v>0</v>
+      </c>
+      <c r="M2" s="120">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="121">
+        <v>0</v>
+      </c>
+      <c r="E3" s="121">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="120">
+        <v>0</v>
+      </c>
+      <c r="I3" s="120">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="120">
+        <v>0</v>
+      </c>
+      <c r="L3" s="120">
+        <v>0</v>
+      </c>
+      <c r="M3" s="120">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="121">
+        <v>0</v>
+      </c>
+      <c r="E4" s="121">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="120">
+        <v>0</v>
+      </c>
+      <c r="I4" s="120">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4" s="120">
+        <v>0</v>
+      </c>
+      <c r="L4" s="120">
+        <v>0</v>
+      </c>
+      <c r="M4" s="120">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="121">
+        <v>0</v>
+      </c>
+      <c r="E5" s="121">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="120">
+        <v>0</v>
+      </c>
+      <c r="I5" s="120">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="120">
+        <v>0</v>
+      </c>
+      <c r="L5" s="120">
+        <v>0</v>
+      </c>
+      <c r="M5" s="120">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="121">
+        <v>0</v>
+      </c>
+      <c r="E6" s="121">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="120">
+        <v>0</v>
+      </c>
+      <c r="I6" s="120">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="120">
+        <v>0</v>
+      </c>
+      <c r="L6" s="120">
+        <v>0</v>
+      </c>
+      <c r="M6" s="120">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="121">
+        <v>0</v>
+      </c>
+      <c r="E7" s="121">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="120">
+        <v>0</v>
+      </c>
+      <c r="I7" s="120">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="120">
+        <v>0</v>
+      </c>
+      <c r="L7" s="120">
+        <v>0</v>
+      </c>
+      <c r="M7" s="120">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="122">
+        <v>1</v>
+      </c>
+      <c r="E8" s="120">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="120">
+        <v>0</v>
+      </c>
+      <c r="I8" s="120">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="121">
+        <v>1</v>
+      </c>
+      <c r="M8" s="120">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="122">
+        <v>0</v>
+      </c>
+      <c r="E9" s="120">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="120">
+        <v>0</v>
+      </c>
+      <c r="I9" s="120">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="121">
+        <v>0</v>
+      </c>
+      <c r="M9" s="120">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="122">
+        <v>0</v>
+      </c>
+      <c r="E10" s="120">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="120">
+        <v>0</v>
+      </c>
+      <c r="I10" s="120">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="121">
+        <v>0</v>
+      </c>
+      <c r="M10" s="120">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="122">
+        <v>0</v>
+      </c>
+      <c r="E11" s="120">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="120">
+        <v>0</v>
+      </c>
+      <c r="I11" s="120">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="121">
+        <v>0</v>
+      </c>
+      <c r="M11" s="120">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="122">
+        <v>1</v>
+      </c>
+      <c r="E12" s="122">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" s="121">
+        <v>0</v>
+      </c>
+      <c r="H12" s="120">
+        <v>0</v>
+      </c>
+      <c r="I12" s="120">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12" s="121">
+        <v>1</v>
+      </c>
+      <c r="L12" s="120">
+        <v>0</v>
+      </c>
+      <c r="M12" s="120">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="122">
+        <v>0</v>
+      </c>
+      <c r="E13" s="122">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="121">
+        <v>1</v>
+      </c>
+      <c r="H13" s="120">
+        <v>0</v>
+      </c>
+      <c r="I13" s="120">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="121">
+        <v>0</v>
+      </c>
+      <c r="L13" s="120">
+        <v>0</v>
+      </c>
+      <c r="M13" s="120">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="122">
+        <v>0</v>
+      </c>
+      <c r="E14" s="122">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="121">
+        <v>0</v>
+      </c>
+      <c r="H14" s="120">
+        <v>0</v>
+      </c>
+      <c r="I14" s="120">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="121">
+        <v>0</v>
+      </c>
+      <c r="L14" s="120">
+        <v>0</v>
+      </c>
+      <c r="M14" s="120">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="122">
+        <v>0</v>
+      </c>
+      <c r="E15" s="122">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="121">
+        <v>0</v>
+      </c>
+      <c r="H15" s="120">
+        <v>0</v>
+      </c>
+      <c r="I15" s="120">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="121">
+        <v>0</v>
+      </c>
+      <c r="L15" s="120">
+        <v>0</v>
+      </c>
+      <c r="M15" s="120">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="122">
+        <v>0</v>
+      </c>
+      <c r="E16" s="122">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="121">
+        <v>0</v>
+      </c>
+      <c r="H16" s="120">
+        <v>0</v>
+      </c>
+      <c r="I16" s="120">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" s="121">
+        <v>0</v>
+      </c>
+      <c r="L16" s="120">
+        <v>0</v>
+      </c>
+      <c r="M16" s="120">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" t="s">
+        <v>245</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="120">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="120">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="120">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="120">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" t="s">
+        <v>243</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" t="s">
+        <v>247</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="120">
+        <v>0</v>
+      </c>
+      <c r="C30" s="120">
+        <v>0</v>
+      </c>
+      <c r="D30" s="120">
+        <v>0</v>
+      </c>
+      <c r="E30" s="120">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="120">
+        <v>0</v>
+      </c>
+      <c r="C31" s="120">
+        <v>0</v>
+      </c>
+      <c r="D31" s="120">
+        <v>0</v>
+      </c>
+      <c r="E31" s="120">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="120">
+        <v>0</v>
+      </c>
+      <c r="C32" s="120">
+        <v>0</v>
+      </c>
+      <c r="D32" s="120">
+        <v>0</v>
+      </c>
+      <c r="E32" s="120">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>250</v>
+      </c>
+      <c r="B34" s="120" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="P34" s="5"/>
+    </row>
+    <row r="35" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" t="s">
+        <v>254</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" t="s">
+        <v>256</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="120" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="120" t="s">
+        <v>258</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="120" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="120" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" s="120" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="120" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="120" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="120" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" s="120" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" s="120" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" s="120" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" s="120" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
@@ -8576,51 +9993,51 @@
       <c r="A1" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="105" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="103" t="s">
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="100" t="s">
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="101"/>
-      <c r="AK1" s="101"/>
-      <c r="AL1" s="102"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="107"/>
     </row>
     <row r="2" spans="1:39" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="29"/>
@@ -11099,51 +12516,51 @@
       <c r="A39" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="105" t="s">
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="106"/>
-      <c r="O39" s="106"/>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="106"/>
-      <c r="R39" s="106"/>
-      <c r="S39" s="106"/>
-      <c r="T39" s="103" t="s">
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="111"/>
+      <c r="P39" s="111"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="U39" s="103"/>
-      <c r="V39" s="103"/>
-      <c r="W39" s="103"/>
-      <c r="X39" s="103"/>
-      <c r="Y39" s="103"/>
-      <c r="Z39" s="103"/>
-      <c r="AA39" s="103"/>
-      <c r="AB39" s="103"/>
-      <c r="AC39" s="104"/>
-      <c r="AD39" s="100" t="s">
+      <c r="U39" s="108"/>
+      <c r="V39" s="108"/>
+      <c r="W39" s="108"/>
+      <c r="X39" s="108"/>
+      <c r="Y39" s="108"/>
+      <c r="Z39" s="108"/>
+      <c r="AA39" s="108"/>
+      <c r="AB39" s="108"/>
+      <c r="AC39" s="109"/>
+      <c r="AD39" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="AE39" s="101"/>
-      <c r="AF39" s="101"/>
-      <c r="AG39" s="101"/>
-      <c r="AH39" s="101"/>
-      <c r="AI39" s="101"/>
-      <c r="AJ39" s="101"/>
-      <c r="AK39" s="101"/>
-      <c r="AL39" s="102"/>
+      <c r="AE39" s="106"/>
+      <c r="AF39" s="106"/>
+      <c r="AG39" s="106"/>
+      <c r="AH39" s="106"/>
+      <c r="AI39" s="106"/>
+      <c r="AJ39" s="106"/>
+      <c r="AK39" s="106"/>
+      <c r="AL39" s="107"/>
     </row>
     <row r="40" spans="1:38" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A40" s="29"/>
@@ -12208,51 +13625,51 @@
       <c r="A58" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="99" t="s">
+      <c r="B58" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="105" t="s">
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="I58" s="106"/>
-      <c r="J58" s="106"/>
-      <c r="K58" s="106"/>
-      <c r="L58" s="106"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="106"/>
-      <c r="O58" s="106"/>
-      <c r="P58" s="106"/>
-      <c r="Q58" s="106"/>
-      <c r="R58" s="106"/>
-      <c r="S58" s="106"/>
-      <c r="T58" s="103" t="s">
+      <c r="I58" s="111"/>
+      <c r="J58" s="111"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="111"/>
+      <c r="M58" s="111"/>
+      <c r="N58" s="111"/>
+      <c r="O58" s="111"/>
+      <c r="P58" s="111"/>
+      <c r="Q58" s="111"/>
+      <c r="R58" s="111"/>
+      <c r="S58" s="111"/>
+      <c r="T58" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="U58" s="103"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
-      <c r="X58" s="103"/>
-      <c r="Y58" s="103"/>
-      <c r="Z58" s="103"/>
-      <c r="AA58" s="103"/>
-      <c r="AB58" s="103"/>
-      <c r="AC58" s="104"/>
-      <c r="AD58" s="100" t="s">
+      <c r="U58" s="108"/>
+      <c r="V58" s="108"/>
+      <c r="W58" s="108"/>
+      <c r="X58" s="108"/>
+      <c r="Y58" s="108"/>
+      <c r="Z58" s="108"/>
+      <c r="AA58" s="108"/>
+      <c r="AB58" s="108"/>
+      <c r="AC58" s="109"/>
+      <c r="AD58" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="AE58" s="101"/>
-      <c r="AF58" s="101"/>
-      <c r="AG58" s="101"/>
-      <c r="AH58" s="101"/>
-      <c r="AI58" s="101"/>
-      <c r="AJ58" s="101"/>
-      <c r="AK58" s="101"/>
-      <c r="AL58" s="102"/>
+      <c r="AE58" s="106"/>
+      <c r="AF58" s="106"/>
+      <c r="AG58" s="106"/>
+      <c r="AH58" s="106"/>
+      <c r="AI58" s="106"/>
+      <c r="AJ58" s="106"/>
+      <c r="AK58" s="106"/>
+      <c r="AL58" s="107"/>
     </row>
     <row r="59" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
@@ -13332,7 +14749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -15012,11 +16429,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
@@ -16595,11 +18012,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -16640,13 +18057,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="107">
+      <c r="C2" s="112">
         <v>500</v>
       </c>
       <c r="D2" s="77" t="s">
@@ -16672,9 +18089,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="108"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
       <c r="D3" s="77" t="s">
         <v>14</v>
       </c>
@@ -16698,9 +18115,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="108"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
       <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
@@ -16724,9 +18141,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="77" t="s">
         <v>21</v>
       </c>
@@ -16750,9 +18167,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="77" t="s">
         <v>19</v>
       </c>
@@ -16776,9 +18193,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="109"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="77" t="s">
         <v>16</v>
       </c>
@@ -16802,13 +18219,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="112" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="77" t="s">
@@ -16828,9 +18245,9 @@
       <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="77" t="s">
         <v>14</v>
       </c>
@@ -16848,9 +18265,9 @@
       <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="77" t="s">
         <v>22</v>
       </c>
@@ -16868,9 +18285,9 @@
       <c r="I10" s="79"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="77" t="s">
         <v>21</v>
       </c>
@@ -16888,9 +18305,9 @@
       <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="77" t="s">
         <v>19</v>
       </c>
@@ -16908,9 +18325,9 @@
       <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="109"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="77" t="s">
         <v>16</v>
       </c>
@@ -16928,11 +18345,11 @@
       <c r="I13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="77" t="s">
         <v>13</v>
       </c>
@@ -16947,9 +18364,9 @@
       <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="77" t="s">
         <v>14</v>
       </c>
@@ -16964,9 +18381,9 @@
       <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="77" t="s">
         <v>22</v>
       </c>
@@ -16981,9 +18398,9 @@
       <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
@@ -16998,9 +18415,9 @@
       <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="77" t="s">
         <v>19</v>
       </c>
@@ -17015,9 +18432,9 @@
       <c r="I18" s="79"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="109"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
       <c r="D19" s="77" t="s">
         <v>16</v>
       </c>
@@ -17032,11 +18449,11 @@
       <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="77" t="s">
         <v>13</v>
       </c>
@@ -17051,9 +18468,9 @@
       <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="108"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="77" t="s">
         <v>14</v>
       </c>
@@ -17068,9 +18485,9 @@
       <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="77" t="s">
         <v>22</v>
       </c>
@@ -17085,9 +18502,9 @@
       <c r="I22" s="79"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="108"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="77" t="s">
         <v>21</v>
       </c>
@@ -17102,9 +18519,9 @@
       <c r="I23" s="79"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="77" t="s">
         <v>19</v>
       </c>
@@ -17119,9 +18536,9 @@
       <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
       <c r="D25" s="77" t="s">
         <v>16</v>
       </c>
@@ -17166,13 +18583,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="107" t="s">
+      <c r="A30" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="107" t="s">
+      <c r="B30" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="107">
+      <c r="C30" s="112">
         <v>500</v>
       </c>
       <c r="D30" s="77" t="s">
@@ -17197,9 +18614,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="108"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="77" t="s">
         <v>14</v>
       </c>
@@ -17222,9 +18639,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="108"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
       <c r="D32" s="77" t="s">
         <v>22</v>
       </c>
@@ -17247,9 +18664,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="77" t="s">
         <v>21</v>
       </c>
@@ -17272,9 +18689,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="108"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="77" t="s">
         <v>19</v>
       </c>
@@ -17297,9 +18714,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="109"/>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
       <c r="D35" s="77" t="s">
         <v>16</v>
       </c>
@@ -17322,13 +18739,13 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="107" t="s">
+      <c r="B36" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="107">
+      <c r="C36" s="112">
         <v>1000</v>
       </c>
       <c r="D36" s="77" t="s">
@@ -17349,9 +18766,9 @@
       <c r="I36" s="79"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="108"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
       <c r="D37" s="77" t="s">
         <v>14</v>
       </c>
@@ -17370,9 +18787,9 @@
       <c r="I37" s="79"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="108"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
       <c r="D38" s="77" t="s">
         <v>22</v>
       </c>
@@ -17391,9 +18808,9 @@
       <c r="I38" s="79"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="108"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="77" t="s">
         <v>21</v>
       </c>
@@ -17412,9 +18829,9 @@
       <c r="I39" s="79"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="108"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
       <c r="D40" s="77" t="s">
         <v>19</v>
       </c>
@@ -17433,9 +18850,9 @@
       <c r="I40" s="79"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="109"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
       <c r="D41" s="77" t="s">
         <v>16</v>
       </c>
@@ -17455,31 +18872,31 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:A41"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="C36:C41"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H213"/>
   <sheetViews>
@@ -17490,24 +18907,24 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="114"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87"/>
-      <c r="B2" s="111"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="116"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -17528,7 +18945,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="90" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -17542,7 +18959,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86"/>
+      <c r="A4" s="91"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -17554,7 +18971,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="86"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -17566,7 +18983,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
+      <c r="A6" s="91"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -17578,7 +18995,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86"/>
+      <c r="A7" s="91"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -17590,7 +19007,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="86"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -17602,7 +19019,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -17614,7 +19031,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -17626,7 +19043,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="86"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -17638,7 +19055,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="86"/>
+      <c r="A12" s="91"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -17650,7 +19067,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -17662,7 +19079,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -17674,7 +19091,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="86"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -17686,7 +19103,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="86"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -17698,7 +19115,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -17710,7 +19127,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="86"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -17722,7 +19139,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="86"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -17734,7 +19151,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="86"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -17746,7 +19163,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -17758,7 +19175,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="86"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -17770,7 +19187,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -17782,7 +19199,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="86"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -17794,7 +19211,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="86"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
@@ -17806,7 +19223,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="86"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
@@ -17818,7 +19235,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="86"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
@@ -17830,7 +19247,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="86"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -17842,7 +19259,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="86"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
@@ -17854,7 +19271,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="86"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
@@ -17866,7 +19283,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="86"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
@@ -17878,7 +19295,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="86"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
@@ -17890,7 +19307,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="86"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
@@ -17902,7 +19319,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="86"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
@@ -17914,7 +19331,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="86"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
@@ -17926,7 +19343,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="86"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
@@ -17938,7 +19355,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="86"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
@@ -17950,7 +19367,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="87"/>
+      <c r="A38" s="92"/>
       <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
@@ -17962,7 +19379,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="90" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -17976,7 +19393,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="86"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
@@ -17988,7 +19405,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="86"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
@@ -18000,7 +19417,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="86"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -18012,7 +19429,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="86"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
@@ -18024,7 +19441,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="86"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
@@ -18036,7 +19453,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="86"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
@@ -18048,7 +19465,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="86"/>
+      <c r="A46" s="91"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -18060,7 +19477,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="86"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
@@ -18072,7 +19489,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="86"/>
+      <c r="A48" s="91"/>
       <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
@@ -18084,7 +19501,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="86"/>
+      <c r="A49" s="91"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
       </c>
@@ -18096,7 +19513,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="86"/>
+      <c r="A50" s="91"/>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
@@ -18108,7 +19525,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="86"/>
+      <c r="A51" s="91"/>
       <c r="B51" s="2" t="s">
         <v>24</v>
       </c>
@@ -18120,7 +19537,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="86"/>
+      <c r="A52" s="91"/>
       <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
@@ -18132,7 +19549,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="86"/>
+      <c r="A53" s="91"/>
       <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
@@ -18144,7 +19561,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="86"/>
+      <c r="A54" s="91"/>
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -18156,7 +19573,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="86"/>
+      <c r="A55" s="91"/>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
@@ -18168,7 +19585,7 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="86"/>
+      <c r="A56" s="91"/>
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
@@ -18180,7 +19597,7 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="86"/>
+      <c r="A57" s="91"/>
       <c r="B57" s="2" t="s">
         <v>29</v>
       </c>
@@ -18192,7 +19609,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="86"/>
+      <c r="A58" s="91"/>
       <c r="B58" s="2" t="s">
         <v>30</v>
       </c>
@@ -18204,7 +19621,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="86"/>
+      <c r="A59" s="91"/>
       <c r="B59" s="2" t="s">
         <v>31</v>
       </c>
@@ -18216,7 +19633,7 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="86"/>
+      <c r="A60" s="91"/>
       <c r="B60" s="2" t="s">
         <v>32</v>
       </c>
@@ -18228,7 +19645,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="86"/>
+      <c r="A61" s="91"/>
       <c r="B61" s="2" t="s">
         <v>33</v>
       </c>
@@ -18240,7 +19657,7 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="86"/>
+      <c r="A62" s="91"/>
       <c r="B62" s="2" t="s">
         <v>34</v>
       </c>
@@ -18252,7 +19669,7 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="86"/>
+      <c r="A63" s="91"/>
       <c r="B63" s="2" t="s">
         <v>35</v>
       </c>
@@ -18264,7 +19681,7 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="86"/>
+      <c r="A64" s="91"/>
       <c r="B64" s="2" t="s">
         <v>36</v>
       </c>
@@ -18276,7 +19693,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="86"/>
+      <c r="A65" s="91"/>
       <c r="B65" s="2" t="s">
         <v>37</v>
       </c>
@@ -18288,7 +19705,7 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="86"/>
+      <c r="A66" s="91"/>
       <c r="B66" s="2" t="s">
         <v>38</v>
       </c>
@@ -18300,7 +19717,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="86"/>
+      <c r="A67" s="91"/>
       <c r="B67" s="2" t="s">
         <v>39</v>
       </c>
@@ -18312,7 +19729,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="86"/>
+      <c r="A68" s="91"/>
       <c r="B68" s="2" t="s">
         <v>40</v>
       </c>
@@ -18324,7 +19741,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="86"/>
+      <c r="A69" s="91"/>
       <c r="B69" s="2" t="s">
         <v>41</v>
       </c>
@@ -18336,7 +19753,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="86"/>
+      <c r="A70" s="91"/>
       <c r="B70" s="2" t="s">
         <v>42</v>
       </c>
@@ -18348,7 +19765,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="86"/>
+      <c r="A71" s="91"/>
       <c r="B71" s="2" t="s">
         <v>43</v>
       </c>
@@ -18360,7 +19777,7 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="86"/>
+      <c r="A72" s="91"/>
       <c r="B72" s="2" t="s">
         <v>44</v>
       </c>
@@ -18372,7 +19789,7 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="86"/>
+      <c r="A73" s="91"/>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
@@ -18384,7 +19801,7 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="87"/>
+      <c r="A74" s="92"/>
       <c r="B74" s="2" t="s">
         <v>45</v>
       </c>
@@ -18396,7 +19813,7 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="85" t="s">
+      <c r="A75" s="90" t="s">
         <v>48</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -18410,7 +19827,7 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="86"/>
+      <c r="A76" s="91"/>
       <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
@@ -18422,7 +19839,7 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="86"/>
+      <c r="A77" s="91"/>
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
@@ -18434,7 +19851,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="86"/>
+      <c r="A78" s="91"/>
       <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
@@ -18446,7 +19863,7 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="86"/>
+      <c r="A79" s="91"/>
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -18458,7 +19875,7 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="86"/>
+      <c r="A80" s="91"/>
       <c r="B80" s="2" t="s">
         <v>17</v>
       </c>
@@ -18470,7 +19887,7 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="86"/>
+      <c r="A81" s="91"/>
       <c r="B81" s="2" t="s">
         <v>18</v>
       </c>
@@ -18482,7 +19899,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="86"/>
+      <c r="A82" s="91"/>
       <c r="B82" s="2" t="s">
         <v>19</v>
       </c>
@@ -18494,7 +19911,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="86"/>
+      <c r="A83" s="91"/>
       <c r="B83" s="2" t="s">
         <v>20</v>
       </c>
@@ -18506,7 +19923,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="86"/>
+      <c r="A84" s="91"/>
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
@@ -18518,7 +19935,7 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="86"/>
+      <c r="A85" s="91"/>
       <c r="B85" s="2" t="s">
         <v>22</v>
       </c>
@@ -18530,7 +19947,7 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="86"/>
+      <c r="A86" s="91"/>
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
@@ -18542,7 +19959,7 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="86"/>
+      <c r="A87" s="91"/>
       <c r="B87" s="2" t="s">
         <v>24</v>
       </c>
@@ -18554,7 +19971,7 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="86"/>
+      <c r="A88" s="91"/>
       <c r="B88" s="2" t="s">
         <v>25</v>
       </c>
@@ -18566,7 +19983,7 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="86"/>
+      <c r="A89" s="91"/>
       <c r="B89" s="2" t="s">
         <v>26</v>
       </c>
@@ -18578,7 +19995,7 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="86"/>
+      <c r="A90" s="91"/>
       <c r="B90" s="2" t="s">
         <v>27</v>
       </c>
@@ -18590,7 +20007,7 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="86"/>
+      <c r="A91" s="91"/>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
@@ -18602,7 +20019,7 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="86"/>
+      <c r="A92" s="91"/>
       <c r="B92" s="2" t="s">
         <v>28</v>
       </c>
@@ -18614,7 +20031,7 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="86"/>
+      <c r="A93" s="91"/>
       <c r="B93" s="2" t="s">
         <v>29</v>
       </c>
@@ -18626,7 +20043,7 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="86"/>
+      <c r="A94" s="91"/>
       <c r="B94" s="2" t="s">
         <v>30</v>
       </c>
@@ -18638,7 +20055,7 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="86"/>
+      <c r="A95" s="91"/>
       <c r="B95" s="2" t="s">
         <v>31</v>
       </c>
@@ -18650,7 +20067,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="86"/>
+      <c r="A96" s="91"/>
       <c r="B96" s="2" t="s">
         <v>32</v>
       </c>
@@ -18662,7 +20079,7 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="86"/>
+      <c r="A97" s="91"/>
       <c r="B97" s="2" t="s">
         <v>33</v>
       </c>
@@ -18674,7 +20091,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="86"/>
+      <c r="A98" s="91"/>
       <c r="B98" s="2" t="s">
         <v>34</v>
       </c>
@@ -18686,7 +20103,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="86"/>
+      <c r="A99" s="91"/>
       <c r="B99" s="2" t="s">
         <v>35</v>
       </c>
@@ -18698,7 +20115,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="86"/>
+      <c r="A100" s="91"/>
       <c r="B100" s="2" t="s">
         <v>36</v>
       </c>
@@ -18710,7 +20127,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="86"/>
+      <c r="A101" s="91"/>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
@@ -18722,7 +20139,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="86"/>
+      <c r="A102" s="91"/>
       <c r="B102" s="2" t="s">
         <v>38</v>
       </c>
@@ -18734,7 +20151,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="86"/>
+      <c r="A103" s="91"/>
       <c r="B103" s="2" t="s">
         <v>39</v>
       </c>
@@ -18746,7 +20163,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="86"/>
+      <c r="A104" s="91"/>
       <c r="B104" s="2" t="s">
         <v>40</v>
       </c>
@@ -18758,7 +20175,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="86"/>
+      <c r="A105" s="91"/>
       <c r="B105" s="2" t="s">
         <v>41</v>
       </c>
@@ -18770,7 +20187,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="86"/>
+      <c r="A106" s="91"/>
       <c r="B106" s="2" t="s">
         <v>42</v>
       </c>
@@ -18782,7 +20199,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="86"/>
+      <c r="A107" s="91"/>
       <c r="B107" s="2" t="s">
         <v>43</v>
       </c>
@@ -18794,7 +20211,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="86"/>
+      <c r="A108" s="91"/>
       <c r="B108" s="2" t="s">
         <v>44</v>
       </c>
@@ -18806,7 +20223,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="86"/>
+      <c r="A109" s="91"/>
       <c r="B109" s="2" t="s">
         <v>4</v>
       </c>
@@ -18818,7 +20235,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="87"/>
+      <c r="A110" s="92"/>
       <c r="B110" s="2" t="s">
         <v>45</v>
       </c>
@@ -18830,7 +20247,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="85" t="s">
+      <c r="A111" s="90" t="s">
         <v>49</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -18844,7 +20261,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="86"/>
+      <c r="A112" s="91"/>
       <c r="B112" s="2" t="s">
         <v>14</v>
       </c>
@@ -18856,7 +20273,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="86"/>
+      <c r="A113" s="91"/>
       <c r="B113" s="2" t="s">
         <v>15</v>
       </c>
@@ -18868,7 +20285,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="86"/>
+      <c r="A114" s="91"/>
       <c r="B114" s="2" t="s">
         <v>16</v>
       </c>
@@ -18880,7 +20297,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="86"/>
+      <c r="A115" s="91"/>
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
@@ -18892,7 +20309,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="86"/>
+      <c r="A116" s="91"/>
       <c r="B116" s="2" t="s">
         <v>17</v>
       </c>
@@ -18904,7 +20321,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="86"/>
+      <c r="A117" s="91"/>
       <c r="B117" s="2" t="s">
         <v>18</v>
       </c>
@@ -18916,7 +20333,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="86"/>
+      <c r="A118" s="91"/>
       <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
@@ -18928,7 +20345,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="86"/>
+      <c r="A119" s="91"/>
       <c r="B119" s="2" t="s">
         <v>20</v>
       </c>
@@ -18940,7 +20357,7 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="86"/>
+      <c r="A120" s="91"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -18952,7 +20369,7 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="86"/>
+      <c r="A121" s="91"/>
       <c r="B121" s="2" t="s">
         <v>22</v>
       </c>
@@ -18964,7 +20381,7 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="86"/>
+      <c r="A122" s="91"/>
       <c r="B122" s="2" t="s">
         <v>23</v>
       </c>
@@ -18976,7 +20393,7 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="86"/>
+      <c r="A123" s="91"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -18988,7 +20405,7 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="86"/>
+      <c r="A124" s="91"/>
       <c r="B124" s="2" t="s">
         <v>25</v>
       </c>
@@ -19000,7 +20417,7 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="86"/>
+      <c r="A125" s="91"/>
       <c r="B125" s="2" t="s">
         <v>26</v>
       </c>
@@ -19012,7 +20429,7 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="86"/>
+      <c r="A126" s="91"/>
       <c r="B126" s="2" t="s">
         <v>27</v>
       </c>
@@ -19024,7 +20441,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="86"/>
+      <c r="A127" s="91"/>
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
@@ -19036,7 +20453,7 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="86"/>
+      <c r="A128" s="91"/>
       <c r="B128" s="2" t="s">
         <v>28</v>
       </c>
@@ -19048,7 +20465,7 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="86"/>
+      <c r="A129" s="91"/>
       <c r="B129" s="2" t="s">
         <v>29</v>
       </c>
@@ -19060,7 +20477,7 @@
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="86"/>
+      <c r="A130" s="91"/>
       <c r="B130" s="2" t="s">
         <v>30</v>
       </c>
@@ -19072,7 +20489,7 @@
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="86"/>
+      <c r="A131" s="91"/>
       <c r="B131" s="2" t="s">
         <v>31</v>
       </c>
@@ -19084,7 +20501,7 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="86"/>
+      <c r="A132" s="91"/>
       <c r="B132" s="2" t="s">
         <v>32</v>
       </c>
@@ -19096,7 +20513,7 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="86"/>
+      <c r="A133" s="91"/>
       <c r="B133" s="2" t="s">
         <v>33</v>
       </c>
@@ -19108,7 +20525,7 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="86"/>
+      <c r="A134" s="91"/>
       <c r="B134" s="2" t="s">
         <v>34</v>
       </c>
@@ -19120,7 +20537,7 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="86"/>
+      <c r="A135" s="91"/>
       <c r="B135" s="2" t="s">
         <v>35</v>
       </c>
@@ -19132,7 +20549,7 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="86"/>
+      <c r="A136" s="91"/>
       <c r="B136" s="2" t="s">
         <v>36</v>
       </c>
@@ -19144,7 +20561,7 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="86"/>
+      <c r="A137" s="91"/>
       <c r="B137" s="2" t="s">
         <v>37</v>
       </c>
@@ -19156,7 +20573,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="86"/>
+      <c r="A138" s="91"/>
       <c r="B138" s="2" t="s">
         <v>38</v>
       </c>
@@ -19168,7 +20585,7 @@
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="86"/>
+      <c r="A139" s="91"/>
       <c r="B139" s="2" t="s">
         <v>39</v>
       </c>
@@ -19180,7 +20597,7 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="86"/>
+      <c r="A140" s="91"/>
       <c r="B140" s="2" t="s">
         <v>40</v>
       </c>
@@ -19192,7 +20609,7 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="86"/>
+      <c r="A141" s="91"/>
       <c r="B141" s="2" t="s">
         <v>41</v>
       </c>
@@ -19204,7 +20621,7 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="86"/>
+      <c r="A142" s="91"/>
       <c r="B142" s="2" t="s">
         <v>42</v>
       </c>
@@ -19216,7 +20633,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="86"/>
+      <c r="A143" s="91"/>
       <c r="B143" s="2" t="s">
         <v>43</v>
       </c>
@@ -19228,7 +20645,7 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="86"/>
+      <c r="A144" s="91"/>
       <c r="B144" s="2" t="s">
         <v>44</v>
       </c>
@@ -19240,7 +20657,7 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="86"/>
+      <c r="A145" s="91"/>
       <c r="B145" s="2" t="s">
         <v>4</v>
       </c>
@@ -19252,7 +20669,7 @@
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="87"/>
+      <c r="A146" s="92"/>
       <c r="B146" s="2" t="s">
         <v>45</v>
       </c>
@@ -19265,24 +20682,24 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="85" t="s">
+      <c r="A152" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C152" s="93" t="s">
+      <c r="B152" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D152" s="94"/>
-      <c r="E152" s="94"/>
-      <c r="F152" s="94"/>
-      <c r="G152" s="94"/>
-      <c r="H152" s="95"/>
+      <c r="D152" s="96"/>
+      <c r="E152" s="96"/>
+      <c r="F152" s="96"/>
+      <c r="G152" s="96"/>
+      <c r="H152" s="97"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="87"/>
-      <c r="B153" s="92"/>
+      <c r="A153" s="92"/>
+      <c r="B153" s="94"/>
       <c r="C153" s="1" t="s">
         <v>7</v>
       </c>
@@ -19303,7 +20720,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="85" t="s">
+      <c r="A154" s="90" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -19317,7 +20734,7 @@
       <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="86"/>
+      <c r="A155" s="91"/>
       <c r="B155" s="2" t="s">
         <v>14</v>
       </c>
@@ -19329,7 +20746,7 @@
       <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="86"/>
+      <c r="A156" s="91"/>
       <c r="B156" s="2" t="s">
         <v>15</v>
       </c>
@@ -19341,7 +20758,7 @@
       <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="86"/>
+      <c r="A157" s="91"/>
       <c r="B157" s="2" t="s">
         <v>16</v>
       </c>
@@ -19353,7 +20770,7 @@
       <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="86"/>
+      <c r="A158" s="91"/>
       <c r="B158" s="2" t="s">
         <v>2</v>
       </c>
@@ -19365,7 +20782,7 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="86"/>
+      <c r="A159" s="91"/>
       <c r="B159" s="2" t="s">
         <v>17</v>
       </c>
@@ -19377,7 +20794,7 @@
       <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="86"/>
+      <c r="A160" s="91"/>
       <c r="B160" s="2" t="s">
         <v>18</v>
       </c>
@@ -19389,7 +20806,7 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="86"/>
+      <c r="A161" s="91"/>
       <c r="B161" s="2" t="s">
         <v>19</v>
       </c>
@@ -19401,7 +20818,7 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="86"/>
+      <c r="A162" s="91"/>
       <c r="B162" s="2" t="s">
         <v>20</v>
       </c>
@@ -19413,7 +20830,7 @@
       <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="86"/>
+      <c r="A163" s="91"/>
       <c r="B163" s="2" t="s">
         <v>21</v>
       </c>
@@ -19425,7 +20842,7 @@
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="86"/>
+      <c r="A164" s="91"/>
       <c r="B164" s="2" t="s">
         <v>22</v>
       </c>
@@ -19437,7 +20854,7 @@
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="86"/>
+      <c r="A165" s="91"/>
       <c r="B165" s="2" t="s">
         <v>23</v>
       </c>
@@ -19449,7 +20866,7 @@
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="86"/>
+      <c r="A166" s="91"/>
       <c r="B166" s="2" t="s">
         <v>24</v>
       </c>
@@ -19461,7 +20878,7 @@
       <c r="H166" s="4"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="86"/>
+      <c r="A167" s="91"/>
       <c r="B167" s="2" t="s">
         <v>25</v>
       </c>
@@ -19473,7 +20890,7 @@
       <c r="H167" s="4"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="87"/>
+      <c r="A168" s="92"/>
       <c r="B168" s="5" t="s">
         <v>50</v>
       </c>
@@ -19485,7 +20902,7 @@
       <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="85" t="s">
+      <c r="A169" s="90" t="s">
         <v>46</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -19499,7 +20916,7 @@
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="86"/>
+      <c r="A170" s="91"/>
       <c r="B170" s="2" t="s">
         <v>14</v>
       </c>
@@ -19511,7 +20928,7 @@
       <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="86"/>
+      <c r="A171" s="91"/>
       <c r="B171" s="2" t="s">
         <v>15</v>
       </c>
@@ -19523,7 +20940,7 @@
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="86"/>
+      <c r="A172" s="91"/>
       <c r="B172" s="2" t="s">
         <v>16</v>
       </c>
@@ -19535,7 +20952,7 @@
       <c r="H172" s="4"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="86"/>
+      <c r="A173" s="91"/>
       <c r="B173" s="2" t="s">
         <v>2</v>
       </c>
@@ -19547,7 +20964,7 @@
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="86"/>
+      <c r="A174" s="91"/>
       <c r="B174" s="2" t="s">
         <v>17</v>
       </c>
@@ -19559,7 +20976,7 @@
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="86"/>
+      <c r="A175" s="91"/>
       <c r="B175" s="2" t="s">
         <v>18</v>
       </c>
@@ -19571,7 +20988,7 @@
       <c r="H175" s="4"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="86"/>
+      <c r="A176" s="91"/>
       <c r="B176" s="2" t="s">
         <v>19</v>
       </c>
@@ -19583,7 +21000,7 @@
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="86"/>
+      <c r="A177" s="91"/>
       <c r="B177" s="2" t="s">
         <v>20</v>
       </c>
@@ -19595,7 +21012,7 @@
       <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="86"/>
+      <c r="A178" s="91"/>
       <c r="B178" s="2" t="s">
         <v>21</v>
       </c>
@@ -19607,7 +21024,7 @@
       <c r="H178" s="4"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="86"/>
+      <c r="A179" s="91"/>
       <c r="B179" s="2" t="s">
         <v>22</v>
       </c>
@@ -19619,7 +21036,7 @@
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="86"/>
+      <c r="A180" s="91"/>
       <c r="B180" s="2" t="s">
         <v>23</v>
       </c>
@@ -19631,7 +21048,7 @@
       <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="86"/>
+      <c r="A181" s="91"/>
       <c r="B181" s="2" t="s">
         <v>24</v>
       </c>
@@ -19643,7 +21060,7 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="86"/>
+      <c r="A182" s="91"/>
       <c r="B182" s="2" t="s">
         <v>25</v>
       </c>
@@ -19655,7 +21072,7 @@
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="87"/>
+      <c r="A183" s="92"/>
       <c r="B183" s="5" t="s">
         <v>50</v>
       </c>
@@ -19667,7 +21084,7 @@
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="85" t="s">
+      <c r="A184" s="90" t="s">
         <v>51</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -19681,7 +21098,7 @@
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="86"/>
+      <c r="A185" s="91"/>
       <c r="B185" s="2" t="s">
         <v>14</v>
       </c>
@@ -19693,7 +21110,7 @@
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="86"/>
+      <c r="A186" s="91"/>
       <c r="B186" s="2" t="s">
         <v>15</v>
       </c>
@@ -19705,7 +21122,7 @@
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="86"/>
+      <c r="A187" s="91"/>
       <c r="B187" s="2" t="s">
         <v>16</v>
       </c>
@@ -19717,7 +21134,7 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="86"/>
+      <c r="A188" s="91"/>
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -19729,7 +21146,7 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="86"/>
+      <c r="A189" s="91"/>
       <c r="B189" s="2" t="s">
         <v>17</v>
       </c>
@@ -19741,7 +21158,7 @@
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="86"/>
+      <c r="A190" s="91"/>
       <c r="B190" s="2" t="s">
         <v>18</v>
       </c>
@@ -19753,7 +21170,7 @@
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="86"/>
+      <c r="A191" s="91"/>
       <c r="B191" s="2" t="s">
         <v>19</v>
       </c>
@@ -19765,7 +21182,7 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="86"/>
+      <c r="A192" s="91"/>
       <c r="B192" s="2" t="s">
         <v>20</v>
       </c>
@@ -19777,7 +21194,7 @@
       <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="86"/>
+      <c r="A193" s="91"/>
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
@@ -19789,7 +21206,7 @@
       <c r="H193" s="4"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="86"/>
+      <c r="A194" s="91"/>
       <c r="B194" s="2" t="s">
         <v>22</v>
       </c>
@@ -19801,7 +21218,7 @@
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="86"/>
+      <c r="A195" s="91"/>
       <c r="B195" s="2" t="s">
         <v>23</v>
       </c>
@@ -19813,7 +21230,7 @@
       <c r="H195" s="4"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="86"/>
+      <c r="A196" s="91"/>
       <c r="B196" s="2" t="s">
         <v>24</v>
       </c>
@@ -19825,7 +21242,7 @@
       <c r="H196" s="4"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="86"/>
+      <c r="A197" s="91"/>
       <c r="B197" s="2" t="s">
         <v>25</v>
       </c>
@@ -19837,7 +21254,7 @@
       <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="87"/>
+      <c r="A198" s="92"/>
       <c r="B198" s="5" t="s">
         <v>50</v>
       </c>
@@ -19849,7 +21266,7 @@
       <c r="H198" s="4"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="85" t="s">
+      <c r="A199" s="90" t="s">
         <v>52</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -19863,7 +21280,7 @@
       <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="86"/>
+      <c r="A200" s="91"/>
       <c r="B200" s="2" t="s">
         <v>14</v>
       </c>
@@ -19875,7 +21292,7 @@
       <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="86"/>
+      <c r="A201" s="91"/>
       <c r="B201" s="2" t="s">
         <v>15</v>
       </c>
@@ -19887,7 +21304,7 @@
       <c r="H201" s="4"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="86"/>
+      <c r="A202" s="91"/>
       <c r="B202" s="2" t="s">
         <v>16</v>
       </c>
@@ -19899,7 +21316,7 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="86"/>
+      <c r="A203" s="91"/>
       <c r="B203" s="2" t="s">
         <v>2</v>
       </c>
@@ -19911,7 +21328,7 @@
       <c r="H203" s="4"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="86"/>
+      <c r="A204" s="91"/>
       <c r="B204" s="2" t="s">
         <v>17</v>
       </c>
@@ -19923,7 +21340,7 @@
       <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="86"/>
+      <c r="A205" s="91"/>
       <c r="B205" s="2" t="s">
         <v>18</v>
       </c>
@@ -19935,7 +21352,7 @@
       <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="86"/>
+      <c r="A206" s="91"/>
       <c r="B206" s="2" t="s">
         <v>19</v>
       </c>
@@ -19947,7 +21364,7 @@
       <c r="H206" s="4"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="86"/>
+      <c r="A207" s="91"/>
       <c r="B207" s="2" t="s">
         <v>20</v>
       </c>
@@ -19959,7 +21376,7 @@
       <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="86"/>
+      <c r="A208" s="91"/>
       <c r="B208" s="2" t="s">
         <v>21</v>
       </c>
@@ -19971,7 +21388,7 @@
       <c r="H208" s="4"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="86"/>
+      <c r="A209" s="91"/>
       <c r="B209" s="2" t="s">
         <v>22</v>
       </c>
@@ -19983,7 +21400,7 @@
       <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="86"/>
+      <c r="A210" s="91"/>
       <c r="B210" s="2" t="s">
         <v>23</v>
       </c>
@@ -19995,7 +21412,7 @@
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="86"/>
+      <c r="A211" s="91"/>
       <c r="B211" s="2" t="s">
         <v>24</v>
       </c>
@@ -20007,7 +21424,7 @@
       <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="86"/>
+      <c r="A212" s="91"/>
       <c r="B212" s="2" t="s">
         <v>25</v>
       </c>
@@ -20019,7 +21436,7 @@
       <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="87"/>
+      <c r="A213" s="92"/>
       <c r="B213" s="5" t="s">
         <v>50</v>
       </c>
@@ -20032,6 +21449,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -20041,11 +21463,6 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/对比/性能对比.xlsx
+++ b/对比/性能对比.xlsx
@@ -1723,11 +1723,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1737,15 +1743,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1775,6 +1772,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1828,9 +1831,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -2023,7 +2023,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="C2">
@@ -2200,7 +2200,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="2">
           <cell r="A2" t="str">
@@ -2600,8 +2600,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2872,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3223,46 +3223,46 @@
     </row>
     <row r="39" spans="1:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="93" t="s">
+      <c r="B40" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="95" t="s">
+      <c r="D40" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="98"/>
       <c r="K40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L40" s="98" t="s">
+      <c r="L40" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="99"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="98" t="s">
+      <c r="M40" s="100"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="100"/>
-      <c r="R40" s="87" t="s">
+      <c r="P40" s="100"/>
+      <c r="Q40" s="101"/>
+      <c r="R40" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="S40" s="88"/>
-      <c r="T40" s="89"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="93"/>
     </row>
     <row r="41" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="92"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
+      <c r="A41" s="90"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
       <c r="D41" s="20" t="s">
         <v>7</v>
       </c>
@@ -3284,24 +3284,24 @@
       <c r="K41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L41" s="87">
+      <c r="L41" s="91">
         <v>65</v>
       </c>
-      <c r="M41" s="88"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="87">
+      <c r="M41" s="92"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="91">
         <v>65</v>
       </c>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="89"/>
-      <c r="R41" s="87">
+      <c r="P41" s="92"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="91">
         <v>45</v>
       </c>
-      <c r="S41" s="88"/>
-      <c r="T41" s="89"/>
+      <c r="S41" s="92"/>
+      <c r="T41" s="93"/>
     </row>
     <row r="42" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="102" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3331,26 +3331,26 @@
       <c r="K42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L42" s="87">
+      <c r="L42" s="91">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="88"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="87">
+      <c r="M42" s="92"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="91">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="89"/>
-      <c r="R42" s="87">
+      <c r="P42" s="92"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="91">
         <v>1</v>
       </c>
-      <c r="S42" s="88"/>
-      <c r="T42" s="89"/>
+      <c r="S42" s="92"/>
+      <c r="T42" s="93"/>
     </row>
     <row r="43" spans="1:30" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="102"/>
+      <c r="A43" s="103"/>
       <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
@@ -3420,7 +3420,7 @@
       </c>
     </row>
     <row r="44" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="102"/>
+      <c r="A44" s="103"/>
       <c r="B44" s="2" t="s">
         <v>22</v>
       </c>
@@ -3519,7 +3519,7 @@
       </c>
     </row>
     <row r="45" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="102"/>
+      <c r="A45" s="103"/>
       <c r="B45" s="2" t="s">
         <v>21</v>
       </c>
@@ -3618,7 +3618,7 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="102"/>
+      <c r="A46" s="103"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -3717,7 +3717,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="102"/>
+      <c r="A47" s="103"/>
       <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
@@ -3816,7 +3816,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="102"/>
+      <c r="A48" s="103"/>
       <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
@@ -3915,7 +3915,7 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="102"/>
+      <c r="A49" s="103"/>
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
@@ -4014,7 +4014,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="102"/>
+      <c r="A50" s="103"/>
       <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
@@ -4101,7 +4101,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="102"/>
+      <c r="A51" s="103"/>
       <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
@@ -4188,7 +4188,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="102"/>
+      <c r="A52" s="103"/>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
@@ -4242,7 +4242,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="102"/>
+      <c r="A53" s="103"/>
       <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
@@ -4269,7 +4269,7 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="102"/>
+      <c r="A54" s="103"/>
       <c r="B54" s="2" t="s">
         <v>18</v>
       </c>
@@ -4296,7 +4296,7 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="102"/>
+      <c r="A55" s="103"/>
       <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
@@ -4323,7 +4323,7 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="102"/>
+      <c r="A56" s="103"/>
       <c r="B56" s="5" t="s">
         <v>188</v>
       </c>
@@ -4350,7 +4350,7 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="102"/>
+      <c r="A57" s="103"/>
       <c r="B57" s="5" t="s">
         <v>189</v>
       </c>
@@ -4375,7 +4375,7 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="102"/>
+      <c r="A58" s="103"/>
       <c r="B58" s="5" t="s">
         <v>3</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="102"/>
+      <c r="A59" s="103"/>
       <c r="B59" s="5" t="s">
         <v>28</v>
       </c>
@@ -4425,7 +4425,7 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="102"/>
+      <c r="A60" s="103"/>
       <c r="B60" s="5" t="s">
         <v>193</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="102"/>
+      <c r="A61" s="103"/>
       <c r="B61" s="5" t="s">
         <v>30</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="102"/>
+      <c r="A62" s="103"/>
       <c r="B62" s="5" t="s">
         <v>31</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="102"/>
+      <c r="A63" s="103"/>
       <c r="B63" s="5" t="s">
         <v>194</v>
       </c>
@@ -4525,7 +4525,7 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="102"/>
+      <c r="A64" s="103"/>
       <c r="B64" s="5" t="s">
         <v>195</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="102"/>
+      <c r="A65" s="103"/>
       <c r="B65" s="5" t="s">
         <v>34</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="102"/>
+      <c r="A66" s="103"/>
       <c r="B66" s="5" t="s">
         <v>35</v>
       </c>
@@ -4600,7 +4600,7 @@
       <c r="T66" s="1"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="102"/>
+      <c r="A67" s="103"/>
       <c r="B67" s="5" t="s">
         <v>36</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="102"/>
+      <c r="A68" s="103"/>
       <c r="B68" s="5" t="s">
         <v>37</v>
       </c>
@@ -4650,7 +4650,7 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="102"/>
+      <c r="A69" s="103"/>
       <c r="B69" s="5" t="s">
         <v>38</v>
       </c>
@@ -4675,7 +4675,7 @@
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="102"/>
+      <c r="A70" s="103"/>
       <c r="B70" s="5" t="s">
         <v>196</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="102"/>
+      <c r="A71" s="103"/>
       <c r="B71" s="5" t="s">
         <v>40</v>
       </c>
@@ -4723,7 +4723,7 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="102"/>
+      <c r="A72" s="103"/>
       <c r="B72" s="5" t="s">
         <v>197</v>
       </c>
@@ -4748,7 +4748,7 @@
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="102"/>
+      <c r="A73" s="103"/>
       <c r="B73" s="5" t="s">
         <v>42</v>
       </c>
@@ -4771,7 +4771,7 @@
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="102"/>
+      <c r="A74" s="103"/>
       <c r="B74" s="5" t="s">
         <v>43</v>
       </c>
@@ -4796,7 +4796,7 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="102"/>
+      <c r="A75" s="103"/>
       <c r="B75" s="5" t="s">
         <v>44</v>
       </c>
@@ -4821,7 +4821,7 @@
       <c r="T75" s="1"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="102"/>
+      <c r="A76" s="103"/>
       <c r="B76" s="5" t="s">
         <v>198</v>
       </c>
@@ -4846,7 +4846,7 @@
       <c r="T76" s="1"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="102"/>
+      <c r="A77" s="103"/>
       <c r="B77" s="5" t="s">
         <v>199</v>
       </c>
@@ -4871,7 +4871,7 @@
       <c r="T77" s="1"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="102"/>
+      <c r="A78" s="103"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="4"/>
@@ -4892,7 +4892,7 @@
       <c r="T78" s="1"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="101" t="s">
+      <c r="A79" s="102" t="s">
         <v>73</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -4933,7 +4933,7 @@
       <c r="T79" s="1"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="102"/>
+      <c r="A80" s="103"/>
       <c r="B80" s="2" t="s">
         <v>14</v>
       </c>
@@ -4972,7 +4972,7 @@
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="102"/>
+      <c r="A81" s="103"/>
       <c r="B81" s="2" t="s">
         <v>22</v>
       </c>
@@ -5011,7 +5011,7 @@
       <c r="T81" s="1"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="102"/>
+      <c r="A82" s="103"/>
       <c r="B82" s="2" t="s">
         <v>21</v>
       </c>
@@ -5050,7 +5050,7 @@
       <c r="T82" s="1"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="102"/>
+      <c r="A83" s="103"/>
       <c r="B83" s="2" t="s">
         <v>19</v>
       </c>
@@ -5089,7 +5089,7 @@
       <c r="T83" s="1"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="102"/>
+      <c r="A84" s="103"/>
       <c r="B84" s="2" t="s">
         <v>17</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="T84" s="1"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="102"/>
+      <c r="A85" s="103"/>
       <c r="B85" s="2" t="s">
         <v>24</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="T85" s="1"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="102"/>
+      <c r="A86" s="103"/>
       <c r="B86" s="2" t="s">
         <v>16</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="K86" s="12"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="102"/>
+      <c r="A87" s="103"/>
       <c r="B87" s="2" t="s">
         <v>20</v>
       </c>
@@ -5211,7 +5211,7 @@
       <c r="K87" s="12"/>
     </row>
     <row r="88" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="102"/>
+      <c r="A88" s="103"/>
       <c r="B88" s="2" t="s">
         <v>23</v>
       </c>
@@ -5227,24 +5227,24 @@
       <c r="K88" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L88" s="87" t="s">
+      <c r="L88" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="M88" s="88"/>
-      <c r="N88" s="89"/>
-      <c r="O88" s="87" t="s">
+      <c r="M88" s="92"/>
+      <c r="N88" s="93"/>
+      <c r="O88" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="P88" s="88"/>
-      <c r="Q88" s="89"/>
-      <c r="R88" s="87" t="s">
+      <c r="P88" s="92"/>
+      <c r="Q88" s="93"/>
+      <c r="R88" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="S88" s="88"/>
-      <c r="T88" s="89"/>
+      <c r="S88" s="92"/>
+      <c r="T88" s="93"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="102"/>
+      <c r="A89" s="103"/>
       <c r="B89" s="2" t="s">
         <v>15</v>
       </c>
@@ -5260,18 +5260,18 @@
       <c r="K89" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L89" s="87"/>
-      <c r="M89" s="88"/>
-      <c r="N89" s="89"/>
-      <c r="O89" s="87"/>
-      <c r="P89" s="88"/>
-      <c r="Q89" s="89"/>
-      <c r="R89" s="87"/>
-      <c r="S89" s="88"/>
-      <c r="T89" s="89"/>
+      <c r="L89" s="91"/>
+      <c r="M89" s="92"/>
+      <c r="N89" s="93"/>
+      <c r="O89" s="91"/>
+      <c r="P89" s="92"/>
+      <c r="Q89" s="93"/>
+      <c r="R89" s="91"/>
+      <c r="S89" s="92"/>
+      <c r="T89" s="93"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="102"/>
+      <c r="A90" s="103"/>
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
@@ -5287,18 +5287,18 @@
       <c r="K90" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L90" s="87"/>
-      <c r="M90" s="88"/>
-      <c r="N90" s="89"/>
-      <c r="O90" s="87"/>
-      <c r="P90" s="88"/>
-      <c r="Q90" s="89"/>
-      <c r="R90" s="87"/>
-      <c r="S90" s="88"/>
-      <c r="T90" s="89"/>
+      <c r="L90" s="91"/>
+      <c r="M90" s="92"/>
+      <c r="N90" s="93"/>
+      <c r="O90" s="91"/>
+      <c r="P90" s="92"/>
+      <c r="Q90" s="93"/>
+      <c r="R90" s="91"/>
+      <c r="S90" s="92"/>
+      <c r="T90" s="93"/>
     </row>
     <row r="91" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="102"/>
+      <c r="A91" s="103"/>
       <c r="B91" s="2" t="s">
         <v>18</v>
       </c>
@@ -5341,7 +5341,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="102"/>
+      <c r="A92" s="103"/>
       <c r="B92" s="2" t="s">
         <v>25</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="T92" s="1"/>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="102"/>
+      <c r="A93" s="103"/>
       <c r="B93" s="5" t="s">
         <v>187</v>
       </c>
@@ -5395,7 +5395,7 @@
       <c r="T93" s="1"/>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="102"/>
+      <c r="A94" s="103"/>
       <c r="B94" s="5" t="str">
         <f t="shared" ref="B94:B115" si="12">B57</f>
         <v>SKIPJECT</v>
@@ -5421,7 +5421,7 @@
       <c r="T94" s="1"/>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="102"/>
+      <c r="A95" s="103"/>
       <c r="B95" s="5" t="str">
         <f t="shared" si="12"/>
         <v>SPECK</v>
@@ -5447,7 +5447,7 @@
       <c r="T95" s="1"/>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="102"/>
+      <c r="A96" s="103"/>
       <c r="B96" s="5" t="str">
         <f t="shared" si="12"/>
         <v>SIMON</v>
@@ -5473,7 +5473,7 @@
       <c r="T96" s="1"/>
     </row>
     <row r="97" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="102"/>
+      <c r="A97" s="103"/>
       <c r="B97" s="5" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">LUCIFER </v>
@@ -5499,7 +5499,7 @@
       <c r="T97" s="1"/>
     </row>
     <row r="98" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="102"/>
+      <c r="A98" s="103"/>
       <c r="B98" s="5" t="str">
         <f t="shared" si="12"/>
         <v>CLEFIA</v>
@@ -5525,7 +5525,7 @@
       <c r="T98" s="1"/>
     </row>
     <row r="99" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="102"/>
+      <c r="A99" s="103"/>
       <c r="B99" s="5" t="str">
         <f t="shared" si="12"/>
         <v>ARIA</v>
@@ -5551,7 +5551,7 @@
       <c r="T99" s="1"/>
     </row>
     <row r="100" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="102"/>
+      <c r="A100" s="103"/>
       <c r="B100" s="5" t="str">
         <f t="shared" si="12"/>
         <v>CRYPTOMERIA/C2</v>
@@ -5577,7 +5577,7 @@
       <c r="T100" s="1"/>
     </row>
     <row r="101" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="102"/>
+      <c r="A101" s="103"/>
       <c r="B101" s="5" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">PRESENT </v>
@@ -5603,7 +5603,7 @@
       <c r="T101" s="1"/>
     </row>
     <row r="102" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="102"/>
+      <c r="A102" s="103"/>
       <c r="B102" s="5" t="str">
         <f t="shared" si="12"/>
         <v>MACGUFFIN</v>
@@ -5629,7 +5629,7 @@
       <c r="T102" s="1"/>
     </row>
     <row r="103" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="102"/>
+      <c r="A103" s="103"/>
       <c r="B103" s="5" t="str">
         <f t="shared" si="12"/>
         <v>SQUARE</v>
@@ -5655,7 +5655,7 @@
       <c r="T103" s="1"/>
     </row>
     <row r="104" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="102"/>
+      <c r="A104" s="103"/>
       <c r="B104" s="5" t="str">
         <f t="shared" si="12"/>
         <v>M6</v>
@@ -5681,7 +5681,7 @@
       <c r="T104" s="1"/>
     </row>
     <row r="105" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="102"/>
+      <c r="A105" s="103"/>
       <c r="B105" s="5" t="str">
         <f t="shared" si="12"/>
         <v>ICE</v>
@@ -5707,7 +5707,7 @@
       <c r="T105" s="1"/>
     </row>
     <row r="106" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="102"/>
+      <c r="A106" s="103"/>
       <c r="B106" s="5" t="str">
         <f t="shared" si="12"/>
         <v>SHARK</v>
@@ -5733,7 +5733,7 @@
       <c r="T106" s="1"/>
     </row>
     <row r="107" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="102"/>
+      <c r="A107" s="103"/>
       <c r="B107" s="5" t="str">
         <f t="shared" si="12"/>
         <v>CS-CIPHER</v>
@@ -5757,7 +5757,7 @@
       <c r="T107" s="1"/>
     </row>
     <row r="108" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="102"/>
+      <c r="A108" s="103"/>
       <c r="B108" s="5" t="str">
         <f t="shared" si="12"/>
         <v>NUSH</v>
@@ -5783,7 +5783,7 @@
       <c r="T108" s="1"/>
     </row>
     <row r="109" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="102"/>
+      <c r="A109" s="103"/>
       <c r="B109" s="5" t="str">
         <f t="shared" si="12"/>
         <v>GRAND CRU</v>
@@ -5809,7 +5809,7 @@
       <c r="T109" s="1"/>
     </row>
     <row r="110" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="102"/>
+      <c r="A110" s="103"/>
       <c r="B110" s="5" t="str">
         <f t="shared" si="12"/>
         <v>Q</v>
@@ -5833,7 +5833,7 @@
       <c r="T110" s="1"/>
     </row>
     <row r="111" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="102"/>
+      <c r="A111" s="103"/>
       <c r="B111" s="5" t="str">
         <f t="shared" si="12"/>
         <v>E2</v>
@@ -5859,7 +5859,7 @@
       <c r="T111" s="1"/>
     </row>
     <row r="112" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="102"/>
+      <c r="A112" s="103"/>
       <c r="B112" s="5" t="str">
         <f t="shared" si="12"/>
         <v>KHAZAD</v>
@@ -5885,7 +5885,7 @@
       <c r="T112" s="1"/>
     </row>
     <row r="113" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="102"/>
+      <c r="A113" s="103"/>
       <c r="B113" s="5" t="str">
         <f t="shared" si="12"/>
         <v>HIEROCRYPT-L1</v>
@@ -5911,7 +5911,7 @@
       <c r="T113" s="1"/>
     </row>
     <row r="114" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="102"/>
+      <c r="A114" s="103"/>
       <c r="B114" s="5" t="str">
         <f t="shared" si="12"/>
         <v>HIEROCRYPT-3</v>
@@ -5937,7 +5937,7 @@
       <c r="T114" s="1"/>
     </row>
     <row r="115" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="102"/>
+      <c r="A115" s="103"/>
       <c r="B115" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -5961,7 +5961,7 @@
       <c r="T115" s="1"/>
     </row>
     <row r="116" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="85" t="s">
+      <c r="A116" s="104" t="s">
         <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -6002,7 +6002,7 @@
       <c r="T116" s="1"/>
     </row>
     <row r="117" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="86"/>
+      <c r="A117" s="105"/>
       <c r="B117" s="2" t="s">
         <v>14</v>
       </c>
@@ -6041,7 +6041,7 @@
       <c r="T117" s="1"/>
     </row>
     <row r="118" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="86"/>
+      <c r="A118" s="105"/>
       <c r="B118" s="2" t="s">
         <v>22</v>
       </c>
@@ -6080,7 +6080,7 @@
       <c r="T118" s="1"/>
     </row>
     <row r="119" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="86"/>
+      <c r="A119" s="105"/>
       <c r="B119" s="2" t="s">
         <v>21</v>
       </c>
@@ -6119,7 +6119,7 @@
       <c r="T119" s="1"/>
     </row>
     <row r="120" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="86"/>
+      <c r="A120" s="105"/>
       <c r="B120" s="2" t="s">
         <v>19</v>
       </c>
@@ -6158,7 +6158,7 @@
       <c r="T120" s="1"/>
     </row>
     <row r="121" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="86"/>
+      <c r="A121" s="105"/>
       <c r="B121" s="2" t="s">
         <v>17</v>
       </c>
@@ -6197,7 +6197,7 @@
       <c r="T121" s="1"/>
     </row>
     <row r="122" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="86"/>
+      <c r="A122" s="105"/>
       <c r="B122" s="2" t="s">
         <v>24</v>
       </c>
@@ -6236,7 +6236,7 @@
       <c r="T122" s="1"/>
     </row>
     <row r="123" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="86"/>
+      <c r="A123" s="105"/>
       <c r="B123" s="2" t="s">
         <v>16</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="T123" s="1"/>
     </row>
     <row r="124" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="86"/>
+      <c r="A124" s="105"/>
       <c r="B124" s="2" t="s">
         <v>20</v>
       </c>
@@ -6302,7 +6302,7 @@
       <c r="T124" s="1"/>
     </row>
     <row r="125" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="86"/>
+      <c r="A125" s="105"/>
       <c r="B125" s="2" t="s">
         <v>23</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="T125" s="1"/>
     </row>
     <row r="126" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="86"/>
+      <c r="A126" s="105"/>
       <c r="B126" s="2" t="s">
         <v>15</v>
       </c>
@@ -6356,7 +6356,7 @@
       <c r="T126" s="1"/>
     </row>
     <row r="127" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="86"/>
+      <c r="A127" s="105"/>
       <c r="B127" s="2" t="s">
         <v>2</v>
       </c>
@@ -6383,7 +6383,7 @@
       <c r="T127" s="1"/>
     </row>
     <row r="128" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="86"/>
+      <c r="A128" s="105"/>
       <c r="B128" s="2" t="s">
         <v>18</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="T128" s="1"/>
     </row>
     <row r="129" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="86"/>
+      <c r="A129" s="105"/>
       <c r="B129" s="2" t="s">
         <v>25</v>
       </c>
@@ -6437,7 +6437,7 @@
       <c r="T129" s="1"/>
     </row>
     <row r="130" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="86"/>
+      <c r="A130" s="105"/>
       <c r="B130" s="5" t="str">
         <f t="shared" ref="B130:B152" si="13">B93</f>
         <v>XTEA</v>
@@ -6465,7 +6465,7 @@
       <c r="T130" s="1"/>
     </row>
     <row r="131" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="86"/>
+      <c r="A131" s="105"/>
       <c r="B131" s="5" t="str">
         <f t="shared" si="13"/>
         <v>SKIPJECT</v>
@@ -6491,7 +6491,7 @@
       <c r="T131" s="1"/>
     </row>
     <row r="132" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="86"/>
+      <c r="A132" s="105"/>
       <c r="B132" s="5" t="str">
         <f t="shared" si="13"/>
         <v>SPECK</v>
@@ -6517,7 +6517,7 @@
       <c r="T132" s="1"/>
     </row>
     <row r="133" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="86"/>
+      <c r="A133" s="105"/>
       <c r="B133" s="5" t="str">
         <f t="shared" si="13"/>
         <v>SIMON</v>
@@ -6543,7 +6543,7 @@
       <c r="T133" s="1"/>
     </row>
     <row r="134" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="86"/>
+      <c r="A134" s="105"/>
       <c r="B134" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">LUCIFER </v>
@@ -6569,7 +6569,7 @@
       <c r="T134" s="1"/>
     </row>
     <row r="135" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="86"/>
+      <c r="A135" s="105"/>
       <c r="B135" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CLEFIA</v>
@@ -6595,7 +6595,7 @@
       <c r="T135" s="1"/>
     </row>
     <row r="136" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="86"/>
+      <c r="A136" s="105"/>
       <c r="B136" s="5" t="str">
         <f t="shared" si="13"/>
         <v>ARIA</v>
@@ -6621,7 +6621,7 @@
       <c r="T136" s="1"/>
     </row>
     <row r="137" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="86"/>
+      <c r="A137" s="105"/>
       <c r="B137" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CRYPTOMERIA/C2</v>
@@ -6647,7 +6647,7 @@
       <c r="T137" s="1"/>
     </row>
     <row r="138" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="86"/>
+      <c r="A138" s="105"/>
       <c r="B138" s="5" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">PRESENT </v>
@@ -6673,7 +6673,7 @@
       <c r="T138" s="1"/>
     </row>
     <row r="139" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="86"/>
+      <c r="A139" s="105"/>
       <c r="B139" s="5" t="str">
         <f t="shared" si="13"/>
         <v>MACGUFFIN</v>
@@ -6699,7 +6699,7 @@
       <c r="T139" s="1"/>
     </row>
     <row r="140" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="86"/>
+      <c r="A140" s="105"/>
       <c r="B140" s="5" t="str">
         <f t="shared" si="13"/>
         <v>SQUARE</v>
@@ -6725,7 +6725,7 @@
       <c r="T140" s="1"/>
     </row>
     <row r="141" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="86"/>
+      <c r="A141" s="105"/>
       <c r="B141" s="5" t="str">
         <f t="shared" si="13"/>
         <v>M6</v>
@@ -6751,7 +6751,7 @@
       <c r="T141" s="1"/>
     </row>
     <row r="142" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="86"/>
+      <c r="A142" s="105"/>
       <c r="B142" s="5" t="str">
         <f t="shared" si="13"/>
         <v>ICE</v>
@@ -6777,7 +6777,7 @@
       <c r="T142" s="1"/>
     </row>
     <row r="143" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="86"/>
+      <c r="A143" s="105"/>
       <c r="B143" s="5" t="str">
         <f t="shared" si="13"/>
         <v>SHARK</v>
@@ -6803,7 +6803,7 @@
       <c r="T143" s="1"/>
     </row>
     <row r="144" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="86"/>
+      <c r="A144" s="105"/>
       <c r="B144" s="5" t="str">
         <f t="shared" si="13"/>
         <v>CS-CIPHER</v>
@@ -6827,7 +6827,7 @@
       <c r="T144" s="1"/>
     </row>
     <row r="145" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="86"/>
+      <c r="A145" s="105"/>
       <c r="B145" s="5" t="str">
         <f t="shared" si="13"/>
         <v>NUSH</v>
@@ -6853,7 +6853,7 @@
       <c r="T145" s="1"/>
     </row>
     <row r="146" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="86"/>
+      <c r="A146" s="105"/>
       <c r="B146" s="5" t="str">
         <f t="shared" si="13"/>
         <v>GRAND CRU</v>
@@ -6879,7 +6879,7 @@
       <c r="T146" s="1"/>
     </row>
     <row r="147" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="86"/>
+      <c r="A147" s="105"/>
       <c r="B147" s="5" t="str">
         <f t="shared" si="13"/>
         <v>Q</v>
@@ -6903,7 +6903,7 @@
       <c r="T147" s="1"/>
     </row>
     <row r="148" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="86"/>
+      <c r="A148" s="105"/>
       <c r="B148" s="5" t="str">
         <f t="shared" si="13"/>
         <v>E2</v>
@@ -6929,7 +6929,7 @@
       <c r="T148" s="1"/>
     </row>
     <row r="149" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="86"/>
+      <c r="A149" s="105"/>
       <c r="B149" s="5" t="str">
         <f t="shared" si="13"/>
         <v>KHAZAD</v>
@@ -6955,7 +6955,7 @@
       <c r="T149" s="1"/>
     </row>
     <row r="150" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="86"/>
+      <c r="A150" s="105"/>
       <c r="B150" s="5" t="str">
         <f t="shared" si="13"/>
         <v>HIEROCRYPT-L1</v>
@@ -6981,7 +6981,7 @@
       <c r="T150" s="1"/>
     </row>
     <row r="151" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="86"/>
+      <c r="A151" s="105"/>
       <c r="B151" s="5" t="str">
         <f t="shared" si="13"/>
         <v>HIEROCRYPT-3</v>
@@ -7007,7 +7007,7 @@
       <c r="T151" s="1"/>
     </row>
     <row r="152" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="86"/>
+      <c r="A152" s="105"/>
       <c r="B152" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -7031,7 +7031,7 @@
       <c r="T152" s="1"/>
     </row>
     <row r="153" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="85" t="s">
+      <c r="A153" s="104" t="s">
         <v>138</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -7078,7 +7078,7 @@
       <c r="T153" s="1"/>
     </row>
     <row r="154" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="86"/>
+      <c r="A154" s="105"/>
       <c r="B154" s="2" t="s">
         <v>14</v>
       </c>
@@ -7123,7 +7123,7 @@
       <c r="T154" s="1"/>
     </row>
     <row r="155" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="86"/>
+      <c r="A155" s="105"/>
       <c r="B155" s="2" t="s">
         <v>22</v>
       </c>
@@ -7168,7 +7168,7 @@
       <c r="T155" s="1"/>
     </row>
     <row r="156" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="86"/>
+      <c r="A156" s="105"/>
       <c r="B156" s="2" t="s">
         <v>21</v>
       </c>
@@ -7201,7 +7201,7 @@
       </c>
     </row>
     <row r="157" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="86"/>
+      <c r="A157" s="105"/>
       <c r="B157" s="2" t="s">
         <v>19</v>
       </c>
@@ -7234,7 +7234,7 @@
       </c>
     </row>
     <row r="158" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="86"/>
+      <c r="A158" s="105"/>
       <c r="B158" s="2" t="s">
         <v>17</v>
       </c>
@@ -7271,7 +7271,7 @@
       </c>
     </row>
     <row r="159" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="86"/>
+      <c r="A159" s="105"/>
       <c r="B159" s="2" t="s">
         <v>24</v>
       </c>
@@ -7308,7 +7308,7 @@
       </c>
     </row>
     <row r="160" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="86"/>
+      <c r="A160" s="105"/>
       <c r="B160" s="2" t="s">
         <v>16</v>
       </c>
@@ -7345,7 +7345,7 @@
       </c>
     </row>
     <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="86"/>
+      <c r="A161" s="105"/>
       <c r="B161" s="2" t="s">
         <v>20</v>
       </c>
@@ -7382,7 +7382,7 @@
       </c>
     </row>
     <row r="162" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="86"/>
+      <c r="A162" s="105"/>
       <c r="B162" s="2" t="s">
         <v>23</v>
       </c>
@@ -7401,7 +7401,7 @@
       </c>
     </row>
     <row r="163" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="86"/>
+      <c r="A163" s="105"/>
       <c r="B163" s="2" t="s">
         <v>15</v>
       </c>
@@ -7420,7 +7420,7 @@
       </c>
     </row>
     <row r="164" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="86"/>
+      <c r="A164" s="105"/>
       <c r="B164" s="2" t="s">
         <v>2</v>
       </c>
@@ -7439,7 +7439,7 @@
       </c>
     </row>
     <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="86"/>
+      <c r="A165" s="105"/>
       <c r="B165" s="2" t="s">
         <v>18</v>
       </c>
@@ -7458,7 +7458,7 @@
       </c>
     </row>
     <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="86"/>
+      <c r="A166" s="105"/>
       <c r="B166" s="2" t="s">
         <v>25</v>
       </c>
@@ -7473,7 +7473,7 @@
       <c r="I166" s="4"/>
     </row>
     <row r="167" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="86"/>
+      <c r="A167" s="105"/>
       <c r="B167" s="5" t="str">
         <f t="shared" ref="B167:B189" si="26">B130</f>
         <v>XTEA</v>
@@ -7493,7 +7493,7 @@
       </c>
     </row>
     <row r="168" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="86"/>
+      <c r="A168" s="105"/>
       <c r="B168" s="5" t="str">
         <f t="shared" si="26"/>
         <v>SKIPJECT</v>
@@ -7510,7 +7510,7 @@
       <c r="K168" s="19"/>
     </row>
     <row r="169" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="86"/>
+      <c r="A169" s="105"/>
       <c r="B169" s="5" t="str">
         <f t="shared" si="26"/>
         <v>SPECK</v>
@@ -7527,7 +7527,7 @@
       <c r="K169" s="19"/>
     </row>
     <row r="170" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="86"/>
+      <c r="A170" s="105"/>
       <c r="B170" s="5" t="str">
         <f t="shared" si="26"/>
         <v>SIMON</v>
@@ -7544,7 +7544,7 @@
       <c r="K170" s="19"/>
     </row>
     <row r="171" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="86"/>
+      <c r="A171" s="105"/>
       <c r="B171" s="5" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">LUCIFER </v>
@@ -7561,7 +7561,7 @@
       <c r="K171" s="19"/>
     </row>
     <row r="172" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="86"/>
+      <c r="A172" s="105"/>
       <c r="B172" s="5" t="str">
         <f t="shared" si="26"/>
         <v>CLEFIA</v>
@@ -7578,7 +7578,7 @@
       <c r="K172" s="19"/>
     </row>
     <row r="173" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="86"/>
+      <c r="A173" s="105"/>
       <c r="B173" s="5" t="str">
         <f t="shared" si="26"/>
         <v>ARIA</v>
@@ -7595,7 +7595,7 @@
       <c r="K173" s="19"/>
     </row>
     <row r="174" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="86"/>
+      <c r="A174" s="105"/>
       <c r="B174" s="5" t="str">
         <f t="shared" si="26"/>
         <v>CRYPTOMERIA/C2</v>
@@ -7612,7 +7612,7 @@
       <c r="K174" s="19"/>
     </row>
     <row r="175" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="86"/>
+      <c r="A175" s="105"/>
       <c r="B175" s="5" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">PRESENT </v>
@@ -7629,7 +7629,7 @@
       <c r="K175" s="19"/>
     </row>
     <row r="176" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="86"/>
+      <c r="A176" s="105"/>
       <c r="B176" s="5" t="str">
         <f t="shared" si="26"/>
         <v>MACGUFFIN</v>
@@ -7646,7 +7646,7 @@
       <c r="K176" s="19"/>
     </row>
     <row r="177" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="86"/>
+      <c r="A177" s="105"/>
       <c r="B177" s="5" t="str">
         <f t="shared" si="26"/>
         <v>SQUARE</v>
@@ -7663,7 +7663,7 @@
       <c r="K177" s="19"/>
     </row>
     <row r="178" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="86"/>
+      <c r="A178" s="105"/>
       <c r="B178" s="5" t="str">
         <f t="shared" si="26"/>
         <v>M6</v>
@@ -7680,7 +7680,7 @@
       <c r="K178" s="19"/>
     </row>
     <row r="179" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="86"/>
+      <c r="A179" s="105"/>
       <c r="B179" s="5" t="str">
         <f t="shared" si="26"/>
         <v>ICE</v>
@@ -7697,7 +7697,7 @@
       <c r="K179" s="19"/>
     </row>
     <row r="180" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="86"/>
+      <c r="A180" s="105"/>
       <c r="B180" s="5" t="str">
         <f t="shared" si="26"/>
         <v>SHARK</v>
@@ -7714,7 +7714,7 @@
       <c r="K180" s="19"/>
     </row>
     <row r="181" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="86"/>
+      <c r="A181" s="105"/>
       <c r="B181" s="5" t="str">
         <f t="shared" si="26"/>
         <v>CS-CIPHER</v>
@@ -7729,7 +7729,7 @@
       <c r="K181" s="19"/>
     </row>
     <row r="182" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="86"/>
+      <c r="A182" s="105"/>
       <c r="B182" s="5" t="str">
         <f t="shared" si="26"/>
         <v>NUSH</v>
@@ -7746,7 +7746,7 @@
       <c r="K182" s="19"/>
     </row>
     <row r="183" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="86"/>
+      <c r="A183" s="105"/>
       <c r="B183" s="5" t="str">
         <f t="shared" si="26"/>
         <v>GRAND CRU</v>
@@ -7763,7 +7763,7 @@
       <c r="K183" s="19"/>
     </row>
     <row r="184" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="86"/>
+      <c r="A184" s="105"/>
       <c r="B184" s="5" t="str">
         <f t="shared" si="26"/>
         <v>Q</v>
@@ -7778,7 +7778,7 @@
       <c r="K184" s="19"/>
     </row>
     <row r="185" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="86"/>
+      <c r="A185" s="105"/>
       <c r="B185" s="5" t="str">
         <f t="shared" si="26"/>
         <v>E2</v>
@@ -7795,7 +7795,7 @@
       <c r="K185" s="19"/>
     </row>
     <row r="186" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="86"/>
+      <c r="A186" s="105"/>
       <c r="B186" s="5" t="str">
         <f t="shared" si="26"/>
         <v>KHAZAD</v>
@@ -7812,7 +7812,7 @@
       <c r="K186" s="19"/>
     </row>
     <row r="187" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="86"/>
+      <c r="A187" s="105"/>
       <c r="B187" s="5" t="str">
         <f t="shared" si="26"/>
         <v>HIEROCRYPT-L1</v>
@@ -7829,7 +7829,7 @@
       <c r="K187" s="19"/>
     </row>
     <row r="188" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="86"/>
+      <c r="A188" s="105"/>
       <c r="B188" s="5" t="str">
         <f t="shared" si="26"/>
         <v>HIEROCRYPT-3</v>
@@ -7846,7 +7846,7 @@
       <c r="K188" s="19"/>
     </row>
     <row r="189" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="103"/>
+      <c r="A189" s="106"/>
       <c r="B189" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -7861,7 +7861,7 @@
       <c r="K189" s="19"/>
     </row>
     <row r="190" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="85" t="s">
+      <c r="A190" s="104" t="s">
         <v>76</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -7878,7 +7878,7 @@
       <c r="I190" s="4"/>
     </row>
     <row r="191" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="86"/>
+      <c r="A191" s="105"/>
       <c r="B191" s="2" t="s">
         <v>14</v>
       </c>
@@ -7893,7 +7893,7 @@
       <c r="I191" s="4"/>
     </row>
     <row r="192" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="86"/>
+      <c r="A192" s="105"/>
       <c r="B192" s="2" t="s">
         <v>22</v>
       </c>
@@ -7920,7 +7920,7 @@
       </c>
     </row>
     <row r="193" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="86"/>
+      <c r="A193" s="105"/>
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
@@ -7946,7 +7946,7 @@
       </c>
     </row>
     <row r="194" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="86"/>
+      <c r="A194" s="105"/>
       <c r="B194" s="2" t="s">
         <v>19</v>
       </c>
@@ -7974,7 +7974,7 @@
       </c>
     </row>
     <row r="195" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="86"/>
+      <c r="A195" s="105"/>
       <c r="B195" s="2" t="s">
         <v>17</v>
       </c>
@@ -8001,7 +8001,7 @@
       </c>
     </row>
     <row r="196" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="86"/>
+      <c r="A196" s="105"/>
       <c r="B196" s="2" t="s">
         <v>24</v>
       </c>
@@ -8030,7 +8030,7 @@
       </c>
     </row>
     <row r="197" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="86"/>
+      <c r="A197" s="105"/>
       <c r="B197" s="2" t="s">
         <v>16</v>
       </c>
@@ -8057,7 +8057,7 @@
       </c>
     </row>
     <row r="198" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="86"/>
+      <c r="A198" s="105"/>
       <c r="B198" s="2" t="s">
         <v>20</v>
       </c>
@@ -8086,7 +8086,7 @@
       </c>
     </row>
     <row r="199" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="86"/>
+      <c r="A199" s="105"/>
       <c r="B199" s="2" t="s">
         <v>23</v>
       </c>
@@ -8114,7 +8114,7 @@
       </c>
     </row>
     <row r="200" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="86"/>
+      <c r="A200" s="105"/>
       <c r="B200" s="2" t="s">
         <v>15</v>
       </c>
@@ -8133,7 +8133,7 @@
       </c>
     </row>
     <row r="201" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="86"/>
+      <c r="A201" s="105"/>
       <c r="B201" s="2" t="s">
         <v>2</v>
       </c>
@@ -8148,7 +8148,7 @@
       <c r="I201" s="4"/>
     </row>
     <row r="202" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="86"/>
+      <c r="A202" s="105"/>
       <c r="B202" s="2" t="s">
         <v>18</v>
       </c>
@@ -8163,7 +8163,7 @@
       <c r="I202" s="4"/>
     </row>
     <row r="203" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="86"/>
+      <c r="A203" s="105"/>
       <c r="B203" s="2" t="s">
         <v>25</v>
       </c>
@@ -8178,7 +8178,7 @@
       <c r="I203" s="4"/>
     </row>
     <row r="204" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="86"/>
+      <c r="A204" s="105"/>
       <c r="B204" s="5" t="str">
         <f>B167</f>
         <v>XTEA</v>
@@ -8194,7 +8194,7 @@
       <c r="I204" s="4"/>
     </row>
     <row r="205" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="86"/>
+      <c r="A205" s="105"/>
       <c r="B205" s="5" t="str">
         <f>B168</f>
         <v>SKIPJECT</v>
@@ -8210,7 +8210,7 @@
       <c r="I205" s="4"/>
     </row>
     <row r="206" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="86"/>
+      <c r="A206" s="105"/>
       <c r="B206" s="5" t="str">
         <f t="shared" ref="B206:B226" si="28">B169</f>
         <v>SPECK</v>
@@ -8226,7 +8226,7 @@
       <c r="I206" s="4"/>
     </row>
     <row r="207" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="86"/>
+      <c r="A207" s="105"/>
       <c r="B207" s="5" t="str">
         <f t="shared" si="28"/>
         <v>SIMON</v>
@@ -8242,7 +8242,7 @@
       <c r="I207" s="4"/>
     </row>
     <row r="208" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="86"/>
+      <c r="A208" s="105"/>
       <c r="B208" s="5" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">LUCIFER </v>
@@ -8258,7 +8258,7 @@
       <c r="I208" s="4"/>
     </row>
     <row r="209" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="86"/>
+      <c r="A209" s="105"/>
       <c r="B209" s="5" t="str">
         <f t="shared" si="28"/>
         <v>CLEFIA</v>
@@ -8274,7 +8274,7 @@
       <c r="I209" s="4"/>
     </row>
     <row r="210" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="86"/>
+      <c r="A210" s="105"/>
       <c r="B210" s="5" t="str">
         <f t="shared" si="28"/>
         <v>ARIA</v>
@@ -8290,7 +8290,7 @@
       <c r="I210" s="4"/>
     </row>
     <row r="211" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="86"/>
+      <c r="A211" s="105"/>
       <c r="B211" s="5" t="str">
         <f t="shared" si="28"/>
         <v>CRYPTOMERIA/C2</v>
@@ -8306,7 +8306,7 @@
       <c r="I211" s="4"/>
     </row>
     <row r="212" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="86"/>
+      <c r="A212" s="105"/>
       <c r="B212" s="5" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">PRESENT </v>
@@ -8322,7 +8322,7 @@
       <c r="I212" s="4"/>
     </row>
     <row r="213" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="86"/>
+      <c r="A213" s="105"/>
       <c r="B213" s="5" t="str">
         <f t="shared" si="28"/>
         <v>MACGUFFIN</v>
@@ -8338,7 +8338,7 @@
       <c r="I213" s="4"/>
     </row>
     <row r="214" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="86"/>
+      <c r="A214" s="105"/>
       <c r="B214" s="5" t="str">
         <f t="shared" si="28"/>
         <v>SQUARE</v>
@@ -8354,7 +8354,7 @@
       <c r="I214" s="4"/>
     </row>
     <row r="215" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="86"/>
+      <c r="A215" s="105"/>
       <c r="B215" s="5" t="str">
         <f t="shared" si="28"/>
         <v>M6</v>
@@ -8370,7 +8370,7 @@
       <c r="I215" s="4"/>
     </row>
     <row r="216" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="86"/>
+      <c r="A216" s="105"/>
       <c r="B216" s="5" t="str">
         <f t="shared" si="28"/>
         <v>ICE</v>
@@ -8386,7 +8386,7 @@
       <c r="I216" s="4"/>
     </row>
     <row r="217" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="86"/>
+      <c r="A217" s="105"/>
       <c r="B217" s="5" t="str">
         <f t="shared" si="28"/>
         <v>SHARK</v>
@@ -8402,7 +8402,7 @@
       <c r="I217" s="4"/>
     </row>
     <row r="218" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="86"/>
+      <c r="A218" s="105"/>
       <c r="B218" s="5" t="str">
         <f t="shared" si="28"/>
         <v>CS-CIPHER</v>
@@ -8418,7 +8418,7 @@
       <c r="I218" s="4"/>
     </row>
     <row r="219" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="86"/>
+      <c r="A219" s="105"/>
       <c r="B219" s="5" t="str">
         <f t="shared" si="28"/>
         <v>NUSH</v>
@@ -8434,7 +8434,7 @@
       <c r="I219" s="4"/>
     </row>
     <row r="220" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="86"/>
+      <c r="A220" s="105"/>
       <c r="B220" s="5" t="str">
         <f t="shared" si="28"/>
         <v>GRAND CRU</v>
@@ -8450,7 +8450,7 @@
       <c r="I220" s="4"/>
     </row>
     <row r="221" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="86"/>
+      <c r="A221" s="105"/>
       <c r="B221" s="5" t="str">
         <f t="shared" si="28"/>
         <v>Q</v>
@@ -8466,7 +8466,7 @@
       <c r="I221" s="4"/>
     </row>
     <row r="222" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="86"/>
+      <c r="A222" s="105"/>
       <c r="B222" s="5" t="str">
         <f t="shared" si="28"/>
         <v>E2</v>
@@ -8480,7 +8480,7 @@
       <c r="I222" s="4"/>
     </row>
     <row r="223" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="86"/>
+      <c r="A223" s="105"/>
       <c r="B223" s="5" t="str">
         <f t="shared" si="28"/>
         <v>KHAZAD</v>
@@ -8496,7 +8496,7 @@
       <c r="I223" s="4"/>
     </row>
     <row r="224" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="86"/>
+      <c r="A224" s="105"/>
       <c r="B224" s="5" t="str">
         <f t="shared" si="28"/>
         <v>HIEROCRYPT-L1</v>
@@ -8512,7 +8512,7 @@
       <c r="I224" s="4"/>
     </row>
     <row r="225" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="86"/>
+      <c r="A225" s="105"/>
       <c r="B225" s="5" t="str">
         <f t="shared" si="28"/>
         <v>HIEROCRYPT-3</v>
@@ -8528,7 +8528,7 @@
       <c r="I225" s="4"/>
     </row>
     <row r="226" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="86"/>
+      <c r="A226" s="105"/>
       <c r="B226" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -8542,7 +8542,7 @@
       <c r="I226" s="4"/>
     </row>
     <row r="227" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="90" t="s">
+      <c r="A227" s="88" t="s">
         <v>77</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -8557,7 +8557,7 @@
       <c r="I227" s="4"/>
     </row>
     <row r="228" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="91"/>
+      <c r="A228" s="89"/>
       <c r="B228" s="2" t="s">
         <v>14</v>
       </c>
@@ -8570,7 +8570,7 @@
       <c r="I228" s="4"/>
     </row>
     <row r="229" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="91"/>
+      <c r="A229" s="89"/>
       <c r="B229" s="2" t="s">
         <v>22</v>
       </c>
@@ -8583,7 +8583,7 @@
       <c r="I229" s="4"/>
     </row>
     <row r="230" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="91"/>
+      <c r="A230" s="89"/>
       <c r="B230" s="2" t="s">
         <v>21</v>
       </c>
@@ -8596,7 +8596,7 @@
       <c r="I230" s="4"/>
     </row>
     <row r="231" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="91"/>
+      <c r="A231" s="89"/>
       <c r="B231" s="2" t="s">
         <v>19</v>
       </c>
@@ -8609,7 +8609,7 @@
       <c r="I231" s="4"/>
     </row>
     <row r="232" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="91"/>
+      <c r="A232" s="89"/>
       <c r="B232" s="2" t="s">
         <v>17</v>
       </c>
@@ -8622,7 +8622,7 @@
       <c r="I232" s="4"/>
     </row>
     <row r="233" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="91"/>
+      <c r="A233" s="89"/>
       <c r="B233" s="2" t="s">
         <v>24</v>
       </c>
@@ -8635,7 +8635,7 @@
       <c r="I233" s="4"/>
     </row>
     <row r="234" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="91"/>
+      <c r="A234" s="89"/>
       <c r="B234" s="2" t="s">
         <v>16</v>
       </c>
@@ -8648,7 +8648,7 @@
       <c r="I234" s="4"/>
     </row>
     <row r="235" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="91"/>
+      <c r="A235" s="89"/>
       <c r="B235" s="2" t="s">
         <v>20</v>
       </c>
@@ -8661,7 +8661,7 @@
       <c r="I235" s="4"/>
     </row>
     <row r="236" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="91"/>
+      <c r="A236" s="89"/>
       <c r="B236" s="2" t="s">
         <v>23</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="I236" s="4"/>
     </row>
     <row r="237" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="91"/>
+      <c r="A237" s="89"/>
       <c r="B237" s="2" t="s">
         <v>15</v>
       </c>
@@ -8687,7 +8687,7 @@
       <c r="I237" s="4"/>
     </row>
     <row r="238" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="91"/>
+      <c r="A238" s="89"/>
       <c r="B238" s="2" t="s">
         <v>2</v>
       </c>
@@ -8700,7 +8700,7 @@
       <c r="I238" s="4"/>
     </row>
     <row r="239" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="91"/>
+      <c r="A239" s="89"/>
       <c r="B239" s="2" t="s">
         <v>18</v>
       </c>
@@ -8713,7 +8713,7 @@
       <c r="I239" s="4"/>
     </row>
     <row r="240" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="91"/>
+      <c r="A240" s="89"/>
       <c r="B240" s="2" t="s">
         <v>25</v>
       </c>
@@ -8726,7 +8726,7 @@
       <c r="I240" s="4"/>
     </row>
     <row r="241" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="92"/>
+      <c r="A241" s="90"/>
       <c r="B241" s="5" t="str">
         <f>B204</f>
         <v>XTEA</v>
@@ -8741,6 +8741,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="O90:Q90"/>
+    <mergeCell ref="R90:T90"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="L88:N88"/>
+    <mergeCell ref="O88:Q88"/>
+    <mergeCell ref="R88:T88"/>
+    <mergeCell ref="L89:N89"/>
+    <mergeCell ref="O89:Q89"/>
+    <mergeCell ref="R89:T89"/>
     <mergeCell ref="A227:A241"/>
     <mergeCell ref="L41:N41"/>
     <mergeCell ref="O41:Q41"/>
@@ -8755,20 +8769,6 @@
     <mergeCell ref="A116:A152"/>
     <mergeCell ref="A153:A189"/>
     <mergeCell ref="A190:A226"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="O90:Q90"/>
-    <mergeCell ref="R90:T90"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="L88:N88"/>
-    <mergeCell ref="O88:Q88"/>
-    <mergeCell ref="R88:T88"/>
-    <mergeCell ref="L89:N89"/>
-    <mergeCell ref="O89:Q89"/>
-    <mergeCell ref="R89:T89"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8780,8 +8780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:C46"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8845,10 +8845,10 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="121">
+      <c r="D2" s="86">
         <v>1</v>
       </c>
-      <c r="E2" s="121">
+      <c r="E2" s="86">
         <v>1</v>
       </c>
       <c r="F2">
@@ -8857,22 +8857,22 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="120">
-        <v>0</v>
-      </c>
-      <c r="I2" s="120">
+      <c r="H2" s="85">
+        <v>0</v>
+      </c>
+      <c r="I2" s="85">
         <v>0</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
-      <c r="K2" s="120">
-        <v>0</v>
-      </c>
-      <c r="L2" s="120">
-        <v>0</v>
-      </c>
-      <c r="M2" s="120">
+      <c r="K2" s="85">
+        <v>0</v>
+      </c>
+      <c r="L2" s="85">
+        <v>0</v>
+      </c>
+      <c r="M2" s="85">
         <v>0</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -8889,10 +8889,10 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="121">
-        <v>0</v>
-      </c>
-      <c r="E3" s="121">
+      <c r="D3" s="86">
+        <v>0</v>
+      </c>
+      <c r="E3" s="86">
         <v>0</v>
       </c>
       <c r="F3">
@@ -8901,22 +8901,22 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="120">
-        <v>0</v>
-      </c>
-      <c r="I3" s="120">
+      <c r="H3" s="85">
+        <v>0</v>
+      </c>
+      <c r="I3" s="85">
         <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="120">
-        <v>0</v>
-      </c>
-      <c r="L3" s="120">
-        <v>0</v>
-      </c>
-      <c r="M3" s="120">
+      <c r="K3" s="85">
+        <v>0</v>
+      </c>
+      <c r="L3" s="85">
+        <v>0</v>
+      </c>
+      <c r="M3" s="85">
         <v>0</v>
       </c>
       <c r="P3" s="2" t="s">
@@ -8933,10 +8933,10 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="121">
-        <v>0</v>
-      </c>
-      <c r="E4" s="121">
+      <c r="D4" s="86">
+        <v>0</v>
+      </c>
+      <c r="E4" s="86">
         <v>0</v>
       </c>
       <c r="F4">
@@ -8945,22 +8945,22 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="120">
-        <v>0</v>
-      </c>
-      <c r="I4" s="120">
+      <c r="H4" s="85">
+        <v>0</v>
+      </c>
+      <c r="I4" s="85">
         <v>0</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
-      <c r="K4" s="120">
-        <v>0</v>
-      </c>
-      <c r="L4" s="120">
-        <v>0</v>
-      </c>
-      <c r="M4" s="120">
+      <c r="K4" s="85">
+        <v>0</v>
+      </c>
+      <c r="L4" s="85">
+        <v>0</v>
+      </c>
+      <c r="M4" s="85">
         <v>0</v>
       </c>
       <c r="P4" s="2" t="s">
@@ -8977,10 +8977,10 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="121">
-        <v>0</v>
-      </c>
-      <c r="E5" s="121">
+      <c r="D5" s="86">
+        <v>0</v>
+      </c>
+      <c r="E5" s="86">
         <v>0</v>
       </c>
       <c r="F5">
@@ -8989,22 +8989,22 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="120">
-        <v>0</v>
-      </c>
-      <c r="I5" s="120">
+      <c r="H5" s="85">
+        <v>0</v>
+      </c>
+      <c r="I5" s="85">
         <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="120">
-        <v>0</v>
-      </c>
-      <c r="L5" s="120">
-        <v>0</v>
-      </c>
-      <c r="M5" s="120">
+      <c r="K5" s="85">
+        <v>0</v>
+      </c>
+      <c r="L5" s="85">
+        <v>0</v>
+      </c>
+      <c r="M5" s="85">
         <v>0</v>
       </c>
       <c r="P5" s="2" t="s">
@@ -9021,10 +9021,10 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" s="121">
-        <v>0</v>
-      </c>
-      <c r="E6" s="121">
+      <c r="D6" s="86">
+        <v>0</v>
+      </c>
+      <c r="E6" s="86">
         <v>0</v>
       </c>
       <c r="F6">
@@ -9033,22 +9033,22 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="120">
-        <v>0</v>
-      </c>
-      <c r="I6" s="120">
+      <c r="H6" s="85">
+        <v>0</v>
+      </c>
+      <c r="I6" s="85">
         <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="120">
-        <v>0</v>
-      </c>
-      <c r="L6" s="120">
-        <v>0</v>
-      </c>
-      <c r="M6" s="120">
+      <c r="K6" s="85">
+        <v>0</v>
+      </c>
+      <c r="L6" s="85">
+        <v>0</v>
+      </c>
+      <c r="M6" s="85">
         <v>0</v>
       </c>
       <c r="P6" s="2" t="s">
@@ -9065,10 +9065,10 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="121">
-        <v>0</v>
-      </c>
-      <c r="E7" s="121">
+      <c r="D7" s="86">
+        <v>0</v>
+      </c>
+      <c r="E7" s="86">
         <v>0</v>
       </c>
       <c r="F7">
@@ -9077,22 +9077,22 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="120">
-        <v>0</v>
-      </c>
-      <c r="I7" s="120">
+      <c r="H7" s="85">
+        <v>0</v>
+      </c>
+      <c r="I7" s="85">
         <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="120">
-        <v>0</v>
-      </c>
-      <c r="L7" s="120">
-        <v>0</v>
-      </c>
-      <c r="M7" s="120">
+      <c r="K7" s="85">
+        <v>0</v>
+      </c>
+      <c r="L7" s="85">
+        <v>0</v>
+      </c>
+      <c r="M7" s="85">
         <v>0</v>
       </c>
       <c r="P7" s="2" t="s">
@@ -9109,10 +9109,10 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="122">
+      <c r="D8" s="87">
         <v>1</v>
       </c>
-      <c r="E8" s="120">
+      <c r="E8" s="85">
         <v>0</v>
       </c>
       <c r="F8">
@@ -9121,10 +9121,10 @@
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" s="120">
-        <v>0</v>
-      </c>
-      <c r="I8" s="120">
+      <c r="H8" s="85">
+        <v>0</v>
+      </c>
+      <c r="I8" s="85">
         <v>0</v>
       </c>
       <c r="J8">
@@ -9133,10 +9133,10 @@
       <c r="K8">
         <v>3</v>
       </c>
-      <c r="L8" s="121">
+      <c r="L8" s="86">
         <v>1</v>
       </c>
-      <c r="M8" s="120">
+      <c r="M8" s="85">
         <v>0</v>
       </c>
       <c r="P8" s="2" t="s">
@@ -9153,10 +9153,10 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="122">
-        <v>0</v>
-      </c>
-      <c r="E9" s="120">
+      <c r="D9" s="87">
+        <v>0</v>
+      </c>
+      <c r="E9" s="85">
         <v>0</v>
       </c>
       <c r="F9">
@@ -9165,10 +9165,10 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="120">
-        <v>0</v>
-      </c>
-      <c r="I9" s="120">
+      <c r="H9" s="85">
+        <v>0</v>
+      </c>
+      <c r="I9" s="85">
         <v>0</v>
       </c>
       <c r="J9">
@@ -9177,10 +9177,10 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="121">
-        <v>0</v>
-      </c>
-      <c r="M9" s="120">
+      <c r="L9" s="86">
+        <v>0</v>
+      </c>
+      <c r="M9" s="85">
         <v>0</v>
       </c>
       <c r="P9" s="2" t="s">
@@ -9197,10 +9197,10 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="122">
-        <v>0</v>
-      </c>
-      <c r="E10" s="120">
+      <c r="D10" s="87">
+        <v>0</v>
+      </c>
+      <c r="E10" s="85">
         <v>0</v>
       </c>
       <c r="F10">
@@ -9209,10 +9209,10 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="120">
-        <v>0</v>
-      </c>
-      <c r="I10" s="120">
+      <c r="H10" s="85">
+        <v>0</v>
+      </c>
+      <c r="I10" s="85">
         <v>0</v>
       </c>
       <c r="J10">
@@ -9221,10 +9221,10 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" s="121">
-        <v>0</v>
-      </c>
-      <c r="M10" s="120">
+      <c r="L10" s="86">
+        <v>0</v>
+      </c>
+      <c r="M10" s="85">
         <v>0</v>
       </c>
       <c r="P10" s="2" t="s">
@@ -9241,10 +9241,10 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="122">
-        <v>0</v>
-      </c>
-      <c r="E11" s="120">
+      <c r="D11" s="87">
+        <v>0</v>
+      </c>
+      <c r="E11" s="85">
         <v>0</v>
       </c>
       <c r="F11">
@@ -9253,10 +9253,10 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="120">
-        <v>0</v>
-      </c>
-      <c r="I11" s="120">
+      <c r="H11" s="85">
+        <v>0</v>
+      </c>
+      <c r="I11" s="85">
         <v>0</v>
       </c>
       <c r="J11">
@@ -9265,10 +9265,10 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" s="121">
-        <v>0</v>
-      </c>
-      <c r="M11" s="120">
+      <c r="L11" s="86">
+        <v>0</v>
+      </c>
+      <c r="M11" s="85">
         <v>0</v>
       </c>
       <c r="P11" s="2" t="s">
@@ -9285,34 +9285,34 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="122">
+      <c r="D12" s="87">
         <v>1</v>
       </c>
-      <c r="E12" s="122">
+      <c r="E12" s="87">
         <v>1</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12" s="121">
-        <v>0</v>
-      </c>
-      <c r="H12" s="120">
-        <v>0</v>
-      </c>
-      <c r="I12" s="120">
+      <c r="G12" s="86">
+        <v>0</v>
+      </c>
+      <c r="H12" s="85">
+        <v>0</v>
+      </c>
+      <c r="I12" s="85">
         <v>0</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
-      <c r="K12" s="121">
+      <c r="K12" s="86">
         <v>1</v>
       </c>
-      <c r="L12" s="120">
-        <v>0</v>
-      </c>
-      <c r="M12" s="120">
+      <c r="L12" s="85">
+        <v>0</v>
+      </c>
+      <c r="M12" s="85">
         <v>0</v>
       </c>
       <c r="P12" s="2" t="s">
@@ -9329,34 +9329,34 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="122">
-        <v>0</v>
-      </c>
-      <c r="E13" s="122">
+      <c r="D13" s="87">
+        <v>0</v>
+      </c>
+      <c r="E13" s="87">
         <v>0</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="121">
+      <c r="G13" s="86">
         <v>1</v>
       </c>
-      <c r="H13" s="120">
-        <v>0</v>
-      </c>
-      <c r="I13" s="120">
+      <c r="H13" s="85">
+        <v>0</v>
+      </c>
+      <c r="I13" s="85">
         <v>0</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" s="121">
-        <v>0</v>
-      </c>
-      <c r="L13" s="120">
-        <v>0</v>
-      </c>
-      <c r="M13" s="120">
+      <c r="K13" s="86">
+        <v>0</v>
+      </c>
+      <c r="L13" s="85">
+        <v>0</v>
+      </c>
+      <c r="M13" s="85">
         <v>0</v>
       </c>
       <c r="P13" s="2" t="s">
@@ -9373,34 +9373,34 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="122">
-        <v>0</v>
-      </c>
-      <c r="E14" s="122">
+      <c r="D14" s="87">
+        <v>0</v>
+      </c>
+      <c r="E14" s="87">
         <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="121">
-        <v>0</v>
-      </c>
-      <c r="H14" s="120">
-        <v>0</v>
-      </c>
-      <c r="I14" s="120">
+      <c r="G14" s="86">
+        <v>0</v>
+      </c>
+      <c r="H14" s="85">
+        <v>0</v>
+      </c>
+      <c r="I14" s="85">
         <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14" s="121">
-        <v>0</v>
-      </c>
-      <c r="L14" s="120">
-        <v>0</v>
-      </c>
-      <c r="M14" s="120">
+      <c r="K14" s="86">
+        <v>0</v>
+      </c>
+      <c r="L14" s="85">
+        <v>0</v>
+      </c>
+      <c r="M14" s="85">
         <v>0</v>
       </c>
       <c r="P14" s="2" t="s">
@@ -9417,34 +9417,34 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="122">
-        <v>0</v>
-      </c>
-      <c r="E15" s="122">
+      <c r="D15" s="87">
+        <v>0</v>
+      </c>
+      <c r="E15" s="87">
         <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="121">
-        <v>0</v>
-      </c>
-      <c r="H15" s="120">
-        <v>0</v>
-      </c>
-      <c r="I15" s="120">
+      <c r="G15" s="86">
+        <v>0</v>
+      </c>
+      <c r="H15" s="85">
+        <v>0</v>
+      </c>
+      <c r="I15" s="85">
         <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" s="121">
-        <v>0</v>
-      </c>
-      <c r="L15" s="120">
-        <v>0</v>
-      </c>
-      <c r="M15" s="120">
+      <c r="K15" s="86">
+        <v>0</v>
+      </c>
+      <c r="L15" s="85">
+        <v>0</v>
+      </c>
+      <c r="M15" s="85">
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
@@ -9461,34 +9461,34 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="122">
-        <v>0</v>
-      </c>
-      <c r="E16" s="122">
+      <c r="D16" s="87">
+        <v>0</v>
+      </c>
+      <c r="E16" s="87">
         <v>0</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="121">
-        <v>0</v>
-      </c>
-      <c r="H16" s="120">
-        <v>0</v>
-      </c>
-      <c r="I16" s="120">
+      <c r="G16" s="86">
+        <v>0</v>
+      </c>
+      <c r="H16" s="85">
+        <v>0</v>
+      </c>
+      <c r="I16" s="85">
         <v>0</v>
       </c>
       <c r="J16">
         <v>3</v>
       </c>
-      <c r="K16" s="121">
-        <v>0</v>
-      </c>
-      <c r="L16" s="120">
-        <v>0</v>
-      </c>
-      <c r="M16" s="120">
+      <c r="K16" s="86">
+        <v>0</v>
+      </c>
+      <c r="L16" s="85">
+        <v>0</v>
+      </c>
+      <c r="M16" s="85">
         <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
@@ -9533,7 +9533,7 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="120">
+      <c r="E19" s="85">
         <v>0</v>
       </c>
       <c r="P19" s="5" t="s">
@@ -9553,7 +9553,7 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="120">
+      <c r="E20" s="85">
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
@@ -9573,7 +9573,7 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21" s="120">
+      <c r="E21" s="85">
         <v>0</v>
       </c>
       <c r="P21" s="5" t="s">
@@ -9593,7 +9593,7 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="120">
+      <c r="E22" s="85">
         <v>0</v>
       </c>
       <c r="P22" s="5" t="s">
@@ -9738,16 +9738,16 @@
       <c r="A30" t="s">
         <v>233</v>
       </c>
-      <c r="B30" s="120">
-        <v>0</v>
-      </c>
-      <c r="C30" s="120">
-        <v>0</v>
-      </c>
-      <c r="D30" s="120">
-        <v>0</v>
-      </c>
-      <c r="E30" s="120">
+      <c r="B30" s="85">
+        <v>0</v>
+      </c>
+      <c r="C30" s="85">
+        <v>0</v>
+      </c>
+      <c r="D30" s="85">
+        <v>0</v>
+      </c>
+      <c r="E30" s="85">
         <v>0</v>
       </c>
       <c r="P30" s="5" t="s">
@@ -9758,16 +9758,16 @@
       <c r="A31" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="120">
-        <v>0</v>
-      </c>
-      <c r="C31" s="120">
-        <v>0</v>
-      </c>
-      <c r="D31" s="120">
-        <v>0</v>
-      </c>
-      <c r="E31" s="120">
+      <c r="B31" s="85">
+        <v>0</v>
+      </c>
+      <c r="C31" s="85">
+        <v>0</v>
+      </c>
+      <c r="D31" s="85">
+        <v>0</v>
+      </c>
+      <c r="E31" s="85">
         <v>0</v>
       </c>
       <c r="P31" s="5" t="s">
@@ -9778,16 +9778,16 @@
       <c r="A32" t="s">
         <v>235</v>
       </c>
-      <c r="B32" s="120">
-        <v>0</v>
-      </c>
-      <c r="C32" s="120">
-        <v>0</v>
-      </c>
-      <c r="D32" s="120">
-        <v>0</v>
-      </c>
-      <c r="E32" s="120">
+      <c r="B32" s="85">
+        <v>0</v>
+      </c>
+      <c r="C32" s="85">
+        <v>0</v>
+      </c>
+      <c r="D32" s="85">
+        <v>0</v>
+      </c>
+      <c r="E32" s="85">
         <v>0</v>
       </c>
       <c r="P32" s="5" t="s">
@@ -9795,24 +9795,24 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="85" t="s">
         <v>251</v>
       </c>
-      <c r="C34" s="120" t="s">
+      <c r="C34" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
       <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9847,10 +9847,10 @@
       <c r="A37" t="s">
         <v>238</v>
       </c>
-      <c r="B37" s="120" t="s">
+      <c r="B37" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="C37" s="120" t="s">
+      <c r="C37" s="85" t="s">
         <v>258</v>
       </c>
       <c r="P37" s="5" t="s">
@@ -9861,10 +9861,10 @@
       <c r="A38" t="s">
         <v>239</v>
       </c>
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="120" t="s">
+      <c r="C38" s="85" t="s">
         <v>259</v>
       </c>
       <c r="P38" s="5" t="s">
@@ -9875,10 +9875,10 @@
       <c r="A39" t="s">
         <v>240</v>
       </c>
-      <c r="B39" s="120" t="s">
+      <c r="B39" s="85" t="s">
         <v>255</v>
       </c>
-      <c r="C39" s="120" t="s">
+      <c r="C39" s="85" t="s">
         <v>255</v>
       </c>
     </row>
@@ -9886,10 +9886,10 @@
       <c r="A40" t="s">
         <v>241</v>
       </c>
-      <c r="B40" s="120" t="s">
+      <c r="B40" s="85" t="s">
         <v>255</v>
       </c>
-      <c r="C40" s="120" t="s">
+      <c r="C40" s="85" t="s">
         <v>260</v>
       </c>
     </row>
@@ -9897,10 +9897,10 @@
       <c r="A41" t="s">
         <v>242</v>
       </c>
-      <c r="B41" s="120" t="s">
+      <c r="B41" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="C41" s="120" t="s">
+      <c r="C41" s="85" t="s">
         <v>254</v>
       </c>
     </row>
@@ -9908,10 +9908,10 @@
       <c r="A42" t="s">
         <v>243</v>
       </c>
-      <c r="B42" s="120" t="s">
+      <c r="B42" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="C42" s="120" t="s">
+      <c r="C42" s="85" t="s">
         <v>255</v>
       </c>
     </row>
@@ -9919,10 +9919,10 @@
       <c r="A43" t="s">
         <v>244</v>
       </c>
-      <c r="B43" s="120" t="s">
+      <c r="B43" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="C43" s="120" t="s">
+      <c r="C43" s="85" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9930,10 +9930,10 @@
       <c r="A44" t="s">
         <v>245</v>
       </c>
-      <c r="B44" s="120" t="s">
+      <c r="B44" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="C44" s="120" t="s">
+      <c r="C44" s="85" t="s">
         <v>95</v>
       </c>
     </row>
@@ -9941,10 +9941,10 @@
       <c r="A45" t="s">
         <v>246</v>
       </c>
-      <c r="B45" s="120" t="s">
+      <c r="B45" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="C45" s="120" t="s">
+      <c r="C45" s="85" t="s">
         <v>265</v>
       </c>
     </row>
@@ -9952,10 +9952,10 @@
       <c r="A46" t="s">
         <v>247</v>
       </c>
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="C46" s="120" t="s">
+      <c r="C46" s="85" t="s">
         <v>262</v>
       </c>
     </row>
@@ -9969,7 +9969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
@@ -9993,51 +9993,51 @@
       <c r="A1" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="110" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="108" t="s">
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="105" t="s">
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="107"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="109"/>
+      <c r="AJ1" s="109"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="110"/>
     </row>
     <row r="2" spans="1:39" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="29"/>
@@ -12516,51 +12516,51 @@
       <c r="A39" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="110" t="s">
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="111"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="111"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="111"/>
-      <c r="P39" s="111"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="108" t="s">
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="114"/>
+      <c r="N39" s="114"/>
+      <c r="O39" s="114"/>
+      <c r="P39" s="114"/>
+      <c r="Q39" s="114"/>
+      <c r="R39" s="114"/>
+      <c r="S39" s="114"/>
+      <c r="T39" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="U39" s="108"/>
-      <c r="V39" s="108"/>
-      <c r="W39" s="108"/>
-      <c r="X39" s="108"/>
-      <c r="Y39" s="108"/>
-      <c r="Z39" s="108"/>
-      <c r="AA39" s="108"/>
-      <c r="AB39" s="108"/>
-      <c r="AC39" s="109"/>
-      <c r="AD39" s="105" t="s">
+      <c r="U39" s="111"/>
+      <c r="V39" s="111"/>
+      <c r="W39" s="111"/>
+      <c r="X39" s="111"/>
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="111"/>
+      <c r="AA39" s="111"/>
+      <c r="AB39" s="111"/>
+      <c r="AC39" s="112"/>
+      <c r="AD39" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="AE39" s="106"/>
-      <c r="AF39" s="106"/>
-      <c r="AG39" s="106"/>
-      <c r="AH39" s="106"/>
-      <c r="AI39" s="106"/>
-      <c r="AJ39" s="106"/>
-      <c r="AK39" s="106"/>
-      <c r="AL39" s="107"/>
+      <c r="AE39" s="109"/>
+      <c r="AF39" s="109"/>
+      <c r="AG39" s="109"/>
+      <c r="AH39" s="109"/>
+      <c r="AI39" s="109"/>
+      <c r="AJ39" s="109"/>
+      <c r="AK39" s="109"/>
+      <c r="AL39" s="110"/>
     </row>
     <row r="40" spans="1:38" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A40" s="29"/>
@@ -13625,51 +13625,51 @@
       <c r="A58" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="110" t="s">
+      <c r="C58" s="107"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="I58" s="111"/>
-      <c r="J58" s="111"/>
-      <c r="K58" s="111"/>
-      <c r="L58" s="111"/>
-      <c r="M58" s="111"/>
-      <c r="N58" s="111"/>
-      <c r="O58" s="111"/>
-      <c r="P58" s="111"/>
-      <c r="Q58" s="111"/>
-      <c r="R58" s="111"/>
-      <c r="S58" s="111"/>
-      <c r="T58" s="108" t="s">
+      <c r="I58" s="114"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="114"/>
+      <c r="L58" s="114"/>
+      <c r="M58" s="114"/>
+      <c r="N58" s="114"/>
+      <c r="O58" s="114"/>
+      <c r="P58" s="114"/>
+      <c r="Q58" s="114"/>
+      <c r="R58" s="114"/>
+      <c r="S58" s="114"/>
+      <c r="T58" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="U58" s="108"/>
-      <c r="V58" s="108"/>
-      <c r="W58" s="108"/>
-      <c r="X58" s="108"/>
-      <c r="Y58" s="108"/>
-      <c r="Z58" s="108"/>
-      <c r="AA58" s="108"/>
-      <c r="AB58" s="108"/>
-      <c r="AC58" s="109"/>
-      <c r="AD58" s="105" t="s">
+      <c r="U58" s="111"/>
+      <c r="V58" s="111"/>
+      <c r="W58" s="111"/>
+      <c r="X58" s="111"/>
+      <c r="Y58" s="111"/>
+      <c r="Z58" s="111"/>
+      <c r="AA58" s="111"/>
+      <c r="AB58" s="111"/>
+      <c r="AC58" s="112"/>
+      <c r="AD58" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="AE58" s="106"/>
-      <c r="AF58" s="106"/>
-      <c r="AG58" s="106"/>
-      <c r="AH58" s="106"/>
-      <c r="AI58" s="106"/>
-      <c r="AJ58" s="106"/>
-      <c r="AK58" s="106"/>
-      <c r="AL58" s="107"/>
+      <c r="AE58" s="109"/>
+      <c r="AF58" s="109"/>
+      <c r="AG58" s="109"/>
+      <c r="AH58" s="109"/>
+      <c r="AI58" s="109"/>
+      <c r="AJ58" s="109"/>
+      <c r="AK58" s="109"/>
+      <c r="AL58" s="110"/>
     </row>
     <row r="59" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
@@ -18057,13 +18057,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="112">
+      <c r="C2" s="115">
         <v>500</v>
       </c>
       <c r="D2" s="77" t="s">
@@ -18089,9 +18089,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="113"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
       <c r="D3" s="77" t="s">
         <v>14</v>
       </c>
@@ -18115,9 +18115,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="113"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
       <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
@@ -18141,9 +18141,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="77" t="s">
         <v>21</v>
       </c>
@@ -18167,9 +18167,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="77" t="s">
         <v>19</v>
       </c>
@@ -18193,9 +18193,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="114"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
       <c r="D7" s="77" t="s">
         <v>16</v>
       </c>
@@ -18219,13 +18219,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="115" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="115" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="77" t="s">
@@ -18245,9 +18245,9 @@
       <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="113"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="77" t="s">
         <v>14</v>
       </c>
@@ -18265,9 +18265,9 @@
       <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="77" t="s">
         <v>22</v>
       </c>
@@ -18285,9 +18285,9 @@
       <c r="I10" s="79"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="113"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="77" t="s">
         <v>21</v>
       </c>
@@ -18305,9 +18305,9 @@
       <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="77" t="s">
         <v>19</v>
       </c>
@@ -18325,9 +18325,9 @@
       <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="77" t="s">
         <v>16</v>
       </c>
@@ -18345,11 +18345,11 @@
       <c r="I13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="77" t="s">
         <v>13</v>
       </c>
@@ -18364,9 +18364,9 @@
       <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="77" t="s">
         <v>14</v>
       </c>
@@ -18381,9 +18381,9 @@
       <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="77" t="s">
         <v>22</v>
       </c>
@@ -18398,9 +18398,9 @@
       <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
@@ -18415,9 +18415,9 @@
       <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="113"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="77" t="s">
         <v>19</v>
       </c>
@@ -18432,9 +18432,9 @@
       <c r="I18" s="79"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="114"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="77" t="s">
         <v>16</v>
       </c>
@@ -18449,11 +18449,11 @@
       <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="77" t="s">
         <v>13</v>
       </c>
@@ -18468,9 +18468,9 @@
       <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="113"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
       <c r="D21" s="77" t="s">
         <v>14</v>
       </c>
@@ -18485,9 +18485,9 @@
       <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="77" t="s">
         <v>22</v>
       </c>
@@ -18502,9 +18502,9 @@
       <c r="I22" s="79"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="77" t="s">
         <v>21</v>
       </c>
@@ -18519,9 +18519,9 @@
       <c r="I23" s="79"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
       <c r="D24" s="77" t="s">
         <v>19</v>
       </c>
@@ -18536,9 +18536,9 @@
       <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="114"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
       <c r="D25" s="77" t="s">
         <v>16</v>
       </c>
@@ -18583,13 +18583,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="112" t="s">
+      <c r="A30" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="112">
+      <c r="C30" s="115">
         <v>500</v>
       </c>
       <c r="D30" s="77" t="s">
@@ -18614,9 +18614,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
       <c r="D31" s="77" t="s">
         <v>14</v>
       </c>
@@ -18639,9 +18639,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="77" t="s">
         <v>22</v>
       </c>
@@ -18664,9 +18664,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
       <c r="D33" s="77" t="s">
         <v>21</v>
       </c>
@@ -18689,9 +18689,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="113"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
       <c r="D34" s="77" t="s">
         <v>19</v>
       </c>
@@ -18714,9 +18714,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="114"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
       <c r="D35" s="77" t="s">
         <v>16</v>
       </c>
@@ -18739,13 +18739,13 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="115" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="112">
+      <c r="C36" s="115">
         <v>1000</v>
       </c>
       <c r="D36" s="77" t="s">
@@ -18766,9 +18766,9 @@
       <c r="I36" s="79"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="113"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="77" t="s">
         <v>14</v>
       </c>
@@ -18787,9 +18787,9 @@
       <c r="I37" s="79"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="113"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
       <c r="D38" s="77" t="s">
         <v>22</v>
       </c>
@@ -18808,9 +18808,9 @@
       <c r="I38" s="79"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
       <c r="D39" s="77" t="s">
         <v>21</v>
       </c>
@@ -18829,9 +18829,9 @@
       <c r="I39" s="79"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
       <c r="D40" s="77" t="s">
         <v>19</v>
       </c>
@@ -18850,9 +18850,9 @@
       <c r="I40" s="79"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="114"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
       <c r="D41" s="77" t="s">
         <v>16</v>
       </c>
@@ -18872,24 +18872,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C8:C13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="C36:C41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18907,24 +18907,24 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="119"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="122"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="92"/>
-      <c r="B2" s="116"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="119"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -18945,7 +18945,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="88" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -18959,7 +18959,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="91"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -18971,7 +18971,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -18983,7 +18983,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -18995,7 +18995,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="91"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -19007,7 +19007,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="91"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -19019,7 +19019,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="91"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -19031,7 +19031,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="91"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -19043,7 +19043,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="91"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -19055,7 +19055,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="91"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -19067,7 +19067,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -19079,7 +19079,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="91"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -19091,7 +19091,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="91"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -19103,7 +19103,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="91"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -19115,7 +19115,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="91"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -19127,7 +19127,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="91"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -19139,7 +19139,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="91"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -19151,7 +19151,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="91"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -19163,7 +19163,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="91"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -19175,7 +19175,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="91"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -19187,7 +19187,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="91"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -19199,7 +19199,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="91"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -19211,7 +19211,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="91"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
@@ -19223,7 +19223,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="91"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
@@ -19235,7 +19235,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="91"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
@@ -19247,7 +19247,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="91"/>
+      <c r="A28" s="89"/>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -19259,7 +19259,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="91"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
@@ -19271,7 +19271,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="91"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
@@ -19283,7 +19283,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="91"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
@@ -19295,7 +19295,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="91"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
@@ -19307,7 +19307,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="91"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
@@ -19319,7 +19319,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="91"/>
+      <c r="A34" s="89"/>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
@@ -19331,7 +19331,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="91"/>
+      <c r="A35" s="89"/>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
@@ -19343,7 +19343,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="91"/>
+      <c r="A36" s="89"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
@@ -19355,7 +19355,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="91"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
@@ -19367,7 +19367,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="92"/>
+      <c r="A38" s="90"/>
       <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
@@ -19379,7 +19379,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -19393,7 +19393,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="91"/>
+      <c r="A40" s="89"/>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
@@ -19405,7 +19405,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="91"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
@@ -19417,7 +19417,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="91"/>
+      <c r="A42" s="89"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -19429,7 +19429,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="91"/>
+      <c r="A43" s="89"/>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
@@ -19441,7 +19441,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="91"/>
+      <c r="A44" s="89"/>
       <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
@@ -19453,7 +19453,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="91"/>
+      <c r="A45" s="89"/>
       <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
@@ -19465,7 +19465,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="91"/>
+      <c r="A46" s="89"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -19477,7 +19477,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="91"/>
+      <c r="A47" s="89"/>
       <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
@@ -19489,7 +19489,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="91"/>
+      <c r="A48" s="89"/>
       <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
@@ -19501,7 +19501,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="91"/>
+      <c r="A49" s="89"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
       </c>
@@ -19513,7 +19513,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="91"/>
+      <c r="A50" s="89"/>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
@@ -19525,7 +19525,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="91"/>
+      <c r="A51" s="89"/>
       <c r="B51" s="2" t="s">
         <v>24</v>
       </c>
@@ -19537,7 +19537,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="91"/>
+      <c r="A52" s="89"/>
       <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
@@ -19549,7 +19549,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="91"/>
+      <c r="A53" s="89"/>
       <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
@@ -19561,7 +19561,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="91"/>
+      <c r="A54" s="89"/>
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -19573,7 +19573,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="91"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
@@ -19585,7 +19585,7 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="91"/>
+      <c r="A56" s="89"/>
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
@@ -19597,7 +19597,7 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="91"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="2" t="s">
         <v>29</v>
       </c>
@@ -19609,7 +19609,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="91"/>
+      <c r="A58" s="89"/>
       <c r="B58" s="2" t="s">
         <v>30</v>
       </c>
@@ -19621,7 +19621,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="91"/>
+      <c r="A59" s="89"/>
       <c r="B59" s="2" t="s">
         <v>31</v>
       </c>
@@ -19633,7 +19633,7 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="91"/>
+      <c r="A60" s="89"/>
       <c r="B60" s="2" t="s">
         <v>32</v>
       </c>
@@ -19645,7 +19645,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="91"/>
+      <c r="A61" s="89"/>
       <c r="B61" s="2" t="s">
         <v>33</v>
       </c>
@@ -19657,7 +19657,7 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="91"/>
+      <c r="A62" s="89"/>
       <c r="B62" s="2" t="s">
         <v>34</v>
       </c>
@@ -19669,7 +19669,7 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="91"/>
+      <c r="A63" s="89"/>
       <c r="B63" s="2" t="s">
         <v>35</v>
       </c>
@@ -19681,7 +19681,7 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="91"/>
+      <c r="A64" s="89"/>
       <c r="B64" s="2" t="s">
         <v>36</v>
       </c>
@@ -19693,7 +19693,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="91"/>
+      <c r="A65" s="89"/>
       <c r="B65" s="2" t="s">
         <v>37</v>
       </c>
@@ -19705,7 +19705,7 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="91"/>
+      <c r="A66" s="89"/>
       <c r="B66" s="2" t="s">
         <v>38</v>
       </c>
@@ -19717,7 +19717,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="91"/>
+      <c r="A67" s="89"/>
       <c r="B67" s="2" t="s">
         <v>39</v>
       </c>
@@ -19729,7 +19729,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="91"/>
+      <c r="A68" s="89"/>
       <c r="B68" s="2" t="s">
         <v>40</v>
       </c>
@@ -19741,7 +19741,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="91"/>
+      <c r="A69" s="89"/>
       <c r="B69" s="2" t="s">
         <v>41</v>
       </c>
@@ -19753,7 +19753,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="91"/>
+      <c r="A70" s="89"/>
       <c r="B70" s="2" t="s">
         <v>42</v>
       </c>
@@ -19765,7 +19765,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="91"/>
+      <c r="A71" s="89"/>
       <c r="B71" s="2" t="s">
         <v>43</v>
       </c>
@@ -19777,7 +19777,7 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="91"/>
+      <c r="A72" s="89"/>
       <c r="B72" s="2" t="s">
         <v>44</v>
       </c>
@@ -19789,7 +19789,7 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="91"/>
+      <c r="A73" s="89"/>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
@@ -19801,7 +19801,7 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="92"/>
+      <c r="A74" s="90"/>
       <c r="B74" s="2" t="s">
         <v>45</v>
       </c>
@@ -19813,7 +19813,7 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="90" t="s">
+      <c r="A75" s="88" t="s">
         <v>48</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -19827,7 +19827,7 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="91"/>
+      <c r="A76" s="89"/>
       <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
@@ -19839,7 +19839,7 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="91"/>
+      <c r="A77" s="89"/>
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
@@ -19851,7 +19851,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="91"/>
+      <c r="A78" s="89"/>
       <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
@@ -19863,7 +19863,7 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="91"/>
+      <c r="A79" s="89"/>
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -19875,7 +19875,7 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="91"/>
+      <c r="A80" s="89"/>
       <c r="B80" s="2" t="s">
         <v>17</v>
       </c>
@@ -19887,7 +19887,7 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="91"/>
+      <c r="A81" s="89"/>
       <c r="B81" s="2" t="s">
         <v>18</v>
       </c>
@@ -19899,7 +19899,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="91"/>
+      <c r="A82" s="89"/>
       <c r="B82" s="2" t="s">
         <v>19</v>
       </c>
@@ -19911,7 +19911,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="91"/>
+      <c r="A83" s="89"/>
       <c r="B83" s="2" t="s">
         <v>20</v>
       </c>
@@ -19923,7 +19923,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="91"/>
+      <c r="A84" s="89"/>
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
@@ -19935,7 +19935,7 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="91"/>
+      <c r="A85" s="89"/>
       <c r="B85" s="2" t="s">
         <v>22</v>
       </c>
@@ -19947,7 +19947,7 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="91"/>
+      <c r="A86" s="89"/>
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
@@ -19959,7 +19959,7 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="91"/>
+      <c r="A87" s="89"/>
       <c r="B87" s="2" t="s">
         <v>24</v>
       </c>
@@ -19971,7 +19971,7 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="91"/>
+      <c r="A88" s="89"/>
       <c r="B88" s="2" t="s">
         <v>25</v>
       </c>
@@ -19983,7 +19983,7 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="91"/>
+      <c r="A89" s="89"/>
       <c r="B89" s="2" t="s">
         <v>26</v>
       </c>
@@ -19995,7 +19995,7 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="91"/>
+      <c r="A90" s="89"/>
       <c r="B90" s="2" t="s">
         <v>27</v>
       </c>
@@ -20007,7 +20007,7 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="91"/>
+      <c r="A91" s="89"/>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
@@ -20019,7 +20019,7 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="91"/>
+      <c r="A92" s="89"/>
       <c r="B92" s="2" t="s">
         <v>28</v>
       </c>
@@ -20031,7 +20031,7 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="91"/>
+      <c r="A93" s="89"/>
       <c r="B93" s="2" t="s">
         <v>29</v>
       </c>
@@ -20043,7 +20043,7 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="91"/>
+      <c r="A94" s="89"/>
       <c r="B94" s="2" t="s">
         <v>30</v>
       </c>
@@ -20055,7 +20055,7 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="91"/>
+      <c r="A95" s="89"/>
       <c r="B95" s="2" t="s">
         <v>31</v>
       </c>
@@ -20067,7 +20067,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="91"/>
+      <c r="A96" s="89"/>
       <c r="B96" s="2" t="s">
         <v>32</v>
       </c>
@@ -20079,7 +20079,7 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="91"/>
+      <c r="A97" s="89"/>
       <c r="B97" s="2" t="s">
         <v>33</v>
       </c>
@@ -20091,7 +20091,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="91"/>
+      <c r="A98" s="89"/>
       <c r="B98" s="2" t="s">
         <v>34</v>
       </c>
@@ -20103,7 +20103,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="91"/>
+      <c r="A99" s="89"/>
       <c r="B99" s="2" t="s">
         <v>35</v>
       </c>
@@ -20115,7 +20115,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="91"/>
+      <c r="A100" s="89"/>
       <c r="B100" s="2" t="s">
         <v>36</v>
       </c>
@@ -20127,7 +20127,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="91"/>
+      <c r="A101" s="89"/>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
@@ -20139,7 +20139,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="91"/>
+      <c r="A102" s="89"/>
       <c r="B102" s="2" t="s">
         <v>38</v>
       </c>
@@ -20151,7 +20151,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="91"/>
+      <c r="A103" s="89"/>
       <c r="B103" s="2" t="s">
         <v>39</v>
       </c>
@@ -20163,7 +20163,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="91"/>
+      <c r="A104" s="89"/>
       <c r="B104" s="2" t="s">
         <v>40</v>
       </c>
@@ -20175,7 +20175,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="91"/>
+      <c r="A105" s="89"/>
       <c r="B105" s="2" t="s">
         <v>41</v>
       </c>
@@ -20187,7 +20187,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="91"/>
+      <c r="A106" s="89"/>
       <c r="B106" s="2" t="s">
         <v>42</v>
       </c>
@@ -20199,7 +20199,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="91"/>
+      <c r="A107" s="89"/>
       <c r="B107" s="2" t="s">
         <v>43</v>
       </c>
@@ -20211,7 +20211,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="91"/>
+      <c r="A108" s="89"/>
       <c r="B108" s="2" t="s">
         <v>44</v>
       </c>
@@ -20223,7 +20223,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="91"/>
+      <c r="A109" s="89"/>
       <c r="B109" s="2" t="s">
         <v>4</v>
       </c>
@@ -20235,7 +20235,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="92"/>
+      <c r="A110" s="90"/>
       <c r="B110" s="2" t="s">
         <v>45</v>
       </c>
@@ -20247,7 +20247,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="90" t="s">
+      <c r="A111" s="88" t="s">
         <v>49</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -20261,7 +20261,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="91"/>
+      <c r="A112" s="89"/>
       <c r="B112" s="2" t="s">
         <v>14</v>
       </c>
@@ -20273,7 +20273,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="91"/>
+      <c r="A113" s="89"/>
       <c r="B113" s="2" t="s">
         <v>15</v>
       </c>
@@ -20285,7 +20285,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="91"/>
+      <c r="A114" s="89"/>
       <c r="B114" s="2" t="s">
         <v>16</v>
       </c>
@@ -20297,7 +20297,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="91"/>
+      <c r="A115" s="89"/>
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
@@ -20309,7 +20309,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="91"/>
+      <c r="A116" s="89"/>
       <c r="B116" s="2" t="s">
         <v>17</v>
       </c>
@@ -20321,7 +20321,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="91"/>
+      <c r="A117" s="89"/>
       <c r="B117" s="2" t="s">
         <v>18</v>
       </c>
@@ -20333,7 +20333,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="91"/>
+      <c r="A118" s="89"/>
       <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
@@ -20345,7 +20345,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="91"/>
+      <c r="A119" s="89"/>
       <c r="B119" s="2" t="s">
         <v>20</v>
       </c>
@@ -20357,7 +20357,7 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="91"/>
+      <c r="A120" s="89"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -20369,7 +20369,7 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="91"/>
+      <c r="A121" s="89"/>
       <c r="B121" s="2" t="s">
         <v>22</v>
       </c>
@@ -20381,7 +20381,7 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="91"/>
+      <c r="A122" s="89"/>
       <c r="B122" s="2" t="s">
         <v>23</v>
       </c>
@@ -20393,7 +20393,7 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="91"/>
+      <c r="A123" s="89"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -20405,7 +20405,7 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="91"/>
+      <c r="A124" s="89"/>
       <c r="B124" s="2" t="s">
         <v>25</v>
       </c>
@@ -20417,7 +20417,7 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="91"/>
+      <c r="A125" s="89"/>
       <c r="B125" s="2" t="s">
         <v>26</v>
       </c>
@@ -20429,7 +20429,7 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="91"/>
+      <c r="A126" s="89"/>
       <c r="B126" s="2" t="s">
         <v>27</v>
       </c>
@@ -20441,7 +20441,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="91"/>
+      <c r="A127" s="89"/>
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
@@ -20453,7 +20453,7 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="91"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="2" t="s">
         <v>28</v>
       </c>
@@ -20465,7 +20465,7 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="91"/>
+      <c r="A129" s="89"/>
       <c r="B129" s="2" t="s">
         <v>29</v>
       </c>
@@ -20477,7 +20477,7 @@
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="91"/>
+      <c r="A130" s="89"/>
       <c r="B130" s="2" t="s">
         <v>30</v>
       </c>
@@ -20489,7 +20489,7 @@
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="91"/>
+      <c r="A131" s="89"/>
       <c r="B131" s="2" t="s">
         <v>31</v>
       </c>
@@ -20501,7 +20501,7 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="91"/>
+      <c r="A132" s="89"/>
       <c r="B132" s="2" t="s">
         <v>32</v>
       </c>
@@ -20513,7 +20513,7 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="91"/>
+      <c r="A133" s="89"/>
       <c r="B133" s="2" t="s">
         <v>33</v>
       </c>
@@ -20525,7 +20525,7 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="91"/>
+      <c r="A134" s="89"/>
       <c r="B134" s="2" t="s">
         <v>34</v>
       </c>
@@ -20537,7 +20537,7 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="91"/>
+      <c r="A135" s="89"/>
       <c r="B135" s="2" t="s">
         <v>35</v>
       </c>
@@ -20549,7 +20549,7 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="91"/>
+      <c r="A136" s="89"/>
       <c r="B136" s="2" t="s">
         <v>36</v>
       </c>
@@ -20561,7 +20561,7 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="91"/>
+      <c r="A137" s="89"/>
       <c r="B137" s="2" t="s">
         <v>37</v>
       </c>
@@ -20573,7 +20573,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="91"/>
+      <c r="A138" s="89"/>
       <c r="B138" s="2" t="s">
         <v>38</v>
       </c>
@@ -20585,7 +20585,7 @@
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="91"/>
+      <c r="A139" s="89"/>
       <c r="B139" s="2" t="s">
         <v>39</v>
       </c>
@@ -20597,7 +20597,7 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="91"/>
+      <c r="A140" s="89"/>
       <c r="B140" s="2" t="s">
         <v>40</v>
       </c>
@@ -20609,7 +20609,7 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="91"/>
+      <c r="A141" s="89"/>
       <c r="B141" s="2" t="s">
         <v>41</v>
       </c>
@@ -20621,7 +20621,7 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="91"/>
+      <c r="A142" s="89"/>
       <c r="B142" s="2" t="s">
         <v>42</v>
       </c>
@@ -20633,7 +20633,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="91"/>
+      <c r="A143" s="89"/>
       <c r="B143" s="2" t="s">
         <v>43</v>
       </c>
@@ -20645,7 +20645,7 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="91"/>
+      <c r="A144" s="89"/>
       <c r="B144" s="2" t="s">
         <v>44</v>
       </c>
@@ -20657,7 +20657,7 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="91"/>
+      <c r="A145" s="89"/>
       <c r="B145" s="2" t="s">
         <v>4</v>
       </c>
@@ -20669,7 +20669,7 @@
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="92"/>
+      <c r="A146" s="90"/>
       <c r="B146" s="2" t="s">
         <v>45</v>
       </c>
@@ -20682,24 +20682,24 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="90" t="s">
+      <c r="A152" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C152" s="95" t="s">
+      <c r="B152" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D152" s="96"/>
-      <c r="E152" s="96"/>
-      <c r="F152" s="96"/>
-      <c r="G152" s="96"/>
-      <c r="H152" s="97"/>
+      <c r="D152" s="97"/>
+      <c r="E152" s="97"/>
+      <c r="F152" s="97"/>
+      <c r="G152" s="97"/>
+      <c r="H152" s="98"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="92"/>
-      <c r="B153" s="94"/>
+      <c r="A153" s="90"/>
+      <c r="B153" s="95"/>
       <c r="C153" s="1" t="s">
         <v>7</v>
       </c>
@@ -20720,7 +20720,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="90" t="s">
+      <c r="A154" s="88" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -20734,7 +20734,7 @@
       <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="91"/>
+      <c r="A155" s="89"/>
       <c r="B155" s="2" t="s">
         <v>14</v>
       </c>
@@ -20746,7 +20746,7 @@
       <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="91"/>
+      <c r="A156" s="89"/>
       <c r="B156" s="2" t="s">
         <v>15</v>
       </c>
@@ -20758,7 +20758,7 @@
       <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="91"/>
+      <c r="A157" s="89"/>
       <c r="B157" s="2" t="s">
         <v>16</v>
       </c>
@@ -20770,7 +20770,7 @@
       <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="91"/>
+      <c r="A158" s="89"/>
       <c r="B158" s="2" t="s">
         <v>2</v>
       </c>
@@ -20782,7 +20782,7 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="91"/>
+      <c r="A159" s="89"/>
       <c r="B159" s="2" t="s">
         <v>17</v>
       </c>
@@ -20794,7 +20794,7 @@
       <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="91"/>
+      <c r="A160" s="89"/>
       <c r="B160" s="2" t="s">
         <v>18</v>
       </c>
@@ -20806,7 +20806,7 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="91"/>
+      <c r="A161" s="89"/>
       <c r="B161" s="2" t="s">
         <v>19</v>
       </c>
@@ -20818,7 +20818,7 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="91"/>
+      <c r="A162" s="89"/>
       <c r="B162" s="2" t="s">
         <v>20</v>
       </c>
@@ -20830,7 +20830,7 @@
       <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="91"/>
+      <c r="A163" s="89"/>
       <c r="B163" s="2" t="s">
         <v>21</v>
       </c>
@@ -20842,7 +20842,7 @@
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="91"/>
+      <c r="A164" s="89"/>
       <c r="B164" s="2" t="s">
         <v>22</v>
       </c>
@@ -20854,7 +20854,7 @@
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="91"/>
+      <c r="A165" s="89"/>
       <c r="B165" s="2" t="s">
         <v>23</v>
       </c>
@@ -20866,7 +20866,7 @@
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="91"/>
+      <c r="A166" s="89"/>
       <c r="B166" s="2" t="s">
         <v>24</v>
       </c>
@@ -20878,7 +20878,7 @@
       <c r="H166" s="4"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="91"/>
+      <c r="A167" s="89"/>
       <c r="B167" s="2" t="s">
         <v>25</v>
       </c>
@@ -20890,7 +20890,7 @@
       <c r="H167" s="4"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="92"/>
+      <c r="A168" s="90"/>
       <c r="B168" s="5" t="s">
         <v>50</v>
       </c>
@@ -20902,7 +20902,7 @@
       <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="90" t="s">
+      <c r="A169" s="88" t="s">
         <v>46</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -20916,7 +20916,7 @@
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="91"/>
+      <c r="A170" s="89"/>
       <c r="B170" s="2" t="s">
         <v>14</v>
       </c>
@@ -20928,7 +20928,7 @@
       <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="91"/>
+      <c r="A171" s="89"/>
       <c r="B171" s="2" t="s">
         <v>15</v>
       </c>
@@ -20940,7 +20940,7 @@
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="91"/>
+      <c r="A172" s="89"/>
       <c r="B172" s="2" t="s">
         <v>16</v>
       </c>
@@ -20952,7 +20952,7 @@
       <c r="H172" s="4"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="91"/>
+      <c r="A173" s="89"/>
       <c r="B173" s="2" t="s">
         <v>2</v>
       </c>
@@ -20964,7 +20964,7 @@
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="91"/>
+      <c r="A174" s="89"/>
       <c r="B174" s="2" t="s">
         <v>17</v>
       </c>
@@ -20976,7 +20976,7 @@
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="91"/>
+      <c r="A175" s="89"/>
       <c r="B175" s="2" t="s">
         <v>18</v>
       </c>
@@ -20988,7 +20988,7 @@
       <c r="H175" s="4"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="91"/>
+      <c r="A176" s="89"/>
       <c r="B176" s="2" t="s">
         <v>19</v>
       </c>
@@ -21000,7 +21000,7 @@
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="91"/>
+      <c r="A177" s="89"/>
       <c r="B177" s="2" t="s">
         <v>20</v>
       </c>
@@ -21012,7 +21012,7 @@
       <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="91"/>
+      <c r="A178" s="89"/>
       <c r="B178" s="2" t="s">
         <v>21</v>
       </c>
@@ -21024,7 +21024,7 @@
       <c r="H178" s="4"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="91"/>
+      <c r="A179" s="89"/>
       <c r="B179" s="2" t="s">
         <v>22</v>
       </c>
@@ -21036,7 +21036,7 @@
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="91"/>
+      <c r="A180" s="89"/>
       <c r="B180" s="2" t="s">
         <v>23</v>
       </c>
@@ -21048,7 +21048,7 @@
       <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="91"/>
+      <c r="A181" s="89"/>
       <c r="B181" s="2" t="s">
         <v>24</v>
       </c>
@@ -21060,7 +21060,7 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="91"/>
+      <c r="A182" s="89"/>
       <c r="B182" s="2" t="s">
         <v>25</v>
       </c>
@@ -21072,7 +21072,7 @@
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="92"/>
+      <c r="A183" s="90"/>
       <c r="B183" s="5" t="s">
         <v>50</v>
       </c>
@@ -21084,7 +21084,7 @@
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="90" t="s">
+      <c r="A184" s="88" t="s">
         <v>51</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -21098,7 +21098,7 @@
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="91"/>
+      <c r="A185" s="89"/>
       <c r="B185" s="2" t="s">
         <v>14</v>
       </c>
@@ -21110,7 +21110,7 @@
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="91"/>
+      <c r="A186" s="89"/>
       <c r="B186" s="2" t="s">
         <v>15</v>
       </c>
@@ -21122,7 +21122,7 @@
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="91"/>
+      <c r="A187" s="89"/>
       <c r="B187" s="2" t="s">
         <v>16</v>
       </c>
@@ -21134,7 +21134,7 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="91"/>
+      <c r="A188" s="89"/>
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -21146,7 +21146,7 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="91"/>
+      <c r="A189" s="89"/>
       <c r="B189" s="2" t="s">
         <v>17</v>
       </c>
@@ -21158,7 +21158,7 @@
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="91"/>
+      <c r="A190" s="89"/>
       <c r="B190" s="2" t="s">
         <v>18</v>
       </c>
@@ -21170,7 +21170,7 @@
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="91"/>
+      <c r="A191" s="89"/>
       <c r="B191" s="2" t="s">
         <v>19</v>
       </c>
@@ -21182,7 +21182,7 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="91"/>
+      <c r="A192" s="89"/>
       <c r="B192" s="2" t="s">
         <v>20</v>
       </c>
@@ -21194,7 +21194,7 @@
       <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="91"/>
+      <c r="A193" s="89"/>
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
@@ -21206,7 +21206,7 @@
       <c r="H193" s="4"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="91"/>
+      <c r="A194" s="89"/>
       <c r="B194" s="2" t="s">
         <v>22</v>
       </c>
@@ -21218,7 +21218,7 @@
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="91"/>
+      <c r="A195" s="89"/>
       <c r="B195" s="2" t="s">
         <v>23</v>
       </c>
@@ -21230,7 +21230,7 @@
       <c r="H195" s="4"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="91"/>
+      <c r="A196" s="89"/>
       <c r="B196" s="2" t="s">
         <v>24</v>
       </c>
@@ -21242,7 +21242,7 @@
       <c r="H196" s="4"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="91"/>
+      <c r="A197" s="89"/>
       <c r="B197" s="2" t="s">
         <v>25</v>
       </c>
@@ -21254,7 +21254,7 @@
       <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="92"/>
+      <c r="A198" s="90"/>
       <c r="B198" s="5" t="s">
         <v>50</v>
       </c>
@@ -21266,7 +21266,7 @@
       <c r="H198" s="4"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="90" t="s">
+      <c r="A199" s="88" t="s">
         <v>52</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -21280,7 +21280,7 @@
       <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="91"/>
+      <c r="A200" s="89"/>
       <c r="B200" s="2" t="s">
         <v>14</v>
       </c>
@@ -21292,7 +21292,7 @@
       <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="91"/>
+      <c r="A201" s="89"/>
       <c r="B201" s="2" t="s">
         <v>15</v>
       </c>
@@ -21304,7 +21304,7 @@
       <c r="H201" s="4"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="91"/>
+      <c r="A202" s="89"/>
       <c r="B202" s="2" t="s">
         <v>16</v>
       </c>
@@ -21316,7 +21316,7 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="91"/>
+      <c r="A203" s="89"/>
       <c r="B203" s="2" t="s">
         <v>2</v>
       </c>
@@ -21328,7 +21328,7 @@
       <c r="H203" s="4"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="91"/>
+      <c r="A204" s="89"/>
       <c r="B204" s="2" t="s">
         <v>17</v>
       </c>
@@ -21340,7 +21340,7 @@
       <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="91"/>
+      <c r="A205" s="89"/>
       <c r="B205" s="2" t="s">
         <v>18</v>
       </c>
@@ -21352,7 +21352,7 @@
       <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="91"/>
+      <c r="A206" s="89"/>
       <c r="B206" s="2" t="s">
         <v>19</v>
       </c>
@@ -21364,7 +21364,7 @@
       <c r="H206" s="4"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="91"/>
+      <c r="A207" s="89"/>
       <c r="B207" s="2" t="s">
         <v>20</v>
       </c>
@@ -21376,7 +21376,7 @@
       <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="91"/>
+      <c r="A208" s="89"/>
       <c r="B208" s="2" t="s">
         <v>21</v>
       </c>
@@ -21388,7 +21388,7 @@
       <c r="H208" s="4"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="91"/>
+      <c r="A209" s="89"/>
       <c r="B209" s="2" t="s">
         <v>22</v>
       </c>
@@ -21400,7 +21400,7 @@
       <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="91"/>
+      <c r="A210" s="89"/>
       <c r="B210" s="2" t="s">
         <v>23</v>
       </c>
@@ -21412,7 +21412,7 @@
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="91"/>
+      <c r="A211" s="89"/>
       <c r="B211" s="2" t="s">
         <v>24</v>
       </c>
@@ -21424,7 +21424,7 @@
       <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="91"/>
+      <c r="A212" s="89"/>
       <c r="B212" s="2" t="s">
         <v>25</v>
       </c>
@@ -21436,7 +21436,7 @@
       <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="92"/>
+      <c r="A213" s="90"/>
       <c r="B213" s="5" t="s">
         <v>50</v>
       </c>
@@ -21449,11 +21449,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -21463,6 +21458,11 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/对比/性能对比.xlsx
+++ b/对比/性能对比.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="601"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="601" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -1726,6 +1726,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1734,15 +1743,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -2023,7 +2023,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="C2">
@@ -2200,7 +2200,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="2">
           <cell r="A2" t="str">
@@ -2600,8 +2600,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2872,7 +2872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="39" spans="1:30" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="91" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="94" t="s">
@@ -3253,14 +3253,14 @@
       </c>
       <c r="P40" s="100"/>
       <c r="Q40" s="101"/>
-      <c r="R40" s="91" t="s">
+      <c r="R40" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="S40" s="92"/>
-      <c r="T40" s="93"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="90"/>
     </row>
     <row r="41" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="95"/>
       <c r="C41" s="95"/>
       <c r="D41" s="20" t="s">
@@ -3284,21 +3284,21 @@
       <c r="K41" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L41" s="91">
+      <c r="L41" s="88">
         <v>65</v>
       </c>
-      <c r="M41" s="92"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="91">
+      <c r="M41" s="89"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="88">
         <v>65</v>
       </c>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="91">
+      <c r="P41" s="89"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="88">
         <v>45</v>
       </c>
-      <c r="S41" s="92"/>
-      <c r="T41" s="93"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="90"/>
     </row>
     <row r="42" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="102" t="s">
@@ -3331,23 +3331,23 @@
       <c r="K42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="L42" s="91">
+      <c r="L42" s="88">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="M42" s="92"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="91">
+      <c r="M42" s="89"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="88">
         <f>1/3.97</f>
         <v>0.25188916876574308</v>
       </c>
-      <c r="P42" s="92"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="91">
+      <c r="P42" s="89"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="88">
         <v>1</v>
       </c>
-      <c r="S42" s="92"/>
-      <c r="T42" s="93"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="90"/>
     </row>
     <row r="43" spans="1:30" ht="24" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="103"/>
@@ -5227,21 +5227,21 @@
       <c r="K88" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L88" s="91" t="s">
+      <c r="L88" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="M88" s="92"/>
-      <c r="N88" s="93"/>
-      <c r="O88" s="91" t="s">
+      <c r="M88" s="89"/>
+      <c r="N88" s="90"/>
+      <c r="O88" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="P88" s="92"/>
-      <c r="Q88" s="93"/>
-      <c r="R88" s="91" t="s">
+      <c r="P88" s="89"/>
+      <c r="Q88" s="90"/>
+      <c r="R88" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="S88" s="92"/>
-      <c r="T88" s="93"/>
+      <c r="S88" s="89"/>
+      <c r="T88" s="90"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="103"/>
@@ -5260,15 +5260,15 @@
       <c r="K89" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L89" s="91"/>
-      <c r="M89" s="92"/>
-      <c r="N89" s="93"/>
-      <c r="O89" s="91"/>
-      <c r="P89" s="92"/>
-      <c r="Q89" s="93"/>
-      <c r="R89" s="91"/>
-      <c r="S89" s="92"/>
-      <c r="T89" s="93"/>
+      <c r="L89" s="88"/>
+      <c r="M89" s="89"/>
+      <c r="N89" s="90"/>
+      <c r="O89" s="88"/>
+      <c r="P89" s="89"/>
+      <c r="Q89" s="90"/>
+      <c r="R89" s="88"/>
+      <c r="S89" s="89"/>
+      <c r="T89" s="90"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="103"/>
@@ -5287,15 +5287,15 @@
       <c r="K90" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L90" s="91"/>
-      <c r="M90" s="92"/>
-      <c r="N90" s="93"/>
-      <c r="O90" s="91"/>
-      <c r="P90" s="92"/>
-      <c r="Q90" s="93"/>
-      <c r="R90" s="91"/>
-      <c r="S90" s="92"/>
-      <c r="T90" s="93"/>
+      <c r="L90" s="88"/>
+      <c r="M90" s="89"/>
+      <c r="N90" s="90"/>
+      <c r="O90" s="88"/>
+      <c r="P90" s="89"/>
+      <c r="Q90" s="90"/>
+      <c r="R90" s="88"/>
+      <c r="S90" s="89"/>
+      <c r="T90" s="90"/>
     </row>
     <row r="91" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="103"/>
@@ -8542,7 +8542,7 @@
       <c r="I226" s="4"/>
     </row>
     <row r="227" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="88" t="s">
+      <c r="A227" s="91" t="s">
         <v>77</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -8557,7 +8557,7 @@
       <c r="I227" s="4"/>
     </row>
     <row r="228" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="89"/>
+      <c r="A228" s="92"/>
       <c r="B228" s="2" t="s">
         <v>14</v>
       </c>
@@ -8570,7 +8570,7 @@
       <c r="I228" s="4"/>
     </row>
     <row r="229" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="89"/>
+      <c r="A229" s="92"/>
       <c r="B229" s="2" t="s">
         <v>22</v>
       </c>
@@ -8583,7 +8583,7 @@
       <c r="I229" s="4"/>
     </row>
     <row r="230" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="89"/>
+      <c r="A230" s="92"/>
       <c r="B230" s="2" t="s">
         <v>21</v>
       </c>
@@ -8596,7 +8596,7 @@
       <c r="I230" s="4"/>
     </row>
     <row r="231" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="89"/>
+      <c r="A231" s="92"/>
       <c r="B231" s="2" t="s">
         <v>19</v>
       </c>
@@ -8609,7 +8609,7 @@
       <c r="I231" s="4"/>
     </row>
     <row r="232" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="89"/>
+      <c r="A232" s="92"/>
       <c r="B232" s="2" t="s">
         <v>17</v>
       </c>
@@ -8622,7 +8622,7 @@
       <c r="I232" s="4"/>
     </row>
     <row r="233" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="89"/>
+      <c r="A233" s="92"/>
       <c r="B233" s="2" t="s">
         <v>24</v>
       </c>
@@ -8635,7 +8635,7 @@
       <c r="I233" s="4"/>
     </row>
     <row r="234" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="89"/>
+      <c r="A234" s="92"/>
       <c r="B234" s="2" t="s">
         <v>16</v>
       </c>
@@ -8648,7 +8648,7 @@
       <c r="I234" s="4"/>
     </row>
     <row r="235" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="89"/>
+      <c r="A235" s="92"/>
       <c r="B235" s="2" t="s">
         <v>20</v>
       </c>
@@ -8661,7 +8661,7 @@
       <c r="I235" s="4"/>
     </row>
     <row r="236" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="89"/>
+      <c r="A236" s="92"/>
       <c r="B236" s="2" t="s">
         <v>23</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="I236" s="4"/>
     </row>
     <row r="237" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="89"/>
+      <c r="A237" s="92"/>
       <c r="B237" s="2" t="s">
         <v>15</v>
       </c>
@@ -8687,7 +8687,7 @@
       <c r="I237" s="4"/>
     </row>
     <row r="238" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="89"/>
+      <c r="A238" s="92"/>
       <c r="B238" s="2" t="s">
         <v>2</v>
       </c>
@@ -8700,7 +8700,7 @@
       <c r="I238" s="4"/>
     </row>
     <row r="239" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="89"/>
+      <c r="A239" s="92"/>
       <c r="B239" s="2" t="s">
         <v>18</v>
       </c>
@@ -8713,7 +8713,7 @@
       <c r="I239" s="4"/>
     </row>
     <row r="240" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="89"/>
+      <c r="A240" s="92"/>
       <c r="B240" s="2" t="s">
         <v>25</v>
       </c>
@@ -8726,7 +8726,7 @@
       <c r="I240" s="4"/>
     </row>
     <row r="241" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="90"/>
+      <c r="A241" s="93"/>
       <c r="B241" s="5" t="str">
         <f>B204</f>
         <v>XTEA</v>
@@ -8741,6 +8741,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A227:A241"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="A42:A78"/>
+    <mergeCell ref="A79:A115"/>
+    <mergeCell ref="A116:A152"/>
+    <mergeCell ref="A153:A189"/>
+    <mergeCell ref="A190:A226"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="L90:N90"/>
     <mergeCell ref="O90:Q90"/>
@@ -8755,20 +8769,6 @@
     <mergeCell ref="L89:N89"/>
     <mergeCell ref="O89:Q89"/>
     <mergeCell ref="R89:T89"/>
-    <mergeCell ref="A227:A241"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="A42:A78"/>
-    <mergeCell ref="A79:A115"/>
-    <mergeCell ref="A116:A152"/>
-    <mergeCell ref="A153:A189"/>
-    <mergeCell ref="A190:A226"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8780,7 +8780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -9969,7 +9969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM73"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
@@ -14753,8 +14753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15329,31 +15329,31 @@
         <v>4</v>
       </c>
       <c r="I11" s="60">
-        <f t="shared" ref="I11:I15" si="2">B11/B3</f>
+        <f>B11/B3</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="J11" s="60">
-        <f t="shared" ref="J11:J15" si="3">C11/C3</f>
+        <f t="shared" ref="J11:J15" si="2">C11/C3</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="K11" s="60">
-        <f t="shared" ref="K11:K15" si="4">D11/D3</f>
+        <f t="shared" ref="K11:K15" si="3">D11/D3</f>
         <v>2</v>
       </c>
       <c r="L11" s="60">
-        <f t="shared" ref="L11:L15" si="5">E11/E3</f>
+        <f t="shared" ref="L11:L15" si="4">E11/E3</f>
         <v>8</v>
       </c>
       <c r="M11" s="60">
-        <f t="shared" ref="M11:M15" si="6">F11/F3</f>
+        <f t="shared" ref="M11:M15" si="5">F11/F3</f>
         <v>8</v>
       </c>
       <c r="N11" s="60">
-        <f t="shared" ref="N11:N15" si="7">G11/G3</f>
+        <f t="shared" ref="N11:N15" si="6">G11/G3</f>
         <v>0</v>
       </c>
       <c r="O11" s="60">
-        <f t="shared" ref="O11:O15" si="8">H11/H3</f>
+        <f t="shared" ref="O11:O15" si="7">H11/H3</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -15391,31 +15391,31 @@
         <v>4</v>
       </c>
       <c r="I12" s="60">
+        <f t="shared" ref="I11:I15" si="8">B12/B4</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J12" s="60">
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="J12" s="60">
+      <c r="K12" s="60">
         <f t="shared" si="3"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="K12" s="60">
+        <v>2</v>
+      </c>
+      <c r="L12" s="60">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L12" s="60">
+        <v>8</v>
+      </c>
+      <c r="M12" s="60">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="M12" s="60">
+      <c r="N12" s="60">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="N12" s="60">
+        <v>0</v>
+      </c>
+      <c r="O12" s="60">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="60">
-        <f t="shared" si="8"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -15453,31 +15453,31 @@
         <v>6</v>
       </c>
       <c r="I13" s="60">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="60">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J13" s="60">
+      <c r="K13" s="60">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K13" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="L13" s="60">
         <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="L13" s="60">
+        <v>6</v>
+      </c>
+      <c r="M13" s="60">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="M13" s="60">
+      <c r="N13" s="60">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="N13" s="60">
+        <v>0</v>
+      </c>
+      <c r="O13" s="60">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="60">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15515,31 +15515,31 @@
         <v>4</v>
       </c>
       <c r="I14" s="60">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="60">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J14" s="60">
+      <c r="K14" s="60">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K14" s="60">
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="60">
         <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="L14" s="60">
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="M14" s="60">
         <f t="shared" si="5"/>
-        <v>6.0000000000000009</v>
-      </c>
-      <c r="M14" s="60">
+        <v>6</v>
+      </c>
+      <c r="N14" s="60">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="N14" s="60">
+        <v>0</v>
+      </c>
+      <c r="O14" s="60">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="60">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -15577,31 +15577,31 @@
         <v>4</v>
       </c>
       <c r="I15" s="60">
+        <f t="shared" si="8"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J15" s="60">
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="J15" s="60">
+      <c r="K15" s="60">
         <f t="shared" si="3"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="K15" s="60">
+        <v>2</v>
+      </c>
+      <c r="L15" s="60">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L15" s="60">
+        <v>8</v>
+      </c>
+      <c r="M15" s="60">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="M15" s="60">
+      <c r="N15" s="60">
         <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="N15" s="60">
+        <v>0</v>
+      </c>
+      <c r="O15" s="60">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="60">
-        <f t="shared" si="8"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
@@ -16433,7 +16433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
@@ -18016,8 +18016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18872,24 +18872,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:A41"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="C36:C41"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18907,7 +18907,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="118" t="s">
@@ -18923,7 +18923,7 @@
       <c r="H1" s="122"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90"/>
+      <c r="A2" s="93"/>
       <c r="B2" s="119"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -18945,7 +18945,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="91" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -18959,7 +18959,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -18971,7 +18971,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="89"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -18983,7 +18983,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -18995,7 +18995,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="89"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -19007,7 +19007,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -19019,7 +19019,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -19031,7 +19031,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -19043,7 +19043,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -19055,7 +19055,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -19067,7 +19067,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -19079,7 +19079,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -19091,7 +19091,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="89"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -19103,7 +19103,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="89"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -19115,7 +19115,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="89"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -19127,7 +19127,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="89"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -19139,7 +19139,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="89"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -19151,7 +19151,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="89"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -19163,7 +19163,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="89"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -19175,7 +19175,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="89"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -19187,7 +19187,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="89"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -19199,7 +19199,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="89"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -19211,7 +19211,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="89"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
@@ -19223,7 +19223,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="89"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
@@ -19235,7 +19235,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="89"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
@@ -19247,7 +19247,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="89"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -19259,7 +19259,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="89"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
@@ -19271,7 +19271,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="89"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
@@ -19283,7 +19283,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="89"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
@@ -19295,7 +19295,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="89"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
@@ -19307,7 +19307,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="89"/>
+      <c r="A33" s="92"/>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
@@ -19319,7 +19319,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="89"/>
+      <c r="A34" s="92"/>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
@@ -19331,7 +19331,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="89"/>
+      <c r="A35" s="92"/>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
@@ -19343,7 +19343,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="89"/>
+      <c r="A36" s="92"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
@@ -19355,7 +19355,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="89"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
@@ -19367,7 +19367,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="90"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
@@ -19379,7 +19379,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="91" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -19393,7 +19393,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="89"/>
+      <c r="A40" s="92"/>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
@@ -19405,7 +19405,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="89"/>
+      <c r="A41" s="92"/>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
@@ -19417,7 +19417,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="89"/>
+      <c r="A42" s="92"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -19429,7 +19429,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="89"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
@@ -19441,7 +19441,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="89"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
@@ -19453,7 +19453,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="89"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
@@ -19465,7 +19465,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="89"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -19477,7 +19477,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="89"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
@@ -19489,7 +19489,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="89"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
@@ -19501,7 +19501,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="89"/>
+      <c r="A49" s="92"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
       </c>
@@ -19513,7 +19513,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="89"/>
+      <c r="A50" s="92"/>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
@@ -19525,7 +19525,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="89"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="2" t="s">
         <v>24</v>
       </c>
@@ -19537,7 +19537,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="89"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
@@ -19549,7 +19549,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="89"/>
+      <c r="A53" s="92"/>
       <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
@@ -19561,7 +19561,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="89"/>
+      <c r="A54" s="92"/>
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -19573,7 +19573,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="89"/>
+      <c r="A55" s="92"/>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
@@ -19585,7 +19585,7 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="89"/>
+      <c r="A56" s="92"/>
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
@@ -19597,7 +19597,7 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="89"/>
+      <c r="A57" s="92"/>
       <c r="B57" s="2" t="s">
         <v>29</v>
       </c>
@@ -19609,7 +19609,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="89"/>
+      <c r="A58" s="92"/>
       <c r="B58" s="2" t="s">
         <v>30</v>
       </c>
@@ -19621,7 +19621,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="89"/>
+      <c r="A59" s="92"/>
       <c r="B59" s="2" t="s">
         <v>31</v>
       </c>
@@ -19633,7 +19633,7 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="89"/>
+      <c r="A60" s="92"/>
       <c r="B60" s="2" t="s">
         <v>32</v>
       </c>
@@ -19645,7 +19645,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="89"/>
+      <c r="A61" s="92"/>
       <c r="B61" s="2" t="s">
         <v>33</v>
       </c>
@@ -19657,7 +19657,7 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="89"/>
+      <c r="A62" s="92"/>
       <c r="B62" s="2" t="s">
         <v>34</v>
       </c>
@@ -19669,7 +19669,7 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="89"/>
+      <c r="A63" s="92"/>
       <c r="B63" s="2" t="s">
         <v>35</v>
       </c>
@@ -19681,7 +19681,7 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="89"/>
+      <c r="A64" s="92"/>
       <c r="B64" s="2" t="s">
         <v>36</v>
       </c>
@@ -19693,7 +19693,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="89"/>
+      <c r="A65" s="92"/>
       <c r="B65" s="2" t="s">
         <v>37</v>
       </c>
@@ -19705,7 +19705,7 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="89"/>
+      <c r="A66" s="92"/>
       <c r="B66" s="2" t="s">
         <v>38</v>
       </c>
@@ -19717,7 +19717,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="89"/>
+      <c r="A67" s="92"/>
       <c r="B67" s="2" t="s">
         <v>39</v>
       </c>
@@ -19729,7 +19729,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="89"/>
+      <c r="A68" s="92"/>
       <c r="B68" s="2" t="s">
         <v>40</v>
       </c>
@@ -19741,7 +19741,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="89"/>
+      <c r="A69" s="92"/>
       <c r="B69" s="2" t="s">
         <v>41</v>
       </c>
@@ -19753,7 +19753,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="89"/>
+      <c r="A70" s="92"/>
       <c r="B70" s="2" t="s">
         <v>42</v>
       </c>
@@ -19765,7 +19765,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="89"/>
+      <c r="A71" s="92"/>
       <c r="B71" s="2" t="s">
         <v>43</v>
       </c>
@@ -19777,7 +19777,7 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="89"/>
+      <c r="A72" s="92"/>
       <c r="B72" s="2" t="s">
         <v>44</v>
       </c>
@@ -19789,7 +19789,7 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="89"/>
+      <c r="A73" s="92"/>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
@@ -19801,7 +19801,7 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="90"/>
+      <c r="A74" s="93"/>
       <c r="B74" s="2" t="s">
         <v>45</v>
       </c>
@@ -19813,7 +19813,7 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="88" t="s">
+      <c r="A75" s="91" t="s">
         <v>48</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -19827,7 +19827,7 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="89"/>
+      <c r="A76" s="92"/>
       <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
@@ -19839,7 +19839,7 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="89"/>
+      <c r="A77" s="92"/>
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
@@ -19851,7 +19851,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="89"/>
+      <c r="A78" s="92"/>
       <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
@@ -19863,7 +19863,7 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="89"/>
+      <c r="A79" s="92"/>
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -19875,7 +19875,7 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="89"/>
+      <c r="A80" s="92"/>
       <c r="B80" s="2" t="s">
         <v>17</v>
       </c>
@@ -19887,7 +19887,7 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="89"/>
+      <c r="A81" s="92"/>
       <c r="B81" s="2" t="s">
         <v>18</v>
       </c>
@@ -19899,7 +19899,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="89"/>
+      <c r="A82" s="92"/>
       <c r="B82" s="2" t="s">
         <v>19</v>
       </c>
@@ -19911,7 +19911,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="89"/>
+      <c r="A83" s="92"/>
       <c r="B83" s="2" t="s">
         <v>20</v>
       </c>
@@ -19923,7 +19923,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="89"/>
+      <c r="A84" s="92"/>
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
@@ -19935,7 +19935,7 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="89"/>
+      <c r="A85" s="92"/>
       <c r="B85" s="2" t="s">
         <v>22</v>
       </c>
@@ -19947,7 +19947,7 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="89"/>
+      <c r="A86" s="92"/>
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
@@ -19959,7 +19959,7 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="89"/>
+      <c r="A87" s="92"/>
       <c r="B87" s="2" t="s">
         <v>24</v>
       </c>
@@ -19971,7 +19971,7 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="89"/>
+      <c r="A88" s="92"/>
       <c r="B88" s="2" t="s">
         <v>25</v>
       </c>
@@ -19983,7 +19983,7 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="89"/>
+      <c r="A89" s="92"/>
       <c r="B89" s="2" t="s">
         <v>26</v>
       </c>
@@ -19995,7 +19995,7 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="89"/>
+      <c r="A90" s="92"/>
       <c r="B90" s="2" t="s">
         <v>27</v>
       </c>
@@ -20007,7 +20007,7 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="89"/>
+      <c r="A91" s="92"/>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
@@ -20019,7 +20019,7 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="89"/>
+      <c r="A92" s="92"/>
       <c r="B92" s="2" t="s">
         <v>28</v>
       </c>
@@ -20031,7 +20031,7 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="89"/>
+      <c r="A93" s="92"/>
       <c r="B93" s="2" t="s">
         <v>29</v>
       </c>
@@ -20043,7 +20043,7 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="89"/>
+      <c r="A94" s="92"/>
       <c r="B94" s="2" t="s">
         <v>30</v>
       </c>
@@ -20055,7 +20055,7 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="89"/>
+      <c r="A95" s="92"/>
       <c r="B95" s="2" t="s">
         <v>31</v>
       </c>
@@ -20067,7 +20067,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="89"/>
+      <c r="A96" s="92"/>
       <c r="B96" s="2" t="s">
         <v>32</v>
       </c>
@@ -20079,7 +20079,7 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="89"/>
+      <c r="A97" s="92"/>
       <c r="B97" s="2" t="s">
         <v>33</v>
       </c>
@@ -20091,7 +20091,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="89"/>
+      <c r="A98" s="92"/>
       <c r="B98" s="2" t="s">
         <v>34</v>
       </c>
@@ -20103,7 +20103,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="89"/>
+      <c r="A99" s="92"/>
       <c r="B99" s="2" t="s">
         <v>35</v>
       </c>
@@ -20115,7 +20115,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="89"/>
+      <c r="A100" s="92"/>
       <c r="B100" s="2" t="s">
         <v>36</v>
       </c>
@@ -20127,7 +20127,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="89"/>
+      <c r="A101" s="92"/>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
@@ -20139,7 +20139,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="89"/>
+      <c r="A102" s="92"/>
       <c r="B102" s="2" t="s">
         <v>38</v>
       </c>
@@ -20151,7 +20151,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="89"/>
+      <c r="A103" s="92"/>
       <c r="B103" s="2" t="s">
         <v>39</v>
       </c>
@@ -20163,7 +20163,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="89"/>
+      <c r="A104" s="92"/>
       <c r="B104" s="2" t="s">
         <v>40</v>
       </c>
@@ -20175,7 +20175,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="89"/>
+      <c r="A105" s="92"/>
       <c r="B105" s="2" t="s">
         <v>41</v>
       </c>
@@ -20187,7 +20187,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="89"/>
+      <c r="A106" s="92"/>
       <c r="B106" s="2" t="s">
         <v>42</v>
       </c>
@@ -20199,7 +20199,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="89"/>
+      <c r="A107" s="92"/>
       <c r="B107" s="2" t="s">
         <v>43</v>
       </c>
@@ -20211,7 +20211,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="89"/>
+      <c r="A108" s="92"/>
       <c r="B108" s="2" t="s">
         <v>44</v>
       </c>
@@ -20223,7 +20223,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="89"/>
+      <c r="A109" s="92"/>
       <c r="B109" s="2" t="s">
         <v>4</v>
       </c>
@@ -20235,7 +20235,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="90"/>
+      <c r="A110" s="93"/>
       <c r="B110" s="2" t="s">
         <v>45</v>
       </c>
@@ -20247,7 +20247,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="88" t="s">
+      <c r="A111" s="91" t="s">
         <v>49</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -20261,7 +20261,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="89"/>
+      <c r="A112" s="92"/>
       <c r="B112" s="2" t="s">
         <v>14</v>
       </c>
@@ -20273,7 +20273,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="89"/>
+      <c r="A113" s="92"/>
       <c r="B113" s="2" t="s">
         <v>15</v>
       </c>
@@ -20285,7 +20285,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="89"/>
+      <c r="A114" s="92"/>
       <c r="B114" s="2" t="s">
         <v>16</v>
       </c>
@@ -20297,7 +20297,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="89"/>
+      <c r="A115" s="92"/>
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
@@ -20309,7 +20309,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="89"/>
+      <c r="A116" s="92"/>
       <c r="B116" s="2" t="s">
         <v>17</v>
       </c>
@@ -20321,7 +20321,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="89"/>
+      <c r="A117" s="92"/>
       <c r="B117" s="2" t="s">
         <v>18</v>
       </c>
@@ -20333,7 +20333,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="89"/>
+      <c r="A118" s="92"/>
       <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
@@ -20345,7 +20345,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="89"/>
+      <c r="A119" s="92"/>
       <c r="B119" s="2" t="s">
         <v>20</v>
       </c>
@@ -20357,7 +20357,7 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="89"/>
+      <c r="A120" s="92"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -20369,7 +20369,7 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="89"/>
+      <c r="A121" s="92"/>
       <c r="B121" s="2" t="s">
         <v>22</v>
       </c>
@@ -20381,7 +20381,7 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="89"/>
+      <c r="A122" s="92"/>
       <c r="B122" s="2" t="s">
         <v>23</v>
       </c>
@@ -20393,7 +20393,7 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="89"/>
+      <c r="A123" s="92"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -20405,7 +20405,7 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="89"/>
+      <c r="A124" s="92"/>
       <c r="B124" s="2" t="s">
         <v>25</v>
       </c>
@@ -20417,7 +20417,7 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="89"/>
+      <c r="A125" s="92"/>
       <c r="B125" s="2" t="s">
         <v>26</v>
       </c>
@@ -20429,7 +20429,7 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="89"/>
+      <c r="A126" s="92"/>
       <c r="B126" s="2" t="s">
         <v>27</v>
       </c>
@@ -20441,7 +20441,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="89"/>
+      <c r="A127" s="92"/>
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
@@ -20453,7 +20453,7 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="89"/>
+      <c r="A128" s="92"/>
       <c r="B128" s="2" t="s">
         <v>28</v>
       </c>
@@ -20465,7 +20465,7 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="89"/>
+      <c r="A129" s="92"/>
       <c r="B129" s="2" t="s">
         <v>29</v>
       </c>
@@ -20477,7 +20477,7 @@
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="89"/>
+      <c r="A130" s="92"/>
       <c r="B130" s="2" t="s">
         <v>30</v>
       </c>
@@ -20489,7 +20489,7 @@
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="89"/>
+      <c r="A131" s="92"/>
       <c r="B131" s="2" t="s">
         <v>31</v>
       </c>
@@ -20501,7 +20501,7 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="89"/>
+      <c r="A132" s="92"/>
       <c r="B132" s="2" t="s">
         <v>32</v>
       </c>
@@ -20513,7 +20513,7 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="89"/>
+      <c r="A133" s="92"/>
       <c r="B133" s="2" t="s">
         <v>33</v>
       </c>
@@ -20525,7 +20525,7 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="89"/>
+      <c r="A134" s="92"/>
       <c r="B134" s="2" t="s">
         <v>34</v>
       </c>
@@ -20537,7 +20537,7 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="89"/>
+      <c r="A135" s="92"/>
       <c r="B135" s="2" t="s">
         <v>35</v>
       </c>
@@ -20549,7 +20549,7 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="89"/>
+      <c r="A136" s="92"/>
       <c r="B136" s="2" t="s">
         <v>36</v>
       </c>
@@ -20561,7 +20561,7 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="89"/>
+      <c r="A137" s="92"/>
       <c r="B137" s="2" t="s">
         <v>37</v>
       </c>
@@ -20573,7 +20573,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="89"/>
+      <c r="A138" s="92"/>
       <c r="B138" s="2" t="s">
         <v>38</v>
       </c>
@@ -20585,7 +20585,7 @@
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="89"/>
+      <c r="A139" s="92"/>
       <c r="B139" s="2" t="s">
         <v>39</v>
       </c>
@@ -20597,7 +20597,7 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="89"/>
+      <c r="A140" s="92"/>
       <c r="B140" s="2" t="s">
         <v>40</v>
       </c>
@@ -20609,7 +20609,7 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="89"/>
+      <c r="A141" s="92"/>
       <c r="B141" s="2" t="s">
         <v>41</v>
       </c>
@@ -20621,7 +20621,7 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="89"/>
+      <c r="A142" s="92"/>
       <c r="B142" s="2" t="s">
         <v>42</v>
       </c>
@@ -20633,7 +20633,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="89"/>
+      <c r="A143" s="92"/>
       <c r="B143" s="2" t="s">
         <v>43</v>
       </c>
@@ -20645,7 +20645,7 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="89"/>
+      <c r="A144" s="92"/>
       <c r="B144" s="2" t="s">
         <v>44</v>
       </c>
@@ -20657,7 +20657,7 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="89"/>
+      <c r="A145" s="92"/>
       <c r="B145" s="2" t="s">
         <v>4</v>
       </c>
@@ -20669,7 +20669,7 @@
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="90"/>
+      <c r="A146" s="93"/>
       <c r="B146" s="2" t="s">
         <v>45</v>
       </c>
@@ -20682,7 +20682,7 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="88" t="s">
+      <c r="A152" s="91" t="s">
         <v>5</v>
       </c>
       <c r="B152" s="94" t="s">
@@ -20698,7 +20698,7 @@
       <c r="H152" s="98"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="90"/>
+      <c r="A153" s="93"/>
       <c r="B153" s="95"/>
       <c r="C153" s="1" t="s">
         <v>7</v>
@@ -20720,7 +20720,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="88" t="s">
+      <c r="A154" s="91" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -20734,7 +20734,7 @@
       <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="89"/>
+      <c r="A155" s="92"/>
       <c r="B155" s="2" t="s">
         <v>14</v>
       </c>
@@ -20746,7 +20746,7 @@
       <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="89"/>
+      <c r="A156" s="92"/>
       <c r="B156" s="2" t="s">
         <v>15</v>
       </c>
@@ -20758,7 +20758,7 @@
       <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="89"/>
+      <c r="A157" s="92"/>
       <c r="B157" s="2" t="s">
         <v>16</v>
       </c>
@@ -20770,7 +20770,7 @@
       <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="89"/>
+      <c r="A158" s="92"/>
       <c r="B158" s="2" t="s">
         <v>2</v>
       </c>
@@ -20782,7 +20782,7 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="89"/>
+      <c r="A159" s="92"/>
       <c r="B159" s="2" t="s">
         <v>17</v>
       </c>
@@ -20794,7 +20794,7 @@
       <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="89"/>
+      <c r="A160" s="92"/>
       <c r="B160" s="2" t="s">
         <v>18</v>
       </c>
@@ -20806,7 +20806,7 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="89"/>
+      <c r="A161" s="92"/>
       <c r="B161" s="2" t="s">
         <v>19</v>
       </c>
@@ -20818,7 +20818,7 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="89"/>
+      <c r="A162" s="92"/>
       <c r="B162" s="2" t="s">
         <v>20</v>
       </c>
@@ -20830,7 +20830,7 @@
       <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="89"/>
+      <c r="A163" s="92"/>
       <c r="B163" s="2" t="s">
         <v>21</v>
       </c>
@@ -20842,7 +20842,7 @@
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="89"/>
+      <c r="A164" s="92"/>
       <c r="B164" s="2" t="s">
         <v>22</v>
       </c>
@@ -20854,7 +20854,7 @@
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="89"/>
+      <c r="A165" s="92"/>
       <c r="B165" s="2" t="s">
         <v>23</v>
       </c>
@@ -20866,7 +20866,7 @@
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="89"/>
+      <c r="A166" s="92"/>
       <c r="B166" s="2" t="s">
         <v>24</v>
       </c>
@@ -20878,7 +20878,7 @@
       <c r="H166" s="4"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="89"/>
+      <c r="A167" s="92"/>
       <c r="B167" s="2" t="s">
         <v>25</v>
       </c>
@@ -20890,7 +20890,7 @@
       <c r="H167" s="4"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="90"/>
+      <c r="A168" s="93"/>
       <c r="B168" s="5" t="s">
         <v>50</v>
       </c>
@@ -20902,7 +20902,7 @@
       <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="88" t="s">
+      <c r="A169" s="91" t="s">
         <v>46</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -20916,7 +20916,7 @@
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="89"/>
+      <c r="A170" s="92"/>
       <c r="B170" s="2" t="s">
         <v>14</v>
       </c>
@@ -20928,7 +20928,7 @@
       <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="89"/>
+      <c r="A171" s="92"/>
       <c r="B171" s="2" t="s">
         <v>15</v>
       </c>
@@ -20940,7 +20940,7 @@
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="89"/>
+      <c r="A172" s="92"/>
       <c r="B172" s="2" t="s">
         <v>16</v>
       </c>
@@ -20952,7 +20952,7 @@
       <c r="H172" s="4"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="89"/>
+      <c r="A173" s="92"/>
       <c r="B173" s="2" t="s">
         <v>2</v>
       </c>
@@ -20964,7 +20964,7 @@
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="89"/>
+      <c r="A174" s="92"/>
       <c r="B174" s="2" t="s">
         <v>17</v>
       </c>
@@ -20976,7 +20976,7 @@
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="89"/>
+      <c r="A175" s="92"/>
       <c r="B175" s="2" t="s">
         <v>18</v>
       </c>
@@ -20988,7 +20988,7 @@
       <c r="H175" s="4"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="89"/>
+      <c r="A176" s="92"/>
       <c r="B176" s="2" t="s">
         <v>19</v>
       </c>
@@ -21000,7 +21000,7 @@
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="89"/>
+      <c r="A177" s="92"/>
       <c r="B177" s="2" t="s">
         <v>20</v>
       </c>
@@ -21012,7 +21012,7 @@
       <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="89"/>
+      <c r="A178" s="92"/>
       <c r="B178" s="2" t="s">
         <v>21</v>
       </c>
@@ -21024,7 +21024,7 @@
       <c r="H178" s="4"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="89"/>
+      <c r="A179" s="92"/>
       <c r="B179" s="2" t="s">
         <v>22</v>
       </c>
@@ -21036,7 +21036,7 @@
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="89"/>
+      <c r="A180" s="92"/>
       <c r="B180" s="2" t="s">
         <v>23</v>
       </c>
@@ -21048,7 +21048,7 @@
       <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="89"/>
+      <c r="A181" s="92"/>
       <c r="B181" s="2" t="s">
         <v>24</v>
       </c>
@@ -21060,7 +21060,7 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="89"/>
+      <c r="A182" s="92"/>
       <c r="B182" s="2" t="s">
         <v>25</v>
       </c>
@@ -21072,7 +21072,7 @@
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="90"/>
+      <c r="A183" s="93"/>
       <c r="B183" s="5" t="s">
         <v>50</v>
       </c>
@@ -21084,7 +21084,7 @@
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="88" t="s">
+      <c r="A184" s="91" t="s">
         <v>51</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -21098,7 +21098,7 @@
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="89"/>
+      <c r="A185" s="92"/>
       <c r="B185" s="2" t="s">
         <v>14</v>
       </c>
@@ -21110,7 +21110,7 @@
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="89"/>
+      <c r="A186" s="92"/>
       <c r="B186" s="2" t="s">
         <v>15</v>
       </c>
@@ -21122,7 +21122,7 @@
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="89"/>
+      <c r="A187" s="92"/>
       <c r="B187" s="2" t="s">
         <v>16</v>
       </c>
@@ -21134,7 +21134,7 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="89"/>
+      <c r="A188" s="92"/>
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -21146,7 +21146,7 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="89"/>
+      <c r="A189" s="92"/>
       <c r="B189" s="2" t="s">
         <v>17</v>
       </c>
@@ -21158,7 +21158,7 @@
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="89"/>
+      <c r="A190" s="92"/>
       <c r="B190" s="2" t="s">
         <v>18</v>
       </c>
@@ -21170,7 +21170,7 @@
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="89"/>
+      <c r="A191" s="92"/>
       <c r="B191" s="2" t="s">
         <v>19</v>
       </c>
@@ -21182,7 +21182,7 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="89"/>
+      <c r="A192" s="92"/>
       <c r="B192" s="2" t="s">
         <v>20</v>
       </c>
@@ -21194,7 +21194,7 @@
       <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="89"/>
+      <c r="A193" s="92"/>
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
@@ -21206,7 +21206,7 @@
       <c r="H193" s="4"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="89"/>
+      <c r="A194" s="92"/>
       <c r="B194" s="2" t="s">
         <v>22</v>
       </c>
@@ -21218,7 +21218,7 @@
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="89"/>
+      <c r="A195" s="92"/>
       <c r="B195" s="2" t="s">
         <v>23</v>
       </c>
@@ -21230,7 +21230,7 @@
       <c r="H195" s="4"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="89"/>
+      <c r="A196" s="92"/>
       <c r="B196" s="2" t="s">
         <v>24</v>
       </c>
@@ -21242,7 +21242,7 @@
       <c r="H196" s="4"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="89"/>
+      <c r="A197" s="92"/>
       <c r="B197" s="2" t="s">
         <v>25</v>
       </c>
@@ -21254,7 +21254,7 @@
       <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="90"/>
+      <c r="A198" s="93"/>
       <c r="B198" s="5" t="s">
         <v>50</v>
       </c>
@@ -21266,7 +21266,7 @@
       <c r="H198" s="4"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="88" t="s">
+      <c r="A199" s="91" t="s">
         <v>52</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -21280,7 +21280,7 @@
       <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="89"/>
+      <c r="A200" s="92"/>
       <c r="B200" s="2" t="s">
         <v>14</v>
       </c>
@@ -21292,7 +21292,7 @@
       <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="89"/>
+      <c r="A201" s="92"/>
       <c r="B201" s="2" t="s">
         <v>15</v>
       </c>
@@ -21304,7 +21304,7 @@
       <c r="H201" s="4"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="89"/>
+      <c r="A202" s="92"/>
       <c r="B202" s="2" t="s">
         <v>16</v>
       </c>
@@ -21316,7 +21316,7 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="89"/>
+      <c r="A203" s="92"/>
       <c r="B203" s="2" t="s">
         <v>2</v>
       </c>
@@ -21328,7 +21328,7 @@
       <c r="H203" s="4"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="89"/>
+      <c r="A204" s="92"/>
       <c r="B204" s="2" t="s">
         <v>17</v>
       </c>
@@ -21340,7 +21340,7 @@
       <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="89"/>
+      <c r="A205" s="92"/>
       <c r="B205" s="2" t="s">
         <v>18</v>
       </c>
@@ -21352,7 +21352,7 @@
       <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="89"/>
+      <c r="A206" s="92"/>
       <c r="B206" s="2" t="s">
         <v>19</v>
       </c>
@@ -21364,7 +21364,7 @@
       <c r="H206" s="4"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="89"/>
+      <c r="A207" s="92"/>
       <c r="B207" s="2" t="s">
         <v>20</v>
       </c>
@@ -21376,7 +21376,7 @@
       <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="89"/>
+      <c r="A208" s="92"/>
       <c r="B208" s="2" t="s">
         <v>21</v>
       </c>
@@ -21388,7 +21388,7 @@
       <c r="H208" s="4"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="89"/>
+      <c r="A209" s="92"/>
       <c r="B209" s="2" t="s">
         <v>22</v>
       </c>
@@ -21400,7 +21400,7 @@
       <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="89"/>
+      <c r="A210" s="92"/>
       <c r="B210" s="2" t="s">
         <v>23</v>
       </c>
@@ -21412,7 +21412,7 @@
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="89"/>
+      <c r="A211" s="92"/>
       <c r="B211" s="2" t="s">
         <v>24</v>
       </c>
@@ -21424,7 +21424,7 @@
       <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="89"/>
+      <c r="A212" s="92"/>
       <c r="B212" s="2" t="s">
         <v>25</v>
       </c>
@@ -21436,7 +21436,7 @@
       <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="90"/>
+      <c r="A213" s="93"/>
       <c r="B213" s="5" t="s">
         <v>50</v>
       </c>
@@ -21449,6 +21449,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -21458,11 +21463,6 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/对比/性能对比.xlsx
+++ b/对比/性能对比.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="289">
   <si>
     <t>算法</t>
   </si>
@@ -1170,6 +1170,18 @@
   </si>
   <si>
     <t>平均性能面积比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyptoraptor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COBRA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1614,7 +1626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1813,14 +1825,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1830,6 +1842,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1859,6 +1880,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1917,21 +1941,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2972,10 +2981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AD290"/>
+  <dimension ref="A3:AD288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A258" sqref="A258:J290"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195:I197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3343,46 +3352,46 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="94" t="s">
+      <c r="B40" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="98"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="101"/>
       <c r="K40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L40" s="99" t="s">
+      <c r="L40" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="100"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="99" t="s">
+      <c r="M40" s="103"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="101"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="104"/>
       <c r="R40" s="91" t="s">
         <v>74</v>
       </c>
       <c r="S40" s="92"/>
       <c r="T40" s="93"/>
     </row>
-    <row r="41" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
+    <row r="41" spans="1:30" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="96"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
       <c r="D41" s="20" t="s">
         <v>7</v>
       </c>
@@ -3421,7 +3430,7 @@
       <c r="T41" s="93"/>
     </row>
     <row r="42" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="105" t="s">
         <v>265</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3476,7 +3485,7 @@
       <c r="T42" s="93"/>
     </row>
     <row r="43" spans="1:30" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="103"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
@@ -3552,7 +3561,7 @@
       </c>
     </row>
     <row r="44" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="103"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="2" t="s">
         <v>22</v>
       </c>
@@ -3599,14 +3608,14 @@
       </c>
       <c r="O44" s="16">
         <f>C79/2*L6</f>
-        <v>1608422.6725000001</v>
+        <v>804211.33625000005</v>
       </c>
       <c r="P44" s="14">
         <v>32.2418136</v>
       </c>
       <c r="Q44" s="17">
         <f>P44/O44*1000000</f>
-        <v>20.045609994968533</v>
+        <v>40.091219989937066</v>
       </c>
       <c r="R44" s="16">
         <f>G33*2</f>
@@ -3621,43 +3630,43 @@
       </c>
       <c r="V44" s="22">
         <f t="shared" ref="V44:V51" si="4">O44-L44</f>
-        <v>825981.12769097218</v>
+        <v>21769.791440972127</v>
       </c>
       <c r="W44" s="23">
         <f>(H79-H42)*I11</f>
-        <v>4341467.6919444446</v>
+        <v>1860629.0108333335</v>
       </c>
       <c r="X44" s="22">
         <f>V44-W44</f>
-        <v>-3515486.5642534723</v>
+        <v>-1838859.2193923614</v>
       </c>
       <c r="Y44" s="24">
         <f>V44/O44</f>
-        <v>0.51353486979087093</v>
+        <v>2.7069739581741845E-2</v>
       </c>
       <c r="Z44" s="24">
         <f>W44/O44</f>
-        <v>2.6992082157088868</v>
+        <v>2.3136070420361889</v>
       </c>
       <c r="AA44" s="24">
         <f>X44/O44</f>
-        <v>-2.185673345918016</v>
+        <v>-2.2865373024544469</v>
       </c>
       <c r="AB44" s="24">
         <f>Z44/Y44</f>
-        <v>5.2561342461673481</v>
+        <v>85.468389344856647</v>
       </c>
       <c r="AC44" s="24">
         <f>AA44/Y44</f>
-        <v>-4.256134246167349</v>
+        <v>-84.468389344856647</v>
       </c>
       <c r="AD44" s="26">
         <f>AB44/AC44</f>
-        <v>-1.2349549948760425</v>
+        <v>-1.0118387482910007</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="103"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="2" t="s">
         <v>21</v>
       </c>
@@ -3762,7 +3771,7 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="103"/>
+      <c r="A46" s="106"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -3867,7 +3876,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="103"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
@@ -3972,7 +3981,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="103"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
@@ -4077,7 +4086,7 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="103"/>
+      <c r="A49" s="106"/>
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
@@ -4182,7 +4191,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="103"/>
+      <c r="A50" s="106"/>
       <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
@@ -4287,7 +4296,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="103"/>
+      <c r="A51" s="106"/>
       <c r="B51" s="2" t="s">
         <v>23</v>
       </c>
@@ -4392,7 +4401,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="103"/>
+      <c r="A52" s="106"/>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
@@ -4440,31 +4449,31 @@
       </c>
       <c r="Y52" s="25">
         <f>AVERAGE(Y44:Y51)</f>
-        <v>0.4061071535363549</v>
+        <v>0.34529901226021376</v>
       </c>
       <c r="Z52" s="25">
         <f>AVERAGE(Z44:Z51)</f>
-        <v>2.6140546231894994</v>
+        <v>2.5658544764804119</v>
       </c>
       <c r="AA52" s="25">
         <f>AVERAGE(AA44:AA51)</f>
-        <v>-2.2079474696531447</v>
+        <v>-2.2205554642201988</v>
       </c>
       <c r="AB52" s="24">
         <f>AVERAGE(AB44:AB51)</f>
-        <v>7.00784042400368</v>
+        <v>17.03437231133984</v>
       </c>
       <c r="AC52" s="24">
         <f>AVERAGE(AC44:AC51)</f>
-        <v>-6.00784042400368</v>
+        <v>-16.034372311339844</v>
       </c>
       <c r="AD52" s="26">
         <f t="shared" si="14"/>
-        <v>-1.1664491613333483</v>
+        <v>-1.0623660209818613</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="103"/>
+      <c r="A53" s="106"/>
       <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
@@ -4509,7 +4518,7 @@
       <c r="T53" s="1"/>
     </row>
     <row r="54" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="103"/>
+      <c r="A54" s="106"/>
       <c r="B54" s="2" t="s">
         <v>18</v>
       </c>
@@ -4554,7 +4563,7 @@
       <c r="T54" s="1"/>
     </row>
     <row r="55" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="103"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
@@ -4599,7 +4608,7 @@
       <c r="T55" s="1"/>
     </row>
     <row r="56" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="103"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="5" t="s">
         <v>185</v>
       </c>
@@ -4644,7 +4653,7 @@
       <c r="T56" s="1"/>
     </row>
     <row r="57" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="103"/>
+      <c r="A57" s="106"/>
       <c r="B57" s="5" t="s">
         <v>186</v>
       </c>
@@ -4687,7 +4696,7 @@
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="103"/>
+      <c r="A58" s="106"/>
       <c r="B58" s="5" t="s">
         <v>3</v>
       </c>
@@ -4730,7 +4739,7 @@
       <c r="T58" s="1"/>
     </row>
     <row r="59" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="103"/>
+      <c r="A59" s="106"/>
       <c r="B59" s="5" t="s">
         <v>28</v>
       </c>
@@ -4773,7 +4782,7 @@
       <c r="T59" s="1"/>
     </row>
     <row r="60" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="103"/>
+      <c r="A60" s="106"/>
       <c r="B60" s="5" t="s">
         <v>190</v>
       </c>
@@ -4816,7 +4825,7 @@
       <c r="T60" s="1"/>
     </row>
     <row r="61" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="103"/>
+      <c r="A61" s="106"/>
       <c r="B61" s="5" t="s">
         <v>30</v>
       </c>
@@ -4859,7 +4868,7 @@
       <c r="T61" s="1"/>
     </row>
     <row r="62" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="103"/>
+      <c r="A62" s="106"/>
       <c r="B62" s="5" t="s">
         <v>31</v>
       </c>
@@ -4902,7 +4911,7 @@
       <c r="T62" s="1"/>
     </row>
     <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="103"/>
+      <c r="A63" s="106"/>
       <c r="B63" s="5" t="s">
         <v>191</v>
       </c>
@@ -4945,7 +4954,7 @@
       <c r="T63" s="1"/>
     </row>
     <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="103"/>
+      <c r="A64" s="106"/>
       <c r="B64" s="5" t="s">
         <v>192</v>
       </c>
@@ -4988,7 +4997,7 @@
       <c r="T64" s="1"/>
     </row>
     <row r="65" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="103"/>
+      <c r="A65" s="106"/>
       <c r="B65" s="5" t="s">
         <v>34</v>
       </c>
@@ -5031,7 +5040,7 @@
       <c r="T65" s="1"/>
     </row>
     <row r="66" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="103"/>
+      <c r="A66" s="106"/>
       <c r="B66" s="5" t="s">
         <v>35</v>
       </c>
@@ -5074,7 +5083,7 @@
       <c r="T66" s="1"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="103"/>
+      <c r="A67" s="106"/>
       <c r="B67" s="5" t="s">
         <v>36</v>
       </c>
@@ -5117,7 +5126,7 @@
       <c r="T67" s="1"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="103"/>
+      <c r="A68" s="106"/>
       <c r="B68" s="5" t="s">
         <v>37</v>
       </c>
@@ -5160,7 +5169,7 @@
       <c r="T68" s="1"/>
     </row>
     <row r="69" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="103"/>
+      <c r="A69" s="106"/>
       <c r="B69" s="5" t="s">
         <v>38</v>
       </c>
@@ -5203,7 +5212,7 @@
       <c r="T69" s="1"/>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="103"/>
+      <c r="A70" s="106"/>
       <c r="B70" s="5" t="s">
         <v>193</v>
       </c>
@@ -5244,7 +5253,7 @@
       <c r="T70" s="1"/>
     </row>
     <row r="71" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="103"/>
+      <c r="A71" s="106"/>
       <c r="B71" s="5" t="s">
         <v>40</v>
       </c>
@@ -5287,7 +5296,7 @@
       <c r="T71" s="1"/>
     </row>
     <row r="72" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="103"/>
+      <c r="A72" s="106"/>
       <c r="B72" s="5" t="s">
         <v>194</v>
       </c>
@@ -5330,7 +5339,7 @@
       <c r="T72" s="1"/>
     </row>
     <row r="73" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="103"/>
+      <c r="A73" s="106"/>
       <c r="B73" s="5" t="s">
         <v>42</v>
       </c>
@@ -5371,7 +5380,7 @@
       <c r="T73" s="1"/>
     </row>
     <row r="74" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="103"/>
+      <c r="A74" s="106"/>
       <c r="B74" s="5" t="s">
         <v>43</v>
       </c>
@@ -5414,7 +5423,7 @@
       <c r="T74" s="1"/>
     </row>
     <row r="75" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="103"/>
+      <c r="A75" s="106"/>
       <c r="B75" s="5" t="s">
         <v>44</v>
       </c>
@@ -5457,7 +5466,7 @@
       <c r="T75" s="1"/>
     </row>
     <row r="76" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="103"/>
+      <c r="A76" s="106"/>
       <c r="B76" s="5" t="s">
         <v>195</v>
       </c>
@@ -5500,7 +5509,7 @@
       <c r="T76" s="1"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="103"/>
+      <c r="A77" s="106"/>
       <c r="B77" s="5" t="s">
         <v>196</v>
       </c>
@@ -5543,7 +5552,7 @@
       <c r="T77" s="1"/>
     </row>
     <row r="78" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="103"/>
+      <c r="A78" s="106"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="4">
@@ -5576,34 +5585,34 @@
       <c r="T78" s="1"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="102" t="s">
+      <c r="A79" s="105" t="s">
         <v>264</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C79" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" s="1">
         <f>$C79/2*D$78</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E79" s="1">
         <f>$C79/2*E$78</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" ref="F79:H79" si="16">$C79/2*F$78</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G79" s="1">
         <f t="shared" si="16"/>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="H79" s="1">
         <f t="shared" si="16"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I79" s="1">
         <f>$C79/2*I$78</f>
@@ -5623,7 +5632,7 @@
       <c r="T79" s="1"/>
     </row>
     <row r="80" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="103"/>
+      <c r="A80" s="106"/>
       <c r="B80" s="2" t="s">
         <v>14</v>
       </c>
@@ -5668,7 +5677,7 @@
       <c r="T80" s="1"/>
     </row>
     <row r="81" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="103"/>
+      <c r="A81" s="106"/>
       <c r="B81" s="2" t="s">
         <v>22</v>
       </c>
@@ -5713,7 +5722,7 @@
       <c r="T81" s="1"/>
     </row>
     <row r="82" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="103"/>
+      <c r="A82" s="106"/>
       <c r="B82" s="2" t="s">
         <v>21</v>
       </c>
@@ -5758,7 +5767,7 @@
       <c r="T82" s="1"/>
     </row>
     <row r="83" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="103"/>
+      <c r="A83" s="106"/>
       <c r="B83" s="2" t="s">
         <v>19</v>
       </c>
@@ -5803,7 +5812,7 @@
       <c r="T83" s="1"/>
     </row>
     <row r="84" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="103"/>
+      <c r="A84" s="106"/>
       <c r="B84" s="2" t="s">
         <v>17</v>
       </c>
@@ -5848,7 +5857,7 @@
       <c r="T84" s="1"/>
     </row>
     <row r="85" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="103"/>
+      <c r="A85" s="106"/>
       <c r="B85" s="2" t="s">
         <v>24</v>
       </c>
@@ -5893,7 +5902,7 @@
       <c r="T85" s="1"/>
     </row>
     <row r="86" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="103"/>
+      <c r="A86" s="106"/>
       <c r="B86" s="2" t="s">
         <v>16</v>
       </c>
@@ -5927,7 +5936,7 @@
       <c r="K86" s="12"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="103"/>
+      <c r="A87" s="106"/>
       <c r="B87" s="2" t="s">
         <v>20</v>
       </c>
@@ -5961,7 +5970,7 @@
       <c r="K87" s="12"/>
     </row>
     <row r="88" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="103"/>
+      <c r="A88" s="106"/>
       <c r="B88" s="2" t="s">
         <v>23</v>
       </c>
@@ -6012,7 +6021,7 @@
       <c r="T88" s="93"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="103"/>
+      <c r="A89" s="106"/>
       <c r="B89" s="2" t="s">
         <v>15</v>
       </c>
@@ -6057,7 +6066,7 @@
       <c r="T89" s="93"/>
     </row>
     <row r="90" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="103"/>
+      <c r="A90" s="106"/>
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
@@ -6102,7 +6111,7 @@
       <c r="T90" s="93"/>
     </row>
     <row r="91" spans="1:20" ht="24" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="103"/>
+      <c r="A91" s="106"/>
       <c r="B91" s="2" t="s">
         <v>18</v>
       </c>
@@ -6163,7 +6172,7 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="103"/>
+      <c r="A92" s="106"/>
       <c r="B92" s="2" t="s">
         <v>25</v>
       </c>
@@ -6208,7 +6217,7 @@
       <c r="T92" s="1"/>
     </row>
     <row r="93" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="103"/>
+      <c r="A93" s="106"/>
       <c r="B93" s="5" t="s">
         <v>184</v>
       </c>
@@ -6253,7 +6262,7 @@
       <c r="T93" s="1"/>
     </row>
     <row r="94" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="103"/>
+      <c r="A94" s="106"/>
       <c r="B94" s="5" t="str">
         <f t="shared" ref="B94:B115" si="18">B57</f>
         <v>SKIPJECT</v>
@@ -6297,7 +6306,7 @@
       <c r="T94" s="1"/>
     </row>
     <row r="95" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="103"/>
+      <c r="A95" s="106"/>
       <c r="B95" s="5" t="str">
         <f t="shared" si="18"/>
         <v>SPECK</v>
@@ -6341,7 +6350,7 @@
       <c r="T95" s="1"/>
     </row>
     <row r="96" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="103"/>
+      <c r="A96" s="106"/>
       <c r="B96" s="5" t="str">
         <f t="shared" si="18"/>
         <v>SIMON</v>
@@ -6385,7 +6394,7 @@
       <c r="T96" s="1"/>
     </row>
     <row r="97" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="103"/>
+      <c r="A97" s="106"/>
       <c r="B97" s="5" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">LUCIFER </v>
@@ -6429,7 +6438,7 @@
       <c r="T97" s="1"/>
     </row>
     <row r="98" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="103"/>
+      <c r="A98" s="106"/>
       <c r="B98" s="5" t="str">
         <f t="shared" si="18"/>
         <v>CLEFIA</v>
@@ -6473,7 +6482,7 @@
       <c r="T98" s="1"/>
     </row>
     <row r="99" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="103"/>
+      <c r="A99" s="106"/>
       <c r="B99" s="5" t="str">
         <f t="shared" si="18"/>
         <v>ARIA</v>
@@ -6517,7 +6526,7 @@
       <c r="T99" s="1"/>
     </row>
     <row r="100" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="103"/>
+      <c r="A100" s="106"/>
       <c r="B100" s="5" t="str">
         <f t="shared" si="18"/>
         <v>CRYPTOMERIA/C2</v>
@@ -6561,7 +6570,7 @@
       <c r="T100" s="1"/>
     </row>
     <row r="101" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="103"/>
+      <c r="A101" s="106"/>
       <c r="B101" s="5" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">PRESENT </v>
@@ -6605,7 +6614,7 @@
       <c r="T101" s="1"/>
     </row>
     <row r="102" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="103"/>
+      <c r="A102" s="106"/>
       <c r="B102" s="5" t="str">
         <f t="shared" si="18"/>
         <v>MACGUFFIN</v>
@@ -6649,7 +6658,7 @@
       <c r="T102" s="1"/>
     </row>
     <row r="103" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="103"/>
+      <c r="A103" s="106"/>
       <c r="B103" s="5" t="str">
         <f t="shared" si="18"/>
         <v>SQUARE</v>
@@ -6693,7 +6702,7 @@
       <c r="T103" s="1"/>
     </row>
     <row r="104" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="103"/>
+      <c r="A104" s="106"/>
       <c r="B104" s="5" t="str">
         <f t="shared" si="18"/>
         <v>M6</v>
@@ -6737,7 +6746,7 @@
       <c r="T104" s="1"/>
     </row>
     <row r="105" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="103"/>
+      <c r="A105" s="106"/>
       <c r="B105" s="5" t="str">
         <f t="shared" si="18"/>
         <v>ICE</v>
@@ -6781,7 +6790,7 @@
       <c r="T105" s="1"/>
     </row>
     <row r="106" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="103"/>
+      <c r="A106" s="106"/>
       <c r="B106" s="5" t="str">
         <f t="shared" si="18"/>
         <v>SHARK</v>
@@ -6825,7 +6834,7 @@
       <c r="T106" s="1"/>
     </row>
     <row r="107" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="103"/>
+      <c r="A107" s="106"/>
       <c r="B107" s="5" t="str">
         <f t="shared" si="18"/>
         <v>CS-CIPHER</v>
@@ -6867,7 +6876,7 @@
       <c r="T107" s="1"/>
     </row>
     <row r="108" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="103"/>
+      <c r="A108" s="106"/>
       <c r="B108" s="5" t="str">
         <f t="shared" si="18"/>
         <v>NUSH</v>
@@ -6911,7 +6920,7 @@
       <c r="T108" s="1"/>
     </row>
     <row r="109" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="103"/>
+      <c r="A109" s="106"/>
       <c r="B109" s="5" t="str">
         <f t="shared" si="18"/>
         <v>GRAND CRU</v>
@@ -6955,7 +6964,7 @@
       <c r="T109" s="1"/>
     </row>
     <row r="110" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="103"/>
+      <c r="A110" s="106"/>
       <c r="B110" s="5" t="str">
         <f t="shared" si="18"/>
         <v>Q</v>
@@ -6997,7 +7006,7 @@
       <c r="T110" s="1"/>
     </row>
     <row r="111" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="103"/>
+      <c r="A111" s="106"/>
       <c r="B111" s="5" t="str">
         <f t="shared" si="18"/>
         <v>E2</v>
@@ -7041,7 +7050,7 @@
       <c r="T111" s="1"/>
     </row>
     <row r="112" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="103"/>
+      <c r="A112" s="106"/>
       <c r="B112" s="5" t="str">
         <f t="shared" si="18"/>
         <v>KHAZAD</v>
@@ -7085,7 +7094,7 @@
       <c r="T112" s="1"/>
     </row>
     <row r="113" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="103"/>
+      <c r="A113" s="106"/>
       <c r="B113" s="5" t="str">
         <f t="shared" si="18"/>
         <v>HIEROCRYPT-L1</v>
@@ -7129,7 +7138,7 @@
       <c r="T113" s="1"/>
     </row>
     <row r="114" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="103"/>
+      <c r="A114" s="106"/>
       <c r="B114" s="5" t="str">
         <f t="shared" si="18"/>
         <v>HIEROCRYPT-3</v>
@@ -7173,7 +7182,7 @@
       <c r="T114" s="1"/>
     </row>
     <row r="115" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="123"/>
+      <c r="A115" s="107"/>
       <c r="B115" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -7209,7 +7218,7 @@
       <c r="T115" s="1"/>
     </row>
     <row r="116" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="104" t="s">
+      <c r="A116" s="108" t="s">
         <v>48</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -7256,7 +7265,7 @@
       <c r="T116" s="1"/>
     </row>
     <row r="117" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="105"/>
+      <c r="A117" s="109"/>
       <c r="B117" s="2" t="s">
         <v>14</v>
       </c>
@@ -7301,7 +7310,7 @@
       <c r="T117" s="1"/>
     </row>
     <row r="118" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="105"/>
+      <c r="A118" s="109"/>
       <c r="B118" s="2" t="s">
         <v>22</v>
       </c>
@@ -7346,7 +7355,7 @@
       <c r="T118" s="1"/>
     </row>
     <row r="119" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="105"/>
+      <c r="A119" s="109"/>
       <c r="B119" s="2" t="s">
         <v>21</v>
       </c>
@@ -7391,7 +7400,7 @@
       <c r="T119" s="1"/>
     </row>
     <row r="120" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="105"/>
+      <c r="A120" s="109"/>
       <c r="B120" s="2" t="s">
         <v>19</v>
       </c>
@@ -7436,7 +7445,7 @@
       <c r="T120" s="1"/>
     </row>
     <row r="121" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="105"/>
+      <c r="A121" s="109"/>
       <c r="B121" s="2" t="s">
         <v>17</v>
       </c>
@@ -7481,7 +7490,7 @@
       <c r="T121" s="1"/>
     </row>
     <row r="122" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="105"/>
+      <c r="A122" s="109"/>
       <c r="B122" s="2" t="s">
         <v>24</v>
       </c>
@@ -7526,7 +7535,7 @@
       <c r="T122" s="1"/>
     </row>
     <row r="123" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="105"/>
+      <c r="A123" s="109"/>
       <c r="B123" s="2" t="s">
         <v>16</v>
       </c>
@@ -7571,7 +7580,7 @@
       <c r="T123" s="1"/>
     </row>
     <row r="124" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="105"/>
+      <c r="A124" s="109"/>
       <c r="B124" s="2" t="s">
         <v>20</v>
       </c>
@@ -7616,7 +7625,7 @@
       <c r="T124" s="1"/>
     </row>
     <row r="125" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="105"/>
+      <c r="A125" s="109"/>
       <c r="B125" s="2" t="s">
         <v>23</v>
       </c>
@@ -7661,7 +7670,7 @@
       <c r="T125" s="1"/>
     </row>
     <row r="126" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="105"/>
+      <c r="A126" s="109"/>
       <c r="B126" s="2" t="s">
         <v>15</v>
       </c>
@@ -7706,7 +7715,7 @@
       <c r="T126" s="1"/>
     </row>
     <row r="127" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="105"/>
+      <c r="A127" s="109"/>
       <c r="B127" s="2" t="s">
         <v>2</v>
       </c>
@@ -7751,7 +7760,7 @@
       <c r="T127" s="1"/>
     </row>
     <row r="128" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="105"/>
+      <c r="A128" s="109"/>
       <c r="B128" s="2" t="s">
         <v>18</v>
       </c>
@@ -7796,7 +7805,7 @@
       <c r="T128" s="1"/>
     </row>
     <row r="129" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="105"/>
+      <c r="A129" s="109"/>
       <c r="B129" s="2" t="s">
         <v>25</v>
       </c>
@@ -7841,7 +7850,7 @@
       <c r="T129" s="1"/>
     </row>
     <row r="130" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="105"/>
+      <c r="A130" s="109"/>
       <c r="B130" s="5" t="str">
         <f t="shared" ref="B130:B152" si="22">B93</f>
         <v>XTEA</v>
@@ -7887,7 +7896,7 @@
       <c r="T130" s="1"/>
     </row>
     <row r="131" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="105"/>
+      <c r="A131" s="109"/>
       <c r="B131" s="5" t="str">
         <f t="shared" si="22"/>
         <v>SKIPJECT</v>
@@ -7931,7 +7940,7 @@
       <c r="T131" s="1"/>
     </row>
     <row r="132" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="105"/>
+      <c r="A132" s="109"/>
       <c r="B132" s="5" t="str">
         <f t="shared" si="22"/>
         <v>SPECK</v>
@@ -7975,7 +7984,7 @@
       <c r="T132" s="1"/>
     </row>
     <row r="133" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="105"/>
+      <c r="A133" s="109"/>
       <c r="B133" s="5" t="str">
         <f t="shared" si="22"/>
         <v>SIMON</v>
@@ -8019,7 +8028,7 @@
       <c r="T133" s="1"/>
     </row>
     <row r="134" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="105"/>
+      <c r="A134" s="109"/>
       <c r="B134" s="5" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">LUCIFER </v>
@@ -8063,7 +8072,7 @@
       <c r="T134" s="1"/>
     </row>
     <row r="135" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="105"/>
+      <c r="A135" s="109"/>
       <c r="B135" s="5" t="str">
         <f t="shared" si="22"/>
         <v>CLEFIA</v>
@@ -8107,7 +8116,7 @@
       <c r="T135" s="1"/>
     </row>
     <row r="136" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="105"/>
+      <c r="A136" s="109"/>
       <c r="B136" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ARIA</v>
@@ -8151,7 +8160,7 @@
       <c r="T136" s="1"/>
     </row>
     <row r="137" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="105"/>
+      <c r="A137" s="109"/>
       <c r="B137" s="5" t="str">
         <f t="shared" si="22"/>
         <v>CRYPTOMERIA/C2</v>
@@ -8195,7 +8204,7 @@
       <c r="T137" s="1"/>
     </row>
     <row r="138" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="105"/>
+      <c r="A138" s="109"/>
       <c r="B138" s="5" t="str">
         <f t="shared" si="22"/>
         <v xml:space="preserve">PRESENT </v>
@@ -8239,7 +8248,7 @@
       <c r="T138" s="1"/>
     </row>
     <row r="139" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="105"/>
+      <c r="A139" s="109"/>
       <c r="B139" s="5" t="str">
         <f t="shared" si="22"/>
         <v>MACGUFFIN</v>
@@ -8283,7 +8292,7 @@
       <c r="T139" s="1"/>
     </row>
     <row r="140" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="105"/>
+      <c r="A140" s="109"/>
       <c r="B140" s="5" t="str">
         <f t="shared" si="22"/>
         <v>SQUARE</v>
@@ -8327,7 +8336,7 @@
       <c r="T140" s="1"/>
     </row>
     <row r="141" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="105"/>
+      <c r="A141" s="109"/>
       <c r="B141" s="5" t="str">
         <f t="shared" si="22"/>
         <v>M6</v>
@@ -8371,7 +8380,7 @@
       <c r="T141" s="1"/>
     </row>
     <row r="142" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="105"/>
+      <c r="A142" s="109"/>
       <c r="B142" s="5" t="str">
         <f t="shared" si="22"/>
         <v>ICE</v>
@@ -8415,7 +8424,7 @@
       <c r="T142" s="1"/>
     </row>
     <row r="143" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="105"/>
+      <c r="A143" s="109"/>
       <c r="B143" s="5" t="str">
         <f t="shared" si="22"/>
         <v>SHARK</v>
@@ -8459,7 +8468,7 @@
       <c r="T143" s="1"/>
     </row>
     <row r="144" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="105"/>
+      <c r="A144" s="109"/>
       <c r="B144" s="5" t="str">
         <f t="shared" si="22"/>
         <v>CS-CIPHER</v>
@@ -8501,7 +8510,7 @@
       <c r="T144" s="1"/>
     </row>
     <row r="145" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="105"/>
+      <c r="A145" s="109"/>
       <c r="B145" s="5" t="str">
         <f t="shared" si="22"/>
         <v>NUSH</v>
@@ -8545,7 +8554,7 @@
       <c r="T145" s="1"/>
     </row>
     <row r="146" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="105"/>
+      <c r="A146" s="109"/>
       <c r="B146" s="5" t="str">
         <f t="shared" si="22"/>
         <v>GRAND CRU</v>
@@ -8589,7 +8598,7 @@
       <c r="T146" s="1"/>
     </row>
     <row r="147" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="105"/>
+      <c r="A147" s="109"/>
       <c r="B147" s="5" t="str">
         <f t="shared" si="22"/>
         <v>Q</v>
@@ -8631,7 +8640,7 @@
       <c r="T147" s="1"/>
     </row>
     <row r="148" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="105"/>
+      <c r="A148" s="109"/>
       <c r="B148" s="5" t="str">
         <f t="shared" si="22"/>
         <v>E2</v>
@@ -8675,7 +8684,7 @@
       <c r="T148" s="1"/>
     </row>
     <row r="149" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="105"/>
+      <c r="A149" s="109"/>
       <c r="B149" s="5" t="str">
         <f t="shared" si="22"/>
         <v>KHAZAD</v>
@@ -8719,7 +8728,7 @@
       <c r="T149" s="1"/>
     </row>
     <row r="150" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="105"/>
+      <c r="A150" s="109"/>
       <c r="B150" s="5" t="str">
         <f t="shared" si="22"/>
         <v>HIEROCRYPT-L1</v>
@@ -8763,7 +8772,7 @@
       <c r="T150" s="1"/>
     </row>
     <row r="151" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="105"/>
+      <c r="A151" s="109"/>
       <c r="B151" s="5" t="str">
         <f t="shared" si="22"/>
         <v>HIEROCRYPT-3</v>
@@ -8807,7 +8816,7 @@
       <c r="T151" s="1"/>
     </row>
     <row r="152" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="105"/>
+      <c r="A152" s="109"/>
       <c r="B152" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -8843,7 +8852,7 @@
       <c r="T152" s="1"/>
     </row>
     <row r="153" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="104" t="s">
+      <c r="A153" s="108" t="s">
         <v>262</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -8890,7 +8899,7 @@
       <c r="T153" s="1"/>
     </row>
     <row r="154" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="105"/>
+      <c r="A154" s="109"/>
       <c r="B154" s="2" t="s">
         <v>14</v>
       </c>
@@ -8935,7 +8944,7 @@
       <c r="T154" s="1"/>
     </row>
     <row r="155" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="105"/>
+      <c r="A155" s="109"/>
       <c r="B155" s="2" t="s">
         <v>22</v>
       </c>
@@ -8980,7 +8989,7 @@
       <c r="T155" s="1"/>
     </row>
     <row r="156" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="105"/>
+      <c r="A156" s="109"/>
       <c r="B156" s="2" t="s">
         <v>21</v>
       </c>
@@ -9013,7 +9022,7 @@
       </c>
     </row>
     <row r="157" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="105"/>
+      <c r="A157" s="109"/>
       <c r="B157" s="2" t="s">
         <v>19</v>
       </c>
@@ -9046,7 +9055,7 @@
       </c>
     </row>
     <row r="158" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="105"/>
+      <c r="A158" s="109"/>
       <c r="B158" s="2" t="s">
         <v>17</v>
       </c>
@@ -9079,11 +9088,11 @@
       </c>
       <c r="K158" s="18">
         <f t="shared" ref="K158:K165" si="25">(N44-Q44)/Q44</f>
-        <v>1.0556457963803172</v>
+        <v>2.782289819015862E-2</v>
       </c>
     </row>
     <row r="159" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="105"/>
+      <c r="A159" s="109"/>
       <c r="B159" s="2" t="s">
         <v>24</v>
       </c>
@@ -9120,7 +9129,7 @@
       </c>
     </row>
     <row r="160" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="105"/>
+      <c r="A160" s="109"/>
       <c r="B160" s="2" t="s">
         <v>16</v>
       </c>
@@ -9157,7 +9166,7 @@
       </c>
     </row>
     <row r="161" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="105"/>
+      <c r="A161" s="109"/>
       <c r="B161" s="2" t="s">
         <v>20</v>
       </c>
@@ -9194,7 +9203,7 @@
       </c>
     </row>
     <row r="162" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="105"/>
+      <c r="A162" s="109"/>
       <c r="B162" s="2" t="s">
         <v>23</v>
       </c>
@@ -9231,7 +9240,7 @@
       </c>
     </row>
     <row r="163" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="105"/>
+      <c r="A163" s="109"/>
       <c r="B163" s="2" t="s">
         <v>15</v>
       </c>
@@ -9268,7 +9277,7 @@
       </c>
     </row>
     <row r="164" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="105"/>
+      <c r="A164" s="109"/>
       <c r="B164" s="2" t="s">
         <v>2</v>
       </c>
@@ -9305,7 +9314,7 @@
       </c>
     </row>
     <row r="165" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="105"/>
+      <c r="A165" s="109"/>
       <c r="B165" s="2" t="s">
         <v>18</v>
       </c>
@@ -9342,7 +9351,7 @@
       </c>
     </row>
     <row r="166" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="105"/>
+      <c r="A166" s="109"/>
       <c r="B166" s="2" t="s">
         <v>25</v>
       </c>
@@ -9375,7 +9384,7 @@
       </c>
     </row>
     <row r="167" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="105"/>
+      <c r="A167" s="109"/>
       <c r="B167" s="5" t="str">
         <f t="shared" ref="B167:B189" si="26">B130</f>
         <v>XTEA</v>
@@ -9409,11 +9418,11 @@
       </c>
       <c r="K167" s="19">
         <f>AVERAGE(K158:K166)</f>
-        <v>0.74515762921870676</v>
+        <v>0.61667976694493698</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="105"/>
+      <c r="A168" s="109"/>
       <c r="B168" s="5" t="str">
         <f t="shared" si="26"/>
         <v>SKIPJECT</v>
@@ -9448,7 +9457,7 @@
       <c r="K168" s="19"/>
     </row>
     <row r="169" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="105"/>
+      <c r="A169" s="109"/>
       <c r="B169" s="5" t="str">
         <f t="shared" si="26"/>
         <v>SPECK</v>
@@ -9483,7 +9492,7 @@
       <c r="K169" s="19"/>
     </row>
     <row r="170" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="105"/>
+      <c r="A170" s="109"/>
       <c r="B170" s="5" t="str">
         <f t="shared" si="26"/>
         <v>SIMON</v>
@@ -9518,7 +9527,7 @@
       <c r="K170" s="19"/>
     </row>
     <row r="171" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="105"/>
+      <c r="A171" s="109"/>
       <c r="B171" s="5" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">LUCIFER </v>
@@ -9553,7 +9562,7 @@
       <c r="K171" s="19"/>
     </row>
     <row r="172" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="105"/>
+      <c r="A172" s="109"/>
       <c r="B172" s="5" t="str">
         <f t="shared" si="26"/>
         <v>CLEFIA</v>
@@ -9588,7 +9597,7 @@
       <c r="K172" s="19"/>
     </row>
     <row r="173" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="105"/>
+      <c r="A173" s="109"/>
       <c r="B173" s="5" t="str">
         <f t="shared" si="26"/>
         <v>ARIA</v>
@@ -9623,7 +9632,7 @@
       <c r="K173" s="19"/>
     </row>
     <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="105"/>
+      <c r="A174" s="109"/>
       <c r="B174" s="5" t="str">
         <f t="shared" si="26"/>
         <v>CRYPTOMERIA/C2</v>
@@ -9658,7 +9667,7 @@
       <c r="K174" s="19"/>
     </row>
     <row r="175" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="105"/>
+      <c r="A175" s="109"/>
       <c r="B175" s="5" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">PRESENT </v>
@@ -9693,7 +9702,7 @@
       <c r="K175" s="19"/>
     </row>
     <row r="176" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="105"/>
+      <c r="A176" s="109"/>
       <c r="B176" s="5" t="str">
         <f t="shared" si="26"/>
         <v>MACGUFFIN</v>
@@ -9728,7 +9737,7 @@
       <c r="K176" s="19"/>
     </row>
     <row r="177" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="105"/>
+      <c r="A177" s="109"/>
       <c r="B177" s="5" t="str">
         <f t="shared" si="26"/>
         <v>SQUARE</v>
@@ -9763,7 +9772,7 @@
       <c r="K177" s="19"/>
     </row>
     <row r="178" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="105"/>
+      <c r="A178" s="109"/>
       <c r="B178" s="5" t="str">
         <f t="shared" si="26"/>
         <v>M6</v>
@@ -9798,7 +9807,7 @@
       <c r="K178" s="19"/>
     </row>
     <row r="179" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="105"/>
+      <c r="A179" s="109"/>
       <c r="B179" s="5" t="str">
         <f t="shared" si="26"/>
         <v>ICE</v>
@@ -9833,7 +9842,7 @@
       <c r="K179" s="19"/>
     </row>
     <row r="180" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="105"/>
+      <c r="A180" s="109"/>
       <c r="B180" s="5" t="str">
         <f t="shared" si="26"/>
         <v>SHARK</v>
@@ -9868,7 +9877,7 @@
       <c r="K180" s="19"/>
     </row>
     <row r="181" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="105"/>
+      <c r="A181" s="109"/>
       <c r="B181" s="5" t="str">
         <f t="shared" si="26"/>
         <v>CS-CIPHER</v>
@@ -9901,7 +9910,7 @@
       <c r="K181" s="19"/>
     </row>
     <row r="182" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="105"/>
+      <c r="A182" s="109"/>
       <c r="B182" s="5" t="str">
         <f t="shared" si="26"/>
         <v>NUSH</v>
@@ -9936,7 +9945,7 @@
       <c r="K182" s="19"/>
     </row>
     <row r="183" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="105"/>
+      <c r="A183" s="109"/>
       <c r="B183" s="5" t="str">
         <f t="shared" si="26"/>
         <v>GRAND CRU</v>
@@ -9971,7 +9980,7 @@
       <c r="K183" s="19"/>
     </row>
     <row r="184" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="105"/>
+      <c r="A184" s="109"/>
       <c r="B184" s="5" t="str">
         <f t="shared" si="26"/>
         <v>Q</v>
@@ -10004,7 +10013,7 @@
       <c r="K184" s="19"/>
     </row>
     <row r="185" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="105"/>
+      <c r="A185" s="109"/>
       <c r="B185" s="5" t="str">
         <f t="shared" si="26"/>
         <v>E2</v>
@@ -10039,7 +10048,7 @@
       <c r="K185" s="19"/>
     </row>
     <row r="186" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="105"/>
+      <c r="A186" s="109"/>
       <c r="B186" s="5" t="str">
         <f t="shared" si="26"/>
         <v>KHAZAD</v>
@@ -10074,7 +10083,7 @@
       <c r="K186" s="19"/>
     </row>
     <row r="187" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="105"/>
+      <c r="A187" s="109"/>
       <c r="B187" s="5" t="str">
         <f t="shared" si="26"/>
         <v>HIEROCRYPT-L1</v>
@@ -10109,7 +10118,7 @@
       <c r="K187" s="19"/>
     </row>
     <row r="188" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="105"/>
+      <c r="A188" s="109"/>
       <c r="B188" s="5" t="str">
         <f t="shared" si="26"/>
         <v>HIEROCRYPT-3</v>
@@ -10144,7 +10153,7 @@
       <c r="K188" s="19"/>
     </row>
     <row r="189" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="106"/>
+      <c r="A189" s="110"/>
       <c r="B189" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
@@ -10170,7 +10179,7 @@
       <c r="K189" s="19"/>
     </row>
     <row r="190" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="104" t="s">
+      <c r="A190" s="108" t="s">
         <v>263</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -10205,7 +10214,7 @@
       </c>
     </row>
     <row r="191" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="105"/>
+      <c r="A191" s="109"/>
       <c r="B191" s="2" t="s">
         <v>14</v>
       </c>
@@ -10236,34 +10245,36 @@
       </c>
     </row>
     <row r="192" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="105"/>
+      <c r="A192" s="109"/>
       <c r="B192" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C192" s="6"/>
+      <c r="C192" s="6">
+        <v>3</v>
+      </c>
       <c r="D192" s="4">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E192" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F192" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G192" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H192" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I192" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K192" t="s">
         <v>13</v>
@@ -10281,34 +10292,36 @@
       </c>
     </row>
     <row r="193" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="105"/>
+      <c r="A193" s="109"/>
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C193" s="6"/>
+      <c r="C193" s="6">
+        <v>3</v>
+      </c>
       <c r="D193" s="4">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E193" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F193" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G193" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H193" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I193" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K193" t="s">
         <v>14</v>
@@ -10325,7 +10338,7 @@
       </c>
     </row>
     <row r="194" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="105"/>
+      <c r="A194" s="109"/>
       <c r="B194" s="2" t="s">
         <v>19</v>
       </c>
@@ -10371,34 +10384,36 @@
       </c>
     </row>
     <row r="195" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="105"/>
+      <c r="A195" s="109"/>
       <c r="B195" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C195" s="6"/>
+      <c r="C195" s="6">
+        <v>2</v>
+      </c>
       <c r="D195" s="4">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E195" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F195" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G195" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H195" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I195" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K195" t="s">
         <v>21</v>
@@ -10416,7 +10431,7 @@
       </c>
     </row>
     <row r="196" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="105"/>
+      <c r="A196" s="109"/>
       <c r="B196" s="2" t="s">
         <v>24</v>
       </c>
@@ -10463,34 +10478,36 @@
       </c>
     </row>
     <row r="197" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="105"/>
+      <c r="A197" s="109"/>
       <c r="B197" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C197" s="6"/>
+      <c r="C197" s="6">
+        <v>1</v>
+      </c>
       <c r="D197" s="4">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E197" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F197" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G197" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H197" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" s="4">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K197" t="s">
         <v>17</v>
@@ -10508,7 +10525,7 @@
       </c>
     </row>
     <row r="198" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="105"/>
+      <c r="A198" s="109"/>
       <c r="B198" s="2" t="s">
         <v>20</v>
       </c>
@@ -10555,7 +10572,7 @@
       </c>
     </row>
     <row r="199" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="105"/>
+      <c r="A199" s="109"/>
       <c r="B199" s="2" t="s">
         <v>23</v>
       </c>
@@ -10601,7 +10618,7 @@
       </c>
     </row>
     <row r="200" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="105"/>
+      <c r="A200" s="109"/>
       <c r="B200" s="2" t="s">
         <v>15</v>
       </c>
@@ -10638,7 +10655,7 @@
       </c>
     </row>
     <row r="201" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="105"/>
+      <c r="A201" s="109"/>
       <c r="B201" s="2" t="s">
         <v>2</v>
       </c>
@@ -10671,7 +10688,7 @@
       </c>
     </row>
     <row r="202" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="105"/>
+      <c r="A202" s="109"/>
       <c r="B202" s="2" t="s">
         <v>18</v>
       </c>
@@ -10704,7 +10721,7 @@
       </c>
     </row>
     <row r="203" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="105"/>
+      <c r="A203" s="109"/>
       <c r="B203" s="2" t="s">
         <v>25</v>
       </c>
@@ -10737,7 +10754,7 @@
       </c>
     </row>
     <row r="204" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="105"/>
+      <c r="A204" s="109"/>
       <c r="B204" s="5" t="str">
         <f>B167</f>
         <v>XTEA</v>
@@ -10771,7 +10788,7 @@
       </c>
     </row>
     <row r="205" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="105"/>
+      <c r="A205" s="109"/>
       <c r="B205" s="5" t="str">
         <f>B168</f>
         <v>SKIPJECT</v>
@@ -10805,7 +10822,7 @@
       </c>
     </row>
     <row r="206" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="105"/>
+      <c r="A206" s="109"/>
       <c r="B206" s="5" t="str">
         <f t="shared" ref="B206:B226" si="30">B169</f>
         <v>SPECK</v>
@@ -10839,7 +10856,7 @@
       </c>
     </row>
     <row r="207" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="105"/>
+      <c r="A207" s="109"/>
       <c r="B207" s="5" t="str">
         <f t="shared" si="30"/>
         <v>SIMON</v>
@@ -10873,7 +10890,7 @@
       </c>
     </row>
     <row r="208" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="105"/>
+      <c r="A208" s="109"/>
       <c r="B208" s="5" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">LUCIFER </v>
@@ -10907,7 +10924,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="105"/>
+      <c r="A209" s="109"/>
       <c r="B209" s="5" t="str">
         <f t="shared" si="30"/>
         <v>CLEFIA</v>
@@ -10941,7 +10958,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="105"/>
+      <c r="A210" s="109"/>
       <c r="B210" s="5" t="str">
         <f t="shared" si="30"/>
         <v>ARIA</v>
@@ -10975,7 +10992,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="105"/>
+      <c r="A211" s="109"/>
       <c r="B211" s="5" t="str">
         <f t="shared" si="30"/>
         <v>CRYPTOMERIA/C2</v>
@@ -11009,7 +11026,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="105"/>
+      <c r="A212" s="109"/>
       <c r="B212" s="5" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">PRESENT </v>
@@ -11043,7 +11060,7 @@
       </c>
     </row>
     <row r="213" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="105"/>
+      <c r="A213" s="109"/>
       <c r="B213" s="5" t="str">
         <f t="shared" si="30"/>
         <v>MACGUFFIN</v>
@@ -11077,7 +11094,7 @@
       </c>
     </row>
     <row r="214" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="105"/>
+      <c r="A214" s="109"/>
       <c r="B214" s="5" t="str">
         <f t="shared" si="30"/>
         <v>SQUARE</v>
@@ -11111,7 +11128,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="105"/>
+      <c r="A215" s="109"/>
       <c r="B215" s="5" t="str">
         <f t="shared" si="30"/>
         <v>M6</v>
@@ -11145,7 +11162,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="105"/>
+      <c r="A216" s="109"/>
       <c r="B216" s="5" t="str">
         <f t="shared" si="30"/>
         <v>ICE</v>
@@ -11179,7 +11196,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="105"/>
+      <c r="A217" s="109"/>
       <c r="B217" s="5" t="str">
         <f t="shared" si="30"/>
         <v>SHARK</v>
@@ -11213,7 +11230,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="105"/>
+      <c r="A218" s="109"/>
       <c r="B218" s="5" t="str">
         <f t="shared" si="30"/>
         <v>CS-CIPHER</v>
@@ -11247,7 +11264,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="105"/>
+      <c r="A219" s="109"/>
       <c r="B219" s="5" t="str">
         <f t="shared" si="30"/>
         <v>NUSH</v>
@@ -11281,7 +11298,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="105"/>
+      <c r="A220" s="109"/>
       <c r="B220" s="5" t="str">
         <f t="shared" si="30"/>
         <v>GRAND CRU</v>
@@ -11315,7 +11332,7 @@
       </c>
     </row>
     <row r="221" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="105"/>
+      <c r="A221" s="109"/>
       <c r="B221" s="5" t="str">
         <f t="shared" si="30"/>
         <v>Q</v>
@@ -11349,7 +11366,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="105"/>
+      <c r="A222" s="109"/>
       <c r="B222" s="5" t="str">
         <f t="shared" si="30"/>
         <v>E2</v>
@@ -11381,7 +11398,7 @@
       </c>
     </row>
     <row r="223" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="105"/>
+      <c r="A223" s="109"/>
       <c r="B223" s="5" t="str">
         <f t="shared" si="30"/>
         <v>KHAZAD</v>
@@ -11415,7 +11432,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="105"/>
+      <c r="A224" s="109"/>
       <c r="B224" s="5" t="str">
         <f t="shared" si="30"/>
         <v>HIEROCRYPT-L1</v>
@@ -11449,7 +11466,7 @@
       </c>
     </row>
     <row r="225" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="105"/>
+      <c r="A225" s="109"/>
       <c r="B225" s="5" t="str">
         <f t="shared" si="30"/>
         <v>HIEROCRYPT-3</v>
@@ -11483,7 +11500,7 @@
       </c>
     </row>
     <row r="226" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="105"/>
+      <c r="A226" s="109"/>
       <c r="B226" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -11497,7 +11514,7 @@
       <c r="I226" s="4"/>
     </row>
     <row r="227" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="88" t="s">
+      <c r="A227" s="94" t="s">
         <v>76</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -11512,7 +11529,7 @@
       <c r="I227" s="4"/>
     </row>
     <row r="228" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="89"/>
+      <c r="A228" s="95"/>
       <c r="B228" s="2" t="s">
         <v>14</v>
       </c>
@@ -11525,7 +11542,7 @@
       <c r="I228" s="4"/>
     </row>
     <row r="229" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="89"/>
+      <c r="A229" s="95"/>
       <c r="B229" s="2" t="s">
         <v>22</v>
       </c>
@@ -11538,7 +11555,7 @@
       <c r="I229" s="4"/>
     </row>
     <row r="230" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="89"/>
+      <c r="A230" s="95"/>
       <c r="B230" s="2" t="s">
         <v>21</v>
       </c>
@@ -11551,7 +11568,7 @@
       <c r="I230" s="4"/>
     </row>
     <row r="231" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="89"/>
+      <c r="A231" s="95"/>
       <c r="B231" s="2" t="s">
         <v>19</v>
       </c>
@@ -11564,7 +11581,7 @@
       <c r="I231" s="4"/>
     </row>
     <row r="232" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="89"/>
+      <c r="A232" s="95"/>
       <c r="B232" s="2" t="s">
         <v>17</v>
       </c>
@@ -11577,7 +11594,7 @@
       <c r="I232" s="4"/>
     </row>
     <row r="233" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="89"/>
+      <c r="A233" s="95"/>
       <c r="B233" s="2" t="s">
         <v>24</v>
       </c>
@@ -11590,7 +11607,7 @@
       <c r="I233" s="4"/>
     </row>
     <row r="234" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="89"/>
+      <c r="A234" s="95"/>
       <c r="B234" s="2" t="s">
         <v>16</v>
       </c>
@@ -11603,7 +11620,7 @@
       <c r="I234" s="4"/>
     </row>
     <row r="235" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="89"/>
+      <c r="A235" s="95"/>
       <c r="B235" s="2" t="s">
         <v>20</v>
       </c>
@@ -11616,7 +11633,7 @@
       <c r="I235" s="4"/>
     </row>
     <row r="236" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="89"/>
+      <c r="A236" s="95"/>
       <c r="B236" s="2" t="s">
         <v>23</v>
       </c>
@@ -11629,7 +11646,7 @@
       <c r="I236" s="4"/>
     </row>
     <row r="237" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="89"/>
+      <c r="A237" s="95"/>
       <c r="B237" s="2" t="s">
         <v>15</v>
       </c>
@@ -11642,7 +11659,7 @@
       <c r="I237" s="4"/>
     </row>
     <row r="238" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="89"/>
+      <c r="A238" s="95"/>
       <c r="B238" s="2" t="s">
         <v>2</v>
       </c>
@@ -11655,7 +11672,7 @@
       <c r="I238" s="4"/>
     </row>
     <row r="239" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="89"/>
+      <c r="A239" s="95"/>
       <c r="B239" s="2" t="s">
         <v>18</v>
       </c>
@@ -11668,7 +11685,7 @@
       <c r="I239" s="4"/>
     </row>
     <row r="240" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="89"/>
+      <c r="A240" s="95"/>
       <c r="B240" s="2" t="s">
         <v>25</v>
       </c>
@@ -11681,7 +11698,7 @@
       <c r="I240" s="4"/>
     </row>
     <row r="241" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="90"/>
+      <c r="A241" s="96"/>
       <c r="B241" s="5" t="str">
         <f>B204</f>
         <v>XTEA</v>
@@ -11694,151 +11711,255 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
     </row>
-    <row r="245" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+    <row r="245" spans="1:11" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="C245" t="str">
+      <c r="C245" s="29" t="str">
         <f>B190</f>
         <v>AES</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="D245" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E245" s="2" t="s">
+      <c r="E245" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F245" s="2" t="s">
+      <c r="F245" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G245" s="2" t="s">
+      <c r="G245" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H245" s="2" t="s">
+      <c r="H245" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="I245" s="2" t="s">
+      <c r="I245" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J245" s="2" t="s">
+      <c r="J245" s="40" t="s">
         <v>16</v>
       </c>
       <c r="K245" s="2"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A246" s="124" t="s">
+      <c r="A246" s="90" t="s">
+        <v>287</v>
+      </c>
+      <c r="B246" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C246" s="29"/>
+      <c r="D246" s="29"/>
+      <c r="E246" s="29"/>
+      <c r="F246" s="29"/>
+      <c r="G246" s="29"/>
+      <c r="H246" s="29"/>
+      <c r="I246" s="29"/>
+      <c r="J246" s="29"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A247" s="90"/>
+      <c r="B247" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C247" s="29"/>
+      <c r="D247" s="29"/>
+      <c r="E247" s="29"/>
+      <c r="F247" s="29"/>
+      <c r="G247" s="29"/>
+      <c r="H247" s="29"/>
+      <c r="I247" s="29"/>
+      <c r="J247" s="29"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A248" s="90" t="s">
+        <v>271</v>
+      </c>
+      <c r="B248" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C248" s="29"/>
+      <c r="D248" s="29"/>
+      <c r="E248" s="29"/>
+      <c r="F248" s="29"/>
+      <c r="G248" s="29"/>
+      <c r="H248" s="29"/>
+      <c r="I248" s="29"/>
+      <c r="J248" s="29"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A249" s="90"/>
+      <c r="B249" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C249" s="29"/>
+      <c r="D249" s="29"/>
+      <c r="E249" s="29"/>
+      <c r="F249" s="29"/>
+      <c r="G249" s="29"/>
+      <c r="H249" s="29"/>
+      <c r="I249" s="29"/>
+      <c r="J249" s="29"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A250" s="90" t="s">
+        <v>288</v>
+      </c>
+      <c r="B250" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C250" s="29"/>
+      <c r="D250" s="29"/>
+      <c r="E250" s="29"/>
+      <c r="F250" s="29"/>
+      <c r="G250" s="29"/>
+      <c r="H250" s="29"/>
+      <c r="I250" s="29"/>
+      <c r="J250" s="29"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A251" s="90"/>
+      <c r="B251" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C251" s="29"/>
+      <c r="D251" s="29"/>
+      <c r="E251" s="29"/>
+      <c r="F251" s="29"/>
+      <c r="G251" s="29"/>
+      <c r="H251" s="29"/>
+      <c r="I251" s="29"/>
+      <c r="J251" s="29"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A252" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="B252" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C252" s="29"/>
+      <c r="D252" s="29"/>
+      <c r="E252" s="29"/>
+      <c r="F252" s="29"/>
+      <c r="G252" s="29"/>
+      <c r="H252" s="29"/>
+      <c r="I252" s="29"/>
+      <c r="J252" s="29"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A253" s="90"/>
+      <c r="B253" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C253" s="29"/>
+      <c r="D253" s="29"/>
+      <c r="E253" s="29"/>
+      <c r="F253" s="29"/>
+      <c r="G253" s="29"/>
+      <c r="H253" s="29"/>
+      <c r="I253" s="29"/>
+      <c r="J253" s="29"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A254" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="B254" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C254" s="29"/>
+      <c r="D254" s="29"/>
+      <c r="E254" s="29"/>
+      <c r="F254" s="29"/>
+      <c r="G254" s="29"/>
+      <c r="H254" s="29"/>
+      <c r="I254" s="29"/>
+      <c r="J254" s="29"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A255" s="90"/>
+      <c r="B255" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C255" s="29"/>
+      <c r="D255" s="29"/>
+      <c r="E255" s="29"/>
+      <c r="F255" s="29"/>
+      <c r="G255" s="29"/>
+      <c r="H255" s="29"/>
+      <c r="I255" s="29"/>
+      <c r="J255" s="29"/>
+    </row>
+    <row r="256" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="A256" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="B256" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C256" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D256" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E256" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F256" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G256" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H256" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="I256" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J256" s="52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A257" s="90" t="s">
         <v>270</v>
       </c>
-      <c r="B246" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A247" s="124"/>
-      <c r="B247" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A248" s="124" t="s">
+      <c r="B257" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="C257" s="29"/>
+      <c r="D257" s="29"/>
+      <c r="E257" s="29"/>
+      <c r="F257" s="29"/>
+      <c r="G257" s="29"/>
+      <c r="H257" s="29"/>
+      <c r="I257" s="29"/>
+      <c r="J257" s="29"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A258" s="90"/>
+      <c r="B258" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C258" s="29"/>
+      <c r="D258" s="29"/>
+      <c r="E258" s="29"/>
+      <c r="F258" s="29"/>
+      <c r="G258" s="29"/>
+      <c r="H258" s="29"/>
+      <c r="I258" s="29"/>
+      <c r="J258" s="29"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A259" s="90" t="s">
         <v>271</v>
-      </c>
-      <c r="B248" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A249" s="124"/>
-      <c r="B249" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A250" s="124" t="s">
-        <v>272</v>
-      </c>
-      <c r="B250" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A251" s="124"/>
-      <c r="B251" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A252" s="124" t="s">
-        <v>273</v>
-      </c>
-      <c r="B252" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A253" s="124"/>
-      <c r="B253" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A254" s="125" t="s">
-        <v>274</v>
-      </c>
-      <c r="B254" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A255" s="124"/>
-      <c r="B255" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A256" s="126"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A257" s="126"/>
-    </row>
-    <row r="258" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A258" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="B258" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="C258" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="D258" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E258" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F258" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G258" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H258" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="I258" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J258" s="52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A259" s="124" t="s">
-        <v>270</v>
       </c>
       <c r="B259" s="29" t="s">
         <v>284</v>
@@ -11853,7 +11974,7 @@
       <c r="J259" s="29"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A260" s="124"/>
+      <c r="A260" s="90"/>
       <c r="B260" s="29" t="s">
         <v>285</v>
       </c>
@@ -11867,8 +11988,8 @@
       <c r="J260" s="29"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A261" s="124" t="s">
-        <v>271</v>
+      <c r="A261" s="90" t="s">
+        <v>272</v>
       </c>
       <c r="B261" s="29" t="s">
         <v>284</v>
@@ -11883,7 +12004,7 @@
       <c r="J261" s="29"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A262" s="124"/>
+      <c r="A262" s="90"/>
       <c r="B262" s="29" t="s">
         <v>285</v>
       </c>
@@ -11897,8 +12018,8 @@
       <c r="J262" s="29"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A263" s="124" t="s">
-        <v>272</v>
+      <c r="A263" s="90" t="s">
+        <v>273</v>
       </c>
       <c r="B263" s="29" t="s">
         <v>284</v>
@@ -11913,7 +12034,7 @@
       <c r="J263" s="29"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A264" s="124"/>
+      <c r="A264" s="90"/>
       <c r="B264" s="29" t="s">
         <v>285</v>
       </c>
@@ -11927,8 +12048,8 @@
       <c r="J264" s="29"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A265" s="124" t="s">
-        <v>273</v>
+      <c r="A265" s="89" t="s">
+        <v>274</v>
       </c>
       <c r="B265" s="29" t="s">
         <v>284</v>
@@ -11943,7 +12064,7 @@
       <c r="J265" s="29"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A266" s="124"/>
+      <c r="A266" s="89"/>
       <c r="B266" s="29" t="s">
         <v>285</v>
       </c>
@@ -11956,26 +12077,44 @@
       <c r="I266" s="29"/>
       <c r="J266" s="29"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A267" s="125" t="s">
-        <v>274</v>
+    <row r="267" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A267" s="29" t="s">
+        <v>281</v>
       </c>
       <c r="B267" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C267" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D267" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E267" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="F267" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="G267" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H267" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I267" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="J267" s="52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A268" s="90" t="s">
+        <v>270</v>
+      </c>
+      <c r="B268" s="29" t="s">
         <v>284</v>
-      </c>
-      <c r="C267" s="29"/>
-      <c r="D267" s="29"/>
-      <c r="E267" s="29"/>
-      <c r="F267" s="29"/>
-      <c r="G267" s="29"/>
-      <c r="H267" s="29"/>
-      <c r="I267" s="29"/>
-      <c r="J267" s="29"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A268" s="125"/>
-      <c r="B268" s="29" t="s">
-        <v>285</v>
       </c>
       <c r="C268" s="29"/>
       <c r="D268" s="29"/>
@@ -11986,41 +12125,23 @@
       <c r="I268" s="29"/>
       <c r="J268" s="29"/>
     </row>
-    <row r="269" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A269" s="29" t="s">
-        <v>281</v>
-      </c>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A269" s="90"/>
       <c r="B269" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="C269" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D269" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E269" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="F269" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="G269" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="H269" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="I269" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="J269" s="52" t="s">
-        <v>38</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C269" s="29"/>
+      <c r="D269" s="29"/>
+      <c r="E269" s="29"/>
+      <c r="F269" s="29"/>
+      <c r="G269" s="29"/>
+      <c r="H269" s="29"/>
+      <c r="I269" s="29"/>
+      <c r="J269" s="29"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A270" s="124" t="s">
-        <v>270</v>
+      <c r="A270" s="90" t="s">
+        <v>271</v>
       </c>
       <c r="B270" s="29" t="s">
         <v>284</v>
@@ -12035,7 +12156,7 @@
       <c r="J270" s="29"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A271" s="124"/>
+      <c r="A271" s="90"/>
       <c r="B271" s="29" t="s">
         <v>285</v>
       </c>
@@ -12049,8 +12170,8 @@
       <c r="J271" s="29"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A272" s="124" t="s">
-        <v>271</v>
+      <c r="A272" s="90" t="s">
+        <v>272</v>
       </c>
       <c r="B272" s="29" t="s">
         <v>284</v>
@@ -12065,7 +12186,7 @@
       <c r="J272" s="29"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A273" s="124"/>
+      <c r="A273" s="90"/>
       <c r="B273" s="29" t="s">
         <v>285</v>
       </c>
@@ -12079,8 +12200,8 @@
       <c r="J273" s="29"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A274" s="124" t="s">
-        <v>272</v>
+      <c r="A274" s="90" t="s">
+        <v>273</v>
       </c>
       <c r="B274" s="29" t="s">
         <v>284</v>
@@ -12095,7 +12216,7 @@
       <c r="J274" s="29"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A275" s="124"/>
+      <c r="A275" s="90"/>
       <c r="B275" s="29" t="s">
         <v>285</v>
       </c>
@@ -12109,8 +12230,8 @@
       <c r="J275" s="29"/>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A276" s="124" t="s">
-        <v>273</v>
+      <c r="A276" s="89" t="s">
+        <v>274</v>
       </c>
       <c r="B276" s="29" t="s">
         <v>284</v>
@@ -12125,7 +12246,7 @@
       <c r="J276" s="29"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A277" s="124"/>
+      <c r="A277" s="89"/>
       <c r="B277" s="29" t="s">
         <v>285</v>
       </c>
@@ -12138,26 +12259,44 @@
       <c r="I277" s="29"/>
       <c r="J277" s="29"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A278" s="125" t="s">
-        <v>274</v>
+    <row r="278" spans="1:10" ht="63.75" x14ac:dyDescent="0.15">
+      <c r="A278" s="29" t="s">
+        <v>282</v>
       </c>
       <c r="B278" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C278" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D278" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="E278" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F278" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="G278" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="H278" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="I278" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="J278" s="88" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A279" s="90" t="s">
+        <v>270</v>
+      </c>
+      <c r="B279" s="29" t="s">
         <v>284</v>
-      </c>
-      <c r="C278" s="29"/>
-      <c r="D278" s="29"/>
-      <c r="E278" s="29"/>
-      <c r="F278" s="29"/>
-      <c r="G278" s="29"/>
-      <c r="H278" s="29"/>
-      <c r="I278" s="29"/>
-      <c r="J278" s="29"/>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A279" s="125"/>
-      <c r="B279" s="29" t="s">
-        <v>285</v>
       </c>
       <c r="C279" s="29"/>
       <c r="D279" s="29"/>
@@ -12168,41 +12307,23 @@
       <c r="I279" s="29"/>
       <c r="J279" s="29"/>
     </row>
-    <row r="280" spans="1:10" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A280" s="29" t="s">
-        <v>282</v>
-      </c>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A280" s="90"/>
       <c r="B280" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="C280" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D280" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="E280" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="F280" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="G280" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="H280" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="I280" s="127" t="s">
-        <v>277</v>
-      </c>
-      <c r="J280" s="127" t="s">
-        <v>279</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C280" s="29"/>
+      <c r="D280" s="29"/>
+      <c r="E280" s="29"/>
+      <c r="F280" s="29"/>
+      <c r="G280" s="29"/>
+      <c r="H280" s="29"/>
+      <c r="I280" s="29"/>
+      <c r="J280" s="29"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A281" s="124" t="s">
-        <v>270</v>
+      <c r="A281" s="90" t="s">
+        <v>271</v>
       </c>
       <c r="B281" s="29" t="s">
         <v>284</v>
@@ -12217,7 +12338,7 @@
       <c r="J281" s="29"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A282" s="124"/>
+      <c r="A282" s="90"/>
       <c r="B282" s="29" t="s">
         <v>285</v>
       </c>
@@ -12231,8 +12352,8 @@
       <c r="J282" s="29"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A283" s="124" t="s">
-        <v>271</v>
+      <c r="A283" s="90" t="s">
+        <v>272</v>
       </c>
       <c r="B283" s="29" t="s">
         <v>284</v>
@@ -12247,7 +12368,7 @@
       <c r="J283" s="29"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A284" s="124"/>
+      <c r="A284" s="90"/>
       <c r="B284" s="29" t="s">
         <v>285</v>
       </c>
@@ -12261,8 +12382,8 @@
       <c r="J284" s="29"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A285" s="124" t="s">
-        <v>272</v>
+      <c r="A285" s="90" t="s">
+        <v>273</v>
       </c>
       <c r="B285" s="29" t="s">
         <v>284</v>
@@ -12277,7 +12398,7 @@
       <c r="J285" s="29"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A286" s="124"/>
+      <c r="A286" s="90"/>
       <c r="B286" s="29" t="s">
         <v>285</v>
       </c>
@@ -12291,8 +12412,8 @@
       <c r="J286" s="29"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A287" s="124" t="s">
-        <v>273</v>
+      <c r="A287" s="89" t="s">
+        <v>278</v>
       </c>
       <c r="B287" s="29" t="s">
         <v>284</v>
@@ -12307,7 +12428,7 @@
       <c r="J287" s="29"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A288" s="124"/>
+      <c r="A288" s="89"/>
       <c r="B288" s="29" t="s">
         <v>285</v>
       </c>
@@ -12320,58 +12441,22 @@
       <c r="I288" s="29"/>
       <c r="J288" s="29"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A289" s="125" t="s">
-        <v>278</v>
-      </c>
-      <c r="B289" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="C289" s="29"/>
-      <c r="D289" s="29"/>
-      <c r="E289" s="29"/>
-      <c r="F289" s="29"/>
-      <c r="G289" s="29"/>
-      <c r="H289" s="29"/>
-      <c r="I289" s="29"/>
-      <c r="J289" s="29"/>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A290" s="125"/>
-      <c r="B290" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="C290" s="29"/>
-      <c r="D290" s="29"/>
-      <c r="E290" s="29"/>
-      <c r="F290" s="29"/>
-      <c r="G290" s="29"/>
-      <c r="H290" s="29"/>
-      <c r="I290" s="29"/>
-      <c r="J290" s="29"/>
-    </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="A278:A279"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="A270:A271"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A227:A241"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="A42:A78"/>
+    <mergeCell ref="A79:A115"/>
+    <mergeCell ref="A116:A152"/>
+    <mergeCell ref="A153:A189"/>
+    <mergeCell ref="A190:A226"/>
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="L90:N90"/>
     <mergeCell ref="O90:Q90"/>
@@ -12386,20 +12471,26 @@
     <mergeCell ref="L89:N89"/>
     <mergeCell ref="O89:Q89"/>
     <mergeCell ref="R89:T89"/>
-    <mergeCell ref="A227:A241"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="A42:A78"/>
-    <mergeCell ref="A79:A115"/>
-    <mergeCell ref="A116:A152"/>
-    <mergeCell ref="A153:A189"/>
-    <mergeCell ref="A190:A226"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="A274:A275"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13624,51 +13715,51 @@
       <c r="A1" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="113" t="s">
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="111" t="s">
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="111"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="108" t="s">
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="116"/>
+      <c r="AD1" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="109"/>
-      <c r="AJ1" s="109"/>
-      <c r="AK1" s="109"/>
-      <c r="AL1" s="110"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="113"/>
+      <c r="AH1" s="113"/>
+      <c r="AI1" s="113"/>
+      <c r="AJ1" s="113"/>
+      <c r="AK1" s="113"/>
+      <c r="AL1" s="114"/>
     </row>
     <row r="2" spans="1:39" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2" s="29"/>
@@ -16147,51 +16238,51 @@
       <c r="A39" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="113" t="s">
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="114"/>
-      <c r="N39" s="114"/>
-      <c r="O39" s="114"/>
-      <c r="P39" s="114"/>
-      <c r="Q39" s="114"/>
-      <c r="R39" s="114"/>
-      <c r="S39" s="114"/>
-      <c r="T39" s="111" t="s">
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="118"/>
+      <c r="L39" s="118"/>
+      <c r="M39" s="118"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="118"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="118"/>
+      <c r="R39" s="118"/>
+      <c r="S39" s="118"/>
+      <c r="T39" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="U39" s="111"/>
-      <c r="V39" s="111"/>
-      <c r="W39" s="111"/>
-      <c r="X39" s="111"/>
-      <c r="Y39" s="111"/>
-      <c r="Z39" s="111"/>
-      <c r="AA39" s="111"/>
-      <c r="AB39" s="111"/>
-      <c r="AC39" s="112"/>
-      <c r="AD39" s="108" t="s">
+      <c r="U39" s="115"/>
+      <c r="V39" s="115"/>
+      <c r="W39" s="115"/>
+      <c r="X39" s="115"/>
+      <c r="Y39" s="115"/>
+      <c r="Z39" s="115"/>
+      <c r="AA39" s="115"/>
+      <c r="AB39" s="115"/>
+      <c r="AC39" s="116"/>
+      <c r="AD39" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="AE39" s="109"/>
-      <c r="AF39" s="109"/>
-      <c r="AG39" s="109"/>
-      <c r="AH39" s="109"/>
-      <c r="AI39" s="109"/>
-      <c r="AJ39" s="109"/>
-      <c r="AK39" s="109"/>
-      <c r="AL39" s="110"/>
+      <c r="AE39" s="113"/>
+      <c r="AF39" s="113"/>
+      <c r="AG39" s="113"/>
+      <c r="AH39" s="113"/>
+      <c r="AI39" s="113"/>
+      <c r="AJ39" s="113"/>
+      <c r="AK39" s="113"/>
+      <c r="AL39" s="114"/>
     </row>
     <row r="40" spans="1:38" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A40" s="29"/>
@@ -17256,51 +17347,51 @@
       <c r="A58" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="107"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="113" t="s">
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
-      <c r="K58" s="114"/>
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
-      <c r="N58" s="114"/>
-      <c r="O58" s="114"/>
-      <c r="P58" s="114"/>
-      <c r="Q58" s="114"/>
-      <c r="R58" s="114"/>
-      <c r="S58" s="114"/>
-      <c r="T58" s="111" t="s">
+      <c r="I58" s="118"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="118"/>
+      <c r="L58" s="118"/>
+      <c r="M58" s="118"/>
+      <c r="N58" s="118"/>
+      <c r="O58" s="118"/>
+      <c r="P58" s="118"/>
+      <c r="Q58" s="118"/>
+      <c r="R58" s="118"/>
+      <c r="S58" s="118"/>
+      <c r="T58" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="U58" s="111"/>
-      <c r="V58" s="111"/>
-      <c r="W58" s="111"/>
-      <c r="X58" s="111"/>
-      <c r="Y58" s="111"/>
-      <c r="Z58" s="111"/>
-      <c r="AA58" s="111"/>
-      <c r="AB58" s="111"/>
-      <c r="AC58" s="112"/>
-      <c r="AD58" s="108" t="s">
+      <c r="U58" s="115"/>
+      <c r="V58" s="115"/>
+      <c r="W58" s="115"/>
+      <c r="X58" s="115"/>
+      <c r="Y58" s="115"/>
+      <c r="Z58" s="115"/>
+      <c r="AA58" s="115"/>
+      <c r="AB58" s="115"/>
+      <c r="AC58" s="116"/>
+      <c r="AD58" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="AE58" s="109"/>
-      <c r="AF58" s="109"/>
-      <c r="AG58" s="109"/>
-      <c r="AH58" s="109"/>
-      <c r="AI58" s="109"/>
-      <c r="AJ58" s="109"/>
-      <c r="AK58" s="109"/>
-      <c r="AL58" s="110"/>
+      <c r="AE58" s="113"/>
+      <c r="AF58" s="113"/>
+      <c r="AG58" s="113"/>
+      <c r="AH58" s="113"/>
+      <c r="AI58" s="113"/>
+      <c r="AJ58" s="113"/>
+      <c r="AK58" s="113"/>
+      <c r="AL58" s="114"/>
     </row>
     <row r="59" spans="1:38" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
@@ -21647,7 +21738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
@@ -21688,13 +21779,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="115">
+      <c r="C2" s="119">
         <v>500</v>
       </c>
       <c r="D2" s="77" t="s">
@@ -21720,9 +21811,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
       <c r="D3" s="77" t="s">
         <v>14</v>
       </c>
@@ -21746,9 +21837,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="116"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="77" t="s">
         <v>22</v>
       </c>
@@ -21772,9 +21863,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="77" t="s">
         <v>21</v>
       </c>
@@ -21798,9 +21889,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="116"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="77" t="s">
         <v>19</v>
       </c>
@@ -21824,9 +21915,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="77" t="s">
         <v>16</v>
       </c>
@@ -21850,13 +21941,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="119" t="s">
         <v>174</v>
       </c>
       <c r="D8" s="77" t="s">
@@ -21876,9 +21967,9 @@
       <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
       <c r="D9" s="77" t="s">
         <v>14</v>
       </c>
@@ -21896,9 +21987,9 @@
       <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="77" t="s">
         <v>22</v>
       </c>
@@ -21916,9 +22007,9 @@
       <c r="I10" s="79"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="116"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="77" t="s">
         <v>21</v>
       </c>
@@ -21936,9 +22027,9 @@
       <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="116"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="77" t="s">
         <v>19</v>
       </c>
@@ -21956,9 +22047,9 @@
       <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="117"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="77" t="s">
         <v>16</v>
       </c>
@@ -21976,11 +22067,11 @@
       <c r="I13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="77" t="s">
         <v>13</v>
       </c>
@@ -21995,9 +22086,9 @@
       <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="116"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
+      <c r="A15" s="120"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="77" t="s">
         <v>14</v>
       </c>
@@ -22012,9 +22103,9 @@
       <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="116"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="120"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="77" t="s">
         <v>22</v>
       </c>
@@ -22029,9 +22120,9 @@
       <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="116"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="77" t="s">
         <v>21</v>
       </c>
@@ -22046,9 +22137,9 @@
       <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="116"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
+      <c r="A18" s="120"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
       <c r="D18" s="77" t="s">
         <v>19</v>
       </c>
@@ -22063,9 +22154,9 @@
       <c r="I18" s="79"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="117"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
       <c r="D19" s="77" t="s">
         <v>16</v>
       </c>
@@ -22080,11 +22171,11 @@
       <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="77" t="s">
         <v>13</v>
       </c>
@@ -22099,9 +22190,9 @@
       <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="116"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
+      <c r="A21" s="120"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
       <c r="D21" s="77" t="s">
         <v>14</v>
       </c>
@@ -22116,9 +22207,9 @@
       <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="116"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="77" t="s">
         <v>22</v>
       </c>
@@ -22133,9 +22224,9 @@
       <c r="I22" s="79"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
+      <c r="A23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
       <c r="D23" s="77" t="s">
         <v>21</v>
       </c>
@@ -22150,9 +22241,9 @@
       <c r="I23" s="79"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="116"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
+      <c r="A24" s="120"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="77" t="s">
         <v>19</v>
       </c>
@@ -22167,9 +22258,9 @@
       <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="117"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
       <c r="D25" s="77" t="s">
         <v>16</v>
       </c>
@@ -22214,13 +22305,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="115">
+      <c r="C30" s="119">
         <v>500</v>
       </c>
       <c r="D30" s="77" t="s">
@@ -22245,9 +22336,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="116"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
+      <c r="A31" s="120"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="77" t="s">
         <v>14</v>
       </c>
@@ -22270,9 +22361,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="116"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
+      <c r="A32" s="120"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="77" t="s">
         <v>22</v>
       </c>
@@ -22295,9 +22386,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="116"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="116"/>
+      <c r="A33" s="120"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
       <c r="D33" s="77" t="s">
         <v>21</v>
       </c>
@@ -22320,9 +22411,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="116"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
+      <c r="A34" s="120"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
       <c r="D34" s="77" t="s">
         <v>19</v>
       </c>
@@ -22345,9 +22436,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="117"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="117"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="77" t="s">
         <v>16</v>
       </c>
@@ -22370,13 +22461,13 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="115" t="s">
+      <c r="A36" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="115">
+      <c r="C36" s="119">
         <v>1000</v>
       </c>
       <c r="D36" s="77" t="s">
@@ -22397,9 +22488,9 @@
       <c r="I36" s="79"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="116"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
+      <c r="A37" s="120"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="77" t="s">
         <v>14</v>
       </c>
@@ -22418,9 +22509,9 @@
       <c r="I37" s="79"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="116"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
       <c r="D38" s="77" t="s">
         <v>22</v>
       </c>
@@ -22439,9 +22530,9 @@
       <c r="I38" s="79"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="116"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="120"/>
       <c r="D39" s="77" t="s">
         <v>21</v>
       </c>
@@ -22460,9 +22551,9 @@
       <c r="I39" s="79"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
+      <c r="A40" s="120"/>
+      <c r="B40" s="120"/>
+      <c r="C40" s="120"/>
       <c r="D40" s="77" t="s">
         <v>19</v>
       </c>
@@ -22481,9 +22572,9 @@
       <c r="I40" s="79"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="117"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
       <c r="D41" s="77" t="s">
         <v>16</v>
       </c>
@@ -22503,24 +22594,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="C30:C35"/>
     <mergeCell ref="A36:A41"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="C36:C41"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22538,24 +22629,24 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="90"/>
-      <c r="B2" s="119"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="123"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -22576,7 +22667,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="94" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -22590,7 +22681,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="89"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -22602,7 +22693,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="89"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -22614,7 +22705,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
@@ -22626,7 +22717,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="89"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -22638,7 +22729,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -22650,7 +22741,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -22662,7 +22753,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -22674,7 +22765,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="89"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -22686,7 +22777,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="89"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -22698,7 +22789,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="89"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -22710,7 +22801,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -22722,7 +22813,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="89"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -22734,7 +22825,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="89"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -22746,7 +22837,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="89"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -22758,7 +22849,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="89"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -22770,7 +22861,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="89"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -22782,7 +22873,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="89"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -22794,7 +22885,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="89"/>
+      <c r="A21" s="95"/>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -22806,7 +22897,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="89"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -22818,7 +22909,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="89"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -22830,7 +22921,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="89"/>
+      <c r="A24" s="95"/>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -22842,7 +22933,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="89"/>
+      <c r="A25" s="95"/>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
@@ -22854,7 +22945,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="89"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
@@ -22866,7 +22957,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="89"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
@@ -22878,7 +22969,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="89"/>
+      <c r="A28" s="95"/>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
@@ -22890,7 +22981,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="89"/>
+      <c r="A29" s="95"/>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
@@ -22902,7 +22993,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="89"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
@@ -22914,7 +23005,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="89"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
@@ -22926,7 +23017,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="89"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
@@ -22938,7 +23029,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="89"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
@@ -22950,7 +23041,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="89"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
@@ -22962,7 +23053,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="89"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
@@ -22974,7 +23065,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="89"/>
+      <c r="A36" s="95"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
@@ -22986,7 +23077,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="89"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
@@ -22998,7 +23089,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="90"/>
+      <c r="A38" s="96"/>
       <c r="B38" s="2" t="s">
         <v>45</v>
       </c>
@@ -23010,7 +23101,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="94" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -23024,7 +23115,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="89"/>
+      <c r="A40" s="95"/>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
@@ -23036,7 +23127,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="89"/>
+      <c r="A41" s="95"/>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
@@ -23048,7 +23139,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="89"/>
+      <c r="A42" s="95"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
@@ -23060,7 +23151,7 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="89"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
@@ -23072,7 +23163,7 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="89"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
@@ -23084,7 +23175,7 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="89"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
@@ -23096,7 +23187,7 @@
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="89"/>
+      <c r="A46" s="95"/>
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
@@ -23108,7 +23199,7 @@
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="89"/>
+      <c r="A47" s="95"/>
       <c r="B47" s="2" t="s">
         <v>20</v>
       </c>
@@ -23120,7 +23211,7 @@
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="89"/>
+      <c r="A48" s="95"/>
       <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
@@ -23132,7 +23223,7 @@
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="89"/>
+      <c r="A49" s="95"/>
       <c r="B49" s="2" t="s">
         <v>22</v>
       </c>
@@ -23144,7 +23235,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="89"/>
+      <c r="A50" s="95"/>
       <c r="B50" s="2" t="s">
         <v>23</v>
       </c>
@@ -23156,7 +23247,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="89"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="2" t="s">
         <v>24</v>
       </c>
@@ -23168,7 +23259,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="89"/>
+      <c r="A52" s="95"/>
       <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
@@ -23180,7 +23271,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="89"/>
+      <c r="A53" s="95"/>
       <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
@@ -23192,7 +23283,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="89"/>
+      <c r="A54" s="95"/>
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
@@ -23204,7 +23295,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="89"/>
+      <c r="A55" s="95"/>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
@@ -23216,7 +23307,7 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="89"/>
+      <c r="A56" s="95"/>
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
@@ -23228,7 +23319,7 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="89"/>
+      <c r="A57" s="95"/>
       <c r="B57" s="2" t="s">
         <v>29</v>
       </c>
@@ -23240,7 +23331,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="89"/>
+      <c r="A58" s="95"/>
       <c r="B58" s="2" t="s">
         <v>30</v>
       </c>
@@ -23252,7 +23343,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="89"/>
+      <c r="A59" s="95"/>
       <c r="B59" s="2" t="s">
         <v>31</v>
       </c>
@@ -23264,7 +23355,7 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="89"/>
+      <c r="A60" s="95"/>
       <c r="B60" s="2" t="s">
         <v>32</v>
       </c>
@@ -23276,7 +23367,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="89"/>
+      <c r="A61" s="95"/>
       <c r="B61" s="2" t="s">
         <v>33</v>
       </c>
@@ -23288,7 +23379,7 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="89"/>
+      <c r="A62" s="95"/>
       <c r="B62" s="2" t="s">
         <v>34</v>
       </c>
@@ -23300,7 +23391,7 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="89"/>
+      <c r="A63" s="95"/>
       <c r="B63" s="2" t="s">
         <v>35</v>
       </c>
@@ -23312,7 +23403,7 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="89"/>
+      <c r="A64" s="95"/>
       <c r="B64" s="2" t="s">
         <v>36</v>
       </c>
@@ -23324,7 +23415,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="89"/>
+      <c r="A65" s="95"/>
       <c r="B65" s="2" t="s">
         <v>37</v>
       </c>
@@ -23336,7 +23427,7 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="89"/>
+      <c r="A66" s="95"/>
       <c r="B66" s="2" t="s">
         <v>38</v>
       </c>
@@ -23348,7 +23439,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="89"/>
+      <c r="A67" s="95"/>
       <c r="B67" s="2" t="s">
         <v>39</v>
       </c>
@@ -23360,7 +23451,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="89"/>
+      <c r="A68" s="95"/>
       <c r="B68" s="2" t="s">
         <v>40</v>
       </c>
@@ -23372,7 +23463,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="89"/>
+      <c r="A69" s="95"/>
       <c r="B69" s="2" t="s">
         <v>41</v>
       </c>
@@ -23384,7 +23475,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="89"/>
+      <c r="A70" s="95"/>
       <c r="B70" s="2" t="s">
         <v>42</v>
       </c>
@@ -23396,7 +23487,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="89"/>
+      <c r="A71" s="95"/>
       <c r="B71" s="2" t="s">
         <v>43</v>
       </c>
@@ -23408,7 +23499,7 @@
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="89"/>
+      <c r="A72" s="95"/>
       <c r="B72" s="2" t="s">
         <v>44</v>
       </c>
@@ -23420,7 +23511,7 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="89"/>
+      <c r="A73" s="95"/>
       <c r="B73" s="2" t="s">
         <v>4</v>
       </c>
@@ -23432,7 +23523,7 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="90"/>
+      <c r="A74" s="96"/>
       <c r="B74" s="2" t="s">
         <v>45</v>
       </c>
@@ -23444,7 +23535,7 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="88" t="s">
+      <c r="A75" s="94" t="s">
         <v>48</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -23458,7 +23549,7 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="89"/>
+      <c r="A76" s="95"/>
       <c r="B76" s="2" t="s">
         <v>14</v>
       </c>
@@ -23470,7 +23561,7 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="89"/>
+      <c r="A77" s="95"/>
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
@@ -23482,7 +23573,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="89"/>
+      <c r="A78" s="95"/>
       <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
@@ -23494,7 +23585,7 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="89"/>
+      <c r="A79" s="95"/>
       <c r="B79" s="2" t="s">
         <v>2</v>
       </c>
@@ -23506,7 +23597,7 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="89"/>
+      <c r="A80" s="95"/>
       <c r="B80" s="2" t="s">
         <v>17</v>
       </c>
@@ -23518,7 +23609,7 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="89"/>
+      <c r="A81" s="95"/>
       <c r="B81" s="2" t="s">
         <v>18</v>
       </c>
@@ -23530,7 +23621,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="89"/>
+      <c r="A82" s="95"/>
       <c r="B82" s="2" t="s">
         <v>19</v>
       </c>
@@ -23542,7 +23633,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="89"/>
+      <c r="A83" s="95"/>
       <c r="B83" s="2" t="s">
         <v>20</v>
       </c>
@@ -23554,7 +23645,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="89"/>
+      <c r="A84" s="95"/>
       <c r="B84" s="2" t="s">
         <v>21</v>
       </c>
@@ -23566,7 +23657,7 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="89"/>
+      <c r="A85" s="95"/>
       <c r="B85" s="2" t="s">
         <v>22</v>
       </c>
@@ -23578,7 +23669,7 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="89"/>
+      <c r="A86" s="95"/>
       <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
@@ -23590,7 +23681,7 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="89"/>
+      <c r="A87" s="95"/>
       <c r="B87" s="2" t="s">
         <v>24</v>
       </c>
@@ -23602,7 +23693,7 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="89"/>
+      <c r="A88" s="95"/>
       <c r="B88" s="2" t="s">
         <v>25</v>
       </c>
@@ -23614,7 +23705,7 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="89"/>
+      <c r="A89" s="95"/>
       <c r="B89" s="2" t="s">
         <v>26</v>
       </c>
@@ -23626,7 +23717,7 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="89"/>
+      <c r="A90" s="95"/>
       <c r="B90" s="2" t="s">
         <v>27</v>
       </c>
@@ -23638,7 +23729,7 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="89"/>
+      <c r="A91" s="95"/>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
@@ -23650,7 +23741,7 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="89"/>
+      <c r="A92" s="95"/>
       <c r="B92" s="2" t="s">
         <v>28</v>
       </c>
@@ -23662,7 +23753,7 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="89"/>
+      <c r="A93" s="95"/>
       <c r="B93" s="2" t="s">
         <v>29</v>
       </c>
@@ -23674,7 +23765,7 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="89"/>
+      <c r="A94" s="95"/>
       <c r="B94" s="2" t="s">
         <v>30</v>
       </c>
@@ -23686,7 +23777,7 @@
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="89"/>
+      <c r="A95" s="95"/>
       <c r="B95" s="2" t="s">
         <v>31</v>
       </c>
@@ -23698,7 +23789,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="89"/>
+      <c r="A96" s="95"/>
       <c r="B96" s="2" t="s">
         <v>32</v>
       </c>
@@ -23710,7 +23801,7 @@
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="89"/>
+      <c r="A97" s="95"/>
       <c r="B97" s="2" t="s">
         <v>33</v>
       </c>
@@ -23722,7 +23813,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="89"/>
+      <c r="A98" s="95"/>
       <c r="B98" s="2" t="s">
         <v>34</v>
       </c>
@@ -23734,7 +23825,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="89"/>
+      <c r="A99" s="95"/>
       <c r="B99" s="2" t="s">
         <v>35</v>
       </c>
@@ -23746,7 +23837,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="89"/>
+      <c r="A100" s="95"/>
       <c r="B100" s="2" t="s">
         <v>36</v>
       </c>
@@ -23758,7 +23849,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="89"/>
+      <c r="A101" s="95"/>
       <c r="B101" s="2" t="s">
         <v>37</v>
       </c>
@@ -23770,7 +23861,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="89"/>
+      <c r="A102" s="95"/>
       <c r="B102" s="2" t="s">
         <v>38</v>
       </c>
@@ -23782,7 +23873,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="89"/>
+      <c r="A103" s="95"/>
       <c r="B103" s="2" t="s">
         <v>39</v>
       </c>
@@ -23794,7 +23885,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="89"/>
+      <c r="A104" s="95"/>
       <c r="B104" s="2" t="s">
         <v>40</v>
       </c>
@@ -23806,7 +23897,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="89"/>
+      <c r="A105" s="95"/>
       <c r="B105" s="2" t="s">
         <v>41</v>
       </c>
@@ -23818,7 +23909,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="89"/>
+      <c r="A106" s="95"/>
       <c r="B106" s="2" t="s">
         <v>42</v>
       </c>
@@ -23830,7 +23921,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="89"/>
+      <c r="A107" s="95"/>
       <c r="B107" s="2" t="s">
         <v>43</v>
       </c>
@@ -23842,7 +23933,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="89"/>
+      <c r="A108" s="95"/>
       <c r="B108" s="2" t="s">
         <v>44</v>
       </c>
@@ -23854,7 +23945,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="89"/>
+      <c r="A109" s="95"/>
       <c r="B109" s="2" t="s">
         <v>4</v>
       </c>
@@ -23866,7 +23957,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="90"/>
+      <c r="A110" s="96"/>
       <c r="B110" s="2" t="s">
         <v>45</v>
       </c>
@@ -23878,7 +23969,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="88" t="s">
+      <c r="A111" s="94" t="s">
         <v>49</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -23892,7 +23983,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="89"/>
+      <c r="A112" s="95"/>
       <c r="B112" s="2" t="s">
         <v>14</v>
       </c>
@@ -23904,7 +23995,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="89"/>
+      <c r="A113" s="95"/>
       <c r="B113" s="2" t="s">
         <v>15</v>
       </c>
@@ -23916,7 +24007,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="89"/>
+      <c r="A114" s="95"/>
       <c r="B114" s="2" t="s">
         <v>16</v>
       </c>
@@ -23928,7 +24019,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="89"/>
+      <c r="A115" s="95"/>
       <c r="B115" s="2" t="s">
         <v>2</v>
       </c>
@@ -23940,7 +24031,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="89"/>
+      <c r="A116" s="95"/>
       <c r="B116" s="2" t="s">
         <v>17</v>
       </c>
@@ -23952,7 +24043,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="89"/>
+      <c r="A117" s="95"/>
       <c r="B117" s="2" t="s">
         <v>18</v>
       </c>
@@ -23964,7 +24055,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="89"/>
+      <c r="A118" s="95"/>
       <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
@@ -23976,7 +24067,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="89"/>
+      <c r="A119" s="95"/>
       <c r="B119" s="2" t="s">
         <v>20</v>
       </c>
@@ -23988,7 +24079,7 @@
       <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="89"/>
+      <c r="A120" s="95"/>
       <c r="B120" s="2" t="s">
         <v>21</v>
       </c>
@@ -24000,7 +24091,7 @@
       <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="89"/>
+      <c r="A121" s="95"/>
       <c r="B121" s="2" t="s">
         <v>22</v>
       </c>
@@ -24012,7 +24103,7 @@
       <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="89"/>
+      <c r="A122" s="95"/>
       <c r="B122" s="2" t="s">
         <v>23</v>
       </c>
@@ -24024,7 +24115,7 @@
       <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="89"/>
+      <c r="A123" s="95"/>
       <c r="B123" s="2" t="s">
         <v>24</v>
       </c>
@@ -24036,7 +24127,7 @@
       <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="89"/>
+      <c r="A124" s="95"/>
       <c r="B124" s="2" t="s">
         <v>25</v>
       </c>
@@ -24048,7 +24139,7 @@
       <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="89"/>
+      <c r="A125" s="95"/>
       <c r="B125" s="2" t="s">
         <v>26</v>
       </c>
@@ -24060,7 +24151,7 @@
       <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="89"/>
+      <c r="A126" s="95"/>
       <c r="B126" s="2" t="s">
         <v>27</v>
       </c>
@@ -24072,7 +24163,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="89"/>
+      <c r="A127" s="95"/>
       <c r="B127" s="2" t="s">
         <v>3</v>
       </c>
@@ -24084,7 +24175,7 @@
       <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="89"/>
+      <c r="A128" s="95"/>
       <c r="B128" s="2" t="s">
         <v>28</v>
       </c>
@@ -24096,7 +24187,7 @@
       <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="89"/>
+      <c r="A129" s="95"/>
       <c r="B129" s="2" t="s">
         <v>29</v>
       </c>
@@ -24108,7 +24199,7 @@
       <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="89"/>
+      <c r="A130" s="95"/>
       <c r="B130" s="2" t="s">
         <v>30</v>
       </c>
@@ -24120,7 +24211,7 @@
       <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="89"/>
+      <c r="A131" s="95"/>
       <c r="B131" s="2" t="s">
         <v>31</v>
       </c>
@@ -24132,7 +24223,7 @@
       <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="89"/>
+      <c r="A132" s="95"/>
       <c r="B132" s="2" t="s">
         <v>32</v>
       </c>
@@ -24144,7 +24235,7 @@
       <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="89"/>
+      <c r="A133" s="95"/>
       <c r="B133" s="2" t="s">
         <v>33</v>
       </c>
@@ -24156,7 +24247,7 @@
       <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="89"/>
+      <c r="A134" s="95"/>
       <c r="B134" s="2" t="s">
         <v>34</v>
       </c>
@@ -24168,7 +24259,7 @@
       <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="89"/>
+      <c r="A135" s="95"/>
       <c r="B135" s="2" t="s">
         <v>35</v>
       </c>
@@ -24180,7 +24271,7 @@
       <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="89"/>
+      <c r="A136" s="95"/>
       <c r="B136" s="2" t="s">
         <v>36</v>
       </c>
@@ -24192,7 +24283,7 @@
       <c r="H136" s="1"/>
     </row>
     <row r="137" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="89"/>
+      <c r="A137" s="95"/>
       <c r="B137" s="2" t="s">
         <v>37</v>
       </c>
@@ -24204,7 +24295,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="89"/>
+      <c r="A138" s="95"/>
       <c r="B138" s="2" t="s">
         <v>38</v>
       </c>
@@ -24216,7 +24307,7 @@
       <c r="H138" s="1"/>
     </row>
     <row r="139" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="89"/>
+      <c r="A139" s="95"/>
       <c r="B139" s="2" t="s">
         <v>39</v>
       </c>
@@ -24228,7 +24319,7 @@
       <c r="H139" s="1"/>
     </row>
     <row r="140" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="89"/>
+      <c r="A140" s="95"/>
       <c r="B140" s="2" t="s">
         <v>40</v>
       </c>
@@ -24240,7 +24331,7 @@
       <c r="H140" s="1"/>
     </row>
     <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="89"/>
+      <c r="A141" s="95"/>
       <c r="B141" s="2" t="s">
         <v>41</v>
       </c>
@@ -24252,7 +24343,7 @@
       <c r="H141" s="1"/>
     </row>
     <row r="142" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="89"/>
+      <c r="A142" s="95"/>
       <c r="B142" s="2" t="s">
         <v>42</v>
       </c>
@@ -24264,7 +24355,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="89"/>
+      <c r="A143" s="95"/>
       <c r="B143" s="2" t="s">
         <v>43</v>
       </c>
@@ -24276,7 +24367,7 @@
       <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="89"/>
+      <c r="A144" s="95"/>
       <c r="B144" s="2" t="s">
         <v>44</v>
       </c>
@@ -24288,7 +24379,7 @@
       <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="89"/>
+      <c r="A145" s="95"/>
       <c r="B145" s="2" t="s">
         <v>4</v>
       </c>
@@ -24300,7 +24391,7 @@
       <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="90"/>
+      <c r="A146" s="96"/>
       <c r="B146" s="2" t="s">
         <v>45</v>
       </c>
@@ -24313,24 +24404,24 @@
     </row>
     <row r="151" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="152" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="88" t="s">
+      <c r="A152" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C152" s="96" t="s">
+      <c r="B152" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D152" s="97"/>
-      <c r="E152" s="97"/>
-      <c r="F152" s="97"/>
-      <c r="G152" s="97"/>
-      <c r="H152" s="98"/>
+      <c r="D152" s="100"/>
+      <c r="E152" s="100"/>
+      <c r="F152" s="100"/>
+      <c r="G152" s="100"/>
+      <c r="H152" s="101"/>
     </row>
     <row r="153" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="90"/>
-      <c r="B153" s="95"/>
+      <c r="A153" s="96"/>
+      <c r="B153" s="98"/>
       <c r="C153" s="1" t="s">
         <v>7</v>
       </c>
@@ -24351,7 +24442,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="88" t="s">
+      <c r="A154" s="94" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -24365,7 +24456,7 @@
       <c r="H154" s="4"/>
     </row>
     <row r="155" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="89"/>
+      <c r="A155" s="95"/>
       <c r="B155" s="2" t="s">
         <v>14</v>
       </c>
@@ -24377,7 +24468,7 @@
       <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="89"/>
+      <c r="A156" s="95"/>
       <c r="B156" s="2" t="s">
         <v>15</v>
       </c>
@@ -24389,7 +24480,7 @@
       <c r="H156" s="4"/>
     </row>
     <row r="157" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="89"/>
+      <c r="A157" s="95"/>
       <c r="B157" s="2" t="s">
         <v>16</v>
       </c>
@@ -24401,7 +24492,7 @@
       <c r="H157" s="4"/>
     </row>
     <row r="158" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="89"/>
+      <c r="A158" s="95"/>
       <c r="B158" s="2" t="s">
         <v>2</v>
       </c>
@@ -24413,7 +24504,7 @@
       <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="89"/>
+      <c r="A159" s="95"/>
       <c r="B159" s="2" t="s">
         <v>17</v>
       </c>
@@ -24425,7 +24516,7 @@
       <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="89"/>
+      <c r="A160" s="95"/>
       <c r="B160" s="2" t="s">
         <v>18</v>
       </c>
@@ -24437,7 +24528,7 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="89"/>
+      <c r="A161" s="95"/>
       <c r="B161" s="2" t="s">
         <v>19</v>
       </c>
@@ -24449,7 +24540,7 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="89"/>
+      <c r="A162" s="95"/>
       <c r="B162" s="2" t="s">
         <v>20</v>
       </c>
@@ -24461,7 +24552,7 @@
       <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="89"/>
+      <c r="A163" s="95"/>
       <c r="B163" s="2" t="s">
         <v>21</v>
       </c>
@@ -24473,7 +24564,7 @@
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="89"/>
+      <c r="A164" s="95"/>
       <c r="B164" s="2" t="s">
         <v>22</v>
       </c>
@@ -24485,7 +24576,7 @@
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="89"/>
+      <c r="A165" s="95"/>
       <c r="B165" s="2" t="s">
         <v>23</v>
       </c>
@@ -24497,7 +24588,7 @@
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="89"/>
+      <c r="A166" s="95"/>
       <c r="B166" s="2" t="s">
         <v>24</v>
       </c>
@@ -24509,7 +24600,7 @@
       <c r="H166" s="4"/>
     </row>
     <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="89"/>
+      <c r="A167" s="95"/>
       <c r="B167" s="2" t="s">
         <v>25</v>
       </c>
@@ -24521,7 +24612,7 @@
       <c r="H167" s="4"/>
     </row>
     <row r="168" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="90"/>
+      <c r="A168" s="96"/>
       <c r="B168" s="5" t="s">
         <v>50</v>
       </c>
@@ -24533,7 +24624,7 @@
       <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="88" t="s">
+      <c r="A169" s="94" t="s">
         <v>46</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -24547,7 +24638,7 @@
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="89"/>
+      <c r="A170" s="95"/>
       <c r="B170" s="2" t="s">
         <v>14</v>
       </c>
@@ -24559,7 +24650,7 @@
       <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="89"/>
+      <c r="A171" s="95"/>
       <c r="B171" s="2" t="s">
         <v>15</v>
       </c>
@@ -24571,7 +24662,7 @@
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="89"/>
+      <c r="A172" s="95"/>
       <c r="B172" s="2" t="s">
         <v>16</v>
       </c>
@@ -24583,7 +24674,7 @@
       <c r="H172" s="4"/>
     </row>
     <row r="173" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="89"/>
+      <c r="A173" s="95"/>
       <c r="B173" s="2" t="s">
         <v>2</v>
       </c>
@@ -24595,7 +24686,7 @@
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="89"/>
+      <c r="A174" s="95"/>
       <c r="B174" s="2" t="s">
         <v>17</v>
       </c>
@@ -24607,7 +24698,7 @@
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="89"/>
+      <c r="A175" s="95"/>
       <c r="B175" s="2" t="s">
         <v>18</v>
       </c>
@@ -24619,7 +24710,7 @@
       <c r="H175" s="4"/>
     </row>
     <row r="176" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="89"/>
+      <c r="A176" s="95"/>
       <c r="B176" s="2" t="s">
         <v>19</v>
       </c>
@@ -24631,7 +24722,7 @@
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="89"/>
+      <c r="A177" s="95"/>
       <c r="B177" s="2" t="s">
         <v>20</v>
       </c>
@@ -24643,7 +24734,7 @@
       <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="89"/>
+      <c r="A178" s="95"/>
       <c r="B178" s="2" t="s">
         <v>21</v>
       </c>
@@ -24655,7 +24746,7 @@
       <c r="H178" s="4"/>
     </row>
     <row r="179" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="89"/>
+      <c r="A179" s="95"/>
       <c r="B179" s="2" t="s">
         <v>22</v>
       </c>
@@ -24667,7 +24758,7 @@
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="89"/>
+      <c r="A180" s="95"/>
       <c r="B180" s="2" t="s">
         <v>23</v>
       </c>
@@ -24679,7 +24770,7 @@
       <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="89"/>
+      <c r="A181" s="95"/>
       <c r="B181" s="2" t="s">
         <v>24</v>
       </c>
@@ -24691,7 +24782,7 @@
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="89"/>
+      <c r="A182" s="95"/>
       <c r="B182" s="2" t="s">
         <v>25</v>
       </c>
@@ -24703,7 +24794,7 @@
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="90"/>
+      <c r="A183" s="96"/>
       <c r="B183" s="5" t="s">
         <v>50</v>
       </c>
@@ -24715,7 +24806,7 @@
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="88" t="s">
+      <c r="A184" s="94" t="s">
         <v>51</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -24729,7 +24820,7 @@
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="89"/>
+      <c r="A185" s="95"/>
       <c r="B185" s="2" t="s">
         <v>14</v>
       </c>
@@ -24741,7 +24832,7 @@
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="89"/>
+      <c r="A186" s="95"/>
       <c r="B186" s="2" t="s">
         <v>15</v>
       </c>
@@ -24753,7 +24844,7 @@
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="89"/>
+      <c r="A187" s="95"/>
       <c r="B187" s="2" t="s">
         <v>16</v>
       </c>
@@ -24765,7 +24856,7 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="89"/>
+      <c r="A188" s="95"/>
       <c r="B188" s="2" t="s">
         <v>2</v>
       </c>
@@ -24777,7 +24868,7 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="89"/>
+      <c r="A189" s="95"/>
       <c r="B189" s="2" t="s">
         <v>17</v>
       </c>
@@ -24789,7 +24880,7 @@
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="89"/>
+      <c r="A190" s="95"/>
       <c r="B190" s="2" t="s">
         <v>18</v>
       </c>
@@ -24801,7 +24892,7 @@
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="89"/>
+      <c r="A191" s="95"/>
       <c r="B191" s="2" t="s">
         <v>19</v>
       </c>
@@ -24813,7 +24904,7 @@
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="89"/>
+      <c r="A192" s="95"/>
       <c r="B192" s="2" t="s">
         <v>20</v>
       </c>
@@ -24825,7 +24916,7 @@
       <c r="H192" s="4"/>
     </row>
     <row r="193" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="89"/>
+      <c r="A193" s="95"/>
       <c r="B193" s="2" t="s">
         <v>21</v>
       </c>
@@ -24837,7 +24928,7 @@
       <c r="H193" s="4"/>
     </row>
     <row r="194" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="89"/>
+      <c r="A194" s="95"/>
       <c r="B194" s="2" t="s">
         <v>22</v>
       </c>
@@ -24849,7 +24940,7 @@
       <c r="H194" s="4"/>
     </row>
     <row r="195" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="89"/>
+      <c r="A195" s="95"/>
       <c r="B195" s="2" t="s">
         <v>23</v>
       </c>
@@ -24861,7 +24952,7 @@
       <c r="H195" s="4"/>
     </row>
     <row r="196" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="89"/>
+      <c r="A196" s="95"/>
       <c r="B196" s="2" t="s">
         <v>24</v>
       </c>
@@ -24873,7 +24964,7 @@
       <c r="H196" s="4"/>
     </row>
     <row r="197" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="89"/>
+      <c r="A197" s="95"/>
       <c r="B197" s="2" t="s">
         <v>25</v>
       </c>
@@ -24885,7 +24976,7 @@
       <c r="H197" s="4"/>
     </row>
     <row r="198" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="90"/>
+      <c r="A198" s="96"/>
       <c r="B198" s="5" t="s">
         <v>50</v>
       </c>
@@ -24897,7 +24988,7 @@
       <c r="H198" s="4"/>
     </row>
     <row r="199" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="88" t="s">
+      <c r="A199" s="94" t="s">
         <v>52</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -24911,7 +25002,7 @@
       <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="89"/>
+      <c r="A200" s="95"/>
       <c r="B200" s="2" t="s">
         <v>14</v>
       </c>
@@ -24923,7 +25014,7 @@
       <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="89"/>
+      <c r="A201" s="95"/>
       <c r="B201" s="2" t="s">
         <v>15</v>
       </c>
@@ -24935,7 +25026,7 @@
       <c r="H201" s="4"/>
     </row>
     <row r="202" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="89"/>
+      <c r="A202" s="95"/>
       <c r="B202" s="2" t="s">
         <v>16</v>
       </c>
@@ -24947,7 +25038,7 @@
       <c r="H202" s="4"/>
     </row>
     <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="89"/>
+      <c r="A203" s="95"/>
       <c r="B203" s="2" t="s">
         <v>2</v>
       </c>
@@ -24959,7 +25050,7 @@
       <c r="H203" s="4"/>
     </row>
     <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="89"/>
+      <c r="A204" s="95"/>
       <c r="B204" s="2" t="s">
         <v>17</v>
       </c>
@@ -24971,7 +25062,7 @@
       <c r="H204" s="4"/>
     </row>
     <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="89"/>
+      <c r="A205" s="95"/>
       <c r="B205" s="2" t="s">
         <v>18</v>
       </c>
@@ -24983,7 +25074,7 @@
       <c r="H205" s="4"/>
     </row>
     <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="89"/>
+      <c r="A206" s="95"/>
       <c r="B206" s="2" t="s">
         <v>19</v>
       </c>
@@ -24995,7 +25086,7 @@
       <c r="H206" s="4"/>
     </row>
     <row r="207" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="89"/>
+      <c r="A207" s="95"/>
       <c r="B207" s="2" t="s">
         <v>20</v>
       </c>
@@ -25007,7 +25098,7 @@
       <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="89"/>
+      <c r="A208" s="95"/>
       <c r="B208" s="2" t="s">
         <v>21</v>
       </c>
@@ -25019,7 +25110,7 @@
       <c r="H208" s="4"/>
     </row>
     <row r="209" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="89"/>
+      <c r="A209" s="95"/>
       <c r="B209" s="2" t="s">
         <v>22</v>
       </c>
@@ -25031,7 +25122,7 @@
       <c r="H209" s="4"/>
     </row>
     <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="89"/>
+      <c r="A210" s="95"/>
       <c r="B210" s="2" t="s">
         <v>23</v>
       </c>
@@ -25043,7 +25134,7 @@
       <c r="H210" s="4"/>
     </row>
     <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="89"/>
+      <c r="A211" s="95"/>
       <c r="B211" s="2" t="s">
         <v>24</v>
       </c>
@@ -25055,7 +25146,7 @@
       <c r="H211" s="4"/>
     </row>
     <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="89"/>
+      <c r="A212" s="95"/>
       <c r="B212" s="2" t="s">
         <v>25</v>
       </c>
@@ -25067,7 +25158,7 @@
       <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="90"/>
+      <c r="A213" s="96"/>
       <c r="B213" s="5" t="s">
         <v>50</v>
       </c>
@@ -25080,6 +25171,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A184:A198"/>
+    <mergeCell ref="A199:A213"/>
+    <mergeCell ref="A111:A146"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
     <mergeCell ref="C152:H152"/>
     <mergeCell ref="A154:A168"/>
     <mergeCell ref="A169:A183"/>
@@ -25089,11 +25185,6 @@
     <mergeCell ref="A3:A38"/>
     <mergeCell ref="A39:A74"/>
     <mergeCell ref="A75:A110"/>
-    <mergeCell ref="A184:A198"/>
-    <mergeCell ref="A199:A213"/>
-    <mergeCell ref="A111:A146"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
